--- a/JavaApplication19/src/excel/Inventario.xlsx
+++ b/JavaApplication19/src/excel/Inventario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Google Drive\EPIC MOUNTAIN\ADMINISTRACIÒN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7949FA5B-8FAC-4161-9641-01DB4212266D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F22424E-5905-46EC-905C-3E3494C5A4A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTARIO" sheetId="1" r:id="rId1"/>
@@ -514,7 +514,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Salida" xfId="1" builtinId="21"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -591,7 +591,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -920,14 +920,14 @@
       <selection pane="bottomRight" activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="50.7109375" customWidth="1"/>
-    <col min="3" max="23" width="15.7109375" customWidth="1"/>
-    <col min="24" max="29" width="10.7109375" customWidth="1"/>
+    <col min="1" max="2" width="50.6640625" customWidth="1"/>
+    <col min="3" max="23" width="15.6640625" customWidth="1"/>
+    <col min="24" max="29" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>87</v>
       </c>
@@ -1018,66 +1018,66 @@
         <v>200</v>
       </c>
       <c r="I2" s="6">
-        <f>H2*G2</f>
+        <f t="shared" ref="I2:I35" si="0">H2*G2</f>
         <v>200</v>
       </c>
       <c r="J2" s="6">
         <v>200</v>
       </c>
       <c r="K2" s="6">
-        <f>J2*G2</f>
+        <f t="shared" ref="K2:K35" si="1">J2*G2</f>
         <v>200</v>
       </c>
       <c r="L2" s="6">
-        <f>J2+R2</f>
+        <f t="shared" ref="L2:L35" si="2">J2+R2</f>
         <v>232</v>
       </c>
       <c r="M2" s="6">
-        <f>L2*G2</f>
+        <f t="shared" ref="M2:M35" si="3">L2*G2</f>
         <v>232</v>
       </c>
       <c r="N2" s="6">
-        <f>J2+R2+P2+35</f>
+        <f t="shared" ref="N2:N35" si="4">J2+R2+P2+35</f>
         <v>306.8</v>
       </c>
       <c r="O2" s="6">
-        <f>N2*G2</f>
+        <f t="shared" ref="O2:O35" si="5">N2*G2</f>
         <v>306.8</v>
       </c>
       <c r="P2" s="6">
-        <f>(L2*0.15)+5</f>
+        <f t="shared" ref="P2:P35" si="6">(L2*0.15)+5</f>
         <v>39.799999999999997</v>
       </c>
       <c r="Q2" s="6">
-        <f>P2*G2</f>
+        <f t="shared" ref="Q2:Q35" si="7">P2*G2</f>
         <v>39.799999999999997</v>
       </c>
       <c r="R2" s="6">
-        <f>J2*0.16</f>
+        <f t="shared" ref="R2:R35" si="8">J2*0.16</f>
         <v>32</v>
       </c>
       <c r="S2" s="6">
-        <f>R2*G2</f>
+        <f t="shared" ref="S2:S35" si="9">R2*G2</f>
         <v>32</v>
       </c>
       <c r="T2" s="6">
-        <f>L2-H2-R2</f>
+        <f t="shared" ref="T2:T35" si="10">L2-H2-R2</f>
         <v>0</v>
       </c>
       <c r="U2" s="6">
-        <f>T2*G2</f>
+        <f t="shared" ref="U2:U35" si="11">T2*G2</f>
         <v>0</v>
       </c>
       <c r="V2" s="6">
-        <f>N2-H2-P2-R2-35</f>
+        <f t="shared" ref="V2:V35" si="12">N2-H2-P2-R2-35</f>
         <v>0</v>
       </c>
       <c r="W2" s="7">
-        <f>V2*G2</f>
+        <f t="shared" ref="W2:W35" si="13">V2*G2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
@@ -1099,66 +1099,66 @@
         <v>380</v>
       </c>
       <c r="I3" s="6">
-        <f>H3*G3</f>
+        <f t="shared" si="0"/>
         <v>380</v>
       </c>
       <c r="J3" s="6">
         <v>380</v>
       </c>
       <c r="K3" s="6">
-        <f>J3*G3</f>
+        <f t="shared" si="1"/>
         <v>380</v>
       </c>
       <c r="L3" s="6">
-        <f>J3+R3</f>
+        <f t="shared" si="2"/>
         <v>440.8</v>
       </c>
       <c r="M3" s="6">
-        <f>L3*G3</f>
+        <f t="shared" si="3"/>
         <v>440.8</v>
       </c>
       <c r="N3" s="6">
-        <f>J3+R3+P3+35</f>
+        <f t="shared" si="4"/>
         <v>546.92000000000007</v>
       </c>
       <c r="O3" s="6">
-        <f>N3*G3</f>
+        <f t="shared" si="5"/>
         <v>546.92000000000007</v>
       </c>
       <c r="P3" s="6">
-        <f>(L3*0.15)+5</f>
+        <f t="shared" si="6"/>
         <v>71.12</v>
       </c>
       <c r="Q3" s="6">
-        <f>P3*G3</f>
+        <f t="shared" si="7"/>
         <v>71.12</v>
       </c>
       <c r="R3" s="6">
-        <f>J3*0.16</f>
+        <f t="shared" si="8"/>
         <v>60.800000000000004</v>
       </c>
       <c r="S3" s="6">
-        <f>R3*G3</f>
+        <f t="shared" si="9"/>
         <v>60.800000000000004</v>
       </c>
       <c r="T3" s="6">
-        <f>L3-H3-R3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U3" s="6">
-        <f>T3*G3</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V3" s="6">
-        <f>N3-H3-P3-R3-35</f>
+        <f t="shared" si="12"/>
         <v>6.3948846218409017E-14</v>
       </c>
       <c r="W3" s="7">
-        <f>V3*G3</f>
+        <f t="shared" si="13"/>
         <v>6.3948846218409017E-14</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
@@ -1180,66 +1180,66 @@
         <v>280</v>
       </c>
       <c r="I4" s="6">
-        <f>H4*G4</f>
+        <f t="shared" si="0"/>
         <v>280</v>
       </c>
       <c r="J4" s="6">
         <v>280</v>
       </c>
       <c r="K4" s="6">
-        <f>J4*G4</f>
+        <f t="shared" si="1"/>
         <v>280</v>
       </c>
       <c r="L4" s="6">
-        <f>J4+R4</f>
+        <f t="shared" si="2"/>
         <v>324.8</v>
       </c>
       <c r="M4" s="6">
-        <f>L4*G4</f>
+        <f t="shared" si="3"/>
         <v>324.8</v>
       </c>
       <c r="N4" s="6">
-        <f>J4+R4+P4+35</f>
+        <f t="shared" si="4"/>
         <v>413.52</v>
       </c>
       <c r="O4" s="6">
-        <f>N4*G4</f>
+        <f t="shared" si="5"/>
         <v>413.52</v>
       </c>
       <c r="P4" s="6">
-        <f>(L4*0.15)+5</f>
+        <f t="shared" si="6"/>
         <v>53.72</v>
       </c>
       <c r="Q4" s="6">
-        <f>P4*G4</f>
+        <f t="shared" si="7"/>
         <v>53.72</v>
       </c>
       <c r="R4" s="6">
-        <f>J4*0.16</f>
+        <f t="shared" si="8"/>
         <v>44.800000000000004</v>
       </c>
       <c r="S4" s="6">
-        <f>R4*G4</f>
+        <f t="shared" si="9"/>
         <v>44.800000000000004</v>
       </c>
       <c r="T4" s="6">
-        <f>L4-H4-R4</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U4" s="6">
-        <f>T4*G4</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V4" s="6">
-        <f>N4-H4-P4-R4-35</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W4" s="7">
-        <f>V4*G4</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>28</v>
       </c>
@@ -1261,66 +1261,66 @@
         <v>4091.59</v>
       </c>
       <c r="I5" s="6">
-        <f>H5*G5</f>
+        <f t="shared" si="0"/>
         <v>4091.59</v>
       </c>
       <c r="J5" s="6">
         <v>5600</v>
       </c>
       <c r="K5" s="6">
-        <f>J5*G5</f>
+        <f t="shared" si="1"/>
         <v>5600</v>
       </c>
       <c r="L5" s="6">
-        <f>J5+R5</f>
+        <f t="shared" si="2"/>
         <v>6496</v>
       </c>
       <c r="M5" s="6">
-        <f>L5*G5</f>
+        <f t="shared" si="3"/>
         <v>6496</v>
       </c>
       <c r="N5" s="6">
-        <f>J5+R5+P5+35</f>
+        <f t="shared" si="4"/>
         <v>7510.4</v>
       </c>
       <c r="O5" s="6">
-        <f>N5*G5</f>
+        <f t="shared" si="5"/>
         <v>7510.4</v>
       </c>
       <c r="P5" s="6">
-        <f>(L5*0.15)+5</f>
+        <f t="shared" si="6"/>
         <v>979.4</v>
       </c>
       <c r="Q5" s="6">
-        <f>P5*G5</f>
+        <f t="shared" si="7"/>
         <v>979.4</v>
       </c>
       <c r="R5" s="6">
-        <f>J5*0.16</f>
+        <f t="shared" si="8"/>
         <v>896</v>
       </c>
       <c r="S5" s="6">
-        <f>R5*G5</f>
+        <f t="shared" si="9"/>
         <v>896</v>
       </c>
       <c r="T5" s="6">
-        <f>L5-H5-R5</f>
+        <f t="shared" si="10"/>
         <v>1508.4099999999999</v>
       </c>
       <c r="U5" s="6">
-        <f>T5*G5</f>
+        <f t="shared" si="11"/>
         <v>1508.4099999999999</v>
       </c>
       <c r="V5" s="6">
-        <f>N5-H5-P5-R5-35</f>
+        <f t="shared" si="12"/>
         <v>1508.4099999999994</v>
       </c>
       <c r="W5" s="7">
-        <f>V5*G5</f>
+        <f t="shared" si="13"/>
         <v>1508.4099999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>91</v>
       </c>
@@ -1342,66 +1342,66 @@
         <v>10079</v>
       </c>
       <c r="I6" s="6">
-        <f>H6*G6</f>
+        <f t="shared" si="0"/>
         <v>10079</v>
       </c>
       <c r="J6" s="6">
         <v>12000</v>
       </c>
       <c r="K6" s="6">
-        <f>J6*G6</f>
+        <f t="shared" si="1"/>
         <v>12000</v>
       </c>
       <c r="L6" s="6">
-        <f>J6+R6</f>
+        <f t="shared" si="2"/>
         <v>13920</v>
       </c>
       <c r="M6" s="6">
-        <f>L6*G6</f>
+        <f t="shared" si="3"/>
         <v>13920</v>
       </c>
       <c r="N6" s="6">
-        <f>J6+R6+P6+35</f>
+        <f t="shared" si="4"/>
         <v>16048</v>
       </c>
       <c r="O6" s="6">
-        <f>N6*G6</f>
+        <f t="shared" si="5"/>
         <v>16048</v>
       </c>
       <c r="P6" s="6">
-        <f>(L6*0.15)+5</f>
+        <f t="shared" si="6"/>
         <v>2093</v>
       </c>
       <c r="Q6" s="6">
-        <f>P6*G6</f>
+        <f t="shared" si="7"/>
         <v>2093</v>
       </c>
       <c r="R6" s="6">
-        <f>J6*0.16</f>
+        <f t="shared" si="8"/>
         <v>1920</v>
       </c>
       <c r="S6" s="6">
-        <f>R6*G6</f>
+        <f t="shared" si="9"/>
         <v>1920</v>
       </c>
       <c r="T6" s="6">
-        <f>L6-H6-R6</f>
+        <f t="shared" si="10"/>
         <v>1921</v>
       </c>
       <c r="U6" s="6">
-        <f>T6*G6</f>
+        <f t="shared" si="11"/>
         <v>1921</v>
       </c>
       <c r="V6" s="6">
-        <f>N6-H6-P6-R6-35</f>
+        <f t="shared" si="12"/>
         <v>1921</v>
       </c>
       <c r="W6" s="7">
-        <f>V6*G6</f>
+        <f t="shared" si="13"/>
         <v>1921</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>85</v>
       </c>
@@ -1423,66 +1423,66 @@
         <v>5900</v>
       </c>
       <c r="I7" s="6">
-        <f>H7*G7</f>
+        <f t="shared" si="0"/>
         <v>5900</v>
       </c>
       <c r="J7" s="6">
         <v>13000</v>
       </c>
       <c r="K7" s="6">
-        <f>J7*G7</f>
+        <f t="shared" si="1"/>
         <v>13000</v>
       </c>
       <c r="L7" s="6">
-        <f>J7+R7</f>
+        <f t="shared" si="2"/>
         <v>15080</v>
       </c>
       <c r="M7" s="6">
-        <f>L7*G7</f>
+        <f t="shared" si="3"/>
         <v>15080</v>
       </c>
       <c r="N7" s="6">
-        <f>J7+R7+P7+35</f>
+        <f t="shared" si="4"/>
         <v>17382</v>
       </c>
       <c r="O7" s="6">
-        <f>N7*G7</f>
+        <f t="shared" si="5"/>
         <v>17382</v>
       </c>
       <c r="P7" s="6">
-        <f>(L7*0.15)+5</f>
+        <f t="shared" si="6"/>
         <v>2267</v>
       </c>
       <c r="Q7" s="6">
-        <f>P7*G7</f>
+        <f t="shared" si="7"/>
         <v>2267</v>
       </c>
       <c r="R7" s="6">
-        <f>J7*0.16</f>
+        <f t="shared" si="8"/>
         <v>2080</v>
       </c>
       <c r="S7" s="6">
-        <f>R7*G7</f>
+        <f t="shared" si="9"/>
         <v>2080</v>
       </c>
       <c r="T7" s="6">
-        <f>L7-H7-R7</f>
+        <f t="shared" si="10"/>
         <v>7100</v>
       </c>
       <c r="U7" s="6">
-        <f>T7*G7</f>
+        <f t="shared" si="11"/>
         <v>7100</v>
       </c>
       <c r="V7" s="6">
-        <f>N7-H7-P7-R7-35</f>
+        <f t="shared" si="12"/>
         <v>7100</v>
       </c>
       <c r="W7" s="7">
-        <f>V7*G7</f>
+        <f t="shared" si="13"/>
         <v>7100</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>30</v>
       </c>
@@ -1504,66 +1504,66 @@
         <v>27</v>
       </c>
       <c r="I8" s="6">
-        <f>H8*G8</f>
+        <f t="shared" si="0"/>
         <v>1647</v>
       </c>
       <c r="J8" s="6">
         <v>50</v>
       </c>
       <c r="K8" s="6">
-        <f>J8*G8</f>
+        <f t="shared" si="1"/>
         <v>3050</v>
       </c>
       <c r="L8" s="6">
-        <f>J8+R8</f>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="M8" s="6">
-        <f>L8*G8</f>
+        <f t="shared" si="3"/>
         <v>3538</v>
       </c>
       <c r="N8" s="6">
-        <f>J8+R8+P8+35</f>
+        <f t="shared" si="4"/>
         <v>106.7</v>
       </c>
       <c r="O8" s="6">
-        <f>N8*G8</f>
+        <f t="shared" si="5"/>
         <v>6508.7</v>
       </c>
       <c r="P8" s="6">
-        <f>(L8*0.15)+5</f>
+        <f t="shared" si="6"/>
         <v>13.7</v>
       </c>
       <c r="Q8" s="6">
-        <f>P8*G8</f>
+        <f t="shared" si="7"/>
         <v>835.69999999999993</v>
       </c>
       <c r="R8" s="6">
-        <f>J8*0.16</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="S8" s="6">
-        <f>R8*G8</f>
+        <f t="shared" si="9"/>
         <v>488</v>
       </c>
       <c r="T8" s="6">
-        <f>L8-H8-R8</f>
+        <f t="shared" si="10"/>
         <v>23</v>
       </c>
       <c r="U8" s="6">
-        <f>T8*G8</f>
+        <f t="shared" si="11"/>
         <v>1403</v>
       </c>
       <c r="V8" s="6">
-        <f>N8-H8-P8-R8-35</f>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
       <c r="W8" s="7">
-        <f>V8*G8</f>
+        <f t="shared" si="13"/>
         <v>1403</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
@@ -1591,66 +1591,66 @@
         <v>1209.1503267973856</v>
       </c>
       <c r="I9" s="6">
-        <f>H9*G9</f>
+        <f t="shared" si="0"/>
         <v>1209.1503267973856</v>
       </c>
       <c r="J9" s="6">
         <v>1500</v>
       </c>
       <c r="K9" s="6">
-        <f>J9*G9</f>
+        <f t="shared" si="1"/>
         <v>1500</v>
       </c>
       <c r="L9" s="6">
-        <f>J9+R9</f>
+        <f t="shared" si="2"/>
         <v>1740</v>
       </c>
       <c r="M9" s="6">
-        <f>L9*G9</f>
+        <f t="shared" si="3"/>
         <v>1740</v>
       </c>
       <c r="N9" s="6">
-        <f>J9+R9+P9+35</f>
+        <f t="shared" si="4"/>
         <v>2041</v>
       </c>
       <c r="O9" s="6">
-        <f>N9*G9</f>
+        <f t="shared" si="5"/>
         <v>2041</v>
       </c>
       <c r="P9" s="6">
-        <f>(L9*0.15)+5</f>
+        <f t="shared" si="6"/>
         <v>266</v>
       </c>
       <c r="Q9" s="6">
-        <f>P9*G9</f>
+        <f t="shared" si="7"/>
         <v>266</v>
       </c>
       <c r="R9" s="6">
-        <f>J9*0.16</f>
+        <f t="shared" si="8"/>
         <v>240</v>
       </c>
       <c r="S9" s="6">
-        <f>R9*G9</f>
+        <f t="shared" si="9"/>
         <v>240</v>
       </c>
       <c r="T9" s="6">
-        <f>L9-H9-R9</f>
+        <f t="shared" si="10"/>
         <v>290.84967320261444</v>
       </c>
       <c r="U9" s="6">
-        <f>T9*G9</f>
+        <f t="shared" si="11"/>
         <v>290.84967320261444</v>
       </c>
       <c r="V9" s="6">
-        <f>N9-H9-P9-R9-35</f>
+        <f t="shared" si="12"/>
         <v>290.84967320261444</v>
       </c>
       <c r="W9" s="7">
-        <f>V9*G9</f>
+        <f t="shared" si="13"/>
         <v>290.84967320261444</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
@@ -1678,66 +1678,66 @@
         <v>179.79452054794518</v>
       </c>
       <c r="I10" s="6">
-        <f>H10*G10</f>
+        <f t="shared" si="0"/>
         <v>179.79452054794518</v>
       </c>
       <c r="J10" s="6">
         <v>350</v>
       </c>
       <c r="K10" s="6">
-        <f>J10*G10</f>
+        <f t="shared" si="1"/>
         <v>350</v>
       </c>
       <c r="L10" s="6">
-        <f>J10+R10</f>
+        <f t="shared" si="2"/>
         <v>406</v>
       </c>
       <c r="M10" s="6">
-        <f>L10*G10</f>
+        <f t="shared" si="3"/>
         <v>406</v>
       </c>
       <c r="N10" s="6">
-        <f>J10+R10+P10+35</f>
+        <f t="shared" si="4"/>
         <v>506.9</v>
       </c>
       <c r="O10" s="6">
-        <f>N10*G10</f>
+        <f t="shared" si="5"/>
         <v>506.9</v>
       </c>
       <c r="P10" s="6">
-        <f>(L10*0.15)+5</f>
+        <f t="shared" si="6"/>
         <v>65.900000000000006</v>
       </c>
       <c r="Q10" s="6">
-        <f>P10*G10</f>
+        <f t="shared" si="7"/>
         <v>65.900000000000006</v>
       </c>
       <c r="R10" s="6">
-        <f>J10*0.16</f>
+        <f t="shared" si="8"/>
         <v>56</v>
       </c>
       <c r="S10" s="6">
-        <f>R10*G10</f>
+        <f t="shared" si="9"/>
         <v>56</v>
       </c>
       <c r="T10" s="6">
-        <f>L10-H10-R10</f>
+        <f t="shared" si="10"/>
         <v>170.20547945205482</v>
       </c>
       <c r="U10" s="6">
-        <f>T10*G10</f>
+        <f t="shared" si="11"/>
         <v>170.20547945205482</v>
       </c>
       <c r="V10" s="6">
-        <f>N10-H10-P10-R10-35</f>
+        <f t="shared" si="12"/>
         <v>170.20547945205476</v>
       </c>
       <c r="W10" s="7">
-        <f>V10*G10</f>
+        <f t="shared" si="13"/>
         <v>170.20547945205476</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>39</v>
       </c>
@@ -1765,66 +1765,66 @@
         <v>322.44008714596953</v>
       </c>
       <c r="I11" s="6">
-        <f>H11*G11</f>
+        <f t="shared" si="0"/>
         <v>322.44008714596953</v>
       </c>
       <c r="J11" s="6">
         <v>400</v>
       </c>
       <c r="K11" s="6">
-        <f>J11*G11</f>
+        <f t="shared" si="1"/>
         <v>400</v>
       </c>
       <c r="L11" s="6">
-        <f>J11+R11</f>
+        <f t="shared" si="2"/>
         <v>464</v>
       </c>
       <c r="M11" s="6">
-        <f>L11*G11</f>
+        <f t="shared" si="3"/>
         <v>464</v>
       </c>
       <c r="N11" s="6">
-        <f>J11+R11+P11+35</f>
+        <f t="shared" si="4"/>
         <v>573.6</v>
       </c>
       <c r="O11" s="6">
-        <f>N11*G11</f>
+        <f t="shared" si="5"/>
         <v>573.6</v>
       </c>
       <c r="P11" s="6">
-        <f>(L11*0.15)+5</f>
+        <f t="shared" si="6"/>
         <v>74.599999999999994</v>
       </c>
       <c r="Q11" s="6">
-        <f>P11*G11</f>
+        <f t="shared" si="7"/>
         <v>74.599999999999994</v>
       </c>
       <c r="R11" s="6">
-        <f>J11*0.16</f>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="S11" s="6">
-        <f>R11*G11</f>
+        <f t="shared" si="9"/>
         <v>64</v>
       </c>
       <c r="T11" s="6">
-        <f>L11-H11-R11</f>
+        <f t="shared" si="10"/>
         <v>77.559912854030472</v>
       </c>
       <c r="U11" s="6">
-        <f>T11*G11</f>
+        <f t="shared" si="11"/>
         <v>77.559912854030472</v>
       </c>
       <c r="V11" s="6">
-        <f>N11-H11-P11-R11-35</f>
+        <f t="shared" si="12"/>
         <v>77.5599128540305</v>
       </c>
       <c r="W11" s="7">
-        <f>V11*G11</f>
+        <f t="shared" si="13"/>
         <v>77.5599128540305</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>89</v>
       </c>
@@ -1846,66 +1846,66 @@
         <v>600</v>
       </c>
       <c r="I12" s="6">
-        <f>H12*G12</f>
+        <f t="shared" si="0"/>
         <v>600</v>
       </c>
       <c r="J12" s="6">
         <v>600</v>
       </c>
       <c r="K12" s="6">
-        <f>J12*G12</f>
+        <f t="shared" si="1"/>
         <v>600</v>
       </c>
       <c r="L12" s="6">
-        <f>J12+R12</f>
+        <f t="shared" si="2"/>
         <v>696</v>
       </c>
       <c r="M12" s="6">
-        <f>L12*G12</f>
+        <f t="shared" si="3"/>
         <v>696</v>
       </c>
       <c r="N12" s="6">
-        <f>J12+R12+P12+35</f>
+        <f t="shared" si="4"/>
         <v>840.4</v>
       </c>
       <c r="O12" s="6">
-        <f>N12*G12</f>
+        <f t="shared" si="5"/>
         <v>840.4</v>
       </c>
       <c r="P12" s="6">
-        <f>(L12*0.15)+5</f>
+        <f t="shared" si="6"/>
         <v>109.39999999999999</v>
       </c>
       <c r="Q12" s="6">
-        <f>P12*G12</f>
+        <f t="shared" si="7"/>
         <v>109.39999999999999</v>
       </c>
       <c r="R12" s="6">
-        <f>J12*0.16</f>
+        <f t="shared" si="8"/>
         <v>96</v>
       </c>
       <c r="S12" s="6">
-        <f>R12*G12</f>
+        <f t="shared" si="9"/>
         <v>96</v>
       </c>
       <c r="T12" s="6">
-        <f>L12-H12-R12</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U12" s="6">
-        <f>T12*G12</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V12" s="6">
-        <f>N12-H12-P12-R12-35</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W12" s="7">
-        <f>V12*G12</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>41</v>
       </c>
@@ -1927,66 +1927,66 @@
         <v>450</v>
       </c>
       <c r="I13" s="6">
-        <f>H13*G13</f>
+        <f t="shared" si="0"/>
         <v>450</v>
       </c>
       <c r="J13" s="6">
         <v>450</v>
       </c>
       <c r="K13" s="6">
-        <f>J13*G13</f>
+        <f t="shared" si="1"/>
         <v>450</v>
       </c>
       <c r="L13" s="6">
-        <f>J13+R13</f>
+        <f t="shared" si="2"/>
         <v>522</v>
       </c>
       <c r="M13" s="6">
-        <f>L13*G13</f>
+        <f t="shared" si="3"/>
         <v>522</v>
       </c>
       <c r="N13" s="6">
-        <f>J13+R13+P13+35</f>
+        <f t="shared" si="4"/>
         <v>640.29999999999995</v>
       </c>
       <c r="O13" s="6">
-        <f>N13*G13</f>
+        <f t="shared" si="5"/>
         <v>640.29999999999995</v>
       </c>
       <c r="P13" s="6">
-        <f>(L13*0.15)+5</f>
+        <f t="shared" si="6"/>
         <v>83.3</v>
       </c>
       <c r="Q13" s="6">
-        <f>P13*G13</f>
+        <f t="shared" si="7"/>
         <v>83.3</v>
       </c>
       <c r="R13" s="6">
-        <f>J13*0.16</f>
+        <f t="shared" si="8"/>
         <v>72</v>
       </c>
       <c r="S13" s="6">
-        <f>R13*G13</f>
+        <f t="shared" si="9"/>
         <v>72</v>
       </c>
       <c r="T13" s="6">
-        <f>L13-H13-R13</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U13" s="6">
-        <f>T13*G13</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V13" s="6">
-        <f>N13-H13-P13-R13-35</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W13" s="7">
-        <f>V13*G13</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>43</v>
       </c>
@@ -2014,66 +2014,66 @@
         <v>205.47945205479451</v>
       </c>
       <c r="I14" s="6">
-        <f>H14*G14</f>
+        <f t="shared" si="0"/>
         <v>205.47945205479451</v>
       </c>
       <c r="J14" s="6">
         <v>400</v>
       </c>
       <c r="K14" s="6">
-        <f>J14*G14</f>
+        <f t="shared" si="1"/>
         <v>400</v>
       </c>
       <c r="L14" s="6">
-        <f>J14+R14</f>
+        <f t="shared" si="2"/>
         <v>464</v>
       </c>
       <c r="M14" s="6">
-        <f>L14*G14</f>
+        <f t="shared" si="3"/>
         <v>464</v>
       </c>
       <c r="N14" s="6">
-        <f>J14+R14+P14+35</f>
+        <f t="shared" si="4"/>
         <v>573.6</v>
       </c>
       <c r="O14" s="6">
-        <f>N14*G14</f>
+        <f t="shared" si="5"/>
         <v>573.6</v>
       </c>
       <c r="P14" s="6">
-        <f>(L14*0.15)+5</f>
+        <f t="shared" si="6"/>
         <v>74.599999999999994</v>
       </c>
       <c r="Q14" s="6">
-        <f>P14*G14</f>
+        <f t="shared" si="7"/>
         <v>74.599999999999994</v>
       </c>
       <c r="R14" s="6">
-        <f>J14*0.16</f>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="S14" s="6">
-        <f>R14*G14</f>
+        <f t="shared" si="9"/>
         <v>64</v>
       </c>
       <c r="T14" s="6">
-        <f>L14-H14-R14</f>
+        <f t="shared" si="10"/>
         <v>194.52054794520552</v>
       </c>
       <c r="U14" s="6">
-        <f>T14*G14</f>
+        <f t="shared" si="11"/>
         <v>194.52054794520552</v>
       </c>
       <c r="V14" s="6">
-        <f>N14-H14-P14-R14-35</f>
+        <f t="shared" si="12"/>
         <v>194.52054794520552</v>
       </c>
       <c r="W14" s="7">
-        <f>V14*G14</f>
+        <f t="shared" si="13"/>
         <v>194.52054794520552</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>45</v>
       </c>
@@ -2095,66 +2095,66 @@
         <v>14.96</v>
       </c>
       <c r="I15" s="6">
-        <f>H15*G15</f>
+        <f t="shared" si="0"/>
         <v>2917.2000000000003</v>
       </c>
       <c r="J15" s="6">
         <v>30</v>
       </c>
       <c r="K15" s="6">
-        <f>J15*G15</f>
+        <f t="shared" si="1"/>
         <v>5850</v>
       </c>
       <c r="L15" s="6">
-        <f>J15+R15</f>
+        <f t="shared" si="2"/>
         <v>34.799999999999997</v>
       </c>
       <c r="M15" s="6">
-        <f>L15*G15</f>
+        <f t="shared" si="3"/>
         <v>6785.9999999999991</v>
       </c>
       <c r="N15" s="6">
-        <f>J15+R15+P15+35</f>
+        <f t="shared" si="4"/>
         <v>80.02</v>
       </c>
       <c r="O15" s="6">
-        <f>N15*G15</f>
+        <f t="shared" si="5"/>
         <v>15603.9</v>
       </c>
       <c r="P15" s="6">
-        <f>(L15*0.15)+5</f>
+        <f t="shared" si="6"/>
         <v>10.219999999999999</v>
       </c>
       <c r="Q15" s="6">
-        <f>P15*G15</f>
+        <f t="shared" si="7"/>
         <v>1992.8999999999999</v>
       </c>
       <c r="R15" s="6">
-        <f>J15*0.16</f>
+        <f t="shared" si="8"/>
         <v>4.8</v>
       </c>
       <c r="S15" s="6">
-        <f>R15*G15</f>
+        <f t="shared" si="9"/>
         <v>936</v>
       </c>
       <c r="T15" s="6">
-        <f>L15-H15-R15</f>
+        <f t="shared" si="10"/>
         <v>15.039999999999996</v>
       </c>
       <c r="U15" s="6">
-        <f>T15*G15</f>
+        <f t="shared" si="11"/>
         <v>2932.7999999999993</v>
       </c>
       <c r="V15" s="6">
-        <f>N15-H15-P15-R15-35</f>
+        <f t="shared" si="12"/>
         <v>15.040000000000006</v>
       </c>
       <c r="W15" s="7">
-        <f>V15*G15</f>
+        <f t="shared" si="13"/>
         <v>2932.8000000000011</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>47</v>
       </c>
@@ -2182,66 +2182,66 @@
         <v>256.84931506849313</v>
       </c>
       <c r="I16" s="6">
-        <f>H16*G16</f>
+        <f t="shared" si="0"/>
         <v>256.84931506849313</v>
       </c>
       <c r="J16" s="6">
         <v>500</v>
       </c>
       <c r="K16" s="6">
-        <f>J16*G16</f>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
       <c r="L16" s="6">
-        <f>J16+R16</f>
+        <f t="shared" si="2"/>
         <v>580</v>
       </c>
       <c r="M16" s="6">
-        <f>L16*G16</f>
+        <f t="shared" si="3"/>
         <v>580</v>
       </c>
       <c r="N16" s="6">
-        <f>J16+R16+P16+35</f>
+        <f t="shared" si="4"/>
         <v>707</v>
       </c>
       <c r="O16" s="6">
-        <f>N16*G16</f>
+        <f t="shared" si="5"/>
         <v>707</v>
       </c>
       <c r="P16" s="6">
-        <f>(L16*0.15)+5</f>
+        <f t="shared" si="6"/>
         <v>92</v>
       </c>
       <c r="Q16" s="6">
-        <f>P16*G16</f>
+        <f t="shared" si="7"/>
         <v>92</v>
       </c>
       <c r="R16" s="6">
-        <f>J16*0.16</f>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="S16" s="6">
-        <f>R16*G16</f>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="T16" s="6">
-        <f>L16-H16-R16</f>
+        <f t="shared" si="10"/>
         <v>243.15068493150687</v>
       </c>
       <c r="U16" s="6">
-        <f>T16*G16</f>
+        <f t="shared" si="11"/>
         <v>243.15068493150687</v>
       </c>
       <c r="V16" s="6">
-        <f>N16-H16-P16-R16-35</f>
+        <f t="shared" si="12"/>
         <v>243.15068493150687</v>
       </c>
       <c r="W16" s="7">
-        <f>V16*G16</f>
+        <f t="shared" si="13"/>
         <v>243.15068493150687</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>49</v>
       </c>
@@ -2269,66 +2269,66 @@
         <v>77.054794520547944</v>
       </c>
       <c r="I17" s="6">
-        <f>H17*G17</f>
+        <f t="shared" si="0"/>
         <v>77.054794520547944</v>
       </c>
       <c r="J17" s="6">
         <v>150</v>
       </c>
       <c r="K17" s="6">
-        <f>J17*G17</f>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="L17" s="6">
-        <f>J17+R17</f>
+        <f t="shared" si="2"/>
         <v>174</v>
       </c>
       <c r="M17" s="6">
-        <f>L17*G17</f>
+        <f t="shared" si="3"/>
         <v>174</v>
       </c>
       <c r="N17" s="6">
-        <f>J17+R17+P17+35</f>
+        <f t="shared" si="4"/>
         <v>240.1</v>
       </c>
       <c r="O17" s="6">
-        <f>N17*G17</f>
+        <f t="shared" si="5"/>
         <v>240.1</v>
       </c>
       <c r="P17" s="6">
-        <f>(L17*0.15)+5</f>
+        <f t="shared" si="6"/>
         <v>31.099999999999998</v>
       </c>
       <c r="Q17" s="6">
-        <f>P17*G17</f>
+        <f t="shared" si="7"/>
         <v>31.099999999999998</v>
       </c>
       <c r="R17" s="6">
-        <f>J17*0.16</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="S17" s="6">
-        <f>R17*G17</f>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="T17" s="6">
-        <f>L17-H17-R17</f>
+        <f t="shared" si="10"/>
         <v>72.945205479452056</v>
       </c>
       <c r="U17" s="6">
-        <f>T17*G17</f>
+        <f t="shared" si="11"/>
         <v>72.945205479452056</v>
       </c>
       <c r="V17" s="6">
-        <f>N17-H17-P17-R17-35</f>
+        <f t="shared" si="12"/>
         <v>72.945205479452056</v>
       </c>
       <c r="W17" s="7">
-        <f>V17*G17</f>
+        <f t="shared" si="13"/>
         <v>72.945205479452056</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>51</v>
       </c>
@@ -2350,66 +2350,66 @@
         <v>50</v>
       </c>
       <c r="I18" s="6">
-        <f>H18*G18</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="J18" s="6">
         <v>150</v>
       </c>
       <c r="K18" s="6">
-        <f>J18*G18</f>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="L18" s="6">
-        <f>J18+R18</f>
+        <f t="shared" si="2"/>
         <v>174</v>
       </c>
       <c r="M18" s="6">
-        <f>L18*G18</f>
+        <f t="shared" si="3"/>
         <v>348</v>
       </c>
       <c r="N18" s="6">
-        <f>J18+R18+P18+35</f>
+        <f t="shared" si="4"/>
         <v>240.1</v>
       </c>
       <c r="O18" s="6">
-        <f>N18*G18</f>
+        <f t="shared" si="5"/>
         <v>480.2</v>
       </c>
       <c r="P18" s="6">
-        <f>(L18*0.15)+5</f>
+        <f t="shared" si="6"/>
         <v>31.099999999999998</v>
       </c>
       <c r="Q18" s="6">
-        <f>P18*G18</f>
+        <f t="shared" si="7"/>
         <v>62.199999999999996</v>
       </c>
       <c r="R18" s="6">
-        <f>J18*0.16</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="S18" s="6">
-        <f>R18*G18</f>
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
       <c r="T18" s="6">
-        <f>L18-H18-R18</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="U18" s="6">
-        <f>T18*G18</f>
+        <f t="shared" si="11"/>
         <v>200</v>
       </c>
       <c r="V18" s="6">
-        <f>N18-H18-P18-R18-35</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="W18" s="7">
-        <f>V18*G18</f>
+        <f t="shared" si="13"/>
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>53</v>
       </c>
@@ -2431,66 +2431,66 @@
         <v>300</v>
       </c>
       <c r="I19" s="6">
-        <f>H19*G19</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="J19" s="6">
         <v>300</v>
       </c>
       <c r="K19" s="6">
-        <f>J19*G19</f>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="L19" s="6">
-        <f>J19+R19</f>
+        <f t="shared" si="2"/>
         <v>348</v>
       </c>
       <c r="M19" s="6">
-        <f>L19*G19</f>
+        <f t="shared" si="3"/>
         <v>348</v>
       </c>
       <c r="N19" s="6">
-        <f>J19+R19+P19+35</f>
+        <f t="shared" si="4"/>
         <v>440.2</v>
       </c>
       <c r="O19" s="6">
-        <f>N19*G19</f>
+        <f t="shared" si="5"/>
         <v>440.2</v>
       </c>
       <c r="P19" s="6">
-        <f>(L19*0.15)+5</f>
+        <f t="shared" si="6"/>
         <v>57.199999999999996</v>
       </c>
       <c r="Q19" s="6">
-        <f>P19*G19</f>
+        <f t="shared" si="7"/>
         <v>57.199999999999996</v>
       </c>
       <c r="R19" s="6">
-        <f>J19*0.16</f>
+        <f t="shared" si="8"/>
         <v>48</v>
       </c>
       <c r="S19" s="6">
-        <f>R19*G19</f>
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
       <c r="T19" s="6">
-        <f>L19-H19-R19</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U19" s="6">
-        <f>T19*G19</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V19" s="6">
-        <f>N19-H19-P19-R19-35</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W19" s="7">
-        <f>V19*G19</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>55</v>
       </c>
@@ -2518,66 +2518,66 @@
         <v>205.47945205479451</v>
       </c>
       <c r="I20" s="6">
-        <f>H20*G20</f>
+        <f t="shared" si="0"/>
         <v>205.47945205479451</v>
       </c>
       <c r="J20" s="6">
         <v>400</v>
       </c>
       <c r="K20" s="6">
-        <f>J20*G20</f>
+        <f t="shared" si="1"/>
         <v>400</v>
       </c>
       <c r="L20" s="6">
-        <f>J20+R20</f>
+        <f t="shared" si="2"/>
         <v>464</v>
       </c>
       <c r="M20" s="6">
-        <f>L20*G20</f>
+        <f t="shared" si="3"/>
         <v>464</v>
       </c>
       <c r="N20" s="6">
-        <f>J20+R20+P20+35</f>
+        <f t="shared" si="4"/>
         <v>573.6</v>
       </c>
       <c r="O20" s="6">
-        <f>N20*G20</f>
+        <f t="shared" si="5"/>
         <v>573.6</v>
       </c>
       <c r="P20" s="6">
-        <f>(L20*0.15)+5</f>
+        <f t="shared" si="6"/>
         <v>74.599999999999994</v>
       </c>
       <c r="Q20" s="6">
-        <f>P20*G20</f>
+        <f t="shared" si="7"/>
         <v>74.599999999999994</v>
       </c>
       <c r="R20" s="6">
-        <f>J20*0.16</f>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="S20" s="6">
-        <f>R20*G20</f>
+        <f t="shared" si="9"/>
         <v>64</v>
       </c>
       <c r="T20" s="6">
-        <f>L20-H20-R20</f>
+        <f t="shared" si="10"/>
         <v>194.52054794520552</v>
       </c>
       <c r="U20" s="6">
-        <f>T20*G20</f>
+        <f t="shared" si="11"/>
         <v>194.52054794520552</v>
       </c>
       <c r="V20" s="6">
-        <f>N20-H20-P20-R20-35</f>
+        <f t="shared" si="12"/>
         <v>194.52054794520552</v>
       </c>
       <c r="W20" s="7">
-        <f>V20*G20</f>
+        <f t="shared" si="13"/>
         <v>194.52054794520552</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>57</v>
       </c>
@@ -2599,66 +2599,66 @@
         <v>250</v>
       </c>
       <c r="I21" s="6">
-        <f>H21*G21</f>
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
       <c r="J21" s="6">
         <v>250</v>
       </c>
       <c r="K21" s="6">
-        <f>J21*G21</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="L21" s="6">
-        <f>J21+R21</f>
+        <f t="shared" si="2"/>
         <v>290</v>
       </c>
       <c r="M21" s="6">
-        <f>L21*G21</f>
+        <f t="shared" si="3"/>
         <v>290</v>
       </c>
       <c r="N21" s="6">
-        <f>J21+R21+P21+35</f>
+        <f t="shared" si="4"/>
         <v>373.5</v>
       </c>
       <c r="O21" s="6">
-        <f>N21*G21</f>
+        <f t="shared" si="5"/>
         <v>373.5</v>
       </c>
       <c r="P21" s="6">
-        <f>(L21*0.15)+5</f>
+        <f t="shared" si="6"/>
         <v>48.5</v>
       </c>
       <c r="Q21" s="6">
-        <f>P21*G21</f>
+        <f t="shared" si="7"/>
         <v>48.5</v>
       </c>
       <c r="R21" s="6">
-        <f>J21*0.16</f>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="S21" s="6">
-        <f>R21*G21</f>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="T21" s="6">
-        <f>L21-H21-R21</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U21" s="6">
-        <f>T21*G21</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V21" s="6">
-        <f>N21-H21-P21-R21-35</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W21" s="7">
-        <f>V21*G21</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>59</v>
       </c>
@@ -2686,66 +2686,66 @@
         <v>128.42465753424656</v>
       </c>
       <c r="I22" s="6">
-        <f>H22*G22</f>
+        <f t="shared" si="0"/>
         <v>128.42465753424656</v>
       </c>
       <c r="J22" s="6">
         <v>250</v>
       </c>
       <c r="K22" s="6">
-        <f>J22*G22</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="L22" s="6">
-        <f>J22+R22</f>
+        <f t="shared" si="2"/>
         <v>290</v>
       </c>
       <c r="M22" s="6">
-        <f>L22*G22</f>
+        <f t="shared" si="3"/>
         <v>290</v>
       </c>
       <c r="N22" s="6">
-        <f>J22+R22+P22+35</f>
+        <f t="shared" si="4"/>
         <v>373.5</v>
       </c>
       <c r="O22" s="6">
-        <f>N22*G22</f>
+        <f t="shared" si="5"/>
         <v>373.5</v>
       </c>
       <c r="P22" s="6">
-        <f>(L22*0.15)+5</f>
+        <f t="shared" si="6"/>
         <v>48.5</v>
       </c>
       <c r="Q22" s="6">
-        <f>P22*G22</f>
+        <f t="shared" si="7"/>
         <v>48.5</v>
       </c>
       <c r="R22" s="6">
-        <f>J22*0.16</f>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="S22" s="6">
-        <f>R22*G22</f>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="T22" s="6">
-        <f>L22-H22-R22</f>
+        <f t="shared" si="10"/>
         <v>121.57534246575344</v>
       </c>
       <c r="U22" s="6">
-        <f>T22*G22</f>
+        <f t="shared" si="11"/>
         <v>121.57534246575344</v>
       </c>
       <c r="V22" s="6">
-        <f>N22-H22-P22-R22-35</f>
+        <f t="shared" si="12"/>
         <v>121.57534246575344</v>
       </c>
       <c r="W22" s="7">
-        <f>V22*G22</f>
+        <f t="shared" si="13"/>
         <v>121.57534246575344</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>61</v>
       </c>
@@ -2767,66 +2767,66 @@
         <v>800</v>
       </c>
       <c r="I23" s="6">
-        <f>H23*G23</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="J23" s="6">
         <v>800</v>
       </c>
       <c r="K23" s="6">
-        <f>J23*G23</f>
+        <f t="shared" si="1"/>
         <v>800</v>
       </c>
       <c r="L23" s="6">
-        <f>J23+R23</f>
+        <f t="shared" si="2"/>
         <v>928</v>
       </c>
       <c r="M23" s="6">
-        <f>L23*G23</f>
+        <f t="shared" si="3"/>
         <v>928</v>
       </c>
       <c r="N23" s="6">
-        <f>J23+R23+P23+35</f>
+        <f t="shared" si="4"/>
         <v>1107.2</v>
       </c>
       <c r="O23" s="6">
-        <f>N23*G23</f>
+        <f t="shared" si="5"/>
         <v>1107.2</v>
       </c>
       <c r="P23" s="6">
-        <f>(L23*0.15)+5</f>
+        <f t="shared" si="6"/>
         <v>144.19999999999999</v>
       </c>
       <c r="Q23" s="6">
-        <f>P23*G23</f>
+        <f t="shared" si="7"/>
         <v>144.19999999999999</v>
       </c>
       <c r="R23" s="6">
-        <f>J23*0.16</f>
+        <f t="shared" si="8"/>
         <v>128</v>
       </c>
       <c r="S23" s="6">
-        <f>R23*G23</f>
+        <f t="shared" si="9"/>
         <v>128</v>
       </c>
       <c r="T23" s="6">
-        <f>L23-H23-R23</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U23" s="6">
-        <f>T23*G23</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V23" s="6">
-        <f>N23-H23-P23-R23-35</f>
+        <f t="shared" si="12"/>
         <v>5.6843418860808015E-14</v>
       </c>
       <c r="W23" s="7">
-        <f>V23*G23</f>
+        <f t="shared" si="13"/>
         <v>5.6843418860808015E-14</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>92</v>
       </c>
@@ -2848,66 +2848,66 @@
         <v>425</v>
       </c>
       <c r="I24" s="6">
-        <f>H24*G24</f>
+        <f t="shared" si="0"/>
         <v>425</v>
       </c>
       <c r="J24" s="6">
         <v>1200</v>
       </c>
       <c r="K24" s="6">
-        <f>J24*G24</f>
+        <f t="shared" si="1"/>
         <v>1200</v>
       </c>
       <c r="L24" s="6">
-        <f>J24+R24</f>
+        <f t="shared" si="2"/>
         <v>1392</v>
       </c>
       <c r="M24" s="6">
-        <f>L24*G24</f>
+        <f t="shared" si="3"/>
         <v>1392</v>
       </c>
       <c r="N24" s="6">
-        <f>J24+R24+P24+35</f>
+        <f t="shared" si="4"/>
         <v>1640.8</v>
       </c>
       <c r="O24" s="6">
-        <f>N24*G24</f>
+        <f t="shared" si="5"/>
         <v>1640.8</v>
       </c>
       <c r="P24" s="6">
-        <f>(L24*0.15)+5</f>
+        <f t="shared" si="6"/>
         <v>213.79999999999998</v>
       </c>
       <c r="Q24" s="6">
-        <f>P24*G24</f>
+        <f t="shared" si="7"/>
         <v>213.79999999999998</v>
       </c>
       <c r="R24" s="6">
-        <f>J24*0.16</f>
+        <f t="shared" si="8"/>
         <v>192</v>
       </c>
       <c r="S24" s="6">
-        <f>R24*G24</f>
+        <f t="shared" si="9"/>
         <v>192</v>
       </c>
       <c r="T24" s="6">
-        <f>L24-H24-R24</f>
+        <f t="shared" si="10"/>
         <v>775</v>
       </c>
       <c r="U24" s="6">
-        <f>T24*G24</f>
+        <f t="shared" si="11"/>
         <v>775</v>
       </c>
       <c r="V24" s="6">
-        <f>N24-H24-P24-R24-35</f>
+        <f t="shared" si="12"/>
         <v>775</v>
       </c>
       <c r="W24" s="7">
-        <f>V24*G24</f>
+        <f t="shared" si="13"/>
         <v>775</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>63</v>
       </c>
@@ -2931,70 +2931,70 @@
         <v>1</v>
       </c>
       <c r="H25" s="6">
-        <f>J25/F25</f>
+        <f t="shared" ref="H25:H31" si="14">J25/F25</f>
         <v>256.84931506849313</v>
       </c>
       <c r="I25" s="6">
-        <f>H25*G25</f>
+        <f t="shared" si="0"/>
         <v>256.84931506849313</v>
       </c>
       <c r="J25" s="6">
         <v>500</v>
       </c>
       <c r="K25" s="6">
-        <f>J25*G25</f>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
       <c r="L25" s="6">
-        <f>J25+R25</f>
+        <f t="shared" si="2"/>
         <v>580</v>
       </c>
       <c r="M25" s="6">
-        <f>L25*G25</f>
+        <f t="shared" si="3"/>
         <v>580</v>
       </c>
       <c r="N25" s="6">
-        <f>J25+R25+P25+35</f>
+        <f t="shared" si="4"/>
         <v>707</v>
       </c>
       <c r="O25" s="6">
-        <f>N25*G25</f>
+        <f t="shared" si="5"/>
         <v>707</v>
       </c>
       <c r="P25" s="6">
-        <f>(L25*0.15)+5</f>
+        <f t="shared" si="6"/>
         <v>92</v>
       </c>
       <c r="Q25" s="6">
-        <f>P25*G25</f>
+        <f t="shared" si="7"/>
         <v>92</v>
       </c>
       <c r="R25" s="6">
-        <f>J25*0.16</f>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="S25" s="6">
-        <f>R25*G25</f>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="T25" s="6">
-        <f>L25-H25-R25</f>
+        <f t="shared" si="10"/>
         <v>243.15068493150687</v>
       </c>
       <c r="U25" s="6">
-        <f>T25*G25</f>
+        <f t="shared" si="11"/>
         <v>243.15068493150687</v>
       </c>
       <c r="V25" s="6">
-        <f>N25-H25-P25-R25-35</f>
+        <f t="shared" si="12"/>
         <v>243.15068493150687</v>
       </c>
       <c r="W25" s="7">
-        <f>V25*G25</f>
+        <f t="shared" si="13"/>
         <v>243.15068493150687</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>65</v>
       </c>
@@ -3018,71 +3018,71 @@
         <v>1</v>
       </c>
       <c r="H26" s="6">
-        <f>J26/F26</f>
+        <f t="shared" si="14"/>
         <v>282.13507625272331</v>
       </c>
       <c r="I26" s="6">
-        <f>H26*G26</f>
+        <f t="shared" si="0"/>
         <v>282.13507625272331</v>
       </c>
       <c r="J26" s="6">
         <v>350</v>
       </c>
       <c r="K26" s="6">
-        <f>J26*G26</f>
+        <f t="shared" si="1"/>
         <v>350</v>
       </c>
       <c r="L26" s="6">
-        <f>J26+R26</f>
+        <f t="shared" si="2"/>
         <v>406</v>
       </c>
       <c r="M26" s="6">
-        <f>L26*G26</f>
+        <f t="shared" si="3"/>
         <v>406</v>
       </c>
       <c r="N26" s="6">
-        <f>J26+R26+P26+35</f>
+        <f t="shared" si="4"/>
         <v>506.9</v>
       </c>
       <c r="O26" s="6">
-        <f>N26*G26</f>
+        <f t="shared" si="5"/>
         <v>506.9</v>
       </c>
       <c r="P26" s="6">
-        <f>(L26*0.15)+5</f>
+        <f t="shared" si="6"/>
         <v>65.900000000000006</v>
       </c>
       <c r="Q26" s="6">
-        <f>P26*G26</f>
+        <f t="shared" si="7"/>
         <v>65.900000000000006</v>
       </c>
       <c r="R26" s="6">
-        <f>J26*0.16</f>
+        <f t="shared" si="8"/>
         <v>56</v>
       </c>
       <c r="S26" s="6">
-        <f>R26*G26</f>
+        <f t="shared" si="9"/>
         <v>56</v>
       </c>
       <c r="T26" s="6">
-        <f>L26-H26-R26</f>
+        <f t="shared" si="10"/>
         <v>67.864923747276691</v>
       </c>
       <c r="U26" s="6">
-        <f>T26*G26</f>
+        <f t="shared" si="11"/>
         <v>67.864923747276691</v>
       </c>
       <c r="V26" s="6">
-        <f>N26-H26-P26-R26-35</f>
+        <f t="shared" si="12"/>
         <v>67.864923747276663</v>
       </c>
       <c r="W26" s="7">
-        <f>V26*G26</f>
+        <f t="shared" si="13"/>
         <v>67.864923747276663</v>
       </c>
       <c r="AC26" s="11"/>
     </row>
-    <row r="27" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>67</v>
       </c>
@@ -3106,70 +3106,70 @@
         <v>1</v>
       </c>
       <c r="H27" s="6">
-        <f>J27/F27</f>
+        <f t="shared" si="14"/>
         <v>128.42465753424656</v>
       </c>
       <c r="I27" s="6">
-        <f>H27*G27</f>
+        <f t="shared" si="0"/>
         <v>128.42465753424656</v>
       </c>
       <c r="J27" s="6">
         <v>250</v>
       </c>
       <c r="K27" s="6">
-        <f>J27*G27</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="L27" s="6">
-        <f>J27+R27</f>
+        <f t="shared" si="2"/>
         <v>290</v>
       </c>
       <c r="M27" s="6">
-        <f>L27*G27</f>
+        <f t="shared" si="3"/>
         <v>290</v>
       </c>
       <c r="N27" s="6">
-        <f>J27+R27+P27+35</f>
+        <f t="shared" si="4"/>
         <v>373.5</v>
       </c>
       <c r="O27" s="6">
-        <f>N27*G27</f>
+        <f t="shared" si="5"/>
         <v>373.5</v>
       </c>
       <c r="P27" s="6">
-        <f>(L27*0.15)+5</f>
+        <f t="shared" si="6"/>
         <v>48.5</v>
       </c>
       <c r="Q27" s="6">
-        <f>P27*G27</f>
+        <f t="shared" si="7"/>
         <v>48.5</v>
       </c>
       <c r="R27" s="6">
-        <f>J27*0.16</f>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="S27" s="6">
-        <f>R27*G27</f>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="T27" s="6">
-        <f>L27-H27-R27</f>
+        <f t="shared" si="10"/>
         <v>121.57534246575344</v>
       </c>
       <c r="U27" s="6">
-        <f>T27*G27</f>
+        <f t="shared" si="11"/>
         <v>121.57534246575344</v>
       </c>
       <c r="V27" s="6">
-        <f>N27-H27-P27-R27-35</f>
+        <f t="shared" si="12"/>
         <v>121.57534246575344</v>
       </c>
       <c r="W27" s="7">
-        <f>V27*G27</f>
+        <f t="shared" si="13"/>
         <v>121.57534246575344</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>69</v>
       </c>
@@ -3193,70 +3193,70 @@
         <v>1</v>
       </c>
       <c r="H28" s="6">
-        <f>J28/F28</f>
+        <f t="shared" si="14"/>
         <v>483.66013071895424</v>
       </c>
       <c r="I28" s="6">
-        <f>H28*G28</f>
+        <f t="shared" si="0"/>
         <v>483.66013071895424</v>
       </c>
       <c r="J28" s="6">
         <v>600</v>
       </c>
       <c r="K28" s="6">
-        <f>J28*G28</f>
+        <f t="shared" si="1"/>
         <v>600</v>
       </c>
       <c r="L28" s="6">
-        <f>J28+R28</f>
+        <f t="shared" si="2"/>
         <v>696</v>
       </c>
       <c r="M28" s="6">
-        <f>L28*G28</f>
+        <f t="shared" si="3"/>
         <v>696</v>
       </c>
       <c r="N28" s="6">
-        <f>J28+R28+P28+35</f>
+        <f t="shared" si="4"/>
         <v>840.4</v>
       </c>
       <c r="O28" s="6">
-        <f>N28*G28</f>
+        <f t="shared" si="5"/>
         <v>840.4</v>
       </c>
       <c r="P28" s="6">
-        <f>(L28*0.15)+5</f>
+        <f t="shared" si="6"/>
         <v>109.39999999999999</v>
       </c>
       <c r="Q28" s="6">
-        <f>P28*G28</f>
+        <f t="shared" si="7"/>
         <v>109.39999999999999</v>
       </c>
       <c r="R28" s="6">
-        <f>J28*0.16</f>
+        <f t="shared" si="8"/>
         <v>96</v>
       </c>
       <c r="S28" s="6">
-        <f>R28*G28</f>
+        <f t="shared" si="9"/>
         <v>96</v>
       </c>
       <c r="T28" s="6">
-        <f>L28-H28-R28</f>
+        <f t="shared" si="10"/>
         <v>116.33986928104576</v>
       </c>
       <c r="U28" s="6">
-        <f>T28*G28</f>
+        <f t="shared" si="11"/>
         <v>116.33986928104576</v>
       </c>
       <c r="V28" s="6">
-        <f>N28-H28-P28-R28-35</f>
+        <f t="shared" si="12"/>
         <v>116.33986928104576</v>
       </c>
       <c r="W28" s="7">
-        <f>V28*G28</f>
+        <f t="shared" si="13"/>
         <v>116.33986928104576</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>71</v>
       </c>
@@ -3280,70 +3280,70 @@
         <v>1</v>
       </c>
       <c r="H29" s="6">
-        <f>J29/F29</f>
+        <f t="shared" si="14"/>
         <v>128.42465753424656</v>
       </c>
       <c r="I29" s="6">
-        <f>H29*G29</f>
+        <f t="shared" si="0"/>
         <v>128.42465753424656</v>
       </c>
       <c r="J29" s="6">
         <v>250</v>
       </c>
       <c r="K29" s="6">
-        <f>J29*G29</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="L29" s="6">
-        <f>J29+R29</f>
+        <f t="shared" si="2"/>
         <v>290</v>
       </c>
       <c r="M29" s="6">
-        <f>L29*G29</f>
+        <f t="shared" si="3"/>
         <v>290</v>
       </c>
       <c r="N29" s="6">
-        <f>J29+R29+P29+35</f>
+        <f t="shared" si="4"/>
         <v>373.5</v>
       </c>
       <c r="O29" s="6">
-        <f>N29*G29</f>
+        <f t="shared" si="5"/>
         <v>373.5</v>
       </c>
       <c r="P29" s="6">
-        <f>(L29*0.15)+5</f>
+        <f t="shared" si="6"/>
         <v>48.5</v>
       </c>
       <c r="Q29" s="6">
-        <f>P29*G29</f>
+        <f t="shared" si="7"/>
         <v>48.5</v>
       </c>
       <c r="R29" s="6">
-        <f>J29*0.16</f>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="S29" s="6">
-        <f>R29*G29</f>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="T29" s="6">
-        <f>L29-H29-R29</f>
+        <f t="shared" si="10"/>
         <v>121.57534246575344</v>
       </c>
       <c r="U29" s="6">
-        <f>T29*G29</f>
+        <f t="shared" si="11"/>
         <v>121.57534246575344</v>
       </c>
       <c r="V29" s="6">
-        <f>N29-H29-P29-R29-35</f>
+        <f t="shared" si="12"/>
         <v>121.57534246575344</v>
       </c>
       <c r="W29" s="7">
-        <f>V29*G29</f>
+        <f t="shared" si="13"/>
         <v>121.57534246575344</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>73</v>
       </c>
@@ -3367,70 +3367,70 @@
         <v>1</v>
       </c>
       <c r="H30" s="6">
-        <f>J30/F30</f>
+        <f t="shared" si="14"/>
         <v>403.05010893246185</v>
       </c>
       <c r="I30" s="6">
-        <f>H30*G30</f>
+        <f t="shared" si="0"/>
         <v>403.05010893246185</v>
       </c>
       <c r="J30" s="6">
         <v>500</v>
       </c>
       <c r="K30" s="6">
-        <f>J30*G30</f>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
       <c r="L30" s="6">
-        <f>J30+R30</f>
+        <f t="shared" si="2"/>
         <v>580</v>
       </c>
       <c r="M30" s="6">
-        <f>L30*G30</f>
+        <f t="shared" si="3"/>
         <v>580</v>
       </c>
       <c r="N30" s="6">
-        <f>J30+R30+P30+35</f>
+        <f t="shared" si="4"/>
         <v>707</v>
       </c>
       <c r="O30" s="6">
-        <f>N30*G30</f>
+        <f t="shared" si="5"/>
         <v>707</v>
       </c>
       <c r="P30" s="6">
-        <f>(L30*0.15)+5</f>
+        <f t="shared" si="6"/>
         <v>92</v>
       </c>
       <c r="Q30" s="6">
-        <f>P30*G30</f>
+        <f t="shared" si="7"/>
         <v>92</v>
       </c>
       <c r="R30" s="6">
-        <f>J30*0.16</f>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="S30" s="6">
-        <f>R30*G30</f>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="T30" s="6">
-        <f>L30-H30-R30</f>
+        <f t="shared" si="10"/>
         <v>96.949891067538147</v>
       </c>
       <c r="U30" s="6">
-        <f>T30*G30</f>
+        <f t="shared" si="11"/>
         <v>96.949891067538147</v>
       </c>
       <c r="V30" s="6">
-        <f>N30-H30-P30-R30-35</f>
+        <f t="shared" si="12"/>
         <v>96.949891067538147</v>
       </c>
       <c r="W30" s="7">
-        <f>V30*G30</f>
+        <f t="shared" si="13"/>
         <v>96.949891067538147</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>75</v>
       </c>
@@ -3454,70 +3454,70 @@
         <v>1</v>
       </c>
       <c r="H31" s="6">
-        <f>J31/F31</f>
+        <f t="shared" si="14"/>
         <v>967.32026143790847</v>
       </c>
       <c r="I31" s="6">
-        <f>H31*G31</f>
+        <f t="shared" si="0"/>
         <v>967.32026143790847</v>
       </c>
       <c r="J31" s="6">
         <v>1200</v>
       </c>
       <c r="K31" s="6">
-        <f>J31*G31</f>
+        <f t="shared" si="1"/>
         <v>1200</v>
       </c>
       <c r="L31" s="6">
-        <f>J31+R31</f>
+        <f t="shared" si="2"/>
         <v>1392</v>
       </c>
       <c r="M31" s="6">
-        <f>L31*G31</f>
+        <f t="shared" si="3"/>
         <v>1392</v>
       </c>
       <c r="N31" s="6">
-        <f>J31+R31+P31+35</f>
+        <f t="shared" si="4"/>
         <v>1640.8</v>
       </c>
       <c r="O31" s="6">
-        <f>N31*G31</f>
+        <f t="shared" si="5"/>
         <v>1640.8</v>
       </c>
       <c r="P31" s="6">
-        <f>(L31*0.15)+5</f>
+        <f t="shared" si="6"/>
         <v>213.79999999999998</v>
       </c>
       <c r="Q31" s="6">
-        <f>P31*G31</f>
+        <f t="shared" si="7"/>
         <v>213.79999999999998</v>
       </c>
       <c r="R31" s="6">
-        <f>J31*0.16</f>
+        <f t="shared" si="8"/>
         <v>192</v>
       </c>
       <c r="S31" s="6">
-        <f>R31*G31</f>
+        <f t="shared" si="9"/>
         <v>192</v>
       </c>
       <c r="T31" s="6">
-        <f>L31-H31-R31</f>
+        <f t="shared" si="10"/>
         <v>232.67973856209153</v>
       </c>
       <c r="U31" s="6">
-        <f>T31*G31</f>
+        <f t="shared" si="11"/>
         <v>232.67973856209153</v>
       </c>
       <c r="V31" s="6">
-        <f>N31-H31-P31-R31-35</f>
+        <f t="shared" si="12"/>
         <v>232.67973856209153</v>
       </c>
       <c r="W31" s="7">
-        <f>V31*G31</f>
+        <f t="shared" si="13"/>
         <v>232.67973856209153</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>77</v>
       </c>
@@ -3539,66 +3539,66 @@
         <v>2500</v>
       </c>
       <c r="I32" s="6">
-        <f>H32*G32</f>
+        <f t="shared" si="0"/>
         <v>2500</v>
       </c>
       <c r="J32" s="6">
         <v>2500</v>
       </c>
       <c r="K32" s="6">
-        <f>J32*G32</f>
+        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
       <c r="L32" s="6">
-        <f>J32+R32</f>
+        <f t="shared" si="2"/>
         <v>2900</v>
       </c>
       <c r="M32" s="6">
-        <f>L32*G32</f>
+        <f t="shared" si="3"/>
         <v>2900</v>
       </c>
       <c r="N32" s="6">
-        <f>J32+R32+P32+35</f>
+        <f t="shared" si="4"/>
         <v>3375</v>
       </c>
       <c r="O32" s="6">
-        <f>N32*G32</f>
+        <f t="shared" si="5"/>
         <v>3375</v>
       </c>
       <c r="P32" s="6">
-        <f>(L32*0.15)+5</f>
+        <f t="shared" si="6"/>
         <v>440</v>
       </c>
       <c r="Q32" s="6">
-        <f>P32*G32</f>
+        <f t="shared" si="7"/>
         <v>440</v>
       </c>
       <c r="R32" s="6">
-        <f>J32*0.16</f>
+        <f t="shared" si="8"/>
         <v>400</v>
       </c>
       <c r="S32" s="6">
-        <f>R32*G32</f>
+        <f t="shared" si="9"/>
         <v>400</v>
       </c>
       <c r="T32" s="6">
-        <f>L32-H32-R32</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U32" s="6">
-        <f>T32*G32</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V32" s="6">
-        <f>N32-H32-P32-R32-35</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W32" s="7">
-        <f>V32*G32</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>79</v>
       </c>
@@ -3626,66 +3626,66 @@
         <v>1027.3972602739725</v>
       </c>
       <c r="I33" s="6">
-        <f>H33*G33</f>
+        <f t="shared" si="0"/>
         <v>1027.3972602739725</v>
       </c>
       <c r="J33" s="6">
         <v>2000</v>
       </c>
       <c r="K33" s="6">
-        <f>J33*G33</f>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="L33" s="6">
-        <f>J33+R33</f>
+        <f t="shared" si="2"/>
         <v>2320</v>
       </c>
       <c r="M33" s="6">
-        <f>L33*G33</f>
+        <f t="shared" si="3"/>
         <v>2320</v>
       </c>
       <c r="N33" s="6">
-        <f>J33+R33+P33+35</f>
+        <f t="shared" si="4"/>
         <v>2708</v>
       </c>
       <c r="O33" s="6">
-        <f>N33*G33</f>
+        <f t="shared" si="5"/>
         <v>2708</v>
       </c>
       <c r="P33" s="6">
-        <f>(L33*0.15)+5</f>
+        <f t="shared" si="6"/>
         <v>353</v>
       </c>
       <c r="Q33" s="6">
-        <f>P33*G33</f>
+        <f t="shared" si="7"/>
         <v>353</v>
       </c>
       <c r="R33" s="6">
-        <f>J33*0.16</f>
+        <f t="shared" si="8"/>
         <v>320</v>
       </c>
       <c r="S33" s="6">
-        <f>R33*G33</f>
+        <f t="shared" si="9"/>
         <v>320</v>
       </c>
       <c r="T33" s="6">
-        <f>L33-H33-R33</f>
+        <f t="shared" si="10"/>
         <v>972.60273972602749</v>
       </c>
       <c r="U33" s="6">
-        <f>T33*G33</f>
+        <f t="shared" si="11"/>
         <v>972.60273972602749</v>
       </c>
       <c r="V33" s="6">
-        <f>N33-H33-P33-R33-35</f>
+        <f t="shared" si="12"/>
         <v>972.60273972602749</v>
       </c>
       <c r="W33" s="7">
-        <f>V33*G33</f>
+        <f t="shared" si="13"/>
         <v>972.60273972602749</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>81</v>
       </c>
@@ -3713,66 +3713,66 @@
         <v>403.05010893246185</v>
       </c>
       <c r="I34" s="6">
-        <f>H34*G34</f>
+        <f t="shared" si="0"/>
         <v>403.05010893246185</v>
       </c>
       <c r="J34" s="6">
         <v>500</v>
       </c>
       <c r="K34" s="6">
-        <f>J34*G34</f>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
       <c r="L34" s="6">
-        <f>J34+R34</f>
+        <f t="shared" si="2"/>
         <v>580</v>
       </c>
       <c r="M34" s="6">
-        <f>L34*G34</f>
+        <f t="shared" si="3"/>
         <v>580</v>
       </c>
       <c r="N34" s="6">
-        <f>J34+R34+P34+35</f>
+        <f t="shared" si="4"/>
         <v>707</v>
       </c>
       <c r="O34" s="6">
-        <f>N34*G34</f>
+        <f t="shared" si="5"/>
         <v>707</v>
       </c>
       <c r="P34" s="6">
-        <f>(L34*0.15)+5</f>
+        <f t="shared" si="6"/>
         <v>92</v>
       </c>
       <c r="Q34" s="6">
-        <f>P34*G34</f>
+        <f t="shared" si="7"/>
         <v>92</v>
       </c>
       <c r="R34" s="6">
-        <f>J34*0.16</f>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="S34" s="6">
-        <f>R34*G34</f>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="T34" s="6">
-        <f>L34-H34-R34</f>
+        <f t="shared" si="10"/>
         <v>96.949891067538147</v>
       </c>
       <c r="U34" s="6">
-        <f>T34*G34</f>
+        <f t="shared" si="11"/>
         <v>96.949891067538147</v>
       </c>
       <c r="V34" s="6">
-        <f>N34-H34-P34-R34-35</f>
+        <f t="shared" si="12"/>
         <v>96.949891067538147</v>
       </c>
       <c r="W34" s="7">
-        <f>V34*G34</f>
+        <f t="shared" si="13"/>
         <v>96.949891067538147</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>83</v>
       </c>
@@ -3800,66 +3800,66 @@
         <v>205.47945205479451</v>
       </c>
       <c r="I35" s="6">
-        <f>H35*G35</f>
+        <f t="shared" si="0"/>
         <v>205.47945205479451</v>
       </c>
       <c r="J35" s="6">
         <v>400</v>
       </c>
       <c r="K35" s="6">
-        <f>J35*G35</f>
+        <f t="shared" si="1"/>
         <v>400</v>
       </c>
       <c r="L35" s="6">
-        <f>J35+R35</f>
+        <f t="shared" si="2"/>
         <v>464</v>
       </c>
       <c r="M35" s="6">
-        <f>L35*G35</f>
+        <f t="shared" si="3"/>
         <v>464</v>
       </c>
       <c r="N35" s="6">
-        <f>J35+R35+P35+35</f>
+        <f t="shared" si="4"/>
         <v>573.6</v>
       </c>
       <c r="O35" s="6">
-        <f>N35*G35</f>
+        <f t="shared" si="5"/>
         <v>573.6</v>
       </c>
       <c r="P35" s="6">
-        <f>(L35*0.15)+5</f>
+        <f t="shared" si="6"/>
         <v>74.599999999999994</v>
       </c>
       <c r="Q35" s="6">
-        <f>P35*G35</f>
+        <f t="shared" si="7"/>
         <v>74.599999999999994</v>
       </c>
       <c r="R35" s="6">
-        <f>J35*0.16</f>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="S35" s="6">
-        <f>R35*G35</f>
+        <f t="shared" si="9"/>
         <v>64</v>
       </c>
       <c r="T35" s="6">
-        <f>L35-H35-R35</f>
+        <f t="shared" si="10"/>
         <v>194.52054794520552</v>
       </c>
       <c r="U35" s="6">
-        <f>T35*G35</f>
+        <f t="shared" si="11"/>
         <v>194.52054794520552</v>
       </c>
       <c r="V35" s="6">
-        <f>N35-H35-P35-R35-35</f>
+        <f t="shared" si="12"/>
         <v>194.52054794520552</v>
       </c>
       <c r="W35" s="7">
-        <f>V35*G35</f>
+        <f t="shared" si="13"/>
         <v>194.52054794520552</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="20"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
@@ -3908,7 +3908,7 @@
         <v>19469.74636553556</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -3933,7 +3933,7 @@
       <c r="V37" s="6"/>
       <c r="W37" s="7"/>
     </row>
-    <row r="38" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -3958,7 +3958,7 @@
       <c r="V38" s="5"/>
       <c r="W38" s="4"/>
     </row>
-    <row r="39" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -3983,7 +3983,7 @@
       <c r="V39" s="5"/>
       <c r="W39" s="4"/>
     </row>
-    <row r="40" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -4008,7 +4008,7 @@
       <c r="V40" s="5"/>
       <c r="W40" s="4"/>
     </row>
-    <row r="41" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -4033,7 +4033,7 @@
       <c r="V41" s="5"/>
       <c r="W41" s="4"/>
     </row>
-    <row r="42" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -4058,7 +4058,7 @@
       <c r="V42" s="5"/>
       <c r="W42" s="4"/>
     </row>
-    <row r="43" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -4083,7 +4083,7 @@
       <c r="V43" s="5"/>
       <c r="W43" s="4"/>
     </row>
-    <row r="44" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -4108,7 +4108,7 @@
       <c r="V44" s="5"/>
       <c r="W44" s="4"/>
     </row>
-    <row r="45" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -4133,7 +4133,7 @@
       <c r="V45" s="5"/>
       <c r="W45" s="4"/>
     </row>
-    <row r="46" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -4158,7 +4158,7 @@
       <c r="V46" s="5"/>
       <c r="W46" s="4"/>
     </row>
-    <row r="47" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -4183,7 +4183,7 @@
       <c r="V47" s="5"/>
       <c r="W47" s="4"/>
     </row>
-    <row r="48" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -4208,7 +4208,7 @@
       <c r="V48" s="5"/>
       <c r="W48" s="4"/>
     </row>
-    <row r="49" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -4233,7 +4233,7 @@
       <c r="V49" s="5"/>
       <c r="W49" s="4"/>
     </row>
-    <row r="50" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -4258,7 +4258,7 @@
       <c r="V50" s="5"/>
       <c r="W50" s="4"/>
     </row>
-    <row r="51" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -4283,7 +4283,7 @@
       <c r="V51" s="5"/>
       <c r="W51" s="4"/>
     </row>
-    <row r="52" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -4308,7 +4308,7 @@
       <c r="V52" s="5"/>
       <c r="W52" s="4"/>
     </row>
-    <row r="53" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -4333,7 +4333,7 @@
       <c r="V53" s="5"/>
       <c r="W53" s="4"/>
     </row>
-    <row r="54" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -4358,7 +4358,7 @@
       <c r="V54" s="5"/>
       <c r="W54" s="4"/>
     </row>
-    <row r="55" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -4383,7 +4383,7 @@
       <c r="V55" s="5"/>
       <c r="W55" s="4"/>
     </row>
-    <row r="56" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -4408,7 +4408,7 @@
       <c r="V56" s="5"/>
       <c r="W56" s="4"/>
     </row>
-    <row r="57" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -4433,7 +4433,7 @@
       <c r="V57" s="5"/>
       <c r="W57" s="4"/>
     </row>
-    <row r="58" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -4458,7 +4458,7 @@
       <c r="V58" s="5"/>
       <c r="W58" s="4"/>
     </row>
-    <row r="59" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -4483,7 +4483,7 @@
       <c r="V59" s="5"/>
       <c r="W59" s="4"/>
     </row>
-    <row r="60" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -4508,7 +4508,7 @@
       <c r="V60" s="5"/>
       <c r="W60" s="4"/>
     </row>
-    <row r="61" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -4533,7 +4533,7 @@
       <c r="V61" s="5"/>
       <c r="W61" s="4"/>
     </row>
-    <row r="62" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -4558,7 +4558,7 @@
       <c r="V62" s="5"/>
       <c r="W62" s="4"/>
     </row>
-    <row r="63" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -4583,7 +4583,7 @@
       <c r="V63" s="5"/>
       <c r="W63" s="4"/>
     </row>
-    <row r="64" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -4608,7 +4608,7 @@
       <c r="V64" s="5"/>
       <c r="W64" s="4"/>
     </row>
-    <row r="65" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -4633,7 +4633,7 @@
       <c r="V65" s="5"/>
       <c r="W65" s="4"/>
     </row>
-    <row r="66" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -4658,7 +4658,7 @@
       <c r="V66" s="5"/>
       <c r="W66" s="4"/>
     </row>
-    <row r="67" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -4683,7 +4683,7 @@
       <c r="V67" s="5"/>
       <c r="W67" s="4"/>
     </row>
-    <row r="68" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -4708,7 +4708,7 @@
       <c r="V68" s="5"/>
       <c r="W68" s="4"/>
     </row>
-    <row r="69" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -4733,7 +4733,7 @@
       <c r="V69" s="5"/>
       <c r="W69" s="4"/>
     </row>
-    <row r="70" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -4758,7 +4758,7 @@
       <c r="V70" s="5"/>
       <c r="W70" s="4"/>
     </row>
-    <row r="71" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -4783,7 +4783,7 @@
       <c r="V71" s="5"/>
       <c r="W71" s="4"/>
     </row>
-    <row r="72" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -4808,7 +4808,7 @@
       <c r="V72" s="5"/>
       <c r="W72" s="4"/>
     </row>
-    <row r="73" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -4833,7 +4833,7 @@
       <c r="V73" s="5"/>
       <c r="W73" s="4"/>
     </row>
-    <row r="74" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -4858,7 +4858,7 @@
       <c r="V74" s="5"/>
       <c r="W74" s="4"/>
     </row>
-    <row r="75" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -4883,7 +4883,7 @@
       <c r="V75" s="5"/>
       <c r="W75" s="4"/>
     </row>
-    <row r="76" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -4908,7 +4908,7 @@
       <c r="V76" s="5"/>
       <c r="W76" s="4"/>
     </row>
-    <row r="77" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -4933,7 +4933,7 @@
       <c r="V77" s="5"/>
       <c r="W77" s="4"/>
     </row>
-    <row r="78" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -4958,7 +4958,7 @@
       <c r="V78" s="5"/>
       <c r="W78" s="4"/>
     </row>
-    <row r="79" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -4983,7 +4983,7 @@
       <c r="V79" s="5"/>
       <c r="W79" s="4"/>
     </row>
-    <row r="80" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -5008,7 +5008,7 @@
       <c r="V80" s="5"/>
       <c r="W80" s="4"/>
     </row>
-    <row r="81" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -5033,7 +5033,7 @@
       <c r="V81" s="5"/>
       <c r="W81" s="4"/>
     </row>
-    <row r="82" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -5058,7 +5058,7 @@
       <c r="V82" s="5"/>
       <c r="W82" s="4"/>
     </row>
-    <row r="83" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -5083,7 +5083,7 @@
       <c r="V83" s="5"/>
       <c r="W83" s="4"/>
     </row>
-    <row r="84" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -5108,7 +5108,7 @@
       <c r="V84" s="5"/>
       <c r="W84" s="4"/>
     </row>
-    <row r="85" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -5133,7 +5133,7 @@
       <c r="V85" s="5"/>
       <c r="W85" s="4"/>
     </row>
-    <row r="86" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -5158,7 +5158,7 @@
       <c r="V86" s="5"/>
       <c r="W86" s="4"/>
     </row>
-    <row r="87" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -5183,7 +5183,7 @@
       <c r="V87" s="5"/>
       <c r="W87" s="4"/>
     </row>
-    <row r="88" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -5208,7 +5208,7 @@
       <c r="V88" s="5"/>
       <c r="W88" s="4"/>
     </row>
-    <row r="89" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -5233,7 +5233,7 @@
       <c r="V89" s="5"/>
       <c r="W89" s="4"/>
     </row>
-    <row r="90" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -5258,7 +5258,7 @@
       <c r="V90" s="5"/>
       <c r="W90" s="4"/>
     </row>
-    <row r="91" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -5283,7 +5283,7 @@
       <c r="V91" s="5"/>
       <c r="W91" s="4"/>
     </row>
-    <row r="92" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -5308,7 +5308,7 @@
       <c r="V92" s="5"/>
       <c r="W92" s="4"/>
     </row>
-    <row r="93" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -5333,7 +5333,7 @@
       <c r="V93" s="5"/>
       <c r="W93" s="4"/>
     </row>
-    <row r="94" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -5358,7 +5358,7 @@
       <c r="V94" s="5"/>
       <c r="W94" s="4"/>
     </row>
-    <row r="95" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -5383,7 +5383,7 @@
       <c r="V95" s="5"/>
       <c r="W95" s="4"/>
     </row>
-    <row r="96" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -5408,7 +5408,7 @@
       <c r="V96" s="5"/>
       <c r="W96" s="4"/>
     </row>
-    <row r="97" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -5433,7 +5433,7 @@
       <c r="V97" s="5"/>
       <c r="W97" s="4"/>
     </row>
-    <row r="98" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -5458,7 +5458,7 @@
       <c r="V98" s="5"/>
       <c r="W98" s="4"/>
     </row>
-    <row r="99" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -5483,7 +5483,7 @@
       <c r="V99" s="5"/>
       <c r="W99" s="4"/>
     </row>
-    <row r="100" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -5508,7 +5508,7 @@
       <c r="V100" s="5"/>
       <c r="W100" s="4"/>
     </row>
-    <row r="101" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -5533,7 +5533,7 @@
       <c r="V101" s="5"/>
       <c r="W101" s="4"/>
     </row>
-    <row r="102" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -5558,7 +5558,7 @@
       <c r="V102" s="5"/>
       <c r="W102" s="4"/>
     </row>
-    <row r="103" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -5583,7 +5583,7 @@
       <c r="V103" s="5"/>
       <c r="W103" s="4"/>
     </row>
-    <row r="104" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="5"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -5608,7 +5608,7 @@
       <c r="V104" s="5"/>
       <c r="W104" s="4"/>
     </row>
-    <row r="105" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="5"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -5633,7 +5633,7 @@
       <c r="V105" s="5"/>
       <c r="W105" s="4"/>
     </row>
-    <row r="106" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -5658,7 +5658,7 @@
       <c r="V106" s="5"/>
       <c r="W106" s="4"/>
     </row>
-    <row r="107" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="5"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -5683,7 +5683,7 @@
       <c r="V107" s="5"/>
       <c r="W107" s="4"/>
     </row>
-    <row r="108" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -5708,7 +5708,7 @@
       <c r="V108" s="5"/>
       <c r="W108" s="4"/>
     </row>
-    <row r="109" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -5733,7 +5733,7 @@
       <c r="V109" s="5"/>
       <c r="W109" s="4"/>
     </row>
-    <row r="110" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="5"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -5758,7 +5758,7 @@
       <c r="V110" s="5"/>
       <c r="W110" s="4"/>
     </row>
-    <row r="111" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="5"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -5783,7 +5783,7 @@
       <c r="V111" s="5"/>
       <c r="W111" s="4"/>
     </row>
-    <row r="112" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="5"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -5808,7 +5808,7 @@
       <c r="V112" s="5"/>
       <c r="W112" s="4"/>
     </row>
-    <row r="113" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="5"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -5833,7 +5833,7 @@
       <c r="V113" s="5"/>
       <c r="W113" s="4"/>
     </row>
-    <row r="114" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="5"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -5858,7 +5858,7 @@
       <c r="V114" s="5"/>
       <c r="W114" s="4"/>
     </row>
-    <row r="115" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="5"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -5883,7 +5883,7 @@
       <c r="V115" s="5"/>
       <c r="W115" s="4"/>
     </row>
-    <row r="116" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="5"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -5908,7 +5908,7 @@
       <c r="V116" s="5"/>
       <c r="W116" s="4"/>
     </row>
-    <row r="117" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="5"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -5933,7 +5933,7 @@
       <c r="V117" s="5"/>
       <c r="W117" s="4"/>
     </row>
-    <row r="118" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="5"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -5958,7 +5958,7 @@
       <c r="V118" s="5"/>
       <c r="W118" s="4"/>
     </row>
-    <row r="119" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="5"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -5983,7 +5983,7 @@
       <c r="V119" s="5"/>
       <c r="W119" s="4"/>
     </row>
-    <row r="120" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="5"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -6008,7 +6008,7 @@
       <c r="V120" s="5"/>
       <c r="W120" s="4"/>
     </row>
-    <row r="121" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -6033,7 +6033,7 @@
       <c r="V121" s="5"/>
       <c r="W121" s="4"/>
     </row>
-    <row r="122" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="5"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -6058,7 +6058,7 @@
       <c r="V122" s="5"/>
       <c r="W122" s="4"/>
     </row>
-    <row r="123" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="5"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -6083,7 +6083,7 @@
       <c r="V123" s="5"/>
       <c r="W123" s="4"/>
     </row>
-    <row r="124" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="5"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -6108,7 +6108,7 @@
       <c r="V124" s="5"/>
       <c r="W124" s="4"/>
     </row>
-    <row r="125" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="5"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -6133,7 +6133,7 @@
       <c r="V125" s="5"/>
       <c r="W125" s="4"/>
     </row>
-    <row r="126" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="5"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -6158,7 +6158,7 @@
       <c r="V126" s="5"/>
       <c r="W126" s="4"/>
     </row>
-    <row r="127" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -6183,7 +6183,7 @@
       <c r="V127" s="5"/>
       <c r="W127" s="4"/>
     </row>
-    <row r="128" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="5"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -6208,7 +6208,7 @@
       <c r="V128" s="5"/>
       <c r="W128" s="4"/>
     </row>
-    <row r="129" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -6233,7 +6233,7 @@
       <c r="V129" s="5"/>
       <c r="W129" s="4"/>
     </row>
-    <row r="130" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="5"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -6258,7 +6258,7 @@
       <c r="V130" s="5"/>
       <c r="W130" s="4"/>
     </row>
-    <row r="131" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="5"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -6283,7 +6283,7 @@
       <c r="V131" s="5"/>
       <c r="W131" s="4"/>
     </row>
-    <row r="132" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="5"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -6308,7 +6308,7 @@
       <c r="V132" s="5"/>
       <c r="W132" s="4"/>
     </row>
-    <row r="133" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="5"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -6333,7 +6333,7 @@
       <c r="V133" s="5"/>
       <c r="W133" s="4"/>
     </row>
-    <row r="134" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="5"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -6358,7 +6358,7 @@
       <c r="V134" s="5"/>
       <c r="W134" s="4"/>
     </row>
-    <row r="135" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -6383,7 +6383,7 @@
       <c r="V135" s="5"/>
       <c r="W135" s="4"/>
     </row>
-    <row r="136" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="5"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -6408,7 +6408,7 @@
       <c r="V136" s="5"/>
       <c r="W136" s="4"/>
     </row>
-    <row r="137" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="5"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -6433,7 +6433,7 @@
       <c r="V137" s="5"/>
       <c r="W137" s="4"/>
     </row>
-    <row r="138" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="5"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -6458,7 +6458,7 @@
       <c r="V138" s="5"/>
       <c r="W138" s="4"/>
     </row>
-    <row r="139" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="5"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -6483,7 +6483,7 @@
       <c r="V139" s="5"/>
       <c r="W139" s="4"/>
     </row>
-    <row r="140" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="5"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -6508,7 +6508,7 @@
       <c r="V140" s="5"/>
       <c r="W140" s="4"/>
     </row>
-    <row r="141" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="5"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -6533,7 +6533,7 @@
       <c r="V141" s="5"/>
       <c r="W141" s="4"/>
     </row>
-    <row r="142" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="5"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -6558,7 +6558,7 @@
       <c r="V142" s="5"/>
       <c r="W142" s="4"/>
     </row>
-    <row r="143" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -6583,7 +6583,7 @@
       <c r="V143" s="5"/>
       <c r="W143" s="4"/>
     </row>
-    <row r="144" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="5"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -6608,7 +6608,7 @@
       <c r="V144" s="5"/>
       <c r="W144" s="4"/>
     </row>
-    <row r="145" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="5"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -6633,7 +6633,7 @@
       <c r="V145" s="5"/>
       <c r="W145" s="4"/>
     </row>
-    <row r="146" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="5"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -6658,7 +6658,7 @@
       <c r="V146" s="5"/>
       <c r="W146" s="4"/>
     </row>
-    <row r="147" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="5"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -6683,7 +6683,7 @@
       <c r="V147" s="5"/>
       <c r="W147" s="4"/>
     </row>
-    <row r="148" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="5"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -6708,7 +6708,7 @@
       <c r="V148" s="5"/>
       <c r="W148" s="4"/>
     </row>
-    <row r="149" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="5"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -6733,7 +6733,7 @@
       <c r="V149" s="5"/>
       <c r="W149" s="4"/>
     </row>
-    <row r="150" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="5"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -6758,7 +6758,7 @@
       <c r="V150" s="5"/>
       <c r="W150" s="4"/>
     </row>
-    <row r="151" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="5"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -6783,7 +6783,7 @@
       <c r="V151" s="5"/>
       <c r="W151" s="4"/>
     </row>
-    <row r="152" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="5"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -6808,7 +6808,7 @@
       <c r="V152" s="5"/>
       <c r="W152" s="4"/>
     </row>
-    <row r="153" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="5"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -6833,7 +6833,7 @@
       <c r="V153" s="5"/>
       <c r="W153" s="4"/>
     </row>
-    <row r="154" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="5"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -6858,7 +6858,7 @@
       <c r="V154" s="5"/>
       <c r="W154" s="4"/>
     </row>
-    <row r="155" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="5"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -6883,7 +6883,7 @@
       <c r="V155" s="5"/>
       <c r="W155" s="4"/>
     </row>
-    <row r="156" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="5"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -6908,7 +6908,7 @@
       <c r="V156" s="5"/>
       <c r="W156" s="4"/>
     </row>
-    <row r="157" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="5"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -6933,7 +6933,7 @@
       <c r="V157" s="5"/>
       <c r="W157" s="4"/>
     </row>
-    <row r="158" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="5"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -6958,7 +6958,7 @@
       <c r="V158" s="5"/>
       <c r="W158" s="4"/>
     </row>
-    <row r="159" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="5"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -6983,7 +6983,7 @@
       <c r="V159" s="5"/>
       <c r="W159" s="4"/>
     </row>
-    <row r="160" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="5"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -7008,7 +7008,7 @@
       <c r="V160" s="5"/>
       <c r="W160" s="4"/>
     </row>
-    <row r="161" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="5"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -7033,7 +7033,7 @@
       <c r="V161" s="5"/>
       <c r="W161" s="4"/>
     </row>
-    <row r="162" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="5"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -7058,7 +7058,7 @@
       <c r="V162" s="5"/>
       <c r="W162" s="4"/>
     </row>
-    <row r="163" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="5"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -7083,7 +7083,7 @@
       <c r="V163" s="5"/>
       <c r="W163" s="4"/>
     </row>
-    <row r="164" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="5"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -7108,7 +7108,7 @@
       <c r="V164" s="5"/>
       <c r="W164" s="4"/>
     </row>
-    <row r="165" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="5"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -7133,7 +7133,7 @@
       <c r="V165" s="5"/>
       <c r="W165" s="4"/>
     </row>
-    <row r="166" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="5"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -7158,7 +7158,7 @@
       <c r="V166" s="5"/>
       <c r="W166" s="4"/>
     </row>
-    <row r="167" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="5"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -7183,7 +7183,7 @@
       <c r="V167" s="5"/>
       <c r="W167" s="4"/>
     </row>
-    <row r="168" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="5"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -7208,7 +7208,7 @@
       <c r="V168" s="5"/>
       <c r="W168" s="4"/>
     </row>
-    <row r="169" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="5"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -7233,7 +7233,7 @@
       <c r="V169" s="5"/>
       <c r="W169" s="4"/>
     </row>
-    <row r="170" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="5"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -7258,7 +7258,7 @@
       <c r="V170" s="5"/>
       <c r="W170" s="4"/>
     </row>
-    <row r="171" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="5"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -7283,7 +7283,7 @@
       <c r="V171" s="5"/>
       <c r="W171" s="4"/>
     </row>
-    <row r="172" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="5"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -7308,7 +7308,7 @@
       <c r="V172" s="5"/>
       <c r="W172" s="4"/>
     </row>
-    <row r="173" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="5"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -7333,7 +7333,7 @@
       <c r="V173" s="5"/>
       <c r="W173" s="4"/>
     </row>
-    <row r="174" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="5"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -7358,7 +7358,7 @@
       <c r="V174" s="5"/>
       <c r="W174" s="4"/>
     </row>
-    <row r="175" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="5"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -7383,7 +7383,7 @@
       <c r="V175" s="5"/>
       <c r="W175" s="4"/>
     </row>
-    <row r="176" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="5"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -7408,7 +7408,7 @@
       <c r="V176" s="5"/>
       <c r="W176" s="4"/>
     </row>
-    <row r="177" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="5"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -7433,7 +7433,7 @@
       <c r="V177" s="5"/>
       <c r="W177" s="4"/>
     </row>
-    <row r="178" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="5"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -7458,7 +7458,7 @@
       <c r="V178" s="5"/>
       <c r="W178" s="4"/>
     </row>
-    <row r="179" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="5"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -7483,7 +7483,7 @@
       <c r="V179" s="5"/>
       <c r="W179" s="4"/>
     </row>
-    <row r="180" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="5"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -7508,7 +7508,7 @@
       <c r="V180" s="5"/>
       <c r="W180" s="4"/>
     </row>
-    <row r="181" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="5"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -7533,7 +7533,7 @@
       <c r="V181" s="5"/>
       <c r="W181" s="4"/>
     </row>
-    <row r="182" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="5"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -7558,7 +7558,7 @@
       <c r="V182" s="5"/>
       <c r="W182" s="4"/>
     </row>
-    <row r="183" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="5"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -7583,7 +7583,7 @@
       <c r="V183" s="5"/>
       <c r="W183" s="4"/>
     </row>
-    <row r="184" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="5"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -7608,7 +7608,7 @@
       <c r="V184" s="5"/>
       <c r="W184" s="4"/>
     </row>
-    <row r="185" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="5"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -7633,7 +7633,7 @@
       <c r="V185" s="5"/>
       <c r="W185" s="4"/>
     </row>
-    <row r="186" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="5"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -7658,7 +7658,7 @@
       <c r="V186" s="5"/>
       <c r="W186" s="4"/>
     </row>
-    <row r="187" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="5"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -7683,7 +7683,7 @@
       <c r="V187" s="5"/>
       <c r="W187" s="4"/>
     </row>
-    <row r="188" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="5"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -7708,7 +7708,7 @@
       <c r="V188" s="5"/>
       <c r="W188" s="4"/>
     </row>
-    <row r="189" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="5"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -7733,7 +7733,7 @@
       <c r="V189" s="5"/>
       <c r="W189" s="4"/>
     </row>
-    <row r="190" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="5"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -7758,7 +7758,7 @@
       <c r="V190" s="5"/>
       <c r="W190" s="4"/>
     </row>
-    <row r="191" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="5"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -7783,7 +7783,7 @@
       <c r="V191" s="5"/>
       <c r="W191" s="4"/>
     </row>
-    <row r="192" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="5"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -7808,7 +7808,7 @@
       <c r="V192" s="5"/>
       <c r="W192" s="4"/>
     </row>
-    <row r="193" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="5"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -7833,7 +7833,7 @@
       <c r="V193" s="5"/>
       <c r="W193" s="4"/>
     </row>
-    <row r="194" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="5"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -7858,7 +7858,7 @@
       <c r="V194" s="5"/>
       <c r="W194" s="4"/>
     </row>
-    <row r="195" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="5"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -7883,7 +7883,7 @@
       <c r="V195" s="5"/>
       <c r="W195" s="4"/>
     </row>
-    <row r="196" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="5"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -7908,7 +7908,7 @@
       <c r="V196" s="5"/>
       <c r="W196" s="4"/>
     </row>
-    <row r="197" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="5"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -7933,7 +7933,7 @@
       <c r="V197" s="5"/>
       <c r="W197" s="4"/>
     </row>
-    <row r="198" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="5"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -7958,7 +7958,7 @@
       <c r="V198" s="5"/>
       <c r="W198" s="4"/>
     </row>
-    <row r="199" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="5"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -7983,7 +7983,7 @@
       <c r="V199" s="5"/>
       <c r="W199" s="4"/>
     </row>
-    <row r="200" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="5"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -8008,7 +8008,7 @@
       <c r="V200" s="5"/>
       <c r="W200" s="4"/>
     </row>
-    <row r="201" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="5"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -8033,7 +8033,7 @@
       <c r="V201" s="5"/>
       <c r="W201" s="4"/>
     </row>
-    <row r="202" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="5"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -8058,7 +8058,7 @@
       <c r="V202" s="5"/>
       <c r="W202" s="4"/>
     </row>
-    <row r="203" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="5"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -8083,7 +8083,7 @@
       <c r="V203" s="5"/>
       <c r="W203" s="4"/>
     </row>
-    <row r="204" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="5"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -8108,7 +8108,7 @@
       <c r="V204" s="5"/>
       <c r="W204" s="4"/>
     </row>
-    <row r="205" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="5"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -8133,7 +8133,7 @@
       <c r="V205" s="5"/>
       <c r="W205" s="4"/>
     </row>
-    <row r="206" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="5"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -8158,7 +8158,7 @@
       <c r="V206" s="5"/>
       <c r="W206" s="4"/>
     </row>
-    <row r="207" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="5"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -8183,7 +8183,7 @@
       <c r="V207" s="5"/>
       <c r="W207" s="4"/>
     </row>
-    <row r="208" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="5"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -8208,7 +8208,7 @@
       <c r="V208" s="5"/>
       <c r="W208" s="4"/>
     </row>
-    <row r="209" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="5"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -8233,8 +8233,8 @@
       <c r="V209" s="5"/>
       <c r="W209" s="4"/>
     </row>
-    <row r="210" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W35">
     <sortCondition ref="A2"/>

--- a/JavaApplication19/src/excel/Inventario.xlsx
+++ b/JavaApplication19/src/excel/Inventario.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F22424E-5905-46EC-905C-3E3494C5A4A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B375CA27-632F-4CE9-8970-F19EFC2B1FD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,19 +16,11 @@
     <sheet name="INVENTARIO" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="112">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -313,6 +305,57 @@
   </si>
   <si>
     <t>FECHA DE REGISTRO</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Talla M</t>
+  </si>
+  <si>
+    <t>21  julio</t>
+  </si>
+  <si>
+    <t>Nuevo</t>
+  </si>
+  <si>
+    <t>Pack2</t>
+  </si>
+  <si>
+    <t>$890</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Asiento nuevo</t>
+  </si>
+  <si>
+    <t>21  julio 20</t>
+  </si>
+  <si>
+    <t>Pack1</t>
+  </si>
+  <si>
+    <t>$8900</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Talla L</t>
+  </si>
+  <si>
+    <t>Pack3</t>
+  </si>
+  <si>
+    <t>$5600</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Grande</t>
   </si>
 </sst>
 </file>
@@ -911,20 +954,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC211"/>
+  <dimension ref="A1:AC210"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O33" sqref="O33"/>
+      <selection pane="bottomRight" activeCell="A36" sqref="A36:W36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="50.6640625" customWidth="1"/>
-    <col min="3" max="23" width="15.6640625" customWidth="1"/>
-    <col min="24" max="29" width="10.6640625" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" width="50.6640625" collapsed="true"/>
+    <col min="3" max="23" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="24" max="29" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
@@ -3859,154 +3902,160 @@
         <v>194.52054794520552</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13">
+    <row r="36">
+      <c r="A36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" t="s">
+        <v>100</v>
+      </c>
+      <c r="G36" t="s">
+        <v>95</v>
+      </c>
+      <c r="H36" t="s">
+        <v>100</v>
+      </c>
+      <c r="I36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" t="s">
+        <v>106</v>
+      </c>
+      <c r="H37" t="s">
+        <v>105</v>
+      </c>
+      <c r="I37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38"/>
+      <c r="B38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" t="s">
+        <v>104</v>
+      </c>
+      <c r="F38" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" t="s">
+        <v>106</v>
+      </c>
+      <c r="H38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39"/>
+      <c r="B39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" t="s">
+        <v>109</v>
+      </c>
+      <c r="G39" t="s">
+        <v>95</v>
+      </c>
+      <c r="H39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="20"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13">
         <f>SUM(I2:I35)</f>
         <v>37790.25363446444</v>
       </c>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13">
+      <c r="J40" s="13"/>
+      <c r="K40" s="13">
         <f>SUM(K2:K35)</f>
         <v>57260</v>
       </c>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13">
+      <c r="L40" s="13"/>
+      <c r="M40" s="13">
         <f>SUM(M2:M35)</f>
         <v>66421.600000000006</v>
       </c>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13">
+      <c r="N40" s="13"/>
+      <c r="O40" s="13">
         <f>SUM(O2:O35)</f>
         <v>87944.84</v>
       </c>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13">
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13">
         <f>SUM(Q2:Q35)</f>
         <v>11408.240000000002</v>
       </c>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13">
+      <c r="R40" s="13"/>
+      <c r="S40" s="13">
         <f>SUM(S2:S35)</f>
         <v>9161.6</v>
       </c>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13">
+      <c r="T40" s="13"/>
+      <c r="U40" s="13">
         <f>SUM(U2:U35)</f>
         <v>19469.74636553556</v>
       </c>
-      <c r="V36" s="13"/>
-      <c r="W36" s="14">
+      <c r="V40" s="13"/>
+      <c r="W40" s="14">
         <f>SUM(W2:W35)</f>
         <v>19469.74636553556</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
-      <c r="W37" s="7"/>
-    </row>
-    <row r="38" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="4"/>
-    </row>
-    <row r="39" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="4"/>
-    </row>
-    <row r="40" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="4"/>
     </row>
     <row r="41" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
@@ -8208,33 +8257,8 @@
       <c r="V208" s="5"/>
       <c r="W208" s="4"/>
     </row>
-    <row r="209" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="5"/>
-      <c r="B209" s="4"/>
-      <c r="C209" s="4"/>
-      <c r="D209" s="5"/>
-      <c r="E209" s="5"/>
-      <c r="F209" s="5"/>
-      <c r="G209" s="5"/>
-      <c r="H209" s="5"/>
-      <c r="I209" s="5"/>
-      <c r="J209" s="6"/>
-      <c r="K209" s="6"/>
-      <c r="L209" s="6"/>
-      <c r="M209" s="6"/>
-      <c r="N209" s="6"/>
-      <c r="O209" s="6"/>
-      <c r="P209" s="6"/>
-      <c r="Q209" s="6"/>
-      <c r="R209" s="6"/>
-      <c r="S209" s="6"/>
-      <c r="T209" s="6"/>
-      <c r="U209" s="6"/>
-      <c r="V209" s="5"/>
-      <c r="W209" s="4"/>
-    </row>
-    <row r="210" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="45" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W35">
     <sortCondition ref="A2"/>

--- a/JavaApplication19/src/excel/Inventario.xlsx
+++ b/JavaApplication19/src/excel/Inventario.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="122">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -356,6 +356,36 @@
   </si>
   <si>
     <t>Grande</t>
+  </si>
+  <si>
+    <t>bicicleto</t>
+  </si>
+  <si>
+    <t>chingona</t>
+  </si>
+  <si>
+    <t>22  julio 20</t>
+  </si>
+  <si>
+    <t>$10</t>
+  </si>
+  <si>
+    <t>frenos shimano</t>
+  </si>
+  <si>
+    <t>frenos para frenar</t>
+  </si>
+  <si>
+    <t>Seminuevo</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>$23</t>
   </si>
 </sst>
 </file>
@@ -3961,126 +3991,104 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38"/>
+      <c r="A38" t="s">
+        <v>112</v>
+      </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C38" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="D38" t="s">
         <v>98</v>
       </c>
       <c r="E38" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F38" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="G38" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="H38" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39"/>
+      <c r="A39" t="s">
+        <v>116</v>
+      </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C39" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="D39" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="E39" t="s">
         <v>108</v>
       </c>
       <c r="F39" t="s">
+        <v>119</v>
+      </c>
+      <c r="G39" t="s">
+        <v>120</v>
+      </c>
+      <c r="H39" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40"/>
+      <c r="B40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" t="s">
+        <v>104</v>
+      </c>
+      <c r="F40" t="s">
+        <v>100</v>
+      </c>
+      <c r="G40" t="s">
+        <v>106</v>
+      </c>
+      <c r="H40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41"/>
+      <c r="B41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" t="s">
         <v>109</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G41" t="s">
         <v>95</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H41" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="40" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="20"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13">
-        <f>SUM(I2:I35)</f>
-        <v>37790.25363446444</v>
-      </c>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13">
-        <f>SUM(K2:K35)</f>
-        <v>57260</v>
-      </c>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13">
-        <f>SUM(M2:M35)</f>
-        <v>66421.600000000006</v>
-      </c>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13">
-        <f>SUM(O2:O35)</f>
-        <v>87944.84</v>
-      </c>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13">
-        <f>SUM(Q2:Q35)</f>
-        <v>11408.240000000002</v>
-      </c>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13">
-        <f>SUM(S2:S35)</f>
-        <v>9161.6</v>
-      </c>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13">
-        <f>SUM(U2:U35)</f>
-        <v>19469.74636553556</v>
-      </c>
-      <c r="V40" s="13"/>
-      <c r="W40" s="14">
-        <f>SUM(W2:W35)</f>
-        <v>19469.74636553556</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="4"/>
     </row>
     <row r="42" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>

--- a/JavaApplication19/src/excel/Inventario.xlsx
+++ b/JavaApplication19/src/excel/Inventario.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Desarrollo\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B375CA27-632F-4CE9-8970-F19EFC2B1FD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4931B40-B77A-4896-9E20-5BE5C8CAE439}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3863" yWindow="3863" windowWidth="21599" windowHeight="11497" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTARIO" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="103">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -307,82 +317,25 @@
     <t>FECHA DE REGISTRO</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Talla M</t>
-  </si>
-  <si>
-    <t>21  julio</t>
-  </si>
-  <si>
-    <t>Nuevo</t>
+    <t>bicicleto</t>
+  </si>
+  <si>
+    <t>esta bien perrona</t>
+  </si>
+  <si>
+    <t>22  julio 20</t>
+  </si>
+  <si>
+    <t>Seminuevo</t>
   </si>
   <si>
     <t>Pack2</t>
   </si>
   <si>
-    <t>$890</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Asiento nuevo</t>
-  </si>
-  <si>
-    <t>21  julio 20</t>
-  </si>
-  <si>
-    <t>Pack1</t>
-  </si>
-  <si>
-    <t>$8900</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Talla L</t>
-  </si>
-  <si>
-    <t>Pack3</t>
-  </si>
-  <si>
-    <t>$5600</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Grande</t>
-  </si>
-  <si>
-    <t>bicicleto</t>
-  </si>
-  <si>
-    <t>chingona</t>
-  </si>
-  <si>
-    <t>22  julio 20</t>
-  </si>
-  <si>
-    <t>$10</t>
-  </si>
-  <si>
-    <t>frenos shimano</t>
-  </si>
-  <si>
-    <t>frenos para frenar</t>
-  </si>
-  <si>
-    <t>Seminuevo</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>$23</t>
@@ -395,7 +348,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -417,21 +370,13 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -466,17 +411,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF2F2F"/>
         <bgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF03DF7B"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -517,11 +451,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -554,15 +487,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -575,19 +499,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -664,7 +581,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -984,28 +901,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC210"/>
+  <dimension ref="A1:AC204"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="R32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A36" sqref="A36:W36"/>
+      <selection pane="bottomRight" activeCell="AD38" sqref="AD38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.46484375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="2" customWidth="true" width="50.6640625" collapsed="true"/>
     <col min="3" max="23" customWidth="true" width="15.6640625" collapsed="true"/>
     <col min="24" max="29" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18"/>
+    <row r="1" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="15"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="16" t="s">
         <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1069,22 +986,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="12">
         <v>44004</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14">
         <v>1</v>
       </c>
       <c r="H2" s="6">
@@ -1150,7 +1067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
@@ -1231,7 +1148,7 @@
         <v>6.3948846218409017E-14</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
@@ -1312,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="9" t="s">
         <v>28</v>
       </c>
@@ -1393,22 +1310,22 @@
         <v>1508.4099999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="12">
         <v>43902</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17">
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14">
         <v>1</v>
       </c>
       <c r="H6" s="6">
@@ -1474,7 +1391,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
         <v>85</v>
       </c>
@@ -1555,7 +1472,7 @@
         <v>7100</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>30</v>
       </c>
@@ -1636,7 +1553,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
@@ -1723,7 +1640,7 @@
         <v>290.84967320261444</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
@@ -1810,7 +1727,7 @@
         <v>170.20547945205476</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>39</v>
       </c>
@@ -1897,22 +1814,22 @@
         <v>77.5599128540305</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+    <row r="12" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="12">
         <v>44004</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17">
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14">
         <v>1</v>
       </c>
       <c r="H12" s="6">
@@ -1978,7 +1895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>41</v>
       </c>
@@ -2059,7 +1976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
         <v>43</v>
       </c>
@@ -2146,7 +2063,7 @@
         <v>194.52054794520552</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>45</v>
       </c>
@@ -2227,7 +2144,7 @@
         <v>2932.8000000000011</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
         <v>47</v>
       </c>
@@ -2314,7 +2231,7 @@
         <v>243.15068493150687</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
         <v>49</v>
       </c>
@@ -2401,7 +2318,7 @@
         <v>72.945205479452056</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
         <v>51</v>
       </c>
@@ -2482,7 +2399,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="9" t="s">
         <v>53</v>
       </c>
@@ -2563,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
         <v>55</v>
       </c>
@@ -2650,7 +2567,7 @@
         <v>194.52054794520552</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>57</v>
       </c>
@@ -2731,7 +2648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
         <v>59</v>
       </c>
@@ -2818,7 +2735,7 @@
         <v>121.57534246575344</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>61</v>
       </c>
@@ -2899,22 +2816,22 @@
         <v>5.6843418860808015E-14</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
+    <row r="24" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="12">
         <v>44008</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17">
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14">
         <v>1</v>
       </c>
       <c r="H24" s="6">
@@ -2980,7 +2897,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
         <v>63</v>
       </c>
@@ -3067,7 +2984,7 @@
         <v>243.15068493150687</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="4" t="s">
         <v>65</v>
       </c>
@@ -3155,7 +3072,7 @@
       </c>
       <c r="AC26" s="11"/>
     </row>
-    <row r="27" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
         <v>67</v>
       </c>
@@ -3242,7 +3159,7 @@
         <v>121.57534246575344</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
         <v>69</v>
       </c>
@@ -3329,7 +3246,7 @@
         <v>116.33986928104576</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
         <v>71</v>
       </c>
@@ -3416,7 +3333,7 @@
         <v>121.57534246575344</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="4" t="s">
         <v>73</v>
       </c>
@@ -3503,7 +3420,7 @@
         <v>96.949891067538147</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
         <v>75</v>
       </c>
@@ -3590,7 +3507,7 @@
         <v>232.67973856209153</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="9" t="s">
         <v>77</v>
       </c>
@@ -3671,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
         <v>79</v>
       </c>
@@ -3758,7 +3675,7 @@
         <v>972.60273972602749</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="4" t="s">
         <v>81</v>
       </c>
@@ -3845,7 +3762,7 @@
         <v>96.949891067538147</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
         <v>83</v>
       </c>
@@ -3952,145 +3869,138 @@
         <v>100</v>
       </c>
       <c r="G36" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="H36" t="s">
-        <v>100</v>
-      </c>
-      <c r="I36" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>95</v>
-      </c>
-      <c r="B37" t="s">
         <v>102</v>
       </c>
-      <c r="C37" t="s">
-        <v>103</v>
-      </c>
-      <c r="D37" t="s">
-        <v>98</v>
-      </c>
-      <c r="E37" t="s">
-        <v>104</v>
-      </c>
-      <c r="F37" t="s">
-        <v>105</v>
-      </c>
-      <c r="G37" t="s">
-        <v>106</v>
-      </c>
-      <c r="H37" t="s">
-        <v>105</v>
-      </c>
-      <c r="I37" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>112</v>
-      </c>
-      <c r="B38" t="s">
-        <v>113</v>
-      </c>
-      <c r="C38" t="s">
-        <v>114</v>
-      </c>
-      <c r="D38" t="s">
-        <v>98</v>
-      </c>
-      <c r="E38" t="s">
-        <v>99</v>
-      </c>
-      <c r="F38" t="s">
-        <v>115</v>
-      </c>
-      <c r="G38" t="s">
-        <v>95</v>
-      </c>
-      <c r="H38" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>116</v>
-      </c>
-      <c r="B39" t="s">
-        <v>117</v>
-      </c>
-      <c r="C39" t="s">
-        <v>114</v>
-      </c>
-      <c r="D39" t="s">
-        <v>118</v>
-      </c>
-      <c r="E39" t="s">
-        <v>108</v>
-      </c>
-      <c r="F39" t="s">
-        <v>119</v>
-      </c>
-      <c r="G39" t="s">
-        <v>120</v>
-      </c>
-      <c r="H39" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40"/>
-      <c r="B40" t="s">
-        <v>111</v>
-      </c>
-      <c r="C40" t="s">
-        <v>103</v>
-      </c>
-      <c r="D40" t="s">
-        <v>98</v>
-      </c>
-      <c r="E40" t="s">
-        <v>104</v>
-      </c>
-      <c r="F40" t="s">
-        <v>100</v>
-      </c>
-      <c r="G40" t="s">
-        <v>106</v>
-      </c>
-      <c r="H40" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41"/>
-      <c r="B41" t="s">
-        <v>107</v>
-      </c>
-      <c r="C41" t="s">
-        <v>103</v>
-      </c>
-      <c r="D41" t="s">
-        <v>98</v>
-      </c>
-      <c r="E41" t="s">
-        <v>108</v>
-      </c>
-      <c r="F41" t="s">
-        <v>109</v>
-      </c>
-      <c r="G41" t="s">
-        <v>95</v>
-      </c>
-      <c r="H41" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="5"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="4"/>
+    </row>
+    <row r="38" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="5"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="4"/>
+    </row>
+    <row r="39" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="5"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="4"/>
+    </row>
+    <row r="40" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="5"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="4"/>
+    </row>
+    <row r="41" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="5"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="4"/>
+    </row>
+    <row r="42" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="5"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -4115,7 +4025,7 @@
       <c r="V42" s="5"/>
       <c r="W42" s="4"/>
     </row>
-    <row r="43" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="5"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -4140,7 +4050,7 @@
       <c r="V43" s="5"/>
       <c r="W43" s="4"/>
     </row>
-    <row r="44" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="5"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -4165,7 +4075,7 @@
       <c r="V44" s="5"/>
       <c r="W44" s="4"/>
     </row>
-    <row r="45" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="5"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -4190,7 +4100,7 @@
       <c r="V45" s="5"/>
       <c r="W45" s="4"/>
     </row>
-    <row r="46" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="5"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -4215,7 +4125,7 @@
       <c r="V46" s="5"/>
       <c r="W46" s="4"/>
     </row>
-    <row r="47" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="5"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -4240,7 +4150,7 @@
       <c r="V47" s="5"/>
       <c r="W47" s="4"/>
     </row>
-    <row r="48" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="5"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -4265,7 +4175,7 @@
       <c r="V48" s="5"/>
       <c r="W48" s="4"/>
     </row>
-    <row r="49" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="5"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -4290,7 +4200,7 @@
       <c r="V49" s="5"/>
       <c r="W49" s="4"/>
     </row>
-    <row r="50" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="5"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -4315,7 +4225,7 @@
       <c r="V50" s="5"/>
       <c r="W50" s="4"/>
     </row>
-    <row r="51" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="5"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -4340,7 +4250,7 @@
       <c r="V51" s="5"/>
       <c r="W51" s="4"/>
     </row>
-    <row r="52" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="5"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -4365,7 +4275,7 @@
       <c r="V52" s="5"/>
       <c r="W52" s="4"/>
     </row>
-    <row r="53" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="5"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -4390,7 +4300,7 @@
       <c r="V53" s="5"/>
       <c r="W53" s="4"/>
     </row>
-    <row r="54" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="5"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -4415,7 +4325,7 @@
       <c r="V54" s="5"/>
       <c r="W54" s="4"/>
     </row>
-    <row r="55" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="5"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -4440,7 +4350,7 @@
       <c r="V55" s="5"/>
       <c r="W55" s="4"/>
     </row>
-    <row r="56" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="5"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -4465,7 +4375,7 @@
       <c r="V56" s="5"/>
       <c r="W56" s="4"/>
     </row>
-    <row r="57" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="5"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -4490,7 +4400,7 @@
       <c r="V57" s="5"/>
       <c r="W57" s="4"/>
     </row>
-    <row r="58" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="5"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -4515,7 +4425,7 @@
       <c r="V58" s="5"/>
       <c r="W58" s="4"/>
     </row>
-    <row r="59" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="5"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -4540,7 +4450,7 @@
       <c r="V59" s="5"/>
       <c r="W59" s="4"/>
     </row>
-    <row r="60" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="5"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -4565,7 +4475,7 @@
       <c r="V60" s="5"/>
       <c r="W60" s="4"/>
     </row>
-    <row r="61" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="5"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -4590,7 +4500,7 @@
       <c r="V61" s="5"/>
       <c r="W61" s="4"/>
     </row>
-    <row r="62" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="5"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -4615,7 +4525,7 @@
       <c r="V62" s="5"/>
       <c r="W62" s="4"/>
     </row>
-    <row r="63" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="5"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -4640,7 +4550,7 @@
       <c r="V63" s="5"/>
       <c r="W63" s="4"/>
     </row>
-    <row r="64" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="5"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -4665,7 +4575,7 @@
       <c r="V64" s="5"/>
       <c r="W64" s="4"/>
     </row>
-    <row r="65" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="5"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -4690,7 +4600,7 @@
       <c r="V65" s="5"/>
       <c r="W65" s="4"/>
     </row>
-    <row r="66" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="5"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -4715,7 +4625,7 @@
       <c r="V66" s="5"/>
       <c r="W66" s="4"/>
     </row>
-    <row r="67" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="5"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -4740,7 +4650,7 @@
       <c r="V67" s="5"/>
       <c r="W67" s="4"/>
     </row>
-    <row r="68" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="5"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -4765,7 +4675,7 @@
       <c r="V68" s="5"/>
       <c r="W68" s="4"/>
     </row>
-    <row r="69" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="5"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -4790,7 +4700,7 @@
       <c r="V69" s="5"/>
       <c r="W69" s="4"/>
     </row>
-    <row r="70" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="5"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -4815,7 +4725,7 @@
       <c r="V70" s="5"/>
       <c r="W70" s="4"/>
     </row>
-    <row r="71" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="5"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -4840,7 +4750,7 @@
       <c r="V71" s="5"/>
       <c r="W71" s="4"/>
     </row>
-    <row r="72" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="5"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -4865,7 +4775,7 @@
       <c r="V72" s="5"/>
       <c r="W72" s="4"/>
     </row>
-    <row r="73" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="5"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -4890,7 +4800,7 @@
       <c r="V73" s="5"/>
       <c r="W73" s="4"/>
     </row>
-    <row r="74" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="5"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -4915,7 +4825,7 @@
       <c r="V74" s="5"/>
       <c r="W74" s="4"/>
     </row>
-    <row r="75" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="5"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -4940,7 +4850,7 @@
       <c r="V75" s="5"/>
       <c r="W75" s="4"/>
     </row>
-    <row r="76" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="5"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -4965,7 +4875,7 @@
       <c r="V76" s="5"/>
       <c r="W76" s="4"/>
     </row>
-    <row r="77" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="5"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -4990,7 +4900,7 @@
       <c r="V77" s="5"/>
       <c r="W77" s="4"/>
     </row>
-    <row r="78" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="5"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -5015,7 +4925,7 @@
       <c r="V78" s="5"/>
       <c r="W78" s="4"/>
     </row>
-    <row r="79" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="5"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -5040,7 +4950,7 @@
       <c r="V79" s="5"/>
       <c r="W79" s="4"/>
     </row>
-    <row r="80" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="5"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -5065,7 +4975,7 @@
       <c r="V80" s="5"/>
       <c r="W80" s="4"/>
     </row>
-    <row r="81" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="5"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -5090,7 +5000,7 @@
       <c r="V81" s="5"/>
       <c r="W81" s="4"/>
     </row>
-    <row r="82" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="5"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -5115,7 +5025,7 @@
       <c r="V82" s="5"/>
       <c r="W82" s="4"/>
     </row>
-    <row r="83" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="5"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -5140,7 +5050,7 @@
       <c r="V83" s="5"/>
       <c r="W83" s="4"/>
     </row>
-    <row r="84" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="5"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -5165,7 +5075,7 @@
       <c r="V84" s="5"/>
       <c r="W84" s="4"/>
     </row>
-    <row r="85" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="5"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -5190,7 +5100,7 @@
       <c r="V85" s="5"/>
       <c r="W85" s="4"/>
     </row>
-    <row r="86" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="5"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -5215,7 +5125,7 @@
       <c r="V86" s="5"/>
       <c r="W86" s="4"/>
     </row>
-    <row r="87" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="5"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -5240,7 +5150,7 @@
       <c r="V87" s="5"/>
       <c r="W87" s="4"/>
     </row>
-    <row r="88" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="5"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -5265,7 +5175,7 @@
       <c r="V88" s="5"/>
       <c r="W88" s="4"/>
     </row>
-    <row r="89" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="5"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -5290,7 +5200,7 @@
       <c r="V89" s="5"/>
       <c r="W89" s="4"/>
     </row>
-    <row r="90" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="5"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -5315,7 +5225,7 @@
       <c r="V90" s="5"/>
       <c r="W90" s="4"/>
     </row>
-    <row r="91" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="5"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -5340,7 +5250,7 @@
       <c r="V91" s="5"/>
       <c r="W91" s="4"/>
     </row>
-    <row r="92" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="5"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -5365,7 +5275,7 @@
       <c r="V92" s="5"/>
       <c r="W92" s="4"/>
     </row>
-    <row r="93" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="5"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -5390,7 +5300,7 @@
       <c r="V93" s="5"/>
       <c r="W93" s="4"/>
     </row>
-    <row r="94" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="5"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -5415,7 +5325,7 @@
       <c r="V94" s="5"/>
       <c r="W94" s="4"/>
     </row>
-    <row r="95" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="5"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -5440,7 +5350,7 @@
       <c r="V95" s="5"/>
       <c r="W95" s="4"/>
     </row>
-    <row r="96" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="5"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -5465,7 +5375,7 @@
       <c r="V96" s="5"/>
       <c r="W96" s="4"/>
     </row>
-    <row r="97" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="5"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -5490,7 +5400,7 @@
       <c r="V97" s="5"/>
       <c r="W97" s="4"/>
     </row>
-    <row r="98" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="5"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -5515,7 +5425,7 @@
       <c r="V98" s="5"/>
       <c r="W98" s="4"/>
     </row>
-    <row r="99" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="5"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -5540,7 +5450,7 @@
       <c r="V99" s="5"/>
       <c r="W99" s="4"/>
     </row>
-    <row r="100" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="5"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -5565,7 +5475,7 @@
       <c r="V100" s="5"/>
       <c r="W100" s="4"/>
     </row>
-    <row r="101" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="5"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -5590,7 +5500,7 @@
       <c r="V101" s="5"/>
       <c r="W101" s="4"/>
     </row>
-    <row r="102" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="5"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -5615,7 +5525,7 @@
       <c r="V102" s="5"/>
       <c r="W102" s="4"/>
     </row>
-    <row r="103" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="5"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -5640,7 +5550,7 @@
       <c r="V103" s="5"/>
       <c r="W103" s="4"/>
     </row>
-    <row r="104" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="5"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -5665,7 +5575,7 @@
       <c r="V104" s="5"/>
       <c r="W104" s="4"/>
     </row>
-    <row r="105" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="5"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -5690,7 +5600,7 @@
       <c r="V105" s="5"/>
       <c r="W105" s="4"/>
     </row>
-    <row r="106" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="5"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -5715,7 +5625,7 @@
       <c r="V106" s="5"/>
       <c r="W106" s="4"/>
     </row>
-    <row r="107" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="5"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -5740,7 +5650,7 @@
       <c r="V107" s="5"/>
       <c r="W107" s="4"/>
     </row>
-    <row r="108" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="5"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -5765,7 +5675,7 @@
       <c r="V108" s="5"/>
       <c r="W108" s="4"/>
     </row>
-    <row r="109" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="5"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -5790,7 +5700,7 @@
       <c r="V109" s="5"/>
       <c r="W109" s="4"/>
     </row>
-    <row r="110" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="5"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -5815,7 +5725,7 @@
       <c r="V110" s="5"/>
       <c r="W110" s="4"/>
     </row>
-    <row r="111" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="5"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -5840,7 +5750,7 @@
       <c r="V111" s="5"/>
       <c r="W111" s="4"/>
     </row>
-    <row r="112" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="5"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -5865,7 +5775,7 @@
       <c r="V112" s="5"/>
       <c r="W112" s="4"/>
     </row>
-    <row r="113" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="5"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -5890,7 +5800,7 @@
       <c r="V113" s="5"/>
       <c r="W113" s="4"/>
     </row>
-    <row r="114" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="5"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -5915,7 +5825,7 @@
       <c r="V114" s="5"/>
       <c r="W114" s="4"/>
     </row>
-    <row r="115" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" s="5"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -5940,7 +5850,7 @@
       <c r="V115" s="5"/>
       <c r="W115" s="4"/>
     </row>
-    <row r="116" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" s="5"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -5965,7 +5875,7 @@
       <c r="V116" s="5"/>
       <c r="W116" s="4"/>
     </row>
-    <row r="117" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" s="5"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -5990,7 +5900,7 @@
       <c r="V117" s="5"/>
       <c r="W117" s="4"/>
     </row>
-    <row r="118" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" s="5"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -6015,7 +5925,7 @@
       <c r="V118" s="5"/>
       <c r="W118" s="4"/>
     </row>
-    <row r="119" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119" s="5"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -6040,7 +5950,7 @@
       <c r="V119" s="5"/>
       <c r="W119" s="4"/>
     </row>
-    <row r="120" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120" s="5"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -6065,7 +5975,7 @@
       <c r="V120" s="5"/>
       <c r="W120" s="4"/>
     </row>
-    <row r="121" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A121" s="5"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -6090,7 +6000,7 @@
       <c r="V121" s="5"/>
       <c r="W121" s="4"/>
     </row>
-    <row r="122" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A122" s="5"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -6115,7 +6025,7 @@
       <c r="V122" s="5"/>
       <c r="W122" s="4"/>
     </row>
-    <row r="123" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A123" s="5"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -6140,7 +6050,7 @@
       <c r="V123" s="5"/>
       <c r="W123" s="4"/>
     </row>
-    <row r="124" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A124" s="5"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -6165,7 +6075,7 @@
       <c r="V124" s="5"/>
       <c r="W124" s="4"/>
     </row>
-    <row r="125" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" s="5"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -6190,7 +6100,7 @@
       <c r="V125" s="5"/>
       <c r="W125" s="4"/>
     </row>
-    <row r="126" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A126" s="5"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -6215,7 +6125,7 @@
       <c r="V126" s="5"/>
       <c r="W126" s="4"/>
     </row>
-    <row r="127" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A127" s="5"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -6240,7 +6150,7 @@
       <c r="V127" s="5"/>
       <c r="W127" s="4"/>
     </row>
-    <row r="128" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A128" s="5"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -6265,7 +6175,7 @@
       <c r="V128" s="5"/>
       <c r="W128" s="4"/>
     </row>
-    <row r="129" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A129" s="5"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -6290,7 +6200,7 @@
       <c r="V129" s="5"/>
       <c r="W129" s="4"/>
     </row>
-    <row r="130" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A130" s="5"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -6315,7 +6225,7 @@
       <c r="V130" s="5"/>
       <c r="W130" s="4"/>
     </row>
-    <row r="131" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A131" s="5"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -6340,7 +6250,7 @@
       <c r="V131" s="5"/>
       <c r="W131" s="4"/>
     </row>
-    <row r="132" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A132" s="5"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -6365,7 +6275,7 @@
       <c r="V132" s="5"/>
       <c r="W132" s="4"/>
     </row>
-    <row r="133" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A133" s="5"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -6390,7 +6300,7 @@
       <c r="V133" s="5"/>
       <c r="W133" s="4"/>
     </row>
-    <row r="134" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A134" s="5"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -6415,7 +6325,7 @@
       <c r="V134" s="5"/>
       <c r="W134" s="4"/>
     </row>
-    <row r="135" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A135" s="5"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -6440,7 +6350,7 @@
       <c r="V135" s="5"/>
       <c r="W135" s="4"/>
     </row>
-    <row r="136" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A136" s="5"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -6465,7 +6375,7 @@
       <c r="V136" s="5"/>
       <c r="W136" s="4"/>
     </row>
-    <row r="137" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A137" s="5"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -6490,7 +6400,7 @@
       <c r="V137" s="5"/>
       <c r="W137" s="4"/>
     </row>
-    <row r="138" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A138" s="5"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -6515,7 +6425,7 @@
       <c r="V138" s="5"/>
       <c r="W138" s="4"/>
     </row>
-    <row r="139" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A139" s="5"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -6540,7 +6450,7 @@
       <c r="V139" s="5"/>
       <c r="W139" s="4"/>
     </row>
-    <row r="140" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A140" s="5"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -6565,7 +6475,7 @@
       <c r="V140" s="5"/>
       <c r="W140" s="4"/>
     </row>
-    <row r="141" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A141" s="5"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -6590,7 +6500,7 @@
       <c r="V141" s="5"/>
       <c r="W141" s="4"/>
     </row>
-    <row r="142" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A142" s="5"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -6615,7 +6525,7 @@
       <c r="V142" s="5"/>
       <c r="W142" s="4"/>
     </row>
-    <row r="143" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A143" s="5"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -6640,7 +6550,7 @@
       <c r="V143" s="5"/>
       <c r="W143" s="4"/>
     </row>
-    <row r="144" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A144" s="5"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -6665,7 +6575,7 @@
       <c r="V144" s="5"/>
       <c r="W144" s="4"/>
     </row>
-    <row r="145" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A145" s="5"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -6690,7 +6600,7 @@
       <c r="V145" s="5"/>
       <c r="W145" s="4"/>
     </row>
-    <row r="146" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A146" s="5"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -6715,7 +6625,7 @@
       <c r="V146" s="5"/>
       <c r="W146" s="4"/>
     </row>
-    <row r="147" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A147" s="5"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -6740,7 +6650,7 @@
       <c r="V147" s="5"/>
       <c r="W147" s="4"/>
     </row>
-    <row r="148" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A148" s="5"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -6765,7 +6675,7 @@
       <c r="V148" s="5"/>
       <c r="W148" s="4"/>
     </row>
-    <row r="149" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A149" s="5"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -6790,7 +6700,7 @@
       <c r="V149" s="5"/>
       <c r="W149" s="4"/>
     </row>
-    <row r="150" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A150" s="5"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -6815,7 +6725,7 @@
       <c r="V150" s="5"/>
       <c r="W150" s="4"/>
     </row>
-    <row r="151" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A151" s="5"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -6840,7 +6750,7 @@
       <c r="V151" s="5"/>
       <c r="W151" s="4"/>
     </row>
-    <row r="152" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A152" s="5"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -6865,7 +6775,7 @@
       <c r="V152" s="5"/>
       <c r="W152" s="4"/>
     </row>
-    <row r="153" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A153" s="5"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -6890,7 +6800,7 @@
       <c r="V153" s="5"/>
       <c r="W153" s="4"/>
     </row>
-    <row r="154" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A154" s="5"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -6915,7 +6825,7 @@
       <c r="V154" s="5"/>
       <c r="W154" s="4"/>
     </row>
-    <row r="155" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A155" s="5"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -6940,7 +6850,7 @@
       <c r="V155" s="5"/>
       <c r="W155" s="4"/>
     </row>
-    <row r="156" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A156" s="5"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -6965,7 +6875,7 @@
       <c r="V156" s="5"/>
       <c r="W156" s="4"/>
     </row>
-    <row r="157" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A157" s="5"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -6990,7 +6900,7 @@
       <c r="V157" s="5"/>
       <c r="W157" s="4"/>
     </row>
-    <row r="158" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A158" s="5"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -7015,7 +6925,7 @@
       <c r="V158" s="5"/>
       <c r="W158" s="4"/>
     </row>
-    <row r="159" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A159" s="5"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -7040,7 +6950,7 @@
       <c r="V159" s="5"/>
       <c r="W159" s="4"/>
     </row>
-    <row r="160" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A160" s="5"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -7065,7 +6975,7 @@
       <c r="V160" s="5"/>
       <c r="W160" s="4"/>
     </row>
-    <row r="161" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A161" s="5"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -7090,7 +7000,7 @@
       <c r="V161" s="5"/>
       <c r="W161" s="4"/>
     </row>
-    <row r="162" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A162" s="5"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -7115,7 +7025,7 @@
       <c r="V162" s="5"/>
       <c r="W162" s="4"/>
     </row>
-    <row r="163" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A163" s="5"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -7140,7 +7050,7 @@
       <c r="V163" s="5"/>
       <c r="W163" s="4"/>
     </row>
-    <row r="164" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A164" s="5"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -7165,7 +7075,7 @@
       <c r="V164" s="5"/>
       <c r="W164" s="4"/>
     </row>
-    <row r="165" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A165" s="5"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -7190,7 +7100,7 @@
       <c r="V165" s="5"/>
       <c r="W165" s="4"/>
     </row>
-    <row r="166" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A166" s="5"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -7215,7 +7125,7 @@
       <c r="V166" s="5"/>
       <c r="W166" s="4"/>
     </row>
-    <row r="167" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A167" s="5"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -7240,7 +7150,7 @@
       <c r="V167" s="5"/>
       <c r="W167" s="4"/>
     </row>
-    <row r="168" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A168" s="5"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -7265,7 +7175,7 @@
       <c r="V168" s="5"/>
       <c r="W168" s="4"/>
     </row>
-    <row r="169" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A169" s="5"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -7290,7 +7200,7 @@
       <c r="V169" s="5"/>
       <c r="W169" s="4"/>
     </row>
-    <row r="170" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A170" s="5"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -7315,7 +7225,7 @@
       <c r="V170" s="5"/>
       <c r="W170" s="4"/>
     </row>
-    <row r="171" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A171" s="5"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -7340,7 +7250,7 @@
       <c r="V171" s="5"/>
       <c r="W171" s="4"/>
     </row>
-    <row r="172" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A172" s="5"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -7365,7 +7275,7 @@
       <c r="V172" s="5"/>
       <c r="W172" s="4"/>
     </row>
-    <row r="173" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A173" s="5"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -7390,7 +7300,7 @@
       <c r="V173" s="5"/>
       <c r="W173" s="4"/>
     </row>
-    <row r="174" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A174" s="5"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -7415,7 +7325,7 @@
       <c r="V174" s="5"/>
       <c r="W174" s="4"/>
     </row>
-    <row r="175" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A175" s="5"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -7440,7 +7350,7 @@
       <c r="V175" s="5"/>
       <c r="W175" s="4"/>
     </row>
-    <row r="176" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A176" s="5"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -7465,7 +7375,7 @@
       <c r="V176" s="5"/>
       <c r="W176" s="4"/>
     </row>
-    <row r="177" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A177" s="5"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -7490,7 +7400,7 @@
       <c r="V177" s="5"/>
       <c r="W177" s="4"/>
     </row>
-    <row r="178" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A178" s="5"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -7515,7 +7425,7 @@
       <c r="V178" s="5"/>
       <c r="W178" s="4"/>
     </row>
-    <row r="179" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A179" s="5"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -7540,7 +7450,7 @@
       <c r="V179" s="5"/>
       <c r="W179" s="4"/>
     </row>
-    <row r="180" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A180" s="5"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -7565,7 +7475,7 @@
       <c r="V180" s="5"/>
       <c r="W180" s="4"/>
     </row>
-    <row r="181" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A181" s="5"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -7590,7 +7500,7 @@
       <c r="V181" s="5"/>
       <c r="W181" s="4"/>
     </row>
-    <row r="182" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A182" s="5"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -7615,7 +7525,7 @@
       <c r="V182" s="5"/>
       <c r="W182" s="4"/>
     </row>
-    <row r="183" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A183" s="5"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -7640,7 +7550,7 @@
       <c r="V183" s="5"/>
       <c r="W183" s="4"/>
     </row>
-    <row r="184" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A184" s="5"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -7665,7 +7575,7 @@
       <c r="V184" s="5"/>
       <c r="W184" s="4"/>
     </row>
-    <row r="185" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A185" s="5"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -7690,7 +7600,7 @@
       <c r="V185" s="5"/>
       <c r="W185" s="4"/>
     </row>
-    <row r="186" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A186" s="5"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -7715,7 +7625,7 @@
       <c r="V186" s="5"/>
       <c r="W186" s="4"/>
     </row>
-    <row r="187" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A187" s="5"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -7740,7 +7650,7 @@
       <c r="V187" s="5"/>
       <c r="W187" s="4"/>
     </row>
-    <row r="188" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A188" s="5"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -7765,7 +7675,7 @@
       <c r="V188" s="5"/>
       <c r="W188" s="4"/>
     </row>
-    <row r="189" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A189" s="5"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -7790,7 +7700,7 @@
       <c r="V189" s="5"/>
       <c r="W189" s="4"/>
     </row>
-    <row r="190" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A190" s="5"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -7815,7 +7725,7 @@
       <c r="V190" s="5"/>
       <c r="W190" s="4"/>
     </row>
-    <row r="191" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A191" s="5"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -7840,7 +7750,7 @@
       <c r="V191" s="5"/>
       <c r="W191" s="4"/>
     </row>
-    <row r="192" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A192" s="5"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -7865,7 +7775,7 @@
       <c r="V192" s="5"/>
       <c r="W192" s="4"/>
     </row>
-    <row r="193" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A193" s="5"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -7890,7 +7800,7 @@
       <c r="V193" s="5"/>
       <c r="W193" s="4"/>
     </row>
-    <row r="194" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A194" s="5"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -7915,7 +7825,7 @@
       <c r="V194" s="5"/>
       <c r="W194" s="4"/>
     </row>
-    <row r="195" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A195" s="5"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -7940,7 +7850,7 @@
       <c r="V195" s="5"/>
       <c r="W195" s="4"/>
     </row>
-    <row r="196" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A196" s="5"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -7965,308 +7875,14 @@
       <c r="V196" s="5"/>
       <c r="W196" s="4"/>
     </row>
-    <row r="197" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="5"/>
-      <c r="B197" s="4"/>
-      <c r="C197" s="4"/>
-      <c r="D197" s="5"/>
-      <c r="E197" s="5"/>
-      <c r="F197" s="5"/>
-      <c r="G197" s="5"/>
-      <c r="H197" s="5"/>
-      <c r="I197" s="5"/>
-      <c r="J197" s="6"/>
-      <c r="K197" s="6"/>
-      <c r="L197" s="6"/>
-      <c r="M197" s="6"/>
-      <c r="N197" s="6"/>
-      <c r="O197" s="6"/>
-      <c r="P197" s="6"/>
-      <c r="Q197" s="6"/>
-      <c r="R197" s="6"/>
-      <c r="S197" s="6"/>
-      <c r="T197" s="6"/>
-      <c r="U197" s="6"/>
-      <c r="V197" s="5"/>
-      <c r="W197" s="4"/>
-    </row>
-    <row r="198" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="5"/>
-      <c r="B198" s="4"/>
-      <c r="C198" s="4"/>
-      <c r="D198" s="5"/>
-      <c r="E198" s="5"/>
-      <c r="F198" s="5"/>
-      <c r="G198" s="5"/>
-      <c r="H198" s="5"/>
-      <c r="I198" s="5"/>
-      <c r="J198" s="6"/>
-      <c r="K198" s="6"/>
-      <c r="L198" s="6"/>
-      <c r="M198" s="6"/>
-      <c r="N198" s="6"/>
-      <c r="O198" s="6"/>
-      <c r="P198" s="6"/>
-      <c r="Q198" s="6"/>
-      <c r="R198" s="6"/>
-      <c r="S198" s="6"/>
-      <c r="T198" s="6"/>
-      <c r="U198" s="6"/>
-      <c r="V198" s="5"/>
-      <c r="W198" s="4"/>
-    </row>
-    <row r="199" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="5"/>
-      <c r="B199" s="4"/>
-      <c r="C199" s="4"/>
-      <c r="D199" s="5"/>
-      <c r="E199" s="5"/>
-      <c r="F199" s="5"/>
-      <c r="G199" s="5"/>
-      <c r="H199" s="5"/>
-      <c r="I199" s="5"/>
-      <c r="J199" s="6"/>
-      <c r="K199" s="6"/>
-      <c r="L199" s="6"/>
-      <c r="M199" s="6"/>
-      <c r="N199" s="6"/>
-      <c r="O199" s="6"/>
-      <c r="P199" s="6"/>
-      <c r="Q199" s="6"/>
-      <c r="R199" s="6"/>
-      <c r="S199" s="6"/>
-      <c r="T199" s="6"/>
-      <c r="U199" s="6"/>
-      <c r="V199" s="5"/>
-      <c r="W199" s="4"/>
-    </row>
-    <row r="200" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="5"/>
-      <c r="B200" s="4"/>
-      <c r="C200" s="4"/>
-      <c r="D200" s="5"/>
-      <c r="E200" s="5"/>
-      <c r="F200" s="5"/>
-      <c r="G200" s="5"/>
-      <c r="H200" s="5"/>
-      <c r="I200" s="5"/>
-      <c r="J200" s="6"/>
-      <c r="K200" s="6"/>
-      <c r="L200" s="6"/>
-      <c r="M200" s="6"/>
-      <c r="N200" s="6"/>
-      <c r="O200" s="6"/>
-      <c r="P200" s="6"/>
-      <c r="Q200" s="6"/>
-      <c r="R200" s="6"/>
-      <c r="S200" s="6"/>
-      <c r="T200" s="6"/>
-      <c r="U200" s="6"/>
-      <c r="V200" s="5"/>
-      <c r="W200" s="4"/>
-    </row>
-    <row r="201" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="5"/>
-      <c r="B201" s="4"/>
-      <c r="C201" s="4"/>
-      <c r="D201" s="5"/>
-      <c r="E201" s="5"/>
-      <c r="F201" s="5"/>
-      <c r="G201" s="5"/>
-      <c r="H201" s="5"/>
-      <c r="I201" s="5"/>
-      <c r="J201" s="6"/>
-      <c r="K201" s="6"/>
-      <c r="L201" s="6"/>
-      <c r="M201" s="6"/>
-      <c r="N201" s="6"/>
-      <c r="O201" s="6"/>
-      <c r="P201" s="6"/>
-      <c r="Q201" s="6"/>
-      <c r="R201" s="6"/>
-      <c r="S201" s="6"/>
-      <c r="T201" s="6"/>
-      <c r="U201" s="6"/>
-      <c r="V201" s="5"/>
-      <c r="W201" s="4"/>
-    </row>
-    <row r="202" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="5"/>
-      <c r="B202" s="4"/>
-      <c r="C202" s="4"/>
-      <c r="D202" s="5"/>
-      <c r="E202" s="5"/>
-      <c r="F202" s="5"/>
-      <c r="G202" s="5"/>
-      <c r="H202" s="5"/>
-      <c r="I202" s="5"/>
-      <c r="J202" s="6"/>
-      <c r="K202" s="6"/>
-      <c r="L202" s="6"/>
-      <c r="M202" s="6"/>
-      <c r="N202" s="6"/>
-      <c r="O202" s="6"/>
-      <c r="P202" s="6"/>
-      <c r="Q202" s="6"/>
-      <c r="R202" s="6"/>
-      <c r="S202" s="6"/>
-      <c r="T202" s="6"/>
-      <c r="U202" s="6"/>
-      <c r="V202" s="5"/>
-      <c r="W202" s="4"/>
-    </row>
-    <row r="203" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="5"/>
-      <c r="B203" s="4"/>
-      <c r="C203" s="4"/>
-      <c r="D203" s="5"/>
-      <c r="E203" s="5"/>
-      <c r="F203" s="5"/>
-      <c r="G203" s="5"/>
-      <c r="H203" s="5"/>
-      <c r="I203" s="5"/>
-      <c r="J203" s="6"/>
-      <c r="K203" s="6"/>
-      <c r="L203" s="6"/>
-      <c r="M203" s="6"/>
-      <c r="N203" s="6"/>
-      <c r="O203" s="6"/>
-      <c r="P203" s="6"/>
-      <c r="Q203" s="6"/>
-      <c r="R203" s="6"/>
-      <c r="S203" s="6"/>
-      <c r="T203" s="6"/>
-      <c r="U203" s="6"/>
-      <c r="V203" s="5"/>
-      <c r="W203" s="4"/>
-    </row>
-    <row r="204" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="5"/>
-      <c r="B204" s="4"/>
-      <c r="C204" s="4"/>
-      <c r="D204" s="5"/>
-      <c r="E204" s="5"/>
-      <c r="F204" s="5"/>
-      <c r="G204" s="5"/>
-      <c r="H204" s="5"/>
-      <c r="I204" s="5"/>
-      <c r="J204" s="6"/>
-      <c r="K204" s="6"/>
-      <c r="L204" s="6"/>
-      <c r="M204" s="6"/>
-      <c r="N204" s="6"/>
-      <c r="O204" s="6"/>
-      <c r="P204" s="6"/>
-      <c r="Q204" s="6"/>
-      <c r="R204" s="6"/>
-      <c r="S204" s="6"/>
-      <c r="T204" s="6"/>
-      <c r="U204" s="6"/>
-      <c r="V204" s="5"/>
-      <c r="W204" s="4"/>
-    </row>
-    <row r="205" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="5"/>
-      <c r="B205" s="4"/>
-      <c r="C205" s="4"/>
-      <c r="D205" s="5"/>
-      <c r="E205" s="5"/>
-      <c r="F205" s="5"/>
-      <c r="G205" s="5"/>
-      <c r="H205" s="5"/>
-      <c r="I205" s="5"/>
-      <c r="J205" s="6"/>
-      <c r="K205" s="6"/>
-      <c r="L205" s="6"/>
-      <c r="M205" s="6"/>
-      <c r="N205" s="6"/>
-      <c r="O205" s="6"/>
-      <c r="P205" s="6"/>
-      <c r="Q205" s="6"/>
-      <c r="R205" s="6"/>
-      <c r="S205" s="6"/>
-      <c r="T205" s="6"/>
-      <c r="U205" s="6"/>
-      <c r="V205" s="5"/>
-      <c r="W205" s="4"/>
-    </row>
-    <row r="206" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="5"/>
-      <c r="B206" s="4"/>
-      <c r="C206" s="4"/>
-      <c r="D206" s="5"/>
-      <c r="E206" s="5"/>
-      <c r="F206" s="5"/>
-      <c r="G206" s="5"/>
-      <c r="H206" s="5"/>
-      <c r="I206" s="5"/>
-      <c r="J206" s="6"/>
-      <c r="K206" s="6"/>
-      <c r="L206" s="6"/>
-      <c r="M206" s="6"/>
-      <c r="N206" s="6"/>
-      <c r="O206" s="6"/>
-      <c r="P206" s="6"/>
-      <c r="Q206" s="6"/>
-      <c r="R206" s="6"/>
-      <c r="S206" s="6"/>
-      <c r="T206" s="6"/>
-      <c r="U206" s="6"/>
-      <c r="V206" s="5"/>
-      <c r="W206" s="4"/>
-    </row>
-    <row r="207" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="5"/>
-      <c r="B207" s="4"/>
-      <c r="C207" s="4"/>
-      <c r="D207" s="5"/>
-      <c r="E207" s="5"/>
-      <c r="F207" s="5"/>
-      <c r="G207" s="5"/>
-      <c r="H207" s="5"/>
-      <c r="I207" s="5"/>
-      <c r="J207" s="6"/>
-      <c r="K207" s="6"/>
-      <c r="L207" s="6"/>
-      <c r="M207" s="6"/>
-      <c r="N207" s="6"/>
-      <c r="O207" s="6"/>
-      <c r="P207" s="6"/>
-      <c r="Q207" s="6"/>
-      <c r="R207" s="6"/>
-      <c r="S207" s="6"/>
-      <c r="T207" s="6"/>
-      <c r="U207" s="6"/>
-      <c r="V207" s="5"/>
-      <c r="W207" s="4"/>
-    </row>
-    <row r="208" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="5"/>
-      <c r="B208" s="4"/>
-      <c r="C208" s="4"/>
-      <c r="D208" s="5"/>
-      <c r="E208" s="5"/>
-      <c r="F208" s="5"/>
-      <c r="G208" s="5"/>
-      <c r="H208" s="5"/>
-      <c r="I208" s="5"/>
-      <c r="J208" s="6"/>
-      <c r="K208" s="6"/>
-      <c r="L208" s="6"/>
-      <c r="M208" s="6"/>
-      <c r="N208" s="6"/>
-      <c r="O208" s="6"/>
-      <c r="P208" s="6"/>
-      <c r="Q208" s="6"/>
-      <c r="R208" s="6"/>
-      <c r="S208" s="6"/>
-      <c r="T208" s="6"/>
-      <c r="U208" s="6"/>
-      <c r="V208" s="5"/>
-      <c r="W208" s="4"/>
-    </row>
-    <row r="209" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="198" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="199" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="200" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="201" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="202" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="203" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="204" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W35">
     <sortCondition ref="A2"/>

--- a/JavaApplication19/src/excel/Inventario.xlsx
+++ b/JavaApplication19/src/excel/Inventario.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Google Drive\EPIC MOUNTAIN\ADMINISTRACIÒN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A599EF4-4F7E-4EC0-A7F9-BAEAD853B896}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CED9F45-7563-499C-A116-32B0EBC0B97B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="INVENTARIO" sheetId="1" r:id="rId1"/>
+    <sheet name="Inventario" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -576,7 +576,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Salida" xfId="1" builtinId="21"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -655,7 +655,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -981,17 +981,17 @@
       <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="23" width="20.7109375" customWidth="1"/>
-    <col min="24" max="29" width="10.7109375" customWidth="1"/>
+    <col min="1" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="23" width="20.6640625" customWidth="1"/>
+    <col min="24" max="29" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>45</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>21</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>6.3948846218409017E-14</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>23</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>25</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>1488.4099999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>46</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>43</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>9010</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>26</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>77</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>290.84967320261444</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>48</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>30</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>77.5599128540305</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>52</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>170.20547945205476</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>78</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>79</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>31</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>194.52054794520552</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>32</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>2932.8000000000011</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>92</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>243.15068493150687</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>33</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>72.945205479452056</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>34</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>35</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>80</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>194.52054794520552</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>81</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>82</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>121.57534246575344</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>83</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>85</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>36</v>
       </c>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="AC26" s="6"/>
     </row>
-    <row r="27" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>37</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>67.864923747276663</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>38</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>121.57534246575344</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>39</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>116.33986928104576</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>40</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>121.57534246575344</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>41</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>96.949891067538147</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>64</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>232.67973856209153</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="29" t="s">
         <v>66</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>42</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>1069.8630136986303</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>72</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>96.949891067538147</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>71</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>194.52054794520552</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="23"/>
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
@@ -4052,7 +4052,7 @@
         <v>22838.006639508167</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -4077,7 +4077,7 @@
       <c r="V38" s="4"/>
       <c r="W38" s="5"/>
     </row>
-    <row r="39" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -4102,7 +4102,7 @@
       <c r="V39" s="3"/>
       <c r="W39" s="2"/>
     </row>
-    <row r="40" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -4127,7 +4127,7 @@
       <c r="V40" s="3"/>
       <c r="W40" s="2"/>
     </row>
-    <row r="41" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -4152,7 +4152,7 @@
       <c r="V41" s="3"/>
       <c r="W41" s="2"/>
     </row>
-    <row r="42" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -4177,7 +4177,7 @@
       <c r="V42" s="3"/>
       <c r="W42" s="2"/>
     </row>
-    <row r="43" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -4202,7 +4202,7 @@
       <c r="V43" s="3"/>
       <c r="W43" s="2"/>
     </row>
-    <row r="44" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -4227,7 +4227,7 @@
       <c r="V44" s="3"/>
       <c r="W44" s="2"/>
     </row>
-    <row r="45" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -4252,7 +4252,7 @@
       <c r="V45" s="3"/>
       <c r="W45" s="2"/>
     </row>
-    <row r="46" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -4277,7 +4277,7 @@
       <c r="V46" s="3"/>
       <c r="W46" s="2"/>
     </row>
-    <row r="47" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -4302,7 +4302,7 @@
       <c r="V47" s="3"/>
       <c r="W47" s="2"/>
     </row>
-    <row r="48" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -4327,7 +4327,7 @@
       <c r="V48" s="3"/>
       <c r="W48" s="2"/>
     </row>
-    <row r="49" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -4352,7 +4352,7 @@
       <c r="V49" s="3"/>
       <c r="W49" s="2"/>
     </row>
-    <row r="50" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -4377,7 +4377,7 @@
       <c r="V50" s="3"/>
       <c r="W50" s="2"/>
     </row>
-    <row r="51" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -4402,7 +4402,7 @@
       <c r="V51" s="3"/>
       <c r="W51" s="2"/>
     </row>
-    <row r="52" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -4427,7 +4427,7 @@
       <c r="V52" s="3"/>
       <c r="W52" s="2"/>
     </row>
-    <row r="53" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -4452,7 +4452,7 @@
       <c r="V53" s="3"/>
       <c r="W53" s="2"/>
     </row>
-    <row r="54" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -4477,7 +4477,7 @@
       <c r="V54" s="3"/>
       <c r="W54" s="2"/>
     </row>
-    <row r="55" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -4502,7 +4502,7 @@
       <c r="V55" s="3"/>
       <c r="W55" s="2"/>
     </row>
-    <row r="56" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -4527,7 +4527,7 @@
       <c r="V56" s="3"/>
       <c r="W56" s="2"/>
     </row>
-    <row r="57" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -4552,7 +4552,7 @@
       <c r="V57" s="3"/>
       <c r="W57" s="2"/>
     </row>
-    <row r="58" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -4577,7 +4577,7 @@
       <c r="V58" s="3"/>
       <c r="W58" s="2"/>
     </row>
-    <row r="59" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -4602,7 +4602,7 @@
       <c r="V59" s="3"/>
       <c r="W59" s="2"/>
     </row>
-    <row r="60" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -4627,7 +4627,7 @@
       <c r="V60" s="3"/>
       <c r="W60" s="2"/>
     </row>
-    <row r="61" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -4652,7 +4652,7 @@
       <c r="V61" s="3"/>
       <c r="W61" s="2"/>
     </row>
-    <row r="62" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -4677,7 +4677,7 @@
       <c r="V62" s="3"/>
       <c r="W62" s="2"/>
     </row>
-    <row r="63" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -4702,7 +4702,7 @@
       <c r="V63" s="3"/>
       <c r="W63" s="2"/>
     </row>
-    <row r="64" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -4727,7 +4727,7 @@
       <c r="V64" s="3"/>
       <c r="W64" s="2"/>
     </row>
-    <row r="65" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -4752,7 +4752,7 @@
       <c r="V65" s="3"/>
       <c r="W65" s="2"/>
     </row>
-    <row r="66" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -4777,7 +4777,7 @@
       <c r="V66" s="3"/>
       <c r="W66" s="2"/>
     </row>
-    <row r="67" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -4802,7 +4802,7 @@
       <c r="V67" s="3"/>
       <c r="W67" s="2"/>
     </row>
-    <row r="68" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -4827,7 +4827,7 @@
       <c r="V68" s="3"/>
       <c r="W68" s="2"/>
     </row>
-    <row r="69" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -4852,7 +4852,7 @@
       <c r="V69" s="3"/>
       <c r="W69" s="2"/>
     </row>
-    <row r="70" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -4877,7 +4877,7 @@
       <c r="V70" s="3"/>
       <c r="W70" s="2"/>
     </row>
-    <row r="71" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4902,7 +4902,7 @@
       <c r="V71" s="3"/>
       <c r="W71" s="2"/>
     </row>
-    <row r="72" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4927,7 +4927,7 @@
       <c r="V72" s="3"/>
       <c r="W72" s="2"/>
     </row>
-    <row r="73" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4952,7 +4952,7 @@
       <c r="V73" s="3"/>
       <c r="W73" s="2"/>
     </row>
-    <row r="74" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4977,7 +4977,7 @@
       <c r="V74" s="3"/>
       <c r="W74" s="2"/>
     </row>
-    <row r="75" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -5002,7 +5002,7 @@
       <c r="V75" s="3"/>
       <c r="W75" s="2"/>
     </row>
-    <row r="76" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -5027,7 +5027,7 @@
       <c r="V76" s="3"/>
       <c r="W76" s="2"/>
     </row>
-    <row r="77" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -5052,7 +5052,7 @@
       <c r="V77" s="3"/>
       <c r="W77" s="2"/>
     </row>
-    <row r="78" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -5077,7 +5077,7 @@
       <c r="V78" s="3"/>
       <c r="W78" s="2"/>
     </row>
-    <row r="79" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -5102,7 +5102,7 @@
       <c r="V79" s="3"/>
       <c r="W79" s="2"/>
     </row>
-    <row r="80" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -5127,7 +5127,7 @@
       <c r="V80" s="3"/>
       <c r="W80" s="2"/>
     </row>
-    <row r="81" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -5152,7 +5152,7 @@
       <c r="V81" s="3"/>
       <c r="W81" s="2"/>
     </row>
-    <row r="82" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -5177,7 +5177,7 @@
       <c r="V82" s="3"/>
       <c r="W82" s="2"/>
     </row>
-    <row r="83" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -5202,7 +5202,7 @@
       <c r="V83" s="3"/>
       <c r="W83" s="2"/>
     </row>
-    <row r="84" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -5227,7 +5227,7 @@
       <c r="V84" s="3"/>
       <c r="W84" s="2"/>
     </row>
-    <row r="85" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -5252,7 +5252,7 @@
       <c r="V85" s="3"/>
       <c r="W85" s="2"/>
     </row>
-    <row r="86" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -5277,7 +5277,7 @@
       <c r="V86" s="3"/>
       <c r="W86" s="2"/>
     </row>
-    <row r="87" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -5302,7 +5302,7 @@
       <c r="V87" s="3"/>
       <c r="W87" s="2"/>
     </row>
-    <row r="88" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -5327,7 +5327,7 @@
       <c r="V88" s="3"/>
       <c r="W88" s="2"/>
     </row>
-    <row r="89" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -5352,7 +5352,7 @@
       <c r="V89" s="3"/>
       <c r="W89" s="2"/>
     </row>
-    <row r="90" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -5377,7 +5377,7 @@
       <c r="V90" s="3"/>
       <c r="W90" s="2"/>
     </row>
-    <row r="91" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -5402,7 +5402,7 @@
       <c r="V91" s="3"/>
       <c r="W91" s="2"/>
     </row>
-    <row r="92" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -5427,7 +5427,7 @@
       <c r="V92" s="3"/>
       <c r="W92" s="2"/>
     </row>
-    <row r="93" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -5452,7 +5452,7 @@
       <c r="V93" s="3"/>
       <c r="W93" s="2"/>
     </row>
-    <row r="94" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -5477,7 +5477,7 @@
       <c r="V94" s="3"/>
       <c r="W94" s="2"/>
     </row>
-    <row r="95" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -5502,7 +5502,7 @@
       <c r="V95" s="3"/>
       <c r="W95" s="2"/>
     </row>
-    <row r="96" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -5527,7 +5527,7 @@
       <c r="V96" s="3"/>
       <c r="W96" s="2"/>
     </row>
-    <row r="97" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -5552,7 +5552,7 @@
       <c r="V97" s="3"/>
       <c r="W97" s="2"/>
     </row>
-    <row r="98" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -5577,7 +5577,7 @@
       <c r="V98" s="3"/>
       <c r="W98" s="2"/>
     </row>
-    <row r="99" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -5602,7 +5602,7 @@
       <c r="V99" s="3"/>
       <c r="W99" s="2"/>
     </row>
-    <row r="100" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -5627,7 +5627,7 @@
       <c r="V100" s="3"/>
       <c r="W100" s="2"/>
     </row>
-    <row r="101" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -5652,7 +5652,7 @@
       <c r="V101" s="3"/>
       <c r="W101" s="2"/>
     </row>
-    <row r="102" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -5677,7 +5677,7 @@
       <c r="V102" s="3"/>
       <c r="W102" s="2"/>
     </row>
-    <row r="103" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -5702,7 +5702,7 @@
       <c r="V103" s="3"/>
       <c r="W103" s="2"/>
     </row>
-    <row r="104" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -5727,7 +5727,7 @@
       <c r="V104" s="3"/>
       <c r="W104" s="2"/>
     </row>
-    <row r="105" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -5752,7 +5752,7 @@
       <c r="V105" s="3"/>
       <c r="W105" s="2"/>
     </row>
-    <row r="106" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -5777,7 +5777,7 @@
       <c r="V106" s="3"/>
       <c r="W106" s="2"/>
     </row>
-    <row r="107" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -5802,7 +5802,7 @@
       <c r="V107" s="3"/>
       <c r="W107" s="2"/>
     </row>
-    <row r="108" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -5827,7 +5827,7 @@
       <c r="V108" s="3"/>
       <c r="W108" s="2"/>
     </row>
-    <row r="109" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -5852,7 +5852,7 @@
       <c r="V109" s="3"/>
       <c r="W109" s="2"/>
     </row>
-    <row r="110" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -5877,7 +5877,7 @@
       <c r="V110" s="3"/>
       <c r="W110" s="2"/>
     </row>
-    <row r="111" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -5902,7 +5902,7 @@
       <c r="V111" s="3"/>
       <c r="W111" s="2"/>
     </row>
-    <row r="112" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -5927,7 +5927,7 @@
       <c r="V112" s="3"/>
       <c r="W112" s="2"/>
     </row>
-    <row r="113" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -5952,7 +5952,7 @@
       <c r="V113" s="3"/>
       <c r="W113" s="2"/>
     </row>
-    <row r="114" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -5977,7 +5977,7 @@
       <c r="V114" s="3"/>
       <c r="W114" s="2"/>
     </row>
-    <row r="115" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -6002,7 +6002,7 @@
       <c r="V115" s="3"/>
       <c r="W115" s="2"/>
     </row>
-    <row r="116" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -6027,7 +6027,7 @@
       <c r="V116" s="3"/>
       <c r="W116" s="2"/>
     </row>
-    <row r="117" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -6052,7 +6052,7 @@
       <c r="V117" s="3"/>
       <c r="W117" s="2"/>
     </row>
-    <row r="118" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -6077,7 +6077,7 @@
       <c r="V118" s="3"/>
       <c r="W118" s="2"/>
     </row>
-    <row r="119" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -6102,7 +6102,7 @@
       <c r="V119" s="3"/>
       <c r="W119" s="2"/>
     </row>
-    <row r="120" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -6127,7 +6127,7 @@
       <c r="V120" s="3"/>
       <c r="W120" s="2"/>
     </row>
-    <row r="121" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -6152,7 +6152,7 @@
       <c r="V121" s="3"/>
       <c r="W121" s="2"/>
     </row>
-    <row r="122" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -6177,7 +6177,7 @@
       <c r="V122" s="3"/>
       <c r="W122" s="2"/>
     </row>
-    <row r="123" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -6202,7 +6202,7 @@
       <c r="V123" s="3"/>
       <c r="W123" s="2"/>
     </row>
-    <row r="124" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -6227,7 +6227,7 @@
       <c r="V124" s="3"/>
       <c r="W124" s="2"/>
     </row>
-    <row r="125" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -6252,7 +6252,7 @@
       <c r="V125" s="3"/>
       <c r="W125" s="2"/>
     </row>
-    <row r="126" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -6277,7 +6277,7 @@
       <c r="V126" s="3"/>
       <c r="W126" s="2"/>
     </row>
-    <row r="127" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -6302,7 +6302,7 @@
       <c r="V127" s="3"/>
       <c r="W127" s="2"/>
     </row>
-    <row r="128" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -6327,7 +6327,7 @@
       <c r="V128" s="3"/>
       <c r="W128" s="2"/>
     </row>
-    <row r="129" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -6352,7 +6352,7 @@
       <c r="V129" s="3"/>
       <c r="W129" s="2"/>
     </row>
-    <row r="130" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -6377,7 +6377,7 @@
       <c r="V130" s="3"/>
       <c r="W130" s="2"/>
     </row>
-    <row r="131" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -6402,7 +6402,7 @@
       <c r="V131" s="3"/>
       <c r="W131" s="2"/>
     </row>
-    <row r="132" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -6427,7 +6427,7 @@
       <c r="V132" s="3"/>
       <c r="W132" s="2"/>
     </row>
-    <row r="133" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -6452,7 +6452,7 @@
       <c r="V133" s="3"/>
       <c r="W133" s="2"/>
     </row>
-    <row r="134" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -6477,7 +6477,7 @@
       <c r="V134" s="3"/>
       <c r="W134" s="2"/>
     </row>
-    <row r="135" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -6502,7 +6502,7 @@
       <c r="V135" s="3"/>
       <c r="W135" s="2"/>
     </row>
-    <row r="136" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -6527,7 +6527,7 @@
       <c r="V136" s="3"/>
       <c r="W136" s="2"/>
     </row>
-    <row r="137" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -6552,7 +6552,7 @@
       <c r="V137" s="3"/>
       <c r="W137" s="2"/>
     </row>
-    <row r="138" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -6577,7 +6577,7 @@
       <c r="V138" s="3"/>
       <c r="W138" s="2"/>
     </row>
-    <row r="139" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -6602,7 +6602,7 @@
       <c r="V139" s="3"/>
       <c r="W139" s="2"/>
     </row>
-    <row r="140" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -6627,7 +6627,7 @@
       <c r="V140" s="3"/>
       <c r="W140" s="2"/>
     </row>
-    <row r="141" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -6652,7 +6652,7 @@
       <c r="V141" s="3"/>
       <c r="W141" s="2"/>
     </row>
-    <row r="142" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -6677,7 +6677,7 @@
       <c r="V142" s="3"/>
       <c r="W142" s="2"/>
     </row>
-    <row r="143" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -6702,7 +6702,7 @@
       <c r="V143" s="3"/>
       <c r="W143" s="2"/>
     </row>
-    <row r="144" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -6727,7 +6727,7 @@
       <c r="V144" s="3"/>
       <c r="W144" s="2"/>
     </row>
-    <row r="145" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -6752,7 +6752,7 @@
       <c r="V145" s="3"/>
       <c r="W145" s="2"/>
     </row>
-    <row r="146" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -6777,7 +6777,7 @@
       <c r="V146" s="3"/>
       <c r="W146" s="2"/>
     </row>
-    <row r="147" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -6802,7 +6802,7 @@
       <c r="V147" s="3"/>
       <c r="W147" s="2"/>
     </row>
-    <row r="148" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -6827,7 +6827,7 @@
       <c r="V148" s="3"/>
       <c r="W148" s="2"/>
     </row>
-    <row r="149" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -6852,7 +6852,7 @@
       <c r="V149" s="3"/>
       <c r="W149" s="2"/>
     </row>
-    <row r="150" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -6877,7 +6877,7 @@
       <c r="V150" s="3"/>
       <c r="W150" s="2"/>
     </row>
-    <row r="151" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -6902,7 +6902,7 @@
       <c r="V151" s="3"/>
       <c r="W151" s="2"/>
     </row>
-    <row r="152" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -6927,7 +6927,7 @@
       <c r="V152" s="3"/>
       <c r="W152" s="2"/>
     </row>
-    <row r="153" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -6952,7 +6952,7 @@
       <c r="V153" s="3"/>
       <c r="W153" s="2"/>
     </row>
-    <row r="154" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -6977,7 +6977,7 @@
       <c r="V154" s="3"/>
       <c r="W154" s="2"/>
     </row>
-    <row r="155" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -7002,7 +7002,7 @@
       <c r="V155" s="3"/>
       <c r="W155" s="2"/>
     </row>
-    <row r="156" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -7027,7 +7027,7 @@
       <c r="V156" s="3"/>
       <c r="W156" s="2"/>
     </row>
-    <row r="157" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -7052,7 +7052,7 @@
       <c r="V157" s="3"/>
       <c r="W157" s="2"/>
     </row>
-    <row r="158" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -7077,7 +7077,7 @@
       <c r="V158" s="3"/>
       <c r="W158" s="2"/>
     </row>
-    <row r="159" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -7102,7 +7102,7 @@
       <c r="V159" s="3"/>
       <c r="W159" s="2"/>
     </row>
-    <row r="160" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -7127,7 +7127,7 @@
       <c r="V160" s="3"/>
       <c r="W160" s="2"/>
     </row>
-    <row r="161" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -7152,7 +7152,7 @@
       <c r="V161" s="3"/>
       <c r="W161" s="2"/>
     </row>
-    <row r="162" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -7177,7 +7177,7 @@
       <c r="V162" s="3"/>
       <c r="W162" s="2"/>
     </row>
-    <row r="163" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -7202,7 +7202,7 @@
       <c r="V163" s="3"/>
       <c r="W163" s="2"/>
     </row>
-    <row r="164" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -7227,7 +7227,7 @@
       <c r="V164" s="3"/>
       <c r="W164" s="2"/>
     </row>
-    <row r="165" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -7252,7 +7252,7 @@
       <c r="V165" s="3"/>
       <c r="W165" s="2"/>
     </row>
-    <row r="166" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -7277,7 +7277,7 @@
       <c r="V166" s="3"/>
       <c r="W166" s="2"/>
     </row>
-    <row r="167" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -7302,7 +7302,7 @@
       <c r="V167" s="3"/>
       <c r="W167" s="2"/>
     </row>
-    <row r="168" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -7327,7 +7327,7 @@
       <c r="V168" s="3"/>
       <c r="W168" s="2"/>
     </row>
-    <row r="169" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -7352,7 +7352,7 @@
       <c r="V169" s="3"/>
       <c r="W169" s="2"/>
     </row>
-    <row r="170" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -7377,7 +7377,7 @@
       <c r="V170" s="3"/>
       <c r="W170" s="2"/>
     </row>
-    <row r="171" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -7402,7 +7402,7 @@
       <c r="V171" s="3"/>
       <c r="W171" s="2"/>
     </row>
-    <row r="172" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -7427,7 +7427,7 @@
       <c r="V172" s="3"/>
       <c r="W172" s="2"/>
     </row>
-    <row r="173" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -7452,7 +7452,7 @@
       <c r="V173" s="3"/>
       <c r="W173" s="2"/>
     </row>
-    <row r="174" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -7477,7 +7477,7 @@
       <c r="V174" s="3"/>
       <c r="W174" s="2"/>
     </row>
-    <row r="175" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -7502,7 +7502,7 @@
       <c r="V175" s="3"/>
       <c r="W175" s="2"/>
     </row>
-    <row r="176" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -7527,7 +7527,7 @@
       <c r="V176" s="3"/>
       <c r="W176" s="2"/>
     </row>
-    <row r="177" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -7552,7 +7552,7 @@
       <c r="V177" s="3"/>
       <c r="W177" s="2"/>
     </row>
-    <row r="178" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -7577,7 +7577,7 @@
       <c r="V178" s="3"/>
       <c r="W178" s="2"/>
     </row>
-    <row r="179" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -7602,7 +7602,7 @@
       <c r="V179" s="3"/>
       <c r="W179" s="2"/>
     </row>
-    <row r="180" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -7627,7 +7627,7 @@
       <c r="V180" s="3"/>
       <c r="W180" s="2"/>
     </row>
-    <row r="181" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -7652,7 +7652,7 @@
       <c r="V181" s="3"/>
       <c r="W181" s="2"/>
     </row>
-    <row r="182" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -7677,7 +7677,7 @@
       <c r="V182" s="3"/>
       <c r="W182" s="2"/>
     </row>
-    <row r="183" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -7702,7 +7702,7 @@
       <c r="V183" s="3"/>
       <c r="W183" s="2"/>
     </row>
-    <row r="184" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -7727,7 +7727,7 @@
       <c r="V184" s="3"/>
       <c r="W184" s="2"/>
     </row>
-    <row r="185" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -7752,7 +7752,7 @@
       <c r="V185" s="3"/>
       <c r="W185" s="2"/>
     </row>
-    <row r="186" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -7777,7 +7777,7 @@
       <c r="V186" s="3"/>
       <c r="W186" s="2"/>
     </row>
-    <row r="187" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -7802,7 +7802,7 @@
       <c r="V187" s="3"/>
       <c r="W187" s="2"/>
     </row>
-    <row r="188" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -7827,7 +7827,7 @@
       <c r="V188" s="3"/>
       <c r="W188" s="2"/>
     </row>
-    <row r="189" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -7852,7 +7852,7 @@
       <c r="V189" s="3"/>
       <c r="W189" s="2"/>
     </row>
-    <row r="190" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -7877,7 +7877,7 @@
       <c r="V190" s="3"/>
       <c r="W190" s="2"/>
     </row>
-    <row r="191" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -7902,7 +7902,7 @@
       <c r="V191" s="3"/>
       <c r="W191" s="2"/>
     </row>
-    <row r="192" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -7927,7 +7927,7 @@
       <c r="V192" s="3"/>
       <c r="W192" s="2"/>
     </row>
-    <row r="193" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -7952,7 +7952,7 @@
       <c r="V193" s="3"/>
       <c r="W193" s="2"/>
     </row>
-    <row r="194" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -7977,7 +7977,7 @@
       <c r="V194" s="3"/>
       <c r="W194" s="2"/>
     </row>
-    <row r="195" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -8002,7 +8002,7 @@
       <c r="V195" s="3"/>
       <c r="W195" s="2"/>
     </row>
-    <row r="196" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -8027,7 +8027,7 @@
       <c r="V196" s="3"/>
       <c r="W196" s="2"/>
     </row>
-    <row r="197" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -8052,7 +8052,7 @@
       <c r="V197" s="3"/>
       <c r="W197" s="2"/>
     </row>
-    <row r="198" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -8077,7 +8077,7 @@
       <c r="V198" s="3"/>
       <c r="W198" s="2"/>
     </row>
-    <row r="199" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -8102,7 +8102,7 @@
       <c r="V199" s="3"/>
       <c r="W199" s="2"/>
     </row>
-    <row r="200" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -8127,7 +8127,7 @@
       <c r="V200" s="3"/>
       <c r="W200" s="2"/>
     </row>
-    <row r="201" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -8152,7 +8152,7 @@
       <c r="V201" s="3"/>
       <c r="W201" s="2"/>
     </row>
-    <row r="202" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="3"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -8177,7 +8177,7 @@
       <c r="V202" s="3"/>
       <c r="W202" s="2"/>
     </row>
-    <row r="203" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="3"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -8202,7 +8202,7 @@
       <c r="V203" s="3"/>
       <c r="W203" s="2"/>
     </row>
-    <row r="204" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="3"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -8227,7 +8227,7 @@
       <c r="V204" s="3"/>
       <c r="W204" s="2"/>
     </row>
-    <row r="205" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="3"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -8252,7 +8252,7 @@
       <c r="V205" s="3"/>
       <c r="W205" s="2"/>
     </row>
-    <row r="206" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="3"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -8277,7 +8277,7 @@
       <c r="V206" s="3"/>
       <c r="W206" s="2"/>
     </row>
-    <row r="207" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="3"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -8302,7 +8302,7 @@
       <c r="V207" s="3"/>
       <c r="W207" s="2"/>
     </row>
-    <row r="208" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="3"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -8327,7 +8327,7 @@
       <c r="V208" s="3"/>
       <c r="W208" s="2"/>
     </row>
-    <row r="209" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="3"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -8352,7 +8352,7 @@
       <c r="V209" s="3"/>
       <c r="W209" s="2"/>
     </row>
-    <row r="210" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="3"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -8377,8 +8377,8 @@
       <c r="V210" s="3"/>
       <c r="W210" s="2"/>
     </row>
-    <row r="211" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W36">
     <sortCondition ref="A2"/>

--- a/JavaApplication19/src/excel/Inventario.xlsx
+++ b/JavaApplication19/src/excel/Inventario.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="105">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -319,6 +319,30 @@
   </si>
   <si>
     <t>90% DE VIDA - 700x23 - COLOR ROJO - KEVLAR(DOBLABLE) - CON MEDIDOR DE DESGASTE - PAR DE LLANTAS - SEMINUEVO</t>
+  </si>
+  <si>
+    <t>Bici Fuji</t>
+  </si>
+  <si>
+    <t>Talla M</t>
+  </si>
+  <si>
+    <t>22  julio 20</t>
+  </si>
+  <si>
+    <t>Nuevo</t>
+  </si>
+  <si>
+    <t>Pack1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>$8900</t>
   </si>
 </sst>
 </file>
@@ -986,9 +1010,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="23" width="20.6640625" customWidth="1"/>
-    <col min="24" max="29" width="10.6640625" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" width="40.6640625" collapsed="false"/>
+    <col min="3" max="23" customWidth="true" width="20.6640625" collapsed="false"/>
+    <col min="24" max="29" customWidth="true" width="10.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -4003,82 +4027,83 @@
         <v>194.52054794520552</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26">
+    <row r="37">
+      <c r="A37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F37" t="s">
+        <v>102</v>
+      </c>
+      <c r="G37" t="s">
+        <v>103</v>
+      </c>
+      <c r="H37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="23"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26">
         <f>SUM(I2:I36)</f>
         <v>38781.993360491833</v>
       </c>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26">
+      <c r="J38" s="26"/>
+      <c r="K38" s="26">
         <f>SUM(K2:K36)</f>
         <v>61620</v>
       </c>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26">
+      <c r="L38" s="26"/>
+      <c r="M38" s="26">
         <f>SUM(M2:M36)</f>
         <v>71479.199999999997</v>
       </c>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26">
+      <c r="N38" s="26"/>
+      <c r="O38" s="26">
         <f>SUM(O2:O36)</f>
         <v>93881.08</v>
       </c>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26">
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26">
         <f>SUM(Q2:Q36)</f>
         <v>12181.880000000003</v>
       </c>
-      <c r="R37" s="26"/>
-      <c r="S37" s="26">
+      <c r="R38" s="26"/>
+      <c r="S38" s="26">
         <f>SUM(S2:S36)</f>
         <v>9859.2000000000007</v>
       </c>
-      <c r="T37" s="26"/>
-      <c r="U37" s="26">
+      <c r="T38" s="26"/>
+      <c r="U38" s="26">
         <f>SUM(U2:U36)</f>
         <v>22838.006639508163</v>
       </c>
-      <c r="V37" s="26"/>
-      <c r="W37" s="27">
+      <c r="V38" s="26"/>
+      <c r="W38" s="27">
         <f>SUM(W2:W36)</f>
         <v>22838.006639508167</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="5"/>
-    </row>
     <row r="39" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
+      <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="3"/>
@@ -4099,8 +4124,8 @@
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="2"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="5"/>
     </row>
     <row r="40" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>

--- a/JavaApplication19/src/excel/Inventario.xlsx
+++ b/JavaApplication19/src/excel/Inventario.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CED9F45-7563-499C-A116-32B0EBC0B97B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25768944-A353-4413-8C5D-F76F302A02A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,6 @@
     <sheet name="Inventario" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -627,13 +619,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>1047368</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>26830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>1671215</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>489857</xdr:rowOff>
@@ -1002,26 +994,27 @@
   <dimension ref="A1:AC212"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="40.6640625" collapsed="false"/>
-    <col min="3" max="23" customWidth="true" width="20.6640625" collapsed="false"/>
-    <col min="24" max="29" customWidth="true" width="10.6640625" collapsed="false"/>
+    <col min="2" max="2" width="58.77734375" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="23" width="20.6640625" customWidth="1"/>
+    <col min="24" max="29" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="8" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>1</v>
@@ -1085,14 +1078,14 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13">
+        <v>44004</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="12" t="s">
         <v>49</v>
-      </c>
-      <c r="C2" s="13">
-        <v>44004</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>22</v>
@@ -1166,14 +1159,14 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="18">
+        <v>43939</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="C3" s="17" t="s">
         <v>50</v>
-      </c>
-      <c r="C3" s="18">
-        <v>43939</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>22</v>
@@ -1247,14 +1240,14 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="18">
+        <v>43840</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="C4" s="17" t="s">
         <v>51</v>
-      </c>
-      <c r="C4" s="18">
-        <v>43840</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>24</v>
@@ -1328,14 +1321,14 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21">
+        <v>43846</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="C5" s="20" t="s">
         <v>75</v>
-      </c>
-      <c r="C5" s="21">
-        <v>43846</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>24</v>
@@ -1409,14 +1402,14 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13">
+        <v>43902</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="C6" s="12" t="s">
         <v>74</v>
-      </c>
-      <c r="C6" s="13">
-        <v>43902</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>24</v>
@@ -1490,14 +1483,14 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30">
+        <v>43984</v>
+      </c>
+      <c r="B7" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="C7" s="29" t="s">
         <v>44</v>
-      </c>
-      <c r="C7" s="30">
-        <v>43984</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>22</v>
@@ -1571,14 +1564,14 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="18">
+        <v>43837</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="C8" s="17" t="s">
         <v>76</v>
-      </c>
-      <c r="C8" s="18">
-        <v>43837</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>27</v>
@@ -1652,14 +1645,14 @@
       </c>
     </row>
     <row r="9" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="18">
+        <v>43853</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="C9" s="17" t="s">
         <v>86</v>
-      </c>
-      <c r="C9" s="18">
-        <v>43853</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>24</v>
@@ -1739,14 +1732,14 @@
       </c>
     </row>
     <row r="10" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="18">
+        <v>44018</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="C10" s="17" t="s">
         <v>73</v>
-      </c>
-      <c r="C10" s="18">
-        <v>44018</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>24</v>
@@ -1819,14 +1812,14 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="18">
+        <v>43853</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="C11" s="17" t="s">
         <v>89</v>
-      </c>
-      <c r="C11" s="18">
-        <v>43853</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>24</v>
@@ -1906,14 +1899,14 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="18">
+        <v>43837</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="C12" s="17" t="s">
         <v>87</v>
-      </c>
-      <c r="C12" s="18">
-        <v>43837</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>24</v>
@@ -1993,14 +1986,14 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13">
+        <v>44004</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="C13" s="12" t="s">
         <v>53</v>
-      </c>
-      <c r="C13" s="13">
-        <v>44004</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>24</v>
@@ -2074,14 +2067,14 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="18">
+        <v>43840</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="C14" s="17" t="s">
         <v>90</v>
-      </c>
-      <c r="C14" s="18">
-        <v>43840</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>24</v>
@@ -2155,14 +2148,14 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="18">
+        <v>43837</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="C15" s="17" t="s">
         <v>88</v>
-      </c>
-      <c r="C15" s="18">
-        <v>43837</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>24</v>
@@ -2242,14 +2235,14 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="18">
+        <v>43847</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="C16" s="17" t="s">
         <v>91</v>
-      </c>
-      <c r="C16" s="18">
-        <v>43847</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>27</v>
@@ -2323,14 +2316,14 @@
       </c>
     </row>
     <row r="17" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="18">
+        <v>43837</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="C17" s="17" t="s">
         <v>93</v>
-      </c>
-      <c r="C17" s="18">
-        <v>43837</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>24</v>
@@ -2410,14 +2403,14 @@
       </c>
     </row>
     <row r="18" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="18">
+        <v>43837</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="C18" s="17" t="s">
         <v>54</v>
-      </c>
-      <c r="C18" s="18">
-        <v>43837</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>24</v>
@@ -2497,14 +2490,14 @@
       </c>
     </row>
     <row r="19" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="18">
+        <v>43837</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="C19" s="17" t="s">
         <v>94</v>
-      </c>
-      <c r="C19" s="18">
-        <v>43837</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>27</v>
@@ -2578,14 +2571,14 @@
       </c>
     </row>
     <row r="20" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="30">
+        <v>43853</v>
+      </c>
+      <c r="B20" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="C20" s="29" t="s">
         <v>56</v>
-      </c>
-      <c r="C20" s="30">
-        <v>43853</v>
       </c>
       <c r="D20" s="31" t="s">
         <v>24</v>
@@ -2659,14 +2652,14 @@
       </c>
     </row>
     <row r="21" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="18">
+        <v>43837</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="C21" s="17" t="s">
         <v>95</v>
-      </c>
-      <c r="C21" s="18">
-        <v>43837</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>24</v>
@@ -2746,14 +2739,14 @@
       </c>
     </row>
     <row r="22" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="18">
+        <v>43843</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="C22" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="C22" s="18">
-        <v>43843</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>24</v>
@@ -2827,14 +2820,14 @@
       </c>
     </row>
     <row r="23" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="18">
+        <v>43843</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="C23" s="17" t="s">
         <v>57</v>
-      </c>
-      <c r="C23" s="18">
-        <v>43843</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>24</v>
@@ -2914,14 +2907,14 @@
       </c>
     </row>
     <row r="24" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="18">
+        <v>43843</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="C24" s="17" t="s">
         <v>84</v>
-      </c>
-      <c r="C24" s="18">
-        <v>43843</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>24</v>
@@ -2995,14 +2988,14 @@
       </c>
     </row>
     <row r="25" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="13">
+        <v>44008</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="C25" s="12" t="s">
         <v>96</v>
-      </c>
-      <c r="C25" s="13">
-        <v>44008</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>22</v>
@@ -3076,14 +3069,14 @@
       </c>
     </row>
     <row r="26" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="18">
+        <v>43837</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="C26" s="17" t="s">
         <v>58</v>
-      </c>
-      <c r="C26" s="18">
-        <v>43837</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>24</v>
@@ -3164,14 +3157,14 @@
       <c r="AC26" s="6"/>
     </row>
     <row r="27" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="18">
+        <v>43853</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="C27" s="17" t="s">
         <v>59</v>
-      </c>
-      <c r="C27" s="18">
-        <v>43853</v>
       </c>
       <c r="D27" s="19" t="s">
         <v>24</v>
@@ -3251,14 +3244,14 @@
       </c>
     </row>
     <row r="28" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="18">
+        <v>43837</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="C28" s="17" t="s">
         <v>60</v>
-      </c>
-      <c r="C28" s="18">
-        <v>43837</v>
       </c>
       <c r="D28" s="19" t="s">
         <v>24</v>
@@ -3338,14 +3331,14 @@
       </c>
     </row>
     <row r="29" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="18">
+        <v>43853</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="C29" s="17" t="s">
         <v>61</v>
-      </c>
-      <c r="C29" s="18">
-        <v>43853</v>
       </c>
       <c r="D29" s="19" t="s">
         <v>24</v>
@@ -3425,14 +3418,14 @@
       </c>
     </row>
     <row r="30" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="18">
+        <v>43837</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="C30" s="17" t="s">
         <v>62</v>
-      </c>
-      <c r="C30" s="18">
-        <v>43837</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>24</v>
@@ -3512,14 +3505,14 @@
       </c>
     </row>
     <row r="31" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="18">
+        <v>43853</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="C31" s="17" t="s">
         <v>63</v>
-      </c>
-      <c r="C31" s="18">
-        <v>43853</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>24</v>
@@ -3599,14 +3592,14 @@
       </c>
     </row>
     <row r="32" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="18">
+        <v>43853</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="C32" s="17" t="s">
         <v>65</v>
-      </c>
-      <c r="C32" s="18">
-        <v>43853</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>24</v>
@@ -3686,14 +3679,14 @@
       </c>
     </row>
     <row r="33" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="30">
+        <v>43853</v>
+      </c>
+      <c r="B33" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="C33" s="29" t="s">
         <v>67</v>
-      </c>
-      <c r="C33" s="30">
-        <v>43853</v>
       </c>
       <c r="D33" s="31" t="s">
         <v>24</v>
@@ -3767,14 +3760,14 @@
       </c>
     </row>
     <row r="34" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="18">
+        <v>43837</v>
+      </c>
+      <c r="B34" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="C34" s="17" t="s">
         <v>68</v>
-      </c>
-      <c r="C34" s="18">
-        <v>43837</v>
       </c>
       <c r="D34" s="19" t="s">
         <v>24</v>
@@ -3854,14 +3847,14 @@
       </c>
     </row>
     <row r="35" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="18">
+        <v>43853</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="C35" s="17" t="s">
         <v>69</v>
-      </c>
-      <c r="C35" s="18">
-        <v>43853</v>
       </c>
       <c r="D35" s="19" t="s">
         <v>24</v>
@@ -3941,14 +3934,14 @@
       </c>
     </row>
     <row r="36" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="18">
+        <v>43837</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="C36" s="17" t="s">
         <v>70</v>
-      </c>
-      <c r="C36" s="18">
-        <v>43837</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>24</v>
@@ -4027,15 +4020,15 @@
         <v>194.52054794520552</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" t="s">
         <v>97</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>98</v>
-      </c>
-      <c r="C37" t="s">
-        <v>99</v>
       </c>
       <c r="D37" t="s">
         <v>100</v>
@@ -4054,8 +4047,8 @@
       </c>
     </row>
     <row r="38" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
-      <c r="B38" s="24"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="24"/>
       <c r="D38" s="25"/>
       <c r="E38" s="25"/>
@@ -4103,8 +4096,8 @@
       </c>
     </row>
     <row r="39" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="2"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="1"/>
       <c r="C39" s="2"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -4129,7 +4122,7 @@
     </row>
     <row r="40" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
-      <c r="B40" s="2"/>
+      <c r="B40" s="3"/>
       <c r="C40" s="2"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -4154,7 +4147,7 @@
     </row>
     <row r="41" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
-      <c r="B41" s="2"/>
+      <c r="B41" s="3"/>
       <c r="C41" s="2"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -4179,7 +4172,7 @@
     </row>
     <row r="42" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
-      <c r="B42" s="2"/>
+      <c r="B42" s="3"/>
       <c r="C42" s="2"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -4204,7 +4197,7 @@
     </row>
     <row r="43" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
-      <c r="B43" s="2"/>
+      <c r="B43" s="3"/>
       <c r="C43" s="2"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -4229,7 +4222,7 @@
     </row>
     <row r="44" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
-      <c r="B44" s="2"/>
+      <c r="B44" s="3"/>
       <c r="C44" s="2"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -4254,7 +4247,7 @@
     </row>
     <row r="45" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
-      <c r="B45" s="2"/>
+      <c r="B45" s="3"/>
       <c r="C45" s="2"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4279,7 +4272,7 @@
     </row>
     <row r="46" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
-      <c r="B46" s="2"/>
+      <c r="B46" s="3"/>
       <c r="C46" s="2"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -4304,7 +4297,7 @@
     </row>
     <row r="47" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
-      <c r="B47" s="2"/>
+      <c r="B47" s="3"/>
       <c r="C47" s="2"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -4329,7 +4322,7 @@
     </row>
     <row r="48" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
-      <c r="B48" s="2"/>
+      <c r="B48" s="3"/>
       <c r="C48" s="2"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -4354,7 +4347,7 @@
     </row>
     <row r="49" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
-      <c r="B49" s="2"/>
+      <c r="B49" s="3"/>
       <c r="C49" s="2"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -4379,7 +4372,7 @@
     </row>
     <row r="50" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
-      <c r="B50" s="2"/>
+      <c r="B50" s="3"/>
       <c r="C50" s="2"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -4404,7 +4397,7 @@
     </row>
     <row r="51" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
-      <c r="B51" s="2"/>
+      <c r="B51" s="3"/>
       <c r="C51" s="2"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -4429,7 +4422,7 @@
     </row>
     <row r="52" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
-      <c r="B52" s="2"/>
+      <c r="B52" s="3"/>
       <c r="C52" s="2"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -4454,7 +4447,7 @@
     </row>
     <row r="53" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
-      <c r="B53" s="2"/>
+      <c r="B53" s="3"/>
       <c r="C53" s="2"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -4479,7 +4472,7 @@
     </row>
     <row r="54" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
-      <c r="B54" s="2"/>
+      <c r="B54" s="3"/>
       <c r="C54" s="2"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -4504,7 +4497,7 @@
     </row>
     <row r="55" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
-      <c r="B55" s="2"/>
+      <c r="B55" s="3"/>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -4529,7 +4522,7 @@
     </row>
     <row r="56" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
-      <c r="B56" s="2"/>
+      <c r="B56" s="3"/>
       <c r="C56" s="2"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -4554,7 +4547,7 @@
     </row>
     <row r="57" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
-      <c r="B57" s="2"/>
+      <c r="B57" s="3"/>
       <c r="C57" s="2"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -4579,7 +4572,7 @@
     </row>
     <row r="58" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
-      <c r="B58" s="2"/>
+      <c r="B58" s="3"/>
       <c r="C58" s="2"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -4604,7 +4597,7 @@
     </row>
     <row r="59" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
-      <c r="B59" s="2"/>
+      <c r="B59" s="3"/>
       <c r="C59" s="2"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -4629,7 +4622,7 @@
     </row>
     <row r="60" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
-      <c r="B60" s="2"/>
+      <c r="B60" s="3"/>
       <c r="C60" s="2"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -4654,7 +4647,7 @@
     </row>
     <row r="61" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
-      <c r="B61" s="2"/>
+      <c r="B61" s="3"/>
       <c r="C61" s="2"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -4679,7 +4672,7 @@
     </row>
     <row r="62" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
-      <c r="B62" s="2"/>
+      <c r="B62" s="3"/>
       <c r="C62" s="2"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -4704,7 +4697,7 @@
     </row>
     <row r="63" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
-      <c r="B63" s="2"/>
+      <c r="B63" s="3"/>
       <c r="C63" s="2"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -4729,7 +4722,7 @@
     </row>
     <row r="64" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
-      <c r="B64" s="2"/>
+      <c r="B64" s="3"/>
       <c r="C64" s="2"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -4754,7 +4747,7 @@
     </row>
     <row r="65" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
-      <c r="B65" s="2"/>
+      <c r="B65" s="3"/>
       <c r="C65" s="2"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -4779,7 +4772,7 @@
     </row>
     <row r="66" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
-      <c r="B66" s="2"/>
+      <c r="B66" s="3"/>
       <c r="C66" s="2"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -4804,7 +4797,7 @@
     </row>
     <row r="67" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
-      <c r="B67" s="2"/>
+      <c r="B67" s="3"/>
       <c r="C67" s="2"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -4829,7 +4822,7 @@
     </row>
     <row r="68" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
-      <c r="B68" s="2"/>
+      <c r="B68" s="3"/>
       <c r="C68" s="2"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -4854,7 +4847,7 @@
     </row>
     <row r="69" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
-      <c r="B69" s="2"/>
+      <c r="B69" s="3"/>
       <c r="C69" s="2"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -4879,7 +4872,7 @@
     </row>
     <row r="70" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
-      <c r="B70" s="2"/>
+      <c r="B70" s="3"/>
       <c r="C70" s="2"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -4904,7 +4897,7 @@
     </row>
     <row r="71" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
-      <c r="B71" s="2"/>
+      <c r="B71" s="3"/>
       <c r="C71" s="2"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -4929,7 +4922,7 @@
     </row>
     <row r="72" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
-      <c r="B72" s="2"/>
+      <c r="B72" s="3"/>
       <c r="C72" s="2"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -4954,7 +4947,7 @@
     </row>
     <row r="73" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
-      <c r="B73" s="2"/>
+      <c r="B73" s="3"/>
       <c r="C73" s="2"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -4979,7 +4972,7 @@
     </row>
     <row r="74" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
-      <c r="B74" s="2"/>
+      <c r="B74" s="3"/>
       <c r="C74" s="2"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -5004,7 +4997,7 @@
     </row>
     <row r="75" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
-      <c r="B75" s="2"/>
+      <c r="B75" s="3"/>
       <c r="C75" s="2"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -5029,7 +5022,7 @@
     </row>
     <row r="76" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
-      <c r="B76" s="2"/>
+      <c r="B76" s="3"/>
       <c r="C76" s="2"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -5054,7 +5047,7 @@
     </row>
     <row r="77" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
-      <c r="B77" s="2"/>
+      <c r="B77" s="3"/>
       <c r="C77" s="2"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -5079,7 +5072,7 @@
     </row>
     <row r="78" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
-      <c r="B78" s="2"/>
+      <c r="B78" s="3"/>
       <c r="C78" s="2"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -5104,7 +5097,7 @@
     </row>
     <row r="79" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
-      <c r="B79" s="2"/>
+      <c r="B79" s="3"/>
       <c r="C79" s="2"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -5129,7 +5122,7 @@
     </row>
     <row r="80" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
-      <c r="B80" s="2"/>
+      <c r="B80" s="3"/>
       <c r="C80" s="2"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -5154,7 +5147,7 @@
     </row>
     <row r="81" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
-      <c r="B81" s="2"/>
+      <c r="B81" s="3"/>
       <c r="C81" s="2"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -5179,7 +5172,7 @@
     </row>
     <row r="82" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
-      <c r="B82" s="2"/>
+      <c r="B82" s="3"/>
       <c r="C82" s="2"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -5204,7 +5197,7 @@
     </row>
     <row r="83" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
-      <c r="B83" s="2"/>
+      <c r="B83" s="3"/>
       <c r="C83" s="2"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -5229,7 +5222,7 @@
     </row>
     <row r="84" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
-      <c r="B84" s="2"/>
+      <c r="B84" s="3"/>
       <c r="C84" s="2"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -5254,7 +5247,7 @@
     </row>
     <row r="85" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
-      <c r="B85" s="2"/>
+      <c r="B85" s="3"/>
       <c r="C85" s="2"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -5279,7 +5272,7 @@
     </row>
     <row r="86" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
-      <c r="B86" s="2"/>
+      <c r="B86" s="3"/>
       <c r="C86" s="2"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -5304,7 +5297,7 @@
     </row>
     <row r="87" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
-      <c r="B87" s="2"/>
+      <c r="B87" s="3"/>
       <c r="C87" s="2"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -5329,7 +5322,7 @@
     </row>
     <row r="88" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
-      <c r="B88" s="2"/>
+      <c r="B88" s="3"/>
       <c r="C88" s="2"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -5354,7 +5347,7 @@
     </row>
     <row r="89" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
-      <c r="B89" s="2"/>
+      <c r="B89" s="3"/>
       <c r="C89" s="2"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -5379,7 +5372,7 @@
     </row>
     <row r="90" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
-      <c r="B90" s="2"/>
+      <c r="B90" s="3"/>
       <c r="C90" s="2"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -5404,7 +5397,7 @@
     </row>
     <row r="91" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
-      <c r="B91" s="2"/>
+      <c r="B91" s="3"/>
       <c r="C91" s="2"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -5429,7 +5422,7 @@
     </row>
     <row r="92" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
-      <c r="B92" s="2"/>
+      <c r="B92" s="3"/>
       <c r="C92" s="2"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -5454,7 +5447,7 @@
     </row>
     <row r="93" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
-      <c r="B93" s="2"/>
+      <c r="B93" s="3"/>
       <c r="C93" s="2"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -5479,7 +5472,7 @@
     </row>
     <row r="94" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
-      <c r="B94" s="2"/>
+      <c r="B94" s="3"/>
       <c r="C94" s="2"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -5504,7 +5497,7 @@
     </row>
     <row r="95" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
-      <c r="B95" s="2"/>
+      <c r="B95" s="3"/>
       <c r="C95" s="2"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -5529,7 +5522,7 @@
     </row>
     <row r="96" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
-      <c r="B96" s="2"/>
+      <c r="B96" s="3"/>
       <c r="C96" s="2"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -5554,7 +5547,7 @@
     </row>
     <row r="97" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
-      <c r="B97" s="2"/>
+      <c r="B97" s="3"/>
       <c r="C97" s="2"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -5579,7 +5572,7 @@
     </row>
     <row r="98" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
-      <c r="B98" s="2"/>
+      <c r="B98" s="3"/>
       <c r="C98" s="2"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -5604,7 +5597,7 @@
     </row>
     <row r="99" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
-      <c r="B99" s="2"/>
+      <c r="B99" s="3"/>
       <c r="C99" s="2"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -5629,7 +5622,7 @@
     </row>
     <row r="100" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
-      <c r="B100" s="2"/>
+      <c r="B100" s="3"/>
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -5654,7 +5647,7 @@
     </row>
     <row r="101" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
-      <c r="B101" s="2"/>
+      <c r="B101" s="3"/>
       <c r="C101" s="2"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -5679,7 +5672,7 @@
     </row>
     <row r="102" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
-      <c r="B102" s="2"/>
+      <c r="B102" s="3"/>
       <c r="C102" s="2"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -5704,7 +5697,7 @@
     </row>
     <row r="103" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
-      <c r="B103" s="2"/>
+      <c r="B103" s="3"/>
       <c r="C103" s="2"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -5729,7 +5722,7 @@
     </row>
     <row r="104" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
-      <c r="B104" s="2"/>
+      <c r="B104" s="3"/>
       <c r="C104" s="2"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -5754,7 +5747,7 @@
     </row>
     <row r="105" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
-      <c r="B105" s="2"/>
+      <c r="B105" s="3"/>
       <c r="C105" s="2"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -5779,7 +5772,7 @@
     </row>
     <row r="106" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
-      <c r="B106" s="2"/>
+      <c r="B106" s="3"/>
       <c r="C106" s="2"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -5804,7 +5797,7 @@
     </row>
     <row r="107" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
-      <c r="B107" s="2"/>
+      <c r="B107" s="3"/>
       <c r="C107" s="2"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -5829,7 +5822,7 @@
     </row>
     <row r="108" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
-      <c r="B108" s="2"/>
+      <c r="B108" s="3"/>
       <c r="C108" s="2"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -5854,7 +5847,7 @@
     </row>
     <row r="109" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
-      <c r="B109" s="2"/>
+      <c r="B109" s="3"/>
       <c r="C109" s="2"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -5879,7 +5872,7 @@
     </row>
     <row r="110" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
-      <c r="B110" s="2"/>
+      <c r="B110" s="3"/>
       <c r="C110" s="2"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -5904,7 +5897,7 @@
     </row>
     <row r="111" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
-      <c r="B111" s="2"/>
+      <c r="B111" s="3"/>
       <c r="C111" s="2"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -5929,7 +5922,7 @@
     </row>
     <row r="112" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
-      <c r="B112" s="2"/>
+      <c r="B112" s="3"/>
       <c r="C112" s="2"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -5954,7 +5947,7 @@
     </row>
     <row r="113" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3"/>
-      <c r="B113" s="2"/>
+      <c r="B113" s="3"/>
       <c r="C113" s="2"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -5979,7 +5972,7 @@
     </row>
     <row r="114" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
-      <c r="B114" s="2"/>
+      <c r="B114" s="3"/>
       <c r="C114" s="2"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -6004,7 +5997,7 @@
     </row>
     <row r="115" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3"/>
-      <c r="B115" s="2"/>
+      <c r="B115" s="3"/>
       <c r="C115" s="2"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -6029,7 +6022,7 @@
     </row>
     <row r="116" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3"/>
-      <c r="B116" s="2"/>
+      <c r="B116" s="3"/>
       <c r="C116" s="2"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -6054,7 +6047,7 @@
     </row>
     <row r="117" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
-      <c r="B117" s="2"/>
+      <c r="B117" s="3"/>
       <c r="C117" s="2"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -6079,7 +6072,7 @@
     </row>
     <row r="118" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3"/>
-      <c r="B118" s="2"/>
+      <c r="B118" s="3"/>
       <c r="C118" s="2"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -6104,7 +6097,7 @@
     </row>
     <row r="119" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3"/>
-      <c r="B119" s="2"/>
+      <c r="B119" s="3"/>
       <c r="C119" s="2"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -6129,7 +6122,7 @@
     </row>
     <row r="120" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3"/>
-      <c r="B120" s="2"/>
+      <c r="B120" s="3"/>
       <c r="C120" s="2"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -6154,7 +6147,7 @@
     </row>
     <row r="121" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3"/>
-      <c r="B121" s="2"/>
+      <c r="B121" s="3"/>
       <c r="C121" s="2"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -6179,7 +6172,7 @@
     </row>
     <row r="122" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3"/>
-      <c r="B122" s="2"/>
+      <c r="B122" s="3"/>
       <c r="C122" s="2"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -6204,7 +6197,7 @@
     </row>
     <row r="123" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
-      <c r="B123" s="2"/>
+      <c r="B123" s="3"/>
       <c r="C123" s="2"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -6229,7 +6222,7 @@
     </row>
     <row r="124" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
-      <c r="B124" s="2"/>
+      <c r="B124" s="3"/>
       <c r="C124" s="2"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -6254,7 +6247,7 @@
     </row>
     <row r="125" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3"/>
-      <c r="B125" s="2"/>
+      <c r="B125" s="3"/>
       <c r="C125" s="2"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -6279,7 +6272,7 @@
     </row>
     <row r="126" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3"/>
-      <c r="B126" s="2"/>
+      <c r="B126" s="3"/>
       <c r="C126" s="2"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -6304,7 +6297,7 @@
     </row>
     <row r="127" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3"/>
-      <c r="B127" s="2"/>
+      <c r="B127" s="3"/>
       <c r="C127" s="2"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -6329,7 +6322,7 @@
     </row>
     <row r="128" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3"/>
-      <c r="B128" s="2"/>
+      <c r="B128" s="3"/>
       <c r="C128" s="2"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -6354,7 +6347,7 @@
     </row>
     <row r="129" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
-      <c r="B129" s="2"/>
+      <c r="B129" s="3"/>
       <c r="C129" s="2"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -6379,7 +6372,7 @@
     </row>
     <row r="130" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3"/>
-      <c r="B130" s="2"/>
+      <c r="B130" s="3"/>
       <c r="C130" s="2"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -6404,7 +6397,7 @@
     </row>
     <row r="131" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3"/>
-      <c r="B131" s="2"/>
+      <c r="B131" s="3"/>
       <c r="C131" s="2"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -6429,7 +6422,7 @@
     </row>
     <row r="132" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3"/>
-      <c r="B132" s="2"/>
+      <c r="B132" s="3"/>
       <c r="C132" s="2"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -6454,7 +6447,7 @@
     </row>
     <row r="133" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3"/>
-      <c r="B133" s="2"/>
+      <c r="B133" s="3"/>
       <c r="C133" s="2"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -6479,7 +6472,7 @@
     </row>
     <row r="134" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3"/>
-      <c r="B134" s="2"/>
+      <c r="B134" s="3"/>
       <c r="C134" s="2"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -6504,7 +6497,7 @@
     </row>
     <row r="135" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3"/>
-      <c r="B135" s="2"/>
+      <c r="B135" s="3"/>
       <c r="C135" s="2"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -6529,7 +6522,7 @@
     </row>
     <row r="136" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3"/>
-      <c r="B136" s="2"/>
+      <c r="B136" s="3"/>
       <c r="C136" s="2"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -6554,7 +6547,7 @@
     </row>
     <row r="137" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3"/>
-      <c r="B137" s="2"/>
+      <c r="B137" s="3"/>
       <c r="C137" s="2"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -6579,7 +6572,7 @@
     </row>
     <row r="138" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
-      <c r="B138" s="2"/>
+      <c r="B138" s="3"/>
       <c r="C138" s="2"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -6604,7 +6597,7 @@
     </row>
     <row r="139" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
-      <c r="B139" s="2"/>
+      <c r="B139" s="3"/>
       <c r="C139" s="2"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -6629,7 +6622,7 @@
     </row>
     <row r="140" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
-      <c r="B140" s="2"/>
+      <c r="B140" s="3"/>
       <c r="C140" s="2"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -6654,7 +6647,7 @@
     </row>
     <row r="141" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
-      <c r="B141" s="2"/>
+      <c r="B141" s="3"/>
       <c r="C141" s="2"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -6679,7 +6672,7 @@
     </row>
     <row r="142" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3"/>
-      <c r="B142" s="2"/>
+      <c r="B142" s="3"/>
       <c r="C142" s="2"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -6704,7 +6697,7 @@
     </row>
     <row r="143" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3"/>
-      <c r="B143" s="2"/>
+      <c r="B143" s="3"/>
       <c r="C143" s="2"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -6729,7 +6722,7 @@
     </row>
     <row r="144" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3"/>
-      <c r="B144" s="2"/>
+      <c r="B144" s="3"/>
       <c r="C144" s="2"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -6754,7 +6747,7 @@
     </row>
     <row r="145" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3"/>
-      <c r="B145" s="2"/>
+      <c r="B145" s="3"/>
       <c r="C145" s="2"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -6779,7 +6772,7 @@
     </row>
     <row r="146" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3"/>
-      <c r="B146" s="2"/>
+      <c r="B146" s="3"/>
       <c r="C146" s="2"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -6804,7 +6797,7 @@
     </row>
     <row r="147" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3"/>
-      <c r="B147" s="2"/>
+      <c r="B147" s="3"/>
       <c r="C147" s="2"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -6829,7 +6822,7 @@
     </row>
     <row r="148" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3"/>
-      <c r="B148" s="2"/>
+      <c r="B148" s="3"/>
       <c r="C148" s="2"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -6854,7 +6847,7 @@
     </row>
     <row r="149" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3"/>
-      <c r="B149" s="2"/>
+      <c r="B149" s="3"/>
       <c r="C149" s="2"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -6879,7 +6872,7 @@
     </row>
     <row r="150" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3"/>
-      <c r="B150" s="2"/>
+      <c r="B150" s="3"/>
       <c r="C150" s="2"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -6904,7 +6897,7 @@
     </row>
     <row r="151" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3"/>
-      <c r="B151" s="2"/>
+      <c r="B151" s="3"/>
       <c r="C151" s="2"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -6929,7 +6922,7 @@
     </row>
     <row r="152" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3"/>
-      <c r="B152" s="2"/>
+      <c r="B152" s="3"/>
       <c r="C152" s="2"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -6954,7 +6947,7 @@
     </row>
     <row r="153" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3"/>
-      <c r="B153" s="2"/>
+      <c r="B153" s="3"/>
       <c r="C153" s="2"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -6979,7 +6972,7 @@
     </row>
     <row r="154" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3"/>
-      <c r="B154" s="2"/>
+      <c r="B154" s="3"/>
       <c r="C154" s="2"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -7004,7 +6997,7 @@
     </row>
     <row r="155" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3"/>
-      <c r="B155" s="2"/>
+      <c r="B155" s="3"/>
       <c r="C155" s="2"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -7029,7 +7022,7 @@
     </row>
     <row r="156" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3"/>
-      <c r="B156" s="2"/>
+      <c r="B156" s="3"/>
       <c r="C156" s="2"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -7054,7 +7047,7 @@
     </row>
     <row r="157" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3"/>
-      <c r="B157" s="2"/>
+      <c r="B157" s="3"/>
       <c r="C157" s="2"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -7079,7 +7072,7 @@
     </row>
     <row r="158" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3"/>
-      <c r="B158" s="2"/>
+      <c r="B158" s="3"/>
       <c r="C158" s="2"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -7104,7 +7097,7 @@
     </row>
     <row r="159" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3"/>
-      <c r="B159" s="2"/>
+      <c r="B159" s="3"/>
       <c r="C159" s="2"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -7129,7 +7122,7 @@
     </row>
     <row r="160" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3"/>
-      <c r="B160" s="2"/>
+      <c r="B160" s="3"/>
       <c r="C160" s="2"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -7154,7 +7147,7 @@
     </row>
     <row r="161" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3"/>
-      <c r="B161" s="2"/>
+      <c r="B161" s="3"/>
       <c r="C161" s="2"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -7179,7 +7172,7 @@
     </row>
     <row r="162" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3"/>
-      <c r="B162" s="2"/>
+      <c r="B162" s="3"/>
       <c r="C162" s="2"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -7204,7 +7197,7 @@
     </row>
     <row r="163" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3"/>
-      <c r="B163" s="2"/>
+      <c r="B163" s="3"/>
       <c r="C163" s="2"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -7229,7 +7222,7 @@
     </row>
     <row r="164" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3"/>
-      <c r="B164" s="2"/>
+      <c r="B164" s="3"/>
       <c r="C164" s="2"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -7254,7 +7247,7 @@
     </row>
     <row r="165" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3"/>
-      <c r="B165" s="2"/>
+      <c r="B165" s="3"/>
       <c r="C165" s="2"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -7279,7 +7272,7 @@
     </row>
     <row r="166" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3"/>
-      <c r="B166" s="2"/>
+      <c r="B166" s="3"/>
       <c r="C166" s="2"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -7304,7 +7297,7 @@
     </row>
     <row r="167" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3"/>
-      <c r="B167" s="2"/>
+      <c r="B167" s="3"/>
       <c r="C167" s="2"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -7329,7 +7322,7 @@
     </row>
     <row r="168" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3"/>
-      <c r="B168" s="2"/>
+      <c r="B168" s="3"/>
       <c r="C168" s="2"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -7354,7 +7347,7 @@
     </row>
     <row r="169" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3"/>
-      <c r="B169" s="2"/>
+      <c r="B169" s="3"/>
       <c r="C169" s="2"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -7379,7 +7372,7 @@
     </row>
     <row r="170" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3"/>
-      <c r="B170" s="2"/>
+      <c r="B170" s="3"/>
       <c r="C170" s="2"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -7404,7 +7397,7 @@
     </row>
     <row r="171" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3"/>
-      <c r="B171" s="2"/>
+      <c r="B171" s="3"/>
       <c r="C171" s="2"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -7429,7 +7422,7 @@
     </row>
     <row r="172" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3"/>
-      <c r="B172" s="2"/>
+      <c r="B172" s="3"/>
       <c r="C172" s="2"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -7454,7 +7447,7 @@
     </row>
     <row r="173" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3"/>
-      <c r="B173" s="2"/>
+      <c r="B173" s="3"/>
       <c r="C173" s="2"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -7479,7 +7472,7 @@
     </row>
     <row r="174" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3"/>
-      <c r="B174" s="2"/>
+      <c r="B174" s="3"/>
       <c r="C174" s="2"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -7504,7 +7497,7 @@
     </row>
     <row r="175" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3"/>
-      <c r="B175" s="2"/>
+      <c r="B175" s="3"/>
       <c r="C175" s="2"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -7529,7 +7522,7 @@
     </row>
     <row r="176" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3"/>
-      <c r="B176" s="2"/>
+      <c r="B176" s="3"/>
       <c r="C176" s="2"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -7554,7 +7547,7 @@
     </row>
     <row r="177" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3"/>
-      <c r="B177" s="2"/>
+      <c r="B177" s="3"/>
       <c r="C177" s="2"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -7579,7 +7572,7 @@
     </row>
     <row r="178" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3"/>
-      <c r="B178" s="2"/>
+      <c r="B178" s="3"/>
       <c r="C178" s="2"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -7604,7 +7597,7 @@
     </row>
     <row r="179" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3"/>
-      <c r="B179" s="2"/>
+      <c r="B179" s="3"/>
       <c r="C179" s="2"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -7629,7 +7622,7 @@
     </row>
     <row r="180" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3"/>
-      <c r="B180" s="2"/>
+      <c r="B180" s="3"/>
       <c r="C180" s="2"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -7654,7 +7647,7 @@
     </row>
     <row r="181" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3"/>
-      <c r="B181" s="2"/>
+      <c r="B181" s="3"/>
       <c r="C181" s="2"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -7679,7 +7672,7 @@
     </row>
     <row r="182" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3"/>
-      <c r="B182" s="2"/>
+      <c r="B182" s="3"/>
       <c r="C182" s="2"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -7704,7 +7697,7 @@
     </row>
     <row r="183" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3"/>
-      <c r="B183" s="2"/>
+      <c r="B183" s="3"/>
       <c r="C183" s="2"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -7729,7 +7722,7 @@
     </row>
     <row r="184" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3"/>
-      <c r="B184" s="2"/>
+      <c r="B184" s="3"/>
       <c r="C184" s="2"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -7754,7 +7747,7 @@
     </row>
     <row r="185" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3"/>
-      <c r="B185" s="2"/>
+      <c r="B185" s="3"/>
       <c r="C185" s="2"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -7779,7 +7772,7 @@
     </row>
     <row r="186" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3"/>
-      <c r="B186" s="2"/>
+      <c r="B186" s="3"/>
       <c r="C186" s="2"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -7804,7 +7797,7 @@
     </row>
     <row r="187" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3"/>
-      <c r="B187" s="2"/>
+      <c r="B187" s="3"/>
       <c r="C187" s="2"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -7829,7 +7822,7 @@
     </row>
     <row r="188" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3"/>
-      <c r="B188" s="2"/>
+      <c r="B188" s="3"/>
       <c r="C188" s="2"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -7854,7 +7847,7 @@
     </row>
     <row r="189" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3"/>
-      <c r="B189" s="2"/>
+      <c r="B189" s="3"/>
       <c r="C189" s="2"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -7879,7 +7872,7 @@
     </row>
     <row r="190" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3"/>
-      <c r="B190" s="2"/>
+      <c r="B190" s="3"/>
       <c r="C190" s="2"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -7904,7 +7897,7 @@
     </row>
     <row r="191" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3"/>
-      <c r="B191" s="2"/>
+      <c r="B191" s="3"/>
       <c r="C191" s="2"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -7929,7 +7922,7 @@
     </row>
     <row r="192" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3"/>
-      <c r="B192" s="2"/>
+      <c r="B192" s="3"/>
       <c r="C192" s="2"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -7954,7 +7947,7 @@
     </row>
     <row r="193" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3"/>
-      <c r="B193" s="2"/>
+      <c r="B193" s="3"/>
       <c r="C193" s="2"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -7979,7 +7972,7 @@
     </row>
     <row r="194" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3"/>
-      <c r="B194" s="2"/>
+      <c r="B194" s="3"/>
       <c r="C194" s="2"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -8004,7 +7997,7 @@
     </row>
     <row r="195" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3"/>
-      <c r="B195" s="2"/>
+      <c r="B195" s="3"/>
       <c r="C195" s="2"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -8029,7 +8022,7 @@
     </row>
     <row r="196" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3"/>
-      <c r="B196" s="2"/>
+      <c r="B196" s="3"/>
       <c r="C196" s="2"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -8054,7 +8047,7 @@
     </row>
     <row r="197" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3"/>
-      <c r="B197" s="2"/>
+      <c r="B197" s="3"/>
       <c r="C197" s="2"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -8079,7 +8072,7 @@
     </row>
     <row r="198" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3"/>
-      <c r="B198" s="2"/>
+      <c r="B198" s="3"/>
       <c r="C198" s="2"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -8104,7 +8097,7 @@
     </row>
     <row r="199" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3"/>
-      <c r="B199" s="2"/>
+      <c r="B199" s="3"/>
       <c r="C199" s="2"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -8129,7 +8122,7 @@
     </row>
     <row r="200" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3"/>
-      <c r="B200" s="2"/>
+      <c r="B200" s="3"/>
       <c r="C200" s="2"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -8154,7 +8147,7 @@
     </row>
     <row r="201" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3"/>
-      <c r="B201" s="2"/>
+      <c r="B201" s="3"/>
       <c r="C201" s="2"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -8179,7 +8172,7 @@
     </row>
     <row r="202" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="3"/>
-      <c r="B202" s="2"/>
+      <c r="B202" s="3"/>
       <c r="C202" s="2"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -8204,7 +8197,7 @@
     </row>
     <row r="203" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="3"/>
-      <c r="B203" s="2"/>
+      <c r="B203" s="3"/>
       <c r="C203" s="2"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -8229,7 +8222,7 @@
     </row>
     <row r="204" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="3"/>
-      <c r="B204" s="2"/>
+      <c r="B204" s="3"/>
       <c r="C204" s="2"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -8254,7 +8247,7 @@
     </row>
     <row r="205" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="3"/>
-      <c r="B205" s="2"/>
+      <c r="B205" s="3"/>
       <c r="C205" s="2"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -8279,7 +8272,7 @@
     </row>
     <row r="206" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="3"/>
-      <c r="B206" s="2"/>
+      <c r="B206" s="3"/>
       <c r="C206" s="2"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -8304,7 +8297,7 @@
     </row>
     <row r="207" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="3"/>
-      <c r="B207" s="2"/>
+      <c r="B207" s="3"/>
       <c r="C207" s="2"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -8329,7 +8322,7 @@
     </row>
     <row r="208" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="3"/>
-      <c r="B208" s="2"/>
+      <c r="B208" s="3"/>
       <c r="C208" s="2"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -8354,7 +8347,7 @@
     </row>
     <row r="209" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="3"/>
-      <c r="B209" s="2"/>
+      <c r="B209" s="3"/>
       <c r="C209" s="2"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -8379,7 +8372,7 @@
     </row>
     <row r="210" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="3"/>
-      <c r="B210" s="2"/>
+      <c r="B210" s="3"/>
       <c r="C210" s="2"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -8405,8 +8398,8 @@
     <row r="211" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="212" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W36">
-    <sortCondition ref="A2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:W36">
+    <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/JavaApplication19/src/excel/Inventario.xlsx
+++ b/JavaApplication19/src/excel/Inventario.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="109">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -335,6 +335,18 @@
   </si>
   <si>
     <t>$8900</t>
+  </si>
+  <si>
+    <t>24  julio 20</t>
+  </si>
+  <si>
+    <t>Seminuevo</t>
+  </si>
+  <si>
+    <t>Pack2</t>
+  </si>
+  <si>
+    <t>1.25</t>
   </si>
 </sst>
 </file>
@@ -991,7 +1003,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC212"/>
+  <dimension ref="A1:AC211"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -1002,10 +1014,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="58.77734375" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="23" width="20.6640625" customWidth="1"/>
-    <col min="24" max="29" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="58.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="40.6640625" collapsed="true"/>
+    <col min="4" max="23" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="24" max="29" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -5620,7 +5632,7 @@
       <c r="V99" s="3"/>
       <c r="W99" s="2"/>
     </row>
-    <row r="100" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="2"/>
@@ -8370,33 +8382,8 @@
       <c r="V209" s="3"/>
       <c r="W209" s="2"/>
     </row>
-    <row r="210" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="3"/>
-      <c r="B210" s="3"/>
-      <c r="C210" s="2"/>
-      <c r="D210" s="3"/>
-      <c r="E210" s="3"/>
-      <c r="F210" s="3"/>
-      <c r="G210" s="3"/>
-      <c r="H210" s="3"/>
-      <c r="I210" s="3"/>
-      <c r="J210" s="4"/>
-      <c r="K210" s="4"/>
-      <c r="L210" s="4"/>
-      <c r="M210" s="4"/>
-      <c r="N210" s="4"/>
-      <c r="O210" s="4"/>
-      <c r="P210" s="4"/>
-      <c r="Q210" s="4"/>
-      <c r="R210" s="4"/>
-      <c r="S210" s="4"/>
-      <c r="T210" s="4"/>
-      <c r="U210" s="4"/>
-      <c r="V210" s="3"/>
-      <c r="W210" s="2"/>
-    </row>
-    <row r="211" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:W36">
     <sortCondition ref="B2"/>

--- a/JavaApplication19/src/excel/Inventario.xlsx
+++ b/JavaApplication19/src/excel/Inventario.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="114">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -347,6 +347,21 @@
   </si>
   <si>
     <t>1.25</t>
+  </si>
+  <si>
+    <t>27  julio 20</t>
+  </si>
+  <si>
+    <t>BICINUEVA</t>
+  </si>
+  <si>
+    <t>SPECILICE CAMBER</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>$10000</t>
   </si>
 </sst>
 </file>
@@ -4058,83 +4073,84 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="24"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26">
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="E38" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="F38" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="G38" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="H38" t="s" s="0">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="24"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26">
         <f>SUM(I2:I36)</f>
         <v>38781.993360491833</v>
       </c>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26">
+      <c r="J39" s="26"/>
+      <c r="K39" s="26">
         <f>SUM(K2:K36)</f>
         <v>61620</v>
       </c>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26">
+      <c r="L39" s="26"/>
+      <c r="M39" s="26">
         <f>SUM(M2:M36)</f>
         <v>71479.199999999997</v>
       </c>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26">
+      <c r="N39" s="26"/>
+      <c r="O39" s="26">
         <f>SUM(O2:O36)</f>
         <v>93881.08</v>
       </c>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="26">
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26">
         <f>SUM(Q2:Q36)</f>
         <v>12181.880000000003</v>
       </c>
-      <c r="R38" s="26"/>
-      <c r="S38" s="26">
+      <c r="R39" s="26"/>
+      <c r="S39" s="26">
         <f>SUM(S2:S36)</f>
         <v>9859.2000000000007</v>
       </c>
-      <c r="T38" s="26"/>
-      <c r="U38" s="26">
+      <c r="T39" s="26"/>
+      <c r="U39" s="26">
         <f>SUM(U2:U36)</f>
         <v>22838.006639508163</v>
       </c>
-      <c r="V38" s="26"/>
-      <c r="W38" s="27">
+      <c r="V39" s="26"/>
+      <c r="W39" s="27">
         <f>SUM(W2:W36)</f>
         <v>22838.006639508167</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
-      <c r="W39" s="5"/>
-    </row>
     <row r="40" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
+      <c r="B40" s="1"/>
       <c r="C40" s="2"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -4154,8 +4170,8 @@
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="2"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="5"/>
     </row>
     <row r="41" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>

--- a/JavaApplication19/src/excel/Inventario.xlsx
+++ b/JavaApplication19/src/excel/Inventario.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25768944-A353-4413-8C5D-F76F302A02A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F446ED4-0085-4BD6-BCAC-FB201B550CF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,19 @@
     <sheet name="Inventario" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -43,9 +51,6 @@
     <t xml:space="preserve">COSTO NETO </t>
   </si>
   <si>
-    <t>PRECIO BASE X UNIDAD</t>
-  </si>
-  <si>
     <t>PRECIO BASE NETO</t>
   </si>
   <si>
@@ -115,9 +120,6 @@
     <t xml:space="preserve">DESVIADOR DELANTERO SHIMANO SLX </t>
   </si>
   <si>
-    <t>DESVIADOR TRASERO XTR</t>
-  </si>
-  <si>
     <t>EPIC OIL 60ML</t>
   </si>
   <si>
@@ -181,9 +183,6 @@
     <t>DESVIADOR DELANTERO XT</t>
   </si>
   <si>
-    <t>PARA 9s Y 10s - MUY PRECISO - DETALLES ESTETICOS - USADO</t>
-  </si>
-  <si>
     <t>DOBLE TORNILLO DE SUJECIÓN - USADO</t>
   </si>
   <si>
@@ -232,12 +231,6 @@
     <t>SHIFTERS DE GATILLO - 3x9 - COMO NUEVOS - UN PAR - SEMINUEVOS</t>
   </si>
   <si>
-    <t>SHIFTERS DE GATILLO - 3x9 - DETALLES ESTETICOS - UN PAR - USADO</t>
-  </si>
-  <si>
-    <t>SHIFTERS XT 3x9</t>
-  </si>
-  <si>
     <t>SHIFTERS SHIMANO ALIVIO 3x9</t>
   </si>
   <si>
@@ -256,9 +249,6 @@
     <t>CRANK SHIMANO DEORE</t>
   </si>
   <si>
-    <t>DESVIADOR TRAERO SLX 10s</t>
-  </si>
-  <si>
     <t>DESVIADOR DELANTERO SRAM X5</t>
   </si>
   <si>
@@ -286,9 +276,6 @@
     <t>PARA 3 PLATOS - PARA JALON ARRIBA - USADO</t>
   </si>
   <si>
-    <t xml:space="preserve">PARA 9s - DETALLES ESTETICOS  - USADO </t>
-  </si>
-  <si>
     <t>PARA 3 PLATOS - E-TYPE - ANCLAJE A 2 TORNILLOS - USADO</t>
   </si>
   <si>
@@ -313,40 +300,7 @@
     <t>90% DE VIDA - 700x23 - COLOR ROJO - KEVLAR(DOBLABLE) - CON MEDIDOR DE DESGASTE - PAR DE LLANTAS - SEMINUEVO</t>
   </si>
   <si>
-    <t>Bici Fuji</t>
-  </si>
-  <si>
-    <t>Talla M</t>
-  </si>
-  <si>
-    <t>22  julio 20</t>
-  </si>
-  <si>
-    <t>Nuevo</t>
-  </si>
-  <si>
-    <t>Pack1</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>$8900</t>
-  </si>
-  <si>
-    <t>24  julio 20</t>
-  </si>
-  <si>
-    <t>Seminuevo</t>
-  </si>
-  <si>
-    <t>Pack2</t>
-  </si>
-  <si>
-    <t>1.25</t>
+    <t>PRECIO BASE UNIDAD</t>
   </si>
 </sst>
 </file>
@@ -631,13 +585,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>1047368</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>26830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>1671215</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>489857</xdr:rowOff>
@@ -1003,30 +957,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC211"/>
+  <dimension ref="A1:AC209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="58.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="4" max="23" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="24" max="29" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="1" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="23" width="20.6640625" customWidth="1"/>
+    <col min="24" max="29" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="7"/>
+      <c r="A1" s="7"/>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
       <c r="C1" s="8" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>1</v>
@@ -1047,60 +1000,60 @@
         <v>6</v>
       </c>
       <c r="J1" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="R1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="T1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="V1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="9" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="2" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
+      <c r="A2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="13">
         <v>44004</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>49</v>
-      </c>
       <c r="D2" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
@@ -1118,70 +1071,70 @@
         <v>200</v>
       </c>
       <c r="K2" s="15">
-        <f t="shared" ref="K2:K36" si="1">J2*G2</f>
+        <f t="shared" ref="K2:K33" si="1">J2*G2</f>
         <v>200</v>
       </c>
       <c r="L2" s="15">
-        <f t="shared" ref="L2:L36" si="2">J2+R2</f>
+        <f t="shared" ref="L2:L33" si="2">J2+R2</f>
         <v>232</v>
       </c>
       <c r="M2" s="15">
-        <f t="shared" ref="M2:M36" si="3">L2*G2</f>
+        <f t="shared" ref="M2:M33" si="3">L2*G2</f>
         <v>232</v>
       </c>
       <c r="N2" s="15">
-        <f t="shared" ref="N2:N36" si="4">J2+R2+P2+35</f>
+        <f t="shared" ref="N2:N33" si="4">J2+R2+P2+35</f>
         <v>306.8</v>
       </c>
       <c r="O2" s="15">
-        <f t="shared" ref="O2:O36" si="5">N2*G2</f>
+        <f t="shared" ref="O2:O33" si="5">N2*G2</f>
         <v>306.8</v>
       </c>
       <c r="P2" s="15">
-        <f t="shared" ref="P2:P36" si="6">(L2*0.15)+5</f>
+        <f t="shared" ref="P2:P33" si="6">(L2*0.15)+5</f>
         <v>39.799999999999997</v>
       </c>
       <c r="Q2" s="15">
-        <f t="shared" ref="Q2:Q36" si="7">P2*G2</f>
+        <f t="shared" ref="Q2:Q33" si="7">P2*G2</f>
         <v>39.799999999999997</v>
       </c>
       <c r="R2" s="15">
-        <f t="shared" ref="R2:R36" si="8">J2*0.16</f>
+        <f t="shared" ref="R2:R33" si="8">J2*0.16</f>
         <v>32</v>
       </c>
       <c r="S2" s="15">
-        <f t="shared" ref="S2:S36" si="9">R2*G2</f>
+        <f t="shared" ref="S2:S33" si="9">R2*G2</f>
         <v>32</v>
       </c>
       <c r="T2" s="15">
-        <f t="shared" ref="T2:T36" si="10">L2-H2-R2</f>
+        <f t="shared" ref="T2:T33" si="10">L2-H2-R2</f>
         <v>0</v>
       </c>
       <c r="U2" s="15">
-        <f t="shared" ref="U2:U36" si="11">T2*G2</f>
+        <f t="shared" ref="U2:U33" si="11">T2*G2</f>
         <v>0</v>
       </c>
       <c r="V2" s="15">
-        <f t="shared" ref="V2:V36" si="12">N2-H2-P2-R2-35</f>
+        <f t="shared" ref="V2:V33" si="12">N2-H2-P2-R2-35</f>
         <v>0</v>
       </c>
       <c r="W2" s="16">
-        <f t="shared" ref="W2:W36" si="13">V2*G2</f>
+        <f t="shared" ref="W2:W33" si="13">V2*G2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18">
+      <c r="A3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="18">
         <v>43939</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="D3" s="19" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>22</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
@@ -1252,17 +1205,17 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18">
+      <c r="A4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="18">
         <v>43840</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="D4" s="19" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>24</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
@@ -1333,17 +1286,17 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
+      <c r="A5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="21">
         <v>43846</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>75</v>
-      </c>
       <c r="D5" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
@@ -1414,17 +1367,17 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+      <c r="A6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="13">
         <v>43902</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>74</v>
-      </c>
       <c r="D6" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -1495,17 +1448,17 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30">
+      <c r="A7" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="30">
         <v>43984</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>44</v>
-      </c>
       <c r="D7" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="31"/>
       <c r="F7" s="31"/>
@@ -1576,17 +1529,17 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18">
+      <c r="A8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="18">
         <v>43837</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="D8" s="19" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>27</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
@@ -1657,20 +1610,20 @@
       </c>
     </row>
     <row r="9" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18">
+      <c r="A9" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="18">
         <v>43853</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>86</v>
-      </c>
       <c r="D9" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" s="19">
         <f>22950/18500</f>
@@ -1744,17 +1697,17 @@
       </c>
     </row>
     <row r="10" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18">
+      <c r="A10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="18">
         <v>44018</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>73</v>
-      </c>
       <c r="D10" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
@@ -1824,20 +1777,20 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18">
+      <c r="A11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="18">
         <v>43853</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>89</v>
-      </c>
       <c r="D11" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" s="19">
         <f>22950/18500</f>
@@ -1851,7 +1804,7 @@
         <v>322.44008714596953</v>
       </c>
       <c r="I11" s="15">
-        <f t="shared" ref="I11:I36" si="14">H11*G11</f>
+        <f t="shared" ref="I11:I33" si="14">H11*G11</f>
         <v>322.44008714596953</v>
       </c>
       <c r="J11" s="15">
@@ -1911,20 +1864,20 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18">
+      <c r="A12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="18">
         <v>43837</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>87</v>
-      </c>
       <c r="D12" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="19">
         <f>14600/7500</f>
@@ -1998,68 +1951,68 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
-        <v>44004</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14">
+      <c r="A13" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="18">
+        <v>43840</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19">
         <v>1</v>
       </c>
       <c r="H13" s="15">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="I13" s="15">
         <f t="shared" si="14"/>
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="J13" s="15">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="K13" s="15">
         <f t="shared" si="1"/>
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L13" s="15">
         <f t="shared" si="2"/>
-        <v>754</v>
+        <v>522</v>
       </c>
       <c r="M13" s="15">
         <f t="shared" si="3"/>
-        <v>754</v>
+        <v>522</v>
       </c>
       <c r="N13" s="15">
         <f t="shared" si="4"/>
-        <v>907.1</v>
+        <v>640.29999999999995</v>
       </c>
       <c r="O13" s="15">
         <f t="shared" si="5"/>
-        <v>907.1</v>
+        <v>640.29999999999995</v>
       </c>
       <c r="P13" s="15">
         <f t="shared" si="6"/>
-        <v>118.1</v>
+        <v>83.3</v>
       </c>
       <c r="Q13" s="15">
         <f t="shared" si="7"/>
-        <v>118.1</v>
+        <v>83.3</v>
       </c>
       <c r="R13" s="15">
         <f t="shared" si="8"/>
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="S13" s="15">
         <f t="shared" si="9"/>
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="T13" s="15">
         <f t="shared" si="10"/>
@@ -2079,101 +2032,101 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18">
-        <v>43840</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>90</v>
+      <c r="A14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="18">
+        <v>43847</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="H14" s="15">
-        <v>450</v>
+        <v>14.96</v>
       </c>
       <c r="I14" s="15">
         <f t="shared" si="14"/>
-        <v>450</v>
+        <v>2917.2000000000003</v>
       </c>
       <c r="J14" s="15">
-        <v>450</v>
+        <v>30</v>
       </c>
       <c r="K14" s="15">
         <f t="shared" si="1"/>
-        <v>450</v>
+        <v>5850</v>
       </c>
       <c r="L14" s="15">
         <f t="shared" si="2"/>
-        <v>522</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="M14" s="15">
         <f t="shared" si="3"/>
-        <v>522</v>
+        <v>6785.9999999999991</v>
       </c>
       <c r="N14" s="15">
         <f t="shared" si="4"/>
-        <v>640.29999999999995</v>
+        <v>80.02</v>
       </c>
       <c r="O14" s="15">
         <f t="shared" si="5"/>
-        <v>640.29999999999995</v>
+        <v>15603.9</v>
       </c>
       <c r="P14" s="15">
         <f t="shared" si="6"/>
-        <v>83.3</v>
+        <v>10.219999999999999</v>
       </c>
       <c r="Q14" s="15">
         <f t="shared" si="7"/>
-        <v>83.3</v>
+        <v>1992.8999999999999</v>
       </c>
       <c r="R14" s="15">
         <f t="shared" si="8"/>
-        <v>72</v>
+        <v>4.8</v>
       </c>
       <c r="S14" s="15">
         <f t="shared" si="9"/>
-        <v>72</v>
+        <v>936</v>
       </c>
       <c r="T14" s="15">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>15.039999999999996</v>
       </c>
       <c r="U14" s="15">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2932.7999999999993</v>
       </c>
       <c r="V14" s="15">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>15.040000000000006</v>
       </c>
       <c r="W14" s="16">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2932.8000000000011</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18">
+      <c r="A15" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="18">
         <v>43837</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>88</v>
-      </c>
       <c r="D15" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" s="19">
         <f>14600/7500</f>
@@ -2184,467 +2137,467 @@
       </c>
       <c r="H15" s="15">
         <f>J15/F15</f>
-        <v>205.47945205479451</v>
+        <v>256.84931506849313</v>
       </c>
       <c r="I15" s="15">
         <f t="shared" si="14"/>
-        <v>205.47945205479451</v>
+        <v>256.84931506849313</v>
       </c>
       <c r="J15" s="15">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K15" s="15">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L15" s="15">
         <f t="shared" si="2"/>
-        <v>464</v>
+        <v>580</v>
       </c>
       <c r="M15" s="15">
         <f t="shared" si="3"/>
-        <v>464</v>
+        <v>580</v>
       </c>
       <c r="N15" s="15">
         <f t="shared" si="4"/>
-        <v>573.6</v>
+        <v>707</v>
       </c>
       <c r="O15" s="15">
         <f t="shared" si="5"/>
-        <v>573.6</v>
+        <v>707</v>
       </c>
       <c r="P15" s="15">
         <f t="shared" si="6"/>
-        <v>74.599999999999994</v>
+        <v>92</v>
       </c>
       <c r="Q15" s="15">
         <f t="shared" si="7"/>
-        <v>74.599999999999994</v>
+        <v>92</v>
       </c>
       <c r="R15" s="15">
         <f t="shared" si="8"/>
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="S15" s="15">
         <f t="shared" si="9"/>
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="T15" s="15">
         <f t="shared" si="10"/>
-        <v>194.52054794520552</v>
+        <v>243.15068493150687</v>
       </c>
       <c r="U15" s="15">
         <f t="shared" si="11"/>
-        <v>194.52054794520552</v>
+        <v>243.15068493150687</v>
       </c>
       <c r="V15" s="15">
         <f t="shared" si="12"/>
-        <v>194.52054794520552</v>
+        <v>243.15068493150687</v>
       </c>
       <c r="W15" s="16">
         <f t="shared" si="13"/>
-        <v>194.52054794520552</v>
+        <v>243.15068493150687</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18">
-        <v>43847</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>91</v>
+      <c r="A16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="18">
+        <v>43837</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
+        <v>23</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="19">
+        <f>14600/7500</f>
+        <v>1.9466666666666668</v>
+      </c>
       <c r="G16" s="19">
-        <v>195</v>
+        <v>1</v>
       </c>
       <c r="H16" s="15">
-        <v>14.96</v>
+        <f>J16/F16</f>
+        <v>77.054794520547944</v>
       </c>
       <c r="I16" s="15">
         <f t="shared" si="14"/>
-        <v>2917.2000000000003</v>
+        <v>77.054794520547944</v>
       </c>
       <c r="J16" s="15">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="K16" s="15">
         <f t="shared" si="1"/>
-        <v>5850</v>
+        <v>150</v>
       </c>
       <c r="L16" s="15">
         <f t="shared" si="2"/>
-        <v>34.799999999999997</v>
+        <v>174</v>
       </c>
       <c r="M16" s="15">
         <f t="shared" si="3"/>
-        <v>6785.9999999999991</v>
+        <v>174</v>
       </c>
       <c r="N16" s="15">
         <f t="shared" si="4"/>
-        <v>80.02</v>
+        <v>240.1</v>
       </c>
       <c r="O16" s="15">
         <f t="shared" si="5"/>
-        <v>15603.9</v>
+        <v>240.1</v>
       </c>
       <c r="P16" s="15">
         <f t="shared" si="6"/>
-        <v>10.219999999999999</v>
+        <v>31.099999999999998</v>
       </c>
       <c r="Q16" s="15">
         <f t="shared" si="7"/>
-        <v>1992.8999999999999</v>
+        <v>31.099999999999998</v>
       </c>
       <c r="R16" s="15">
         <f t="shared" si="8"/>
-        <v>4.8</v>
+        <v>24</v>
       </c>
       <c r="S16" s="15">
         <f t="shared" si="9"/>
-        <v>936</v>
+        <v>24</v>
       </c>
       <c r="T16" s="15">
         <f t="shared" si="10"/>
-        <v>15.039999999999996</v>
+        <v>72.945205479452056</v>
       </c>
       <c r="U16" s="15">
         <f t="shared" si="11"/>
-        <v>2932.7999999999993</v>
+        <v>72.945205479452056</v>
       </c>
       <c r="V16" s="15">
         <f t="shared" si="12"/>
-        <v>15.040000000000006</v>
+        <v>72.945205479452056</v>
       </c>
       <c r="W16" s="16">
         <f t="shared" si="13"/>
-        <v>2932.8000000000011</v>
+        <v>72.945205479452056</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18">
+      <c r="A17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="18">
         <v>43837</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>93</v>
-      </c>
       <c r="D17" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19">
+        <v>2</v>
+      </c>
+      <c r="H17" s="15">
+        <v>50</v>
+      </c>
+      <c r="I17" s="15">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="J17" s="15">
+        <v>150</v>
+      </c>
+      <c r="K17" s="15">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="L17" s="15">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+      <c r="M17" s="15">
+        <f t="shared" si="3"/>
+        <v>348</v>
+      </c>
+      <c r="N17" s="15">
+        <f t="shared" si="4"/>
+        <v>240.1</v>
+      </c>
+      <c r="O17" s="15">
+        <f t="shared" si="5"/>
+        <v>480.2</v>
+      </c>
+      <c r="P17" s="15">
+        <f t="shared" si="6"/>
+        <v>31.099999999999998</v>
+      </c>
+      <c r="Q17" s="15">
+        <f t="shared" si="7"/>
+        <v>62.199999999999996</v>
+      </c>
+      <c r="R17" s="15">
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="E17" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="19">
+      <c r="S17" s="15">
+        <f t="shared" si="9"/>
+        <v>48</v>
+      </c>
+      <c r="T17" s="15">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="U17" s="15">
+        <f t="shared" si="11"/>
+        <v>200</v>
+      </c>
+      <c r="V17" s="15">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="W17" s="16">
+        <f t="shared" si="13"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="30">
+        <v>43853</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31">
+        <v>1</v>
+      </c>
+      <c r="H18" s="15">
+        <v>300</v>
+      </c>
+      <c r="I18" s="15">
+        <f t="shared" si="14"/>
+        <v>300</v>
+      </c>
+      <c r="J18" s="15">
+        <v>300</v>
+      </c>
+      <c r="K18" s="15">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="L18" s="15">
+        <f t="shared" si="2"/>
+        <v>348</v>
+      </c>
+      <c r="M18" s="15">
+        <f t="shared" si="3"/>
+        <v>348</v>
+      </c>
+      <c r="N18" s="15">
+        <f t="shared" si="4"/>
+        <v>440.2</v>
+      </c>
+      <c r="O18" s="15">
+        <f t="shared" si="5"/>
+        <v>440.2</v>
+      </c>
+      <c r="P18" s="15">
+        <f t="shared" si="6"/>
+        <v>57.199999999999996</v>
+      </c>
+      <c r="Q18" s="15">
+        <f t="shared" si="7"/>
+        <v>57.199999999999996</v>
+      </c>
+      <c r="R18" s="15">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+      <c r="S18" s="15">
+        <f t="shared" si="9"/>
+        <v>48</v>
+      </c>
+      <c r="T18" s="15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="18">
+        <v>43837</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="19">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G19" s="19">
         <v>1</v>
       </c>
-      <c r="H17" s="15">
-        <f>J17/F17</f>
-        <v>256.84931506849313</v>
-      </c>
-      <c r="I17" s="15">
-        <f t="shared" si="14"/>
-        <v>256.84931506849313</v>
-      </c>
-      <c r="J17" s="15">
-        <v>500</v>
-      </c>
-      <c r="K17" s="15">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="L17" s="15">
-        <f t="shared" si="2"/>
-        <v>580</v>
-      </c>
-      <c r="M17" s="15">
-        <f t="shared" si="3"/>
-        <v>580</v>
-      </c>
-      <c r="N17" s="15">
-        <f t="shared" si="4"/>
-        <v>707</v>
-      </c>
-      <c r="O17" s="15">
-        <f t="shared" si="5"/>
-        <v>707</v>
-      </c>
-      <c r="P17" s="15">
-        <f t="shared" si="6"/>
-        <v>92</v>
-      </c>
-      <c r="Q17" s="15">
-        <f t="shared" si="7"/>
-        <v>92</v>
-      </c>
-      <c r="R17" s="15">
-        <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="S17" s="15">
-        <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="T17" s="15">
-        <f t="shared" si="10"/>
-        <v>243.15068493150687</v>
-      </c>
-      <c r="U17" s="15">
-        <f t="shared" si="11"/>
-        <v>243.15068493150687</v>
-      </c>
-      <c r="V17" s="15">
-        <f t="shared" si="12"/>
-        <v>243.15068493150687</v>
-      </c>
-      <c r="W17" s="16">
-        <f t="shared" si="13"/>
-        <v>243.15068493150687</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18">
-        <v>43837</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="19">
-        <f>14600/7500</f>
-        <v>1.9466666666666668</v>
-      </c>
-      <c r="G18" s="19">
-        <v>1</v>
-      </c>
-      <c r="H18" s="15">
-        <f>J18/F18</f>
-        <v>77.054794520547944</v>
-      </c>
-      <c r="I18" s="15">
-        <f t="shared" si="14"/>
-        <v>77.054794520547944</v>
-      </c>
-      <c r="J18" s="15">
-        <v>150</v>
-      </c>
-      <c r="K18" s="15">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="L18" s="15">
-        <f t="shared" si="2"/>
-        <v>174</v>
-      </c>
-      <c r="M18" s="15">
-        <f t="shared" si="3"/>
-        <v>174</v>
-      </c>
-      <c r="N18" s="15">
-        <f t="shared" si="4"/>
-        <v>240.1</v>
-      </c>
-      <c r="O18" s="15">
-        <f t="shared" si="5"/>
-        <v>240.1</v>
-      </c>
-      <c r="P18" s="15">
-        <f t="shared" si="6"/>
-        <v>31.099999999999998</v>
-      </c>
-      <c r="Q18" s="15">
-        <f t="shared" si="7"/>
-        <v>31.099999999999998</v>
-      </c>
-      <c r="R18" s="15">
-        <f t="shared" si="8"/>
-        <v>24</v>
-      </c>
-      <c r="S18" s="15">
-        <f t="shared" si="9"/>
-        <v>24</v>
-      </c>
-      <c r="T18" s="15">
-        <f t="shared" si="10"/>
-        <v>72.945205479452056</v>
-      </c>
-      <c r="U18" s="15">
-        <f t="shared" si="11"/>
-        <v>72.945205479452056</v>
-      </c>
-      <c r="V18" s="15">
-        <f t="shared" si="12"/>
-        <v>72.945205479452056</v>
-      </c>
-      <c r="W18" s="16">
-        <f t="shared" si="13"/>
-        <v>72.945205479452056</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18">
-        <v>43837</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19">
-        <v>2</v>
-      </c>
       <c r="H19" s="15">
-        <v>50</v>
+        <f>J19/F19</f>
+        <v>205.47945205479451</v>
       </c>
       <c r="I19" s="15">
         <f t="shared" si="14"/>
-        <v>100</v>
+        <v>205.47945205479451</v>
       </c>
       <c r="J19" s="15">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="K19" s="15">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L19" s="15">
         <f t="shared" si="2"/>
-        <v>174</v>
+        <v>464</v>
       </c>
       <c r="M19" s="15">
         <f t="shared" si="3"/>
-        <v>348</v>
+        <v>464</v>
       </c>
       <c r="N19" s="15">
         <f t="shared" si="4"/>
-        <v>240.1</v>
+        <v>573.6</v>
       </c>
       <c r="O19" s="15">
         <f t="shared" si="5"/>
-        <v>480.2</v>
+        <v>573.6</v>
       </c>
       <c r="P19" s="15">
         <f t="shared" si="6"/>
-        <v>31.099999999999998</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="Q19" s="15">
         <f t="shared" si="7"/>
-        <v>62.199999999999996</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="R19" s="15">
         <f t="shared" si="8"/>
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="S19" s="15">
         <f t="shared" si="9"/>
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="T19" s="15">
         <f t="shared" si="10"/>
-        <v>100</v>
+        <v>194.52054794520552</v>
       </c>
       <c r="U19" s="15">
         <f t="shared" si="11"/>
-        <v>200</v>
+        <v>194.52054794520552</v>
       </c>
       <c r="V19" s="15">
         <f t="shared" si="12"/>
-        <v>100</v>
+        <v>194.52054794520552</v>
       </c>
       <c r="W19" s="16">
         <f t="shared" si="13"/>
-        <v>200</v>
+        <v>194.52054794520552</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30">
-        <v>43853</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31">
+      <c r="A20" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="18">
+        <v>43843</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19">
         <v>1</v>
       </c>
       <c r="H20" s="15">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="I20" s="15">
         <f t="shared" si="14"/>
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="J20" s="15">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K20" s="15">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="L20" s="15">
         <f t="shared" si="2"/>
-        <v>348</v>
+        <v>290</v>
       </c>
       <c r="M20" s="15">
         <f t="shared" si="3"/>
-        <v>348</v>
+        <v>290</v>
       </c>
       <c r="N20" s="15">
         <f t="shared" si="4"/>
-        <v>440.2</v>
+        <v>373.5</v>
       </c>
       <c r="O20" s="15">
         <f t="shared" si="5"/>
-        <v>440.2</v>
+        <v>373.5</v>
       </c>
       <c r="P20" s="15">
         <f t="shared" si="6"/>
-        <v>57.199999999999996</v>
+        <v>48.5</v>
       </c>
       <c r="Q20" s="15">
         <f t="shared" si="7"/>
-        <v>57.199999999999996</v>
+        <v>48.5</v>
       </c>
       <c r="R20" s="15">
         <f t="shared" si="8"/>
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="S20" s="15">
         <f t="shared" si="9"/>
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="T20" s="15">
         <f t="shared" si="10"/>
@@ -2664,20 +2617,20 @@
       </c>
     </row>
     <row r="21" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18">
-        <v>43837</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>95</v>
+      <c r="A21" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="18">
+        <v>43843</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F21" s="19">
         <f>14600/7500</f>
@@ -2688,131 +2641,131 @@
       </c>
       <c r="H21" s="15">
         <f>J21/F21</f>
-        <v>205.47945205479451</v>
+        <v>128.42465753424656</v>
       </c>
       <c r="I21" s="15">
         <f t="shared" si="14"/>
-        <v>205.47945205479451</v>
+        <v>128.42465753424656</v>
       </c>
       <c r="J21" s="15">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K21" s="15">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="L21" s="15">
         <f t="shared" si="2"/>
-        <v>464</v>
+        <v>290</v>
       </c>
       <c r="M21" s="15">
         <f t="shared" si="3"/>
-        <v>464</v>
+        <v>290</v>
       </c>
       <c r="N21" s="15">
         <f t="shared" si="4"/>
-        <v>573.6</v>
+        <v>373.5</v>
       </c>
       <c r="O21" s="15">
         <f t="shared" si="5"/>
-        <v>573.6</v>
+        <v>373.5</v>
       </c>
       <c r="P21" s="15">
         <f t="shared" si="6"/>
-        <v>74.599999999999994</v>
+        <v>48.5</v>
       </c>
       <c r="Q21" s="15">
         <f t="shared" si="7"/>
-        <v>74.599999999999994</v>
+        <v>48.5</v>
       </c>
       <c r="R21" s="15">
         <f t="shared" si="8"/>
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="S21" s="15">
         <f t="shared" si="9"/>
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="T21" s="15">
         <f t="shared" si="10"/>
-        <v>194.52054794520552</v>
+        <v>121.57534246575344</v>
       </c>
       <c r="U21" s="15">
         <f t="shared" si="11"/>
-        <v>194.52054794520552</v>
+        <v>121.57534246575344</v>
       </c>
       <c r="V21" s="15">
         <f t="shared" si="12"/>
-        <v>194.52054794520552</v>
+        <v>121.57534246575344</v>
       </c>
       <c r="W21" s="16">
         <f t="shared" si="13"/>
-        <v>194.52054794520552</v>
+        <v>121.57534246575344</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18">
+      <c r="A22" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="18">
         <v>43843</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>55</v>
-      </c>
       <c r="D22" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
       <c r="G22" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" s="15">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="I22" s="15">
         <f t="shared" si="14"/>
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="J22" s="15">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K22" s="15">
         <f t="shared" si="1"/>
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="L22" s="15">
         <f t="shared" si="2"/>
-        <v>290</v>
+        <v>464</v>
       </c>
       <c r="M22" s="15">
         <f t="shared" si="3"/>
-        <v>290</v>
+        <v>928</v>
       </c>
       <c r="N22" s="15">
         <f t="shared" si="4"/>
-        <v>373.5</v>
+        <v>573.6</v>
       </c>
       <c r="O22" s="15">
         <f t="shared" si="5"/>
-        <v>373.5</v>
+        <v>1147.2</v>
       </c>
       <c r="P22" s="15">
         <f t="shared" si="6"/>
-        <v>48.5</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="Q22" s="15">
         <f t="shared" si="7"/>
-        <v>48.5</v>
+        <v>149.19999999999999</v>
       </c>
       <c r="R22" s="15">
         <f t="shared" si="8"/>
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="S22" s="15">
         <f t="shared" si="9"/>
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="T22" s="15">
         <f t="shared" si="10"/>
@@ -2832,269 +2785,276 @@
       </c>
     </row>
     <row r="23" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18">
-        <v>43843</v>
+      <c r="A23" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="19">
+        <v>89</v>
+      </c>
+      <c r="C23" s="13">
+        <v>44008</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14">
+        <v>2</v>
+      </c>
+      <c r="H23" s="15">
+        <v>212.5</v>
+      </c>
+      <c r="I23" s="15">
+        <f t="shared" si="14"/>
+        <v>425</v>
+      </c>
+      <c r="J23" s="15">
+        <v>700</v>
+      </c>
+      <c r="K23" s="15">
+        <f t="shared" si="1"/>
+        <v>1400</v>
+      </c>
+      <c r="L23" s="15">
+        <f t="shared" si="2"/>
+        <v>812</v>
+      </c>
+      <c r="M23" s="15">
+        <f t="shared" si="3"/>
+        <v>1624</v>
+      </c>
+      <c r="N23" s="15">
+        <f t="shared" si="4"/>
+        <v>973.8</v>
+      </c>
+      <c r="O23" s="15">
+        <f t="shared" si="5"/>
+        <v>1947.6</v>
+      </c>
+      <c r="P23" s="15">
+        <f t="shared" si="6"/>
+        <v>126.8</v>
+      </c>
+      <c r="Q23" s="15">
+        <f t="shared" si="7"/>
+        <v>253.6</v>
+      </c>
+      <c r="R23" s="15">
+        <f t="shared" si="8"/>
+        <v>112</v>
+      </c>
+      <c r="S23" s="15">
+        <f t="shared" si="9"/>
+        <v>224</v>
+      </c>
+      <c r="T23" s="15">
+        <f t="shared" si="10"/>
+        <v>487.5</v>
+      </c>
+      <c r="U23" s="15">
+        <f t="shared" si="11"/>
+        <v>975</v>
+      </c>
+      <c r="V23" s="15">
+        <f t="shared" si="12"/>
+        <v>487.5</v>
+      </c>
+      <c r="W23" s="16">
+        <f t="shared" si="13"/>
+        <v>975</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="18">
+        <v>43837</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="19">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G24" s="19">
         <v>1</v>
       </c>
-      <c r="H23" s="15">
-        <f>J23/F23</f>
-        <v>128.42465753424656</v>
-      </c>
-      <c r="I23" s="15">
-        <f t="shared" si="14"/>
-        <v>128.42465753424656</v>
-      </c>
-      <c r="J23" s="15">
-        <v>250</v>
-      </c>
-      <c r="K23" s="15">
-        <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-      <c r="L23" s="15">
-        <f t="shared" si="2"/>
-        <v>290</v>
-      </c>
-      <c r="M23" s="15">
-        <f t="shared" si="3"/>
-        <v>290</v>
-      </c>
-      <c r="N23" s="15">
-        <f t="shared" si="4"/>
-        <v>373.5</v>
-      </c>
-      <c r="O23" s="15">
-        <f t="shared" si="5"/>
-        <v>373.5</v>
-      </c>
-      <c r="P23" s="15">
-        <f t="shared" si="6"/>
-        <v>48.5</v>
-      </c>
-      <c r="Q23" s="15">
-        <f t="shared" si="7"/>
-        <v>48.5</v>
-      </c>
-      <c r="R23" s="15">
-        <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="S23" s="15">
-        <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="T23" s="15">
-        <f t="shared" si="10"/>
-        <v>121.57534246575344</v>
-      </c>
-      <c r="U23" s="15">
-        <f t="shared" si="11"/>
-        <v>121.57534246575344</v>
-      </c>
-      <c r="V23" s="15">
-        <f t="shared" si="12"/>
-        <v>121.57534246575344</v>
-      </c>
-      <c r="W23" s="16">
-        <f t="shared" si="13"/>
-        <v>121.57534246575344</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18">
-        <v>43843</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19">
-        <v>2</v>
-      </c>
       <c r="H24" s="15">
-        <v>400</v>
+        <f t="shared" ref="H24:H30" si="15">J24/F24</f>
+        <v>256.84931506849313</v>
       </c>
       <c r="I24" s="15">
         <f t="shared" si="14"/>
-        <v>800</v>
+        <v>256.84931506849313</v>
       </c>
       <c r="J24" s="15">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K24" s="15">
         <f t="shared" si="1"/>
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L24" s="15">
         <f t="shared" si="2"/>
-        <v>464</v>
+        <v>580</v>
       </c>
       <c r="M24" s="15">
         <f t="shared" si="3"/>
-        <v>928</v>
+        <v>580</v>
       </c>
       <c r="N24" s="15">
         <f t="shared" si="4"/>
-        <v>573.6</v>
+        <v>707</v>
       </c>
       <c r="O24" s="15">
         <f t="shared" si="5"/>
-        <v>1147.2</v>
+        <v>707</v>
       </c>
       <c r="P24" s="15">
         <f t="shared" si="6"/>
-        <v>74.599999999999994</v>
+        <v>92</v>
       </c>
       <c r="Q24" s="15">
         <f t="shared" si="7"/>
-        <v>149.19999999999999</v>
+        <v>92</v>
       </c>
       <c r="R24" s="15">
         <f t="shared" si="8"/>
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="S24" s="15">
         <f t="shared" si="9"/>
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="T24" s="15">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>243.15068493150687</v>
       </c>
       <c r="U24" s="15">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>243.15068493150687</v>
       </c>
       <c r="V24" s="15">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>243.15068493150687</v>
       </c>
       <c r="W24" s="16">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+        <v>243.15068493150687</v>
+      </c>
+      <c r="AC24" s="6"/>
     </row>
     <row r="25" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13">
-        <v>44008</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14">
-        <v>2</v>
+      <c r="A25" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="18">
+        <v>43853</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="19">
+        <f>22950/18500</f>
+        <v>1.2405405405405405</v>
+      </c>
+      <c r="G25" s="19">
+        <v>1</v>
       </c>
       <c r="H25" s="15">
-        <v>212.5</v>
+        <f t="shared" si="15"/>
+        <v>282.13507625272331</v>
       </c>
       <c r="I25" s="15">
         <f t="shared" si="14"/>
-        <v>425</v>
+        <v>282.13507625272331</v>
       </c>
       <c r="J25" s="15">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="K25" s="15">
         <f t="shared" si="1"/>
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="L25" s="15">
         <f t="shared" si="2"/>
-        <v>812</v>
+        <v>406</v>
       </c>
       <c r="M25" s="15">
         <f t="shared" si="3"/>
-        <v>1624</v>
+        <v>406</v>
       </c>
       <c r="N25" s="15">
         <f t="shared" si="4"/>
-        <v>973.8</v>
+        <v>506.9</v>
       </c>
       <c r="O25" s="15">
         <f t="shared" si="5"/>
-        <v>1947.6</v>
+        <v>506.9</v>
       </c>
       <c r="P25" s="15">
         <f t="shared" si="6"/>
-        <v>126.8</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="Q25" s="15">
         <f t="shared" si="7"/>
-        <v>253.6</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="R25" s="15">
         <f t="shared" si="8"/>
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="S25" s="15">
         <f t="shared" si="9"/>
-        <v>224</v>
+        <v>56</v>
       </c>
       <c r="T25" s="15">
         <f t="shared" si="10"/>
-        <v>487.5</v>
+        <v>67.864923747276691</v>
       </c>
       <c r="U25" s="15">
         <f t="shared" si="11"/>
-        <v>975</v>
+        <v>67.864923747276691</v>
       </c>
       <c r="V25" s="15">
         <f t="shared" si="12"/>
-        <v>487.5</v>
+        <v>67.864923747276663</v>
       </c>
       <c r="W25" s="16">
         <f t="shared" si="13"/>
-        <v>975</v>
+        <v>67.864923747276663</v>
       </c>
     </row>
     <row r="26" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18">
+      <c r="A26" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="18">
         <v>43837</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>58</v>
-      </c>
       <c r="D26" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F26" s="19">
         <f>14600/7500</f>
@@ -3104,85 +3064,84 @@
         <v>1</v>
       </c>
       <c r="H26" s="15">
-        <f t="shared" ref="H26:H32" si="15">J26/F26</f>
-        <v>256.84931506849313</v>
+        <f t="shared" si="15"/>
+        <v>128.42465753424656</v>
       </c>
       <c r="I26" s="15">
         <f t="shared" si="14"/>
-        <v>256.84931506849313</v>
+        <v>128.42465753424656</v>
       </c>
       <c r="J26" s="15">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K26" s="15">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L26" s="15">
         <f t="shared" si="2"/>
-        <v>580</v>
+        <v>290</v>
       </c>
       <c r="M26" s="15">
         <f t="shared" si="3"/>
-        <v>580</v>
+        <v>290</v>
       </c>
       <c r="N26" s="15">
         <f t="shared" si="4"/>
-        <v>707</v>
+        <v>373.5</v>
       </c>
       <c r="O26" s="15">
         <f t="shared" si="5"/>
-        <v>707</v>
+        <v>373.5</v>
       </c>
       <c r="P26" s="15">
         <f t="shared" si="6"/>
-        <v>92</v>
+        <v>48.5</v>
       </c>
       <c r="Q26" s="15">
         <f t="shared" si="7"/>
-        <v>92</v>
+        <v>48.5</v>
       </c>
       <c r="R26" s="15">
         <f t="shared" si="8"/>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="S26" s="15">
         <f t="shared" si="9"/>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="T26" s="15">
         <f t="shared" si="10"/>
-        <v>243.15068493150687</v>
+        <v>121.57534246575344</v>
       </c>
       <c r="U26" s="15">
         <f t="shared" si="11"/>
-        <v>243.15068493150687</v>
+        <v>121.57534246575344</v>
       </c>
       <c r="V26" s="15">
         <f t="shared" si="12"/>
-        <v>243.15068493150687</v>
+        <v>121.57534246575344</v>
       </c>
       <c r="W26" s="16">
         <f t="shared" si="13"/>
-        <v>243.15068493150687</v>
-      </c>
-      <c r="AC26" s="6"/>
+        <v>121.57534246575344</v>
+      </c>
     </row>
     <row r="27" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18">
+      <c r="A27" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="18">
         <v>43853</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>59</v>
-      </c>
       <c r="D27" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F27" s="19">
         <f>22950/18500</f>
@@ -3193,83 +3152,83 @@
       </c>
       <c r="H27" s="15">
         <f t="shared" si="15"/>
-        <v>282.13507625272331</v>
+        <v>483.66013071895424</v>
       </c>
       <c r="I27" s="15">
         <f t="shared" si="14"/>
-        <v>282.13507625272331</v>
+        <v>483.66013071895424</v>
       </c>
       <c r="J27" s="15">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="K27" s="15">
         <f t="shared" si="1"/>
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L27" s="15">
         <f t="shared" si="2"/>
-        <v>406</v>
+        <v>696</v>
       </c>
       <c r="M27" s="15">
         <f t="shared" si="3"/>
-        <v>406</v>
+        <v>696</v>
       </c>
       <c r="N27" s="15">
         <f t="shared" si="4"/>
-        <v>506.9</v>
+        <v>840.4</v>
       </c>
       <c r="O27" s="15">
         <f t="shared" si="5"/>
-        <v>506.9</v>
+        <v>840.4</v>
       </c>
       <c r="P27" s="15">
         <f t="shared" si="6"/>
-        <v>65.900000000000006</v>
+        <v>109.39999999999999</v>
       </c>
       <c r="Q27" s="15">
         <f t="shared" si="7"/>
-        <v>65.900000000000006</v>
+        <v>109.39999999999999</v>
       </c>
       <c r="R27" s="15">
         <f t="shared" si="8"/>
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="S27" s="15">
         <f t="shared" si="9"/>
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="T27" s="15">
         <f t="shared" si="10"/>
-        <v>67.864923747276691</v>
+        <v>116.33986928104576</v>
       </c>
       <c r="U27" s="15">
         <f t="shared" si="11"/>
-        <v>67.864923747276691</v>
+        <v>116.33986928104576</v>
       </c>
       <c r="V27" s="15">
         <f t="shared" si="12"/>
-        <v>67.864923747276663</v>
+        <v>116.33986928104576</v>
       </c>
       <c r="W27" s="16">
         <f t="shared" si="13"/>
-        <v>67.864923747276663</v>
+        <v>116.33986928104576</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="18">
+      <c r="A28" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="18">
         <v>43837</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>60</v>
-      </c>
       <c r="D28" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F28" s="19">
         <f>14600/7500</f>
@@ -3343,20 +3302,20 @@
       </c>
     </row>
     <row r="29" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="18">
+      <c r="A29" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="18">
         <v>43853</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>61</v>
-      </c>
       <c r="D29" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F29" s="19">
         <f>22950/18500</f>
@@ -3367,749 +3326,562 @@
       </c>
       <c r="H29" s="15">
         <f t="shared" si="15"/>
-        <v>483.66013071895424</v>
+        <v>403.05010893246185</v>
       </c>
       <c r="I29" s="15">
         <f t="shared" si="14"/>
-        <v>483.66013071895424</v>
+        <v>403.05010893246185</v>
       </c>
       <c r="J29" s="15">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K29" s="15">
         <f t="shared" si="1"/>
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L29" s="15">
         <f t="shared" si="2"/>
-        <v>696</v>
+        <v>580</v>
       </c>
       <c r="M29" s="15">
         <f t="shared" si="3"/>
-        <v>696</v>
+        <v>580</v>
       </c>
       <c r="N29" s="15">
         <f t="shared" si="4"/>
-        <v>840.4</v>
+        <v>707</v>
       </c>
       <c r="O29" s="15">
         <f t="shared" si="5"/>
-        <v>840.4</v>
+        <v>707</v>
       </c>
       <c r="P29" s="15">
         <f t="shared" si="6"/>
-        <v>109.39999999999999</v>
+        <v>92</v>
       </c>
       <c r="Q29" s="15">
         <f t="shared" si="7"/>
-        <v>109.39999999999999</v>
+        <v>92</v>
       </c>
       <c r="R29" s="15">
         <f t="shared" si="8"/>
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="S29" s="15">
         <f t="shared" si="9"/>
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="T29" s="15">
         <f t="shared" si="10"/>
-        <v>116.33986928104576</v>
+        <v>96.949891067538147</v>
       </c>
       <c r="U29" s="15">
         <f t="shared" si="11"/>
-        <v>116.33986928104576</v>
+        <v>96.949891067538147</v>
       </c>
       <c r="V29" s="15">
         <f t="shared" si="12"/>
-        <v>116.33986928104576</v>
+        <v>96.949891067538147</v>
       </c>
       <c r="W29" s="16">
         <f t="shared" si="13"/>
-        <v>116.33986928104576</v>
+        <v>96.949891067538147</v>
       </c>
     </row>
     <row r="30" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18">
+      <c r="A30" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="18">
+        <v>43853</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="19">
+        <f>22950/18500</f>
+        <v>1.2405405405405405</v>
+      </c>
+      <c r="G30" s="19">
+        <v>1</v>
+      </c>
+      <c r="H30" s="15">
+        <f t="shared" si="15"/>
+        <v>967.32026143790847</v>
+      </c>
+      <c r="I30" s="15">
+        <f t="shared" si="14"/>
+        <v>967.32026143790847</v>
+      </c>
+      <c r="J30" s="15">
+        <v>1200</v>
+      </c>
+      <c r="K30" s="15">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="L30" s="15">
+        <f t="shared" si="2"/>
+        <v>1392</v>
+      </c>
+      <c r="M30" s="15">
+        <f t="shared" si="3"/>
+        <v>1392</v>
+      </c>
+      <c r="N30" s="15">
+        <f t="shared" si="4"/>
+        <v>1640.8</v>
+      </c>
+      <c r="O30" s="15">
+        <f t="shared" si="5"/>
+        <v>1640.8</v>
+      </c>
+      <c r="P30" s="15">
+        <f t="shared" si="6"/>
+        <v>213.79999999999998</v>
+      </c>
+      <c r="Q30" s="15">
+        <f t="shared" si="7"/>
+        <v>213.79999999999998</v>
+      </c>
+      <c r="R30" s="15">
+        <f t="shared" si="8"/>
+        <v>192</v>
+      </c>
+      <c r="S30" s="15">
+        <f t="shared" si="9"/>
+        <v>192</v>
+      </c>
+      <c r="T30" s="15">
+        <f t="shared" si="10"/>
+        <v>232.67973856209153</v>
+      </c>
+      <c r="U30" s="15">
+        <f t="shared" si="11"/>
+        <v>232.67973856209153</v>
+      </c>
+      <c r="V30" s="15">
+        <f t="shared" si="12"/>
+        <v>232.67973856209153</v>
+      </c>
+      <c r="W30" s="16">
+        <f t="shared" si="13"/>
+        <v>232.67973856209153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="30">
+        <v>43853</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31">
+        <v>1</v>
+      </c>
+      <c r="H31" s="15">
+        <v>2500</v>
+      </c>
+      <c r="I31" s="15">
+        <f t="shared" si="14"/>
+        <v>2500</v>
+      </c>
+      <c r="J31" s="15">
+        <v>2500</v>
+      </c>
+      <c r="K31" s="15">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+      <c r="L31" s="15">
+        <f t="shared" si="2"/>
+        <v>2900</v>
+      </c>
+      <c r="M31" s="15">
+        <f t="shared" si="3"/>
+        <v>2900</v>
+      </c>
+      <c r="N31" s="15">
+        <f t="shared" si="4"/>
+        <v>3375</v>
+      </c>
+      <c r="O31" s="15">
+        <f t="shared" si="5"/>
+        <v>3375</v>
+      </c>
+      <c r="P31" s="15">
+        <f t="shared" si="6"/>
+        <v>440</v>
+      </c>
+      <c r="Q31" s="15">
+        <f t="shared" si="7"/>
+        <v>440</v>
+      </c>
+      <c r="R31" s="15">
+        <f t="shared" si="8"/>
+        <v>400</v>
+      </c>
+      <c r="S31" s="15">
+        <f t="shared" si="9"/>
+        <v>400</v>
+      </c>
+      <c r="T31" s="15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V31" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W31" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="18">
         <v>43837</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="19">
+      <c r="D32" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="19">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G32" s="19">
         <v>1</v>
       </c>
-      <c r="H30" s="15">
-        <f t="shared" si="15"/>
-        <v>128.42465753424656</v>
-      </c>
-      <c r="I30" s="15">
+      <c r="H32" s="15">
+        <f>J32/F32</f>
+        <v>1130.1369863013699</v>
+      </c>
+      <c r="I32" s="15">
         <f t="shared" si="14"/>
-        <v>128.42465753424656</v>
-      </c>
-      <c r="J30" s="15">
-        <v>250</v>
-      </c>
-      <c r="K30" s="15">
+        <v>1130.1369863013699</v>
+      </c>
+      <c r="J32" s="15">
+        <v>2200</v>
+      </c>
+      <c r="K32" s="15">
         <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-      <c r="L30" s="15">
+        <v>2200</v>
+      </c>
+      <c r="L32" s="15">
         <f t="shared" si="2"/>
-        <v>290</v>
-      </c>
-      <c r="M30" s="15">
+        <v>2552</v>
+      </c>
+      <c r="M32" s="15">
         <f t="shared" si="3"/>
-        <v>290</v>
-      </c>
-      <c r="N30" s="15">
+        <v>2552</v>
+      </c>
+      <c r="N32" s="15">
         <f t="shared" si="4"/>
-        <v>373.5</v>
-      </c>
-      <c r="O30" s="15">
+        <v>2974.8</v>
+      </c>
+      <c r="O32" s="15">
         <f t="shared" si="5"/>
-        <v>373.5</v>
-      </c>
-      <c r="P30" s="15">
+        <v>2974.8</v>
+      </c>
+      <c r="P32" s="15">
         <f t="shared" si="6"/>
-        <v>48.5</v>
-      </c>
-      <c r="Q30" s="15">
+        <v>387.8</v>
+      </c>
+      <c r="Q32" s="15">
         <f t="shared" si="7"/>
-        <v>48.5</v>
-      </c>
-      <c r="R30" s="15">
+        <v>387.8</v>
+      </c>
+      <c r="R32" s="15">
         <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="S30" s="15">
+        <v>352</v>
+      </c>
+      <c r="S32" s="15">
         <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="T30" s="15">
+        <v>352</v>
+      </c>
+      <c r="T32" s="15">
         <f t="shared" si="10"/>
-        <v>121.57534246575344</v>
-      </c>
-      <c r="U30" s="15">
+        <v>1069.8630136986301</v>
+      </c>
+      <c r="U32" s="15">
         <f t="shared" si="11"/>
-        <v>121.57534246575344</v>
-      </c>
-      <c r="V30" s="15">
+        <v>1069.8630136986301</v>
+      </c>
+      <c r="V32" s="15">
         <f t="shared" si="12"/>
-        <v>121.57534246575344</v>
-      </c>
-      <c r="W30" s="16">
+        <v>1069.8630136986303</v>
+      </c>
+      <c r="W32" s="16">
         <f t="shared" si="13"/>
-        <v>121.57534246575344</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="18">
+        <v>1069.8630136986303</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="18">
         <v>43853</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="19">
+      <c r="D33" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="19">
         <f>22950/18500</f>
         <v>1.2405405405405405</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G33" s="19">
         <v>1</v>
       </c>
-      <c r="H31" s="15">
-        <f t="shared" si="15"/>
+      <c r="H33" s="15">
+        <f>J33/F33</f>
         <v>403.05010893246185</v>
       </c>
-      <c r="I31" s="15">
+      <c r="I33" s="15">
         <f t="shared" si="14"/>
         <v>403.05010893246185</v>
       </c>
-      <c r="J31" s="15">
+      <c r="J33" s="15">
         <v>500</v>
       </c>
-      <c r="K31" s="15">
+      <c r="K33" s="15">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="L31" s="15">
+      <c r="L33" s="15">
         <f t="shared" si="2"/>
         <v>580</v>
       </c>
-      <c r="M31" s="15">
+      <c r="M33" s="15">
         <f t="shared" si="3"/>
         <v>580</v>
       </c>
-      <c r="N31" s="15">
+      <c r="N33" s="15">
         <f t="shared" si="4"/>
         <v>707</v>
       </c>
-      <c r="O31" s="15">
+      <c r="O33" s="15">
         <f t="shared" si="5"/>
         <v>707</v>
       </c>
-      <c r="P31" s="15">
+      <c r="P33" s="15">
         <f t="shared" si="6"/>
         <v>92</v>
       </c>
-      <c r="Q31" s="15">
+      <c r="Q33" s="15">
         <f t="shared" si="7"/>
         <v>92</v>
       </c>
-      <c r="R31" s="15">
+      <c r="R33" s="15">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="S31" s="15">
+      <c r="S33" s="15">
         <f t="shared" si="9"/>
         <v>80</v>
       </c>
-      <c r="T31" s="15">
+      <c r="T33" s="15">
         <f t="shared" si="10"/>
         <v>96.949891067538147</v>
       </c>
-      <c r="U31" s="15">
+      <c r="U33" s="15">
         <f t="shared" si="11"/>
         <v>96.949891067538147</v>
       </c>
-      <c r="V31" s="15">
+      <c r="V33" s="15">
         <f t="shared" si="12"/>
         <v>96.949891067538147</v>
       </c>
-      <c r="W31" s="16">
+      <c r="W33" s="16">
         <f t="shared" si="13"/>
         <v>96.949891067538147</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18">
-        <v>43853</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" s="19">
-        <f>22950/18500</f>
-        <v>1.2405405405405405</v>
-      </c>
-      <c r="G32" s="19">
-        <v>1</v>
-      </c>
-      <c r="H32" s="15">
-        <f t="shared" si="15"/>
-        <v>967.32026143790847</v>
-      </c>
-      <c r="I32" s="15">
-        <f t="shared" si="14"/>
-        <v>967.32026143790847</v>
-      </c>
-      <c r="J32" s="15">
-        <v>1200</v>
-      </c>
-      <c r="K32" s="15">
-        <f t="shared" si="1"/>
-        <v>1200</v>
-      </c>
-      <c r="L32" s="15">
-        <f t="shared" si="2"/>
-        <v>1392</v>
-      </c>
-      <c r="M32" s="15">
-        <f t="shared" si="3"/>
-        <v>1392</v>
-      </c>
-      <c r="N32" s="15">
-        <f t="shared" si="4"/>
-        <v>1640.8</v>
-      </c>
-      <c r="O32" s="15">
-        <f t="shared" si="5"/>
-        <v>1640.8</v>
-      </c>
-      <c r="P32" s="15">
-        <f t="shared" si="6"/>
-        <v>213.79999999999998</v>
-      </c>
-      <c r="Q32" s="15">
-        <f t="shared" si="7"/>
-        <v>213.79999999999998</v>
-      </c>
-      <c r="R32" s="15">
-        <f t="shared" si="8"/>
-        <v>192</v>
-      </c>
-      <c r="S32" s="15">
-        <f t="shared" si="9"/>
-        <v>192</v>
-      </c>
-      <c r="T32" s="15">
-        <f t="shared" si="10"/>
-        <v>232.67973856209153</v>
-      </c>
-      <c r="U32" s="15">
-        <f t="shared" si="11"/>
-        <v>232.67973856209153</v>
-      </c>
-      <c r="V32" s="15">
-        <f t="shared" si="12"/>
-        <v>232.67973856209153</v>
-      </c>
-      <c r="W32" s="16">
-        <f t="shared" si="13"/>
-        <v>232.67973856209153</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30">
-        <v>43853</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31">
-        <v>1</v>
-      </c>
-      <c r="H33" s="15">
-        <v>2500</v>
-      </c>
-      <c r="I33" s="15">
-        <f t="shared" si="14"/>
-        <v>2500</v>
-      </c>
-      <c r="J33" s="15">
-        <v>2500</v>
-      </c>
-      <c r="K33" s="15">
-        <f t="shared" si="1"/>
-        <v>2500</v>
-      </c>
-      <c r="L33" s="15">
-        <f t="shared" si="2"/>
-        <v>2900</v>
-      </c>
-      <c r="M33" s="15">
-        <f t="shared" si="3"/>
-        <v>2900</v>
-      </c>
-      <c r="N33" s="15">
-        <f t="shared" si="4"/>
-        <v>3375</v>
-      </c>
-      <c r="O33" s="15">
-        <f t="shared" si="5"/>
-        <v>3375</v>
-      </c>
-      <c r="P33" s="15">
-        <f t="shared" si="6"/>
-        <v>440</v>
-      </c>
-      <c r="Q33" s="15">
-        <f t="shared" si="7"/>
-        <v>440</v>
-      </c>
-      <c r="R33" s="15">
-        <f t="shared" si="8"/>
-        <v>400</v>
-      </c>
-      <c r="S33" s="15">
-        <f t="shared" si="9"/>
-        <v>400</v>
-      </c>
-      <c r="T33" s="15">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U33" s="15">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V33" s="15">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W33" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="34" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="18">
-        <v>43837</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" s="19">
-        <f>14600/7500</f>
-        <v>1.9466666666666668</v>
-      </c>
-      <c r="G34" s="19">
-        <v>1</v>
-      </c>
-      <c r="H34" s="15">
-        <f>J34/F34</f>
-        <v>1130.1369863013699</v>
-      </c>
-      <c r="I34" s="15">
-        <f t="shared" si="14"/>
-        <v>1130.1369863013699</v>
-      </c>
-      <c r="J34" s="15">
-        <v>2200</v>
-      </c>
-      <c r="K34" s="15">
-        <f t="shared" si="1"/>
-        <v>2200</v>
-      </c>
-      <c r="L34" s="15">
-        <f t="shared" si="2"/>
-        <v>2552</v>
-      </c>
-      <c r="M34" s="15">
-        <f t="shared" si="3"/>
-        <v>2552</v>
-      </c>
-      <c r="N34" s="15">
-        <f t="shared" si="4"/>
-        <v>2974.8</v>
-      </c>
-      <c r="O34" s="15">
-        <f t="shared" si="5"/>
-        <v>2974.8</v>
-      </c>
-      <c r="P34" s="15">
-        <f t="shared" si="6"/>
-        <v>387.8</v>
-      </c>
-      <c r="Q34" s="15">
-        <f t="shared" si="7"/>
-        <v>387.8</v>
-      </c>
-      <c r="R34" s="15">
-        <f t="shared" si="8"/>
-        <v>352</v>
-      </c>
-      <c r="S34" s="15">
-        <f t="shared" si="9"/>
-        <v>352</v>
-      </c>
-      <c r="T34" s="15">
-        <f t="shared" si="10"/>
-        <v>1069.8630136986301</v>
-      </c>
-      <c r="U34" s="15">
-        <f t="shared" si="11"/>
-        <v>1069.8630136986301</v>
-      </c>
-      <c r="V34" s="15">
-        <f t="shared" si="12"/>
-        <v>1069.8630136986303</v>
-      </c>
-      <c r="W34" s="16">
-        <f t="shared" si="13"/>
-        <v>1069.8630136986303</v>
+      <c r="A34" s="23"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26">
+        <f>SUM(I2:I33)</f>
+        <v>37721.034456382244</v>
+      </c>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26">
+        <f>SUM(K2:K33)</f>
+        <v>60170</v>
+      </c>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26">
+        <f>SUM(M2:M33)</f>
+        <v>69797.2</v>
+      </c>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26">
+        <f>SUM(O2:O33)</f>
+        <v>91826.78</v>
+      </c>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26">
+        <f>SUM(Q2:Q33)</f>
+        <v>11914.580000000002</v>
+      </c>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26">
+        <f>SUM(S2:S33)</f>
+        <v>9627.2000000000007</v>
+      </c>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26">
+        <f>SUM(U2:U33)</f>
+        <v>22448.965543617753</v>
+      </c>
+      <c r="V34" s="26"/>
+      <c r="W34" s="27">
+        <f>SUM(W2:W33)</f>
+        <v>22448.965543617756</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="18">
-        <v>43853</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" s="19">
-        <f>22950/18500</f>
-        <v>1.2405405405405405</v>
-      </c>
-      <c r="G35" s="19">
-        <v>1</v>
-      </c>
-      <c r="H35" s="15">
-        <f>J35/F35</f>
-        <v>403.05010893246185</v>
-      </c>
-      <c r="I35" s="15">
-        <f t="shared" si="14"/>
-        <v>403.05010893246185</v>
-      </c>
-      <c r="J35" s="15">
-        <v>500</v>
-      </c>
-      <c r="K35" s="15">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="L35" s="15">
-        <f t="shared" si="2"/>
-        <v>580</v>
-      </c>
-      <c r="M35" s="15">
-        <f t="shared" si="3"/>
-        <v>580</v>
-      </c>
-      <c r="N35" s="15">
-        <f t="shared" si="4"/>
-        <v>707</v>
-      </c>
-      <c r="O35" s="15">
-        <f t="shared" si="5"/>
-        <v>707</v>
-      </c>
-      <c r="P35" s="15">
-        <f t="shared" si="6"/>
-        <v>92</v>
-      </c>
-      <c r="Q35" s="15">
-        <f t="shared" si="7"/>
-        <v>92</v>
-      </c>
-      <c r="R35" s="15">
-        <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="S35" s="15">
-        <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="T35" s="15">
-        <f t="shared" si="10"/>
-        <v>96.949891067538147</v>
-      </c>
-      <c r="U35" s="15">
-        <f t="shared" si="11"/>
-        <v>96.949891067538147</v>
-      </c>
-      <c r="V35" s="15">
-        <f t="shared" si="12"/>
-        <v>96.949891067538147</v>
-      </c>
-      <c r="W35" s="16">
-        <f t="shared" si="13"/>
-        <v>96.949891067538147</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="5"/>
     </row>
     <row r="36" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="18">
-        <v>43837</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F36" s="19">
-        <f>14600/7500</f>
-        <v>1.9466666666666668</v>
-      </c>
-      <c r="G36" s="19">
-        <v>1</v>
-      </c>
-      <c r="H36" s="15">
-        <f>J36/F36</f>
-        <v>205.47945205479451</v>
-      </c>
-      <c r="I36" s="15">
-        <f t="shared" si="14"/>
-        <v>205.47945205479451</v>
-      </c>
-      <c r="J36" s="15">
-        <v>400</v>
-      </c>
-      <c r="K36" s="15">
-        <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="L36" s="15">
-        <f t="shared" si="2"/>
-        <v>464</v>
-      </c>
-      <c r="M36" s="15">
-        <f t="shared" si="3"/>
-        <v>464</v>
-      </c>
-      <c r="N36" s="15">
-        <f t="shared" si="4"/>
-        <v>573.6</v>
-      </c>
-      <c r="O36" s="15">
-        <f t="shared" si="5"/>
-        <v>573.6</v>
-      </c>
-      <c r="P36" s="15">
-        <f t="shared" si="6"/>
-        <v>74.599999999999994</v>
-      </c>
-      <c r="Q36" s="15">
-        <f t="shared" si="7"/>
-        <v>74.599999999999994</v>
-      </c>
-      <c r="R36" s="15">
-        <f t="shared" si="8"/>
-        <v>64</v>
-      </c>
-      <c r="S36" s="15">
-        <f t="shared" si="9"/>
-        <v>64</v>
-      </c>
-      <c r="T36" s="15">
-        <f t="shared" si="10"/>
-        <v>194.52054794520552</v>
-      </c>
-      <c r="U36" s="15">
-        <f t="shared" si="11"/>
-        <v>194.52054794520552</v>
-      </c>
-      <c r="V36" s="15">
-        <f t="shared" si="12"/>
-        <v>194.52054794520552</v>
-      </c>
-      <c r="W36" s="16">
-        <f t="shared" si="13"/>
-        <v>194.52054794520552</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>99</v>
-      </c>
-      <c r="B37" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" t="s">
-        <v>100</v>
-      </c>
-      <c r="E37" t="s">
-        <v>101</v>
-      </c>
-      <c r="F37" t="s">
-        <v>102</v>
-      </c>
-      <c r="G37" t="s">
-        <v>103</v>
-      </c>
-      <c r="H37" t="s">
-        <v>104</v>
-      </c>
+      <c r="A36" s="3"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="2"/>
     </row>
     <row r="38" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="24"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26">
-        <f>SUM(I2:I36)</f>
-        <v>38781.993360491833</v>
-      </c>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26">
-        <f>SUM(K2:K36)</f>
-        <v>61620</v>
-      </c>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26">
-        <f>SUM(M2:M36)</f>
-        <v>71479.199999999997</v>
-      </c>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26">
-        <f>SUM(O2:O36)</f>
-        <v>93881.08</v>
-      </c>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="26">
-        <f>SUM(Q2:Q36)</f>
-        <v>12181.880000000003</v>
-      </c>
-      <c r="R38" s="26"/>
-      <c r="S38" s="26">
-        <f>SUM(S2:S36)</f>
-        <v>9859.2000000000007</v>
-      </c>
-      <c r="T38" s="26"/>
-      <c r="U38" s="26">
-        <f>SUM(U2:U36)</f>
-        <v>22838.006639508163</v>
-      </c>
-      <c r="V38" s="26"/>
-      <c r="W38" s="27">
-        <f>SUM(W2:W36)</f>
-        <v>22838.006639508167</v>
-      </c>
+      <c r="A38" s="3"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="2"/>
     </row>
     <row r="39" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
-      <c r="B39" s="1"/>
+      <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -4129,12 +3901,12 @@
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
-      <c r="W39" s="5"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="2"/>
     </row>
     <row r="40" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
+      <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -4159,7 +3931,7 @@
     </row>
     <row r="41" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
+      <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -4184,7 +3956,7 @@
     </row>
     <row r="42" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
+      <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -4209,7 +3981,7 @@
     </row>
     <row r="43" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
+      <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -4234,7 +4006,7 @@
     </row>
     <row r="44" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
+      <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -4259,7 +4031,7 @@
     </row>
     <row r="45" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
+      <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4284,7 +4056,7 @@
     </row>
     <row r="46" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
+      <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -4309,7 +4081,7 @@
     </row>
     <row r="47" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
+      <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -4334,7 +4106,7 @@
     </row>
     <row r="48" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
+      <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -4359,7 +4131,7 @@
     </row>
     <row r="49" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
+      <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -4384,7 +4156,7 @@
     </row>
     <row r="50" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
+      <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -4409,7 +4181,7 @@
     </row>
     <row r="51" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
+      <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -4434,7 +4206,7 @@
     </row>
     <row r="52" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
+      <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -4459,7 +4231,7 @@
     </row>
     <row r="53" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
+      <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -4484,7 +4256,7 @@
     </row>
     <row r="54" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
+      <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -4509,7 +4281,7 @@
     </row>
     <row r="55" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
+      <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -4534,7 +4306,7 @@
     </row>
     <row r="56" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
+      <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -4559,7 +4331,7 @@
     </row>
     <row r="57" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
+      <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -4584,7 +4356,7 @@
     </row>
     <row r="58" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
+      <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -4609,7 +4381,7 @@
     </row>
     <row r="59" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
+      <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -4634,7 +4406,7 @@
     </row>
     <row r="60" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
+      <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -4659,7 +4431,7 @@
     </row>
     <row r="61" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
+      <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -4684,7 +4456,7 @@
     </row>
     <row r="62" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
+      <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -4709,7 +4481,7 @@
     </row>
     <row r="63" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
+      <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -4734,7 +4506,7 @@
     </row>
     <row r="64" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
+      <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -4759,7 +4531,7 @@
     </row>
     <row r="65" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
+      <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -4784,7 +4556,7 @@
     </row>
     <row r="66" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
+      <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -4809,7 +4581,7 @@
     </row>
     <row r="67" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
+      <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -4834,7 +4606,7 @@
     </row>
     <row r="68" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
+      <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -4859,7 +4631,7 @@
     </row>
     <row r="69" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
+      <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -4884,7 +4656,7 @@
     </row>
     <row r="70" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
+      <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -4909,7 +4681,7 @@
     </row>
     <row r="71" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
+      <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -4934,7 +4706,7 @@
     </row>
     <row r="72" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
+      <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -4959,7 +4731,7 @@
     </row>
     <row r="73" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
+      <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -4984,7 +4756,7 @@
     </row>
     <row r="74" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
+      <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -5009,7 +4781,7 @@
     </row>
     <row r="75" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
+      <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -5034,7 +4806,7 @@
     </row>
     <row r="76" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
+      <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -5059,7 +4831,7 @@
     </row>
     <row r="77" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
+      <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -5084,7 +4856,7 @@
     </row>
     <row r="78" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
+      <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -5109,7 +4881,7 @@
     </row>
     <row r="79" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
+      <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -5134,7 +4906,7 @@
     </row>
     <row r="80" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
+      <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -5159,7 +4931,7 @@
     </row>
     <row r="81" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
+      <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -5184,7 +4956,7 @@
     </row>
     <row r="82" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
+      <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -5209,7 +4981,7 @@
     </row>
     <row r="83" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
+      <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -5234,7 +5006,7 @@
     </row>
     <row r="84" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
+      <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -5259,7 +5031,7 @@
     </row>
     <row r="85" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
+      <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -5284,7 +5056,7 @@
     </row>
     <row r="86" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
+      <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -5309,7 +5081,7 @@
     </row>
     <row r="87" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
+      <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -5334,7 +5106,7 @@
     </row>
     <row r="88" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
+      <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -5359,7 +5131,7 @@
     </row>
     <row r="89" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
+      <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -5384,7 +5156,7 @@
     </row>
     <row r="90" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
+      <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -5409,7 +5181,7 @@
     </row>
     <row r="91" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
+      <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -5434,7 +5206,7 @@
     </row>
     <row r="92" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
+      <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -5459,7 +5231,7 @@
     </row>
     <row r="93" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
+      <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -5484,7 +5256,7 @@
     </row>
     <row r="94" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
+      <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -5509,7 +5281,7 @@
     </row>
     <row r="95" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
+      <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -5534,7 +5306,7 @@
     </row>
     <row r="96" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
+      <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -5559,7 +5331,7 @@
     </row>
     <row r="97" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
+      <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -5582,9 +5354,9 @@
       <c r="V97" s="3"/>
       <c r="W97" s="2"/>
     </row>
-    <row r="98" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
+      <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -5607,9 +5379,9 @@
       <c r="V98" s="3"/>
       <c r="W98" s="2"/>
     </row>
-    <row r="99" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
+      <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -5634,7 +5406,7 @@
     </row>
     <row r="100" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
+      <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -5659,7 +5431,7 @@
     </row>
     <row r="101" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
+      <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -5684,7 +5456,7 @@
     </row>
     <row r="102" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
+      <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -5709,7 +5481,7 @@
     </row>
     <row r="103" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
+      <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -5734,7 +5506,7 @@
     </row>
     <row r="104" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
+      <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -5759,7 +5531,7 @@
     </row>
     <row r="105" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
+      <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -5784,7 +5556,7 @@
     </row>
     <row r="106" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
+      <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -5809,7 +5581,7 @@
     </row>
     <row r="107" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
+      <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -5834,7 +5606,7 @@
     </row>
     <row r="108" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
+      <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -5859,7 +5631,7 @@
     </row>
     <row r="109" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
+      <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -5884,7 +5656,7 @@
     </row>
     <row r="110" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
+      <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -5909,7 +5681,7 @@
     </row>
     <row r="111" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
+      <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -5934,7 +5706,7 @@
     </row>
     <row r="112" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
+      <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -5959,7 +5731,7 @@
     </row>
     <row r="113" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
+      <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -5984,7 +5756,7 @@
     </row>
     <row r="114" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
+      <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -6009,7 +5781,7 @@
     </row>
     <row r="115" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
+      <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -6034,7 +5806,7 @@
     </row>
     <row r="116" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
+      <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -6059,7 +5831,7 @@
     </row>
     <row r="117" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
+      <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -6084,7 +5856,7 @@
     </row>
     <row r="118" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
+      <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -6109,7 +5881,7 @@
     </row>
     <row r="119" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
+      <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -6134,7 +5906,7 @@
     </row>
     <row r="120" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
+      <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -6159,7 +5931,7 @@
     </row>
     <row r="121" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
+      <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -6184,7 +5956,7 @@
     </row>
     <row r="122" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
+      <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -6209,7 +5981,7 @@
     </row>
     <row r="123" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
+      <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -6234,7 +6006,7 @@
     </row>
     <row r="124" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
+      <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -6259,7 +6031,7 @@
     </row>
     <row r="125" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
+      <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -6284,7 +6056,7 @@
     </row>
     <row r="126" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
+      <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -6309,7 +6081,7 @@
     </row>
     <row r="127" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
+      <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -6334,7 +6106,7 @@
     </row>
     <row r="128" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
+      <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -6359,7 +6131,7 @@
     </row>
     <row r="129" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
+      <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -6384,7 +6156,7 @@
     </row>
     <row r="130" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
+      <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -6409,7 +6181,7 @@
     </row>
     <row r="131" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
+      <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -6434,7 +6206,7 @@
     </row>
     <row r="132" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
+      <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -6459,7 +6231,7 @@
     </row>
     <row r="133" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
+      <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -6484,7 +6256,7 @@
     </row>
     <row r="134" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
+      <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -6509,7 +6281,7 @@
     </row>
     <row r="135" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
+      <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -6534,7 +6306,7 @@
     </row>
     <row r="136" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
+      <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -6559,7 +6331,7 @@
     </row>
     <row r="137" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3"/>
-      <c r="B137" s="3"/>
+      <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -6584,7 +6356,7 @@
     </row>
     <row r="138" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
+      <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -6609,7 +6381,7 @@
     </row>
     <row r="139" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
+      <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -6634,7 +6406,7 @@
     </row>
     <row r="140" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
+      <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -6659,7 +6431,7 @@
     </row>
     <row r="141" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
+      <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -6684,7 +6456,7 @@
     </row>
     <row r="142" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
+      <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -6709,7 +6481,7 @@
     </row>
     <row r="143" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
+      <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -6734,7 +6506,7 @@
     </row>
     <row r="144" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
+      <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -6759,7 +6531,7 @@
     </row>
     <row r="145" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
+      <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -6784,7 +6556,7 @@
     </row>
     <row r="146" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
+      <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -6809,7 +6581,7 @@
     </row>
     <row r="147" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3"/>
-      <c r="B147" s="3"/>
+      <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -6834,7 +6606,7 @@
     </row>
     <row r="148" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
+      <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -6859,7 +6631,7 @@
     </row>
     <row r="149" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3"/>
-      <c r="B149" s="3"/>
+      <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -6884,7 +6656,7 @@
     </row>
     <row r="150" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3"/>
-      <c r="B150" s="3"/>
+      <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -6909,7 +6681,7 @@
     </row>
     <row r="151" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3"/>
-      <c r="B151" s="3"/>
+      <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -6934,7 +6706,7 @@
     </row>
     <row r="152" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3"/>
-      <c r="B152" s="3"/>
+      <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -6959,7 +6731,7 @@
     </row>
     <row r="153" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3"/>
-      <c r="B153" s="3"/>
+      <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -6984,7 +6756,7 @@
     </row>
     <row r="154" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3"/>
-      <c r="B154" s="3"/>
+      <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -7009,7 +6781,7 @@
     </row>
     <row r="155" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3"/>
-      <c r="B155" s="3"/>
+      <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -7034,7 +6806,7 @@
     </row>
     <row r="156" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3"/>
-      <c r="B156" s="3"/>
+      <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -7059,7 +6831,7 @@
     </row>
     <row r="157" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3"/>
-      <c r="B157" s="3"/>
+      <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -7084,7 +6856,7 @@
     </row>
     <row r="158" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3"/>
-      <c r="B158" s="3"/>
+      <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -7109,7 +6881,7 @@
     </row>
     <row r="159" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3"/>
-      <c r="B159" s="3"/>
+      <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -7134,7 +6906,7 @@
     </row>
     <row r="160" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
+      <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -7159,7 +6931,7 @@
     </row>
     <row r="161" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3"/>
-      <c r="B161" s="3"/>
+      <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -7184,7 +6956,7 @@
     </row>
     <row r="162" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3"/>
-      <c r="B162" s="3"/>
+      <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -7209,7 +6981,7 @@
     </row>
     <row r="163" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
+      <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -7234,7 +7006,7 @@
     </row>
     <row r="164" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
+      <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -7259,7 +7031,7 @@
     </row>
     <row r="165" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3"/>
-      <c r="B165" s="3"/>
+      <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -7284,7 +7056,7 @@
     </row>
     <row r="166" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3"/>
-      <c r="B166" s="3"/>
+      <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -7309,7 +7081,7 @@
     </row>
     <row r="167" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3"/>
-      <c r="B167" s="3"/>
+      <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -7334,7 +7106,7 @@
     </row>
     <row r="168" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3"/>
-      <c r="B168" s="3"/>
+      <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -7359,7 +7131,7 @@
     </row>
     <row r="169" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3"/>
-      <c r="B169" s="3"/>
+      <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -7384,7 +7156,7 @@
     </row>
     <row r="170" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3"/>
-      <c r="B170" s="3"/>
+      <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -7409,7 +7181,7 @@
     </row>
     <row r="171" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3"/>
-      <c r="B171" s="3"/>
+      <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -7434,7 +7206,7 @@
     </row>
     <row r="172" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3"/>
-      <c r="B172" s="3"/>
+      <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -7459,7 +7231,7 @@
     </row>
     <row r="173" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3"/>
-      <c r="B173" s="3"/>
+      <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -7484,7 +7256,7 @@
     </row>
     <row r="174" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3"/>
-      <c r="B174" s="3"/>
+      <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -7509,7 +7281,7 @@
     </row>
     <row r="175" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3"/>
-      <c r="B175" s="3"/>
+      <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -7534,7 +7306,7 @@
     </row>
     <row r="176" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3"/>
-      <c r="B176" s="3"/>
+      <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -7559,7 +7331,7 @@
     </row>
     <row r="177" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3"/>
-      <c r="B177" s="3"/>
+      <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -7584,7 +7356,7 @@
     </row>
     <row r="178" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3"/>
-      <c r="B178" s="3"/>
+      <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -7609,7 +7381,7 @@
     </row>
     <row r="179" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3"/>
-      <c r="B179" s="3"/>
+      <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -7634,7 +7406,7 @@
     </row>
     <row r="180" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3"/>
-      <c r="B180" s="3"/>
+      <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -7659,7 +7431,7 @@
     </row>
     <row r="181" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3"/>
-      <c r="B181" s="3"/>
+      <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -7684,7 +7456,7 @@
     </row>
     <row r="182" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3"/>
-      <c r="B182" s="3"/>
+      <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -7709,7 +7481,7 @@
     </row>
     <row r="183" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3"/>
-      <c r="B183" s="3"/>
+      <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -7734,7 +7506,7 @@
     </row>
     <row r="184" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3"/>
-      <c r="B184" s="3"/>
+      <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -7759,7 +7531,7 @@
     </row>
     <row r="185" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3"/>
-      <c r="B185" s="3"/>
+      <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -7784,7 +7556,7 @@
     </row>
     <row r="186" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3"/>
-      <c r="B186" s="3"/>
+      <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -7809,7 +7581,7 @@
     </row>
     <row r="187" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3"/>
-      <c r="B187" s="3"/>
+      <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -7834,7 +7606,7 @@
     </row>
     <row r="188" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3"/>
-      <c r="B188" s="3"/>
+      <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -7859,7 +7631,7 @@
     </row>
     <row r="189" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3"/>
-      <c r="B189" s="3"/>
+      <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -7884,7 +7656,7 @@
     </row>
     <row r="190" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3"/>
-      <c r="B190" s="3"/>
+      <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -7909,7 +7681,7 @@
     </row>
     <row r="191" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3"/>
-      <c r="B191" s="3"/>
+      <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -7934,7 +7706,7 @@
     </row>
     <row r="192" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3"/>
-      <c r="B192" s="3"/>
+      <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -7959,7 +7731,7 @@
     </row>
     <row r="193" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3"/>
-      <c r="B193" s="3"/>
+      <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -7984,7 +7756,7 @@
     </row>
     <row r="194" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3"/>
-      <c r="B194" s="3"/>
+      <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -8009,7 +7781,7 @@
     </row>
     <row r="195" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3"/>
-      <c r="B195" s="3"/>
+      <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -8034,7 +7806,7 @@
     </row>
     <row r="196" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3"/>
-      <c r="B196" s="3"/>
+      <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -8059,7 +7831,7 @@
     </row>
     <row r="197" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3"/>
-      <c r="B197" s="3"/>
+      <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -8084,7 +7856,7 @@
     </row>
     <row r="198" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3"/>
-      <c r="B198" s="3"/>
+      <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -8109,7 +7881,7 @@
     </row>
     <row r="199" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3"/>
-      <c r="B199" s="3"/>
+      <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -8134,7 +7906,7 @@
     </row>
     <row r="200" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3"/>
-      <c r="B200" s="3"/>
+      <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -8159,7 +7931,7 @@
     </row>
     <row r="201" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3"/>
-      <c r="B201" s="3"/>
+      <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -8184,7 +7956,7 @@
     </row>
     <row r="202" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="3"/>
-      <c r="B202" s="3"/>
+      <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -8209,7 +7981,7 @@
     </row>
     <row r="203" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="3"/>
-      <c r="B203" s="3"/>
+      <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -8234,7 +8006,7 @@
     </row>
     <row r="204" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="3"/>
-      <c r="B204" s="3"/>
+      <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -8259,7 +8031,7 @@
     </row>
     <row r="205" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="3"/>
-      <c r="B205" s="3"/>
+      <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -8284,7 +8056,7 @@
     </row>
     <row r="206" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="3"/>
-      <c r="B206" s="3"/>
+      <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -8309,7 +8081,7 @@
     </row>
     <row r="207" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="3"/>
-      <c r="B207" s="3"/>
+      <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -8332,61 +8104,11 @@
       <c r="V207" s="3"/>
       <c r="W207" s="2"/>
     </row>
-    <row r="208" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="3"/>
-      <c r="B208" s="3"/>
-      <c r="C208" s="2"/>
-      <c r="D208" s="3"/>
-      <c r="E208" s="3"/>
-      <c r="F208" s="3"/>
-      <c r="G208" s="3"/>
-      <c r="H208" s="3"/>
-      <c r="I208" s="3"/>
-      <c r="J208" s="4"/>
-      <c r="K208" s="4"/>
-      <c r="L208" s="4"/>
-      <c r="M208" s="4"/>
-      <c r="N208" s="4"/>
-      <c r="O208" s="4"/>
-      <c r="P208" s="4"/>
-      <c r="Q208" s="4"/>
-      <c r="R208" s="4"/>
-      <c r="S208" s="4"/>
-      <c r="T208" s="4"/>
-      <c r="U208" s="4"/>
-      <c r="V208" s="3"/>
-      <c r="W208" s="2"/>
-    </row>
-    <row r="209" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="3"/>
-      <c r="B209" s="3"/>
-      <c r="C209" s="2"/>
-      <c r="D209" s="3"/>
-      <c r="E209" s="3"/>
-      <c r="F209" s="3"/>
-      <c r="G209" s="3"/>
-      <c r="H209" s="3"/>
-      <c r="I209" s="3"/>
-      <c r="J209" s="4"/>
-      <c r="K209" s="4"/>
-      <c r="L209" s="4"/>
-      <c r="M209" s="4"/>
-      <c r="N209" s="4"/>
-      <c r="O209" s="4"/>
-      <c r="P209" s="4"/>
-      <c r="Q209" s="4"/>
-      <c r="R209" s="4"/>
-      <c r="S209" s="4"/>
-      <c r="T209" s="4"/>
-      <c r="U209" s="4"/>
-      <c r="V209" s="3"/>
-      <c r="W209" s="2"/>
-    </row>
-    <row r="210" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="45" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:W36">
-    <sortCondition ref="B2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W33">
+    <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/JavaApplication19/src/excel/Inventario.xlsx
+++ b/JavaApplication19/src/excel/Inventario.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25768944-A353-4413-8C5D-F76F302A02A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F446ED4-0085-4BD6-BCAC-FB201B550CF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,19 @@
     <sheet name="Inventario" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -43,9 +51,6 @@
     <t xml:space="preserve">COSTO NETO </t>
   </si>
   <si>
-    <t>PRECIO BASE X UNIDAD</t>
-  </si>
-  <si>
     <t>PRECIO BASE NETO</t>
   </si>
   <si>
@@ -115,9 +120,6 @@
     <t xml:space="preserve">DESVIADOR DELANTERO SHIMANO SLX </t>
   </si>
   <si>
-    <t>DESVIADOR TRASERO XTR</t>
-  </si>
-  <si>
     <t>EPIC OIL 60ML</t>
   </si>
   <si>
@@ -181,9 +183,6 @@
     <t>DESVIADOR DELANTERO XT</t>
   </si>
   <si>
-    <t>PARA 9s Y 10s - MUY PRECISO - DETALLES ESTETICOS - USADO</t>
-  </si>
-  <si>
     <t>DOBLE TORNILLO DE SUJECIÓN - USADO</t>
   </si>
   <si>
@@ -232,12 +231,6 @@
     <t>SHIFTERS DE GATILLO - 3x9 - COMO NUEVOS - UN PAR - SEMINUEVOS</t>
   </si>
   <si>
-    <t>SHIFTERS DE GATILLO - 3x9 - DETALLES ESTETICOS - UN PAR - USADO</t>
-  </si>
-  <si>
-    <t>SHIFTERS XT 3x9</t>
-  </si>
-  <si>
     <t>SHIFTERS SHIMANO ALIVIO 3x9</t>
   </si>
   <si>
@@ -256,9 +249,6 @@
     <t>CRANK SHIMANO DEORE</t>
   </si>
   <si>
-    <t>DESVIADOR TRAERO SLX 10s</t>
-  </si>
-  <si>
     <t>DESVIADOR DELANTERO SRAM X5</t>
   </si>
   <si>
@@ -286,9 +276,6 @@
     <t>PARA 3 PLATOS - PARA JALON ARRIBA - USADO</t>
   </si>
   <si>
-    <t xml:space="preserve">PARA 9s - DETALLES ESTETICOS  - USADO </t>
-  </si>
-  <si>
     <t>PARA 3 PLATOS - E-TYPE - ANCLAJE A 2 TORNILLOS - USADO</t>
   </si>
   <si>
@@ -313,55 +300,7 @@
     <t>90% DE VIDA - 700x23 - COLOR ROJO - KEVLAR(DOBLABLE) - CON MEDIDOR DE DESGASTE - PAR DE LLANTAS - SEMINUEVO</t>
   </si>
   <si>
-    <t>Bici Fuji</t>
-  </si>
-  <si>
-    <t>Talla M</t>
-  </si>
-  <si>
-    <t>22  julio 20</t>
-  </si>
-  <si>
-    <t>Nuevo</t>
-  </si>
-  <si>
-    <t>Pack1</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>$8900</t>
-  </si>
-  <si>
-    <t>24  julio 20</t>
-  </si>
-  <si>
-    <t>Seminuevo</t>
-  </si>
-  <si>
-    <t>Pack2</t>
-  </si>
-  <si>
-    <t>1.25</t>
-  </si>
-  <si>
-    <t>27  julio 20</t>
-  </si>
-  <si>
-    <t>BICINUEVA</t>
-  </si>
-  <si>
-    <t>SPECILICE CAMBER</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>$10000</t>
+    <t>PRECIO BASE UNIDAD</t>
   </si>
 </sst>
 </file>
@@ -646,13 +585,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>1047368</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>26830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>1671215</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>489857</xdr:rowOff>
@@ -1018,30 +957,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC211"/>
+  <dimension ref="A1:AC209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="58.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="4" max="23" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="24" max="29" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="1" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="23" width="20.6640625" customWidth="1"/>
+    <col min="24" max="29" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="7"/>
+      <c r="A1" s="7"/>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
       <c r="C1" s="8" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>1</v>
@@ -1062,60 +1000,60 @@
         <v>6</v>
       </c>
       <c r="J1" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="R1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="T1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="V1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="9" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="2" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
+      <c r="A2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="13">
         <v>44004</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>49</v>
-      </c>
       <c r="D2" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
@@ -1133,70 +1071,70 @@
         <v>200</v>
       </c>
       <c r="K2" s="15">
-        <f t="shared" ref="K2:K36" si="1">J2*G2</f>
+        <f t="shared" ref="K2:K33" si="1">J2*G2</f>
         <v>200</v>
       </c>
       <c r="L2" s="15">
-        <f t="shared" ref="L2:L36" si="2">J2+R2</f>
+        <f t="shared" ref="L2:L33" si="2">J2+R2</f>
         <v>232</v>
       </c>
       <c r="M2" s="15">
-        <f t="shared" ref="M2:M36" si="3">L2*G2</f>
+        <f t="shared" ref="M2:M33" si="3">L2*G2</f>
         <v>232</v>
       </c>
       <c r="N2" s="15">
-        <f t="shared" ref="N2:N36" si="4">J2+R2+P2+35</f>
+        <f t="shared" ref="N2:N33" si="4">J2+R2+P2+35</f>
         <v>306.8</v>
       </c>
       <c r="O2" s="15">
-        <f t="shared" ref="O2:O36" si="5">N2*G2</f>
+        <f t="shared" ref="O2:O33" si="5">N2*G2</f>
         <v>306.8</v>
       </c>
       <c r="P2" s="15">
-        <f t="shared" ref="P2:P36" si="6">(L2*0.15)+5</f>
+        <f t="shared" ref="P2:P33" si="6">(L2*0.15)+5</f>
         <v>39.799999999999997</v>
       </c>
       <c r="Q2" s="15">
-        <f t="shared" ref="Q2:Q36" si="7">P2*G2</f>
+        <f t="shared" ref="Q2:Q33" si="7">P2*G2</f>
         <v>39.799999999999997</v>
       </c>
       <c r="R2" s="15">
-        <f t="shared" ref="R2:R36" si="8">J2*0.16</f>
+        <f t="shared" ref="R2:R33" si="8">J2*0.16</f>
         <v>32</v>
       </c>
       <c r="S2" s="15">
-        <f t="shared" ref="S2:S36" si="9">R2*G2</f>
+        <f t="shared" ref="S2:S33" si="9">R2*G2</f>
         <v>32</v>
       </c>
       <c r="T2" s="15">
-        <f t="shared" ref="T2:T36" si="10">L2-H2-R2</f>
+        <f t="shared" ref="T2:T33" si="10">L2-H2-R2</f>
         <v>0</v>
       </c>
       <c r="U2" s="15">
-        <f t="shared" ref="U2:U36" si="11">T2*G2</f>
+        <f t="shared" ref="U2:U33" si="11">T2*G2</f>
         <v>0</v>
       </c>
       <c r="V2" s="15">
-        <f t="shared" ref="V2:V36" si="12">N2-H2-P2-R2-35</f>
+        <f t="shared" ref="V2:V33" si="12">N2-H2-P2-R2-35</f>
         <v>0</v>
       </c>
       <c r="W2" s="16">
-        <f t="shared" ref="W2:W36" si="13">V2*G2</f>
+        <f t="shared" ref="W2:W33" si="13">V2*G2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18">
+      <c r="A3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="18">
         <v>43939</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="D3" s="19" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>22</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
@@ -1267,17 +1205,17 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18">
+      <c r="A4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="18">
         <v>43840</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="D4" s="19" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>24</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
@@ -1348,17 +1286,17 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
+      <c r="A5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="21">
         <v>43846</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>75</v>
-      </c>
       <c r="D5" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
@@ -1429,17 +1367,17 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+      <c r="A6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="13">
         <v>43902</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>74</v>
-      </c>
       <c r="D6" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -1510,17 +1448,17 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30">
+      <c r="A7" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="30">
         <v>43984</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>44</v>
-      </c>
       <c r="D7" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="31"/>
       <c r="F7" s="31"/>
@@ -1591,17 +1529,17 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18">
+      <c r="A8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="18">
         <v>43837</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="D8" s="19" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>27</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
@@ -1672,20 +1610,20 @@
       </c>
     </row>
     <row r="9" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18">
+      <c r="A9" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="18">
         <v>43853</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>86</v>
-      </c>
       <c r="D9" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" s="19">
         <f>22950/18500</f>
@@ -1759,17 +1697,17 @@
       </c>
     </row>
     <row r="10" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18">
+      <c r="A10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="18">
         <v>44018</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>73</v>
-      </c>
       <c r="D10" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
@@ -1839,20 +1777,20 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18">
+      <c r="A11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="18">
         <v>43853</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>89</v>
-      </c>
       <c r="D11" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" s="19">
         <f>22950/18500</f>
@@ -1866,7 +1804,7 @@
         <v>322.44008714596953</v>
       </c>
       <c r="I11" s="15">
-        <f t="shared" ref="I11:I36" si="14">H11*G11</f>
+        <f t="shared" ref="I11:I33" si="14">H11*G11</f>
         <v>322.44008714596953</v>
       </c>
       <c r="J11" s="15">
@@ -1926,20 +1864,20 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18">
+      <c r="A12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="18">
         <v>43837</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>87</v>
-      </c>
       <c r="D12" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="19">
         <f>14600/7500</f>
@@ -2013,68 +1951,68 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
-        <v>44004</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14">
+      <c r="A13" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="18">
+        <v>43840</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19">
         <v>1</v>
       </c>
       <c r="H13" s="15">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="I13" s="15">
         <f t="shared" si="14"/>
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="J13" s="15">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="K13" s="15">
         <f t="shared" si="1"/>
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L13" s="15">
         <f t="shared" si="2"/>
-        <v>754</v>
+        <v>522</v>
       </c>
       <c r="M13" s="15">
         <f t="shared" si="3"/>
-        <v>754</v>
+        <v>522</v>
       </c>
       <c r="N13" s="15">
         <f t="shared" si="4"/>
-        <v>907.1</v>
+        <v>640.29999999999995</v>
       </c>
       <c r="O13" s="15">
         <f t="shared" si="5"/>
-        <v>907.1</v>
+        <v>640.29999999999995</v>
       </c>
       <c r="P13" s="15">
         <f t="shared" si="6"/>
-        <v>118.1</v>
+        <v>83.3</v>
       </c>
       <c r="Q13" s="15">
         <f t="shared" si="7"/>
-        <v>118.1</v>
+        <v>83.3</v>
       </c>
       <c r="R13" s="15">
         <f t="shared" si="8"/>
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="S13" s="15">
         <f t="shared" si="9"/>
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="T13" s="15">
         <f t="shared" si="10"/>
@@ -2094,101 +2032,101 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18">
-        <v>43840</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>90</v>
+      <c r="A14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="18">
+        <v>43847</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="H14" s="15">
-        <v>450</v>
+        <v>14.96</v>
       </c>
       <c r="I14" s="15">
         <f t="shared" si="14"/>
-        <v>450</v>
+        <v>2917.2000000000003</v>
       </c>
       <c r="J14" s="15">
-        <v>450</v>
+        <v>30</v>
       </c>
       <c r="K14" s="15">
         <f t="shared" si="1"/>
-        <v>450</v>
+        <v>5850</v>
       </c>
       <c r="L14" s="15">
         <f t="shared" si="2"/>
-        <v>522</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="M14" s="15">
         <f t="shared" si="3"/>
-        <v>522</v>
+        <v>6785.9999999999991</v>
       </c>
       <c r="N14" s="15">
         <f t="shared" si="4"/>
-        <v>640.29999999999995</v>
+        <v>80.02</v>
       </c>
       <c r="O14" s="15">
         <f t="shared" si="5"/>
-        <v>640.29999999999995</v>
+        <v>15603.9</v>
       </c>
       <c r="P14" s="15">
         <f t="shared" si="6"/>
-        <v>83.3</v>
+        <v>10.219999999999999</v>
       </c>
       <c r="Q14" s="15">
         <f t="shared" si="7"/>
-        <v>83.3</v>
+        <v>1992.8999999999999</v>
       </c>
       <c r="R14" s="15">
         <f t="shared" si="8"/>
-        <v>72</v>
+        <v>4.8</v>
       </c>
       <c r="S14" s="15">
         <f t="shared" si="9"/>
-        <v>72</v>
+        <v>936</v>
       </c>
       <c r="T14" s="15">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>15.039999999999996</v>
       </c>
       <c r="U14" s="15">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2932.7999999999993</v>
       </c>
       <c r="V14" s="15">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>15.040000000000006</v>
       </c>
       <c r="W14" s="16">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2932.8000000000011</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18">
+      <c r="A15" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="18">
         <v>43837</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>88</v>
-      </c>
       <c r="D15" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" s="19">
         <f>14600/7500</f>
@@ -2199,467 +2137,467 @@
       </c>
       <c r="H15" s="15">
         <f>J15/F15</f>
-        <v>205.47945205479451</v>
+        <v>256.84931506849313</v>
       </c>
       <c r="I15" s="15">
         <f t="shared" si="14"/>
-        <v>205.47945205479451</v>
+        <v>256.84931506849313</v>
       </c>
       <c r="J15" s="15">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K15" s="15">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L15" s="15">
         <f t="shared" si="2"/>
-        <v>464</v>
+        <v>580</v>
       </c>
       <c r="M15" s="15">
         <f t="shared" si="3"/>
-        <v>464</v>
+        <v>580</v>
       </c>
       <c r="N15" s="15">
         <f t="shared" si="4"/>
-        <v>573.6</v>
+        <v>707</v>
       </c>
       <c r="O15" s="15">
         <f t="shared" si="5"/>
-        <v>573.6</v>
+        <v>707</v>
       </c>
       <c r="P15" s="15">
         <f t="shared" si="6"/>
-        <v>74.599999999999994</v>
+        <v>92</v>
       </c>
       <c r="Q15" s="15">
         <f t="shared" si="7"/>
-        <v>74.599999999999994</v>
+        <v>92</v>
       </c>
       <c r="R15" s="15">
         <f t="shared" si="8"/>
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="S15" s="15">
         <f t="shared" si="9"/>
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="T15" s="15">
         <f t="shared" si="10"/>
-        <v>194.52054794520552</v>
+        <v>243.15068493150687</v>
       </c>
       <c r="U15" s="15">
         <f t="shared" si="11"/>
-        <v>194.52054794520552</v>
+        <v>243.15068493150687</v>
       </c>
       <c r="V15" s="15">
         <f t="shared" si="12"/>
-        <v>194.52054794520552</v>
+        <v>243.15068493150687</v>
       </c>
       <c r="W15" s="16">
         <f t="shared" si="13"/>
-        <v>194.52054794520552</v>
+        <v>243.15068493150687</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18">
-        <v>43847</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>91</v>
+      <c r="A16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="18">
+        <v>43837</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
+        <v>23</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="19">
+        <f>14600/7500</f>
+        <v>1.9466666666666668</v>
+      </c>
       <c r="G16" s="19">
-        <v>195</v>
+        <v>1</v>
       </c>
       <c r="H16" s="15">
-        <v>14.96</v>
+        <f>J16/F16</f>
+        <v>77.054794520547944</v>
       </c>
       <c r="I16" s="15">
         <f t="shared" si="14"/>
-        <v>2917.2000000000003</v>
+        <v>77.054794520547944</v>
       </c>
       <c r="J16" s="15">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="K16" s="15">
         <f t="shared" si="1"/>
-        <v>5850</v>
+        <v>150</v>
       </c>
       <c r="L16" s="15">
         <f t="shared" si="2"/>
-        <v>34.799999999999997</v>
+        <v>174</v>
       </c>
       <c r="M16" s="15">
         <f t="shared" si="3"/>
-        <v>6785.9999999999991</v>
+        <v>174</v>
       </c>
       <c r="N16" s="15">
         <f t="shared" si="4"/>
-        <v>80.02</v>
+        <v>240.1</v>
       </c>
       <c r="O16" s="15">
         <f t="shared" si="5"/>
-        <v>15603.9</v>
+        <v>240.1</v>
       </c>
       <c r="P16" s="15">
         <f t="shared" si="6"/>
-        <v>10.219999999999999</v>
+        <v>31.099999999999998</v>
       </c>
       <c r="Q16" s="15">
         <f t="shared" si="7"/>
-        <v>1992.8999999999999</v>
+        <v>31.099999999999998</v>
       </c>
       <c r="R16" s="15">
         <f t="shared" si="8"/>
-        <v>4.8</v>
+        <v>24</v>
       </c>
       <c r="S16" s="15">
         <f t="shared" si="9"/>
-        <v>936</v>
+        <v>24</v>
       </c>
       <c r="T16" s="15">
         <f t="shared" si="10"/>
-        <v>15.039999999999996</v>
+        <v>72.945205479452056</v>
       </c>
       <c r="U16" s="15">
         <f t="shared" si="11"/>
-        <v>2932.7999999999993</v>
+        <v>72.945205479452056</v>
       </c>
       <c r="V16" s="15">
         <f t="shared" si="12"/>
-        <v>15.040000000000006</v>
+        <v>72.945205479452056</v>
       </c>
       <c r="W16" s="16">
         <f t="shared" si="13"/>
-        <v>2932.8000000000011</v>
+        <v>72.945205479452056</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18">
+      <c r="A17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="18">
         <v>43837</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>93</v>
-      </c>
       <c r="D17" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19">
+        <v>2</v>
+      </c>
+      <c r="H17" s="15">
+        <v>50</v>
+      </c>
+      <c r="I17" s="15">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="J17" s="15">
+        <v>150</v>
+      </c>
+      <c r="K17" s="15">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="L17" s="15">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+      <c r="M17" s="15">
+        <f t="shared" si="3"/>
+        <v>348</v>
+      </c>
+      <c r="N17" s="15">
+        <f t="shared" si="4"/>
+        <v>240.1</v>
+      </c>
+      <c r="O17" s="15">
+        <f t="shared" si="5"/>
+        <v>480.2</v>
+      </c>
+      <c r="P17" s="15">
+        <f t="shared" si="6"/>
+        <v>31.099999999999998</v>
+      </c>
+      <c r="Q17" s="15">
+        <f t="shared" si="7"/>
+        <v>62.199999999999996</v>
+      </c>
+      <c r="R17" s="15">
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="E17" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="19">
+      <c r="S17" s="15">
+        <f t="shared" si="9"/>
+        <v>48</v>
+      </c>
+      <c r="T17" s="15">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="U17" s="15">
+        <f t="shared" si="11"/>
+        <v>200</v>
+      </c>
+      <c r="V17" s="15">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="W17" s="16">
+        <f t="shared" si="13"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="30">
+        <v>43853</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31">
+        <v>1</v>
+      </c>
+      <c r="H18" s="15">
+        <v>300</v>
+      </c>
+      <c r="I18" s="15">
+        <f t="shared" si="14"/>
+        <v>300</v>
+      </c>
+      <c r="J18" s="15">
+        <v>300</v>
+      </c>
+      <c r="K18" s="15">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="L18" s="15">
+        <f t="shared" si="2"/>
+        <v>348</v>
+      </c>
+      <c r="M18" s="15">
+        <f t="shared" si="3"/>
+        <v>348</v>
+      </c>
+      <c r="N18" s="15">
+        <f t="shared" si="4"/>
+        <v>440.2</v>
+      </c>
+      <c r="O18" s="15">
+        <f t="shared" si="5"/>
+        <v>440.2</v>
+      </c>
+      <c r="P18" s="15">
+        <f t="shared" si="6"/>
+        <v>57.199999999999996</v>
+      </c>
+      <c r="Q18" s="15">
+        <f t="shared" si="7"/>
+        <v>57.199999999999996</v>
+      </c>
+      <c r="R18" s="15">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+      <c r="S18" s="15">
+        <f t="shared" si="9"/>
+        <v>48</v>
+      </c>
+      <c r="T18" s="15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="18">
+        <v>43837</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="19">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G19" s="19">
         <v>1</v>
       </c>
-      <c r="H17" s="15">
-        <f>J17/F17</f>
-        <v>256.84931506849313</v>
-      </c>
-      <c r="I17" s="15">
-        <f t="shared" si="14"/>
-        <v>256.84931506849313</v>
-      </c>
-      <c r="J17" s="15">
-        <v>500</v>
-      </c>
-      <c r="K17" s="15">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="L17" s="15">
-        <f t="shared" si="2"/>
-        <v>580</v>
-      </c>
-      <c r="M17" s="15">
-        <f t="shared" si="3"/>
-        <v>580</v>
-      </c>
-      <c r="N17" s="15">
-        <f t="shared" si="4"/>
-        <v>707</v>
-      </c>
-      <c r="O17" s="15">
-        <f t="shared" si="5"/>
-        <v>707</v>
-      </c>
-      <c r="P17" s="15">
-        <f t="shared" si="6"/>
-        <v>92</v>
-      </c>
-      <c r="Q17" s="15">
-        <f t="shared" si="7"/>
-        <v>92</v>
-      </c>
-      <c r="R17" s="15">
-        <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="S17" s="15">
-        <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="T17" s="15">
-        <f t="shared" si="10"/>
-        <v>243.15068493150687</v>
-      </c>
-      <c r="U17" s="15">
-        <f t="shared" si="11"/>
-        <v>243.15068493150687</v>
-      </c>
-      <c r="V17" s="15">
-        <f t="shared" si="12"/>
-        <v>243.15068493150687</v>
-      </c>
-      <c r="W17" s="16">
-        <f t="shared" si="13"/>
-        <v>243.15068493150687</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18">
-        <v>43837</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="19">
-        <f>14600/7500</f>
-        <v>1.9466666666666668</v>
-      </c>
-      <c r="G18" s="19">
-        <v>1</v>
-      </c>
-      <c r="H18" s="15">
-        <f>J18/F18</f>
-        <v>77.054794520547944</v>
-      </c>
-      <c r="I18" s="15">
-        <f t="shared" si="14"/>
-        <v>77.054794520547944</v>
-      </c>
-      <c r="J18" s="15">
-        <v>150</v>
-      </c>
-      <c r="K18" s="15">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="L18" s="15">
-        <f t="shared" si="2"/>
-        <v>174</v>
-      </c>
-      <c r="M18" s="15">
-        <f t="shared" si="3"/>
-        <v>174</v>
-      </c>
-      <c r="N18" s="15">
-        <f t="shared" si="4"/>
-        <v>240.1</v>
-      </c>
-      <c r="O18" s="15">
-        <f t="shared" si="5"/>
-        <v>240.1</v>
-      </c>
-      <c r="P18" s="15">
-        <f t="shared" si="6"/>
-        <v>31.099999999999998</v>
-      </c>
-      <c r="Q18" s="15">
-        <f t="shared" si="7"/>
-        <v>31.099999999999998</v>
-      </c>
-      <c r="R18" s="15">
-        <f t="shared" si="8"/>
-        <v>24</v>
-      </c>
-      <c r="S18" s="15">
-        <f t="shared" si="9"/>
-        <v>24</v>
-      </c>
-      <c r="T18" s="15">
-        <f t="shared" si="10"/>
-        <v>72.945205479452056</v>
-      </c>
-      <c r="U18" s="15">
-        <f t="shared" si="11"/>
-        <v>72.945205479452056</v>
-      </c>
-      <c r="V18" s="15">
-        <f t="shared" si="12"/>
-        <v>72.945205479452056</v>
-      </c>
-      <c r="W18" s="16">
-        <f t="shared" si="13"/>
-        <v>72.945205479452056</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18">
-        <v>43837</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19">
-        <v>2</v>
-      </c>
       <c r="H19" s="15">
-        <v>50</v>
+        <f>J19/F19</f>
+        <v>205.47945205479451</v>
       </c>
       <c r="I19" s="15">
         <f t="shared" si="14"/>
-        <v>100</v>
+        <v>205.47945205479451</v>
       </c>
       <c r="J19" s="15">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="K19" s="15">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L19" s="15">
         <f t="shared" si="2"/>
-        <v>174</v>
+        <v>464</v>
       </c>
       <c r="M19" s="15">
         <f t="shared" si="3"/>
-        <v>348</v>
+        <v>464</v>
       </c>
       <c r="N19" s="15">
         <f t="shared" si="4"/>
-        <v>240.1</v>
+        <v>573.6</v>
       </c>
       <c r="O19" s="15">
         <f t="shared" si="5"/>
-        <v>480.2</v>
+        <v>573.6</v>
       </c>
       <c r="P19" s="15">
         <f t="shared" si="6"/>
-        <v>31.099999999999998</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="Q19" s="15">
         <f t="shared" si="7"/>
-        <v>62.199999999999996</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="R19" s="15">
         <f t="shared" si="8"/>
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="S19" s="15">
         <f t="shared" si="9"/>
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="T19" s="15">
         <f t="shared" si="10"/>
-        <v>100</v>
+        <v>194.52054794520552</v>
       </c>
       <c r="U19" s="15">
         <f t="shared" si="11"/>
-        <v>200</v>
+        <v>194.52054794520552</v>
       </c>
       <c r="V19" s="15">
         <f t="shared" si="12"/>
-        <v>100</v>
+        <v>194.52054794520552</v>
       </c>
       <c r="W19" s="16">
         <f t="shared" si="13"/>
-        <v>200</v>
+        <v>194.52054794520552</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30">
-        <v>43853</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31">
+      <c r="A20" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="18">
+        <v>43843</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19">
         <v>1</v>
       </c>
       <c r="H20" s="15">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="I20" s="15">
         <f t="shared" si="14"/>
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="J20" s="15">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K20" s="15">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="L20" s="15">
         <f t="shared" si="2"/>
-        <v>348</v>
+        <v>290</v>
       </c>
       <c r="M20" s="15">
         <f t="shared" si="3"/>
-        <v>348</v>
+        <v>290</v>
       </c>
       <c r="N20" s="15">
         <f t="shared" si="4"/>
-        <v>440.2</v>
+        <v>373.5</v>
       </c>
       <c r="O20" s="15">
         <f t="shared" si="5"/>
-        <v>440.2</v>
+        <v>373.5</v>
       </c>
       <c r="P20" s="15">
         <f t="shared" si="6"/>
-        <v>57.199999999999996</v>
+        <v>48.5</v>
       </c>
       <c r="Q20" s="15">
         <f t="shared" si="7"/>
-        <v>57.199999999999996</v>
+        <v>48.5</v>
       </c>
       <c r="R20" s="15">
         <f t="shared" si="8"/>
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="S20" s="15">
         <f t="shared" si="9"/>
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="T20" s="15">
         <f t="shared" si="10"/>
@@ -2679,20 +2617,20 @@
       </c>
     </row>
     <row r="21" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18">
-        <v>43837</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>95</v>
+      <c r="A21" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="18">
+        <v>43843</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F21" s="19">
         <f>14600/7500</f>
@@ -2703,131 +2641,131 @@
       </c>
       <c r="H21" s="15">
         <f>J21/F21</f>
-        <v>205.47945205479451</v>
+        <v>128.42465753424656</v>
       </c>
       <c r="I21" s="15">
         <f t="shared" si="14"/>
-        <v>205.47945205479451</v>
+        <v>128.42465753424656</v>
       </c>
       <c r="J21" s="15">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K21" s="15">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="L21" s="15">
         <f t="shared" si="2"/>
-        <v>464</v>
+        <v>290</v>
       </c>
       <c r="M21" s="15">
         <f t="shared" si="3"/>
-        <v>464</v>
+        <v>290</v>
       </c>
       <c r="N21" s="15">
         <f t="shared" si="4"/>
-        <v>573.6</v>
+        <v>373.5</v>
       </c>
       <c r="O21" s="15">
         <f t="shared" si="5"/>
-        <v>573.6</v>
+        <v>373.5</v>
       </c>
       <c r="P21" s="15">
         <f t="shared" si="6"/>
-        <v>74.599999999999994</v>
+        <v>48.5</v>
       </c>
       <c r="Q21" s="15">
         <f t="shared" si="7"/>
-        <v>74.599999999999994</v>
+        <v>48.5</v>
       </c>
       <c r="R21" s="15">
         <f t="shared" si="8"/>
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="S21" s="15">
         <f t="shared" si="9"/>
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="T21" s="15">
         <f t="shared" si="10"/>
-        <v>194.52054794520552</v>
+        <v>121.57534246575344</v>
       </c>
       <c r="U21" s="15">
         <f t="shared" si="11"/>
-        <v>194.52054794520552</v>
+        <v>121.57534246575344</v>
       </c>
       <c r="V21" s="15">
         <f t="shared" si="12"/>
-        <v>194.52054794520552</v>
+        <v>121.57534246575344</v>
       </c>
       <c r="W21" s="16">
         <f t="shared" si="13"/>
-        <v>194.52054794520552</v>
+        <v>121.57534246575344</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18">
+      <c r="A22" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="18">
         <v>43843</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>55</v>
-      </c>
       <c r="D22" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
       <c r="G22" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" s="15">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="I22" s="15">
         <f t="shared" si="14"/>
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="J22" s="15">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K22" s="15">
         <f t="shared" si="1"/>
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="L22" s="15">
         <f t="shared" si="2"/>
-        <v>290</v>
+        <v>464</v>
       </c>
       <c r="M22" s="15">
         <f t="shared" si="3"/>
-        <v>290</v>
+        <v>928</v>
       </c>
       <c r="N22" s="15">
         <f t="shared" si="4"/>
-        <v>373.5</v>
+        <v>573.6</v>
       </c>
       <c r="O22" s="15">
         <f t="shared" si="5"/>
-        <v>373.5</v>
+        <v>1147.2</v>
       </c>
       <c r="P22" s="15">
         <f t="shared" si="6"/>
-        <v>48.5</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="Q22" s="15">
         <f t="shared" si="7"/>
-        <v>48.5</v>
+        <v>149.19999999999999</v>
       </c>
       <c r="R22" s="15">
         <f t="shared" si="8"/>
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="S22" s="15">
         <f t="shared" si="9"/>
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="T22" s="15">
         <f t="shared" si="10"/>
@@ -2847,269 +2785,276 @@
       </c>
     </row>
     <row r="23" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18">
-        <v>43843</v>
+      <c r="A23" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="19">
+        <v>89</v>
+      </c>
+      <c r="C23" s="13">
+        <v>44008</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14">
+        <v>2</v>
+      </c>
+      <c r="H23" s="15">
+        <v>212.5</v>
+      </c>
+      <c r="I23" s="15">
+        <f t="shared" si="14"/>
+        <v>425</v>
+      </c>
+      <c r="J23" s="15">
+        <v>700</v>
+      </c>
+      <c r="K23" s="15">
+        <f t="shared" si="1"/>
+        <v>1400</v>
+      </c>
+      <c r="L23" s="15">
+        <f t="shared" si="2"/>
+        <v>812</v>
+      </c>
+      <c r="M23" s="15">
+        <f t="shared" si="3"/>
+        <v>1624</v>
+      </c>
+      <c r="N23" s="15">
+        <f t="shared" si="4"/>
+        <v>973.8</v>
+      </c>
+      <c r="O23" s="15">
+        <f t="shared" si="5"/>
+        <v>1947.6</v>
+      </c>
+      <c r="P23" s="15">
+        <f t="shared" si="6"/>
+        <v>126.8</v>
+      </c>
+      <c r="Q23" s="15">
+        <f t="shared" si="7"/>
+        <v>253.6</v>
+      </c>
+      <c r="R23" s="15">
+        <f t="shared" si="8"/>
+        <v>112</v>
+      </c>
+      <c r="S23" s="15">
+        <f t="shared" si="9"/>
+        <v>224</v>
+      </c>
+      <c r="T23" s="15">
+        <f t="shared" si="10"/>
+        <v>487.5</v>
+      </c>
+      <c r="U23" s="15">
+        <f t="shared" si="11"/>
+        <v>975</v>
+      </c>
+      <c r="V23" s="15">
+        <f t="shared" si="12"/>
+        <v>487.5</v>
+      </c>
+      <c r="W23" s="16">
+        <f t="shared" si="13"/>
+        <v>975</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="18">
+        <v>43837</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="19">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G24" s="19">
         <v>1</v>
       </c>
-      <c r="H23" s="15">
-        <f>J23/F23</f>
-        <v>128.42465753424656</v>
-      </c>
-      <c r="I23" s="15">
-        <f t="shared" si="14"/>
-        <v>128.42465753424656</v>
-      </c>
-      <c r="J23" s="15">
-        <v>250</v>
-      </c>
-      <c r="K23" s="15">
-        <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-      <c r="L23" s="15">
-        <f t="shared" si="2"/>
-        <v>290</v>
-      </c>
-      <c r="M23" s="15">
-        <f t="shared" si="3"/>
-        <v>290</v>
-      </c>
-      <c r="N23" s="15">
-        <f t="shared" si="4"/>
-        <v>373.5</v>
-      </c>
-      <c r="O23" s="15">
-        <f t="shared" si="5"/>
-        <v>373.5</v>
-      </c>
-      <c r="P23" s="15">
-        <f t="shared" si="6"/>
-        <v>48.5</v>
-      </c>
-      <c r="Q23" s="15">
-        <f t="shared" si="7"/>
-        <v>48.5</v>
-      </c>
-      <c r="R23" s="15">
-        <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="S23" s="15">
-        <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="T23" s="15">
-        <f t="shared" si="10"/>
-        <v>121.57534246575344</v>
-      </c>
-      <c r="U23" s="15">
-        <f t="shared" si="11"/>
-        <v>121.57534246575344</v>
-      </c>
-      <c r="V23" s="15">
-        <f t="shared" si="12"/>
-        <v>121.57534246575344</v>
-      </c>
-      <c r="W23" s="16">
-        <f t="shared" si="13"/>
-        <v>121.57534246575344</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18">
-        <v>43843</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19">
-        <v>2</v>
-      </c>
       <c r="H24" s="15">
-        <v>400</v>
+        <f t="shared" ref="H24:H30" si="15">J24/F24</f>
+        <v>256.84931506849313</v>
       </c>
       <c r="I24" s="15">
         <f t="shared" si="14"/>
-        <v>800</v>
+        <v>256.84931506849313</v>
       </c>
       <c r="J24" s="15">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K24" s="15">
         <f t="shared" si="1"/>
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L24" s="15">
         <f t="shared" si="2"/>
-        <v>464</v>
+        <v>580</v>
       </c>
       <c r="M24" s="15">
         <f t="shared" si="3"/>
-        <v>928</v>
+        <v>580</v>
       </c>
       <c r="N24" s="15">
         <f t="shared" si="4"/>
-        <v>573.6</v>
+        <v>707</v>
       </c>
       <c r="O24" s="15">
         <f t="shared" si="5"/>
-        <v>1147.2</v>
+        <v>707</v>
       </c>
       <c r="P24" s="15">
         <f t="shared" si="6"/>
-        <v>74.599999999999994</v>
+        <v>92</v>
       </c>
       <c r="Q24" s="15">
         <f t="shared" si="7"/>
-        <v>149.19999999999999</v>
+        <v>92</v>
       </c>
       <c r="R24" s="15">
         <f t="shared" si="8"/>
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="S24" s="15">
         <f t="shared" si="9"/>
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="T24" s="15">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>243.15068493150687</v>
       </c>
       <c r="U24" s="15">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>243.15068493150687</v>
       </c>
       <c r="V24" s="15">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>243.15068493150687</v>
       </c>
       <c r="W24" s="16">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+        <v>243.15068493150687</v>
+      </c>
+      <c r="AC24" s="6"/>
     </row>
     <row r="25" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13">
-        <v>44008</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14">
-        <v>2</v>
+      <c r="A25" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="18">
+        <v>43853</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="19">
+        <f>22950/18500</f>
+        <v>1.2405405405405405</v>
+      </c>
+      <c r="G25" s="19">
+        <v>1</v>
       </c>
       <c r="H25" s="15">
-        <v>212.5</v>
+        <f t="shared" si="15"/>
+        <v>282.13507625272331</v>
       </c>
       <c r="I25" s="15">
         <f t="shared" si="14"/>
-        <v>425</v>
+        <v>282.13507625272331</v>
       </c>
       <c r="J25" s="15">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="K25" s="15">
         <f t="shared" si="1"/>
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="L25" s="15">
         <f t="shared" si="2"/>
-        <v>812</v>
+        <v>406</v>
       </c>
       <c r="M25" s="15">
         <f t="shared" si="3"/>
-        <v>1624</v>
+        <v>406</v>
       </c>
       <c r="N25" s="15">
         <f t="shared" si="4"/>
-        <v>973.8</v>
+        <v>506.9</v>
       </c>
       <c r="O25" s="15">
         <f t="shared" si="5"/>
-        <v>1947.6</v>
+        <v>506.9</v>
       </c>
       <c r="P25" s="15">
         <f t="shared" si="6"/>
-        <v>126.8</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="Q25" s="15">
         <f t="shared" si="7"/>
-        <v>253.6</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="R25" s="15">
         <f t="shared" si="8"/>
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="S25" s="15">
         <f t="shared" si="9"/>
-        <v>224</v>
+        <v>56</v>
       </c>
       <c r="T25" s="15">
         <f t="shared" si="10"/>
-        <v>487.5</v>
+        <v>67.864923747276691</v>
       </c>
       <c r="U25" s="15">
         <f t="shared" si="11"/>
-        <v>975</v>
+        <v>67.864923747276691</v>
       </c>
       <c r="V25" s="15">
         <f t="shared" si="12"/>
-        <v>487.5</v>
+        <v>67.864923747276663</v>
       </c>
       <c r="W25" s="16">
         <f t="shared" si="13"/>
-        <v>975</v>
+        <v>67.864923747276663</v>
       </c>
     </row>
     <row r="26" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18">
+      <c r="A26" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="18">
         <v>43837</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>58</v>
-      </c>
       <c r="D26" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F26" s="19">
         <f>14600/7500</f>
@@ -3119,85 +3064,84 @@
         <v>1</v>
       </c>
       <c r="H26" s="15">
-        <f t="shared" ref="H26:H32" si="15">J26/F26</f>
-        <v>256.84931506849313</v>
+        <f t="shared" si="15"/>
+        <v>128.42465753424656</v>
       </c>
       <c r="I26" s="15">
         <f t="shared" si="14"/>
-        <v>256.84931506849313</v>
+        <v>128.42465753424656</v>
       </c>
       <c r="J26" s="15">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K26" s="15">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L26" s="15">
         <f t="shared" si="2"/>
-        <v>580</v>
+        <v>290</v>
       </c>
       <c r="M26" s="15">
         <f t="shared" si="3"/>
-        <v>580</v>
+        <v>290</v>
       </c>
       <c r="N26" s="15">
         <f t="shared" si="4"/>
-        <v>707</v>
+        <v>373.5</v>
       </c>
       <c r="O26" s="15">
         <f t="shared" si="5"/>
-        <v>707</v>
+        <v>373.5</v>
       </c>
       <c r="P26" s="15">
         <f t="shared" si="6"/>
-        <v>92</v>
+        <v>48.5</v>
       </c>
       <c r="Q26" s="15">
         <f t="shared" si="7"/>
-        <v>92</v>
+        <v>48.5</v>
       </c>
       <c r="R26" s="15">
         <f t="shared" si="8"/>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="S26" s="15">
         <f t="shared" si="9"/>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="T26" s="15">
         <f t="shared" si="10"/>
-        <v>243.15068493150687</v>
+        <v>121.57534246575344</v>
       </c>
       <c r="U26" s="15">
         <f t="shared" si="11"/>
-        <v>243.15068493150687</v>
+        <v>121.57534246575344</v>
       </c>
       <c r="V26" s="15">
         <f t="shared" si="12"/>
-        <v>243.15068493150687</v>
+        <v>121.57534246575344</v>
       </c>
       <c r="W26" s="16">
         <f t="shared" si="13"/>
-        <v>243.15068493150687</v>
-      </c>
-      <c r="AC26" s="6"/>
+        <v>121.57534246575344</v>
+      </c>
     </row>
     <row r="27" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18">
+      <c r="A27" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="18">
         <v>43853</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>59</v>
-      </c>
       <c r="D27" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F27" s="19">
         <f>22950/18500</f>
@@ -3208,83 +3152,83 @@
       </c>
       <c r="H27" s="15">
         <f t="shared" si="15"/>
-        <v>282.13507625272331</v>
+        <v>483.66013071895424</v>
       </c>
       <c r="I27" s="15">
         <f t="shared" si="14"/>
-        <v>282.13507625272331</v>
+        <v>483.66013071895424</v>
       </c>
       <c r="J27" s="15">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="K27" s="15">
         <f t="shared" si="1"/>
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L27" s="15">
         <f t="shared" si="2"/>
-        <v>406</v>
+        <v>696</v>
       </c>
       <c r="M27" s="15">
         <f t="shared" si="3"/>
-        <v>406</v>
+        <v>696</v>
       </c>
       <c r="N27" s="15">
         <f t="shared" si="4"/>
-        <v>506.9</v>
+        <v>840.4</v>
       </c>
       <c r="O27" s="15">
         <f t="shared" si="5"/>
-        <v>506.9</v>
+        <v>840.4</v>
       </c>
       <c r="P27" s="15">
         <f t="shared" si="6"/>
-        <v>65.900000000000006</v>
+        <v>109.39999999999999</v>
       </c>
       <c r="Q27" s="15">
         <f t="shared" si="7"/>
-        <v>65.900000000000006</v>
+        <v>109.39999999999999</v>
       </c>
       <c r="R27" s="15">
         <f t="shared" si="8"/>
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="S27" s="15">
         <f t="shared" si="9"/>
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="T27" s="15">
         <f t="shared" si="10"/>
-        <v>67.864923747276691</v>
+        <v>116.33986928104576</v>
       </c>
       <c r="U27" s="15">
         <f t="shared" si="11"/>
-        <v>67.864923747276691</v>
+        <v>116.33986928104576</v>
       </c>
       <c r="V27" s="15">
         <f t="shared" si="12"/>
-        <v>67.864923747276663</v>
+        <v>116.33986928104576</v>
       </c>
       <c r="W27" s="16">
         <f t="shared" si="13"/>
-        <v>67.864923747276663</v>
+        <v>116.33986928104576</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="18">
+      <c r="A28" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="18">
         <v>43837</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>60</v>
-      </c>
       <c r="D28" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F28" s="19">
         <f>14600/7500</f>
@@ -3358,20 +3302,20 @@
       </c>
     </row>
     <row r="29" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="18">
+      <c r="A29" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="18">
         <v>43853</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>61</v>
-      </c>
       <c r="D29" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F29" s="19">
         <f>22950/18500</f>
@@ -3382,775 +3326,587 @@
       </c>
       <c r="H29" s="15">
         <f t="shared" si="15"/>
-        <v>483.66013071895424</v>
+        <v>403.05010893246185</v>
       </c>
       <c r="I29" s="15">
         <f t="shared" si="14"/>
-        <v>483.66013071895424</v>
+        <v>403.05010893246185</v>
       </c>
       <c r="J29" s="15">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K29" s="15">
         <f t="shared" si="1"/>
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L29" s="15">
         <f t="shared" si="2"/>
-        <v>696</v>
+        <v>580</v>
       </c>
       <c r="M29" s="15">
         <f t="shared" si="3"/>
-        <v>696</v>
+        <v>580</v>
       </c>
       <c r="N29" s="15">
         <f t="shared" si="4"/>
-        <v>840.4</v>
+        <v>707</v>
       </c>
       <c r="O29" s="15">
         <f t="shared" si="5"/>
-        <v>840.4</v>
+        <v>707</v>
       </c>
       <c r="P29" s="15">
         <f t="shared" si="6"/>
-        <v>109.39999999999999</v>
+        <v>92</v>
       </c>
       <c r="Q29" s="15">
         <f t="shared" si="7"/>
-        <v>109.39999999999999</v>
+        <v>92</v>
       </c>
       <c r="R29" s="15">
         <f t="shared" si="8"/>
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="S29" s="15">
         <f t="shared" si="9"/>
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="T29" s="15">
         <f t="shared" si="10"/>
-        <v>116.33986928104576</v>
+        <v>96.949891067538147</v>
       </c>
       <c r="U29" s="15">
         <f t="shared" si="11"/>
-        <v>116.33986928104576</v>
+        <v>96.949891067538147</v>
       </c>
       <c r="V29" s="15">
         <f t="shared" si="12"/>
-        <v>116.33986928104576</v>
+        <v>96.949891067538147</v>
       </c>
       <c r="W29" s="16">
         <f t="shared" si="13"/>
-        <v>116.33986928104576</v>
+        <v>96.949891067538147</v>
       </c>
     </row>
     <row r="30" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18">
+      <c r="A30" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="18">
+        <v>43853</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="19">
+        <f>22950/18500</f>
+        <v>1.2405405405405405</v>
+      </c>
+      <c r="G30" s="19">
+        <v>1</v>
+      </c>
+      <c r="H30" s="15">
+        <f t="shared" si="15"/>
+        <v>967.32026143790847</v>
+      </c>
+      <c r="I30" s="15">
+        <f t="shared" si="14"/>
+        <v>967.32026143790847</v>
+      </c>
+      <c r="J30" s="15">
+        <v>1200</v>
+      </c>
+      <c r="K30" s="15">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="L30" s="15">
+        <f t="shared" si="2"/>
+        <v>1392</v>
+      </c>
+      <c r="M30" s="15">
+        <f t="shared" si="3"/>
+        <v>1392</v>
+      </c>
+      <c r="N30" s="15">
+        <f t="shared" si="4"/>
+        <v>1640.8</v>
+      </c>
+      <c r="O30" s="15">
+        <f t="shared" si="5"/>
+        <v>1640.8</v>
+      </c>
+      <c r="P30" s="15">
+        <f t="shared" si="6"/>
+        <v>213.79999999999998</v>
+      </c>
+      <c r="Q30" s="15">
+        <f t="shared" si="7"/>
+        <v>213.79999999999998</v>
+      </c>
+      <c r="R30" s="15">
+        <f t="shared" si="8"/>
+        <v>192</v>
+      </c>
+      <c r="S30" s="15">
+        <f t="shared" si="9"/>
+        <v>192</v>
+      </c>
+      <c r="T30" s="15">
+        <f t="shared" si="10"/>
+        <v>232.67973856209153</v>
+      </c>
+      <c r="U30" s="15">
+        <f t="shared" si="11"/>
+        <v>232.67973856209153</v>
+      </c>
+      <c r="V30" s="15">
+        <f t="shared" si="12"/>
+        <v>232.67973856209153</v>
+      </c>
+      <c r="W30" s="16">
+        <f t="shared" si="13"/>
+        <v>232.67973856209153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="30">
+        <v>43853</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31">
+        <v>1</v>
+      </c>
+      <c r="H31" s="15">
+        <v>2500</v>
+      </c>
+      <c r="I31" s="15">
+        <f t="shared" si="14"/>
+        <v>2500</v>
+      </c>
+      <c r="J31" s="15">
+        <v>2500</v>
+      </c>
+      <c r="K31" s="15">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+      <c r="L31" s="15">
+        <f t="shared" si="2"/>
+        <v>2900</v>
+      </c>
+      <c r="M31" s="15">
+        <f t="shared" si="3"/>
+        <v>2900</v>
+      </c>
+      <c r="N31" s="15">
+        <f t="shared" si="4"/>
+        <v>3375</v>
+      </c>
+      <c r="O31" s="15">
+        <f t="shared" si="5"/>
+        <v>3375</v>
+      </c>
+      <c r="P31" s="15">
+        <f t="shared" si="6"/>
+        <v>440</v>
+      </c>
+      <c r="Q31" s="15">
+        <f t="shared" si="7"/>
+        <v>440</v>
+      </c>
+      <c r="R31" s="15">
+        <f t="shared" si="8"/>
+        <v>400</v>
+      </c>
+      <c r="S31" s="15">
+        <f t="shared" si="9"/>
+        <v>400</v>
+      </c>
+      <c r="T31" s="15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V31" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W31" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="18">
         <v>43837</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="19">
+      <c r="D32" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="19">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G32" s="19">
         <v>1</v>
       </c>
-      <c r="H30" s="15">
-        <f t="shared" si="15"/>
-        <v>128.42465753424656</v>
-      </c>
-      <c r="I30" s="15">
+      <c r="H32" s="15">
+        <f>J32/F32</f>
+        <v>1130.1369863013699</v>
+      </c>
+      <c r="I32" s="15">
         <f t="shared" si="14"/>
-        <v>128.42465753424656</v>
-      </c>
-      <c r="J30" s="15">
-        <v>250</v>
-      </c>
-      <c r="K30" s="15">
+        <v>1130.1369863013699</v>
+      </c>
+      <c r="J32" s="15">
+        <v>2200</v>
+      </c>
+      <c r="K32" s="15">
         <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-      <c r="L30" s="15">
+        <v>2200</v>
+      </c>
+      <c r="L32" s="15">
         <f t="shared" si="2"/>
-        <v>290</v>
-      </c>
-      <c r="M30" s="15">
+        <v>2552</v>
+      </c>
+      <c r="M32" s="15">
         <f t="shared" si="3"/>
-        <v>290</v>
-      </c>
-      <c r="N30" s="15">
+        <v>2552</v>
+      </c>
+      <c r="N32" s="15">
         <f t="shared" si="4"/>
-        <v>373.5</v>
-      </c>
-      <c r="O30" s="15">
+        <v>2974.8</v>
+      </c>
+      <c r="O32" s="15">
         <f t="shared" si="5"/>
-        <v>373.5</v>
-      </c>
-      <c r="P30" s="15">
+        <v>2974.8</v>
+      </c>
+      <c r="P32" s="15">
         <f t="shared" si="6"/>
-        <v>48.5</v>
-      </c>
-      <c r="Q30" s="15">
+        <v>387.8</v>
+      </c>
+      <c r="Q32" s="15">
         <f t="shared" si="7"/>
-        <v>48.5</v>
-      </c>
-      <c r="R30" s="15">
+        <v>387.8</v>
+      </c>
+      <c r="R32" s="15">
         <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="S30" s="15">
+        <v>352</v>
+      </c>
+      <c r="S32" s="15">
         <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="T30" s="15">
+        <v>352</v>
+      </c>
+      <c r="T32" s="15">
         <f t="shared" si="10"/>
-        <v>121.57534246575344</v>
-      </c>
-      <c r="U30" s="15">
+        <v>1069.8630136986301</v>
+      </c>
+      <c r="U32" s="15">
         <f t="shared" si="11"/>
-        <v>121.57534246575344</v>
-      </c>
-      <c r="V30" s="15">
+        <v>1069.8630136986301</v>
+      </c>
+      <c r="V32" s="15">
         <f t="shared" si="12"/>
-        <v>121.57534246575344</v>
-      </c>
-      <c r="W30" s="16">
+        <v>1069.8630136986303</v>
+      </c>
+      <c r="W32" s="16">
         <f t="shared" si="13"/>
-        <v>121.57534246575344</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="18">
+        <v>1069.8630136986303</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="18">
         <v>43853</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="19">
+      <c r="D33" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="19">
         <f>22950/18500</f>
         <v>1.2405405405405405</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G33" s="19">
         <v>1</v>
       </c>
-      <c r="H31" s="15">
-        <f t="shared" si="15"/>
+      <c r="H33" s="15">
+        <f>J33/F33</f>
         <v>403.05010893246185</v>
       </c>
-      <c r="I31" s="15">
+      <c r="I33" s="15">
         <f t="shared" si="14"/>
         <v>403.05010893246185</v>
       </c>
-      <c r="J31" s="15">
+      <c r="J33" s="15">
         <v>500</v>
       </c>
-      <c r="K31" s="15">
+      <c r="K33" s="15">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="L31" s="15">
+      <c r="L33" s="15">
         <f t="shared" si="2"/>
         <v>580</v>
       </c>
-      <c r="M31" s="15">
+      <c r="M33" s="15">
         <f t="shared" si="3"/>
         <v>580</v>
       </c>
-      <c r="N31" s="15">
+      <c r="N33" s="15">
         <f t="shared" si="4"/>
         <v>707</v>
       </c>
-      <c r="O31" s="15">
+      <c r="O33" s="15">
         <f t="shared" si="5"/>
         <v>707</v>
       </c>
-      <c r="P31" s="15">
+      <c r="P33" s="15">
         <f t="shared" si="6"/>
         <v>92</v>
       </c>
-      <c r="Q31" s="15">
+      <c r="Q33" s="15">
         <f t="shared" si="7"/>
         <v>92</v>
       </c>
-      <c r="R31" s="15">
+      <c r="R33" s="15">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="S31" s="15">
+      <c r="S33" s="15">
         <f t="shared" si="9"/>
         <v>80</v>
       </c>
-      <c r="T31" s="15">
+      <c r="T33" s="15">
         <f t="shared" si="10"/>
         <v>96.949891067538147</v>
       </c>
-      <c r="U31" s="15">
+      <c r="U33" s="15">
         <f t="shared" si="11"/>
         <v>96.949891067538147</v>
       </c>
-      <c r="V31" s="15">
+      <c r="V33" s="15">
         <f t="shared" si="12"/>
         <v>96.949891067538147</v>
       </c>
-      <c r="W31" s="16">
+      <c r="W33" s="16">
         <f t="shared" si="13"/>
         <v>96.949891067538147</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18">
-        <v>43853</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" s="19">
-        <f>22950/18500</f>
-        <v>1.2405405405405405</v>
-      </c>
-      <c r="G32" s="19">
-        <v>1</v>
-      </c>
-      <c r="H32" s="15">
-        <f t="shared" si="15"/>
-        <v>967.32026143790847</v>
-      </c>
-      <c r="I32" s="15">
-        <f t="shared" si="14"/>
-        <v>967.32026143790847</v>
-      </c>
-      <c r="J32" s="15">
-        <v>1200</v>
-      </c>
-      <c r="K32" s="15">
-        <f t="shared" si="1"/>
-        <v>1200</v>
-      </c>
-      <c r="L32" s="15">
-        <f t="shared" si="2"/>
-        <v>1392</v>
-      </c>
-      <c r="M32" s="15">
-        <f t="shared" si="3"/>
-        <v>1392</v>
-      </c>
-      <c r="N32" s="15">
-        <f t="shared" si="4"/>
-        <v>1640.8</v>
-      </c>
-      <c r="O32" s="15">
-        <f t="shared" si="5"/>
-        <v>1640.8</v>
-      </c>
-      <c r="P32" s="15">
-        <f t="shared" si="6"/>
-        <v>213.79999999999998</v>
-      </c>
-      <c r="Q32" s="15">
-        <f t="shared" si="7"/>
-        <v>213.79999999999998</v>
-      </c>
-      <c r="R32" s="15">
-        <f t="shared" si="8"/>
-        <v>192</v>
-      </c>
-      <c r="S32" s="15">
-        <f t="shared" si="9"/>
-        <v>192</v>
-      </c>
-      <c r="T32" s="15">
-        <f t="shared" si="10"/>
-        <v>232.67973856209153</v>
-      </c>
-      <c r="U32" s="15">
-        <f t="shared" si="11"/>
-        <v>232.67973856209153</v>
-      </c>
-      <c r="V32" s="15">
-        <f t="shared" si="12"/>
-        <v>232.67973856209153</v>
-      </c>
-      <c r="W32" s="16">
-        <f t="shared" si="13"/>
-        <v>232.67973856209153</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30">
-        <v>43853</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31">
-        <v>1</v>
-      </c>
-      <c r="H33" s="15">
-        <v>2500</v>
-      </c>
-      <c r="I33" s="15">
-        <f t="shared" si="14"/>
-        <v>2500</v>
-      </c>
-      <c r="J33" s="15">
-        <v>2500</v>
-      </c>
-      <c r="K33" s="15">
-        <f t="shared" si="1"/>
-        <v>2500</v>
-      </c>
-      <c r="L33" s="15">
-        <f t="shared" si="2"/>
-        <v>2900</v>
-      </c>
-      <c r="M33" s="15">
-        <f t="shared" si="3"/>
-        <v>2900</v>
-      </c>
-      <c r="N33" s="15">
-        <f t="shared" si="4"/>
-        <v>3375</v>
-      </c>
-      <c r="O33" s="15">
-        <f t="shared" si="5"/>
-        <v>3375</v>
-      </c>
-      <c r="P33" s="15">
-        <f t="shared" si="6"/>
-        <v>440</v>
-      </c>
-      <c r="Q33" s="15">
-        <f t="shared" si="7"/>
-        <v>440</v>
-      </c>
-      <c r="R33" s="15">
-        <f t="shared" si="8"/>
-        <v>400</v>
-      </c>
-      <c r="S33" s="15">
-        <f t="shared" si="9"/>
-        <v>400</v>
-      </c>
-      <c r="T33" s="15">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U33" s="15">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V33" s="15">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W33" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="34" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="18">
-        <v>43837</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" s="19">
-        <f>14600/7500</f>
-        <v>1.9466666666666668</v>
-      </c>
-      <c r="G34" s="19">
-        <v>1</v>
-      </c>
-      <c r="H34" s="15">
-        <f>J34/F34</f>
-        <v>1130.1369863013699</v>
-      </c>
-      <c r="I34" s="15">
-        <f t="shared" si="14"/>
-        <v>1130.1369863013699</v>
-      </c>
-      <c r="J34" s="15">
-        <v>2200</v>
-      </c>
-      <c r="K34" s="15">
-        <f t="shared" si="1"/>
-        <v>2200</v>
-      </c>
-      <c r="L34" s="15">
-        <f t="shared" si="2"/>
-        <v>2552</v>
-      </c>
-      <c r="M34" s="15">
-        <f t="shared" si="3"/>
-        <v>2552</v>
-      </c>
-      <c r="N34" s="15">
-        <f t="shared" si="4"/>
-        <v>2974.8</v>
-      </c>
-      <c r="O34" s="15">
-        <f t="shared" si="5"/>
-        <v>2974.8</v>
-      </c>
-      <c r="P34" s="15">
-        <f t="shared" si="6"/>
-        <v>387.8</v>
-      </c>
-      <c r="Q34" s="15">
-        <f t="shared" si="7"/>
-        <v>387.8</v>
-      </c>
-      <c r="R34" s="15">
-        <f t="shared" si="8"/>
-        <v>352</v>
-      </c>
-      <c r="S34" s="15">
-        <f t="shared" si="9"/>
-        <v>352</v>
-      </c>
-      <c r="T34" s="15">
-        <f t="shared" si="10"/>
-        <v>1069.8630136986301</v>
-      </c>
-      <c r="U34" s="15">
-        <f t="shared" si="11"/>
-        <v>1069.8630136986301</v>
-      </c>
-      <c r="V34" s="15">
-        <f t="shared" si="12"/>
-        <v>1069.8630136986303</v>
-      </c>
-      <c r="W34" s="16">
-        <f t="shared" si="13"/>
-        <v>1069.8630136986303</v>
+      <c r="A34" s="23"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26">
+        <f>SUM(I2:I33)</f>
+        <v>37721.034456382244</v>
+      </c>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26">
+        <f>SUM(K2:K33)</f>
+        <v>60170</v>
+      </c>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26">
+        <f>SUM(M2:M33)</f>
+        <v>69797.2</v>
+      </c>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26">
+        <f>SUM(O2:O33)</f>
+        <v>91826.78</v>
+      </c>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26">
+        <f>SUM(Q2:Q33)</f>
+        <v>11914.580000000002</v>
+      </c>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26">
+        <f>SUM(S2:S33)</f>
+        <v>9627.2000000000007</v>
+      </c>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26">
+        <f>SUM(U2:U33)</f>
+        <v>22448.965543617753</v>
+      </c>
+      <c r="V34" s="26"/>
+      <c r="W34" s="27">
+        <f>SUM(W2:W33)</f>
+        <v>22448.965543617756</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="18">
-        <v>43853</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" s="19">
-        <f>22950/18500</f>
-        <v>1.2405405405405405</v>
-      </c>
-      <c r="G35" s="19">
-        <v>1</v>
-      </c>
-      <c r="H35" s="15">
-        <f>J35/F35</f>
-        <v>403.05010893246185</v>
-      </c>
-      <c r="I35" s="15">
-        <f t="shared" si="14"/>
-        <v>403.05010893246185</v>
-      </c>
-      <c r="J35" s="15">
-        <v>500</v>
-      </c>
-      <c r="K35" s="15">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="L35" s="15">
-        <f t="shared" si="2"/>
-        <v>580</v>
-      </c>
-      <c r="M35" s="15">
-        <f t="shared" si="3"/>
-        <v>580</v>
-      </c>
-      <c r="N35" s="15">
-        <f t="shared" si="4"/>
-        <v>707</v>
-      </c>
-      <c r="O35" s="15">
-        <f t="shared" si="5"/>
-        <v>707</v>
-      </c>
-      <c r="P35" s="15">
-        <f t="shared" si="6"/>
-        <v>92</v>
-      </c>
-      <c r="Q35" s="15">
-        <f t="shared" si="7"/>
-        <v>92</v>
-      </c>
-      <c r="R35" s="15">
-        <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="S35" s="15">
-        <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="T35" s="15">
-        <f t="shared" si="10"/>
-        <v>96.949891067538147</v>
-      </c>
-      <c r="U35" s="15">
-        <f t="shared" si="11"/>
-        <v>96.949891067538147</v>
-      </c>
-      <c r="V35" s="15">
-        <f t="shared" si="12"/>
-        <v>96.949891067538147</v>
-      </c>
-      <c r="W35" s="16">
-        <f t="shared" si="13"/>
-        <v>96.949891067538147</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="5"/>
     </row>
     <row r="36" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="18">
-        <v>43837</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F36" s="19">
-        <f>14600/7500</f>
-        <v>1.9466666666666668</v>
-      </c>
-      <c r="G36" s="19">
-        <v>1</v>
-      </c>
-      <c r="H36" s="15">
-        <f>J36/F36</f>
-        <v>205.47945205479451</v>
-      </c>
-      <c r="I36" s="15">
-        <f t="shared" si="14"/>
-        <v>205.47945205479451</v>
-      </c>
-      <c r="J36" s="15">
-        <v>400</v>
-      </c>
-      <c r="K36" s="15">
-        <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="L36" s="15">
-        <f t="shared" si="2"/>
-        <v>464</v>
-      </c>
-      <c r="M36" s="15">
-        <f t="shared" si="3"/>
-        <v>464</v>
-      </c>
-      <c r="N36" s="15">
-        <f t="shared" si="4"/>
-        <v>573.6</v>
-      </c>
-      <c r="O36" s="15">
-        <f t="shared" si="5"/>
-        <v>573.6</v>
-      </c>
-      <c r="P36" s="15">
-        <f t="shared" si="6"/>
-        <v>74.599999999999994</v>
-      </c>
-      <c r="Q36" s="15">
-        <f t="shared" si="7"/>
-        <v>74.599999999999994</v>
-      </c>
-      <c r="R36" s="15">
-        <f t="shared" si="8"/>
-        <v>64</v>
-      </c>
-      <c r="S36" s="15">
-        <f t="shared" si="9"/>
-        <v>64</v>
-      </c>
-      <c r="T36" s="15">
-        <f t="shared" si="10"/>
-        <v>194.52054794520552</v>
-      </c>
-      <c r="U36" s="15">
-        <f t="shared" si="11"/>
-        <v>194.52054794520552</v>
-      </c>
-      <c r="V36" s="15">
-        <f t="shared" si="12"/>
-        <v>194.52054794520552</v>
-      </c>
-      <c r="W36" s="16">
-        <f t="shared" si="13"/>
-        <v>194.52054794520552</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>99</v>
-      </c>
-      <c r="B37" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" t="s">
-        <v>100</v>
-      </c>
-      <c r="E37" t="s">
-        <v>101</v>
-      </c>
-      <c r="F37" t="s">
-        <v>102</v>
-      </c>
-      <c r="G37" t="s">
-        <v>103</v>
-      </c>
-      <c r="H37" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="0">
-        <v>109</v>
-      </c>
-      <c r="B38" t="s" s="0">
-        <v>110</v>
-      </c>
-      <c r="C38" t="s" s="0">
-        <v>111</v>
-      </c>
-      <c r="D38" t="s" s="0">
-        <v>100</v>
-      </c>
-      <c r="E38" t="s" s="0">
-        <v>101</v>
-      </c>
-      <c r="F38" t="s" s="0">
-        <v>112</v>
-      </c>
-      <c r="G38" t="s" s="0">
-        <v>103</v>
-      </c>
-      <c r="H38" t="s" s="0">
-        <v>113</v>
-      </c>
+      <c r="A36" s="3"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="2"/>
     </row>
     <row r="39" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="24"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26">
-        <f>SUM(I2:I36)</f>
-        <v>38781.993360491833</v>
-      </c>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26">
-        <f>SUM(K2:K36)</f>
-        <v>61620</v>
-      </c>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26">
-        <f>SUM(M2:M36)</f>
-        <v>71479.199999999997</v>
-      </c>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26">
-        <f>SUM(O2:O36)</f>
-        <v>93881.08</v>
-      </c>
-      <c r="P39" s="26"/>
-      <c r="Q39" s="26">
-        <f>SUM(Q2:Q36)</f>
-        <v>12181.880000000003</v>
-      </c>
-      <c r="R39" s="26"/>
-      <c r="S39" s="26">
-        <f>SUM(S2:S36)</f>
-        <v>9859.2000000000007</v>
-      </c>
-      <c r="T39" s="26"/>
-      <c r="U39" s="26">
-        <f>SUM(U2:U36)</f>
-        <v>22838.006639508163</v>
-      </c>
-      <c r="V39" s="26"/>
-      <c r="W39" s="27">
-        <f>SUM(W2:W36)</f>
-        <v>22838.006639508167</v>
-      </c>
+      <c r="A39" s="3"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="2"/>
     </row>
     <row r="40" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
-      <c r="B40" s="1"/>
+      <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -4170,12 +3926,12 @@
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
-      <c r="W40" s="5"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="2"/>
     </row>
     <row r="41" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
+      <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -4200,7 +3956,7 @@
     </row>
     <row r="42" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
+      <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -4225,7 +3981,7 @@
     </row>
     <row r="43" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
+      <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -4250,7 +4006,7 @@
     </row>
     <row r="44" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
+      <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -4275,7 +4031,7 @@
     </row>
     <row r="45" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
+      <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4300,7 +4056,7 @@
     </row>
     <row r="46" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
+      <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -4325,7 +4081,7 @@
     </row>
     <row r="47" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
+      <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -4350,7 +4106,7 @@
     </row>
     <row r="48" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
+      <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -4375,7 +4131,7 @@
     </row>
     <row r="49" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
+      <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -4400,7 +4156,7 @@
     </row>
     <row r="50" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
+      <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -4425,7 +4181,7 @@
     </row>
     <row r="51" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
+      <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -4450,7 +4206,7 @@
     </row>
     <row r="52" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
+      <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -4475,7 +4231,7 @@
     </row>
     <row r="53" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
+      <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -4500,7 +4256,7 @@
     </row>
     <row r="54" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
+      <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -4525,7 +4281,7 @@
     </row>
     <row r="55" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
+      <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -4550,7 +4306,7 @@
     </row>
     <row r="56" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
+      <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -4575,7 +4331,7 @@
     </row>
     <row r="57" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
+      <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -4600,7 +4356,7 @@
     </row>
     <row r="58" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
+      <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -4625,7 +4381,7 @@
     </row>
     <row r="59" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
+      <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -4650,7 +4406,7 @@
     </row>
     <row r="60" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
+      <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -4675,7 +4431,7 @@
     </row>
     <row r="61" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
+      <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -4700,7 +4456,7 @@
     </row>
     <row r="62" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
+      <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -4725,7 +4481,7 @@
     </row>
     <row r="63" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
+      <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -4750,7 +4506,7 @@
     </row>
     <row r="64" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
+      <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -4775,7 +4531,7 @@
     </row>
     <row r="65" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
+      <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -4800,7 +4556,7 @@
     </row>
     <row r="66" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
+      <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -4825,7 +4581,7 @@
     </row>
     <row r="67" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
+      <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -4850,7 +4606,7 @@
     </row>
     <row r="68" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
+      <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -4875,7 +4631,7 @@
     </row>
     <row r="69" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
+      <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -4900,7 +4656,7 @@
     </row>
     <row r="70" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
+      <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -4925,7 +4681,7 @@
     </row>
     <row r="71" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
+      <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -4950,7 +4706,7 @@
     </row>
     <row r="72" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
+      <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -4975,7 +4731,7 @@
     </row>
     <row r="73" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
+      <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -5000,7 +4756,7 @@
     </row>
     <row r="74" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
+      <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -5025,7 +4781,7 @@
     </row>
     <row r="75" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
+      <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -5050,7 +4806,7 @@
     </row>
     <row r="76" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
+      <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -5075,7 +4831,7 @@
     </row>
     <row r="77" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
+      <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -5100,7 +4856,7 @@
     </row>
     <row r="78" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
+      <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -5125,7 +4881,7 @@
     </row>
     <row r="79" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
+      <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -5150,7 +4906,7 @@
     </row>
     <row r="80" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
+      <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -5175,7 +4931,7 @@
     </row>
     <row r="81" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
+      <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -5200,7 +4956,7 @@
     </row>
     <row r="82" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
+      <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -5225,7 +4981,7 @@
     </row>
     <row r="83" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
+      <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -5250,7 +5006,7 @@
     </row>
     <row r="84" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
+      <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -5275,7 +5031,7 @@
     </row>
     <row r="85" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
+      <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -5300,7 +5056,7 @@
     </row>
     <row r="86" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
+      <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -5325,7 +5081,7 @@
     </row>
     <row r="87" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
+      <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -5350,7 +5106,7 @@
     </row>
     <row r="88" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
+      <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -5375,7 +5131,7 @@
     </row>
     <row r="89" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
+      <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -5400,7 +5156,7 @@
     </row>
     <row r="90" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
+      <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -5425,7 +5181,7 @@
     </row>
     <row r="91" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
+      <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -5450,7 +5206,7 @@
     </row>
     <row r="92" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
+      <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -5475,7 +5231,7 @@
     </row>
     <row r="93" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
+      <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -5500,7 +5256,7 @@
     </row>
     <row r="94" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
+      <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -5525,7 +5281,7 @@
     </row>
     <row r="95" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
+      <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -5550,7 +5306,7 @@
     </row>
     <row r="96" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
+      <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -5575,7 +5331,7 @@
     </row>
     <row r="97" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
+      <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -5598,9 +5354,9 @@
       <c r="V97" s="3"/>
       <c r="W97" s="2"/>
     </row>
-    <row r="98" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
+      <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -5623,9 +5379,9 @@
       <c r="V98" s="3"/>
       <c r="W98" s="2"/>
     </row>
-    <row r="99" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
+      <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -5650,7 +5406,7 @@
     </row>
     <row r="100" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
+      <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -5675,7 +5431,7 @@
     </row>
     <row r="101" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
+      <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -5700,7 +5456,7 @@
     </row>
     <row r="102" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
+      <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -5725,7 +5481,7 @@
     </row>
     <row r="103" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
+      <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -5750,7 +5506,7 @@
     </row>
     <row r="104" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
+      <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -5775,7 +5531,7 @@
     </row>
     <row r="105" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
+      <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -5800,7 +5556,7 @@
     </row>
     <row r="106" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
+      <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -5825,7 +5581,7 @@
     </row>
     <row r="107" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
+      <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -5850,7 +5606,7 @@
     </row>
     <row r="108" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
+      <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -5875,7 +5631,7 @@
     </row>
     <row r="109" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
+      <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -5900,7 +5656,7 @@
     </row>
     <row r="110" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
+      <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -5925,7 +5681,7 @@
     </row>
     <row r="111" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
+      <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -5950,7 +5706,7 @@
     </row>
     <row r="112" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
+      <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -5975,7 +5731,7 @@
     </row>
     <row r="113" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
+      <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -6000,7 +5756,7 @@
     </row>
     <row r="114" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
+      <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -6025,7 +5781,7 @@
     </row>
     <row r="115" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
+      <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -6050,7 +5806,7 @@
     </row>
     <row r="116" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
+      <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -6075,7 +5831,7 @@
     </row>
     <row r="117" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
+      <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -6100,7 +5856,7 @@
     </row>
     <row r="118" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
+      <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -6125,7 +5881,7 @@
     </row>
     <row r="119" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
+      <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -6150,7 +5906,7 @@
     </row>
     <row r="120" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
+      <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -6175,7 +5931,7 @@
     </row>
     <row r="121" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
+      <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -6200,7 +5956,7 @@
     </row>
     <row r="122" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
+      <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -6225,7 +5981,7 @@
     </row>
     <row r="123" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
+      <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -6250,7 +6006,7 @@
     </row>
     <row r="124" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
+      <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -6275,7 +6031,7 @@
     </row>
     <row r="125" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
+      <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -6300,7 +6056,7 @@
     </row>
     <row r="126" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
+      <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -6325,7 +6081,7 @@
     </row>
     <row r="127" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
+      <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -6350,7 +6106,7 @@
     </row>
     <row r="128" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
+      <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -6375,7 +6131,7 @@
     </row>
     <row r="129" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
+      <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -6400,7 +6156,7 @@
     </row>
     <row r="130" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
+      <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -6425,7 +6181,7 @@
     </row>
     <row r="131" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
+      <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -6450,7 +6206,7 @@
     </row>
     <row r="132" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
+      <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -6475,7 +6231,7 @@
     </row>
     <row r="133" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
+      <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -6500,7 +6256,7 @@
     </row>
     <row r="134" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
+      <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -6525,7 +6281,7 @@
     </row>
     <row r="135" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
+      <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -6550,7 +6306,7 @@
     </row>
     <row r="136" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
+      <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -6575,7 +6331,7 @@
     </row>
     <row r="137" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3"/>
-      <c r="B137" s="3"/>
+      <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -6600,7 +6356,7 @@
     </row>
     <row r="138" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
+      <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -6625,7 +6381,7 @@
     </row>
     <row r="139" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
+      <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -6650,7 +6406,7 @@
     </row>
     <row r="140" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
+      <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -6675,7 +6431,7 @@
     </row>
     <row r="141" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
+      <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -6700,7 +6456,7 @@
     </row>
     <row r="142" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
+      <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -6725,7 +6481,7 @@
     </row>
     <row r="143" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
+      <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -6750,7 +6506,7 @@
     </row>
     <row r="144" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
+      <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -6775,7 +6531,7 @@
     </row>
     <row r="145" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
+      <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -6800,7 +6556,7 @@
     </row>
     <row r="146" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
+      <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -6825,7 +6581,7 @@
     </row>
     <row r="147" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3"/>
-      <c r="B147" s="3"/>
+      <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -6850,7 +6606,7 @@
     </row>
     <row r="148" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
+      <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -6875,7 +6631,7 @@
     </row>
     <row r="149" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3"/>
-      <c r="B149" s="3"/>
+      <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -6900,7 +6656,7 @@
     </row>
     <row r="150" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3"/>
-      <c r="B150" s="3"/>
+      <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -6925,7 +6681,7 @@
     </row>
     <row r="151" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3"/>
-      <c r="B151" s="3"/>
+      <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -6950,7 +6706,7 @@
     </row>
     <row r="152" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3"/>
-      <c r="B152" s="3"/>
+      <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -6975,7 +6731,7 @@
     </row>
     <row r="153" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3"/>
-      <c r="B153" s="3"/>
+      <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -7000,7 +6756,7 @@
     </row>
     <row r="154" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3"/>
-      <c r="B154" s="3"/>
+      <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -7025,7 +6781,7 @@
     </row>
     <row r="155" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3"/>
-      <c r="B155" s="3"/>
+      <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -7050,7 +6806,7 @@
     </row>
     <row r="156" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3"/>
-      <c r="B156" s="3"/>
+      <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -7075,7 +6831,7 @@
     </row>
     <row r="157" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3"/>
-      <c r="B157" s="3"/>
+      <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -7100,7 +6856,7 @@
     </row>
     <row r="158" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3"/>
-      <c r="B158" s="3"/>
+      <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -7125,7 +6881,7 @@
     </row>
     <row r="159" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3"/>
-      <c r="B159" s="3"/>
+      <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -7150,7 +6906,7 @@
     </row>
     <row r="160" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
+      <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -7175,7 +6931,7 @@
     </row>
     <row r="161" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3"/>
-      <c r="B161" s="3"/>
+      <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -7200,7 +6956,7 @@
     </row>
     <row r="162" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3"/>
-      <c r="B162" s="3"/>
+      <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -7225,7 +6981,7 @@
     </row>
     <row r="163" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
+      <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -7250,7 +7006,7 @@
     </row>
     <row r="164" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
+      <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -7275,7 +7031,7 @@
     </row>
     <row r="165" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3"/>
-      <c r="B165" s="3"/>
+      <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -7300,7 +7056,7 @@
     </row>
     <row r="166" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3"/>
-      <c r="B166" s="3"/>
+      <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -7325,7 +7081,7 @@
     </row>
     <row r="167" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3"/>
-      <c r="B167" s="3"/>
+      <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -7350,7 +7106,7 @@
     </row>
     <row r="168" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3"/>
-      <c r="B168" s="3"/>
+      <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -7375,7 +7131,7 @@
     </row>
     <row r="169" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3"/>
-      <c r="B169" s="3"/>
+      <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -7400,7 +7156,7 @@
     </row>
     <row r="170" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3"/>
-      <c r="B170" s="3"/>
+      <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -7425,7 +7181,7 @@
     </row>
     <row r="171" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3"/>
-      <c r="B171" s="3"/>
+      <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -7450,7 +7206,7 @@
     </row>
     <row r="172" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3"/>
-      <c r="B172" s="3"/>
+      <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -7475,7 +7231,7 @@
     </row>
     <row r="173" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3"/>
-      <c r="B173" s="3"/>
+      <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -7500,7 +7256,7 @@
     </row>
     <row r="174" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3"/>
-      <c r="B174" s="3"/>
+      <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -7525,7 +7281,7 @@
     </row>
     <row r="175" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3"/>
-      <c r="B175" s="3"/>
+      <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -7550,7 +7306,7 @@
     </row>
     <row r="176" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3"/>
-      <c r="B176" s="3"/>
+      <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -7575,7 +7331,7 @@
     </row>
     <row r="177" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3"/>
-      <c r="B177" s="3"/>
+      <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -7600,7 +7356,7 @@
     </row>
     <row r="178" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3"/>
-      <c r="B178" s="3"/>
+      <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -7625,7 +7381,7 @@
     </row>
     <row r="179" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3"/>
-      <c r="B179" s="3"/>
+      <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -7650,7 +7406,7 @@
     </row>
     <row r="180" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3"/>
-      <c r="B180" s="3"/>
+      <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -7675,7 +7431,7 @@
     </row>
     <row r="181" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3"/>
-      <c r="B181" s="3"/>
+      <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -7700,7 +7456,7 @@
     </row>
     <row r="182" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3"/>
-      <c r="B182" s="3"/>
+      <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -7725,7 +7481,7 @@
     </row>
     <row r="183" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3"/>
-      <c r="B183" s="3"/>
+      <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -7750,7 +7506,7 @@
     </row>
     <row r="184" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3"/>
-      <c r="B184" s="3"/>
+      <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -7775,7 +7531,7 @@
     </row>
     <row r="185" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3"/>
-      <c r="B185" s="3"/>
+      <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -7800,7 +7556,7 @@
     </row>
     <row r="186" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3"/>
-      <c r="B186" s="3"/>
+      <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -7825,7 +7581,7 @@
     </row>
     <row r="187" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3"/>
-      <c r="B187" s="3"/>
+      <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -7850,7 +7606,7 @@
     </row>
     <row r="188" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3"/>
-      <c r="B188" s="3"/>
+      <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -7875,7 +7631,7 @@
     </row>
     <row r="189" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3"/>
-      <c r="B189" s="3"/>
+      <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -7900,7 +7656,7 @@
     </row>
     <row r="190" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3"/>
-      <c r="B190" s="3"/>
+      <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -7925,7 +7681,7 @@
     </row>
     <row r="191" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3"/>
-      <c r="B191" s="3"/>
+      <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -7950,7 +7706,7 @@
     </row>
     <row r="192" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3"/>
-      <c r="B192" s="3"/>
+      <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -7975,7 +7731,7 @@
     </row>
     <row r="193" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3"/>
-      <c r="B193" s="3"/>
+      <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -8000,7 +7756,7 @@
     </row>
     <row r="194" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3"/>
-      <c r="B194" s="3"/>
+      <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -8025,7 +7781,7 @@
     </row>
     <row r="195" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3"/>
-      <c r="B195" s="3"/>
+      <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -8050,7 +7806,7 @@
     </row>
     <row r="196" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3"/>
-      <c r="B196" s="3"/>
+      <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -8075,7 +7831,7 @@
     </row>
     <row r="197" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3"/>
-      <c r="B197" s="3"/>
+      <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -8100,7 +7856,7 @@
     </row>
     <row r="198" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3"/>
-      <c r="B198" s="3"/>
+      <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -8125,7 +7881,7 @@
     </row>
     <row r="199" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3"/>
-      <c r="B199" s="3"/>
+      <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -8150,7 +7906,7 @@
     </row>
     <row r="200" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3"/>
-      <c r="B200" s="3"/>
+      <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -8175,7 +7931,7 @@
     </row>
     <row r="201" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3"/>
-      <c r="B201" s="3"/>
+      <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -8200,7 +7956,7 @@
     </row>
     <row r="202" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="3"/>
-      <c r="B202" s="3"/>
+      <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -8225,7 +7981,7 @@
     </row>
     <row r="203" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="3"/>
-      <c r="B203" s="3"/>
+      <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -8250,7 +8006,7 @@
     </row>
     <row r="204" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="3"/>
-      <c r="B204" s="3"/>
+      <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -8275,7 +8031,7 @@
     </row>
     <row r="205" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="3"/>
-      <c r="B205" s="3"/>
+      <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -8300,7 +8056,7 @@
     </row>
     <row r="206" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="3"/>
-      <c r="B206" s="3"/>
+      <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -8325,7 +8081,7 @@
     </row>
     <row r="207" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="3"/>
-      <c r="B207" s="3"/>
+      <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -8348,61 +8104,11 @@
       <c r="V207" s="3"/>
       <c r="W207" s="2"/>
     </row>
-    <row r="208" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="3"/>
-      <c r="B208" s="3"/>
-      <c r="C208" s="2"/>
-      <c r="D208" s="3"/>
-      <c r="E208" s="3"/>
-      <c r="F208" s="3"/>
-      <c r="G208" s="3"/>
-      <c r="H208" s="3"/>
-      <c r="I208" s="3"/>
-      <c r="J208" s="4"/>
-      <c r="K208" s="4"/>
-      <c r="L208" s="4"/>
-      <c r="M208" s="4"/>
-      <c r="N208" s="4"/>
-      <c r="O208" s="4"/>
-      <c r="P208" s="4"/>
-      <c r="Q208" s="4"/>
-      <c r="R208" s="4"/>
-      <c r="S208" s="4"/>
-      <c r="T208" s="4"/>
-      <c r="U208" s="4"/>
-      <c r="V208" s="3"/>
-      <c r="W208" s="2"/>
-    </row>
-    <row r="209" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="3"/>
-      <c r="B209" s="3"/>
-      <c r="C209" s="2"/>
-      <c r="D209" s="3"/>
-      <c r="E209" s="3"/>
-      <c r="F209" s="3"/>
-      <c r="G209" s="3"/>
-      <c r="H209" s="3"/>
-      <c r="I209" s="3"/>
-      <c r="J209" s="4"/>
-      <c r="K209" s="4"/>
-      <c r="L209" s="4"/>
-      <c r="M209" s="4"/>
-      <c r="N209" s="4"/>
-      <c r="O209" s="4"/>
-      <c r="P209" s="4"/>
-      <c r="Q209" s="4"/>
-      <c r="R209" s="4"/>
-      <c r="S209" s="4"/>
-      <c r="T209" s="4"/>
-      <c r="U209" s="4"/>
-      <c r="V209" s="3"/>
-      <c r="W209" s="2"/>
-    </row>
-    <row r="210" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="45" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:W36">
-    <sortCondition ref="B2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W33">
+    <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/JavaApplication19/src/excel/Inventario.xlsx
+++ b/JavaApplication19/src/excel/Inventario.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\Excels\"/>
     </mc:Choice>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -301,6 +301,9 @@
   </si>
   <si>
     <t>PRECIO BASE UNIDAD</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
 </sst>
 </file>
@@ -968,9 +971,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="23" width="20.6640625" customWidth="1"/>
-    <col min="24" max="29" width="10.6640625" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
+    <col min="3" max="23" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="24" max="29" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -5286,7 +5289,9 @@
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
+      <c r="G95" t="s">
+        <v>91</v>
+      </c>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="4"/>

--- a/JavaApplication19/src/excel/Inventario.xlsx
+++ b/JavaApplication19/src/excel/Inventario.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="110">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -304,6 +304,60 @@
   </si>
   <si>
     <t>100</t>
+  </si>
+  <si>
+    <t>Bici</t>
+  </si>
+  <si>
+    <t>Talla L</t>
+  </si>
+  <si>
+    <t>28  julio 20</t>
+  </si>
+  <si>
+    <t>Nuevo</t>
+  </si>
+  <si>
+    <t>Shimano</t>
+  </si>
+  <si>
+    <t>0.6907826567500979</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10500</t>
+  </si>
+  <si>
+    <t>10500.0</t>
+  </si>
+  <si>
+    <t>15200.15</t>
+  </si>
+  <si>
+    <t>Bicicleta Fuji</t>
+  </si>
+  <si>
+    <t>Talla M, Rodada 25</t>
+  </si>
+  <si>
+    <t>Fuji</t>
+  </si>
+  <si>
+    <t>2.3076923076923075</t>
+  </si>
+  <si>
+    <t>5200</t>
+  </si>
+  <si>
+    <t>5200.0</t>
+  </si>
+  <si>
+    <t>12000</t>
+  </si>
+  <si>
+    <t>12000.0</t>
   </si>
 </sst>
 </file>
@@ -3733,107 +3787,127 @@
         <v>96.949891067538147</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26">
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="F34" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="G34" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="H34" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="I34" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="J34" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="K34" t="s" s="0">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="F35" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="G35" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="H35" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="I35" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="J35" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="K35" t="s" s="0">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="23"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26">
         <f>SUM(I2:I33)</f>
         <v>37721.034456382244</v>
       </c>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26">
+      <c r="J36" s="26"/>
+      <c r="K36" s="26">
         <f>SUM(K2:K33)</f>
         <v>60170</v>
       </c>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26">
+      <c r="L36" s="26"/>
+      <c r="M36" s="26">
         <f>SUM(M2:M33)</f>
         <v>69797.2</v>
       </c>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26">
+      <c r="N36" s="26"/>
+      <c r="O36" s="26">
         <f>SUM(O2:O33)</f>
         <v>91826.78</v>
       </c>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="26">
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26">
         <f>SUM(Q2:Q33)</f>
         <v>11914.580000000002</v>
       </c>
-      <c r="R34" s="26"/>
-      <c r="S34" s="26">
+      <c r="R36" s="26"/>
+      <c r="S36" s="26">
         <f>SUM(S2:S33)</f>
         <v>9627.2000000000007</v>
       </c>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26">
+      <c r="T36" s="26"/>
+      <c r="U36" s="26">
         <f>SUM(U2:U33)</f>
         <v>22448.965543617753</v>
       </c>
-      <c r="V34" s="26"/>
-      <c r="W34" s="27">
+      <c r="V36" s="26"/>
+      <c r="W36" s="27">
         <f>SUM(W2:W33)</f>
         <v>22448.965543617756</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="5"/>
-    </row>
-    <row r="36" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="2"/>
-    </row>
     <row r="37" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
+      <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="3"/>
@@ -3854,8 +3928,8 @@
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="2"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="5"/>
     </row>
     <row r="38" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>

--- a/JavaApplication19/src/excel/Inventario.xlsx
+++ b/JavaApplication19/src/excel/Inventario.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Desarrollo\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F446ED4-0085-4BD6-BCAC-FB201B550CF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B392252E-F9E6-4E95-A3D3-3A8BE20E9F4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3083" yWindow="0" windowWidth="21600" windowHeight="11498" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventario" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -561,7 +563,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="1" builtinId="21"/>
+    <cellStyle name="Salida" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -640,7 +642,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -963,20 +965,20 @@
   <dimension ref="A1:AC209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.46484375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="3" max="23" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="24" max="29" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="1" max="2" width="40.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="23" width="20.6640625" customWidth="1" collapsed="1"/>
+    <col min="24" max="29" width="10.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7"/>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -1045,7 +1047,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="s">
         <v>43</v>
       </c>
@@ -1060,7 +1062,7 @@
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
-      <c r="G2" s="14">
+      <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" s="15">
@@ -1126,7 +1128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
         <v>20</v>
       </c>
@@ -1207,7 +1209,7 @@
         <v>6.3948846218409017E-14</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
         <v>22</v>
       </c>
@@ -1288,7 +1290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="20" t="s">
         <v>24</v>
       </c>
@@ -1369,7 +1371,7 @@
         <v>1488.4099999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
         <v>44</v>
       </c>
@@ -1450,7 +1452,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="29" t="s">
         <v>41</v>
       </c>
@@ -1531,7 +1533,7 @@
         <v>9010</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
         <v>25</v>
       </c>
@@ -1612,7 +1614,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="12" t="s">
         <v>72</v>
       </c>
@@ -1699,7 +1701,7 @@
         <v>290.84967320261444</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
         <v>46</v>
       </c>
@@ -1779,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="12" t="s">
         <v>29</v>
       </c>
@@ -1866,7 +1868,7 @@
         <v>77.5599128540305</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
         <v>50</v>
       </c>
@@ -1953,7 +1955,7 @@
         <v>170.20547945205476</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="s">
         <v>73</v>
       </c>
@@ -2034,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="12" t="s">
         <v>30</v>
       </c>
@@ -2115,7 +2117,7 @@
         <v>2932.8000000000011</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="12" t="s">
         <v>85</v>
       </c>
@@ -2202,7 +2204,7 @@
         <v>243.15068493150687</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="12" t="s">
         <v>31</v>
       </c>
@@ -2289,7 +2291,7 @@
         <v>72.945205479452056</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="s">
         <v>32</v>
       </c>
@@ -2370,7 +2372,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="29" t="s">
         <v>33</v>
       </c>
@@ -2451,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
         <v>74</v>
       </c>
@@ -2538,7 +2540,7 @@
         <v>194.52054794520552</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="12" t="s">
         <v>75</v>
       </c>
@@ -2619,7 +2621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="12" t="s">
         <v>76</v>
       </c>
@@ -2706,7 +2708,7 @@
         <v>121.57534246575344</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="12" t="s">
         <v>77</v>
       </c>
@@ -2787,7 +2789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="12" t="s">
         <v>79</v>
       </c>
@@ -2868,7 +2870,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="12" t="s">
         <v>34</v>
       </c>
@@ -2956,7 +2958,7 @@
       </c>
       <c r="AC24" s="6"/>
     </row>
-    <row r="25" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="12" t="s">
         <v>35</v>
       </c>
@@ -3043,7 +3045,7 @@
         <v>67.864923747276663</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="12" t="s">
         <v>36</v>
       </c>
@@ -3130,7 +3132,7 @@
         <v>121.57534246575344</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="12" t="s">
         <v>37</v>
       </c>
@@ -3217,7 +3219,7 @@
         <v>116.33986928104576</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="12" t="s">
         <v>38</v>
       </c>
@@ -3304,7 +3306,7 @@
         <v>121.57534246575344</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="12" t="s">
         <v>39</v>
       </c>
@@ -3391,7 +3393,7 @@
         <v>96.949891067538147</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="12" t="s">
         <v>61</v>
       </c>
@@ -3478,7 +3480,7 @@
         <v>232.67973856209153</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="29" t="s">
         <v>63</v>
       </c>
@@ -3559,7 +3561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="12" t="s">
         <v>40</v>
       </c>
@@ -3646,7 +3648,7 @@
         <v>1069.8630136986303</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="12" t="s">
         <v>67</v>
       </c>
@@ -3733,7 +3735,7 @@
         <v>96.949891067538147</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="23"/>
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
@@ -3782,7 +3784,7 @@
         <v>22448.965543617756</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -3807,7 +3809,7 @@
       <c r="V35" s="4"/>
       <c r="W35" s="5"/>
     </row>
-    <row r="36" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -3832,7 +3834,7 @@
       <c r="V36" s="3"/>
       <c r="W36" s="2"/>
     </row>
-    <row r="37" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -3857,7 +3859,7 @@
       <c r="V37" s="3"/>
       <c r="W37" s="2"/>
     </row>
-    <row r="38" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -3882,7 +3884,7 @@
       <c r="V38" s="3"/>
       <c r="W38" s="2"/>
     </row>
-    <row r="39" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -3907,7 +3909,7 @@
       <c r="V39" s="3"/>
       <c r="W39" s="2"/>
     </row>
-    <row r="40" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -3932,7 +3934,7 @@
       <c r="V40" s="3"/>
       <c r="W40" s="2"/>
     </row>
-    <row r="41" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -3957,7 +3959,7 @@
       <c r="V41" s="3"/>
       <c r="W41" s="2"/>
     </row>
-    <row r="42" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3982,7 +3984,7 @@
       <c r="V42" s="3"/>
       <c r="W42" s="2"/>
     </row>
-    <row r="43" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -4007,7 +4009,7 @@
       <c r="V43" s="3"/>
       <c r="W43" s="2"/>
     </row>
-    <row r="44" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -4032,7 +4034,7 @@
       <c r="V44" s="3"/>
       <c r="W44" s="2"/>
     </row>
-    <row r="45" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -4057,7 +4059,7 @@
       <c r="V45" s="3"/>
       <c r="W45" s="2"/>
     </row>
-    <row r="46" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -4082,7 +4084,7 @@
       <c r="V46" s="3"/>
       <c r="W46" s="2"/>
     </row>
-    <row r="47" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -4107,7 +4109,7 @@
       <c r="V47" s="3"/>
       <c r="W47" s="2"/>
     </row>
-    <row r="48" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -4132,7 +4134,7 @@
       <c r="V48" s="3"/>
       <c r="W48" s="2"/>
     </row>
-    <row r="49" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="3"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -4157,7 +4159,7 @@
       <c r="V49" s="3"/>
       <c r="W49" s="2"/>
     </row>
-    <row r="50" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="3"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -4182,7 +4184,7 @@
       <c r="V50" s="3"/>
       <c r="W50" s="2"/>
     </row>
-    <row r="51" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -4207,7 +4209,7 @@
       <c r="V51" s="3"/>
       <c r="W51" s="2"/>
     </row>
-    <row r="52" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="3"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -4232,7 +4234,7 @@
       <c r="V52" s="3"/>
       <c r="W52" s="2"/>
     </row>
-    <row r="53" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="3"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -4257,7 +4259,7 @@
       <c r="V53" s="3"/>
       <c r="W53" s="2"/>
     </row>
-    <row r="54" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="3"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -4282,7 +4284,7 @@
       <c r="V54" s="3"/>
       <c r="W54" s="2"/>
     </row>
-    <row r="55" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -4307,7 +4309,7 @@
       <c r="V55" s="3"/>
       <c r="W55" s="2"/>
     </row>
-    <row r="56" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="3"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -4332,7 +4334,7 @@
       <c r="V56" s="3"/>
       <c r="W56" s="2"/>
     </row>
-    <row r="57" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="3"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -4357,7 +4359,7 @@
       <c r="V57" s="3"/>
       <c r="W57" s="2"/>
     </row>
-    <row r="58" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="3"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -4382,7 +4384,7 @@
       <c r="V58" s="3"/>
       <c r="W58" s="2"/>
     </row>
-    <row r="59" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="3"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -4407,7 +4409,7 @@
       <c r="V59" s="3"/>
       <c r="W59" s="2"/>
     </row>
-    <row r="60" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="3"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -4432,7 +4434,7 @@
       <c r="V60" s="3"/>
       <c r="W60" s="2"/>
     </row>
-    <row r="61" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="3"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -4457,7 +4459,7 @@
       <c r="V61" s="3"/>
       <c r="W61" s="2"/>
     </row>
-    <row r="62" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="3"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -4482,7 +4484,7 @@
       <c r="V62" s="3"/>
       <c r="W62" s="2"/>
     </row>
-    <row r="63" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="3"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -4507,7 +4509,7 @@
       <c r="V63" s="3"/>
       <c r="W63" s="2"/>
     </row>
-    <row r="64" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="3"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -4532,7 +4534,7 @@
       <c r="V64" s="3"/>
       <c r="W64" s="2"/>
     </row>
-    <row r="65" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="3"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -4557,7 +4559,7 @@
       <c r="V65" s="3"/>
       <c r="W65" s="2"/>
     </row>
-    <row r="66" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="3"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -4582,7 +4584,7 @@
       <c r="V66" s="3"/>
       <c r="W66" s="2"/>
     </row>
-    <row r="67" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="3"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -4607,7 +4609,7 @@
       <c r="V67" s="3"/>
       <c r="W67" s="2"/>
     </row>
-    <row r="68" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="3"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -4632,7 +4634,7 @@
       <c r="V68" s="3"/>
       <c r="W68" s="2"/>
     </row>
-    <row r="69" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="3"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -4657,7 +4659,7 @@
       <c r="V69" s="3"/>
       <c r="W69" s="2"/>
     </row>
-    <row r="70" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="3"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -4682,7 +4684,7 @@
       <c r="V70" s="3"/>
       <c r="W70" s="2"/>
     </row>
-    <row r="71" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="3"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4707,7 +4709,7 @@
       <c r="V71" s="3"/>
       <c r="W71" s="2"/>
     </row>
-    <row r="72" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="3"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4732,7 +4734,7 @@
       <c r="V72" s="3"/>
       <c r="W72" s="2"/>
     </row>
-    <row r="73" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="3"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4757,7 +4759,7 @@
       <c r="V73" s="3"/>
       <c r="W73" s="2"/>
     </row>
-    <row r="74" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="3"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4782,7 +4784,7 @@
       <c r="V74" s="3"/>
       <c r="W74" s="2"/>
     </row>
-    <row r="75" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="3"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4807,7 +4809,7 @@
       <c r="V75" s="3"/>
       <c r="W75" s="2"/>
     </row>
-    <row r="76" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="3"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4832,7 +4834,7 @@
       <c r="V76" s="3"/>
       <c r="W76" s="2"/>
     </row>
-    <row r="77" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="3"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -4857,7 +4859,7 @@
       <c r="V77" s="3"/>
       <c r="W77" s="2"/>
     </row>
-    <row r="78" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="3"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4882,7 +4884,7 @@
       <c r="V78" s="3"/>
       <c r="W78" s="2"/>
     </row>
-    <row r="79" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="3"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4907,7 +4909,7 @@
       <c r="V79" s="3"/>
       <c r="W79" s="2"/>
     </row>
-    <row r="80" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="3"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4932,7 +4934,7 @@
       <c r="V80" s="3"/>
       <c r="W80" s="2"/>
     </row>
-    <row r="81" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="3"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4957,7 +4959,7 @@
       <c r="V81" s="3"/>
       <c r="W81" s="2"/>
     </row>
-    <row r="82" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="3"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4982,7 +4984,7 @@
       <c r="V82" s="3"/>
       <c r="W82" s="2"/>
     </row>
-    <row r="83" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="3"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -5007,7 +5009,7 @@
       <c r="V83" s="3"/>
       <c r="W83" s="2"/>
     </row>
-    <row r="84" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="3"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -5032,7 +5034,7 @@
       <c r="V84" s="3"/>
       <c r="W84" s="2"/>
     </row>
-    <row r="85" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="3"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -5057,7 +5059,7 @@
       <c r="V85" s="3"/>
       <c r="W85" s="2"/>
     </row>
-    <row r="86" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="3"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -5082,7 +5084,7 @@
       <c r="V86" s="3"/>
       <c r="W86" s="2"/>
     </row>
-    <row r="87" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="3"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -5107,7 +5109,7 @@
       <c r="V87" s="3"/>
       <c r="W87" s="2"/>
     </row>
-    <row r="88" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="3"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -5132,7 +5134,7 @@
       <c r="V88" s="3"/>
       <c r="W88" s="2"/>
     </row>
-    <row r="89" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="3"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -5157,7 +5159,7 @@
       <c r="V89" s="3"/>
       <c r="W89" s="2"/>
     </row>
-    <row r="90" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="3"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -5182,7 +5184,7 @@
       <c r="V90" s="3"/>
       <c r="W90" s="2"/>
     </row>
-    <row r="91" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="3"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -5207,7 +5209,7 @@
       <c r="V91" s="3"/>
       <c r="W91" s="2"/>
     </row>
-    <row r="92" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="3"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -5232,7 +5234,7 @@
       <c r="V92" s="3"/>
       <c r="W92" s="2"/>
     </row>
-    <row r="93" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="3"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -5257,7 +5259,7 @@
       <c r="V93" s="3"/>
       <c r="W93" s="2"/>
     </row>
-    <row r="94" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="3"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -5282,7 +5284,7 @@
       <c r="V94" s="3"/>
       <c r="W94" s="2"/>
     </row>
-    <row r="95" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="3"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -5309,7 +5311,7 @@
       <c r="V95" s="3"/>
       <c r="W95" s="2"/>
     </row>
-    <row r="96" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="3"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -5334,7 +5336,7 @@
       <c r="V96" s="3"/>
       <c r="W96" s="2"/>
     </row>
-    <row r="97" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="3"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -5359,7 +5361,7 @@
       <c r="V97" s="3"/>
       <c r="W97" s="2"/>
     </row>
-    <row r="98" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="3"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -5384,7 +5386,7 @@
       <c r="V98" s="3"/>
       <c r="W98" s="2"/>
     </row>
-    <row r="99" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="3"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -5409,7 +5411,7 @@
       <c r="V99" s="3"/>
       <c r="W99" s="2"/>
     </row>
-    <row r="100" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="3"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -5434,7 +5436,7 @@
       <c r="V100" s="3"/>
       <c r="W100" s="2"/>
     </row>
-    <row r="101" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="3"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -5459,7 +5461,7 @@
       <c r="V101" s="3"/>
       <c r="W101" s="2"/>
     </row>
-    <row r="102" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="3"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -5484,7 +5486,7 @@
       <c r="V102" s="3"/>
       <c r="W102" s="2"/>
     </row>
-    <row r="103" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="3"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -5509,7 +5511,7 @@
       <c r="V103" s="3"/>
       <c r="W103" s="2"/>
     </row>
-    <row r="104" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="3"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -5534,7 +5536,7 @@
       <c r="V104" s="3"/>
       <c r="W104" s="2"/>
     </row>
-    <row r="105" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="3"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -5559,7 +5561,7 @@
       <c r="V105" s="3"/>
       <c r="W105" s="2"/>
     </row>
-    <row r="106" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="3"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -5584,7 +5586,7 @@
       <c r="V106" s="3"/>
       <c r="W106" s="2"/>
     </row>
-    <row r="107" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="3"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -5609,7 +5611,7 @@
       <c r="V107" s="3"/>
       <c r="W107" s="2"/>
     </row>
-    <row r="108" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="3"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -5634,7 +5636,7 @@
       <c r="V108" s="3"/>
       <c r="W108" s="2"/>
     </row>
-    <row r="109" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="3"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -5659,7 +5661,7 @@
       <c r="V109" s="3"/>
       <c r="W109" s="2"/>
     </row>
-    <row r="110" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="3"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -5684,7 +5686,7 @@
       <c r="V110" s="3"/>
       <c r="W110" s="2"/>
     </row>
-    <row r="111" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="3"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -5709,7 +5711,7 @@
       <c r="V111" s="3"/>
       <c r="W111" s="2"/>
     </row>
-    <row r="112" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="3"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -5734,7 +5736,7 @@
       <c r="V112" s="3"/>
       <c r="W112" s="2"/>
     </row>
-    <row r="113" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="3"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -5759,7 +5761,7 @@
       <c r="V113" s="3"/>
       <c r="W113" s="2"/>
     </row>
-    <row r="114" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="3"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -5784,7 +5786,7 @@
       <c r="V114" s="3"/>
       <c r="W114" s="2"/>
     </row>
-    <row r="115" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" s="3"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -5809,7 +5811,7 @@
       <c r="V115" s="3"/>
       <c r="W115" s="2"/>
     </row>
-    <row r="116" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" s="3"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -5834,7 +5836,7 @@
       <c r="V116" s="3"/>
       <c r="W116" s="2"/>
     </row>
-    <row r="117" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" s="3"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -5859,7 +5861,7 @@
       <c r="V117" s="3"/>
       <c r="W117" s="2"/>
     </row>
-    <row r="118" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" s="3"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -5884,7 +5886,7 @@
       <c r="V118" s="3"/>
       <c r="W118" s="2"/>
     </row>
-    <row r="119" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119" s="3"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -5909,7 +5911,7 @@
       <c r="V119" s="3"/>
       <c r="W119" s="2"/>
     </row>
-    <row r="120" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120" s="3"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -5934,7 +5936,7 @@
       <c r="V120" s="3"/>
       <c r="W120" s="2"/>
     </row>
-    <row r="121" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A121" s="3"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -5959,7 +5961,7 @@
       <c r="V121" s="3"/>
       <c r="W121" s="2"/>
     </row>
-    <row r="122" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A122" s="3"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -5984,7 +5986,7 @@
       <c r="V122" s="3"/>
       <c r="W122" s="2"/>
     </row>
-    <row r="123" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A123" s="3"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -6009,7 +6011,7 @@
       <c r="V123" s="3"/>
       <c r="W123" s="2"/>
     </row>
-    <row r="124" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A124" s="3"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -6034,7 +6036,7 @@
       <c r="V124" s="3"/>
       <c r="W124" s="2"/>
     </row>
-    <row r="125" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" s="3"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -6059,7 +6061,7 @@
       <c r="V125" s="3"/>
       <c r="W125" s="2"/>
     </row>
-    <row r="126" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A126" s="3"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -6084,7 +6086,7 @@
       <c r="V126" s="3"/>
       <c r="W126" s="2"/>
     </row>
-    <row r="127" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A127" s="3"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -6109,7 +6111,7 @@
       <c r="V127" s="3"/>
       <c r="W127" s="2"/>
     </row>
-    <row r="128" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A128" s="3"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -6134,7 +6136,7 @@
       <c r="V128" s="3"/>
       <c r="W128" s="2"/>
     </row>
-    <row r="129" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A129" s="3"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -6159,7 +6161,7 @@
       <c r="V129" s="3"/>
       <c r="W129" s="2"/>
     </row>
-    <row r="130" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A130" s="3"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -6184,7 +6186,7 @@
       <c r="V130" s="3"/>
       <c r="W130" s="2"/>
     </row>
-    <row r="131" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A131" s="3"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -6209,7 +6211,7 @@
       <c r="V131" s="3"/>
       <c r="W131" s="2"/>
     </row>
-    <row r="132" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A132" s="3"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -6234,7 +6236,7 @@
       <c r="V132" s="3"/>
       <c r="W132" s="2"/>
     </row>
-    <row r="133" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A133" s="3"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -6259,7 +6261,7 @@
       <c r="V133" s="3"/>
       <c r="W133" s="2"/>
     </row>
-    <row r="134" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A134" s="3"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -6284,7 +6286,7 @@
       <c r="V134" s="3"/>
       <c r="W134" s="2"/>
     </row>
-    <row r="135" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A135" s="3"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -6309,7 +6311,7 @@
       <c r="V135" s="3"/>
       <c r="W135" s="2"/>
     </row>
-    <row r="136" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A136" s="3"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -6334,7 +6336,7 @@
       <c r="V136" s="3"/>
       <c r="W136" s="2"/>
     </row>
-    <row r="137" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A137" s="3"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -6359,7 +6361,7 @@
       <c r="V137" s="3"/>
       <c r="W137" s="2"/>
     </row>
-    <row r="138" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A138" s="3"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -6384,7 +6386,7 @@
       <c r="V138" s="3"/>
       <c r="W138" s="2"/>
     </row>
-    <row r="139" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A139" s="3"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -6409,7 +6411,7 @@
       <c r="V139" s="3"/>
       <c r="W139" s="2"/>
     </row>
-    <row r="140" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A140" s="3"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -6434,7 +6436,7 @@
       <c r="V140" s="3"/>
       <c r="W140" s="2"/>
     </row>
-    <row r="141" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A141" s="3"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -6459,7 +6461,7 @@
       <c r="V141" s="3"/>
       <c r="W141" s="2"/>
     </row>
-    <row r="142" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A142" s="3"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -6484,7 +6486,7 @@
       <c r="V142" s="3"/>
       <c r="W142" s="2"/>
     </row>
-    <row r="143" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A143" s="3"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -6509,7 +6511,7 @@
       <c r="V143" s="3"/>
       <c r="W143" s="2"/>
     </row>
-    <row r="144" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A144" s="3"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -6534,7 +6536,7 @@
       <c r="V144" s="3"/>
       <c r="W144" s="2"/>
     </row>
-    <row r="145" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A145" s="3"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -6559,7 +6561,7 @@
       <c r="V145" s="3"/>
       <c r="W145" s="2"/>
     </row>
-    <row r="146" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A146" s="3"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -6584,7 +6586,7 @@
       <c r="V146" s="3"/>
       <c r="W146" s="2"/>
     </row>
-    <row r="147" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A147" s="3"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -6609,7 +6611,7 @@
       <c r="V147" s="3"/>
       <c r="W147" s="2"/>
     </row>
-    <row r="148" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A148" s="3"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -6634,7 +6636,7 @@
       <c r="V148" s="3"/>
       <c r="W148" s="2"/>
     </row>
-    <row r="149" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A149" s="3"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -6659,7 +6661,7 @@
       <c r="V149" s="3"/>
       <c r="W149" s="2"/>
     </row>
-    <row r="150" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A150" s="3"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -6684,7 +6686,7 @@
       <c r="V150" s="3"/>
       <c r="W150" s="2"/>
     </row>
-    <row r="151" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A151" s="3"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -6709,7 +6711,7 @@
       <c r="V151" s="3"/>
       <c r="W151" s="2"/>
     </row>
-    <row r="152" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A152" s="3"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -6734,7 +6736,7 @@
       <c r="V152" s="3"/>
       <c r="W152" s="2"/>
     </row>
-    <row r="153" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A153" s="3"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -6759,7 +6761,7 @@
       <c r="V153" s="3"/>
       <c r="W153" s="2"/>
     </row>
-    <row r="154" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A154" s="3"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -6784,7 +6786,7 @@
       <c r="V154" s="3"/>
       <c r="W154" s="2"/>
     </row>
-    <row r="155" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A155" s="3"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -6809,7 +6811,7 @@
       <c r="V155" s="3"/>
       <c r="W155" s="2"/>
     </row>
-    <row r="156" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A156" s="3"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -6834,7 +6836,7 @@
       <c r="V156" s="3"/>
       <c r="W156" s="2"/>
     </row>
-    <row r="157" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A157" s="3"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -6859,7 +6861,7 @@
       <c r="V157" s="3"/>
       <c r="W157" s="2"/>
     </row>
-    <row r="158" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A158" s="3"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -6884,7 +6886,7 @@
       <c r="V158" s="3"/>
       <c r="W158" s="2"/>
     </row>
-    <row r="159" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A159" s="3"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -6909,7 +6911,7 @@
       <c r="V159" s="3"/>
       <c r="W159" s="2"/>
     </row>
-    <row r="160" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A160" s="3"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -6934,7 +6936,7 @@
       <c r="V160" s="3"/>
       <c r="W160" s="2"/>
     </row>
-    <row r="161" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A161" s="3"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -6959,7 +6961,7 @@
       <c r="V161" s="3"/>
       <c r="W161" s="2"/>
     </row>
-    <row r="162" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A162" s="3"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -6984,7 +6986,7 @@
       <c r="V162" s="3"/>
       <c r="W162" s="2"/>
     </row>
-    <row r="163" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A163" s="3"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -7009,7 +7011,7 @@
       <c r="V163" s="3"/>
       <c r="W163" s="2"/>
     </row>
-    <row r="164" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A164" s="3"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -7034,7 +7036,7 @@
       <c r="V164" s="3"/>
       <c r="W164" s="2"/>
     </row>
-    <row r="165" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A165" s="3"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -7059,7 +7061,7 @@
       <c r="V165" s="3"/>
       <c r="W165" s="2"/>
     </row>
-    <row r="166" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A166" s="3"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -7084,7 +7086,7 @@
       <c r="V166" s="3"/>
       <c r="W166" s="2"/>
     </row>
-    <row r="167" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A167" s="3"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -7109,7 +7111,7 @@
       <c r="V167" s="3"/>
       <c r="W167" s="2"/>
     </row>
-    <row r="168" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A168" s="3"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -7134,7 +7136,7 @@
       <c r="V168" s="3"/>
       <c r="W168" s="2"/>
     </row>
-    <row r="169" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A169" s="3"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -7159,7 +7161,7 @@
       <c r="V169" s="3"/>
       <c r="W169" s="2"/>
     </row>
-    <row r="170" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A170" s="3"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -7184,7 +7186,7 @@
       <c r="V170" s="3"/>
       <c r="W170" s="2"/>
     </row>
-    <row r="171" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A171" s="3"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -7209,7 +7211,7 @@
       <c r="V171" s="3"/>
       <c r="W171" s="2"/>
     </row>
-    <row r="172" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A172" s="3"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -7234,7 +7236,7 @@
       <c r="V172" s="3"/>
       <c r="W172" s="2"/>
     </row>
-    <row r="173" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A173" s="3"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -7259,7 +7261,7 @@
       <c r="V173" s="3"/>
       <c r="W173" s="2"/>
     </row>
-    <row r="174" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A174" s="3"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -7284,7 +7286,7 @@
       <c r="V174" s="3"/>
       <c r="W174" s="2"/>
     </row>
-    <row r="175" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A175" s="3"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -7309,7 +7311,7 @@
       <c r="V175" s="3"/>
       <c r="W175" s="2"/>
     </row>
-    <row r="176" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A176" s="3"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -7334,7 +7336,7 @@
       <c r="V176" s="3"/>
       <c r="W176" s="2"/>
     </row>
-    <row r="177" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A177" s="3"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -7359,7 +7361,7 @@
       <c r="V177" s="3"/>
       <c r="W177" s="2"/>
     </row>
-    <row r="178" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A178" s="3"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -7384,7 +7386,7 @@
       <c r="V178" s="3"/>
       <c r="W178" s="2"/>
     </row>
-    <row r="179" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A179" s="3"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -7409,7 +7411,7 @@
       <c r="V179" s="3"/>
       <c r="W179" s="2"/>
     </row>
-    <row r="180" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A180" s="3"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -7434,7 +7436,7 @@
       <c r="V180" s="3"/>
       <c r="W180" s="2"/>
     </row>
-    <row r="181" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A181" s="3"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -7459,7 +7461,7 @@
       <c r="V181" s="3"/>
       <c r="W181" s="2"/>
     </row>
-    <row r="182" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A182" s="3"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -7484,7 +7486,7 @@
       <c r="V182" s="3"/>
       <c r="W182" s="2"/>
     </row>
-    <row r="183" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A183" s="3"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -7509,7 +7511,7 @@
       <c r="V183" s="3"/>
       <c r="W183" s="2"/>
     </row>
-    <row r="184" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A184" s="3"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -7534,7 +7536,7 @@
       <c r="V184" s="3"/>
       <c r="W184" s="2"/>
     </row>
-    <row r="185" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A185" s="3"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -7559,7 +7561,7 @@
       <c r="V185" s="3"/>
       <c r="W185" s="2"/>
     </row>
-    <row r="186" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A186" s="3"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -7584,7 +7586,7 @@
       <c r="V186" s="3"/>
       <c r="W186" s="2"/>
     </row>
-    <row r="187" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A187" s="3"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -7609,7 +7611,7 @@
       <c r="V187" s="3"/>
       <c r="W187" s="2"/>
     </row>
-    <row r="188" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A188" s="3"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -7634,7 +7636,7 @@
       <c r="V188" s="3"/>
       <c r="W188" s="2"/>
     </row>
-    <row r="189" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A189" s="3"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -7659,7 +7661,7 @@
       <c r="V189" s="3"/>
       <c r="W189" s="2"/>
     </row>
-    <row r="190" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A190" s="3"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -7684,7 +7686,7 @@
       <c r="V190" s="3"/>
       <c r="W190" s="2"/>
     </row>
-    <row r="191" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A191" s="3"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -7709,7 +7711,7 @@
       <c r="V191" s="3"/>
       <c r="W191" s="2"/>
     </row>
-    <row r="192" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A192" s="3"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -7734,7 +7736,7 @@
       <c r="V192" s="3"/>
       <c r="W192" s="2"/>
     </row>
-    <row r="193" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A193" s="3"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -7759,7 +7761,7 @@
       <c r="V193" s="3"/>
       <c r="W193" s="2"/>
     </row>
-    <row r="194" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A194" s="3"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -7784,7 +7786,7 @@
       <c r="V194" s="3"/>
       <c r="W194" s="2"/>
     </row>
-    <row r="195" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A195" s="3"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -7809,7 +7811,7 @@
       <c r="V195" s="3"/>
       <c r="W195" s="2"/>
     </row>
-    <row r="196" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A196" s="3"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -7834,7 +7836,7 @@
       <c r="V196" s="3"/>
       <c r="W196" s="2"/>
     </row>
-    <row r="197" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A197" s="3"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -7859,7 +7861,7 @@
       <c r="V197" s="3"/>
       <c r="W197" s="2"/>
     </row>
-    <row r="198" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A198" s="3"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -7884,7 +7886,7 @@
       <c r="V198" s="3"/>
       <c r="W198" s="2"/>
     </row>
-    <row r="199" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A199" s="3"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -7909,7 +7911,7 @@
       <c r="V199" s="3"/>
       <c r="W199" s="2"/>
     </row>
-    <row r="200" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A200" s="3"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -7934,7 +7936,7 @@
       <c r="V200" s="3"/>
       <c r="W200" s="2"/>
     </row>
-    <row r="201" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A201" s="3"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -7959,7 +7961,7 @@
       <c r="V201" s="3"/>
       <c r="W201" s="2"/>
     </row>
-    <row r="202" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A202" s="3"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -7984,7 +7986,7 @@
       <c r="V202" s="3"/>
       <c r="W202" s="2"/>
     </row>
-    <row r="203" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A203" s="3"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -8009,7 +8011,7 @@
       <c r="V203" s="3"/>
       <c r="W203" s="2"/>
     </row>
-    <row r="204" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A204" s="3"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -8034,7 +8036,7 @@
       <c r="V204" s="3"/>
       <c r="W204" s="2"/>
     </row>
-    <row r="205" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A205" s="3"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -8059,7 +8061,7 @@
       <c r="V205" s="3"/>
       <c r="W205" s="2"/>
     </row>
-    <row r="206" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A206" s="3"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -8084,7 +8086,7 @@
       <c r="V206" s="3"/>
       <c r="W206" s="2"/>
     </row>
-    <row r="207" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A207" s="3"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -8109,8 +8111,8 @@
       <c r="V207" s="3"/>
       <c r="W207" s="2"/>
     </row>
-    <row r="208" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="209" ht="45" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W33">
     <sortCondition ref="A2"/>

--- a/JavaApplication19/src/excel/Inventario.xlsx
+++ b/JavaApplication19/src/excel/Inventario.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F446ED4-0085-4BD6-BCAC-FB201B550CF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A557B8C4-DD73-4DD4-B194-A13FE4183614}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,19 +16,11 @@
     <sheet name="Inventario" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="109">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -301,9 +293,6 @@
   </si>
   <si>
     <t>PRECIO BASE UNIDAD</t>
-  </si>
-  <si>
-    <t>100</t>
   </si>
   <si>
     <t>Bici</t>
@@ -1017,17 +1006,17 @@
   <dimension ref="A1:AC209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="3" max="23" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="24" max="29" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="1" max="2" width="40.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="23" width="20.6640625" customWidth="1" collapsed="1"/>
+    <col min="24" max="29" width="10.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -3787,74 +3776,74 @@
         <v>96.949891067538147</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="s" s="0">
+    <row r="34" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" t="s">
         <v>92</v>
       </c>
-      <c r="B34" t="s" s="0">
+      <c r="C34" t="s">
         <v>93</v>
       </c>
-      <c r="C34" t="s" s="0">
+      <c r="D34" t="s">
         <v>94</v>
       </c>
-      <c r="D34" t="s" s="0">
+      <c r="E34" t="s">
         <v>95</v>
       </c>
-      <c r="E34" t="s" s="0">
+      <c r="F34" t="s">
         <v>96</v>
       </c>
-      <c r="F34" t="s" s="0">
+      <c r="G34" t="s">
         <v>97</v>
       </c>
-      <c r="G34" t="s" s="0">
+      <c r="H34" t="s">
         <v>98</v>
       </c>
-      <c r="H34" t="s" s="0">
+      <c r="I34" t="s">
         <v>99</v>
       </c>
-      <c r="I34" t="s" s="0">
+      <c r="J34" t="s">
         <v>100</v>
       </c>
-      <c r="J34" t="s" s="0">
+      <c r="K34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>101</v>
       </c>
-      <c r="K34" t="s" s="0">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="0">
+      <c r="B35" t="s">
         <v>102</v>
       </c>
-      <c r="B35" t="s" s="0">
+      <c r="C35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" t="s">
         <v>103</v>
       </c>
-      <c r="C35" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="D35" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="E35" t="s" s="0">
+      <c r="F35" t="s">
         <v>104</v>
       </c>
-      <c r="F35" t="s" s="0">
+      <c r="G35" t="s">
+        <v>97</v>
+      </c>
+      <c r="H35" t="s">
         <v>105</v>
       </c>
-      <c r="G35" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="H35" t="s" s="0">
+      <c r="I35" t="s">
         <v>106</v>
       </c>
-      <c r="I35" t="s" s="0">
+      <c r="J35" t="s">
         <v>107</v>
       </c>
-      <c r="J35" t="s" s="0">
+      <c r="K35" t="s">
         <v>108</v>
-      </c>
-      <c r="K35" t="s" s="0">
-        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -5363,9 +5352,7 @@
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
-      <c r="G95" t="s">
-        <v>91</v>
-      </c>
+      <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="4"/>
@@ -8165,7 +8152,6 @@
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
       <c r="F207" s="3"/>
-      <c r="G207" s="3"/>
       <c r="H207" s="3"/>
       <c r="I207" s="3"/>
       <c r="J207" s="4"/>

--- a/JavaApplication19/src/excel/Inventario.xlsx
+++ b/JavaApplication19/src/excel/Inventario.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Desarrollo\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B392252E-F9E6-4E95-A3D3-3A8BE20E9F4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1048BC-42B7-4B99-A2EB-7451F932E5A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3083" yWindow="0" windowWidth="21600" windowHeight="11498" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -303,9 +303,6 @@
   </si>
   <si>
     <t>PRECIO BASE UNIDAD</t>
-  </si>
-  <si>
-    <t>100</t>
   </si>
 </sst>
 </file>
@@ -965,17 +962,17 @@
   <dimension ref="A1:AC209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.46484375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="40.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="23" width="20.6640625" customWidth="1" collapsed="1"/>
-    <col min="24" max="29" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
+    <col min="3" max="23" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="24" max="29" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -1970,7 +1967,7 @@
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
-      <c r="G13" s="19">
+      <c r="G13">
         <v>1</v>
       </c>
       <c r="H13" s="15">
@@ -2051,22 +2048,22 @@
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
-      <c r="G14" s="19">
-        <v>195</v>
+      <c r="G14" t="n">
+        <v>50.0</v>
       </c>
       <c r="H14" s="15">
         <v>14.96</v>
       </c>
       <c r="I14" s="15">
         <f t="shared" si="14"/>
-        <v>2917.2000000000003</v>
+        <v>1496</v>
       </c>
       <c r="J14" s="15">
         <v>30</v>
       </c>
       <c r="K14" s="15">
         <f t="shared" si="1"/>
-        <v>5850</v>
+        <v>3000</v>
       </c>
       <c r="L14" s="15">
         <f t="shared" si="2"/>
@@ -2074,7 +2071,7 @@
       </c>
       <c r="M14" s="15">
         <f t="shared" si="3"/>
-        <v>6785.9999999999991</v>
+        <v>3479.9999999999995</v>
       </c>
       <c r="N14" s="15">
         <f t="shared" si="4"/>
@@ -2082,7 +2079,7 @@
       </c>
       <c r="O14" s="15">
         <f t="shared" si="5"/>
-        <v>15603.9</v>
+        <v>8002</v>
       </c>
       <c r="P14" s="15">
         <f t="shared" si="6"/>
@@ -2090,7 +2087,7 @@
       </c>
       <c r="Q14" s="15">
         <f t="shared" si="7"/>
-        <v>1992.8999999999999</v>
+        <v>1021.9999999999999</v>
       </c>
       <c r="R14" s="15">
         <f t="shared" si="8"/>
@@ -2098,7 +2095,7 @@
       </c>
       <c r="S14" s="15">
         <f t="shared" si="9"/>
-        <v>936</v>
+        <v>480</v>
       </c>
       <c r="T14" s="15">
         <f t="shared" si="10"/>
@@ -2106,7 +2103,7 @@
       </c>
       <c r="U14" s="15">
         <f t="shared" si="11"/>
-        <v>2932.7999999999993</v>
+        <v>1503.9999999999995</v>
       </c>
       <c r="V14" s="15">
         <f t="shared" si="12"/>
@@ -2114,7 +2111,7 @@
       </c>
       <c r="W14" s="16">
         <f t="shared" si="13"/>
-        <v>2932.8000000000011</v>
+        <v>1504.0000000000007</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -3746,42 +3743,42 @@
       <c r="H34" s="26"/>
       <c r="I34" s="26">
         <f>SUM(I2:I33)</f>
-        <v>37721.034456382244</v>
+        <v>36299.834456382239</v>
       </c>
       <c r="J34" s="26"/>
       <c r="K34" s="26">
         <f>SUM(K2:K33)</f>
-        <v>60170</v>
+        <v>57320</v>
       </c>
       <c r="L34" s="26"/>
       <c r="M34" s="26">
         <f>SUM(M2:M33)</f>
-        <v>69797.2</v>
+        <v>66491.199999999997</v>
       </c>
       <c r="N34" s="26"/>
       <c r="O34" s="26">
         <f>SUM(O2:O33)</f>
-        <v>91826.78</v>
+        <v>84224.88</v>
       </c>
       <c r="P34" s="26"/>
       <c r="Q34" s="26">
         <f>SUM(Q2:Q33)</f>
-        <v>11914.580000000002</v>
+        <v>10943.68</v>
       </c>
       <c r="R34" s="26"/>
       <c r="S34" s="26">
         <f>SUM(S2:S33)</f>
-        <v>9627.2000000000007</v>
+        <v>9171.2000000000007</v>
       </c>
       <c r="T34" s="26"/>
       <c r="U34" s="26">
         <f>SUM(U2:U33)</f>
-        <v>22448.965543617753</v>
+        <v>21020.165543617753</v>
       </c>
       <c r="V34" s="26"/>
       <c r="W34" s="27">
         <f>SUM(W2:W33)</f>
-        <v>22448.965543617756</v>
+        <v>21020.165543617753</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -5291,9 +5288,6 @@
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
-      <c r="G95" t="s">
-        <v>91</v>
-      </c>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="4"/>

--- a/JavaApplication19/src/excel/Inventario.xlsx
+++ b/JavaApplication19/src/excel/Inventario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Desarrollo\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1048BC-42B7-4B99-A2EB-7451F932E5A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30AC652-4720-47EC-ADD1-3E9F93026FF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3083" yWindow="0" windowWidth="21600" windowHeight="11498" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1545,8 +1545,8 @@
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
-      <c r="G8" s="19">
-        <v>61</v>
+      <c r="G8" t="n">
+        <v>61.0</v>
       </c>
       <c r="H8" s="15">
         <v>27</v>
@@ -2048,22 +2048,22 @@
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
-      <c r="G14" t="n">
-        <v>50.0</v>
+      <c r="G14">
+        <v>195</v>
       </c>
       <c r="H14" s="15">
         <v>14.96</v>
       </c>
       <c r="I14" s="15">
         <f t="shared" si="14"/>
-        <v>1496</v>
+        <v>2917.2000000000003</v>
       </c>
       <c r="J14" s="15">
         <v>30</v>
       </c>
       <c r="K14" s="15">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>5850</v>
       </c>
       <c r="L14" s="15">
         <f t="shared" si="2"/>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="M14" s="15">
         <f t="shared" si="3"/>
-        <v>3479.9999999999995</v>
+        <v>6785.9999999999991</v>
       </c>
       <c r="N14" s="15">
         <f t="shared" si="4"/>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="O14" s="15">
         <f t="shared" si="5"/>
-        <v>8002</v>
+        <v>15603.9</v>
       </c>
       <c r="P14" s="15">
         <f t="shared" si="6"/>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="Q14" s="15">
         <f t="shared" si="7"/>
-        <v>1021.9999999999999</v>
+        <v>1992.8999999999999</v>
       </c>
       <c r="R14" s="15">
         <f t="shared" si="8"/>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="S14" s="15">
         <f t="shared" si="9"/>
-        <v>480</v>
+        <v>936</v>
       </c>
       <c r="T14" s="15">
         <f t="shared" si="10"/>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="U14" s="15">
         <f t="shared" si="11"/>
-        <v>1503.9999999999995</v>
+        <v>2932.7999999999993</v>
       </c>
       <c r="V14" s="15">
         <f t="shared" si="12"/>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="W14" s="16">
         <f t="shared" si="13"/>
-        <v>1504.0000000000007</v>
+        <v>2932.8000000000011</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -3743,42 +3743,42 @@
       <c r="H34" s="26"/>
       <c r="I34" s="26">
         <f>SUM(I2:I33)</f>
-        <v>36299.834456382239</v>
+        <v>37721.034456382244</v>
       </c>
       <c r="J34" s="26"/>
       <c r="K34" s="26">
         <f>SUM(K2:K33)</f>
-        <v>57320</v>
+        <v>60170</v>
       </c>
       <c r="L34" s="26"/>
       <c r="M34" s="26">
         <f>SUM(M2:M33)</f>
-        <v>66491.199999999997</v>
+        <v>69797.2</v>
       </c>
       <c r="N34" s="26"/>
       <c r="O34" s="26">
         <f>SUM(O2:O33)</f>
-        <v>84224.88</v>
+        <v>91826.78</v>
       </c>
       <c r="P34" s="26"/>
       <c r="Q34" s="26">
         <f>SUM(Q2:Q33)</f>
-        <v>10943.68</v>
+        <v>11914.580000000002</v>
       </c>
       <c r="R34" s="26"/>
       <c r="S34" s="26">
         <f>SUM(S2:S33)</f>
-        <v>9171.2000000000007</v>
+        <v>9627.2000000000007</v>
       </c>
       <c r="T34" s="26"/>
       <c r="U34" s="26">
         <f>SUM(U2:U33)</f>
-        <v>21020.165543617753</v>
+        <v>22448.965543617753</v>
       </c>
       <c r="V34" s="26"/>
       <c r="W34" s="27">
         <f>SUM(W2:W33)</f>
-        <v>21020.165543617753</v>
+        <v>22448.965543617756</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">

--- a/JavaApplication19/src/excel/Inventario.xlsx
+++ b/JavaApplication19/src/excel/Inventario.xlsx
@@ -2048,8 +2048,8 @@
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
-      <c r="G14">
-        <v>195</v>
+      <c r="G14" t="n">
+        <v>195.0</v>
       </c>
       <c r="H14" s="15">
         <v>14.96</v>

--- a/JavaApplication19/src/excel/Inventario.xlsx
+++ b/JavaApplication19/src/excel/Inventario.xlsx
@@ -1,36 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Desarrollo\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30AC652-4720-47EC-ADD1-3E9F93026FF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E470528F-68B8-435D-AE2E-EA496B84E16F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3083" yWindow="0" windowWidth="21600" windowHeight="11498" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventario" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="115">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -303,6 +293,78 @@
   </si>
   <si>
     <t>PRECIO BASE UNIDAD</t>
+  </si>
+  <si>
+    <t>Epic Oil</t>
+  </si>
+  <si>
+    <t>Aceite para bici</t>
+  </si>
+  <si>
+    <t>28  julio 20</t>
+  </si>
+  <si>
+    <t>Nuevo</t>
+  </si>
+  <si>
+    <t>No hay pack</t>
+  </si>
+  <si>
+    <t>1.3333333333333333</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>3000.0</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>4000.0</t>
+  </si>
+  <si>
+    <t>69.6</t>
+  </si>
+  <si>
+    <t>3479.9999999999995</t>
+  </si>
+  <si>
+    <t>Bici de Ruta</t>
+  </si>
+  <si>
+    <t>Talla M, Rodada 28</t>
+  </si>
+  <si>
+    <t>Shimano</t>
+  </si>
+  <si>
+    <t>1.0823529411764705</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>8500</t>
+  </si>
+  <si>
+    <t>17000.0</t>
+  </si>
+  <si>
+    <t>9200</t>
+  </si>
+  <si>
+    <t>18400.0</t>
+  </si>
+  <si>
+    <t>10672.0</t>
+  </si>
+  <si>
+    <t>21344.0</t>
   </si>
 </sst>
 </file>
@@ -464,7 +526,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -542,9 +604,6 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -560,7 +619,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Salida" xfId="1" builtinId="21"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -639,7 +698,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -962,20 +1021,20 @@
   <dimension ref="A1:AC209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="A34" sqref="A34:W34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.46484375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
     <col min="3" max="23" customWidth="true" width="20.6640625" collapsed="true"/>
     <col min="24" max="29" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -983,7 +1042,7 @@
       <c r="C1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="8" t="s">
@@ -1044,7 +1103,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>43</v>
       </c>
@@ -1125,7 +1184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>20</v>
       </c>
@@ -1206,7 +1265,7 @@
         <v>6.3948846218409017E-14</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>22</v>
       </c>
@@ -1287,7 +1346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>24</v>
       </c>
@@ -1368,7 +1427,7 @@
         <v>1488.4099999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>44</v>
       </c>
@@ -1449,22 +1508,22 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="29" t="s">
+    <row r="7" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="29">
         <v>43984</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31">
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30">
         <v>1</v>
       </c>
       <c r="H7" s="15">
@@ -1530,7 +1589,7 @@
         <v>9010</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>25</v>
       </c>
@@ -1545,8 +1604,8 @@
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
-      <c r="G8" t="n">
-        <v>61.0</v>
+      <c r="G8">
+        <v>61</v>
       </c>
       <c r="H8" s="15">
         <v>27</v>
@@ -1611,7 +1670,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>72</v>
       </c>
@@ -1698,7 +1757,7 @@
         <v>290.84967320261444</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>46</v>
       </c>
@@ -1778,7 +1837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>29</v>
       </c>
@@ -1865,7 +1924,7 @@
         <v>77.5599128540305</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>50</v>
       </c>
@@ -1952,7 +2011,7 @@
         <v>170.20547945205476</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>73</v>
       </c>
@@ -2033,7 +2092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>30</v>
       </c>
@@ -2048,8 +2107,8 @@
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
-      <c r="G14" t="n">
-        <v>195.0</v>
+      <c r="G14">
+        <v>195</v>
       </c>
       <c r="H14" s="15">
         <v>14.96</v>
@@ -2114,7 +2173,7 @@
         <v>2932.8000000000011</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>85</v>
       </c>
@@ -2201,7 +2260,7 @@
         <v>243.15068493150687</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>31</v>
       </c>
@@ -2288,7 +2347,7 @@
         <v>72.945205479452056</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>32</v>
       </c>
@@ -2369,22 +2428,22 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="29" t="s">
+    <row r="18" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="30">
+      <c r="C18" s="29">
         <v>43853</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31">
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30">
         <v>1</v>
       </c>
       <c r="H18" s="15">
@@ -2450,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>74</v>
       </c>
@@ -2537,7 +2596,7 @@
         <v>194.52054794520552</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>75</v>
       </c>
@@ -2618,7 +2677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>76</v>
       </c>
@@ -2705,7 +2764,7 @@
         <v>121.57534246575344</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>77</v>
       </c>
@@ -2786,7 +2845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>79</v>
       </c>
@@ -2867,7 +2926,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>34</v>
       </c>
@@ -2955,7 +3014,7 @@
       </c>
       <c r="AC24" s="6"/>
     </row>
-    <row r="25" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>35</v>
       </c>
@@ -3042,7 +3101,7 @@
         <v>67.864923747276663</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>36</v>
       </c>
@@ -3129,7 +3188,7 @@
         <v>121.57534246575344</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>37</v>
       </c>
@@ -3216,7 +3275,7 @@
         <v>116.33986928104576</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>38</v>
       </c>
@@ -3303,7 +3362,7 @@
         <v>121.57534246575344</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>39</v>
       </c>
@@ -3390,7 +3449,7 @@
         <v>96.949891067538147</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>61</v>
       </c>
@@ -3477,22 +3536,22 @@
         <v>232.67973856209153</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="29" t="s">
+    <row r="31" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="30">
+      <c r="C31" s="29">
         <v>43853</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31">
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30">
         <v>1</v>
       </c>
       <c r="H31" s="15">
@@ -3558,7 +3617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>40</v>
       </c>
@@ -3645,7 +3704,7 @@
         <v>1069.8630136986303</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>67</v>
       </c>
@@ -3732,107 +3791,139 @@
         <v>96.949891067538147</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="23"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26">
-        <f>SUM(I2:I33)</f>
-        <v>37721.034456382244</v>
-      </c>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26">
-        <f>SUM(K2:K33)</f>
-        <v>60170</v>
-      </c>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26">
-        <f>SUM(M2:M33)</f>
-        <v>69797.2</v>
-      </c>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26">
-        <f>SUM(O2:O33)</f>
-        <v>91826.78</v>
-      </c>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="26">
-        <f>SUM(Q2:Q33)</f>
-        <v>11914.580000000002</v>
-      </c>
-      <c r="R34" s="26"/>
-      <c r="S34" s="26">
-        <f>SUM(S2:S33)</f>
-        <v>9627.2000000000007</v>
-      </c>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26">
-        <f>SUM(U2:U33)</f>
-        <v>22448.965543617753</v>
-      </c>
-      <c r="V34" s="26"/>
-      <c r="W34" s="27">
-        <f>SUM(W2:W33)</f>
-        <v>22448.965543617756</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="5"/>
-    </row>
-    <row r="36" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="3"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="2"/>
-    </row>
-    <row r="37" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="3"/>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="F34" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="G34" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="H34" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="I34" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="J34" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="K34" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="L34" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="M34" t="s" s="0">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="F35" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="G35" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="H35" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="I35" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="J35" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="K35" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="L35" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="M35" t="s" s="0">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="23"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="26"/>
+      <c r="I36" t="n">
+        <f>SUM(I2:I35)</f>
+        <v>0.0</v>
+      </c>
+      <c r="J36" s="26"/>
+      <c r="K36" t="n">
+        <f>SUM(K2:K35)</f>
+        <v>0.0</v>
+      </c>
+      <c r="L36" s="26"/>
+      <c r="M36" t="n">
+        <f>SUM(M2:M35)</f>
+        <v>0.0</v>
+      </c>
+      <c r="N36" s="26"/>
+      <c r="O36" t="n">
+        <f>SUM(O2:O35)</f>
+        <v>0.0</v>
+      </c>
+      <c r="P36" s="26"/>
+      <c r="Q36" t="n">
+        <f>SUM(Q2:Q35)</f>
+        <v>0.0</v>
+      </c>
+      <c r="R36" s="26"/>
+      <c r="S36" t="n">
+        <f>SUM(S2:S35)</f>
+        <v>0.0</v>
+      </c>
+      <c r="T36" s="26"/>
+      <c r="U36" t="n">
+        <f>SUM(U2:U35)</f>
+        <v>0.0</v>
+      </c>
+      <c r="V36" s="26"/>
+      <c r="W36" t="n">
+        <f>SUM(W2:W35)</f>
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="3"/>
@@ -3853,10 +3944,10 @@
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="2"/>
-    </row>
-    <row r="38" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V37" s="4"/>
+      <c r="W37" s="5"/>
+    </row>
+    <row r="38" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -3881,7 +3972,7 @@
       <c r="V38" s="3"/>
       <c r="W38" s="2"/>
     </row>
-    <row r="39" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -3906,7 +3997,7 @@
       <c r="V39" s="3"/>
       <c r="W39" s="2"/>
     </row>
-    <row r="40" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -3931,7 +4022,7 @@
       <c r="V40" s="3"/>
       <c r="W40" s="2"/>
     </row>
-    <row r="41" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -3956,7 +4047,7 @@
       <c r="V41" s="3"/>
       <c r="W41" s="2"/>
     </row>
-    <row r="42" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3981,7 +4072,7 @@
       <c r="V42" s="3"/>
       <c r="W42" s="2"/>
     </row>
-    <row r="43" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -4006,7 +4097,7 @@
       <c r="V43" s="3"/>
       <c r="W43" s="2"/>
     </row>
-    <row r="44" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -4031,7 +4122,7 @@
       <c r="V44" s="3"/>
       <c r="W44" s="2"/>
     </row>
-    <row r="45" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -4056,7 +4147,7 @@
       <c r="V45" s="3"/>
       <c r="W45" s="2"/>
     </row>
-    <row r="46" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -4081,7 +4172,7 @@
       <c r="V46" s="3"/>
       <c r="W46" s="2"/>
     </row>
-    <row r="47" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -4106,7 +4197,7 @@
       <c r="V47" s="3"/>
       <c r="W47" s="2"/>
     </row>
-    <row r="48" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -4131,7 +4222,7 @@
       <c r="V48" s="3"/>
       <c r="W48" s="2"/>
     </row>
-    <row r="49" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -4156,7 +4247,7 @@
       <c r="V49" s="3"/>
       <c r="W49" s="2"/>
     </row>
-    <row r="50" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -4181,7 +4272,7 @@
       <c r="V50" s="3"/>
       <c r="W50" s="2"/>
     </row>
-    <row r="51" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -4206,7 +4297,7 @@
       <c r="V51" s="3"/>
       <c r="W51" s="2"/>
     </row>
-    <row r="52" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -4231,7 +4322,7 @@
       <c r="V52" s="3"/>
       <c r="W52" s="2"/>
     </row>
-    <row r="53" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -4256,7 +4347,7 @@
       <c r="V53" s="3"/>
       <c r="W53" s="2"/>
     </row>
-    <row r="54" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -4281,7 +4372,7 @@
       <c r="V54" s="3"/>
       <c r="W54" s="2"/>
     </row>
-    <row r="55" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -4306,7 +4397,7 @@
       <c r="V55" s="3"/>
       <c r="W55" s="2"/>
     </row>
-    <row r="56" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -4331,7 +4422,7 @@
       <c r="V56" s="3"/>
       <c r="W56" s="2"/>
     </row>
-    <row r="57" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -4356,7 +4447,7 @@
       <c r="V57" s="3"/>
       <c r="W57" s="2"/>
     </row>
-    <row r="58" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -4381,7 +4472,7 @@
       <c r="V58" s="3"/>
       <c r="W58" s="2"/>
     </row>
-    <row r="59" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -4406,7 +4497,7 @@
       <c r="V59" s="3"/>
       <c r="W59" s="2"/>
     </row>
-    <row r="60" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -4431,7 +4522,7 @@
       <c r="V60" s="3"/>
       <c r="W60" s="2"/>
     </row>
-    <row r="61" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -4456,7 +4547,7 @@
       <c r="V61" s="3"/>
       <c r="W61" s="2"/>
     </row>
-    <row r="62" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -4481,7 +4572,7 @@
       <c r="V62" s="3"/>
       <c r="W62" s="2"/>
     </row>
-    <row r="63" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -4506,7 +4597,7 @@
       <c r="V63" s="3"/>
       <c r="W63" s="2"/>
     </row>
-    <row r="64" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -4531,7 +4622,7 @@
       <c r="V64" s="3"/>
       <c r="W64" s="2"/>
     </row>
-    <row r="65" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -4556,7 +4647,7 @@
       <c r="V65" s="3"/>
       <c r="W65" s="2"/>
     </row>
-    <row r="66" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -4581,7 +4672,7 @@
       <c r="V66" s="3"/>
       <c r="W66" s="2"/>
     </row>
-    <row r="67" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -4606,7 +4697,7 @@
       <c r="V67" s="3"/>
       <c r="W67" s="2"/>
     </row>
-    <row r="68" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -4631,7 +4722,7 @@
       <c r="V68" s="3"/>
       <c r="W68" s="2"/>
     </row>
-    <row r="69" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -4656,7 +4747,7 @@
       <c r="V69" s="3"/>
       <c r="W69" s="2"/>
     </row>
-    <row r="70" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -4681,7 +4772,7 @@
       <c r="V70" s="3"/>
       <c r="W70" s="2"/>
     </row>
-    <row r="71" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4706,7 +4797,7 @@
       <c r="V71" s="3"/>
       <c r="W71" s="2"/>
     </row>
-    <row r="72" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4731,7 +4822,7 @@
       <c r="V72" s="3"/>
       <c r="W72" s="2"/>
     </row>
-    <row r="73" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4756,7 +4847,7 @@
       <c r="V73" s="3"/>
       <c r="W73" s="2"/>
     </row>
-    <row r="74" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4781,7 +4872,7 @@
       <c r="V74" s="3"/>
       <c r="W74" s="2"/>
     </row>
-    <row r="75" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4806,7 +4897,7 @@
       <c r="V75" s="3"/>
       <c r="W75" s="2"/>
     </row>
-    <row r="76" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4831,7 +4922,7 @@
       <c r="V76" s="3"/>
       <c r="W76" s="2"/>
     </row>
-    <row r="77" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -4856,7 +4947,7 @@
       <c r="V77" s="3"/>
       <c r="W77" s="2"/>
     </row>
-    <row r="78" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4881,7 +4972,7 @@
       <c r="V78" s="3"/>
       <c r="W78" s="2"/>
     </row>
-    <row r="79" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4906,7 +4997,7 @@
       <c r="V79" s="3"/>
       <c r="W79" s="2"/>
     </row>
-    <row r="80" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4931,7 +5022,7 @@
       <c r="V80" s="3"/>
       <c r="W80" s="2"/>
     </row>
-    <row r="81" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4956,7 +5047,7 @@
       <c r="V81" s="3"/>
       <c r="W81" s="2"/>
     </row>
-    <row r="82" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4981,7 +5072,7 @@
       <c r="V82" s="3"/>
       <c r="W82" s="2"/>
     </row>
-    <row r="83" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -5006,7 +5097,7 @@
       <c r="V83" s="3"/>
       <c r="W83" s="2"/>
     </row>
-    <row r="84" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -5031,7 +5122,7 @@
       <c r="V84" s="3"/>
       <c r="W84" s="2"/>
     </row>
-    <row r="85" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -5056,7 +5147,7 @@
       <c r="V85" s="3"/>
       <c r="W85" s="2"/>
     </row>
-    <row r="86" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -5081,7 +5172,7 @@
       <c r="V86" s="3"/>
       <c r="W86" s="2"/>
     </row>
-    <row r="87" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -5106,7 +5197,7 @@
       <c r="V87" s="3"/>
       <c r="W87" s="2"/>
     </row>
-    <row r="88" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -5131,7 +5222,7 @@
       <c r="V88" s="3"/>
       <c r="W88" s="2"/>
     </row>
-    <row r="89" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -5156,7 +5247,7 @@
       <c r="V89" s="3"/>
       <c r="W89" s="2"/>
     </row>
-    <row r="90" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -5181,7 +5272,7 @@
       <c r="V90" s="3"/>
       <c r="W90" s="2"/>
     </row>
-    <row r="91" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -5206,7 +5297,7 @@
       <c r="V91" s="3"/>
       <c r="W91" s="2"/>
     </row>
-    <row r="92" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -5231,14 +5322,13 @@
       <c r="V92" s="3"/>
       <c r="W92" s="2"/>
     </row>
-    <row r="93" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="4"/>
@@ -5256,7 +5346,7 @@
       <c r="V93" s="3"/>
       <c r="W93" s="2"/>
     </row>
-    <row r="94" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -5281,13 +5371,14 @@
       <c r="V94" s="3"/>
       <c r="W94" s="2"/>
     </row>
-    <row r="95" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="4"/>
@@ -5305,7 +5396,7 @@
       <c r="V95" s="3"/>
       <c r="W95" s="2"/>
     </row>
-    <row r="96" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -5330,7 +5421,7 @@
       <c r="V96" s="3"/>
       <c r="W96" s="2"/>
     </row>
-    <row r="97" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -5355,7 +5446,7 @@
       <c r="V97" s="3"/>
       <c r="W97" s="2"/>
     </row>
-    <row r="98" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -5380,7 +5471,7 @@
       <c r="V98" s="3"/>
       <c r="W98" s="2"/>
     </row>
-    <row r="99" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -5405,7 +5496,7 @@
       <c r="V99" s="3"/>
       <c r="W99" s="2"/>
     </row>
-    <row r="100" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -5430,7 +5521,7 @@
       <c r="V100" s="3"/>
       <c r="W100" s="2"/>
     </row>
-    <row r="101" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -5455,7 +5546,7 @@
       <c r="V101" s="3"/>
       <c r="W101" s="2"/>
     </row>
-    <row r="102" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -5480,7 +5571,7 @@
       <c r="V102" s="3"/>
       <c r="W102" s="2"/>
     </row>
-    <row r="103" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -5505,7 +5596,7 @@
       <c r="V103" s="3"/>
       <c r="W103" s="2"/>
     </row>
-    <row r="104" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -5530,7 +5621,7 @@
       <c r="V104" s="3"/>
       <c r="W104" s="2"/>
     </row>
-    <row r="105" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -5555,7 +5646,7 @@
       <c r="V105" s="3"/>
       <c r="W105" s="2"/>
     </row>
-    <row r="106" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -5580,7 +5671,7 @@
       <c r="V106" s="3"/>
       <c r="W106" s="2"/>
     </row>
-    <row r="107" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -5605,7 +5696,7 @@
       <c r="V107" s="3"/>
       <c r="W107" s="2"/>
     </row>
-    <row r="108" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -5630,7 +5721,7 @@
       <c r="V108" s="3"/>
       <c r="W108" s="2"/>
     </row>
-    <row r="109" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -5655,7 +5746,7 @@
       <c r="V109" s="3"/>
       <c r="W109" s="2"/>
     </row>
-    <row r="110" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -5680,7 +5771,7 @@
       <c r="V110" s="3"/>
       <c r="W110" s="2"/>
     </row>
-    <row r="111" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -5705,7 +5796,7 @@
       <c r="V111" s="3"/>
       <c r="W111" s="2"/>
     </row>
-    <row r="112" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -5730,7 +5821,7 @@
       <c r="V112" s="3"/>
       <c r="W112" s="2"/>
     </row>
-    <row r="113" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -5755,7 +5846,7 @@
       <c r="V113" s="3"/>
       <c r="W113" s="2"/>
     </row>
-    <row r="114" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -5780,7 +5871,7 @@
       <c r="V114" s="3"/>
       <c r="W114" s="2"/>
     </row>
-    <row r="115" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -5805,7 +5896,7 @@
       <c r="V115" s="3"/>
       <c r="W115" s="2"/>
     </row>
-    <row r="116" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -5830,7 +5921,7 @@
       <c r="V116" s="3"/>
       <c r="W116" s="2"/>
     </row>
-    <row r="117" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -5855,7 +5946,7 @@
       <c r="V117" s="3"/>
       <c r="W117" s="2"/>
     </row>
-    <row r="118" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -5880,7 +5971,7 @@
       <c r="V118" s="3"/>
       <c r="W118" s="2"/>
     </row>
-    <row r="119" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -5905,7 +5996,7 @@
       <c r="V119" s="3"/>
       <c r="W119" s="2"/>
     </row>
-    <row r="120" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -5930,7 +6021,7 @@
       <c r="V120" s="3"/>
       <c r="W120" s="2"/>
     </row>
-    <row r="121" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -5955,7 +6046,7 @@
       <c r="V121" s="3"/>
       <c r="W121" s="2"/>
     </row>
-    <row r="122" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -5980,7 +6071,7 @@
       <c r="V122" s="3"/>
       <c r="W122" s="2"/>
     </row>
-    <row r="123" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -6005,7 +6096,7 @@
       <c r="V123" s="3"/>
       <c r="W123" s="2"/>
     </row>
-    <row r="124" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -6030,7 +6121,7 @@
       <c r="V124" s="3"/>
       <c r="W124" s="2"/>
     </row>
-    <row r="125" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -6055,7 +6146,7 @@
       <c r="V125" s="3"/>
       <c r="W125" s="2"/>
     </row>
-    <row r="126" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -6080,7 +6171,7 @@
       <c r="V126" s="3"/>
       <c r="W126" s="2"/>
     </row>
-    <row r="127" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -6105,7 +6196,7 @@
       <c r="V127" s="3"/>
       <c r="W127" s="2"/>
     </row>
-    <row r="128" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -6130,7 +6221,7 @@
       <c r="V128" s="3"/>
       <c r="W128" s="2"/>
     </row>
-    <row r="129" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -6155,7 +6246,7 @@
       <c r="V129" s="3"/>
       <c r="W129" s="2"/>
     </row>
-    <row r="130" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -6180,7 +6271,7 @@
       <c r="V130" s="3"/>
       <c r="W130" s="2"/>
     </row>
-    <row r="131" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -6205,7 +6296,7 @@
       <c r="V131" s="3"/>
       <c r="W131" s="2"/>
     </row>
-    <row r="132" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -6230,7 +6321,7 @@
       <c r="V132" s="3"/>
       <c r="W132" s="2"/>
     </row>
-    <row r="133" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -6255,7 +6346,7 @@
       <c r="V133" s="3"/>
       <c r="W133" s="2"/>
     </row>
-    <row r="134" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -6280,7 +6371,7 @@
       <c r="V134" s="3"/>
       <c r="W134" s="2"/>
     </row>
-    <row r="135" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -6305,7 +6396,7 @@
       <c r="V135" s="3"/>
       <c r="W135" s="2"/>
     </row>
-    <row r="136" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -6330,7 +6421,7 @@
       <c r="V136" s="3"/>
       <c r="W136" s="2"/>
     </row>
-    <row r="137" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -6355,7 +6446,7 @@
       <c r="V137" s="3"/>
       <c r="W137" s="2"/>
     </row>
-    <row r="138" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -6380,7 +6471,7 @@
       <c r="V138" s="3"/>
       <c r="W138" s="2"/>
     </row>
-    <row r="139" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -6405,7 +6496,7 @@
       <c r="V139" s="3"/>
       <c r="W139" s="2"/>
     </row>
-    <row r="140" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -6430,7 +6521,7 @@
       <c r="V140" s="3"/>
       <c r="W140" s="2"/>
     </row>
-    <row r="141" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -6455,7 +6546,7 @@
       <c r="V141" s="3"/>
       <c r="W141" s="2"/>
     </row>
-    <row r="142" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -6480,7 +6571,7 @@
       <c r="V142" s="3"/>
       <c r="W142" s="2"/>
     </row>
-    <row r="143" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -6505,7 +6596,7 @@
       <c r="V143" s="3"/>
       <c r="W143" s="2"/>
     </row>
-    <row r="144" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -6530,7 +6621,7 @@
       <c r="V144" s="3"/>
       <c r="W144" s="2"/>
     </row>
-    <row r="145" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -6555,7 +6646,7 @@
       <c r="V145" s="3"/>
       <c r="W145" s="2"/>
     </row>
-    <row r="146" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -6580,7 +6671,7 @@
       <c r="V146" s="3"/>
       <c r="W146" s="2"/>
     </row>
-    <row r="147" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -6605,7 +6696,7 @@
       <c r="V147" s="3"/>
       <c r="W147" s="2"/>
     </row>
-    <row r="148" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -6630,7 +6721,7 @@
       <c r="V148" s="3"/>
       <c r="W148" s="2"/>
     </row>
-    <row r="149" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -6655,7 +6746,7 @@
       <c r="V149" s="3"/>
       <c r="W149" s="2"/>
     </row>
-    <row r="150" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -6680,7 +6771,7 @@
       <c r="V150" s="3"/>
       <c r="W150" s="2"/>
     </row>
-    <row r="151" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -6705,7 +6796,7 @@
       <c r="V151" s="3"/>
       <c r="W151" s="2"/>
     </row>
-    <row r="152" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -6730,7 +6821,7 @@
       <c r="V152" s="3"/>
       <c r="W152" s="2"/>
     </row>
-    <row r="153" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -6755,7 +6846,7 @@
       <c r="V153" s="3"/>
       <c r="W153" s="2"/>
     </row>
-    <row r="154" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -6780,7 +6871,7 @@
       <c r="V154" s="3"/>
       <c r="W154" s="2"/>
     </row>
-    <row r="155" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -6805,7 +6896,7 @@
       <c r="V155" s="3"/>
       <c r="W155" s="2"/>
     </row>
-    <row r="156" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -6830,7 +6921,7 @@
       <c r="V156" s="3"/>
       <c r="W156" s="2"/>
     </row>
-    <row r="157" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -6855,7 +6946,7 @@
       <c r="V157" s="3"/>
       <c r="W157" s="2"/>
     </row>
-    <row r="158" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -6880,7 +6971,7 @@
       <c r="V158" s="3"/>
       <c r="W158" s="2"/>
     </row>
-    <row r="159" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -6905,7 +6996,7 @@
       <c r="V159" s="3"/>
       <c r="W159" s="2"/>
     </row>
-    <row r="160" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -6930,7 +7021,7 @@
       <c r="V160" s="3"/>
       <c r="W160" s="2"/>
     </row>
-    <row r="161" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -6955,7 +7046,7 @@
       <c r="V161" s="3"/>
       <c r="W161" s="2"/>
     </row>
-    <row r="162" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -6980,7 +7071,7 @@
       <c r="V162" s="3"/>
       <c r="W162" s="2"/>
     </row>
-    <row r="163" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -7005,7 +7096,7 @@
       <c r="V163" s="3"/>
       <c r="W163" s="2"/>
     </row>
-    <row r="164" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -7030,7 +7121,7 @@
       <c r="V164" s="3"/>
       <c r="W164" s="2"/>
     </row>
-    <row r="165" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -7055,7 +7146,7 @@
       <c r="V165" s="3"/>
       <c r="W165" s="2"/>
     </row>
-    <row r="166" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -7080,7 +7171,7 @@
       <c r="V166" s="3"/>
       <c r="W166" s="2"/>
     </row>
-    <row r="167" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -7105,7 +7196,7 @@
       <c r="V167" s="3"/>
       <c r="W167" s="2"/>
     </row>
-    <row r="168" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -7130,7 +7221,7 @@
       <c r="V168" s="3"/>
       <c r="W168" s="2"/>
     </row>
-    <row r="169" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -7155,7 +7246,7 @@
       <c r="V169" s="3"/>
       <c r="W169" s="2"/>
     </row>
-    <row r="170" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -7180,7 +7271,7 @@
       <c r="V170" s="3"/>
       <c r="W170" s="2"/>
     </row>
-    <row r="171" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -7205,7 +7296,7 @@
       <c r="V171" s="3"/>
       <c r="W171" s="2"/>
     </row>
-    <row r="172" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -7230,7 +7321,7 @@
       <c r="V172" s="3"/>
       <c r="W172" s="2"/>
     </row>
-    <row r="173" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -7255,7 +7346,7 @@
       <c r="V173" s="3"/>
       <c r="W173" s="2"/>
     </row>
-    <row r="174" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -7280,7 +7371,7 @@
       <c r="V174" s="3"/>
       <c r="W174" s="2"/>
     </row>
-    <row r="175" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -7305,7 +7396,7 @@
       <c r="V175" s="3"/>
       <c r="W175" s="2"/>
     </row>
-    <row r="176" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -7330,7 +7421,7 @@
       <c r="V176" s="3"/>
       <c r="W176" s="2"/>
     </row>
-    <row r="177" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -7355,7 +7446,7 @@
       <c r="V177" s="3"/>
       <c r="W177" s="2"/>
     </row>
-    <row r="178" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -7380,7 +7471,7 @@
       <c r="V178" s="3"/>
       <c r="W178" s="2"/>
     </row>
-    <row r="179" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -7405,7 +7496,7 @@
       <c r="V179" s="3"/>
       <c r="W179" s="2"/>
     </row>
-    <row r="180" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -7430,7 +7521,7 @@
       <c r="V180" s="3"/>
       <c r="W180" s="2"/>
     </row>
-    <row r="181" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -7455,7 +7546,7 @@
       <c r="V181" s="3"/>
       <c r="W181" s="2"/>
     </row>
-    <row r="182" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -7480,7 +7571,7 @@
       <c r="V182" s="3"/>
       <c r="W182" s="2"/>
     </row>
-    <row r="183" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -7505,7 +7596,7 @@
       <c r="V183" s="3"/>
       <c r="W183" s="2"/>
     </row>
-    <row r="184" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -7530,7 +7621,7 @@
       <c r="V184" s="3"/>
       <c r="W184" s="2"/>
     </row>
-    <row r="185" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -7555,7 +7646,7 @@
       <c r="V185" s="3"/>
       <c r="W185" s="2"/>
     </row>
-    <row r="186" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -7580,7 +7671,7 @@
       <c r="V186" s="3"/>
       <c r="W186" s="2"/>
     </row>
-    <row r="187" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -7605,7 +7696,7 @@
       <c r="V187" s="3"/>
       <c r="W187" s="2"/>
     </row>
-    <row r="188" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -7630,7 +7721,7 @@
       <c r="V188" s="3"/>
       <c r="W188" s="2"/>
     </row>
-    <row r="189" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -7655,7 +7746,7 @@
       <c r="V189" s="3"/>
       <c r="W189" s="2"/>
     </row>
-    <row r="190" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -7680,7 +7771,7 @@
       <c r="V190" s="3"/>
       <c r="W190" s="2"/>
     </row>
-    <row r="191" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -7705,7 +7796,7 @@
       <c r="V191" s="3"/>
       <c r="W191" s="2"/>
     </row>
-    <row r="192" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -7730,7 +7821,7 @@
       <c r="V192" s="3"/>
       <c r="W192" s="2"/>
     </row>
-    <row r="193" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -7755,7 +7846,7 @@
       <c r="V193" s="3"/>
       <c r="W193" s="2"/>
     </row>
-    <row r="194" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -7780,7 +7871,7 @@
       <c r="V194" s="3"/>
       <c r="W194" s="2"/>
     </row>
-    <row r="195" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -7805,7 +7896,7 @@
       <c r="V195" s="3"/>
       <c r="W195" s="2"/>
     </row>
-    <row r="196" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -7830,7 +7921,7 @@
       <c r="V196" s="3"/>
       <c r="W196" s="2"/>
     </row>
-    <row r="197" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -7855,7 +7946,7 @@
       <c r="V197" s="3"/>
       <c r="W197" s="2"/>
     </row>
-    <row r="198" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -7880,7 +7971,7 @@
       <c r="V198" s="3"/>
       <c r="W198" s="2"/>
     </row>
-    <row r="199" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -7905,7 +7996,7 @@
       <c r="V199" s="3"/>
       <c r="W199" s="2"/>
     </row>
-    <row r="200" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -7930,7 +8021,7 @@
       <c r="V200" s="3"/>
       <c r="W200" s="2"/>
     </row>
-    <row r="201" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -7955,7 +8046,7 @@
       <c r="V201" s="3"/>
       <c r="W201" s="2"/>
     </row>
-    <row r="202" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="3"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -7980,7 +8071,7 @@
       <c r="V202" s="3"/>
       <c r="W202" s="2"/>
     </row>
-    <row r="203" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="3"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -8005,7 +8096,7 @@
       <c r="V203" s="3"/>
       <c r="W203" s="2"/>
     </row>
-    <row r="204" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="3"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -8030,7 +8121,7 @@
       <c r="V204" s="3"/>
       <c r="W204" s="2"/>
     </row>
-    <row r="205" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="3"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -8055,58 +8146,10 @@
       <c r="V205" s="3"/>
       <c r="W205" s="2"/>
     </row>
-    <row r="206" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A206" s="3"/>
-      <c r="B206" s="2"/>
-      <c r="C206" s="2"/>
-      <c r="D206" s="3"/>
-      <c r="E206" s="3"/>
-      <c r="F206" s="3"/>
-      <c r="G206" s="3"/>
-      <c r="H206" s="3"/>
-      <c r="I206" s="3"/>
-      <c r="J206" s="4"/>
-      <c r="K206" s="4"/>
-      <c r="L206" s="4"/>
-      <c r="M206" s="4"/>
-      <c r="N206" s="4"/>
-      <c r="O206" s="4"/>
-      <c r="P206" s="4"/>
-      <c r="Q206" s="4"/>
-      <c r="R206" s="4"/>
-      <c r="S206" s="4"/>
-      <c r="T206" s="4"/>
-      <c r="U206" s="4"/>
-      <c r="V206" s="3"/>
-      <c r="W206" s="2"/>
-    </row>
-    <row r="207" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A207" s="3"/>
-      <c r="B207" s="2"/>
-      <c r="C207" s="2"/>
-      <c r="D207" s="3"/>
-      <c r="E207" s="3"/>
-      <c r="F207" s="3"/>
-      <c r="G207" s="3"/>
-      <c r="H207" s="3"/>
-      <c r="I207" s="3"/>
-      <c r="J207" s="4"/>
-      <c r="K207" s="4"/>
-      <c r="L207" s="4"/>
-      <c r="M207" s="4"/>
-      <c r="N207" s="4"/>
-      <c r="O207" s="4"/>
-      <c r="P207" s="4"/>
-      <c r="Q207" s="4"/>
-      <c r="R207" s="4"/>
-      <c r="S207" s="4"/>
-      <c r="T207" s="4"/>
-      <c r="U207" s="4"/>
-      <c r="V207" s="3"/>
-      <c r="W207" s="2"/>
-    </row>
-    <row r="208" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="209" ht="45" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="206" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="45" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W33">
     <sortCondition ref="A2"/>

--- a/JavaApplication19/src/excel/Inventario.xlsx
+++ b/JavaApplication19/src/excel/Inventario.xlsx
@@ -3,24 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E470528F-68B8-435D-AE2E-EA496B84E16F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513B6711-1E94-4369-83C8-E6DDDEFD91DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventario" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" fullCalcOnLoad="true"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="123">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -319,9 +319,6 @@
     <t>60</t>
   </si>
   <si>
-    <t>3000.0</t>
-  </si>
-  <si>
     <t>80</t>
   </si>
   <si>
@@ -352,9 +349,6 @@
     <t>8500</t>
   </si>
   <si>
-    <t>17000.0</t>
-  </si>
-  <si>
     <t>9200</t>
   </si>
   <si>
@@ -365,6 +359,36 @@
   </si>
   <si>
     <t>21344.0</t>
+  </si>
+  <si>
+    <t>Bici Fuji</t>
+  </si>
+  <si>
+    <t>Rodada 29</t>
+  </si>
+  <si>
+    <t>29  julio 20</t>
+  </si>
+  <si>
+    <t>Fuji</t>
+  </si>
+  <si>
+    <t>1.141304347826087</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>10500</t>
+  </si>
+  <si>
+    <t>31500.0</t>
+  </si>
+  <si>
+    <t>12180.0</t>
+  </si>
+  <si>
+    <t>36540.0</t>
   </si>
 </sst>
 </file>
@@ -1021,17 +1045,17 @@
   <dimension ref="A1:AC209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A34" sqref="A34:W34"/>
+      <selection pane="bottomRight" activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="3" max="23" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="24" max="29" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="1" max="2" width="40.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="23" width="20.6640625" customWidth="1" collapsed="1"/>
+    <col min="24" max="29" width="10.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -3791,164 +3815,180 @@
         <v>96.949891067538147</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="s" s="0">
+    <row r="34" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>91</v>
       </c>
-      <c r="B34" t="s" s="0">
+      <c r="B34" t="s">
         <v>92</v>
       </c>
-      <c r="C34" t="s" s="0">
+      <c r="C34" t="s">
         <v>93</v>
       </c>
-      <c r="D34" t="s" s="0">
+      <c r="D34" t="s">
         <v>94</v>
       </c>
-      <c r="E34" t="s" s="0">
+      <c r="E34" t="s">
         <v>95</v>
       </c>
-      <c r="F34" t="s" s="0">
+      <c r="F34" t="s">
         <v>96</v>
       </c>
-      <c r="G34" t="s" s="0">
+      <c r="G34" t="s">
         <v>97</v>
       </c>
-      <c r="H34" t="s" s="0">
+      <c r="H34" t="s">
         <v>98</v>
       </c>
-      <c r="I34" t="s" s="0">
+      <c r="I34">
+        <v>3000</v>
+      </c>
+      <c r="J34" t="s">
         <v>99</v>
       </c>
-      <c r="J34" t="s" s="0">
+      <c r="K34" t="s">
         <v>100</v>
       </c>
-      <c r="K34" t="s" s="0">
+      <c r="L34" t="s">
         <v>101</v>
       </c>
-      <c r="L34" t="s" s="0">
+      <c r="M34" t="s">
         <v>102</v>
       </c>
-      <c r="M34" t="s" s="0">
+    </row>
+    <row r="35" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="0">
+      <c r="B35" t="s">
         <v>104</v>
       </c>
-      <c r="B35" t="s" s="0">
+      <c r="C35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" t="s">
         <v>105</v>
       </c>
-      <c r="C35" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="D35" t="s" s="0">
+      <c r="F35" t="s">
+        <v>106</v>
+      </c>
+      <c r="G35" t="s">
+        <v>107</v>
+      </c>
+      <c r="H35" t="s">
+        <v>108</v>
+      </c>
+      <c r="I35">
+        <v>17000</v>
+      </c>
+      <c r="J35" t="s">
+        <v>109</v>
+      </c>
+      <c r="K35" t="s">
+        <v>110</v>
+      </c>
+      <c r="L35" t="s">
+        <v>111</v>
+      </c>
+      <c r="M35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" t="s">
         <v>94</v>
       </c>
-      <c r="E35" t="s" s="0">
-        <v>106</v>
-      </c>
-      <c r="F35" t="s" s="0">
-        <v>107</v>
-      </c>
-      <c r="G35" t="s" s="0">
-        <v>108</v>
-      </c>
-      <c r="H35" t="s" s="0">
+      <c r="E36" t="s">
+        <v>116</v>
+      </c>
+      <c r="F36" t="s">
+        <v>117</v>
+      </c>
+      <c r="G36" t="s">
+        <v>118</v>
+      </c>
+      <c r="H36" t="s">
         <v>109</v>
       </c>
-      <c r="I35" t="s" s="0">
-        <v>110</v>
-      </c>
-      <c r="J35" t="s" s="0">
-        <v>111</v>
-      </c>
-      <c r="K35" t="s" s="0">
-        <v>112</v>
-      </c>
-      <c r="L35" t="s" s="0">
-        <v>113</v>
-      </c>
-      <c r="M35" t="s" s="0">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="26"/>
-      <c r="I36" t="n">
-        <f>SUM(I2:I35)</f>
-        <v>0.0</v>
-      </c>
-      <c r="J36" s="26"/>
-      <c r="K36" t="n">
-        <f>SUM(K2:K35)</f>
-        <v>0.0</v>
-      </c>
-      <c r="L36" s="26"/>
-      <c r="M36" t="n">
-        <f>SUM(M2:M35)</f>
-        <v>0.0</v>
-      </c>
-      <c r="N36" s="26"/>
-      <c r="O36" t="n">
-        <f>SUM(O2:O35)</f>
-        <v>0.0</v>
-      </c>
-      <c r="P36" s="26"/>
-      <c r="Q36" t="n">
-        <f>SUM(Q2:Q35)</f>
-        <v>0.0</v>
-      </c>
-      <c r="R36" s="26"/>
-      <c r="S36" t="n">
-        <f>SUM(S2:S35)</f>
-        <v>0.0</v>
-      </c>
-      <c r="T36" s="26"/>
-      <c r="U36" t="n">
-        <f>SUM(U2:U35)</f>
-        <v>0.0</v>
-      </c>
-      <c r="V36" s="26"/>
-      <c r="W36" t="n">
-        <f>SUM(W2:W35)</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="5"/>
-    </row>
-    <row r="38" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
+      <c r="I36">
+        <v>27600</v>
+      </c>
+      <c r="J36" t="s">
+        <v>119</v>
+      </c>
+      <c r="K36" t="s">
+        <v>120</v>
+      </c>
+      <c r="L36" t="s">
+        <v>121</v>
+      </c>
+      <c r="M36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="23"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="26"/>
+      <c r="I37">
+        <f>SUM(I2:I36)</f>
+        <v>85321.034456382244</v>
+      </c>
+      <c r="J37" s="26"/>
+      <c r="K37">
+        <f>SUM(K2:K36)</f>
+        <v>60170</v>
+      </c>
+      <c r="L37" s="26"/>
+      <c r="M37">
+        <f>SUM(M2:M36)</f>
+        <v>69797.2</v>
+      </c>
+      <c r="N37" s="26"/>
+      <c r="O37">
+        <f>SUM(O2:O36)</f>
+        <v>91826.78</v>
+      </c>
+      <c r="P37" s="26"/>
+      <c r="Q37">
+        <f>SUM(Q2:Q36)</f>
+        <v>11914.580000000002</v>
+      </c>
+      <c r="R37" s="26"/>
+      <c r="S37">
+        <f>SUM(S2:S36)</f>
+        <v>9627.2000000000007</v>
+      </c>
+      <c r="T37" s="26"/>
+      <c r="U37">
+        <f>SUM(U2:U36)</f>
+        <v>22448.965543617753</v>
+      </c>
+      <c r="V37" s="26"/>
+      <c r="W37">
+        <f>SUM(W2:W36)</f>
+        <v>22448.965543617756</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="3"/>
@@ -3969,8 +4009,8 @@
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="2"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="5"/>
     </row>
     <row r="39" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>

--- a/JavaApplication19/src/excel/Inventario.xlsx
+++ b/JavaApplication19/src/excel/Inventario.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
@@ -1053,9 +1053,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="40.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="23" width="20.6640625" customWidth="1" collapsed="1"/>
-    <col min="24" max="29" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
+    <col min="3" max="23" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="24" max="29" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1223,8 +1223,8 @@
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
-      <c r="G3" s="19">
-        <v>1</v>
+      <c r="G3" t="n">
+        <v>0.0</v>
       </c>
       <c r="H3" s="15">
         <v>380</v>
@@ -1628,8 +1628,8 @@
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
-      <c r="G8">
-        <v>61</v>
+      <c r="G8" t="n">
+        <v>60.0</v>
       </c>
       <c r="H8" s="15">
         <v>27</v>

--- a/JavaApplication19/src/excel/Inventario.xlsx
+++ b/JavaApplication19/src/excel/Inventario.xlsx
@@ -1118,8 +1118,8 @@
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
-      <c r="G2">
-        <v>1</v>
+      <c r="G2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H2" s="15">
         <v>200</v>
@@ -1199,8 +1199,8 @@
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
-      <c r="G3" s="19">
-        <v>1</v>
+      <c r="G3" t="n">
+        <v>0.0</v>
       </c>
       <c r="H3" s="15">
         <v>380</v>
@@ -1280,8 +1280,8 @@
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
-      <c r="G4" s="19">
-        <v>1</v>
+      <c r="G4" t="n">
+        <v>0.0</v>
       </c>
       <c r="H4" s="15">
         <v>280</v>
@@ -1361,8 +1361,8 @@
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
-      <c r="G5" s="22">
-        <v>1</v>
+      <c r="G5" t="n">
+        <v>0.0</v>
       </c>
       <c r="H5" s="15">
         <v>4111.59</v>
@@ -1442,8 +1442,8 @@
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
-      <c r="G6" s="14">
-        <v>1</v>
+      <c r="G6" t="n">
+        <v>2.0</v>
       </c>
       <c r="H6" s="15">
         <v>10508</v>

--- a/JavaApplication19/src/excel/Inventario.xlsx
+++ b/JavaApplication19/src/excel/Inventario.xlsx
@@ -1523,8 +1523,8 @@
       </c>
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
-      <c r="G7" s="30">
-        <v>1</v>
+      <c r="G7" t="n">
+        <v>1.0</v>
       </c>
       <c r="H7" s="15">
         <v>5990</v>

--- a/JavaApplication19/src/excel/Inventario.xlsx
+++ b/JavaApplication19/src/excel/Inventario.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Desarrollo\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E470528F-68B8-435D-AE2E-EA496B84E16F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B382A135-44CF-4E48-82F9-15A613AA6EA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3083" yWindow="0" windowWidth="21600" windowHeight="11498" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventario" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="126">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -365,6 +375,39 @@
   </si>
   <si>
     <t>21344.0</t>
+  </si>
+  <si>
+    <t>Inventario</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>29  julio 20</t>
+  </si>
+  <si>
+    <t>das</t>
+  </si>
+  <si>
+    <t>10.032520325203253</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>246.0</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>2468.0</t>
+  </si>
+  <si>
+    <t>1431.44</t>
+  </si>
+  <si>
+    <t>2862.88</t>
   </si>
 </sst>
 </file>
@@ -619,7 +662,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="1" builtinId="21"/>
+    <cellStyle name="Salida" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -698,7 +741,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1021,20 +1064,20 @@
   <dimension ref="A1:AC209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A34" sqref="A34:W34"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.46484375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
     <col min="3" max="23" customWidth="true" width="20.6640625" collapsed="true"/>
     <col min="24" max="29" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7"/>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -1103,7 +1146,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="s">
         <v>43</v>
       </c>
@@ -1118,8 +1161,8 @@
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
-      <c r="G2" t="n">
-        <v>1.0</v>
+      <c r="G2">
+        <v>1</v>
       </c>
       <c r="H2" s="15">
         <v>200</v>
@@ -1184,7 +1227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
         <v>20</v>
       </c>
@@ -1199,8 +1242,8 @@
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
-      <c r="G3" t="n">
-        <v>0.0</v>
+      <c r="G3">
+        <v>1</v>
       </c>
       <c r="H3" s="15">
         <v>380</v>
@@ -1265,7 +1308,7 @@
         <v>6.3948846218409017E-14</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
         <v>22</v>
       </c>
@@ -1280,8 +1323,8 @@
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
-      <c r="G4" t="n">
-        <v>0.0</v>
+      <c r="G4">
+        <v>1</v>
       </c>
       <c r="H4" s="15">
         <v>280</v>
@@ -1346,7 +1389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A5" s="20" t="s">
         <v>24</v>
       </c>
@@ -1361,8 +1404,8 @@
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
-      <c r="G5" t="n">
-        <v>0.0</v>
+      <c r="G5">
+        <v>1</v>
       </c>
       <c r="H5" s="15">
         <v>4111.59</v>
@@ -1427,7 +1470,7 @@
         <v>1488.4099999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
         <v>44</v>
       </c>
@@ -1442,8 +1485,8 @@
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
-      <c r="G6" t="n">
-        <v>2.0</v>
+      <c r="G6">
+        <v>1</v>
       </c>
       <c r="H6" s="15">
         <v>10508</v>
@@ -1508,7 +1551,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A7" s="28" t="s">
         <v>41</v>
       </c>
@@ -1523,8 +1566,8 @@
       </c>
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
-      <c r="G7" t="n">
-        <v>1.0</v>
+      <c r="G7">
+        <v>1</v>
       </c>
       <c r="H7" s="15">
         <v>5990</v>
@@ -1589,7 +1632,7 @@
         <v>9010</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
         <v>25</v>
       </c>
@@ -1670,7 +1713,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A9" s="12" t="s">
         <v>72</v>
       </c>
@@ -1757,7 +1800,7 @@
         <v>290.84967320261444</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
         <v>46</v>
       </c>
@@ -1837,7 +1880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A11" s="12" t="s">
         <v>29</v>
       </c>
@@ -1924,7 +1967,7 @@
         <v>77.5599128540305</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
         <v>50</v>
       </c>
@@ -2011,7 +2054,7 @@
         <v>170.20547945205476</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="s">
         <v>73</v>
       </c>
@@ -2092,7 +2135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A14" s="12" t="s">
         <v>30</v>
       </c>
@@ -2173,7 +2216,7 @@
         <v>2932.8000000000011</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A15" s="12" t="s">
         <v>85</v>
       </c>
@@ -2260,7 +2303,7 @@
         <v>243.15068493150687</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A16" s="12" t="s">
         <v>31</v>
       </c>
@@ -2347,7 +2390,7 @@
         <v>72.945205479452056</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="s">
         <v>32</v>
       </c>
@@ -2428,7 +2471,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A18" s="28" t="s">
         <v>33</v>
       </c>
@@ -2509,7 +2552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
         <v>74</v>
       </c>
@@ -2596,7 +2639,7 @@
         <v>194.52054794520552</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A20" s="12" t="s">
         <v>75</v>
       </c>
@@ -2677,7 +2720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A21" s="12" t="s">
         <v>76</v>
       </c>
@@ -2764,7 +2807,7 @@
         <v>121.57534246575344</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A22" s="12" t="s">
         <v>77</v>
       </c>
@@ -2845,7 +2888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A23" s="12" t="s">
         <v>79</v>
       </c>
@@ -2926,7 +2969,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A24" s="12" t="s">
         <v>34</v>
       </c>
@@ -3014,7 +3057,7 @@
       </c>
       <c r="AC24" s="6"/>
     </row>
-    <row r="25" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A25" s="12" t="s">
         <v>35</v>
       </c>
@@ -3101,7 +3144,7 @@
         <v>67.864923747276663</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A26" s="12" t="s">
         <v>36</v>
       </c>
@@ -3188,7 +3231,7 @@
         <v>121.57534246575344</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A27" s="12" t="s">
         <v>37</v>
       </c>
@@ -3275,7 +3318,7 @@
         <v>116.33986928104576</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A28" s="12" t="s">
         <v>38</v>
       </c>
@@ -3362,7 +3405,7 @@
         <v>121.57534246575344</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A29" s="12" t="s">
         <v>39</v>
       </c>
@@ -3449,7 +3492,7 @@
         <v>96.949891067538147</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A30" s="12" t="s">
         <v>61</v>
       </c>
@@ -3536,7 +3579,7 @@
         <v>232.67973856209153</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A31" s="28" t="s">
         <v>63</v>
       </c>
@@ -3617,7 +3660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A32" s="12" t="s">
         <v>40</v>
       </c>
@@ -3704,7 +3747,7 @@
         <v>1069.8630136986303</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A33" s="12" t="s">
         <v>67</v>
       </c>
@@ -3791,164 +3834,180 @@
         <v>96.949891067538147</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="s" s="0">
+    <row r="34" spans="1:23" ht="30.0" x14ac:dyDescent="0.45" customHeight="true">
+      <c r="A34" t="s">
         <v>91</v>
       </c>
-      <c r="B34" t="s" s="0">
+      <c r="B34" t="s">
         <v>92</v>
       </c>
-      <c r="C34" t="s" s="0">
+      <c r="C34" t="s">
         <v>93</v>
       </c>
-      <c r="D34" t="s" s="0">
+      <c r="D34" t="s">
         <v>94</v>
       </c>
-      <c r="E34" t="s" s="0">
+      <c r="E34" t="s">
         <v>95</v>
       </c>
-      <c r="F34" t="s" s="0">
+      <c r="F34" t="s">
         <v>96</v>
       </c>
-      <c r="G34" t="s" s="0">
+      <c r="G34" t="s">
         <v>97</v>
       </c>
-      <c r="H34" t="s" s="0">
+      <c r="H34" t="s">
         <v>98</v>
       </c>
-      <c r="I34" t="s" s="0">
+      <c r="I34" t="s">
         <v>99</v>
       </c>
-      <c r="J34" t="s" s="0">
+      <c r="J34" t="s">
         <v>100</v>
       </c>
-      <c r="K34" t="s" s="0">
+      <c r="K34" t="s">
         <v>101</v>
       </c>
-      <c r="L34" t="s" s="0">
+      <c r="L34" t="s">
         <v>102</v>
       </c>
-      <c r="M34" t="s" s="0">
+      <c r="M34" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="s" s="0">
+    <row r="35" spans="1:23" ht="30.0" x14ac:dyDescent="0.45" customHeight="true">
+      <c r="A35" t="s">
         <v>104</v>
       </c>
-      <c r="B35" t="s" s="0">
+      <c r="B35" t="s">
         <v>105</v>
       </c>
-      <c r="C35" t="s" s="0">
+      <c r="C35" t="s">
         <v>93</v>
       </c>
-      <c r="D35" t="s" s="0">
+      <c r="D35" t="s">
         <v>94</v>
       </c>
-      <c r="E35" t="s" s="0">
+      <c r="E35" t="s">
         <v>106</v>
       </c>
-      <c r="F35" t="s" s="0">
+      <c r="F35" t="s">
         <v>107</v>
       </c>
-      <c r="G35" t="s" s="0">
+      <c r="G35" t="s">
         <v>108</v>
       </c>
-      <c r="H35" t="s" s="0">
+      <c r="H35" t="s">
         <v>109</v>
       </c>
-      <c r="I35" t="s" s="0">
+      <c r="I35" t="s">
         <v>110</v>
       </c>
-      <c r="J35" t="s" s="0">
+      <c r="J35" t="s">
         <v>111</v>
       </c>
-      <c r="K35" t="s" s="0">
+      <c r="K35" t="s">
         <v>112</v>
       </c>
-      <c r="L35" t="s" s="0">
+      <c r="L35" t="s">
         <v>113</v>
       </c>
-      <c r="M35" t="s" s="0">
+      <c r="M35" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="26"/>
-      <c r="I36" t="n">
-        <f>SUM(I2:I35)</f>
+    <row r="36" ht="30.0" customHeight="true">
+      <c r="A36" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="E36" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="F36" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="G36" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="H36" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="I36" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="J36" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="K36" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="L36" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="M36" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="30.0" x14ac:dyDescent="0.45" customHeight="true">
+      <c r="A37" s="23"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="26"/>
+      <c r="I37" t="n">
+        <f>SUM(I2:I36)</f>
         <v>0.0</v>
       </c>
-      <c r="J36" s="26"/>
-      <c r="K36" t="n">
-        <f>SUM(K2:K35)</f>
+      <c r="J37" s="26"/>
+      <c r="K37" t="n">
+        <f>SUM(K2:K36)</f>
         <v>0.0</v>
       </c>
-      <c r="L36" s="26"/>
-      <c r="M36" t="n">
-        <f>SUM(M2:M35)</f>
+      <c r="L37" s="26"/>
+      <c r="M37" t="n">
+        <f>SUM(M2:M36)</f>
         <v>0.0</v>
       </c>
-      <c r="N36" s="26"/>
-      <c r="O36" t="n">
-        <f>SUM(O2:O35)</f>
+      <c r="N37" s="26"/>
+      <c r="O37" t="n">
+        <f>SUM(O2:O36)</f>
         <v>0.0</v>
       </c>
-      <c r="P36" s="26"/>
-      <c r="Q36" t="n">
-        <f>SUM(Q2:Q35)</f>
+      <c r="P37" s="26"/>
+      <c r="Q37" t="n">
+        <f>SUM(Q2:Q36)</f>
         <v>0.0</v>
       </c>
-      <c r="R36" s="26"/>
-      <c r="S36" t="n">
-        <f>SUM(S2:S35)</f>
+      <c r="R37" s="26"/>
+      <c r="S37" t="n">
+        <f>SUM(S2:S36)</f>
         <v>0.0</v>
       </c>
-      <c r="T36" s="26"/>
-      <c r="U36" t="n">
-        <f>SUM(U2:U35)</f>
+      <c r="T37" s="26"/>
+      <c r="U37" t="n">
+        <f>SUM(U2:U36)</f>
         <v>0.0</v>
       </c>
-      <c r="V36" s="26"/>
-      <c r="W36" t="n">
-        <f>SUM(W2:W35)</f>
+      <c r="V37" s="26"/>
+      <c r="W37" t="n">
+        <f>SUM(W2:W36)</f>
         <v>0.0</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="5"/>
-    </row>
-    <row r="38" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
+    <row r="38" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="3"/>
@@ -3969,10 +4028,10 @@
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="2"/>
-    </row>
-    <row r="39" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V38" s="4"/>
+      <c r="W38" s="5"/>
+    </row>
+    <row r="39" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -3997,7 +4056,7 @@
       <c r="V39" s="3"/>
       <c r="W39" s="2"/>
     </row>
-    <row r="40" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -4022,7 +4081,7 @@
       <c r="V40" s="3"/>
       <c r="W40" s="2"/>
     </row>
-    <row r="41" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -4047,7 +4106,7 @@
       <c r="V41" s="3"/>
       <c r="W41" s="2"/>
     </row>
-    <row r="42" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -4072,7 +4131,7 @@
       <c r="V42" s="3"/>
       <c r="W42" s="2"/>
     </row>
-    <row r="43" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -4097,7 +4156,7 @@
       <c r="V43" s="3"/>
       <c r="W43" s="2"/>
     </row>
-    <row r="44" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -4122,7 +4181,7 @@
       <c r="V44" s="3"/>
       <c r="W44" s="2"/>
     </row>
-    <row r="45" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -4147,7 +4206,7 @@
       <c r="V45" s="3"/>
       <c r="W45" s="2"/>
     </row>
-    <row r="46" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -4172,7 +4231,7 @@
       <c r="V46" s="3"/>
       <c r="W46" s="2"/>
     </row>
-    <row r="47" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -4197,7 +4256,7 @@
       <c r="V47" s="3"/>
       <c r="W47" s="2"/>
     </row>
-    <row r="48" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -4222,7 +4281,7 @@
       <c r="V48" s="3"/>
       <c r="W48" s="2"/>
     </row>
-    <row r="49" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="3"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -4247,7 +4306,7 @@
       <c r="V49" s="3"/>
       <c r="W49" s="2"/>
     </row>
-    <row r="50" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="3"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -4272,7 +4331,7 @@
       <c r="V50" s="3"/>
       <c r="W50" s="2"/>
     </row>
-    <row r="51" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -4297,7 +4356,7 @@
       <c r="V51" s="3"/>
       <c r="W51" s="2"/>
     </row>
-    <row r="52" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="3"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -4322,7 +4381,7 @@
       <c r="V52" s="3"/>
       <c r="W52" s="2"/>
     </row>
-    <row r="53" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="3"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -4347,7 +4406,7 @@
       <c r="V53" s="3"/>
       <c r="W53" s="2"/>
     </row>
-    <row r="54" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="3"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -4372,7 +4431,7 @@
       <c r="V54" s="3"/>
       <c r="W54" s="2"/>
     </row>
-    <row r="55" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -4397,7 +4456,7 @@
       <c r="V55" s="3"/>
       <c r="W55" s="2"/>
     </row>
-    <row r="56" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="3"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -4422,7 +4481,7 @@
       <c r="V56" s="3"/>
       <c r="W56" s="2"/>
     </row>
-    <row r="57" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="3"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -4447,7 +4506,7 @@
       <c r="V57" s="3"/>
       <c r="W57" s="2"/>
     </row>
-    <row r="58" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="3"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -4472,7 +4531,7 @@
       <c r="V58" s="3"/>
       <c r="W58" s="2"/>
     </row>
-    <row r="59" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="3"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -4497,7 +4556,7 @@
       <c r="V59" s="3"/>
       <c r="W59" s="2"/>
     </row>
-    <row r="60" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="3"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -4522,7 +4581,7 @@
       <c r="V60" s="3"/>
       <c r="W60" s="2"/>
     </row>
-    <row r="61" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="3"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -4547,7 +4606,7 @@
       <c r="V61" s="3"/>
       <c r="W61" s="2"/>
     </row>
-    <row r="62" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="3"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -4572,7 +4631,7 @@
       <c r="V62" s="3"/>
       <c r="W62" s="2"/>
     </row>
-    <row r="63" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="3"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -4597,7 +4656,7 @@
       <c r="V63" s="3"/>
       <c r="W63" s="2"/>
     </row>
-    <row r="64" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="3"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -4622,7 +4681,7 @@
       <c r="V64" s="3"/>
       <c r="W64" s="2"/>
     </row>
-    <row r="65" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="3"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -4647,7 +4706,7 @@
       <c r="V65" s="3"/>
       <c r="W65" s="2"/>
     </row>
-    <row r="66" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="3"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -4672,7 +4731,7 @@
       <c r="V66" s="3"/>
       <c r="W66" s="2"/>
     </row>
-    <row r="67" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="3"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -4697,7 +4756,7 @@
       <c r="V67" s="3"/>
       <c r="W67" s="2"/>
     </row>
-    <row r="68" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="3"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -4722,7 +4781,7 @@
       <c r="V68" s="3"/>
       <c r="W68" s="2"/>
     </row>
-    <row r="69" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="3"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -4747,7 +4806,7 @@
       <c r="V69" s="3"/>
       <c r="W69" s="2"/>
     </row>
-    <row r="70" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="3"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -4772,7 +4831,7 @@
       <c r="V70" s="3"/>
       <c r="W70" s="2"/>
     </row>
-    <row r="71" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="3"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4797,7 +4856,7 @@
       <c r="V71" s="3"/>
       <c r="W71" s="2"/>
     </row>
-    <row r="72" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="3"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4822,7 +4881,7 @@
       <c r="V72" s="3"/>
       <c r="W72" s="2"/>
     </row>
-    <row r="73" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="3"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4847,7 +4906,7 @@
       <c r="V73" s="3"/>
       <c r="W73" s="2"/>
     </row>
-    <row r="74" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="3"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4872,7 +4931,7 @@
       <c r="V74" s="3"/>
       <c r="W74" s="2"/>
     </row>
-    <row r="75" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="3"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4897,7 +4956,7 @@
       <c r="V75" s="3"/>
       <c r="W75" s="2"/>
     </row>
-    <row r="76" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="3"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4922,7 +4981,7 @@
       <c r="V76" s="3"/>
       <c r="W76" s="2"/>
     </row>
-    <row r="77" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="3"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -4947,7 +5006,7 @@
       <c r="V77" s="3"/>
       <c r="W77" s="2"/>
     </row>
-    <row r="78" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="3"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4972,7 +5031,7 @@
       <c r="V78" s="3"/>
       <c r="W78" s="2"/>
     </row>
-    <row r="79" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="3"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4997,7 +5056,7 @@
       <c r="V79" s="3"/>
       <c r="W79" s="2"/>
     </row>
-    <row r="80" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="3"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -5022,7 +5081,7 @@
       <c r="V80" s="3"/>
       <c r="W80" s="2"/>
     </row>
-    <row r="81" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="3"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -5047,7 +5106,7 @@
       <c r="V81" s="3"/>
       <c r="W81" s="2"/>
     </row>
-    <row r="82" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="3"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -5072,7 +5131,7 @@
       <c r="V82" s="3"/>
       <c r="W82" s="2"/>
     </row>
-    <row r="83" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="3"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -5097,7 +5156,7 @@
       <c r="V83" s="3"/>
       <c r="W83" s="2"/>
     </row>
-    <row r="84" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="3"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -5122,7 +5181,7 @@
       <c r="V84" s="3"/>
       <c r="W84" s="2"/>
     </row>
-    <row r="85" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="3"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -5147,7 +5206,7 @@
       <c r="V85" s="3"/>
       <c r="W85" s="2"/>
     </row>
-    <row r="86" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="3"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -5172,7 +5231,7 @@
       <c r="V86" s="3"/>
       <c r="W86" s="2"/>
     </row>
-    <row r="87" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="3"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -5197,7 +5256,7 @@
       <c r="V87" s="3"/>
       <c r="W87" s="2"/>
     </row>
-    <row r="88" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="3"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -5222,7 +5281,7 @@
       <c r="V88" s="3"/>
       <c r="W88" s="2"/>
     </row>
-    <row r="89" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="3"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -5247,7 +5306,7 @@
       <c r="V89" s="3"/>
       <c r="W89" s="2"/>
     </row>
-    <row r="90" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="3"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -5272,7 +5331,7 @@
       <c r="V90" s="3"/>
       <c r="W90" s="2"/>
     </row>
-    <row r="91" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="3"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -5297,7 +5356,7 @@
       <c r="V91" s="3"/>
       <c r="W91" s="2"/>
     </row>
-    <row r="92" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="3"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -5322,7 +5381,7 @@
       <c r="V92" s="3"/>
       <c r="W92" s="2"/>
     </row>
-    <row r="93" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="3"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -5346,7 +5405,7 @@
       <c r="V93" s="3"/>
       <c r="W93" s="2"/>
     </row>
-    <row r="94" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="3"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -5371,7 +5430,7 @@
       <c r="V94" s="3"/>
       <c r="W94" s="2"/>
     </row>
-    <row r="95" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="3"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -5396,7 +5455,7 @@
       <c r="V95" s="3"/>
       <c r="W95" s="2"/>
     </row>
-    <row r="96" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="3"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -5421,7 +5480,7 @@
       <c r="V96" s="3"/>
       <c r="W96" s="2"/>
     </row>
-    <row r="97" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="3"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -5446,7 +5505,7 @@
       <c r="V97" s="3"/>
       <c r="W97" s="2"/>
     </row>
-    <row r="98" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="3"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -5471,7 +5530,7 @@
       <c r="V98" s="3"/>
       <c r="W98" s="2"/>
     </row>
-    <row r="99" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="3"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -5496,7 +5555,7 @@
       <c r="V99" s="3"/>
       <c r="W99" s="2"/>
     </row>
-    <row r="100" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="3"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -5521,7 +5580,7 @@
       <c r="V100" s="3"/>
       <c r="W100" s="2"/>
     </row>
-    <row r="101" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="3"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -5546,7 +5605,7 @@
       <c r="V101" s="3"/>
       <c r="W101" s="2"/>
     </row>
-    <row r="102" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="3"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -5571,7 +5630,7 @@
       <c r="V102" s="3"/>
       <c r="W102" s="2"/>
     </row>
-    <row r="103" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="3"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -5596,7 +5655,7 @@
       <c r="V103" s="3"/>
       <c r="W103" s="2"/>
     </row>
-    <row r="104" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="3"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -5621,7 +5680,7 @@
       <c r="V104" s="3"/>
       <c r="W104" s="2"/>
     </row>
-    <row r="105" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="3"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -5646,7 +5705,7 @@
       <c r="V105" s="3"/>
       <c r="W105" s="2"/>
     </row>
-    <row r="106" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="3"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -5671,7 +5730,7 @@
       <c r="V106" s="3"/>
       <c r="W106" s="2"/>
     </row>
-    <row r="107" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="3"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -5696,7 +5755,7 @@
       <c r="V107" s="3"/>
       <c r="W107" s="2"/>
     </row>
-    <row r="108" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="3"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -5721,7 +5780,7 @@
       <c r="V108" s="3"/>
       <c r="W108" s="2"/>
     </row>
-    <row r="109" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="3"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -5746,7 +5805,7 @@
       <c r="V109" s="3"/>
       <c r="W109" s="2"/>
     </row>
-    <row r="110" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="3"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -5771,7 +5830,7 @@
       <c r="V110" s="3"/>
       <c r="W110" s="2"/>
     </row>
-    <row r="111" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="3"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -5796,7 +5855,7 @@
       <c r="V111" s="3"/>
       <c r="W111" s="2"/>
     </row>
-    <row r="112" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="3"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -5821,7 +5880,7 @@
       <c r="V112" s="3"/>
       <c r="W112" s="2"/>
     </row>
-    <row r="113" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="3"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -5846,7 +5905,7 @@
       <c r="V113" s="3"/>
       <c r="W113" s="2"/>
     </row>
-    <row r="114" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="3"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -5871,7 +5930,7 @@
       <c r="V114" s="3"/>
       <c r="W114" s="2"/>
     </row>
-    <row r="115" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" s="3"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -5896,7 +5955,7 @@
       <c r="V115" s="3"/>
       <c r="W115" s="2"/>
     </row>
-    <row r="116" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" s="3"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -5921,7 +5980,7 @@
       <c r="V116" s="3"/>
       <c r="W116" s="2"/>
     </row>
-    <row r="117" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" s="3"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -5946,7 +6005,7 @@
       <c r="V117" s="3"/>
       <c r="W117" s="2"/>
     </row>
-    <row r="118" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" s="3"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -5971,7 +6030,7 @@
       <c r="V118" s="3"/>
       <c r="W118" s="2"/>
     </row>
-    <row r="119" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119" s="3"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -5996,7 +6055,7 @@
       <c r="V119" s="3"/>
       <c r="W119" s="2"/>
     </row>
-    <row r="120" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120" s="3"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -6021,7 +6080,7 @@
       <c r="V120" s="3"/>
       <c r="W120" s="2"/>
     </row>
-    <row r="121" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A121" s="3"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -6046,7 +6105,7 @@
       <c r="V121" s="3"/>
       <c r="W121" s="2"/>
     </row>
-    <row r="122" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A122" s="3"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -6071,7 +6130,7 @@
       <c r="V122" s="3"/>
       <c r="W122" s="2"/>
     </row>
-    <row r="123" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A123" s="3"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -6096,7 +6155,7 @@
       <c r="V123" s="3"/>
       <c r="W123" s="2"/>
     </row>
-    <row r="124" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A124" s="3"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -6121,7 +6180,7 @@
       <c r="V124" s="3"/>
       <c r="W124" s="2"/>
     </row>
-    <row r="125" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" s="3"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -6146,7 +6205,7 @@
       <c r="V125" s="3"/>
       <c r="W125" s="2"/>
     </row>
-    <row r="126" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A126" s="3"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -6171,7 +6230,7 @@
       <c r="V126" s="3"/>
       <c r="W126" s="2"/>
     </row>
-    <row r="127" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A127" s="3"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -6196,7 +6255,7 @@
       <c r="V127" s="3"/>
       <c r="W127" s="2"/>
     </row>
-    <row r="128" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A128" s="3"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -6221,7 +6280,7 @@
       <c r="V128" s="3"/>
       <c r="W128" s="2"/>
     </row>
-    <row r="129" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A129" s="3"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -6246,7 +6305,7 @@
       <c r="V129" s="3"/>
       <c r="W129" s="2"/>
     </row>
-    <row r="130" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A130" s="3"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -6271,7 +6330,7 @@
       <c r="V130" s="3"/>
       <c r="W130" s="2"/>
     </row>
-    <row r="131" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A131" s="3"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -6296,7 +6355,7 @@
       <c r="V131" s="3"/>
       <c r="W131" s="2"/>
     </row>
-    <row r="132" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A132" s="3"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -6321,7 +6380,7 @@
       <c r="V132" s="3"/>
       <c r="W132" s="2"/>
     </row>
-    <row r="133" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A133" s="3"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -6346,7 +6405,7 @@
       <c r="V133" s="3"/>
       <c r="W133" s="2"/>
     </row>
-    <row r="134" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A134" s="3"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -6371,7 +6430,7 @@
       <c r="V134" s="3"/>
       <c r="W134" s="2"/>
     </row>
-    <row r="135" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A135" s="3"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -6396,7 +6455,7 @@
       <c r="V135" s="3"/>
       <c r="W135" s="2"/>
     </row>
-    <row r="136" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A136" s="3"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -6421,7 +6480,7 @@
       <c r="V136" s="3"/>
       <c r="W136" s="2"/>
     </row>
-    <row r="137" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A137" s="3"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -6446,7 +6505,7 @@
       <c r="V137" s="3"/>
       <c r="W137" s="2"/>
     </row>
-    <row r="138" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A138" s="3"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -6471,7 +6530,7 @@
       <c r="V138" s="3"/>
       <c r="W138" s="2"/>
     </row>
-    <row r="139" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A139" s="3"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -6496,7 +6555,7 @@
       <c r="V139" s="3"/>
       <c r="W139" s="2"/>
     </row>
-    <row r="140" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A140" s="3"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -6521,7 +6580,7 @@
       <c r="V140" s="3"/>
       <c r="W140" s="2"/>
     </row>
-    <row r="141" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A141" s="3"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -6546,7 +6605,7 @@
       <c r="V141" s="3"/>
       <c r="W141" s="2"/>
     </row>
-    <row r="142" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A142" s="3"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -6571,7 +6630,7 @@
       <c r="V142" s="3"/>
       <c r="W142" s="2"/>
     </row>
-    <row r="143" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A143" s="3"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -6596,7 +6655,7 @@
       <c r="V143" s="3"/>
       <c r="W143" s="2"/>
     </row>
-    <row r="144" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A144" s="3"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -6621,7 +6680,7 @@
       <c r="V144" s="3"/>
       <c r="W144" s="2"/>
     </row>
-    <row r="145" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A145" s="3"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -6646,7 +6705,7 @@
       <c r="V145" s="3"/>
       <c r="W145" s="2"/>
     </row>
-    <row r="146" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A146" s="3"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -6671,7 +6730,7 @@
       <c r="V146" s="3"/>
       <c r="W146" s="2"/>
     </row>
-    <row r="147" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A147" s="3"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -6696,7 +6755,7 @@
       <c r="V147" s="3"/>
       <c r="W147" s="2"/>
     </row>
-    <row r="148" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A148" s="3"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -6721,7 +6780,7 @@
       <c r="V148" s="3"/>
       <c r="W148" s="2"/>
     </row>
-    <row r="149" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A149" s="3"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -6746,7 +6805,7 @@
       <c r="V149" s="3"/>
       <c r="W149" s="2"/>
     </row>
-    <row r="150" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A150" s="3"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -6771,7 +6830,7 @@
       <c r="V150" s="3"/>
       <c r="W150" s="2"/>
     </row>
-    <row r="151" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A151" s="3"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -6796,7 +6855,7 @@
       <c r="V151" s="3"/>
       <c r="W151" s="2"/>
     </row>
-    <row r="152" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A152" s="3"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -6821,7 +6880,7 @@
       <c r="V152" s="3"/>
       <c r="W152" s="2"/>
     </row>
-    <row r="153" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A153" s="3"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -6846,7 +6905,7 @@
       <c r="V153" s="3"/>
       <c r="W153" s="2"/>
     </row>
-    <row r="154" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A154" s="3"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -6871,7 +6930,7 @@
       <c r="V154" s="3"/>
       <c r="W154" s="2"/>
     </row>
-    <row r="155" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A155" s="3"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -6896,7 +6955,7 @@
       <c r="V155" s="3"/>
       <c r="W155" s="2"/>
     </row>
-    <row r="156" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A156" s="3"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -6921,7 +6980,7 @@
       <c r="V156" s="3"/>
       <c r="W156" s="2"/>
     </row>
-    <row r="157" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A157" s="3"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -6946,7 +7005,7 @@
       <c r="V157" s="3"/>
       <c r="W157" s="2"/>
     </row>
-    <row r="158" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A158" s="3"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -6971,7 +7030,7 @@
       <c r="V158" s="3"/>
       <c r="W158" s="2"/>
     </row>
-    <row r="159" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A159" s="3"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -6996,7 +7055,7 @@
       <c r="V159" s="3"/>
       <c r="W159" s="2"/>
     </row>
-    <row r="160" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A160" s="3"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -7021,7 +7080,7 @@
       <c r="V160" s="3"/>
       <c r="W160" s="2"/>
     </row>
-    <row r="161" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A161" s="3"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -7046,7 +7105,7 @@
       <c r="V161" s="3"/>
       <c r="W161" s="2"/>
     </row>
-    <row r="162" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A162" s="3"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -7071,7 +7130,7 @@
       <c r="V162" s="3"/>
       <c r="W162" s="2"/>
     </row>
-    <row r="163" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A163" s="3"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -7096,7 +7155,7 @@
       <c r="V163" s="3"/>
       <c r="W163" s="2"/>
     </row>
-    <row r="164" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A164" s="3"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -7121,7 +7180,7 @@
       <c r="V164" s="3"/>
       <c r="W164" s="2"/>
     </row>
-    <row r="165" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A165" s="3"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -7146,7 +7205,7 @@
       <c r="V165" s="3"/>
       <c r="W165" s="2"/>
     </row>
-    <row r="166" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A166" s="3"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -7171,7 +7230,7 @@
       <c r="V166" s="3"/>
       <c r="W166" s="2"/>
     </row>
-    <row r="167" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A167" s="3"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -7196,7 +7255,7 @@
       <c r="V167" s="3"/>
       <c r="W167" s="2"/>
     </row>
-    <row r="168" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A168" s="3"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -7221,7 +7280,7 @@
       <c r="V168" s="3"/>
       <c r="W168" s="2"/>
     </row>
-    <row r="169" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A169" s="3"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -7246,7 +7305,7 @@
       <c r="V169" s="3"/>
       <c r="W169" s="2"/>
     </row>
-    <row r="170" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A170" s="3"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -7271,7 +7330,7 @@
       <c r="V170" s="3"/>
       <c r="W170" s="2"/>
     </row>
-    <row r="171" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A171" s="3"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -7296,7 +7355,7 @@
       <c r="V171" s="3"/>
       <c r="W171" s="2"/>
     </row>
-    <row r="172" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A172" s="3"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -7321,7 +7380,7 @@
       <c r="V172" s="3"/>
       <c r="W172" s="2"/>
     </row>
-    <row r="173" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A173" s="3"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -7346,7 +7405,7 @@
       <c r="V173" s="3"/>
       <c r="W173" s="2"/>
     </row>
-    <row r="174" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A174" s="3"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -7371,7 +7430,7 @@
       <c r="V174" s="3"/>
       <c r="W174" s="2"/>
     </row>
-    <row r="175" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A175" s="3"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -7396,7 +7455,7 @@
       <c r="V175" s="3"/>
       <c r="W175" s="2"/>
     </row>
-    <row r="176" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A176" s="3"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -7421,7 +7480,7 @@
       <c r="V176" s="3"/>
       <c r="W176" s="2"/>
     </row>
-    <row r="177" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A177" s="3"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -7446,7 +7505,7 @@
       <c r="V177" s="3"/>
       <c r="W177" s="2"/>
     </row>
-    <row r="178" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A178" s="3"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -7471,7 +7530,7 @@
       <c r="V178" s="3"/>
       <c r="W178" s="2"/>
     </row>
-    <row r="179" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A179" s="3"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -7496,7 +7555,7 @@
       <c r="V179" s="3"/>
       <c r="W179" s="2"/>
     </row>
-    <row r="180" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A180" s="3"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -7521,7 +7580,7 @@
       <c r="V180" s="3"/>
       <c r="W180" s="2"/>
     </row>
-    <row r="181" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A181" s="3"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -7546,7 +7605,7 @@
       <c r="V181" s="3"/>
       <c r="W181" s="2"/>
     </row>
-    <row r="182" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A182" s="3"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -7571,7 +7630,7 @@
       <c r="V182" s="3"/>
       <c r="W182" s="2"/>
     </row>
-    <row r="183" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A183" s="3"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -7596,7 +7655,7 @@
       <c r="V183" s="3"/>
       <c r="W183" s="2"/>
     </row>
-    <row r="184" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A184" s="3"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -7621,7 +7680,7 @@
       <c r="V184" s="3"/>
       <c r="W184" s="2"/>
     </row>
-    <row r="185" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A185" s="3"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -7646,7 +7705,7 @@
       <c r="V185" s="3"/>
       <c r="W185" s="2"/>
     </row>
-    <row r="186" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A186" s="3"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -7671,7 +7730,7 @@
       <c r="V186" s="3"/>
       <c r="W186" s="2"/>
     </row>
-    <row r="187" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A187" s="3"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -7696,7 +7755,7 @@
       <c r="V187" s="3"/>
       <c r="W187" s="2"/>
     </row>
-    <row r="188" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A188" s="3"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -7721,7 +7780,7 @@
       <c r="V188" s="3"/>
       <c r="W188" s="2"/>
     </row>
-    <row r="189" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A189" s="3"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -7746,7 +7805,7 @@
       <c r="V189" s="3"/>
       <c r="W189" s="2"/>
     </row>
-    <row r="190" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A190" s="3"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -7771,7 +7830,7 @@
       <c r="V190" s="3"/>
       <c r="W190" s="2"/>
     </row>
-    <row r="191" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A191" s="3"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -7796,7 +7855,7 @@
       <c r="V191" s="3"/>
       <c r="W191" s="2"/>
     </row>
-    <row r="192" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A192" s="3"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -7821,7 +7880,7 @@
       <c r="V192" s="3"/>
       <c r="W192" s="2"/>
     </row>
-    <row r="193" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A193" s="3"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -7846,7 +7905,7 @@
       <c r="V193" s="3"/>
       <c r="W193" s="2"/>
     </row>
-    <row r="194" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A194" s="3"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -7871,7 +7930,7 @@
       <c r="V194" s="3"/>
       <c r="W194" s="2"/>
     </row>
-    <row r="195" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A195" s="3"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -7896,7 +7955,7 @@
       <c r="V195" s="3"/>
       <c r="W195" s="2"/>
     </row>
-    <row r="196" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A196" s="3"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -7921,7 +7980,7 @@
       <c r="V196" s="3"/>
       <c r="W196" s="2"/>
     </row>
-    <row r="197" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A197" s="3"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -7946,7 +8005,7 @@
       <c r="V197" s="3"/>
       <c r="W197" s="2"/>
     </row>
-    <row r="198" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A198" s="3"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -7971,7 +8030,7 @@
       <c r="V198" s="3"/>
       <c r="W198" s="2"/>
     </row>
-    <row r="199" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A199" s="3"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -7996,7 +8055,7 @@
       <c r="V199" s="3"/>
       <c r="W199" s="2"/>
     </row>
-    <row r="200" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A200" s="3"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -8021,7 +8080,7 @@
       <c r="V200" s="3"/>
       <c r="W200" s="2"/>
     </row>
-    <row r="201" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A201" s="3"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -8046,7 +8105,7 @@
       <c r="V201" s="3"/>
       <c r="W201" s="2"/>
     </row>
-    <row r="202" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A202" s="3"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -8071,7 +8130,7 @@
       <c r="V202" s="3"/>
       <c r="W202" s="2"/>
     </row>
-    <row r="203" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A203" s="3"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -8096,7 +8155,7 @@
       <c r="V203" s="3"/>
       <c r="W203" s="2"/>
     </row>
-    <row r="204" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A204" s="3"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -8121,7 +8180,7 @@
       <c r="V204" s="3"/>
       <c r="W204" s="2"/>
     </row>
-    <row r="205" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A205" s="3"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -8146,10 +8205,10 @@
       <c r="V205" s="3"/>
       <c r="W205" s="2"/>
     </row>
-    <row r="206" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="207" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="208" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="209" ht="45" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W33">
     <sortCondition ref="A2"/>

--- a/JavaApplication19/src/excel/Inventario.xlsx
+++ b/JavaApplication19/src/excel/Inventario.xlsx
@@ -1,28 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Desarrollo\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B382A135-44CF-4E48-82F9-15A613AA6EA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F446ED4-0085-4BD6-BCAC-FB201B550CF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3083" yWindow="0" windowWidth="21600" windowHeight="11498" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventario" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="true"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -303,111 +301,6 @@
   </si>
   <si>
     <t>PRECIO BASE UNIDAD</t>
-  </si>
-  <si>
-    <t>Epic Oil</t>
-  </si>
-  <si>
-    <t>Aceite para bici</t>
-  </si>
-  <si>
-    <t>28  julio 20</t>
-  </si>
-  <si>
-    <t>Nuevo</t>
-  </si>
-  <si>
-    <t>No hay pack</t>
-  </si>
-  <si>
-    <t>1.3333333333333333</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>3000.0</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>4000.0</t>
-  </si>
-  <si>
-    <t>69.6</t>
-  </si>
-  <si>
-    <t>3479.9999999999995</t>
-  </si>
-  <si>
-    <t>Bici de Ruta</t>
-  </si>
-  <si>
-    <t>Talla M, Rodada 28</t>
-  </si>
-  <si>
-    <t>Shimano</t>
-  </si>
-  <si>
-    <t>1.0823529411764705</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>8500</t>
-  </si>
-  <si>
-    <t>17000.0</t>
-  </si>
-  <si>
-    <t>9200</t>
-  </si>
-  <si>
-    <t>18400.0</t>
-  </si>
-  <si>
-    <t>10672.0</t>
-  </si>
-  <si>
-    <t>21344.0</t>
-  </si>
-  <si>
-    <t>Inventario</t>
-  </si>
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>29  julio 20</t>
-  </si>
-  <si>
-    <t>das</t>
-  </si>
-  <si>
-    <t>10.032520325203253</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>246.0</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>2468.0</t>
-  </si>
-  <si>
-    <t>1431.44</t>
-  </si>
-  <si>
-    <t>2862.88</t>
   </si>
 </sst>
 </file>
@@ -569,7 +462,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -647,6 +540,9 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -662,7 +558,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Salida" xfId="1" builtinId="21"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -741,7 +637,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1064,20 +960,20 @@
   <dimension ref="A1:AC209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.46484375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="3" max="23" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="24" max="29" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="1" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="23" width="20.6640625" customWidth="1"/>
+    <col min="24" max="29" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -1085,7 +981,7 @@
       <c r="C1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="8" t="s">
@@ -1146,7 +1042,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>43</v>
       </c>
@@ -1161,7 +1057,7 @@
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
-      <c r="G2">
+      <c r="G2" s="14">
         <v>1</v>
       </c>
       <c r="H2" s="15">
@@ -1227,7 +1123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>20</v>
       </c>
@@ -1242,7 +1138,7 @@
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
-      <c r="G3">
+      <c r="G3" s="19">
         <v>1</v>
       </c>
       <c r="H3" s="15">
@@ -1308,7 +1204,7 @@
         <v>6.3948846218409017E-14</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>22</v>
       </c>
@@ -1323,7 +1219,7 @@
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
-      <c r="G4">
+      <c r="G4" s="19">
         <v>1</v>
       </c>
       <c r="H4" s="15">
@@ -1389,7 +1285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>24</v>
       </c>
@@ -1404,7 +1300,7 @@
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
-      <c r="G5">
+      <c r="G5" s="22">
         <v>1</v>
       </c>
       <c r="H5" s="15">
@@ -1470,7 +1366,7 @@
         <v>1488.4099999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>44</v>
       </c>
@@ -1485,7 +1381,7 @@
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
-      <c r="G6">
+      <c r="G6" s="14">
         <v>1</v>
       </c>
       <c r="H6" s="15">
@@ -1551,22 +1447,22 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="30">
         <v>43984</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7">
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31">
         <v>1</v>
       </c>
       <c r="H7" s="15">
@@ -1632,7 +1528,7 @@
         <v>9010</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>25</v>
       </c>
@@ -1647,7 +1543,7 @@
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
-      <c r="G8">
+      <c r="G8" s="19">
         <v>61</v>
       </c>
       <c r="H8" s="15">
@@ -1713,7 +1609,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>72</v>
       </c>
@@ -1800,7 +1696,7 @@
         <v>290.84967320261444</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>46</v>
       </c>
@@ -1880,7 +1776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>29</v>
       </c>
@@ -1967,7 +1863,7 @@
         <v>77.5599128540305</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>50</v>
       </c>
@@ -2054,7 +1950,7 @@
         <v>170.20547945205476</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>73</v>
       </c>
@@ -2069,7 +1965,7 @@
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
-      <c r="G13">
+      <c r="G13" s="19">
         <v>1</v>
       </c>
       <c r="H13" s="15">
@@ -2135,7 +2031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>30</v>
       </c>
@@ -2150,7 +2046,7 @@
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
-      <c r="G14">
+      <c r="G14" s="19">
         <v>195</v>
       </c>
       <c r="H14" s="15">
@@ -2216,7 +2112,7 @@
         <v>2932.8000000000011</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>85</v>
       </c>
@@ -2303,7 +2199,7 @@
         <v>243.15068493150687</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>31</v>
       </c>
@@ -2390,7 +2286,7 @@
         <v>72.945205479452056</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>32</v>
       </c>
@@ -2471,22 +2367,22 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A18" s="28" t="s">
+    <row r="18" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="30">
         <v>43853</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30">
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31">
         <v>1</v>
       </c>
       <c r="H18" s="15">
@@ -2552,7 +2448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>74</v>
       </c>
@@ -2639,7 +2535,7 @@
         <v>194.52054794520552</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>75</v>
       </c>
@@ -2720,7 +2616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>76</v>
       </c>
@@ -2807,7 +2703,7 @@
         <v>121.57534246575344</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>77</v>
       </c>
@@ -2888,7 +2784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>79</v>
       </c>
@@ -2969,7 +2865,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>34</v>
       </c>
@@ -3057,7 +2953,7 @@
       </c>
       <c r="AC24" s="6"/>
     </row>
-    <row r="25" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>35</v>
       </c>
@@ -3144,7 +3040,7 @@
         <v>67.864923747276663</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>36</v>
       </c>
@@ -3231,7 +3127,7 @@
         <v>121.57534246575344</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>37</v>
       </c>
@@ -3318,7 +3214,7 @@
         <v>116.33986928104576</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>38</v>
       </c>
@@ -3405,7 +3301,7 @@
         <v>121.57534246575344</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>39</v>
       </c>
@@ -3492,7 +3388,7 @@
         <v>96.949891067538147</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>61</v>
       </c>
@@ -3579,22 +3475,22 @@
         <v>232.67973856209153</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A31" s="28" t="s">
+    <row r="31" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="29">
+      <c r="C31" s="30">
         <v>43853</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30">
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31">
         <v>1</v>
       </c>
       <c r="H31" s="15">
@@ -3660,7 +3556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>40</v>
       </c>
@@ -3747,7 +3643,7 @@
         <v>1069.8630136986303</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>67</v>
       </c>
@@ -3834,180 +3730,132 @@
         <v>96.949891067538147</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="30.0" x14ac:dyDescent="0.45" customHeight="true">
-      <c r="A34" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34" t="s">
-        <v>95</v>
-      </c>
-      <c r="F34" t="s">
-        <v>96</v>
-      </c>
-      <c r="G34" t="s">
-        <v>97</v>
-      </c>
-      <c r="H34" t="s">
-        <v>98</v>
-      </c>
-      <c r="I34" t="s">
-        <v>99</v>
-      </c>
-      <c r="J34" t="s">
-        <v>100</v>
-      </c>
-      <c r="K34" t="s">
-        <v>101</v>
-      </c>
-      <c r="L34" t="s">
-        <v>102</v>
-      </c>
-      <c r="M34" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" ht="30.0" x14ac:dyDescent="0.45" customHeight="true">
-      <c r="A35" t="s">
-        <v>104</v>
-      </c>
-      <c r="B35" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" t="s">
-        <v>94</v>
-      </c>
-      <c r="E35" t="s">
-        <v>106</v>
-      </c>
-      <c r="F35" t="s">
-        <v>107</v>
-      </c>
-      <c r="G35" t="s">
-        <v>108</v>
-      </c>
-      <c r="H35" t="s">
-        <v>109</v>
-      </c>
-      <c r="I35" t="s">
-        <v>110</v>
-      </c>
-      <c r="J35" t="s">
-        <v>111</v>
-      </c>
-      <c r="K35" t="s">
-        <v>112</v>
-      </c>
-      <c r="L35" t="s">
-        <v>113</v>
-      </c>
-      <c r="M35" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" ht="30.0" customHeight="true">
-      <c r="A36" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="B36" t="s" s="0">
-        <v>116</v>
-      </c>
-      <c r="C36" t="s" s="0">
-        <v>117</v>
-      </c>
-      <c r="D36" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="E36" t="s" s="0">
-        <v>118</v>
-      </c>
-      <c r="F36" t="s" s="0">
-        <v>119</v>
-      </c>
-      <c r="G36" t="s" s="0">
-        <v>108</v>
-      </c>
-      <c r="H36" t="s" s="0">
-        <v>120</v>
-      </c>
-      <c r="I36" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="J36" t="s" s="0">
-        <v>122</v>
-      </c>
-      <c r="K36" t="s" s="0">
-        <v>123</v>
-      </c>
-      <c r="L36" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="M36" t="s" s="0">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" ht="30.0" x14ac:dyDescent="0.45" customHeight="true">
-      <c r="A37" s="23"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="26"/>
-      <c r="I37" t="n">
-        <f>SUM(I2:I36)</f>
-        <v>0.0</v>
-      </c>
-      <c r="J37" s="26"/>
-      <c r="K37" t="n">
-        <f>SUM(K2:K36)</f>
-        <v>0.0</v>
-      </c>
-      <c r="L37" s="26"/>
-      <c r="M37" t="n">
-        <f>SUM(M2:M36)</f>
-        <v>0.0</v>
-      </c>
-      <c r="N37" s="26"/>
-      <c r="O37" t="n">
-        <f>SUM(O2:O36)</f>
-        <v>0.0</v>
-      </c>
-      <c r="P37" s="26"/>
-      <c r="Q37" t="n">
-        <f>SUM(Q2:Q36)</f>
-        <v>0.0</v>
-      </c>
-      <c r="R37" s="26"/>
-      <c r="S37" t="n">
-        <f>SUM(S2:S36)</f>
-        <v>0.0</v>
-      </c>
-      <c r="T37" s="26"/>
-      <c r="U37" t="n">
-        <f>SUM(U2:U36)</f>
-        <v>0.0</v>
-      </c>
-      <c r="V37" s="26"/>
-      <c r="W37" t="n">
-        <f>SUM(W2:W36)</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A38" s="1"/>
+    <row r="34" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="23"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26">
+        <f>SUM(I2:I33)</f>
+        <v>37721.034456382244</v>
+      </c>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26">
+        <f>SUM(K2:K33)</f>
+        <v>60170</v>
+      </c>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26">
+        <f>SUM(M2:M33)</f>
+        <v>69797.2</v>
+      </c>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26">
+        <f>SUM(O2:O33)</f>
+        <v>91826.78</v>
+      </c>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26">
+        <f>SUM(Q2:Q33)</f>
+        <v>11914.580000000002</v>
+      </c>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26">
+        <f>SUM(S2:S33)</f>
+        <v>9627.2000000000007</v>
+      </c>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26">
+        <f>SUM(U2:U33)</f>
+        <v>22448.965543617753</v>
+      </c>
+      <c r="V34" s="26"/>
+      <c r="W34" s="27">
+        <f>SUM(W2:W33)</f>
+        <v>22448.965543617756</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="5"/>
+    </row>
+    <row r="36" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="3"/>
@@ -4028,10 +3876,10 @@
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="5"/>
-    </row>
-    <row r="39" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V38" s="3"/>
+      <c r="W38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -4056,7 +3904,7 @@
       <c r="V39" s="3"/>
       <c r="W39" s="2"/>
     </row>
-    <row r="40" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -4081,7 +3929,7 @@
       <c r="V40" s="3"/>
       <c r="W40" s="2"/>
     </row>
-    <row r="41" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -4106,7 +3954,7 @@
       <c r="V41" s="3"/>
       <c r="W41" s="2"/>
     </row>
-    <row r="42" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -4131,7 +3979,7 @@
       <c r="V42" s="3"/>
       <c r="W42" s="2"/>
     </row>
-    <row r="43" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -4156,7 +4004,7 @@
       <c r="V43" s="3"/>
       <c r="W43" s="2"/>
     </row>
-    <row r="44" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -4181,7 +4029,7 @@
       <c r="V44" s="3"/>
       <c r="W44" s="2"/>
     </row>
-    <row r="45" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -4206,7 +4054,7 @@
       <c r="V45" s="3"/>
       <c r="W45" s="2"/>
     </row>
-    <row r="46" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -4231,7 +4079,7 @@
       <c r="V46" s="3"/>
       <c r="W46" s="2"/>
     </row>
-    <row r="47" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -4256,7 +4104,7 @@
       <c r="V47" s="3"/>
       <c r="W47" s="2"/>
     </row>
-    <row r="48" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -4281,7 +4129,7 @@
       <c r="V48" s="3"/>
       <c r="W48" s="2"/>
     </row>
-    <row r="49" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -4306,7 +4154,7 @@
       <c r="V49" s="3"/>
       <c r="W49" s="2"/>
     </row>
-    <row r="50" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -4331,7 +4179,7 @@
       <c r="V50" s="3"/>
       <c r="W50" s="2"/>
     </row>
-    <row r="51" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -4356,7 +4204,7 @@
       <c r="V51" s="3"/>
       <c r="W51" s="2"/>
     </row>
-    <row r="52" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -4381,7 +4229,7 @@
       <c r="V52" s="3"/>
       <c r="W52" s="2"/>
     </row>
-    <row r="53" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -4406,7 +4254,7 @@
       <c r="V53" s="3"/>
       <c r="W53" s="2"/>
     </row>
-    <row r="54" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -4431,7 +4279,7 @@
       <c r="V54" s="3"/>
       <c r="W54" s="2"/>
     </row>
-    <row r="55" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -4456,7 +4304,7 @@
       <c r="V55" s="3"/>
       <c r="W55" s="2"/>
     </row>
-    <row r="56" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -4481,7 +4329,7 @@
       <c r="V56" s="3"/>
       <c r="W56" s="2"/>
     </row>
-    <row r="57" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -4506,7 +4354,7 @@
       <c r="V57" s="3"/>
       <c r="W57" s="2"/>
     </row>
-    <row r="58" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -4531,7 +4379,7 @@
       <c r="V58" s="3"/>
       <c r="W58" s="2"/>
     </row>
-    <row r="59" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -4556,7 +4404,7 @@
       <c r="V59" s="3"/>
       <c r="W59" s="2"/>
     </row>
-    <row r="60" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -4581,7 +4429,7 @@
       <c r="V60" s="3"/>
       <c r="W60" s="2"/>
     </row>
-    <row r="61" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -4606,7 +4454,7 @@
       <c r="V61" s="3"/>
       <c r="W61" s="2"/>
     </row>
-    <row r="62" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -4631,7 +4479,7 @@
       <c r="V62" s="3"/>
       <c r="W62" s="2"/>
     </row>
-    <row r="63" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -4656,7 +4504,7 @@
       <c r="V63" s="3"/>
       <c r="W63" s="2"/>
     </row>
-    <row r="64" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -4681,7 +4529,7 @@
       <c r="V64" s="3"/>
       <c r="W64" s="2"/>
     </row>
-    <row r="65" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -4706,7 +4554,7 @@
       <c r="V65" s="3"/>
       <c r="W65" s="2"/>
     </row>
-    <row r="66" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -4731,7 +4579,7 @@
       <c r="V66" s="3"/>
       <c r="W66" s="2"/>
     </row>
-    <row r="67" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -4756,7 +4604,7 @@
       <c r="V67" s="3"/>
       <c r="W67" s="2"/>
     </row>
-    <row r="68" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -4781,7 +4629,7 @@
       <c r="V68" s="3"/>
       <c r="W68" s="2"/>
     </row>
-    <row r="69" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -4806,7 +4654,7 @@
       <c r="V69" s="3"/>
       <c r="W69" s="2"/>
     </row>
-    <row r="70" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -4831,7 +4679,7 @@
       <c r="V70" s="3"/>
       <c r="W70" s="2"/>
     </row>
-    <row r="71" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4856,7 +4704,7 @@
       <c r="V71" s="3"/>
       <c r="W71" s="2"/>
     </row>
-    <row r="72" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4881,7 +4729,7 @@
       <c r="V72" s="3"/>
       <c r="W72" s="2"/>
     </row>
-    <row r="73" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4906,7 +4754,7 @@
       <c r="V73" s="3"/>
       <c r="W73" s="2"/>
     </row>
-    <row r="74" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4931,7 +4779,7 @@
       <c r="V74" s="3"/>
       <c r="W74" s="2"/>
     </row>
-    <row r="75" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4956,7 +4804,7 @@
       <c r="V75" s="3"/>
       <c r="W75" s="2"/>
     </row>
-    <row r="76" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4981,7 +4829,7 @@
       <c r="V76" s="3"/>
       <c r="W76" s="2"/>
     </row>
-    <row r="77" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -5006,7 +4854,7 @@
       <c r="V77" s="3"/>
       <c r="W77" s="2"/>
     </row>
-    <row r="78" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -5031,7 +4879,7 @@
       <c r="V78" s="3"/>
       <c r="W78" s="2"/>
     </row>
-    <row r="79" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -5056,7 +4904,7 @@
       <c r="V79" s="3"/>
       <c r="W79" s="2"/>
     </row>
-    <row r="80" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -5081,7 +4929,7 @@
       <c r="V80" s="3"/>
       <c r="W80" s="2"/>
     </row>
-    <row r="81" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -5106,7 +4954,7 @@
       <c r="V81" s="3"/>
       <c r="W81" s="2"/>
     </row>
-    <row r="82" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -5131,7 +4979,7 @@
       <c r="V82" s="3"/>
       <c r="W82" s="2"/>
     </row>
-    <row r="83" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -5156,7 +5004,7 @@
       <c r="V83" s="3"/>
       <c r="W83" s="2"/>
     </row>
-    <row r="84" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -5181,7 +5029,7 @@
       <c r="V84" s="3"/>
       <c r="W84" s="2"/>
     </row>
-    <row r="85" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -5206,7 +5054,7 @@
       <c r="V85" s="3"/>
       <c r="W85" s="2"/>
     </row>
-    <row r="86" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -5231,7 +5079,7 @@
       <c r="V86" s="3"/>
       <c r="W86" s="2"/>
     </row>
-    <row r="87" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -5256,7 +5104,7 @@
       <c r="V87" s="3"/>
       <c r="W87" s="2"/>
     </row>
-    <row r="88" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -5281,7 +5129,7 @@
       <c r="V88" s="3"/>
       <c r="W88" s="2"/>
     </row>
-    <row r="89" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -5306,7 +5154,7 @@
       <c r="V89" s="3"/>
       <c r="W89" s="2"/>
     </row>
-    <row r="90" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -5331,7 +5179,7 @@
       <c r="V90" s="3"/>
       <c r="W90" s="2"/>
     </row>
-    <row r="91" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -5356,7 +5204,7 @@
       <c r="V91" s="3"/>
       <c r="W91" s="2"/>
     </row>
-    <row r="92" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -5381,13 +5229,14 @@
       <c r="V92" s="3"/>
       <c r="W92" s="2"/>
     </row>
-    <row r="93" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="4"/>
@@ -5405,7 +5254,7 @@
       <c r="V93" s="3"/>
       <c r="W93" s="2"/>
     </row>
-    <row r="94" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -5430,7 +5279,7 @@
       <c r="V94" s="3"/>
       <c r="W94" s="2"/>
     </row>
-    <row r="95" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -5455,7 +5304,7 @@
       <c r="V95" s="3"/>
       <c r="W95" s="2"/>
     </row>
-    <row r="96" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -5480,7 +5329,7 @@
       <c r="V96" s="3"/>
       <c r="W96" s="2"/>
     </row>
-    <row r="97" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -5505,7 +5354,7 @@
       <c r="V97" s="3"/>
       <c r="W97" s="2"/>
     </row>
-    <row r="98" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -5530,7 +5379,7 @@
       <c r="V98" s="3"/>
       <c r="W98" s="2"/>
     </row>
-    <row r="99" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -5555,7 +5404,7 @@
       <c r="V99" s="3"/>
       <c r="W99" s="2"/>
     </row>
-    <row r="100" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -5580,7 +5429,7 @@
       <c r="V100" s="3"/>
       <c r="W100" s="2"/>
     </row>
-    <row r="101" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -5605,7 +5454,7 @@
       <c r="V101" s="3"/>
       <c r="W101" s="2"/>
     </row>
-    <row r="102" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -5630,7 +5479,7 @@
       <c r="V102" s="3"/>
       <c r="W102" s="2"/>
     </row>
-    <row r="103" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -5655,7 +5504,7 @@
       <c r="V103" s="3"/>
       <c r="W103" s="2"/>
     </row>
-    <row r="104" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -5680,7 +5529,7 @@
       <c r="V104" s="3"/>
       <c r="W104" s="2"/>
     </row>
-    <row r="105" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -5705,7 +5554,7 @@
       <c r="V105" s="3"/>
       <c r="W105" s="2"/>
     </row>
-    <row r="106" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -5730,7 +5579,7 @@
       <c r="V106" s="3"/>
       <c r="W106" s="2"/>
     </row>
-    <row r="107" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -5755,7 +5604,7 @@
       <c r="V107" s="3"/>
       <c r="W107" s="2"/>
     </row>
-    <row r="108" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -5780,7 +5629,7 @@
       <c r="V108" s="3"/>
       <c r="W108" s="2"/>
     </row>
-    <row r="109" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -5805,7 +5654,7 @@
       <c r="V109" s="3"/>
       <c r="W109" s="2"/>
     </row>
-    <row r="110" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -5830,7 +5679,7 @@
       <c r="V110" s="3"/>
       <c r="W110" s="2"/>
     </row>
-    <row r="111" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -5855,7 +5704,7 @@
       <c r="V111" s="3"/>
       <c r="W111" s="2"/>
     </row>
-    <row r="112" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -5880,7 +5729,7 @@
       <c r="V112" s="3"/>
       <c r="W112" s="2"/>
     </row>
-    <row r="113" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -5905,7 +5754,7 @@
       <c r="V113" s="3"/>
       <c r="W113" s="2"/>
     </row>
-    <row r="114" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -5930,7 +5779,7 @@
       <c r="V114" s="3"/>
       <c r="W114" s="2"/>
     </row>
-    <row r="115" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -5955,7 +5804,7 @@
       <c r="V115" s="3"/>
       <c r="W115" s="2"/>
     </row>
-    <row r="116" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -5980,7 +5829,7 @@
       <c r="V116" s="3"/>
       <c r="W116" s="2"/>
     </row>
-    <row r="117" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -6005,7 +5854,7 @@
       <c r="V117" s="3"/>
       <c r="W117" s="2"/>
     </row>
-    <row r="118" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -6030,7 +5879,7 @@
       <c r="V118" s="3"/>
       <c r="W118" s="2"/>
     </row>
-    <row r="119" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -6055,7 +5904,7 @@
       <c r="V119" s="3"/>
       <c r="W119" s="2"/>
     </row>
-    <row r="120" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -6080,7 +5929,7 @@
       <c r="V120" s="3"/>
       <c r="W120" s="2"/>
     </row>
-    <row r="121" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -6105,7 +5954,7 @@
       <c r="V121" s="3"/>
       <c r="W121" s="2"/>
     </row>
-    <row r="122" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -6130,7 +5979,7 @@
       <c r="V122" s="3"/>
       <c r="W122" s="2"/>
     </row>
-    <row r="123" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -6155,7 +6004,7 @@
       <c r="V123" s="3"/>
       <c r="W123" s="2"/>
     </row>
-    <row r="124" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -6180,7 +6029,7 @@
       <c r="V124" s="3"/>
       <c r="W124" s="2"/>
     </row>
-    <row r="125" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -6205,7 +6054,7 @@
       <c r="V125" s="3"/>
       <c r="W125" s="2"/>
     </row>
-    <row r="126" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -6230,7 +6079,7 @@
       <c r="V126" s="3"/>
       <c r="W126" s="2"/>
     </row>
-    <row r="127" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -6255,7 +6104,7 @@
       <c r="V127" s="3"/>
       <c r="W127" s="2"/>
     </row>
-    <row r="128" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -6280,7 +6129,7 @@
       <c r="V128" s="3"/>
       <c r="W128" s="2"/>
     </row>
-    <row r="129" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -6305,7 +6154,7 @@
       <c r="V129" s="3"/>
       <c r="W129" s="2"/>
     </row>
-    <row r="130" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -6330,7 +6179,7 @@
       <c r="V130" s="3"/>
       <c r="W130" s="2"/>
     </row>
-    <row r="131" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -6355,7 +6204,7 @@
       <c r="V131" s="3"/>
       <c r="W131" s="2"/>
     </row>
-    <row r="132" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -6380,7 +6229,7 @@
       <c r="V132" s="3"/>
       <c r="W132" s="2"/>
     </row>
-    <row r="133" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -6405,7 +6254,7 @@
       <c r="V133" s="3"/>
       <c r="W133" s="2"/>
     </row>
-    <row r="134" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -6430,7 +6279,7 @@
       <c r="V134" s="3"/>
       <c r="W134" s="2"/>
     </row>
-    <row r="135" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -6455,7 +6304,7 @@
       <c r="V135" s="3"/>
       <c r="W135" s="2"/>
     </row>
-    <row r="136" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -6480,7 +6329,7 @@
       <c r="V136" s="3"/>
       <c r="W136" s="2"/>
     </row>
-    <row r="137" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -6505,7 +6354,7 @@
       <c r="V137" s="3"/>
       <c r="W137" s="2"/>
     </row>
-    <row r="138" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -6530,7 +6379,7 @@
       <c r="V138" s="3"/>
       <c r="W138" s="2"/>
     </row>
-    <row r="139" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -6555,7 +6404,7 @@
       <c r="V139" s="3"/>
       <c r="W139" s="2"/>
     </row>
-    <row r="140" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -6580,7 +6429,7 @@
       <c r="V140" s="3"/>
       <c r="W140" s="2"/>
     </row>
-    <row r="141" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -6605,7 +6454,7 @@
       <c r="V141" s="3"/>
       <c r="W141" s="2"/>
     </row>
-    <row r="142" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -6630,7 +6479,7 @@
       <c r="V142" s="3"/>
       <c r="W142" s="2"/>
     </row>
-    <row r="143" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -6655,7 +6504,7 @@
       <c r="V143" s="3"/>
       <c r="W143" s="2"/>
     </row>
-    <row r="144" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -6680,7 +6529,7 @@
       <c r="V144" s="3"/>
       <c r="W144" s="2"/>
     </row>
-    <row r="145" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -6705,7 +6554,7 @@
       <c r="V145" s="3"/>
       <c r="W145" s="2"/>
     </row>
-    <row r="146" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -6730,7 +6579,7 @@
       <c r="V146" s="3"/>
       <c r="W146" s="2"/>
     </row>
-    <row r="147" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -6755,7 +6604,7 @@
       <c r="V147" s="3"/>
       <c r="W147" s="2"/>
     </row>
-    <row r="148" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -6780,7 +6629,7 @@
       <c r="V148" s="3"/>
       <c r="W148" s="2"/>
     </row>
-    <row r="149" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -6805,7 +6654,7 @@
       <c r="V149" s="3"/>
       <c r="W149" s="2"/>
     </row>
-    <row r="150" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -6830,7 +6679,7 @@
       <c r="V150" s="3"/>
       <c r="W150" s="2"/>
     </row>
-    <row r="151" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -6855,7 +6704,7 @@
       <c r="V151" s="3"/>
       <c r="W151" s="2"/>
     </row>
-    <row r="152" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -6880,7 +6729,7 @@
       <c r="V152" s="3"/>
       <c r="W152" s="2"/>
     </row>
-    <row r="153" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -6905,7 +6754,7 @@
       <c r="V153" s="3"/>
       <c r="W153" s="2"/>
     </row>
-    <row r="154" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -6930,7 +6779,7 @@
       <c r="V154" s="3"/>
       <c r="W154" s="2"/>
     </row>
-    <row r="155" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -6955,7 +6804,7 @@
       <c r="V155" s="3"/>
       <c r="W155" s="2"/>
     </row>
-    <row r="156" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -6980,7 +6829,7 @@
       <c r="V156" s="3"/>
       <c r="W156" s="2"/>
     </row>
-    <row r="157" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -7005,7 +6854,7 @@
       <c r="V157" s="3"/>
       <c r="W157" s="2"/>
     </row>
-    <row r="158" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -7030,7 +6879,7 @@
       <c r="V158" s="3"/>
       <c r="W158" s="2"/>
     </row>
-    <row r="159" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -7055,7 +6904,7 @@
       <c r="V159" s="3"/>
       <c r="W159" s="2"/>
     </row>
-    <row r="160" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -7080,7 +6929,7 @@
       <c r="V160" s="3"/>
       <c r="W160" s="2"/>
     </row>
-    <row r="161" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -7105,7 +6954,7 @@
       <c r="V161" s="3"/>
       <c r="W161" s="2"/>
     </row>
-    <row r="162" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -7130,7 +6979,7 @@
       <c r="V162" s="3"/>
       <c r="W162" s="2"/>
     </row>
-    <row r="163" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -7155,7 +7004,7 @@
       <c r="V163" s="3"/>
       <c r="W163" s="2"/>
     </row>
-    <row r="164" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -7180,7 +7029,7 @@
       <c r="V164" s="3"/>
       <c r="W164" s="2"/>
     </row>
-    <row r="165" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -7205,7 +7054,7 @@
       <c r="V165" s="3"/>
       <c r="W165" s="2"/>
     </row>
-    <row r="166" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -7230,7 +7079,7 @@
       <c r="V166" s="3"/>
       <c r="W166" s="2"/>
     </row>
-    <row r="167" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -7255,7 +7104,7 @@
       <c r="V167" s="3"/>
       <c r="W167" s="2"/>
     </row>
-    <row r="168" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -7280,7 +7129,7 @@
       <c r="V168" s="3"/>
       <c r="W168" s="2"/>
     </row>
-    <row r="169" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -7305,7 +7154,7 @@
       <c r="V169" s="3"/>
       <c r="W169" s="2"/>
     </row>
-    <row r="170" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -7330,7 +7179,7 @@
       <c r="V170" s="3"/>
       <c r="W170" s="2"/>
     </row>
-    <row r="171" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -7355,7 +7204,7 @@
       <c r="V171" s="3"/>
       <c r="W171" s="2"/>
     </row>
-    <row r="172" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -7380,7 +7229,7 @@
       <c r="V172" s="3"/>
       <c r="W172" s="2"/>
     </row>
-    <row r="173" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -7405,7 +7254,7 @@
       <c r="V173" s="3"/>
       <c r="W173" s="2"/>
     </row>
-    <row r="174" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -7430,7 +7279,7 @@
       <c r="V174" s="3"/>
       <c r="W174" s="2"/>
     </row>
-    <row r="175" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -7455,7 +7304,7 @@
       <c r="V175" s="3"/>
       <c r="W175" s="2"/>
     </row>
-    <row r="176" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -7480,7 +7329,7 @@
       <c r="V176" s="3"/>
       <c r="W176" s="2"/>
     </row>
-    <row r="177" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -7505,7 +7354,7 @@
       <c r="V177" s="3"/>
       <c r="W177" s="2"/>
     </row>
-    <row r="178" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -7530,7 +7379,7 @@
       <c r="V178" s="3"/>
       <c r="W178" s="2"/>
     </row>
-    <row r="179" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -7555,7 +7404,7 @@
       <c r="V179" s="3"/>
       <c r="W179" s="2"/>
     </row>
-    <row r="180" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -7580,7 +7429,7 @@
       <c r="V180" s="3"/>
       <c r="W180" s="2"/>
     </row>
-    <row r="181" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -7605,7 +7454,7 @@
       <c r="V181" s="3"/>
       <c r="W181" s="2"/>
     </row>
-    <row r="182" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -7630,7 +7479,7 @@
       <c r="V182" s="3"/>
       <c r="W182" s="2"/>
     </row>
-    <row r="183" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -7655,7 +7504,7 @@
       <c r="V183" s="3"/>
       <c r="W183" s="2"/>
     </row>
-    <row r="184" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -7680,7 +7529,7 @@
       <c r="V184" s="3"/>
       <c r="W184" s="2"/>
     </row>
-    <row r="185" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -7705,7 +7554,7 @@
       <c r="V185" s="3"/>
       <c r="W185" s="2"/>
     </row>
-    <row r="186" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -7730,7 +7579,7 @@
       <c r="V186" s="3"/>
       <c r="W186" s="2"/>
     </row>
-    <row r="187" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -7755,7 +7604,7 @@
       <c r="V187" s="3"/>
       <c r="W187" s="2"/>
     </row>
-    <row r="188" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -7780,7 +7629,7 @@
       <c r="V188" s="3"/>
       <c r="W188" s="2"/>
     </row>
-    <row r="189" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -7805,7 +7654,7 @@
       <c r="V189" s="3"/>
       <c r="W189" s="2"/>
     </row>
-    <row r="190" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -7830,7 +7679,7 @@
       <c r="V190" s="3"/>
       <c r="W190" s="2"/>
     </row>
-    <row r="191" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -7855,7 +7704,7 @@
       <c r="V191" s="3"/>
       <c r="W191" s="2"/>
     </row>
-    <row r="192" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -7880,7 +7729,7 @@
       <c r="V192" s="3"/>
       <c r="W192" s="2"/>
     </row>
-    <row r="193" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -7905,7 +7754,7 @@
       <c r="V193" s="3"/>
       <c r="W193" s="2"/>
     </row>
-    <row r="194" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -7930,7 +7779,7 @@
       <c r="V194" s="3"/>
       <c r="W194" s="2"/>
     </row>
-    <row r="195" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -7955,7 +7804,7 @@
       <c r="V195" s="3"/>
       <c r="W195" s="2"/>
     </row>
-    <row r="196" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -7980,7 +7829,7 @@
       <c r="V196" s="3"/>
       <c r="W196" s="2"/>
     </row>
-    <row r="197" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -8005,7 +7854,7 @@
       <c r="V197" s="3"/>
       <c r="W197" s="2"/>
     </row>
-    <row r="198" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -8030,7 +7879,7 @@
       <c r="V198" s="3"/>
       <c r="W198" s="2"/>
     </row>
-    <row r="199" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -8055,7 +7904,7 @@
       <c r="V199" s="3"/>
       <c r="W199" s="2"/>
     </row>
-    <row r="200" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -8080,7 +7929,7 @@
       <c r="V200" s="3"/>
       <c r="W200" s="2"/>
     </row>
-    <row r="201" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -8105,7 +7954,7 @@
       <c r="V201" s="3"/>
       <c r="W201" s="2"/>
     </row>
-    <row r="202" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="3"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -8130,7 +7979,7 @@
       <c r="V202" s="3"/>
       <c r="W202" s="2"/>
     </row>
-    <row r="203" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="3"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -8155,7 +8004,7 @@
       <c r="V203" s="3"/>
       <c r="W203" s="2"/>
     </row>
-    <row r="204" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="3"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -8180,7 +8029,7 @@
       <c r="V204" s="3"/>
       <c r="W204" s="2"/>
     </row>
-    <row r="205" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="3"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -8205,10 +8054,58 @@
       <c r="V205" s="3"/>
       <c r="W205" s="2"/>
     </row>
-    <row r="206" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="207" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="208" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="209" ht="45" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="206" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="3"/>
+      <c r="B206" s="2"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="3"/>
+      <c r="E206" s="3"/>
+      <c r="F206" s="3"/>
+      <c r="G206" s="3"/>
+      <c r="H206" s="3"/>
+      <c r="I206" s="3"/>
+      <c r="J206" s="4"/>
+      <c r="K206" s="4"/>
+      <c r="L206" s="4"/>
+      <c r="M206" s="4"/>
+      <c r="N206" s="4"/>
+      <c r="O206" s="4"/>
+      <c r="P206" s="4"/>
+      <c r="Q206" s="4"/>
+      <c r="R206" s="4"/>
+      <c r="S206" s="4"/>
+      <c r="T206" s="4"/>
+      <c r="U206" s="4"/>
+      <c r="V206" s="3"/>
+      <c r="W206" s="2"/>
+    </row>
+    <row r="207" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="3"/>
+      <c r="B207" s="2"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="3"/>
+      <c r="E207" s="3"/>
+      <c r="F207" s="3"/>
+      <c r="G207" s="3"/>
+      <c r="H207" s="3"/>
+      <c r="I207" s="3"/>
+      <c r="J207" s="4"/>
+      <c r="K207" s="4"/>
+      <c r="L207" s="4"/>
+      <c r="M207" s="4"/>
+      <c r="N207" s="4"/>
+      <c r="O207" s="4"/>
+      <c r="P207" s="4"/>
+      <c r="Q207" s="4"/>
+      <c r="R207" s="4"/>
+      <c r="S207" s="4"/>
+      <c r="T207" s="4"/>
+      <c r="U207" s="4"/>
+      <c r="V207" s="3"/>
+      <c r="W207" s="2"/>
+    </row>
+    <row r="208" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="45" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W33">
     <sortCondition ref="A2"/>

--- a/JavaApplication19/src/excel/Inventario.xlsx
+++ b/JavaApplication19/src/excel/Inventario.xlsx
@@ -417,7 +417,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -460,8 +460,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -527,6 +545,26 @@
         <bgColor rgb="FFFF2F2F"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightTrellis">
+        <bgColor indexed="29"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -569,7 +607,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -657,6 +695,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1161,8 +1208,8 @@
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
-      <c r="G2">
-        <v>1</v>
+      <c r="G2" t="n" s="31">
+        <v>0.0</v>
       </c>
       <c r="H2" s="15">
         <v>200</v>
@@ -1242,8 +1289,8 @@
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
-      <c r="G3">
-        <v>1</v>
+      <c r="G3" t="n" s="32">
+        <v>0.0</v>
       </c>
       <c r="H3" s="15">
         <v>380</v>
@@ -1566,8 +1613,8 @@
       </c>
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
-      <c r="G7">
-        <v>1</v>
+      <c r="G7" t="n" s="33">
+        <v>0.0</v>
       </c>
       <c r="H7" s="15">
         <v>5990</v>

--- a/JavaApplication19/src/excel/Inventario.xlsx
+++ b/JavaApplication19/src/excel/Inventario.xlsx
@@ -417,7 +417,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -478,8 +478,14 @@
       <color indexed="8"/>
       <b val="true"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -565,8 +571,18 @@
         <bgColor indexed="29"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="EEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="EEEEEE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -602,12 +618,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -704,6 +738,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1370,8 +1407,8 @@
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
-      <c r="G4">
-        <v>1</v>
+      <c r="G4" t="n" s="34">
+        <v>0.0</v>
       </c>
       <c r="H4" s="15">
         <v>280</v>

--- a/JavaApplication19/src/excel/Inventario.xlsx
+++ b/JavaApplication19/src/excel/Inventario.xlsx
@@ -417,7 +417,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -459,6 +459,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -641,7 +647,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -741,6 +747,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1407,8 +1416,8 @@
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
-      <c r="G4" t="n" s="34">
-        <v>0.0</v>
+      <c r="G4" t="n" s="35">
+        <v>1.0</v>
       </c>
       <c r="H4" s="15">
         <v>280</v>

--- a/JavaApplication19/src/excel/Inventario.xlsx
+++ b/JavaApplication19/src/excel/Inventario.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="161">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -408,6 +408,111 @@
   </si>
   <si>
     <t>2862.88</t>
+  </si>
+  <si>
+    <t>hla</t>
+  </si>
+  <si>
+    <t>hola3</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>3.48</t>
+  </si>
+  <si>
+    <t>10.44</t>
+  </si>
+  <si>
+    <t>hoa</t>
+  </si>
+  <si>
+    <t>sa</t>
+  </si>
+  <si>
+    <t>10.25</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>123.0</t>
+  </si>
+  <si>
+    <t>142.68</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>441.0</t>
+  </si>
+  <si>
+    <t>24.36</t>
+  </si>
+  <si>
+    <t>511.56</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>0.4444444444444444</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>4.64</t>
+  </si>
+  <si>
+    <t>18.56</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>0.008130081300813009</t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>29  julio</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>10508.0</t>
+  </si>
+  <si>
+    <t>13000.0</t>
   </si>
 </sst>
 </file>
@@ -417,7 +522,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="104" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -490,8 +595,566 @@
       <color indexed="8"/>
       <b val="true"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -587,6 +1250,16 @@
         <fgColor rgb="EEEEEE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="22B473"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="22B473"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -647,7 +1320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -750,6 +1423,285 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1416,8 +2368,8 @@
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
-      <c r="G4" t="n" s="35">
-        <v>1.0</v>
+      <c r="G4" t="n" s="117">
+        <v>0.0</v>
       </c>
       <c r="H4" s="15">
         <v>280</v>
@@ -1578,8 +2530,8 @@
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
-      <c r="G6">
-        <v>1</v>
+      <c r="G6" t="n" s="118">
+        <v>0.0</v>
       </c>
       <c r="H6" s="15">
         <v>10508</v>
@@ -4050,207 +5002,294 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="30.0" x14ac:dyDescent="0.45" customHeight="true">
-      <c r="A37" s="23"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="26"/>
-      <c r="I37" t="n">
-        <f>SUM(I2:I36)</f>
+    <row r="37" ht="30.0" customHeight="true">
+      <c r="A37" t="s" s="36">
+        <v>115</v>
+      </c>
+      <c r="B37" t="s" s="37">
+        <v>126</v>
+      </c>
+      <c r="C37" t="s" s="38">
+        <v>117</v>
+      </c>
+      <c r="D37" t="s" s="39">
+        <v>94</v>
+      </c>
+      <c r="E37" t="s" s="40">
+        <v>127</v>
+      </c>
+      <c r="F37" t="s" s="41">
+        <v>128</v>
+      </c>
+      <c r="G37" t="s" s="42">
+        <v>129</v>
+      </c>
+      <c r="H37" t="s" s="43">
+        <v>129</v>
+      </c>
+      <c r="I37" t="s" s="44">
+        <v>130</v>
+      </c>
+      <c r="J37" t="s" s="45">
+        <v>129</v>
+      </c>
+      <c r="K37" t="s" s="46">
+        <v>130</v>
+      </c>
+      <c r="L37" t="s" s="47">
+        <v>131</v>
+      </c>
+      <c r="M37" t="s" s="48">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" ht="30.0" customHeight="true">
+      <c r="A38" t="s" s="49">
+        <v>115</v>
+      </c>
+      <c r="B38" t="s" s="50">
+        <v>133</v>
+      </c>
+      <c r="C38" t="s" s="51">
+        <v>117</v>
+      </c>
+      <c r="D38" t="s" s="52">
+        <v>94</v>
+      </c>
+      <c r="E38" t="s" s="53">
+        <v>134</v>
+      </c>
+      <c r="F38" t="s" s="54">
+        <v>135</v>
+      </c>
+      <c r="G38" t="s" s="55">
+        <v>136</v>
+      </c>
+      <c r="H38" t="s" s="56">
+        <v>137</v>
+      </c>
+      <c r="I38" t="s" s="57">
+        <v>138</v>
+      </c>
+      <c r="J38" t="s" s="58">
+        <v>120</v>
+      </c>
+      <c r="K38" t="s" s="59">
+        <v>139</v>
+      </c>
+      <c r="L38" t="s" s="60">
+        <v>140</v>
+      </c>
+      <c r="M38" t="s" s="61">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" ht="30.0" customHeight="true">
+      <c r="A39" t="s" s="62">
+        <v>115</v>
+      </c>
+      <c r="B39" t="s" s="63">
+        <v>137</v>
+      </c>
+      <c r="C39" t="s" s="64">
+        <v>117</v>
+      </c>
+      <c r="D39" t="s" s="65">
+        <v>94</v>
+      </c>
+      <c r="E39" t="s" s="66">
+        <v>108</v>
+      </c>
+      <c r="F39" t="s" s="67">
+        <v>141</v>
+      </c>
+      <c r="G39" t="s" s="68">
+        <v>142</v>
+      </c>
+      <c r="H39" t="s" s="69">
+        <v>108</v>
+      </c>
+      <c r="I39" t="s" s="70">
+        <v>143</v>
+      </c>
+      <c r="J39" t="s" s="71">
+        <v>142</v>
+      </c>
+      <c r="K39" t="s" s="72">
+        <v>144</v>
+      </c>
+      <c r="L39" t="s" s="73">
+        <v>145</v>
+      </c>
+      <c r="M39" t="s" s="74">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" ht="30.0" customHeight="true">
+      <c r="A40" t="s" s="75">
+        <v>115</v>
+      </c>
+      <c r="B40" t="s" s="76">
+        <v>147</v>
+      </c>
+      <c r="C40" t="s" s="77">
+        <v>117</v>
+      </c>
+      <c r="D40" t="s" s="78">
+        <v>94</v>
+      </c>
+      <c r="E40" t="s" s="79">
+        <v>147</v>
+      </c>
+      <c r="F40" t="s" s="80">
+        <v>148</v>
+      </c>
+      <c r="G40" t="s" s="81">
+        <v>147</v>
+      </c>
+      <c r="H40" t="s" s="82">
+        <v>149</v>
+      </c>
+      <c r="I40" t="s" s="83">
+        <v>150</v>
+      </c>
+      <c r="J40" t="s" s="84">
+        <v>147</v>
+      </c>
+      <c r="K40" t="s" s="85">
+        <v>151</v>
+      </c>
+      <c r="L40" t="s" s="86">
+        <v>152</v>
+      </c>
+      <c r="M40" t="s" s="87">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" ht="30.0" customHeight="true">
+      <c r="A41" t="s" s="96">
+        <v>115</v>
+      </c>
+      <c r="B41" t="s" s="97">
+        <v>120</v>
+      </c>
+      <c r="C41" t="s" s="98">
+        <v>117</v>
+      </c>
+      <c r="D41" t="s" s="99">
+        <v>94</v>
+      </c>
+      <c r="E41" t="s" s="100">
+        <v>154</v>
+      </c>
+      <c r="F41" t="s" s="101">
+        <v>155</v>
+      </c>
+      <c r="G41" t="s" s="102">
+        <v>136</v>
+      </c>
+      <c r="H41" t="s" s="103">
+        <v>120</v>
+      </c>
+      <c r="I41" t="s" s="104">
+        <v>139</v>
+      </c>
+      <c r="J41" t="s" s="105">
+        <v>136</v>
+      </c>
+      <c r="K41" t="s" s="106">
+        <v>128</v>
+      </c>
+      <c r="L41" t="s" s="107">
+        <v>156</v>
+      </c>
+      <c r="M41" t="s" s="108">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" ht="30.0" customHeight="true">
+      <c r="A42" t="s" s="119">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s" s="120">
+        <v>69</v>
+      </c>
+      <c r="C42" t="s" s="121">
+        <v>157</v>
+      </c>
+      <c r="D42" t="s" s="122">
+        <v>23</v>
+      </c>
+      <c r="E42" t="s" s="123">
+        <v>158</v>
+      </c>
+      <c r="F42" t="s" s="124">
+        <v>158</v>
+      </c>
+      <c r="G42" t="s" s="125">
+        <v>136</v>
+      </c>
+      <c r="H42" t="s" s="126">
+        <v>159</v>
+      </c>
+      <c r="I42" t="s" s="127">
+        <v>159</v>
+      </c>
+      <c r="J42" t="s" s="128">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="30.0" x14ac:dyDescent="0.45" customHeight="true">
+      <c r="A43" s="23"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="26"/>
+      <c r="I43" t="n" s="109">
+        <f>SUM(I2:I41)</f>
         <v>0.0</v>
       </c>
-      <c r="J37" s="26"/>
-      <c r="K37" t="n">
-        <f>SUM(K2:K36)</f>
+      <c r="J43" s="26"/>
+      <c r="K43" t="n" s="110">
+        <f>SUM(K2:K41)</f>
         <v>0.0</v>
       </c>
-      <c r="L37" s="26"/>
-      <c r="M37" t="n">
-        <f>SUM(M2:M36)</f>
+      <c r="L43" s="26"/>
+      <c r="M43" t="n" s="111">
+        <f>SUM(M2:M41)</f>
         <v>0.0</v>
       </c>
-      <c r="N37" s="26"/>
-      <c r="O37" t="n">
-        <f>SUM(O2:O36)</f>
+      <c r="N43" s="26"/>
+      <c r="O43" t="n" s="112">
+        <f>SUM(O2:O41)</f>
         <v>0.0</v>
       </c>
-      <c r="P37" s="26"/>
-      <c r="Q37" t="n">
-        <f>SUM(Q2:Q36)</f>
+      <c r="P43" s="26"/>
+      <c r="Q43" t="n" s="113">
+        <f>SUM(Q2:Q41)</f>
         <v>0.0</v>
       </c>
-      <c r="R37" s="26"/>
-      <c r="S37" t="n">
-        <f>SUM(S2:S36)</f>
+      <c r="R43" s="26"/>
+      <c r="S43" t="n" s="114">
+        <f>SUM(S2:S41)</f>
         <v>0.0</v>
       </c>
-      <c r="T37" s="26"/>
-      <c r="U37" t="n">
-        <f>SUM(U2:U36)</f>
+      <c r="T43" s="26"/>
+      <c r="U43" t="n" s="115">
+        <f>SUM(U2:U41)</f>
         <v>0.0</v>
       </c>
-      <c r="V37" s="26"/>
-      <c r="W37" t="n">
-        <f>SUM(W2:W36)</f>
+      <c r="V43" s="26"/>
+      <c r="W43" t="n" s="116">
+        <f>SUM(W2:W41)</f>
         <v>0.0</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A38" s="1"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="5"/>
-    </row>
-    <row r="39" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="3"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="2"/>
-    </row>
-    <row r="40" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="3"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="2"/>
-    </row>
-    <row r="41" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="3"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="3"/>
-      <c r="W41" s="2"/>
-    </row>
-    <row r="42" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="3"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
-      <c r="V42" s="3"/>
-      <c r="W42" s="2"/>
-    </row>
-    <row r="43" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="3"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="4"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="3"/>
-      <c r="W43" s="2"/>
-    </row>
-    <row r="44" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="3"/>
+    <row r="44" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="3"/>
@@ -4271,8 +5310,8 @@
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
-      <c r="V44" s="3"/>
-      <c r="W44" s="2"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="5"/>
     </row>
     <row r="45" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>

--- a/JavaApplication19/src/excel/Inventario.xlsx
+++ b/JavaApplication19/src/excel/Inventario.xlsx
@@ -522,7 +522,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="104" x14ac:knownFonts="1">
+  <fonts count="106" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -564,6 +564,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1320,7 +1332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1702,6 +1714,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="103" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2692,8 +2710,8 @@
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
-      <c r="G8">
-        <v>61</v>
+      <c r="G8" t="n" s="130">
+        <v>62.0</v>
       </c>
       <c r="H8" s="15">
         <v>27</v>

--- a/JavaApplication19/src/excel/Inventario.xlsx
+++ b/JavaApplication19/src/excel/Inventario.xlsx
@@ -1,28 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Desarrollo\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B382A135-44CF-4E48-82F9-15A613AA6EA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F446ED4-0085-4BD6-BCAC-FB201B550CF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3083" yWindow="0" windowWidth="21600" windowHeight="11498" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventario" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="true"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -303,216 +301,6 @@
   </si>
   <si>
     <t>PRECIO BASE UNIDAD</t>
-  </si>
-  <si>
-    <t>Epic Oil</t>
-  </si>
-  <si>
-    <t>Aceite para bici</t>
-  </si>
-  <si>
-    <t>28  julio 20</t>
-  </si>
-  <si>
-    <t>Nuevo</t>
-  </si>
-  <si>
-    <t>No hay pack</t>
-  </si>
-  <si>
-    <t>1.3333333333333333</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>3000.0</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>4000.0</t>
-  </si>
-  <si>
-    <t>69.6</t>
-  </si>
-  <si>
-    <t>3479.9999999999995</t>
-  </si>
-  <si>
-    <t>Bici de Ruta</t>
-  </si>
-  <si>
-    <t>Talla M, Rodada 28</t>
-  </si>
-  <si>
-    <t>Shimano</t>
-  </si>
-  <si>
-    <t>1.0823529411764705</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>8500</t>
-  </si>
-  <si>
-    <t>17000.0</t>
-  </si>
-  <si>
-    <t>9200</t>
-  </si>
-  <si>
-    <t>18400.0</t>
-  </si>
-  <si>
-    <t>10672.0</t>
-  </si>
-  <si>
-    <t>21344.0</t>
-  </si>
-  <si>
-    <t>Inventario</t>
-  </si>
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>29  julio 20</t>
-  </si>
-  <si>
-    <t>das</t>
-  </si>
-  <si>
-    <t>10.032520325203253</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>246.0</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>2468.0</t>
-  </si>
-  <si>
-    <t>1431.44</t>
-  </si>
-  <si>
-    <t>2862.88</t>
-  </si>
-  <si>
-    <t>hla</t>
-  </si>
-  <si>
-    <t>hola3</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>3.48</t>
-  </si>
-  <si>
-    <t>10.44</t>
-  </si>
-  <si>
-    <t>hoa</t>
-  </si>
-  <si>
-    <t>sa</t>
-  </si>
-  <si>
-    <t>10.25</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
-    <t>123.0</t>
-  </si>
-  <si>
-    <t>142.68</t>
-  </si>
-  <si>
-    <t>10.5</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>42.0</t>
-  </si>
-  <si>
-    <t>441.0</t>
-  </si>
-  <si>
-    <t>24.36</t>
-  </si>
-  <si>
-    <t>511.56</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>0.4444444444444444</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>36.0</t>
-  </si>
-  <si>
-    <t>16.0</t>
-  </si>
-  <si>
-    <t>4.64</t>
-  </si>
-  <si>
-    <t>18.56</t>
-  </si>
-  <si>
-    <t>321</t>
-  </si>
-  <si>
-    <t>0.008130081300813009</t>
-  </si>
-  <si>
-    <t>1.16</t>
-  </si>
-  <si>
-    <t>29  julio</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>10508.0</t>
-  </si>
-  <si>
-    <t>13000.0</t>
   </si>
 </sst>
 </file>
@@ -522,7 +310,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="106" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -565,608 +353,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
   </fonts>
-  <fills count="20">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1232,48 +420,8 @@
         <bgColor rgb="FFFF2F2F"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor indexed="22"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <bgColor indexed="22"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor indexed="29"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightTrellis">
-        <bgColor indexed="29"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="EEEEEE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="EEEEEE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="22B473"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="22B473"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1309,30 +457,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1410,6 +540,9 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1422,310 +555,10 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Salida" xfId="1" builtinId="21"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1804,7 +637,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2127,20 +960,20 @@
   <dimension ref="A1:AC209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.46484375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="3" max="23" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="24" max="29" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="1" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="23" width="20.6640625" customWidth="1"/>
+    <col min="24" max="29" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -2148,7 +981,7 @@
       <c r="C1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="8" t="s">
@@ -2209,7 +1042,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>43</v>
       </c>
@@ -2224,8 +1057,8 @@
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
-      <c r="G2" t="n" s="31">
-        <v>0.0</v>
+      <c r="G2" s="14">
+        <v>1</v>
       </c>
       <c r="H2" s="15">
         <v>200</v>
@@ -2290,7 +1123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>20</v>
       </c>
@@ -2305,8 +1138,8 @@
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
-      <c r="G3" t="n" s="32">
-        <v>0.0</v>
+      <c r="G3" s="19">
+        <v>1</v>
       </c>
       <c r="H3" s="15">
         <v>380</v>
@@ -2371,7 +1204,7 @@
         <v>6.3948846218409017E-14</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>22</v>
       </c>
@@ -2386,8 +1219,8 @@
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
-      <c r="G4" t="n" s="117">
-        <v>0.0</v>
+      <c r="G4" s="19">
+        <v>1</v>
       </c>
       <c r="H4" s="15">
         <v>280</v>
@@ -2452,7 +1285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>24</v>
       </c>
@@ -2467,7 +1300,7 @@
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
-      <c r="G5">
+      <c r="G5" s="22">
         <v>1</v>
       </c>
       <c r="H5" s="15">
@@ -2533,7 +1366,7 @@
         <v>1488.4099999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>44</v>
       </c>
@@ -2548,8 +1381,8 @@
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
-      <c r="G6" t="n" s="118">
-        <v>0.0</v>
+      <c r="G6" s="14">
+        <v>1</v>
       </c>
       <c r="H6" s="15">
         <v>10508</v>
@@ -2614,23 +1447,23 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="30">
         <v>43984</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" t="n" s="33">
-        <v>0.0</v>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31">
+        <v>1</v>
       </c>
       <c r="H7" s="15">
         <v>5990</v>
@@ -2695,7 +1528,7 @@
         <v>9010</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>25</v>
       </c>
@@ -2710,8 +1543,8 @@
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
-      <c r="G8" t="n" s="130">
-        <v>62.0</v>
+      <c r="G8" s="19">
+        <v>61</v>
       </c>
       <c r="H8" s="15">
         <v>27</v>
@@ -2776,7 +1609,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>72</v>
       </c>
@@ -2863,7 +1696,7 @@
         <v>290.84967320261444</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>46</v>
       </c>
@@ -2943,7 +1776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>29</v>
       </c>
@@ -3030,7 +1863,7 @@
         <v>77.5599128540305</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>50</v>
       </c>
@@ -3117,7 +1950,7 @@
         <v>170.20547945205476</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>73</v>
       </c>
@@ -3132,7 +1965,7 @@
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
-      <c r="G13">
+      <c r="G13" s="19">
         <v>1</v>
       </c>
       <c r="H13" s="15">
@@ -3198,7 +2031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>30</v>
       </c>
@@ -3213,7 +2046,7 @@
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
-      <c r="G14">
+      <c r="G14" s="19">
         <v>195</v>
       </c>
       <c r="H14" s="15">
@@ -3279,7 +2112,7 @@
         <v>2932.8000000000011</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>85</v>
       </c>
@@ -3366,7 +2199,7 @@
         <v>243.15068493150687</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>31</v>
       </c>
@@ -3453,7 +2286,7 @@
         <v>72.945205479452056</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>32</v>
       </c>
@@ -3534,22 +2367,22 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A18" s="28" t="s">
+    <row r="18" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="30">
         <v>43853</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30">
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31">
         <v>1</v>
       </c>
       <c r="H18" s="15">
@@ -3615,7 +2448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>74</v>
       </c>
@@ -3702,7 +2535,7 @@
         <v>194.52054794520552</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>75</v>
       </c>
@@ -3783,7 +2616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>76</v>
       </c>
@@ -3870,7 +2703,7 @@
         <v>121.57534246575344</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>77</v>
       </c>
@@ -3951,7 +2784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>79</v>
       </c>
@@ -4032,7 +2865,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>34</v>
       </c>
@@ -4120,7 +2953,7 @@
       </c>
       <c r="AC24" s="6"/>
     </row>
-    <row r="25" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>35</v>
       </c>
@@ -4207,7 +3040,7 @@
         <v>67.864923747276663</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>36</v>
       </c>
@@ -4294,7 +3127,7 @@
         <v>121.57534246575344</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>37</v>
       </c>
@@ -4381,7 +3214,7 @@
         <v>116.33986928104576</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>38</v>
       </c>
@@ -4468,7 +3301,7 @@
         <v>121.57534246575344</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>39</v>
       </c>
@@ -4555,7 +3388,7 @@
         <v>96.949891067538147</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>61</v>
       </c>
@@ -4642,22 +3475,22 @@
         <v>232.67973856209153</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A31" s="28" t="s">
+    <row r="31" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="29">
+      <c r="C31" s="30">
         <v>43853</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30">
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31">
         <v>1</v>
       </c>
       <c r="H31" s="15">
@@ -4723,7 +3556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>40</v>
       </c>
@@ -4810,7 +3643,7 @@
         <v>1069.8630136986303</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>67</v>
       </c>
@@ -4897,417 +3730,282 @@
         <v>96.949891067538147</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="30.0" x14ac:dyDescent="0.45" customHeight="true">
-      <c r="A34" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34" t="s">
-        <v>95</v>
-      </c>
-      <c r="F34" t="s">
-        <v>96</v>
-      </c>
-      <c r="G34" t="s">
-        <v>97</v>
-      </c>
-      <c r="H34" t="s">
-        <v>98</v>
-      </c>
-      <c r="I34" t="s">
-        <v>99</v>
-      </c>
-      <c r="J34" t="s">
-        <v>100</v>
-      </c>
-      <c r="K34" t="s">
-        <v>101</v>
-      </c>
-      <c r="L34" t="s">
-        <v>102</v>
-      </c>
-      <c r="M34" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" ht="30.0" x14ac:dyDescent="0.45" customHeight="true">
-      <c r="A35" t="s">
-        <v>104</v>
-      </c>
-      <c r="B35" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" t="s">
-        <v>94</v>
-      </c>
-      <c r="E35" t="s">
-        <v>106</v>
-      </c>
-      <c r="F35" t="s">
-        <v>107</v>
-      </c>
-      <c r="G35" t="s">
-        <v>108</v>
-      </c>
-      <c r="H35" t="s">
-        <v>109</v>
-      </c>
-      <c r="I35" t="s">
-        <v>110</v>
-      </c>
-      <c r="J35" t="s">
-        <v>111</v>
-      </c>
-      <c r="K35" t="s">
-        <v>112</v>
-      </c>
-      <c r="L35" t="s">
-        <v>113</v>
-      </c>
-      <c r="M35" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" ht="30.0" customHeight="true">
-      <c r="A36" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="B36" t="s" s="0">
-        <v>116</v>
-      </c>
-      <c r="C36" t="s" s="0">
-        <v>117</v>
-      </c>
-      <c r="D36" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="E36" t="s" s="0">
-        <v>118</v>
-      </c>
-      <c r="F36" t="s" s="0">
-        <v>119</v>
-      </c>
-      <c r="G36" t="s" s="0">
-        <v>108</v>
-      </c>
-      <c r="H36" t="s" s="0">
-        <v>120</v>
-      </c>
-      <c r="I36" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="J36" t="s" s="0">
-        <v>122</v>
-      </c>
-      <c r="K36" t="s" s="0">
-        <v>123</v>
-      </c>
-      <c r="L36" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="M36" t="s" s="0">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="37" ht="30.0" customHeight="true">
-      <c r="A37" t="s" s="36">
-        <v>115</v>
-      </c>
-      <c r="B37" t="s" s="37">
-        <v>126</v>
-      </c>
-      <c r="C37" t="s" s="38">
-        <v>117</v>
-      </c>
-      <c r="D37" t="s" s="39">
-        <v>94</v>
-      </c>
-      <c r="E37" t="s" s="40">
-        <v>127</v>
-      </c>
-      <c r="F37" t="s" s="41">
-        <v>128</v>
-      </c>
-      <c r="G37" t="s" s="42">
-        <v>129</v>
-      </c>
-      <c r="H37" t="s" s="43">
-        <v>129</v>
-      </c>
-      <c r="I37" t="s" s="44">
-        <v>130</v>
-      </c>
-      <c r="J37" t="s" s="45">
-        <v>129</v>
-      </c>
-      <c r="K37" t="s" s="46">
-        <v>130</v>
-      </c>
-      <c r="L37" t="s" s="47">
-        <v>131</v>
-      </c>
-      <c r="M37" t="s" s="48">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="38" ht="30.0" customHeight="true">
-      <c r="A38" t="s" s="49">
-        <v>115</v>
-      </c>
-      <c r="B38" t="s" s="50">
-        <v>133</v>
-      </c>
-      <c r="C38" t="s" s="51">
-        <v>117</v>
-      </c>
-      <c r="D38" t="s" s="52">
-        <v>94</v>
-      </c>
-      <c r="E38" t="s" s="53">
-        <v>134</v>
-      </c>
-      <c r="F38" t="s" s="54">
-        <v>135</v>
-      </c>
-      <c r="G38" t="s" s="55">
-        <v>136</v>
-      </c>
-      <c r="H38" t="s" s="56">
-        <v>137</v>
-      </c>
-      <c r="I38" t="s" s="57">
-        <v>138</v>
-      </c>
-      <c r="J38" t="s" s="58">
-        <v>120</v>
-      </c>
-      <c r="K38" t="s" s="59">
-        <v>139</v>
-      </c>
-      <c r="L38" t="s" s="60">
-        <v>140</v>
-      </c>
-      <c r="M38" t="s" s="61">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="39" ht="30.0" customHeight="true">
-      <c r="A39" t="s" s="62">
-        <v>115</v>
-      </c>
-      <c r="B39" t="s" s="63">
-        <v>137</v>
-      </c>
-      <c r="C39" t="s" s="64">
-        <v>117</v>
-      </c>
-      <c r="D39" t="s" s="65">
-        <v>94</v>
-      </c>
-      <c r="E39" t="s" s="66">
-        <v>108</v>
-      </c>
-      <c r="F39" t="s" s="67">
-        <v>141</v>
-      </c>
-      <c r="G39" t="s" s="68">
-        <v>142</v>
-      </c>
-      <c r="H39" t="s" s="69">
-        <v>108</v>
-      </c>
-      <c r="I39" t="s" s="70">
-        <v>143</v>
-      </c>
-      <c r="J39" t="s" s="71">
-        <v>142</v>
-      </c>
-      <c r="K39" t="s" s="72">
-        <v>144</v>
-      </c>
-      <c r="L39" t="s" s="73">
-        <v>145</v>
-      </c>
-      <c r="M39" t="s" s="74">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="40" ht="30.0" customHeight="true">
-      <c r="A40" t="s" s="75">
-        <v>115</v>
-      </c>
-      <c r="B40" t="s" s="76">
-        <v>147</v>
-      </c>
-      <c r="C40" t="s" s="77">
-        <v>117</v>
-      </c>
-      <c r="D40" t="s" s="78">
-        <v>94</v>
-      </c>
-      <c r="E40" t="s" s="79">
-        <v>147</v>
-      </c>
-      <c r="F40" t="s" s="80">
-        <v>148</v>
-      </c>
-      <c r="G40" t="s" s="81">
-        <v>147</v>
-      </c>
-      <c r="H40" t="s" s="82">
-        <v>149</v>
-      </c>
-      <c r="I40" t="s" s="83">
-        <v>150</v>
-      </c>
-      <c r="J40" t="s" s="84">
-        <v>147</v>
-      </c>
-      <c r="K40" t="s" s="85">
-        <v>151</v>
-      </c>
-      <c r="L40" t="s" s="86">
-        <v>152</v>
-      </c>
-      <c r="M40" t="s" s="87">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="41" ht="30.0" customHeight="true">
-      <c r="A41" t="s" s="96">
-        <v>115</v>
-      </c>
-      <c r="B41" t="s" s="97">
-        <v>120</v>
-      </c>
-      <c r="C41" t="s" s="98">
-        <v>117</v>
-      </c>
-      <c r="D41" t="s" s="99">
-        <v>94</v>
-      </c>
-      <c r="E41" t="s" s="100">
-        <v>154</v>
-      </c>
-      <c r="F41" t="s" s="101">
-        <v>155</v>
-      </c>
-      <c r="G41" t="s" s="102">
-        <v>136</v>
-      </c>
-      <c r="H41" t="s" s="103">
-        <v>120</v>
-      </c>
-      <c r="I41" t="s" s="104">
-        <v>139</v>
-      </c>
-      <c r="J41" t="s" s="105">
-        <v>136</v>
-      </c>
-      <c r="K41" t="s" s="106">
-        <v>128</v>
-      </c>
-      <c r="L41" t="s" s="107">
-        <v>156</v>
-      </c>
-      <c r="M41" t="s" s="108">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="42" ht="30.0" customHeight="true">
-      <c r="A42" t="s" s="119">
-        <v>44</v>
-      </c>
-      <c r="B42" t="s" s="120">
-        <v>69</v>
-      </c>
-      <c r="C42" t="s" s="121">
-        <v>157</v>
-      </c>
-      <c r="D42" t="s" s="122">
-        <v>23</v>
-      </c>
-      <c r="E42" t="s" s="123">
-        <v>158</v>
-      </c>
-      <c r="F42" t="s" s="124">
-        <v>158</v>
-      </c>
-      <c r="G42" t="s" s="125">
-        <v>136</v>
-      </c>
-      <c r="H42" t="s" s="126">
-        <v>159</v>
-      </c>
-      <c r="I42" t="s" s="127">
-        <v>159</v>
-      </c>
-      <c r="J42" t="s" s="128">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" ht="30.0" x14ac:dyDescent="0.45" customHeight="true">
-      <c r="A43" s="23"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="26"/>
-      <c r="I43" t="n" s="109">
-        <f>SUM(I2:I41)</f>
-        <v>0.0</v>
-      </c>
-      <c r="J43" s="26"/>
-      <c r="K43" t="n" s="110">
-        <f>SUM(K2:K41)</f>
-        <v>0.0</v>
-      </c>
-      <c r="L43" s="26"/>
-      <c r="M43" t="n" s="111">
-        <f>SUM(M2:M41)</f>
-        <v>0.0</v>
-      </c>
-      <c r="N43" s="26"/>
-      <c r="O43" t="n" s="112">
-        <f>SUM(O2:O41)</f>
-        <v>0.0</v>
-      </c>
-      <c r="P43" s="26"/>
-      <c r="Q43" t="n" s="113">
-        <f>SUM(Q2:Q41)</f>
-        <v>0.0</v>
-      </c>
-      <c r="R43" s="26"/>
-      <c r="S43" t="n" s="114">
-        <f>SUM(S2:S41)</f>
-        <v>0.0</v>
-      </c>
-      <c r="T43" s="26"/>
-      <c r="U43" t="n" s="115">
-        <f>SUM(U2:U41)</f>
-        <v>0.0</v>
-      </c>
-      <c r="V43" s="26"/>
-      <c r="W43" t="n" s="116">
-        <f>SUM(W2:W41)</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A44" s="1"/>
+    <row r="34" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="23"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26">
+        <f>SUM(I2:I33)</f>
+        <v>37721.034456382244</v>
+      </c>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26">
+        <f>SUM(K2:K33)</f>
+        <v>60170</v>
+      </c>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26">
+        <f>SUM(M2:M33)</f>
+        <v>69797.2</v>
+      </c>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26">
+        <f>SUM(O2:O33)</f>
+        <v>91826.78</v>
+      </c>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26">
+        <f>SUM(Q2:Q33)</f>
+        <v>11914.580000000002</v>
+      </c>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26">
+        <f>SUM(S2:S33)</f>
+        <v>9627.2000000000007</v>
+      </c>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26">
+        <f>SUM(U2:U33)</f>
+        <v>22448.965543617753</v>
+      </c>
+      <c r="V34" s="26"/>
+      <c r="W34" s="27">
+        <f>SUM(W2:W33)</f>
+        <v>22448.965543617756</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="5"/>
+    </row>
+    <row r="36" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="2"/>
+    </row>
+    <row r="40" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="2"/>
+    </row>
+    <row r="41" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="2"/>
+    </row>
+    <row r="44" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="3"/>
@@ -5328,10 +4026,10 @@
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
-      <c r="V44" s="4"/>
-      <c r="W44" s="5"/>
-    </row>
-    <row r="45" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V44" s="3"/>
+      <c r="W44" s="2"/>
+    </row>
+    <row r="45" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -5356,7 +4054,7 @@
       <c r="V45" s="3"/>
       <c r="W45" s="2"/>
     </row>
-    <row r="46" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -5381,7 +4079,7 @@
       <c r="V46" s="3"/>
       <c r="W46" s="2"/>
     </row>
-    <row r="47" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -5406,7 +4104,7 @@
       <c r="V47" s="3"/>
       <c r="W47" s="2"/>
     </row>
-    <row r="48" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -5431,7 +4129,7 @@
       <c r="V48" s="3"/>
       <c r="W48" s="2"/>
     </row>
-    <row r="49" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -5456,7 +4154,7 @@
       <c r="V49" s="3"/>
       <c r="W49" s="2"/>
     </row>
-    <row r="50" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -5481,7 +4179,7 @@
       <c r="V50" s="3"/>
       <c r="W50" s="2"/>
     </row>
-    <row r="51" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -5506,7 +4204,7 @@
       <c r="V51" s="3"/>
       <c r="W51" s="2"/>
     </row>
-    <row r="52" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -5531,7 +4229,7 @@
       <c r="V52" s="3"/>
       <c r="W52" s="2"/>
     </row>
-    <row r="53" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -5556,7 +4254,7 @@
       <c r="V53" s="3"/>
       <c r="W53" s="2"/>
     </row>
-    <row r="54" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -5581,7 +4279,7 @@
       <c r="V54" s="3"/>
       <c r="W54" s="2"/>
     </row>
-    <row r="55" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -5606,7 +4304,7 @@
       <c r="V55" s="3"/>
       <c r="W55" s="2"/>
     </row>
-    <row r="56" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -5631,7 +4329,7 @@
       <c r="V56" s="3"/>
       <c r="W56" s="2"/>
     </row>
-    <row r="57" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -5656,7 +4354,7 @@
       <c r="V57" s="3"/>
       <c r="W57" s="2"/>
     </row>
-    <row r="58" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -5681,7 +4379,7 @@
       <c r="V58" s="3"/>
       <c r="W58" s="2"/>
     </row>
-    <row r="59" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -5706,7 +4404,7 @@
       <c r="V59" s="3"/>
       <c r="W59" s="2"/>
     </row>
-    <row r="60" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -5731,7 +4429,7 @@
       <c r="V60" s="3"/>
       <c r="W60" s="2"/>
     </row>
-    <row r="61" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -5756,7 +4454,7 @@
       <c r="V61" s="3"/>
       <c r="W61" s="2"/>
     </row>
-    <row r="62" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -5781,7 +4479,7 @@
       <c r="V62" s="3"/>
       <c r="W62" s="2"/>
     </row>
-    <row r="63" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -5806,7 +4504,7 @@
       <c r="V63" s="3"/>
       <c r="W63" s="2"/>
     </row>
-    <row r="64" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -5831,7 +4529,7 @@
       <c r="V64" s="3"/>
       <c r="W64" s="2"/>
     </row>
-    <row r="65" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -5856,7 +4554,7 @@
       <c r="V65" s="3"/>
       <c r="W65" s="2"/>
     </row>
-    <row r="66" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -5881,7 +4579,7 @@
       <c r="V66" s="3"/>
       <c r="W66" s="2"/>
     </row>
-    <row r="67" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -5906,7 +4604,7 @@
       <c r="V67" s="3"/>
       <c r="W67" s="2"/>
     </row>
-    <row r="68" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -5931,7 +4629,7 @@
       <c r="V68" s="3"/>
       <c r="W68" s="2"/>
     </row>
-    <row r="69" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -5956,7 +4654,7 @@
       <c r="V69" s="3"/>
       <c r="W69" s="2"/>
     </row>
-    <row r="70" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -5981,7 +4679,7 @@
       <c r="V70" s="3"/>
       <c r="W70" s="2"/>
     </row>
-    <row r="71" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -6006,7 +4704,7 @@
       <c r="V71" s="3"/>
       <c r="W71" s="2"/>
     </row>
-    <row r="72" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -6031,7 +4729,7 @@
       <c r="V72" s="3"/>
       <c r="W72" s="2"/>
     </row>
-    <row r="73" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -6056,7 +4754,7 @@
       <c r="V73" s="3"/>
       <c r="W73" s="2"/>
     </row>
-    <row r="74" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -6081,7 +4779,7 @@
       <c r="V74" s="3"/>
       <c r="W74" s="2"/>
     </row>
-    <row r="75" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -6106,7 +4804,7 @@
       <c r="V75" s="3"/>
       <c r="W75" s="2"/>
     </row>
-    <row r="76" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -6131,7 +4829,7 @@
       <c r="V76" s="3"/>
       <c r="W76" s="2"/>
     </row>
-    <row r="77" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -6156,7 +4854,7 @@
       <c r="V77" s="3"/>
       <c r="W77" s="2"/>
     </row>
-    <row r="78" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -6181,7 +4879,7 @@
       <c r="V78" s="3"/>
       <c r="W78" s="2"/>
     </row>
-    <row r="79" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -6206,7 +4904,7 @@
       <c r="V79" s="3"/>
       <c r="W79" s="2"/>
     </row>
-    <row r="80" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -6231,7 +4929,7 @@
       <c r="V80" s="3"/>
       <c r="W80" s="2"/>
     </row>
-    <row r="81" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -6256,7 +4954,7 @@
       <c r="V81" s="3"/>
       <c r="W81" s="2"/>
     </row>
-    <row r="82" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -6281,7 +4979,7 @@
       <c r="V82" s="3"/>
       <c r="W82" s="2"/>
     </row>
-    <row r="83" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -6306,7 +5004,7 @@
       <c r="V83" s="3"/>
       <c r="W83" s="2"/>
     </row>
-    <row r="84" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -6331,7 +5029,7 @@
       <c r="V84" s="3"/>
       <c r="W84" s="2"/>
     </row>
-    <row r="85" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -6356,7 +5054,7 @@
       <c r="V85" s="3"/>
       <c r="W85" s="2"/>
     </row>
-    <row r="86" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -6381,7 +5079,7 @@
       <c r="V86" s="3"/>
       <c r="W86" s="2"/>
     </row>
-    <row r="87" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -6406,7 +5104,7 @@
       <c r="V87" s="3"/>
       <c r="W87" s="2"/>
     </row>
-    <row r="88" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -6431,7 +5129,7 @@
       <c r="V88" s="3"/>
       <c r="W88" s="2"/>
     </row>
-    <row r="89" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -6456,7 +5154,7 @@
       <c r="V89" s="3"/>
       <c r="W89" s="2"/>
     </row>
-    <row r="90" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -6481,7 +5179,7 @@
       <c r="V90" s="3"/>
       <c r="W90" s="2"/>
     </row>
-    <row r="91" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -6506,7 +5204,7 @@
       <c r="V91" s="3"/>
       <c r="W91" s="2"/>
     </row>
-    <row r="92" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -6531,13 +5229,14 @@
       <c r="V92" s="3"/>
       <c r="W92" s="2"/>
     </row>
-    <row r="93" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="4"/>
@@ -6555,7 +5254,7 @@
       <c r="V93" s="3"/>
       <c r="W93" s="2"/>
     </row>
-    <row r="94" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -6580,7 +5279,7 @@
       <c r="V94" s="3"/>
       <c r="W94" s="2"/>
     </row>
-    <row r="95" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -6605,7 +5304,7 @@
       <c r="V95" s="3"/>
       <c r="W95" s="2"/>
     </row>
-    <row r="96" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -6630,7 +5329,7 @@
       <c r="V96" s="3"/>
       <c r="W96" s="2"/>
     </row>
-    <row r="97" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -6655,7 +5354,7 @@
       <c r="V97" s="3"/>
       <c r="W97" s="2"/>
     </row>
-    <row r="98" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -6680,7 +5379,7 @@
       <c r="V98" s="3"/>
       <c r="W98" s="2"/>
     </row>
-    <row r="99" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -6705,7 +5404,7 @@
       <c r="V99" s="3"/>
       <c r="W99" s="2"/>
     </row>
-    <row r="100" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -6730,7 +5429,7 @@
       <c r="V100" s="3"/>
       <c r="W100" s="2"/>
     </row>
-    <row r="101" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -6755,7 +5454,7 @@
       <c r="V101" s="3"/>
       <c r="W101" s="2"/>
     </row>
-    <row r="102" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -6780,7 +5479,7 @@
       <c r="V102" s="3"/>
       <c r="W102" s="2"/>
     </row>
-    <row r="103" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -6805,7 +5504,7 @@
       <c r="V103" s="3"/>
       <c r="W103" s="2"/>
     </row>
-    <row r="104" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -6830,7 +5529,7 @@
       <c r="V104" s="3"/>
       <c r="W104" s="2"/>
     </row>
-    <row r="105" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -6855,7 +5554,7 @@
       <c r="V105" s="3"/>
       <c r="W105" s="2"/>
     </row>
-    <row r="106" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -6880,7 +5579,7 @@
       <c r="V106" s="3"/>
       <c r="W106" s="2"/>
     </row>
-    <row r="107" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -6905,7 +5604,7 @@
       <c r="V107" s="3"/>
       <c r="W107" s="2"/>
     </row>
-    <row r="108" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -6930,7 +5629,7 @@
       <c r="V108" s="3"/>
       <c r="W108" s="2"/>
     </row>
-    <row r="109" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -6955,7 +5654,7 @@
       <c r="V109" s="3"/>
       <c r="W109" s="2"/>
     </row>
-    <row r="110" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -6980,7 +5679,7 @@
       <c r="V110" s="3"/>
       <c r="W110" s="2"/>
     </row>
-    <row r="111" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -7005,7 +5704,7 @@
       <c r="V111" s="3"/>
       <c r="W111" s="2"/>
     </row>
-    <row r="112" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -7030,7 +5729,7 @@
       <c r="V112" s="3"/>
       <c r="W112" s="2"/>
     </row>
-    <row r="113" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -7055,7 +5754,7 @@
       <c r="V113" s="3"/>
       <c r="W113" s="2"/>
     </row>
-    <row r="114" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -7080,7 +5779,7 @@
       <c r="V114" s="3"/>
       <c r="W114" s="2"/>
     </row>
-    <row r="115" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -7105,7 +5804,7 @@
       <c r="V115" s="3"/>
       <c r="W115" s="2"/>
     </row>
-    <row r="116" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -7130,7 +5829,7 @@
       <c r="V116" s="3"/>
       <c r="W116" s="2"/>
     </row>
-    <row r="117" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -7155,7 +5854,7 @@
       <c r="V117" s="3"/>
       <c r="W117" s="2"/>
     </row>
-    <row r="118" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -7180,7 +5879,7 @@
       <c r="V118" s="3"/>
       <c r="W118" s="2"/>
     </row>
-    <row r="119" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -7205,7 +5904,7 @@
       <c r="V119" s="3"/>
       <c r="W119" s="2"/>
     </row>
-    <row r="120" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -7230,7 +5929,7 @@
       <c r="V120" s="3"/>
       <c r="W120" s="2"/>
     </row>
-    <row r="121" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -7255,7 +5954,7 @@
       <c r="V121" s="3"/>
       <c r="W121" s="2"/>
     </row>
-    <row r="122" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -7280,7 +5979,7 @@
       <c r="V122" s="3"/>
       <c r="W122" s="2"/>
     </row>
-    <row r="123" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -7305,7 +6004,7 @@
       <c r="V123" s="3"/>
       <c r="W123" s="2"/>
     </row>
-    <row r="124" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -7330,7 +6029,7 @@
       <c r="V124" s="3"/>
       <c r="W124" s="2"/>
     </row>
-    <row r="125" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -7355,7 +6054,7 @@
       <c r="V125" s="3"/>
       <c r="W125" s="2"/>
     </row>
-    <row r="126" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -7380,7 +6079,7 @@
       <c r="V126" s="3"/>
       <c r="W126" s="2"/>
     </row>
-    <row r="127" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -7405,7 +6104,7 @@
       <c r="V127" s="3"/>
       <c r="W127" s="2"/>
     </row>
-    <row r="128" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -7430,7 +6129,7 @@
       <c r="V128" s="3"/>
       <c r="W128" s="2"/>
     </row>
-    <row r="129" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -7455,7 +6154,7 @@
       <c r="V129" s="3"/>
       <c r="W129" s="2"/>
     </row>
-    <row r="130" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -7480,7 +6179,7 @@
       <c r="V130" s="3"/>
       <c r="W130" s="2"/>
     </row>
-    <row r="131" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -7505,7 +6204,7 @@
       <c r="V131" s="3"/>
       <c r="W131" s="2"/>
     </row>
-    <row r="132" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -7530,7 +6229,7 @@
       <c r="V132" s="3"/>
       <c r="W132" s="2"/>
     </row>
-    <row r="133" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -7555,7 +6254,7 @@
       <c r="V133" s="3"/>
       <c r="W133" s="2"/>
     </row>
-    <row r="134" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -7580,7 +6279,7 @@
       <c r="V134" s="3"/>
       <c r="W134" s="2"/>
     </row>
-    <row r="135" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -7605,7 +6304,7 @@
       <c r="V135" s="3"/>
       <c r="W135" s="2"/>
     </row>
-    <row r="136" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -7630,7 +6329,7 @@
       <c r="V136" s="3"/>
       <c r="W136" s="2"/>
     </row>
-    <row r="137" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -7655,7 +6354,7 @@
       <c r="V137" s="3"/>
       <c r="W137" s="2"/>
     </row>
-    <row r="138" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -7680,7 +6379,7 @@
       <c r="V138" s="3"/>
       <c r="W138" s="2"/>
     </row>
-    <row r="139" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -7705,7 +6404,7 @@
       <c r="V139" s="3"/>
       <c r="W139" s="2"/>
     </row>
-    <row r="140" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -7730,7 +6429,7 @@
       <c r="V140" s="3"/>
       <c r="W140" s="2"/>
     </row>
-    <row r="141" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -7755,7 +6454,7 @@
       <c r="V141" s="3"/>
       <c r="W141" s="2"/>
     </row>
-    <row r="142" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -7780,7 +6479,7 @@
       <c r="V142" s="3"/>
       <c r="W142" s="2"/>
     </row>
-    <row r="143" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -7805,7 +6504,7 @@
       <c r="V143" s="3"/>
       <c r="W143" s="2"/>
     </row>
-    <row r="144" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -7830,7 +6529,7 @@
       <c r="V144" s="3"/>
       <c r="W144" s="2"/>
     </row>
-    <row r="145" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -7855,7 +6554,7 @@
       <c r="V145" s="3"/>
       <c r="W145" s="2"/>
     </row>
-    <row r="146" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -7880,7 +6579,7 @@
       <c r="V146" s="3"/>
       <c r="W146" s="2"/>
     </row>
-    <row r="147" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -7905,7 +6604,7 @@
       <c r="V147" s="3"/>
       <c r="W147" s="2"/>
     </row>
-    <row r="148" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -7930,7 +6629,7 @@
       <c r="V148" s="3"/>
       <c r="W148" s="2"/>
     </row>
-    <row r="149" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -7955,7 +6654,7 @@
       <c r="V149" s="3"/>
       <c r="W149" s="2"/>
     </row>
-    <row r="150" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -7980,7 +6679,7 @@
       <c r="V150" s="3"/>
       <c r="W150" s="2"/>
     </row>
-    <row r="151" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -8005,7 +6704,7 @@
       <c r="V151" s="3"/>
       <c r="W151" s="2"/>
     </row>
-    <row r="152" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -8030,7 +6729,7 @@
       <c r="V152" s="3"/>
       <c r="W152" s="2"/>
     </row>
-    <row r="153" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -8055,7 +6754,7 @@
       <c r="V153" s="3"/>
       <c r="W153" s="2"/>
     </row>
-    <row r="154" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -8080,7 +6779,7 @@
       <c r="V154" s="3"/>
       <c r="W154" s="2"/>
     </row>
-    <row r="155" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -8105,7 +6804,7 @@
       <c r="V155" s="3"/>
       <c r="W155" s="2"/>
     </row>
-    <row r="156" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -8130,7 +6829,7 @@
       <c r="V156" s="3"/>
       <c r="W156" s="2"/>
     </row>
-    <row r="157" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -8155,7 +6854,7 @@
       <c r="V157" s="3"/>
       <c r="W157" s="2"/>
     </row>
-    <row r="158" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -8180,7 +6879,7 @@
       <c r="V158" s="3"/>
       <c r="W158" s="2"/>
     </row>
-    <row r="159" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -8205,7 +6904,7 @@
       <c r="V159" s="3"/>
       <c r="W159" s="2"/>
     </row>
-    <row r="160" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -8230,7 +6929,7 @@
       <c r="V160" s="3"/>
       <c r="W160" s="2"/>
     </row>
-    <row r="161" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -8255,7 +6954,7 @@
       <c r="V161" s="3"/>
       <c r="W161" s="2"/>
     </row>
-    <row r="162" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -8280,7 +6979,7 @@
       <c r="V162" s="3"/>
       <c r="W162" s="2"/>
     </row>
-    <row r="163" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -8305,7 +7004,7 @@
       <c r="V163" s="3"/>
       <c r="W163" s="2"/>
     </row>
-    <row r="164" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -8330,7 +7029,7 @@
       <c r="V164" s="3"/>
       <c r="W164" s="2"/>
     </row>
-    <row r="165" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -8355,7 +7054,7 @@
       <c r="V165" s="3"/>
       <c r="W165" s="2"/>
     </row>
-    <row r="166" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -8380,7 +7079,7 @@
       <c r="V166" s="3"/>
       <c r="W166" s="2"/>
     </row>
-    <row r="167" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -8405,7 +7104,7 @@
       <c r="V167" s="3"/>
       <c r="W167" s="2"/>
     </row>
-    <row r="168" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -8430,7 +7129,7 @@
       <c r="V168" s="3"/>
       <c r="W168" s="2"/>
     </row>
-    <row r="169" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -8455,7 +7154,7 @@
       <c r="V169" s="3"/>
       <c r="W169" s="2"/>
     </row>
-    <row r="170" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -8480,7 +7179,7 @@
       <c r="V170" s="3"/>
       <c r="W170" s="2"/>
     </row>
-    <row r="171" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -8505,7 +7204,7 @@
       <c r="V171" s="3"/>
       <c r="W171" s="2"/>
     </row>
-    <row r="172" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -8530,7 +7229,7 @@
       <c r="V172" s="3"/>
       <c r="W172" s="2"/>
     </row>
-    <row r="173" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -8555,7 +7254,7 @@
       <c r="V173" s="3"/>
       <c r="W173" s="2"/>
     </row>
-    <row r="174" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -8580,7 +7279,7 @@
       <c r="V174" s="3"/>
       <c r="W174" s="2"/>
     </row>
-    <row r="175" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -8605,7 +7304,7 @@
       <c r="V175" s="3"/>
       <c r="W175" s="2"/>
     </row>
-    <row r="176" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -8630,7 +7329,7 @@
       <c r="V176" s="3"/>
       <c r="W176" s="2"/>
     </row>
-    <row r="177" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -8655,7 +7354,7 @@
       <c r="V177" s="3"/>
       <c r="W177" s="2"/>
     </row>
-    <row r="178" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -8680,7 +7379,7 @@
       <c r="V178" s="3"/>
       <c r="W178" s="2"/>
     </row>
-    <row r="179" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -8705,7 +7404,7 @@
       <c r="V179" s="3"/>
       <c r="W179" s="2"/>
     </row>
-    <row r="180" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -8730,7 +7429,7 @@
       <c r="V180" s="3"/>
       <c r="W180" s="2"/>
     </row>
-    <row r="181" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -8755,7 +7454,7 @@
       <c r="V181" s="3"/>
       <c r="W181" s="2"/>
     </row>
-    <row r="182" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -8780,7 +7479,7 @@
       <c r="V182" s="3"/>
       <c r="W182" s="2"/>
     </row>
-    <row r="183" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -8805,7 +7504,7 @@
       <c r="V183" s="3"/>
       <c r="W183" s="2"/>
     </row>
-    <row r="184" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -8830,7 +7529,7 @@
       <c r="V184" s="3"/>
       <c r="W184" s="2"/>
     </row>
-    <row r="185" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -8855,7 +7554,7 @@
       <c r="V185" s="3"/>
       <c r="W185" s="2"/>
     </row>
-    <row r="186" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -8880,7 +7579,7 @@
       <c r="V186" s="3"/>
       <c r="W186" s="2"/>
     </row>
-    <row r="187" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -8905,7 +7604,7 @@
       <c r="V187" s="3"/>
       <c r="W187" s="2"/>
     </row>
-    <row r="188" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -8930,7 +7629,7 @@
       <c r="V188" s="3"/>
       <c r="W188" s="2"/>
     </row>
-    <row r="189" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -8955,7 +7654,7 @@
       <c r="V189" s="3"/>
       <c r="W189" s="2"/>
     </row>
-    <row r="190" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -8980,7 +7679,7 @@
       <c r="V190" s="3"/>
       <c r="W190" s="2"/>
     </row>
-    <row r="191" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -9005,7 +7704,7 @@
       <c r="V191" s="3"/>
       <c r="W191" s="2"/>
     </row>
-    <row r="192" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -9030,7 +7729,7 @@
       <c r="V192" s="3"/>
       <c r="W192" s="2"/>
     </row>
-    <row r="193" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -9055,7 +7754,7 @@
       <c r="V193" s="3"/>
       <c r="W193" s="2"/>
     </row>
-    <row r="194" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -9080,7 +7779,7 @@
       <c r="V194" s="3"/>
       <c r="W194" s="2"/>
     </row>
-    <row r="195" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -9105,7 +7804,7 @@
       <c r="V195" s="3"/>
       <c r="W195" s="2"/>
     </row>
-    <row r="196" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -9130,7 +7829,7 @@
       <c r="V196" s="3"/>
       <c r="W196" s="2"/>
     </row>
-    <row r="197" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -9155,7 +7854,7 @@
       <c r="V197" s="3"/>
       <c r="W197" s="2"/>
     </row>
-    <row r="198" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -9180,7 +7879,7 @@
       <c r="V198" s="3"/>
       <c r="W198" s="2"/>
     </row>
-    <row r="199" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -9205,7 +7904,7 @@
       <c r="V199" s="3"/>
       <c r="W199" s="2"/>
     </row>
-    <row r="200" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -9230,7 +7929,7 @@
       <c r="V200" s="3"/>
       <c r="W200" s="2"/>
     </row>
-    <row r="201" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -9255,7 +7954,7 @@
       <c r="V201" s="3"/>
       <c r="W201" s="2"/>
     </row>
-    <row r="202" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="3"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -9280,7 +7979,7 @@
       <c r="V202" s="3"/>
       <c r="W202" s="2"/>
     </row>
-    <row r="203" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="3"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -9305,7 +8004,7 @@
       <c r="V203" s="3"/>
       <c r="W203" s="2"/>
     </row>
-    <row r="204" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="3"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -9330,7 +8029,7 @@
       <c r="V204" s="3"/>
       <c r="W204" s="2"/>
     </row>
-    <row r="205" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="3"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -9355,10 +8054,58 @@
       <c r="V205" s="3"/>
       <c r="W205" s="2"/>
     </row>
-    <row r="206" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="207" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="208" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="209" ht="45" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="206" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="3"/>
+      <c r="B206" s="2"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="3"/>
+      <c r="E206" s="3"/>
+      <c r="F206" s="3"/>
+      <c r="G206" s="3"/>
+      <c r="H206" s="3"/>
+      <c r="I206" s="3"/>
+      <c r="J206" s="4"/>
+      <c r="K206" s="4"/>
+      <c r="L206" s="4"/>
+      <c r="M206" s="4"/>
+      <c r="N206" s="4"/>
+      <c r="O206" s="4"/>
+      <c r="P206" s="4"/>
+      <c r="Q206" s="4"/>
+      <c r="R206" s="4"/>
+      <c r="S206" s="4"/>
+      <c r="T206" s="4"/>
+      <c r="U206" s="4"/>
+      <c r="V206" s="3"/>
+      <c r="W206" s="2"/>
+    </row>
+    <row r="207" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="3"/>
+      <c r="B207" s="2"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="3"/>
+      <c r="E207" s="3"/>
+      <c r="F207" s="3"/>
+      <c r="G207" s="3"/>
+      <c r="H207" s="3"/>
+      <c r="I207" s="3"/>
+      <c r="J207" s="4"/>
+      <c r="K207" s="4"/>
+      <c r="L207" s="4"/>
+      <c r="M207" s="4"/>
+      <c r="N207" s="4"/>
+      <c r="O207" s="4"/>
+      <c r="P207" s="4"/>
+      <c r="Q207" s="4"/>
+      <c r="R207" s="4"/>
+      <c r="S207" s="4"/>
+      <c r="T207" s="4"/>
+      <c r="U207" s="4"/>
+      <c r="V207" s="3"/>
+      <c r="W207" s="2"/>
+    </row>
+    <row r="208" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="45" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W33">
     <sortCondition ref="A2"/>

--- a/JavaApplication19/src/excel/Inventario.xlsx
+++ b/JavaApplication19/src/excel/Inventario.xlsx
@@ -3,19 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Desarrollo\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B382A135-44CF-4E48-82F9-15A613AA6EA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2B706F-918E-4173-83CC-481690D45A52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3083" yWindow="0" windowWidth="21600" windowHeight="11498" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2948" yWindow="1553" windowWidth="21727" windowHeight="11497" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventario" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -303,216 +303,6 @@
   </si>
   <si>
     <t>PRECIO BASE UNIDAD</t>
-  </si>
-  <si>
-    <t>Epic Oil</t>
-  </si>
-  <si>
-    <t>Aceite para bici</t>
-  </si>
-  <si>
-    <t>28  julio 20</t>
-  </si>
-  <si>
-    <t>Nuevo</t>
-  </si>
-  <si>
-    <t>No hay pack</t>
-  </si>
-  <si>
-    <t>1.3333333333333333</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>3000.0</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>4000.0</t>
-  </si>
-  <si>
-    <t>69.6</t>
-  </si>
-  <si>
-    <t>3479.9999999999995</t>
-  </si>
-  <si>
-    <t>Bici de Ruta</t>
-  </si>
-  <si>
-    <t>Talla M, Rodada 28</t>
-  </si>
-  <si>
-    <t>Shimano</t>
-  </si>
-  <si>
-    <t>1.0823529411764705</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>8500</t>
-  </si>
-  <si>
-    <t>17000.0</t>
-  </si>
-  <si>
-    <t>9200</t>
-  </si>
-  <si>
-    <t>18400.0</t>
-  </si>
-  <si>
-    <t>10672.0</t>
-  </si>
-  <si>
-    <t>21344.0</t>
-  </si>
-  <si>
-    <t>Inventario</t>
-  </si>
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>29  julio 20</t>
-  </si>
-  <si>
-    <t>das</t>
-  </si>
-  <si>
-    <t>10.032520325203253</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>246.0</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>2468.0</t>
-  </si>
-  <si>
-    <t>1431.44</t>
-  </si>
-  <si>
-    <t>2862.88</t>
-  </si>
-  <si>
-    <t>hla</t>
-  </si>
-  <si>
-    <t>hola3</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>3.48</t>
-  </si>
-  <si>
-    <t>10.44</t>
-  </si>
-  <si>
-    <t>hoa</t>
-  </si>
-  <si>
-    <t>sa</t>
-  </si>
-  <si>
-    <t>10.25</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
-    <t>123.0</t>
-  </si>
-  <si>
-    <t>142.68</t>
-  </si>
-  <si>
-    <t>10.5</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>42.0</t>
-  </si>
-  <si>
-    <t>441.0</t>
-  </si>
-  <si>
-    <t>24.36</t>
-  </si>
-  <si>
-    <t>511.56</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>0.4444444444444444</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>36.0</t>
-  </si>
-  <si>
-    <t>16.0</t>
-  </si>
-  <si>
-    <t>4.64</t>
-  </si>
-  <si>
-    <t>18.56</t>
-  </si>
-  <si>
-    <t>321</t>
-  </si>
-  <si>
-    <t>0.008130081300813009</t>
-  </si>
-  <si>
-    <t>1.16</t>
-  </si>
-  <si>
-    <t>29  julio</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>10508.0</t>
-  </si>
-  <si>
-    <t>13000.0</t>
   </si>
 </sst>
 </file>
@@ -522,7 +312,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="106" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -566,607 +356,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1243,37 +517,22 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <bgColor indexed="29"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="lightTrellis">
         <bgColor indexed="29"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="EEEEEE"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="EEEEEE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="22B473"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="22B473"/>
+        <fgColor rgb="FF22B473"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1310,29 +569,26 @@
       <diagonal/>
     </border>
     <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1422,304 +678,46 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="164" fontId="12" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="164" fontId="13" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="164" fontId="14" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="164" fontId="15" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="164" fontId="16" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="164" fontId="17" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="164" fontId="18" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="17" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="164" fontId="19" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2127,17 +1125,17 @@
   <dimension ref="A1:AC209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="W35" sqref="W35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.46484375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="3" max="23" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="24" max="29" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="1" max="2" width="40.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="23" width="20.6640625" customWidth="1" collapsed="1"/>
+    <col min="24" max="29" width="10.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -2209,7 +1207,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="12" t="s">
         <v>43</v>
       </c>
@@ -2224,22 +1222,22 @@
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
-      <c r="G2" t="n" s="31">
-        <v>0.0</v>
+      <c r="G2" s="31">
+        <v>0</v>
       </c>
       <c r="H2" s="15">
         <v>200</v>
       </c>
       <c r="I2" s="15">
         <f t="shared" ref="I2:I9" si="0">H2*G2</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J2" s="15">
         <v>200</v>
       </c>
       <c r="K2" s="15">
         <f t="shared" ref="K2:K33" si="1">J2*G2</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L2" s="15">
         <f t="shared" ref="L2:L33" si="2">J2+R2</f>
@@ -2247,7 +1245,7 @@
       </c>
       <c r="M2" s="15">
         <f t="shared" ref="M2:M33" si="3">L2*G2</f>
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="N2" s="15">
         <f t="shared" ref="N2:N33" si="4">J2+R2+P2+35</f>
@@ -2255,7 +1253,7 @@
       </c>
       <c r="O2" s="15">
         <f t="shared" ref="O2:O33" si="5">N2*G2</f>
-        <v>306.8</v>
+        <v>0</v>
       </c>
       <c r="P2" s="15">
         <f t="shared" ref="P2:P33" si="6">(L2*0.15)+5</f>
@@ -2263,7 +1261,7 @@
       </c>
       <c r="Q2" s="15">
         <f t="shared" ref="Q2:Q33" si="7">P2*G2</f>
-        <v>39.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="R2" s="15">
         <f t="shared" ref="R2:R33" si="8">J2*0.16</f>
@@ -2271,7 +1269,7 @@
       </c>
       <c r="S2" s="15">
         <f t="shared" ref="S2:S33" si="9">R2*G2</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="T2" s="15">
         <f t="shared" ref="T2:T33" si="10">L2-H2-R2</f>
@@ -2290,7 +1288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="12" t="s">
         <v>20</v>
       </c>
@@ -2305,22 +1303,22 @@
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
-      <c r="G3" t="n" s="32">
-        <v>0.0</v>
+      <c r="G3" s="32">
+        <v>0</v>
       </c>
       <c r="H3" s="15">
         <v>380</v>
       </c>
       <c r="I3" s="15">
         <f t="shared" si="0"/>
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="J3" s="15">
         <v>380</v>
       </c>
       <c r="K3" s="15">
         <f t="shared" si="1"/>
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="L3" s="15">
         <f t="shared" si="2"/>
@@ -2328,7 +1326,7 @@
       </c>
       <c r="M3" s="15">
         <f t="shared" si="3"/>
-        <v>440.8</v>
+        <v>0</v>
       </c>
       <c r="N3" s="15">
         <f t="shared" si="4"/>
@@ -2336,7 +1334,7 @@
       </c>
       <c r="O3" s="15">
         <f t="shared" si="5"/>
-        <v>546.92000000000007</v>
+        <v>0</v>
       </c>
       <c r="P3" s="15">
         <f t="shared" si="6"/>
@@ -2344,7 +1342,7 @@
       </c>
       <c r="Q3" s="15">
         <f t="shared" si="7"/>
-        <v>71.12</v>
+        <v>0</v>
       </c>
       <c r="R3" s="15">
         <f t="shared" si="8"/>
@@ -2352,7 +1350,7 @@
       </c>
       <c r="S3" s="15">
         <f t="shared" si="9"/>
-        <v>60.800000000000004</v>
+        <v>0</v>
       </c>
       <c r="T3" s="15">
         <f t="shared" si="10"/>
@@ -2368,10 +1366,10 @@
       </c>
       <c r="W3" s="16">
         <f t="shared" si="13"/>
-        <v>6.3948846218409017E-14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
         <v>22</v>
       </c>
@@ -2386,22 +1384,22 @@
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
-      <c r="G4" t="n" s="117">
-        <v>0.0</v>
+      <c r="G4" s="34">
+        <v>0</v>
       </c>
       <c r="H4" s="15">
         <v>280</v>
       </c>
       <c r="I4" s="15">
         <f t="shared" si="0"/>
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="J4" s="15">
         <v>280</v>
       </c>
       <c r="K4" s="15">
         <f t="shared" si="1"/>
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="L4" s="15">
         <f t="shared" si="2"/>
@@ -2409,7 +1407,7 @@
       </c>
       <c r="M4" s="15">
         <f t="shared" si="3"/>
-        <v>324.8</v>
+        <v>0</v>
       </c>
       <c r="N4" s="15">
         <f t="shared" si="4"/>
@@ -2417,7 +1415,7 @@
       </c>
       <c r="O4" s="15">
         <f t="shared" si="5"/>
-        <v>413.52</v>
+        <v>0</v>
       </c>
       <c r="P4" s="15">
         <f t="shared" si="6"/>
@@ -2425,7 +1423,7 @@
       </c>
       <c r="Q4" s="15">
         <f t="shared" si="7"/>
-        <v>53.72</v>
+        <v>0</v>
       </c>
       <c r="R4" s="15">
         <f t="shared" si="8"/>
@@ -2433,7 +1431,7 @@
       </c>
       <c r="S4" s="15">
         <f t="shared" si="9"/>
-        <v>44.800000000000004</v>
+        <v>0</v>
       </c>
       <c r="T4" s="15">
         <f t="shared" si="10"/>
@@ -2452,7 +1450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="20" t="s">
         <v>24</v>
       </c>
@@ -2533,7 +1531,7 @@
         <v>1488.4099999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
         <v>44</v>
       </c>
@@ -2548,22 +1546,22 @@
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
-      <c r="G6" t="n" s="118">
-        <v>0.0</v>
+      <c r="G6" s="35">
+        <v>0</v>
       </c>
       <c r="H6" s="15">
         <v>10508</v>
       </c>
       <c r="I6" s="15">
         <f t="shared" si="0"/>
-        <v>10508</v>
+        <v>0</v>
       </c>
       <c r="J6" s="15">
         <v>13000</v>
       </c>
       <c r="K6" s="15">
         <f t="shared" si="1"/>
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="L6" s="15">
         <f t="shared" si="2"/>
@@ -2571,7 +1569,7 @@
       </c>
       <c r="M6" s="15">
         <f t="shared" si="3"/>
-        <v>15080</v>
+        <v>0</v>
       </c>
       <c r="N6" s="15">
         <f t="shared" si="4"/>
@@ -2579,7 +1577,7 @@
       </c>
       <c r="O6" s="15">
         <f t="shared" si="5"/>
-        <v>17382</v>
+        <v>0</v>
       </c>
       <c r="P6" s="15">
         <f t="shared" si="6"/>
@@ -2587,7 +1585,7 @@
       </c>
       <c r="Q6" s="15">
         <f t="shared" si="7"/>
-        <v>2267</v>
+        <v>0</v>
       </c>
       <c r="R6" s="15">
         <f t="shared" si="8"/>
@@ -2595,7 +1593,7 @@
       </c>
       <c r="S6" s="15">
         <f t="shared" si="9"/>
-        <v>2080</v>
+        <v>0</v>
       </c>
       <c r="T6" s="15">
         <f t="shared" si="10"/>
@@ -2603,7 +1601,7 @@
       </c>
       <c r="U6" s="15">
         <f t="shared" si="11"/>
-        <v>2492</v>
+        <v>0</v>
       </c>
       <c r="V6" s="15">
         <f t="shared" si="12"/>
@@ -2611,10 +1609,10 @@
       </c>
       <c r="W6" s="16">
         <f t="shared" si="13"/>
-        <v>2492</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="28" t="s">
         <v>41</v>
       </c>
@@ -2629,22 +1627,22 @@
       </c>
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
-      <c r="G7" t="n" s="33">
-        <v>0.0</v>
+      <c r="G7" s="33">
+        <v>0</v>
       </c>
       <c r="H7" s="15">
         <v>5990</v>
       </c>
       <c r="I7" s="15">
         <f t="shared" si="0"/>
-        <v>5990</v>
+        <v>0</v>
       </c>
       <c r="J7" s="15">
         <v>15000</v>
       </c>
       <c r="K7" s="15">
         <f t="shared" si="1"/>
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="L7" s="15">
         <f t="shared" si="2"/>
@@ -2652,7 +1650,7 @@
       </c>
       <c r="M7" s="15">
         <f t="shared" si="3"/>
-        <v>17400</v>
+        <v>0</v>
       </c>
       <c r="N7" s="15">
         <f t="shared" si="4"/>
@@ -2660,7 +1658,7 @@
       </c>
       <c r="O7" s="15">
         <f t="shared" si="5"/>
-        <v>20050</v>
+        <v>0</v>
       </c>
       <c r="P7" s="15">
         <f t="shared" si="6"/>
@@ -2668,7 +1666,7 @@
       </c>
       <c r="Q7" s="15">
         <f t="shared" si="7"/>
-        <v>2615</v>
+        <v>0</v>
       </c>
       <c r="R7" s="15">
         <f t="shared" si="8"/>
@@ -2676,7 +1674,7 @@
       </c>
       <c r="S7" s="15">
         <f t="shared" si="9"/>
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="T7" s="15">
         <f t="shared" si="10"/>
@@ -2684,7 +1682,7 @@
       </c>
       <c r="U7" s="15">
         <f t="shared" si="11"/>
-        <v>9010</v>
+        <v>0</v>
       </c>
       <c r="V7" s="15">
         <f t="shared" si="12"/>
@@ -2692,10 +1690,10 @@
       </c>
       <c r="W7" s="16">
         <f t="shared" si="13"/>
-        <v>9010</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
         <v>25</v>
       </c>
@@ -2710,22 +1708,22 @@
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
-      <c r="G8" t="n" s="130">
-        <v>62.0</v>
+      <c r="G8" s="36">
+        <v>62</v>
       </c>
       <c r="H8" s="15">
         <v>27</v>
       </c>
       <c r="I8" s="15">
         <f t="shared" si="0"/>
-        <v>1647</v>
+        <v>1674</v>
       </c>
       <c r="J8" s="15">
         <v>60</v>
       </c>
       <c r="K8" s="15">
         <f t="shared" si="1"/>
-        <v>3660</v>
+        <v>3720</v>
       </c>
       <c r="L8" s="15">
         <f t="shared" si="2"/>
@@ -2733,7 +1731,7 @@
       </c>
       <c r="M8" s="15">
         <f t="shared" si="3"/>
-        <v>4245.5999999999995</v>
+        <v>4315.2</v>
       </c>
       <c r="N8" s="15">
         <f t="shared" si="4"/>
@@ -2741,7 +1739,7 @@
       </c>
       <c r="O8" s="15">
         <f t="shared" si="5"/>
-        <v>7322.44</v>
+        <v>7442.48</v>
       </c>
       <c r="P8" s="15">
         <f t="shared" si="6"/>
@@ -2749,7 +1747,7 @@
       </c>
       <c r="Q8" s="15">
         <f t="shared" si="7"/>
-        <v>941.83999999999992</v>
+        <v>957.28</v>
       </c>
       <c r="R8" s="15">
         <f t="shared" si="8"/>
@@ -2757,7 +1755,7 @@
       </c>
       <c r="S8" s="15">
         <f t="shared" si="9"/>
-        <v>585.6</v>
+        <v>595.19999999999993</v>
       </c>
       <c r="T8" s="15">
         <f t="shared" si="10"/>
@@ -2765,7 +1763,7 @@
       </c>
       <c r="U8" s="15">
         <f t="shared" si="11"/>
-        <v>2012.9999999999995</v>
+        <v>2045.9999999999995</v>
       </c>
       <c r="V8" s="15">
         <f t="shared" si="12"/>
@@ -2773,10 +1771,10 @@
       </c>
       <c r="W8" s="16">
         <f t="shared" si="13"/>
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="12" t="s">
         <v>72</v>
       </c>
@@ -2863,7 +1861,7 @@
         <v>290.84967320261444</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
         <v>46</v>
       </c>
@@ -2943,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="12" t="s">
         <v>29</v>
       </c>
@@ -3030,7 +2028,7 @@
         <v>77.5599128540305</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
         <v>50</v>
       </c>
@@ -3117,7 +2115,7 @@
         <v>170.20547945205476</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="s">
         <v>73</v>
       </c>
@@ -3198,7 +2196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="12" t="s">
         <v>30</v>
       </c>
@@ -3279,7 +2277,7 @@
         <v>2932.8000000000011</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="12" t="s">
         <v>85</v>
       </c>
@@ -3366,7 +2364,7 @@
         <v>243.15068493150687</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="12" t="s">
         <v>31</v>
       </c>
@@ -3453,7 +2451,7 @@
         <v>72.945205479452056</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="s">
         <v>32</v>
       </c>
@@ -3534,7 +2532,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="28" t="s">
         <v>33</v>
       </c>
@@ -3615,7 +2613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
         <v>74</v>
       </c>
@@ -3702,7 +2700,7 @@
         <v>194.52054794520552</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="12" t="s">
         <v>75</v>
       </c>
@@ -3783,7 +2781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="12" t="s">
         <v>76</v>
       </c>
@@ -3870,7 +2868,7 @@
         <v>121.57534246575344</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="12" t="s">
         <v>77</v>
       </c>
@@ -3951,7 +2949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="12" t="s">
         <v>79</v>
       </c>
@@ -4032,7 +3030,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="12" t="s">
         <v>34</v>
       </c>
@@ -4120,7 +3118,7 @@
       </c>
       <c r="AC24" s="6"/>
     </row>
-    <row r="25" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="12" t="s">
         <v>35</v>
       </c>
@@ -4207,7 +3205,7 @@
         <v>67.864923747276663</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="12" t="s">
         <v>36</v>
       </c>
@@ -4294,7 +3292,7 @@
         <v>121.57534246575344</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="12" t="s">
         <v>37</v>
       </c>
@@ -4381,7 +3379,7 @@
         <v>116.33986928104576</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="12" t="s">
         <v>38</v>
       </c>
@@ -4468,7 +3466,7 @@
         <v>121.57534246575344</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="12" t="s">
         <v>39</v>
       </c>
@@ -4555,7 +3553,7 @@
         <v>96.949891067538147</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="12" t="s">
         <v>61</v>
       </c>
@@ -4642,7 +3640,7 @@
         <v>232.67973856209153</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="28" t="s">
         <v>63</v>
       </c>
@@ -4723,7 +3721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="12" t="s">
         <v>40</v>
       </c>
@@ -4810,7 +3808,7 @@
         <v>1069.8630136986303</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="12" t="s">
         <v>67</v>
       </c>
@@ -4897,417 +3895,282 @@
         <v>96.949891067538147</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="30.0" x14ac:dyDescent="0.45" customHeight="true">
-      <c r="A34" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34" t="s">
-        <v>95</v>
-      </c>
-      <c r="F34" t="s">
-        <v>96</v>
-      </c>
-      <c r="G34" t="s">
-        <v>97</v>
-      </c>
-      <c r="H34" t="s">
-        <v>98</v>
-      </c>
-      <c r="I34" t="s">
-        <v>99</v>
-      </c>
-      <c r="J34" t="s">
-        <v>100</v>
-      </c>
-      <c r="K34" t="s">
-        <v>101</v>
-      </c>
-      <c r="L34" t="s">
-        <v>102</v>
-      </c>
-      <c r="M34" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" ht="30.0" x14ac:dyDescent="0.45" customHeight="true">
-      <c r="A35" t="s">
-        <v>104</v>
-      </c>
-      <c r="B35" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" t="s">
-        <v>94</v>
-      </c>
-      <c r="E35" t="s">
-        <v>106</v>
-      </c>
-      <c r="F35" t="s">
-        <v>107</v>
-      </c>
-      <c r="G35" t="s">
-        <v>108</v>
-      </c>
-      <c r="H35" t="s">
-        <v>109</v>
-      </c>
-      <c r="I35" t="s">
-        <v>110</v>
-      </c>
-      <c r="J35" t="s">
-        <v>111</v>
-      </c>
-      <c r="K35" t="s">
-        <v>112</v>
-      </c>
-      <c r="L35" t="s">
-        <v>113</v>
-      </c>
-      <c r="M35" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" ht="30.0" customHeight="true">
-      <c r="A36" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="B36" t="s" s="0">
-        <v>116</v>
-      </c>
-      <c r="C36" t="s" s="0">
-        <v>117</v>
-      </c>
-      <c r="D36" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="E36" t="s" s="0">
-        <v>118</v>
-      </c>
-      <c r="F36" t="s" s="0">
-        <v>119</v>
-      </c>
-      <c r="G36" t="s" s="0">
-        <v>108</v>
-      </c>
-      <c r="H36" t="s" s="0">
-        <v>120</v>
-      </c>
-      <c r="I36" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="J36" t="s" s="0">
-        <v>122</v>
-      </c>
-      <c r="K36" t="s" s="0">
-        <v>123</v>
-      </c>
-      <c r="L36" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="M36" t="s" s="0">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="37" ht="30.0" customHeight="true">
-      <c r="A37" t="s" s="36">
-        <v>115</v>
-      </c>
-      <c r="B37" t="s" s="37">
-        <v>126</v>
-      </c>
-      <c r="C37" t="s" s="38">
-        <v>117</v>
-      </c>
-      <c r="D37" t="s" s="39">
-        <v>94</v>
-      </c>
-      <c r="E37" t="s" s="40">
-        <v>127</v>
-      </c>
-      <c r="F37" t="s" s="41">
-        <v>128</v>
-      </c>
-      <c r="G37" t="s" s="42">
-        <v>129</v>
-      </c>
-      <c r="H37" t="s" s="43">
-        <v>129</v>
-      </c>
-      <c r="I37" t="s" s="44">
-        <v>130</v>
-      </c>
-      <c r="J37" t="s" s="45">
-        <v>129</v>
-      </c>
-      <c r="K37" t="s" s="46">
-        <v>130</v>
-      </c>
-      <c r="L37" t="s" s="47">
-        <v>131</v>
-      </c>
-      <c r="M37" t="s" s="48">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="38" ht="30.0" customHeight="true">
-      <c r="A38" t="s" s="49">
-        <v>115</v>
-      </c>
-      <c r="B38" t="s" s="50">
-        <v>133</v>
-      </c>
-      <c r="C38" t="s" s="51">
-        <v>117</v>
-      </c>
-      <c r="D38" t="s" s="52">
-        <v>94</v>
-      </c>
-      <c r="E38" t="s" s="53">
-        <v>134</v>
-      </c>
-      <c r="F38" t="s" s="54">
-        <v>135</v>
-      </c>
-      <c r="G38" t="s" s="55">
-        <v>136</v>
-      </c>
-      <c r="H38" t="s" s="56">
-        <v>137</v>
-      </c>
-      <c r="I38" t="s" s="57">
-        <v>138</v>
-      </c>
-      <c r="J38" t="s" s="58">
-        <v>120</v>
-      </c>
-      <c r="K38" t="s" s="59">
-        <v>139</v>
-      </c>
-      <c r="L38" t="s" s="60">
-        <v>140</v>
-      </c>
-      <c r="M38" t="s" s="61">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="39" ht="30.0" customHeight="true">
-      <c r="A39" t="s" s="62">
-        <v>115</v>
-      </c>
-      <c r="B39" t="s" s="63">
-        <v>137</v>
-      </c>
-      <c r="C39" t="s" s="64">
-        <v>117</v>
-      </c>
-      <c r="D39" t="s" s="65">
-        <v>94</v>
-      </c>
-      <c r="E39" t="s" s="66">
-        <v>108</v>
-      </c>
-      <c r="F39" t="s" s="67">
-        <v>141</v>
-      </c>
-      <c r="G39" t="s" s="68">
-        <v>142</v>
-      </c>
-      <c r="H39" t="s" s="69">
-        <v>108</v>
-      </c>
-      <c r="I39" t="s" s="70">
-        <v>143</v>
-      </c>
-      <c r="J39" t="s" s="71">
-        <v>142</v>
-      </c>
-      <c r="K39" t="s" s="72">
-        <v>144</v>
-      </c>
-      <c r="L39" t="s" s="73">
-        <v>145</v>
-      </c>
-      <c r="M39" t="s" s="74">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="40" ht="30.0" customHeight="true">
-      <c r="A40" t="s" s="75">
-        <v>115</v>
-      </c>
-      <c r="B40" t="s" s="76">
-        <v>147</v>
-      </c>
-      <c r="C40" t="s" s="77">
-        <v>117</v>
-      </c>
-      <c r="D40" t="s" s="78">
-        <v>94</v>
-      </c>
-      <c r="E40" t="s" s="79">
-        <v>147</v>
-      </c>
-      <c r="F40" t="s" s="80">
-        <v>148</v>
-      </c>
-      <c r="G40" t="s" s="81">
-        <v>147</v>
-      </c>
-      <c r="H40" t="s" s="82">
-        <v>149</v>
-      </c>
-      <c r="I40" t="s" s="83">
-        <v>150</v>
-      </c>
-      <c r="J40" t="s" s="84">
-        <v>147</v>
-      </c>
-      <c r="K40" t="s" s="85">
-        <v>151</v>
-      </c>
-      <c r="L40" t="s" s="86">
-        <v>152</v>
-      </c>
-      <c r="M40" t="s" s="87">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="41" ht="30.0" customHeight="true">
-      <c r="A41" t="s" s="96">
-        <v>115</v>
-      </c>
-      <c r="B41" t="s" s="97">
-        <v>120</v>
-      </c>
-      <c r="C41" t="s" s="98">
-        <v>117</v>
-      </c>
-      <c r="D41" t="s" s="99">
-        <v>94</v>
-      </c>
-      <c r="E41" t="s" s="100">
-        <v>154</v>
-      </c>
-      <c r="F41" t="s" s="101">
-        <v>155</v>
-      </c>
-      <c r="G41" t="s" s="102">
-        <v>136</v>
-      </c>
-      <c r="H41" t="s" s="103">
-        <v>120</v>
-      </c>
-      <c r="I41" t="s" s="104">
-        <v>139</v>
-      </c>
-      <c r="J41" t="s" s="105">
-        <v>136</v>
-      </c>
-      <c r="K41" t="s" s="106">
-        <v>128</v>
-      </c>
-      <c r="L41" t="s" s="107">
-        <v>156</v>
-      </c>
-      <c r="M41" t="s" s="108">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="42" ht="30.0" customHeight="true">
-      <c r="A42" t="s" s="119">
-        <v>44</v>
-      </c>
-      <c r="B42" t="s" s="120">
-        <v>69</v>
-      </c>
-      <c r="C42" t="s" s="121">
-        <v>157</v>
-      </c>
-      <c r="D42" t="s" s="122">
-        <v>23</v>
-      </c>
-      <c r="E42" t="s" s="123">
-        <v>158</v>
-      </c>
-      <c r="F42" t="s" s="124">
-        <v>158</v>
-      </c>
-      <c r="G42" t="s" s="125">
-        <v>136</v>
-      </c>
-      <c r="H42" t="s" s="126">
-        <v>159</v>
-      </c>
-      <c r="I42" t="s" s="127">
-        <v>159</v>
-      </c>
-      <c r="J42" t="s" s="128">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" ht="30.0" x14ac:dyDescent="0.45" customHeight="true">
-      <c r="A43" s="23"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="26"/>
-      <c r="I43" t="n" s="109">
-        <f>SUM(I2:I41)</f>
-        <v>0.0</v>
-      </c>
-      <c r="J43" s="26"/>
-      <c r="K43" t="n" s="110">
-        <f>SUM(K2:K41)</f>
-        <v>0.0</v>
-      </c>
-      <c r="L43" s="26"/>
-      <c r="M43" t="n" s="111">
-        <f>SUM(M2:M41)</f>
-        <v>0.0</v>
-      </c>
-      <c r="N43" s="26"/>
-      <c r="O43" t="n" s="112">
-        <f>SUM(O2:O41)</f>
-        <v>0.0</v>
-      </c>
-      <c r="P43" s="26"/>
-      <c r="Q43" t="n" s="113">
-        <f>SUM(Q2:Q41)</f>
-        <v>0.0</v>
-      </c>
-      <c r="R43" s="26"/>
-      <c r="S43" t="n" s="114">
-        <f>SUM(S2:S41)</f>
-        <v>0.0</v>
-      </c>
-      <c r="T43" s="26"/>
-      <c r="U43" t="n" s="115">
-        <f>SUM(U2:U41)</f>
-        <v>0.0</v>
-      </c>
-      <c r="V43" s="26"/>
-      <c r="W43" t="n" s="116">
-        <f>SUM(W2:W41)</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A44" s="1"/>
+    <row r="34" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="23"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="37">
+        <f>SUM(I2:I33)</f>
+        <v>20390.034456382247</v>
+      </c>
+      <c r="J34" s="26"/>
+      <c r="K34" s="38">
+        <f>SUM(K2:K33)</f>
+        <v>31370</v>
+      </c>
+      <c r="L34" s="26"/>
+      <c r="M34" s="39">
+        <f>SUM(M2:M33)</f>
+        <v>36389.199999999997</v>
+      </c>
+      <c r="N34" s="26"/>
+      <c r="O34" s="40">
+        <f>SUM(O2:O33)</f>
+        <v>53247.579999999994</v>
+      </c>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="41">
+        <f>SUM(Q2:Q33)</f>
+        <v>6883.38</v>
+      </c>
+      <c r="R34" s="26"/>
+      <c r="S34" s="42">
+        <f>SUM(S2:S33)</f>
+        <v>5019.2</v>
+      </c>
+      <c r="T34" s="26"/>
+      <c r="U34" s="43">
+        <f>SUM(U2:U33)</f>
+        <v>10979.965543617751</v>
+      </c>
+      <c r="V34" s="26"/>
+      <c r="W34" s="44">
+        <f>SUM(W2:W33)</f>
+        <v>10979.965543617753</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="5"/>
+    </row>
+    <row r="36" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="3"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="3"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="3"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="3"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="2"/>
+    </row>
+    <row r="40" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="3"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="2"/>
+    </row>
+    <row r="41" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="3"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="3"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="3"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="2"/>
+    </row>
+    <row r="44" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="3"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="3"/>
@@ -5328,10 +4191,10 @@
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
-      <c r="V44" s="4"/>
-      <c r="W44" s="5"/>
-    </row>
-    <row r="45" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V44" s="3"/>
+      <c r="W44" s="2"/>
+    </row>
+    <row r="45" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -6288,7 +5151,6 @@
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="4"/>
@@ -6538,6 +5400,7 @@
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="4"/>
@@ -9105,256 +7968,16 @@
       <c r="V195" s="3"/>
       <c r="W195" s="2"/>
     </row>
-    <row r="196" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A196" s="3"/>
-      <c r="B196" s="2"/>
-      <c r="C196" s="2"/>
-      <c r="D196" s="3"/>
-      <c r="E196" s="3"/>
-      <c r="F196" s="3"/>
-      <c r="G196" s="3"/>
-      <c r="H196" s="3"/>
-      <c r="I196" s="3"/>
-      <c r="J196" s="4"/>
-      <c r="K196" s="4"/>
-      <c r="L196" s="4"/>
-      <c r="M196" s="4"/>
-      <c r="N196" s="4"/>
-      <c r="O196" s="4"/>
-      <c r="P196" s="4"/>
-      <c r="Q196" s="4"/>
-      <c r="R196" s="4"/>
-      <c r="S196" s="4"/>
-      <c r="T196" s="4"/>
-      <c r="U196" s="4"/>
-      <c r="V196" s="3"/>
-      <c r="W196" s="2"/>
-    </row>
-    <row r="197" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A197" s="3"/>
-      <c r="B197" s="2"/>
-      <c r="C197" s="2"/>
-      <c r="D197" s="3"/>
-      <c r="E197" s="3"/>
-      <c r="F197" s="3"/>
-      <c r="G197" s="3"/>
-      <c r="H197" s="3"/>
-      <c r="I197" s="3"/>
-      <c r="J197" s="4"/>
-      <c r="K197" s="4"/>
-      <c r="L197" s="4"/>
-      <c r="M197" s="4"/>
-      <c r="N197" s="4"/>
-      <c r="O197" s="4"/>
-      <c r="P197" s="4"/>
-      <c r="Q197" s="4"/>
-      <c r="R197" s="4"/>
-      <c r="S197" s="4"/>
-      <c r="T197" s="4"/>
-      <c r="U197" s="4"/>
-      <c r="V197" s="3"/>
-      <c r="W197" s="2"/>
-    </row>
-    <row r="198" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A198" s="3"/>
-      <c r="B198" s="2"/>
-      <c r="C198" s="2"/>
-      <c r="D198" s="3"/>
-      <c r="E198" s="3"/>
-      <c r="F198" s="3"/>
-      <c r="G198" s="3"/>
-      <c r="H198" s="3"/>
-      <c r="I198" s="3"/>
-      <c r="J198" s="4"/>
-      <c r="K198" s="4"/>
-      <c r="L198" s="4"/>
-      <c r="M198" s="4"/>
-      <c r="N198" s="4"/>
-      <c r="O198" s="4"/>
-      <c r="P198" s="4"/>
-      <c r="Q198" s="4"/>
-      <c r="R198" s="4"/>
-      <c r="S198" s="4"/>
-      <c r="T198" s="4"/>
-      <c r="U198" s="4"/>
-      <c r="V198" s="3"/>
-      <c r="W198" s="2"/>
-    </row>
-    <row r="199" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A199" s="3"/>
-      <c r="B199" s="2"/>
-      <c r="C199" s="2"/>
-      <c r="D199" s="3"/>
-      <c r="E199" s="3"/>
-      <c r="F199" s="3"/>
-      <c r="G199" s="3"/>
-      <c r="H199" s="3"/>
-      <c r="I199" s="3"/>
-      <c r="J199" s="4"/>
-      <c r="K199" s="4"/>
-      <c r="L199" s="4"/>
-      <c r="M199" s="4"/>
-      <c r="N199" s="4"/>
-      <c r="O199" s="4"/>
-      <c r="P199" s="4"/>
-      <c r="Q199" s="4"/>
-      <c r="R199" s="4"/>
-      <c r="S199" s="4"/>
-      <c r="T199" s="4"/>
-      <c r="U199" s="4"/>
-      <c r="V199" s="3"/>
-      <c r="W199" s="2"/>
-    </row>
-    <row r="200" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A200" s="3"/>
-      <c r="B200" s="2"/>
-      <c r="C200" s="2"/>
-      <c r="D200" s="3"/>
-      <c r="E200" s="3"/>
-      <c r="F200" s="3"/>
-      <c r="G200" s="3"/>
-      <c r="H200" s="3"/>
-      <c r="I200" s="3"/>
-      <c r="J200" s="4"/>
-      <c r="K200" s="4"/>
-      <c r="L200" s="4"/>
-      <c r="M200" s="4"/>
-      <c r="N200" s="4"/>
-      <c r="O200" s="4"/>
-      <c r="P200" s="4"/>
-      <c r="Q200" s="4"/>
-      <c r="R200" s="4"/>
-      <c r="S200" s="4"/>
-      <c r="T200" s="4"/>
-      <c r="U200" s="4"/>
-      <c r="V200" s="3"/>
-      <c r="W200" s="2"/>
-    </row>
-    <row r="201" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A201" s="3"/>
-      <c r="B201" s="2"/>
-      <c r="C201" s="2"/>
-      <c r="D201" s="3"/>
-      <c r="E201" s="3"/>
-      <c r="F201" s="3"/>
-      <c r="G201" s="3"/>
-      <c r="H201" s="3"/>
-      <c r="I201" s="3"/>
-      <c r="J201" s="4"/>
-      <c r="K201" s="4"/>
-      <c r="L201" s="4"/>
-      <c r="M201" s="4"/>
-      <c r="N201" s="4"/>
-      <c r="O201" s="4"/>
-      <c r="P201" s="4"/>
-      <c r="Q201" s="4"/>
-      <c r="R201" s="4"/>
-      <c r="S201" s="4"/>
-      <c r="T201" s="4"/>
-      <c r="U201" s="4"/>
-      <c r="V201" s="3"/>
-      <c r="W201" s="2"/>
-    </row>
-    <row r="202" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A202" s="3"/>
-      <c r="B202" s="2"/>
-      <c r="C202" s="2"/>
-      <c r="D202" s="3"/>
-      <c r="E202" s="3"/>
-      <c r="F202" s="3"/>
-      <c r="G202" s="3"/>
-      <c r="H202" s="3"/>
-      <c r="I202" s="3"/>
-      <c r="J202" s="4"/>
-      <c r="K202" s="4"/>
-      <c r="L202" s="4"/>
-      <c r="M202" s="4"/>
-      <c r="N202" s="4"/>
-      <c r="O202" s="4"/>
-      <c r="P202" s="4"/>
-      <c r="Q202" s="4"/>
-      <c r="R202" s="4"/>
-      <c r="S202" s="4"/>
-      <c r="T202" s="4"/>
-      <c r="U202" s="4"/>
-      <c r="V202" s="3"/>
-      <c r="W202" s="2"/>
-    </row>
-    <row r="203" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A203" s="3"/>
-      <c r="B203" s="2"/>
-      <c r="C203" s="2"/>
-      <c r="D203" s="3"/>
-      <c r="E203" s="3"/>
-      <c r="F203" s="3"/>
-      <c r="G203" s="3"/>
-      <c r="H203" s="3"/>
-      <c r="I203" s="3"/>
-      <c r="J203" s="4"/>
-      <c r="K203" s="4"/>
-      <c r="L203" s="4"/>
-      <c r="M203" s="4"/>
-      <c r="N203" s="4"/>
-      <c r="O203" s="4"/>
-      <c r="P203" s="4"/>
-      <c r="Q203" s="4"/>
-      <c r="R203" s="4"/>
-      <c r="S203" s="4"/>
-      <c r="T203" s="4"/>
-      <c r="U203" s="4"/>
-      <c r="V203" s="3"/>
-      <c r="W203" s="2"/>
-    </row>
-    <row r="204" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A204" s="3"/>
-      <c r="B204" s="2"/>
-      <c r="C204" s="2"/>
-      <c r="D204" s="3"/>
-      <c r="E204" s="3"/>
-      <c r="F204" s="3"/>
-      <c r="G204" s="3"/>
-      <c r="H204" s="3"/>
-      <c r="I204" s="3"/>
-      <c r="J204" s="4"/>
-      <c r="K204" s="4"/>
-      <c r="L204" s="4"/>
-      <c r="M204" s="4"/>
-      <c r="N204" s="4"/>
-      <c r="O204" s="4"/>
-      <c r="P204" s="4"/>
-      <c r="Q204" s="4"/>
-      <c r="R204" s="4"/>
-      <c r="S204" s="4"/>
-      <c r="T204" s="4"/>
-      <c r="U204" s="4"/>
-      <c r="V204" s="3"/>
-      <c r="W204" s="2"/>
-    </row>
-    <row r="205" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A205" s="3"/>
-      <c r="B205" s="2"/>
-      <c r="C205" s="2"/>
-      <c r="D205" s="3"/>
-      <c r="E205" s="3"/>
-      <c r="F205" s="3"/>
-      <c r="G205" s="3"/>
-      <c r="H205" s="3"/>
-      <c r="I205" s="3"/>
-      <c r="J205" s="4"/>
-      <c r="K205" s="4"/>
-      <c r="L205" s="4"/>
-      <c r="M205" s="4"/>
-      <c r="N205" s="4"/>
-      <c r="O205" s="4"/>
-      <c r="P205" s="4"/>
-      <c r="Q205" s="4"/>
-      <c r="R205" s="4"/>
-      <c r="S205" s="4"/>
-      <c r="T205" s="4"/>
-      <c r="U205" s="4"/>
-      <c r="V205" s="3"/>
-      <c r="W205" s="2"/>
-    </row>
+    <row r="196" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="197" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="198" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="199" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="200" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="201" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="202" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="203" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="204" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="205" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="206" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="207" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="208" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/JavaApplication19/src/excel/Inventario.xlsx
+++ b/JavaApplication19/src/excel/Inventario.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Desarrollo\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
@@ -312,7 +312,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -439,8 +439,26 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -531,8 +549,13 @@
         <fgColor rgb="FF22B473"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="EEEEEE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -583,12 +606,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -718,6 +759,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1133,9 +1183,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.46484375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="40.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="23" width="20.6640625" customWidth="1" collapsed="1"/>
-    <col min="24" max="29" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
+    <col min="3" max="23" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="24" max="29" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -1228,64 +1278,64 @@
       <c r="H2" s="15">
         <v>200</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="15" t="n">
         <f t="shared" ref="I2:I9" si="0">H2*G2</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J2" s="15">
         <v>200</v>
       </c>
-      <c r="K2" s="15">
+      <c r="K2" s="15" t="n">
         <f t="shared" ref="K2:K33" si="1">J2*G2</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="L2" s="15" t="n">
         <f t="shared" ref="L2:L33" si="2">J2+R2</f>
-        <v>232</v>
-      </c>
-      <c r="M2" s="15">
+        <v>232.0</v>
+      </c>
+      <c r="M2" s="15" t="n">
         <f t="shared" ref="M2:M33" si="3">L2*G2</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="N2" s="15" t="n">
         <f t="shared" ref="N2:N33" si="4">J2+R2+P2+35</f>
         <v>306.8</v>
       </c>
-      <c r="O2" s="15">
+      <c r="O2" s="15" t="n">
         <f t="shared" ref="O2:O33" si="5">N2*G2</f>
-        <v>0</v>
-      </c>
-      <c r="P2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="P2" s="15" t="n">
         <f t="shared" ref="P2:P33" si="6">(L2*0.15)+5</f>
-        <v>39.799999999999997</v>
-      </c>
-      <c r="Q2" s="15">
+        <v>39.8</v>
+      </c>
+      <c r="Q2" s="15" t="n">
         <f t="shared" ref="Q2:Q33" si="7">P2*G2</f>
-        <v>0</v>
-      </c>
-      <c r="R2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="R2" s="15" t="n">
         <f t="shared" ref="R2:R33" si="8">J2*0.16</f>
-        <v>32</v>
-      </c>
-      <c r="S2" s="15">
+        <v>32.0</v>
+      </c>
+      <c r="S2" s="15" t="n">
         <f t="shared" ref="S2:S33" si="9">R2*G2</f>
-        <v>0</v>
-      </c>
-      <c r="T2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="T2" s="15" t="n">
         <f t="shared" ref="T2:T33" si="10">L2-H2-R2</f>
-        <v>0</v>
-      </c>
-      <c r="U2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="U2" s="15" t="n">
         <f t="shared" ref="U2:U33" si="11">T2*G2</f>
-        <v>0</v>
-      </c>
-      <c r="V2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V2" s="15" t="n">
         <f t="shared" ref="V2:V33" si="12">N2-H2-P2-R2-35</f>
-        <v>0</v>
-      </c>
-      <c r="W2" s="16">
+        <v>1.4210854715202004E-14</v>
+      </c>
+      <c r="W2" s="16" t="n">
         <f t="shared" ref="W2:W33" si="13">V2*G2</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.5">
@@ -1309,64 +1359,64 @@
       <c r="H3" s="15">
         <v>380</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="15" t="n">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J3" s="15">
         <v>380</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="L3" s="15" t="n">
         <f t="shared" si="2"/>
         <v>440.8</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="N3" s="15" t="n">
         <f t="shared" si="4"/>
-        <v>546.92000000000007</v>
-      </c>
-      <c r="O3" s="15">
+        <v>546.9200000000001</v>
+      </c>
+      <c r="O3" s="15" t="n">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="P3" s="15" t="n">
         <f t="shared" si="6"/>
         <v>71.12</v>
       </c>
-      <c r="Q3" s="15">
+      <c r="Q3" s="15" t="n">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="R3" s="15" t="n">
         <f t="shared" si="8"/>
         <v>60.800000000000004</v>
       </c>
-      <c r="S3" s="15">
+      <c r="S3" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="T3" s="15" t="n">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U3" s="15">
+        <v>7.105427357601002E-15</v>
+      </c>
+      <c r="U3" s="15" t="n">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V3" s="15" t="n">
         <f t="shared" si="12"/>
-        <v>6.3948846218409017E-14</v>
-      </c>
-      <c r="W3" s="16">
+        <v>6.394884621840902E-14</v>
+      </c>
+      <c r="W3" s="16" t="n">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
@@ -1390,64 +1440,64 @@
       <c r="H4" s="15">
         <v>280</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="15" t="n">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J4" s="15">
         <v>280</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L4" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="L4" s="15" t="n">
         <f t="shared" si="2"/>
         <v>324.8</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N4" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="N4" s="15" t="n">
         <f t="shared" si="4"/>
         <v>413.52</v>
       </c>
-      <c r="O4" s="15">
+      <c r="O4" s="15" t="n">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P4" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="P4" s="15" t="n">
         <f t="shared" si="6"/>
         <v>53.72</v>
       </c>
-      <c r="Q4" s="15">
+      <c r="Q4" s="15" t="n">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R4" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="R4" s="15" t="n">
         <f t="shared" si="8"/>
         <v>44.800000000000004</v>
       </c>
-      <c r="S4" s="15">
+      <c r="S4" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T4" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="T4" s="15" t="n">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U4" s="15">
+        <v>7.105427357601002E-15</v>
+      </c>
+      <c r="U4" s="15" t="n">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V4" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V4" s="15" t="n">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W4" s="16">
+        <v>-2.1316282072803006E-14</v>
+      </c>
+      <c r="W4" s="16" t="n">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
@@ -1471,62 +1521,62 @@
       <c r="H5" s="15">
         <v>4111.59</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="15" t="n">
         <f t="shared" si="0"/>
         <v>4111.59</v>
       </c>
       <c r="J5" s="15">
         <v>5600</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="L5" s="15">
+        <v>5600.0</v>
+      </c>
+      <c r="L5" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>6496</v>
-      </c>
-      <c r="M5" s="15">
+        <v>6496.0</v>
+      </c>
+      <c r="M5" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>6496</v>
-      </c>
-      <c r="N5" s="15">
+        <v>6496.0</v>
+      </c>
+      <c r="N5" s="15" t="n">
         <f t="shared" si="4"/>
         <v>7510.4</v>
       </c>
-      <c r="O5" s="15">
+      <c r="O5" s="15" t="n">
         <f t="shared" si="5"/>
         <v>7510.4</v>
       </c>
-      <c r="P5" s="15">
+      <c r="P5" s="15" t="n">
         <f t="shared" si="6"/>
         <v>979.4</v>
       </c>
-      <c r="Q5" s="15">
+      <c r="Q5" s="15" t="n">
         <f t="shared" si="7"/>
         <v>979.4</v>
       </c>
-      <c r="R5" s="15">
+      <c r="R5" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>896</v>
-      </c>
-      <c r="S5" s="15">
+        <v>896.0</v>
+      </c>
+      <c r="S5" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>896</v>
-      </c>
-      <c r="T5" s="15">
+        <v>896.0</v>
+      </c>
+      <c r="T5" s="15" t="n">
         <f t="shared" si="10"/>
         <v>1488.4099999999999</v>
       </c>
-      <c r="U5" s="15">
+      <c r="U5" s="15" t="n">
         <f t="shared" si="11"/>
         <v>1488.4099999999999</v>
       </c>
-      <c r="V5" s="15">
+      <c r="V5" s="15" t="n">
         <f t="shared" si="12"/>
         <v>1488.4099999999994</v>
       </c>
-      <c r="W5" s="16">
+      <c r="W5" s="16" t="n">
         <f t="shared" si="13"/>
         <v>1488.4099999999994</v>
       </c>
@@ -1552,64 +1602,64 @@
       <c r="H6" s="15">
         <v>10508</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="15" t="n">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J6" s="15">
         <v>13000</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="L6" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>15080</v>
-      </c>
-      <c r="M6" s="15">
+        <v>15080.0</v>
+      </c>
+      <c r="M6" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="N6" s="15" t="n">
         <f t="shared" si="4"/>
-        <v>17382</v>
-      </c>
-      <c r="O6" s="15">
+        <v>17382.0</v>
+      </c>
+      <c r="O6" s="15" t="n">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="P6" s="15" t="n">
         <f t="shared" si="6"/>
-        <v>2267</v>
-      </c>
-      <c r="Q6" s="15">
+        <v>2267.0</v>
+      </c>
+      <c r="Q6" s="15" t="n">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="R6" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>2080</v>
-      </c>
-      <c r="S6" s="15">
+        <v>2080.0</v>
+      </c>
+      <c r="S6" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T6" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="T6" s="15" t="n">
         <f t="shared" si="10"/>
-        <v>2492</v>
-      </c>
-      <c r="U6" s="15">
+        <v>2492.0</v>
+      </c>
+      <c r="U6" s="15" t="n">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V6" s="15" t="n">
         <f t="shared" si="12"/>
-        <v>2492</v>
-      </c>
-      <c r="W6" s="16">
+        <v>2492.0</v>
+      </c>
+      <c r="W6" s="16" t="n">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
@@ -1633,64 +1683,64 @@
       <c r="H7" s="15">
         <v>5990</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="15" t="n">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J7" s="15">
         <v>15000</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="L7" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>17400</v>
-      </c>
-      <c r="M7" s="15">
+        <v>17400.0</v>
+      </c>
+      <c r="M7" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="N7" s="15" t="n">
         <f t="shared" si="4"/>
-        <v>20050</v>
-      </c>
-      <c r="O7" s="15">
+        <v>20050.0</v>
+      </c>
+      <c r="O7" s="15" t="n">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="P7" s="15" t="n">
         <f t="shared" si="6"/>
-        <v>2615</v>
-      </c>
-      <c r="Q7" s="15">
+        <v>2615.0</v>
+      </c>
+      <c r="Q7" s="15" t="n">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="R7" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>2400</v>
-      </c>
-      <c r="S7" s="15">
+        <v>2400.0</v>
+      </c>
+      <c r="S7" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T7" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="T7" s="15" t="n">
         <f t="shared" si="10"/>
-        <v>9010</v>
-      </c>
-      <c r="U7" s="15">
+        <v>9010.0</v>
+      </c>
+      <c r="U7" s="15" t="n">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V7" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V7" s="15" t="n">
         <f t="shared" si="12"/>
-        <v>9010</v>
-      </c>
-      <c r="W7" s="16">
+        <v>9010.0</v>
+      </c>
+      <c r="W7" s="16" t="n">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
@@ -1714,64 +1764,64 @@
       <c r="H8" s="15">
         <v>27</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="15" t="n">
         <f t="shared" si="0"/>
-        <v>1674</v>
+        <v>1674.0</v>
       </c>
       <c r="J8" s="15">
         <v>60</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>3720</v>
-      </c>
-      <c r="L8" s="15">
+        <v>3720.0</v>
+      </c>
+      <c r="L8" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>69.599999999999994</v>
-      </c>
-      <c r="M8" s="15">
+        <v>69.6</v>
+      </c>
+      <c r="M8" s="15" t="n">
         <f t="shared" si="3"/>
         <v>4315.2</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8" s="15" t="n">
         <f t="shared" si="4"/>
         <v>120.03999999999999</v>
       </c>
-      <c r="O8" s="15">
+      <c r="O8" s="15" t="n">
         <f t="shared" si="5"/>
         <v>7442.48</v>
       </c>
-      <c r="P8" s="15">
+      <c r="P8" s="15" t="n">
         <f t="shared" si="6"/>
         <v>15.44</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="Q8" s="15" t="n">
         <f t="shared" si="7"/>
         <v>957.28</v>
       </c>
-      <c r="R8" s="15">
+      <c r="R8" s="15" t="n">
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="S8" s="15">
+      <c r="S8" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>595.19999999999993</v>
-      </c>
-      <c r="T8" s="15">
+        <v>595.1999999999999</v>
+      </c>
+      <c r="T8" s="15" t="n">
         <f t="shared" si="10"/>
-        <v>32.999999999999993</v>
-      </c>
-      <c r="U8" s="15">
+        <v>32.99999999999999</v>
+      </c>
+      <c r="U8" s="15" t="n">
         <f t="shared" si="11"/>
         <v>2045.9999999999995</v>
       </c>
-      <c r="V8" s="15">
+      <c r="V8" s="15" t="n">
         <f t="shared" si="12"/>
-        <v>33</v>
-      </c>
-      <c r="W8" s="16">
+        <v>33.0</v>
+      </c>
+      <c r="W8" s="16" t="n">
         <f t="shared" si="13"/>
-        <v>2046</v>
+        <v>2046.0</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
@@ -1790,73 +1840,73 @@
       <c r="E9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="19" t="n">
         <f>22950/18500</f>
         <v>1.2405405405405405</v>
       </c>
       <c r="G9" s="19">
         <v>1</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="15" t="n">
         <f>J9/F9</f>
         <v>1209.1503267973856</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="15" t="n">
         <f t="shared" si="0"/>
         <v>1209.1503267973856</v>
       </c>
       <c r="J9" s="15">
         <v>1500</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>1500</v>
-      </c>
-      <c r="L9" s="15">
+        <v>1500.0</v>
+      </c>
+      <c r="L9" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>1740</v>
-      </c>
-      <c r="M9" s="15">
+        <v>1740.0</v>
+      </c>
+      <c r="M9" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>1740</v>
-      </c>
-      <c r="N9" s="15">
+        <v>1740.0</v>
+      </c>
+      <c r="N9" s="15" t="n">
         <f t="shared" si="4"/>
-        <v>2041</v>
-      </c>
-      <c r="O9" s="15">
+        <v>2041.0</v>
+      </c>
+      <c r="O9" s="15" t="n">
         <f t="shared" si="5"/>
-        <v>2041</v>
-      </c>
-      <c r="P9" s="15">
+        <v>2041.0</v>
+      </c>
+      <c r="P9" s="15" t="n">
         <f t="shared" si="6"/>
-        <v>266</v>
-      </c>
-      <c r="Q9" s="15">
+        <v>266.0</v>
+      </c>
+      <c r="Q9" s="15" t="n">
         <f t="shared" si="7"/>
-        <v>266</v>
-      </c>
-      <c r="R9" s="15">
+        <v>266.0</v>
+      </c>
+      <c r="R9" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>240</v>
-      </c>
-      <c r="S9" s="15">
+        <v>240.0</v>
+      </c>
+      <c r="S9" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>240</v>
-      </c>
-      <c r="T9" s="15">
+        <v>240.0</v>
+      </c>
+      <c r="T9" s="15" t="n">
         <f t="shared" si="10"/>
         <v>290.84967320261444</v>
       </c>
-      <c r="U9" s="15">
+      <c r="U9" s="15" t="n">
         <f t="shared" si="11"/>
         <v>290.84967320261444</v>
       </c>
-      <c r="V9" s="15">
+      <c r="V9" s="15" t="n">
         <f t="shared" si="12"/>
         <v>290.84967320261444</v>
       </c>
-      <c r="W9" s="16">
+      <c r="W9" s="16" t="n">
         <f t="shared" si="13"/>
         <v>290.84967320261444</v>
       </c>
@@ -1888,57 +1938,57 @@
       <c r="J10" s="15">
         <v>300</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="L10" s="15">
+        <v>300.0</v>
+      </c>
+      <c r="L10" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>348</v>
-      </c>
-      <c r="M10" s="15">
+        <v>348.0</v>
+      </c>
+      <c r="M10" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>348</v>
-      </c>
-      <c r="N10" s="15">
+        <v>348.0</v>
+      </c>
+      <c r="N10" s="15" t="n">
         <f t="shared" si="4"/>
         <v>440.2</v>
       </c>
-      <c r="O10" s="15">
+      <c r="O10" s="15" t="n">
         <f t="shared" si="5"/>
         <v>440.2</v>
       </c>
-      <c r="P10" s="15">
+      <c r="P10" s="15" t="n">
         <f t="shared" si="6"/>
         <v>57.199999999999996</v>
       </c>
-      <c r="Q10" s="15">
+      <c r="Q10" s="15" t="n">
         <f t="shared" si="7"/>
         <v>57.199999999999996</v>
       </c>
-      <c r="R10" s="15">
+      <c r="R10" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>48</v>
-      </c>
-      <c r="S10" s="15">
+        <v>48.0</v>
+      </c>
+      <c r="S10" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>48</v>
-      </c>
-      <c r="T10" s="15">
+        <v>48.0</v>
+      </c>
+      <c r="T10" s="15" t="n">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U10" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="U10" s="15" t="n">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V10" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V10" s="15" t="n">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W10" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="W10" s="16" t="n">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
@@ -1957,73 +2007,73 @@
       <c r="E11" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="19" t="n">
         <f>22950/18500</f>
         <v>1.2405405405405405</v>
       </c>
       <c r="G11" s="19">
         <v>1</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="15" t="n">
         <f>J11/F11</f>
-        <v>322.44008714596953</v>
-      </c>
-      <c r="I11" s="15">
+        <v>322.4400871459695</v>
+      </c>
+      <c r="I11" s="15" t="n">
         <f t="shared" ref="I11:I33" si="14">H11*G11</f>
-        <v>322.44008714596953</v>
+        <v>322.4400871459695</v>
       </c>
       <c r="J11" s="15">
         <v>400</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="L11" s="15">
+        <v>400.0</v>
+      </c>
+      <c r="L11" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>464</v>
-      </c>
-      <c r="M11" s="15">
+        <v>464.0</v>
+      </c>
+      <c r="M11" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>464</v>
-      </c>
-      <c r="N11" s="15">
+        <v>464.0</v>
+      </c>
+      <c r="N11" s="15" t="n">
         <f t="shared" si="4"/>
         <v>573.6</v>
       </c>
-      <c r="O11" s="15">
+      <c r="O11" s="15" t="n">
         <f t="shared" si="5"/>
         <v>573.6</v>
       </c>
-      <c r="P11" s="15">
+      <c r="P11" s="15" t="n">
         <f t="shared" si="6"/>
-        <v>74.599999999999994</v>
-      </c>
-      <c r="Q11" s="15">
+        <v>74.6</v>
+      </c>
+      <c r="Q11" s="15" t="n">
         <f t="shared" si="7"/>
-        <v>74.599999999999994</v>
-      </c>
-      <c r="R11" s="15">
+        <v>74.6</v>
+      </c>
+      <c r="R11" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>64</v>
-      </c>
-      <c r="S11" s="15">
+        <v>64.0</v>
+      </c>
+      <c r="S11" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>64</v>
-      </c>
-      <c r="T11" s="15">
+        <v>64.0</v>
+      </c>
+      <c r="T11" s="15" t="n">
         <f t="shared" si="10"/>
-        <v>77.559912854030472</v>
-      </c>
-      <c r="U11" s="15">
+        <v>77.55991285403047</v>
+      </c>
+      <c r="U11" s="15" t="n">
         <f t="shared" si="11"/>
-        <v>77.559912854030472</v>
-      </c>
-      <c r="V11" s="15">
+        <v>77.55991285403047</v>
+      </c>
+      <c r="V11" s="15" t="n">
         <f t="shared" si="12"/>
         <v>77.5599128540305</v>
       </c>
-      <c r="W11" s="16">
+      <c r="W11" s="16" t="n">
         <f t="shared" si="13"/>
         <v>77.5599128540305</v>
       </c>
@@ -2044,73 +2094,73 @@
       <c r="E12" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="19" t="n">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
       <c r="G12" s="19">
         <v>1</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="15" t="n">
         <f>J12/F12</f>
         <v>179.79452054794518</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="15" t="n">
         <f t="shared" si="14"/>
         <v>179.79452054794518</v>
       </c>
       <c r="J12" s="15">
         <v>350</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>350</v>
-      </c>
-      <c r="L12" s="15">
+        <v>350.0</v>
+      </c>
+      <c r="L12" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>406</v>
-      </c>
-      <c r="M12" s="15">
+        <v>406.0</v>
+      </c>
+      <c r="M12" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>406</v>
-      </c>
-      <c r="N12" s="15">
+        <v>406.0</v>
+      </c>
+      <c r="N12" s="15" t="n">
         <f t="shared" si="4"/>
         <v>506.9</v>
       </c>
-      <c r="O12" s="15">
+      <c r="O12" s="15" t="n">
         <f t="shared" si="5"/>
         <v>506.9</v>
       </c>
-      <c r="P12" s="15">
+      <c r="P12" s="15" t="n">
         <f t="shared" si="6"/>
-        <v>65.900000000000006</v>
-      </c>
-      <c r="Q12" s="15">
+        <v>65.9</v>
+      </c>
+      <c r="Q12" s="15" t="n">
         <f t="shared" si="7"/>
-        <v>65.900000000000006</v>
-      </c>
-      <c r="R12" s="15">
+        <v>65.9</v>
+      </c>
+      <c r="R12" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>56</v>
-      </c>
-      <c r="S12" s="15">
+        <v>56.0</v>
+      </c>
+      <c r="S12" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>56</v>
-      </c>
-      <c r="T12" s="15">
+        <v>56.0</v>
+      </c>
+      <c r="T12" s="15" t="n">
         <f t="shared" si="10"/>
         <v>170.20547945205482</v>
       </c>
-      <c r="U12" s="15">
+      <c r="U12" s="15" t="n">
         <f t="shared" si="11"/>
         <v>170.20547945205482</v>
       </c>
-      <c r="V12" s="15">
+      <c r="V12" s="15" t="n">
         <f t="shared" si="12"/>
         <v>170.20547945205476</v>
       </c>
-      <c r="W12" s="16">
+      <c r="W12" s="16" t="n">
         <f t="shared" si="13"/>
         <v>170.20547945205476</v>
       </c>
@@ -2130,70 +2180,70 @@
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
-      <c r="G13">
-        <v>1</v>
+      <c r="G13" t="n" s="45">
+        <v>6.0</v>
       </c>
       <c r="H13" s="15">
         <v>450</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="15" t="n">
         <f t="shared" si="14"/>
-        <v>450</v>
+        <v>2700.0</v>
       </c>
       <c r="J13" s="15">
         <v>450</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>450</v>
-      </c>
-      <c r="L13" s="15">
+        <v>2700.0</v>
+      </c>
+      <c r="L13" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>522</v>
-      </c>
-      <c r="M13" s="15">
+        <v>522.0</v>
+      </c>
+      <c r="M13" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>522</v>
-      </c>
-      <c r="N13" s="15">
+        <v>3132.0</v>
+      </c>
+      <c r="N13" s="15" t="n">
         <f t="shared" si="4"/>
-        <v>640.29999999999995</v>
-      </c>
-      <c r="O13" s="15">
+        <v>640.3</v>
+      </c>
+      <c r="O13" s="15" t="n">
         <f t="shared" si="5"/>
-        <v>640.29999999999995</v>
-      </c>
-      <c r="P13" s="15">
+        <v>3841.7999999999997</v>
+      </c>
+      <c r="P13" s="15" t="n">
         <f t="shared" si="6"/>
         <v>83.3</v>
       </c>
-      <c r="Q13" s="15">
+      <c r="Q13" s="15" t="n">
         <f t="shared" si="7"/>
-        <v>83.3</v>
-      </c>
-      <c r="R13" s="15">
+        <v>499.79999999999995</v>
+      </c>
+      <c r="R13" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>72</v>
-      </c>
-      <c r="S13" s="15">
+        <v>72.0</v>
+      </c>
+      <c r="S13" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>72</v>
-      </c>
-      <c r="T13" s="15">
+        <v>432.0</v>
+      </c>
+      <c r="T13" s="15" t="n">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U13" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="U13" s="15" t="n">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V13" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V13" s="15" t="n">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W13" s="16">
+        <v>-4.263256414560601E-14</v>
+      </c>
+      <c r="W13" s="16" t="n">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-2.5579538487363607E-13</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
@@ -2211,70 +2261,70 @@
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
-      <c r="G14">
-        <v>195</v>
+      <c r="G14" t="n" s="47">
+        <v>205.0</v>
       </c>
       <c r="H14" s="15">
         <v>14.96</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="15" t="n">
         <f t="shared" si="14"/>
-        <v>2917.2000000000003</v>
+        <v>3066.8</v>
       </c>
       <c r="J14" s="15">
         <v>30</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>5850</v>
-      </c>
-      <c r="L14" s="15">
+        <v>6150.0</v>
+      </c>
+      <c r="L14" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>34.799999999999997</v>
-      </c>
-      <c r="M14" s="15">
+        <v>34.8</v>
+      </c>
+      <c r="M14" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>6785.9999999999991</v>
-      </c>
-      <c r="N14" s="15">
+        <v>7133.999999999999</v>
+      </c>
+      <c r="N14" s="15" t="n">
         <f t="shared" si="4"/>
         <v>80.02</v>
       </c>
-      <c r="O14" s="15">
+      <c r="O14" s="15" t="n">
         <f t="shared" si="5"/>
-        <v>15603.9</v>
-      </c>
-      <c r="P14" s="15">
+        <v>16404.1</v>
+      </c>
+      <c r="P14" s="15" t="n">
         <f t="shared" si="6"/>
         <v>10.219999999999999</v>
       </c>
-      <c r="Q14" s="15">
+      <c r="Q14" s="15" t="n">
         <f t="shared" si="7"/>
-        <v>1992.8999999999999</v>
-      </c>
-      <c r="R14" s="15">
+        <v>2095.1</v>
+      </c>
+      <c r="R14" s="15" t="n">
         <f t="shared" si="8"/>
         <v>4.8</v>
       </c>
-      <c r="S14" s="15">
+      <c r="S14" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>936</v>
-      </c>
-      <c r="T14" s="15">
+        <v>984.0</v>
+      </c>
+      <c r="T14" s="15" t="n">
         <f t="shared" si="10"/>
         <v>15.039999999999996</v>
       </c>
-      <c r="U14" s="15">
+      <c r="U14" s="15" t="n">
         <f t="shared" si="11"/>
-        <v>2932.7999999999993</v>
-      </c>
-      <c r="V14" s="15">
+        <v>3083.199999999999</v>
+      </c>
+      <c r="V14" s="15" t="n">
         <f t="shared" si="12"/>
         <v>15.040000000000006</v>
       </c>
-      <c r="W14" s="16">
+      <c r="W14" s="16" t="n">
         <f t="shared" si="13"/>
-        <v>2932.8000000000011</v>
+        <v>3083.200000000001</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
@@ -2293,73 +2343,73 @@
       <c r="E15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="19" t="n">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
       <c r="G15" s="19">
         <v>1</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="15" t="n">
         <f>J15/F15</f>
-        <v>256.84931506849313</v>
-      </c>
-      <c r="I15" s="15">
+        <v>256.8493150684931</v>
+      </c>
+      <c r="I15" s="15" t="n">
         <f t="shared" si="14"/>
-        <v>256.84931506849313</v>
+        <v>256.8493150684931</v>
       </c>
       <c r="J15" s="15">
         <v>500</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="L15" s="15">
+        <v>500.0</v>
+      </c>
+      <c r="L15" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>580</v>
-      </c>
-      <c r="M15" s="15">
+        <v>580.0</v>
+      </c>
+      <c r="M15" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>580</v>
-      </c>
-      <c r="N15" s="15">
+        <v>580.0</v>
+      </c>
+      <c r="N15" s="15" t="n">
         <f t="shared" si="4"/>
-        <v>707</v>
-      </c>
-      <c r="O15" s="15">
+        <v>707.0</v>
+      </c>
+      <c r="O15" s="15" t="n">
         <f t="shared" si="5"/>
-        <v>707</v>
-      </c>
-      <c r="P15" s="15">
+        <v>707.0</v>
+      </c>
+      <c r="P15" s="15" t="n">
         <f t="shared" si="6"/>
-        <v>92</v>
-      </c>
-      <c r="Q15" s="15">
+        <v>92.0</v>
+      </c>
+      <c r="Q15" s="15" t="n">
         <f t="shared" si="7"/>
-        <v>92</v>
-      </c>
-      <c r="R15" s="15">
+        <v>92.0</v>
+      </c>
+      <c r="R15" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="S15" s="15">
+        <v>80.0</v>
+      </c>
+      <c r="S15" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="T15" s="15">
+        <v>80.0</v>
+      </c>
+      <c r="T15" s="15" t="n">
         <f t="shared" si="10"/>
         <v>243.15068493150687</v>
       </c>
-      <c r="U15" s="15">
+      <c r="U15" s="15" t="n">
         <f t="shared" si="11"/>
         <v>243.15068493150687</v>
       </c>
-      <c r="V15" s="15">
+      <c r="V15" s="15" t="n">
         <f t="shared" si="12"/>
         <v>243.15068493150687</v>
       </c>
-      <c r="W15" s="16">
+      <c r="W15" s="16" t="n">
         <f t="shared" si="13"/>
         <v>243.15068493150687</v>
       </c>
@@ -2380,75 +2430,75 @@
       <c r="E16" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="19" t="n">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
       <c r="G16" s="19">
         <v>1</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="15" t="n">
         <f>J16/F16</f>
-        <v>77.054794520547944</v>
-      </c>
-      <c r="I16" s="15">
+        <v>77.05479452054794</v>
+      </c>
+      <c r="I16" s="15" t="n">
         <f t="shared" si="14"/>
-        <v>77.054794520547944</v>
+        <v>77.05479452054794</v>
       </c>
       <c r="J16" s="15">
         <v>150</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="L16" s="15">
+        <v>150.0</v>
+      </c>
+      <c r="L16" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>174</v>
-      </c>
-      <c r="M16" s="15">
+        <v>174.0</v>
+      </c>
+      <c r="M16" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>174</v>
-      </c>
-      <c r="N16" s="15">
+        <v>174.0</v>
+      </c>
+      <c r="N16" s="15" t="n">
         <f t="shared" si="4"/>
         <v>240.1</v>
       </c>
-      <c r="O16" s="15">
+      <c r="O16" s="15" t="n">
         <f t="shared" si="5"/>
         <v>240.1</v>
       </c>
-      <c r="P16" s="15">
+      <c r="P16" s="15" t="n">
         <f t="shared" si="6"/>
         <v>31.099999999999998</v>
       </c>
-      <c r="Q16" s="15">
+      <c r="Q16" s="15" t="n">
         <f t="shared" si="7"/>
         <v>31.099999999999998</v>
       </c>
-      <c r="R16" s="15">
+      <c r="R16" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>24</v>
-      </c>
-      <c r="S16" s="15">
+        <v>24.0</v>
+      </c>
+      <c r="S16" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>24</v>
-      </c>
-      <c r="T16" s="15">
+        <v>24.0</v>
+      </c>
+      <c r="T16" s="15" t="n">
         <f t="shared" si="10"/>
-        <v>72.945205479452056</v>
-      </c>
-      <c r="U16" s="15">
+        <v>72.94520547945206</v>
+      </c>
+      <c r="U16" s="15" t="n">
         <f t="shared" si="11"/>
-        <v>72.945205479452056</v>
-      </c>
-      <c r="V16" s="15">
+        <v>72.94520547945206</v>
+      </c>
+      <c r="V16" s="15" t="n">
         <f t="shared" si="12"/>
-        <v>72.945205479452056</v>
-      </c>
-      <c r="W16" s="16">
+        <v>72.94520547945206</v>
+      </c>
+      <c r="W16" s="16" t="n">
         <f t="shared" si="13"/>
-        <v>72.945205479452056</v>
+        <v>72.94520547945206</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
@@ -2472,64 +2522,64 @@
       <c r="H17" s="15">
         <v>50</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="15" t="n">
         <f t="shared" si="14"/>
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="J17" s="15">
         <v>150</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="L17" s="15">
+        <v>300.0</v>
+      </c>
+      <c r="L17" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>174</v>
-      </c>
-      <c r="M17" s="15">
+        <v>174.0</v>
+      </c>
+      <c r="M17" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>348</v>
-      </c>
-      <c r="N17" s="15">
+        <v>348.0</v>
+      </c>
+      <c r="N17" s="15" t="n">
         <f t="shared" si="4"/>
         <v>240.1</v>
       </c>
-      <c r="O17" s="15">
+      <c r="O17" s="15" t="n">
         <f t="shared" si="5"/>
         <v>480.2</v>
       </c>
-      <c r="P17" s="15">
+      <c r="P17" s="15" t="n">
         <f t="shared" si="6"/>
         <v>31.099999999999998</v>
       </c>
-      <c r="Q17" s="15">
+      <c r="Q17" s="15" t="n">
         <f t="shared" si="7"/>
         <v>62.199999999999996</v>
       </c>
-      <c r="R17" s="15">
+      <c r="R17" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>24</v>
-      </c>
-      <c r="S17" s="15">
+        <v>24.0</v>
+      </c>
+      <c r="S17" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>48</v>
-      </c>
-      <c r="T17" s="15">
+        <v>48.0</v>
+      </c>
+      <c r="T17" s="15" t="n">
         <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="U17" s="15">
+        <v>100.0</v>
+      </c>
+      <c r="U17" s="15" t="n">
         <f t="shared" si="11"/>
-        <v>200</v>
-      </c>
-      <c r="V17" s="15">
+        <v>200.0</v>
+      </c>
+      <c r="V17" s="15" t="n">
         <f t="shared" si="12"/>
-        <v>100</v>
-      </c>
-      <c r="W17" s="16">
+        <v>100.0</v>
+      </c>
+      <c r="W17" s="16" t="n">
         <f t="shared" si="13"/>
-        <v>200</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
@@ -2553,64 +2603,64 @@
       <c r="H18" s="15">
         <v>300</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="15" t="n">
         <f t="shared" si="14"/>
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="J18" s="15">
         <v>300</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="L18" s="15">
+        <v>300.0</v>
+      </c>
+      <c r="L18" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>348</v>
-      </c>
-      <c r="M18" s="15">
+        <v>348.0</v>
+      </c>
+      <c r="M18" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>348</v>
-      </c>
-      <c r="N18" s="15">
+        <v>348.0</v>
+      </c>
+      <c r="N18" s="15" t="n">
         <f t="shared" si="4"/>
         <v>440.2</v>
       </c>
-      <c r="O18" s="15">
+      <c r="O18" s="15" t="n">
         <f t="shared" si="5"/>
         <v>440.2</v>
       </c>
-      <c r="P18" s="15">
+      <c r="P18" s="15" t="n">
         <f t="shared" si="6"/>
         <v>57.199999999999996</v>
       </c>
-      <c r="Q18" s="15">
+      <c r="Q18" s="15" t="n">
         <f t="shared" si="7"/>
         <v>57.199999999999996</v>
       </c>
-      <c r="R18" s="15">
+      <c r="R18" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>48</v>
-      </c>
-      <c r="S18" s="15">
+        <v>48.0</v>
+      </c>
+      <c r="S18" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>48</v>
-      </c>
-      <c r="T18" s="15">
+        <v>48.0</v>
+      </c>
+      <c r="T18" s="15" t="n">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U18" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="U18" s="15" t="n">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V18" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V18" s="15" t="n">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W18" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="W18" s="16" t="n">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
@@ -2629,73 +2679,73 @@
       <c r="E19" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="19" t="n">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
       <c r="G19" s="19">
         <v>1</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="15" t="n">
         <f>J19/F19</f>
-        <v>205.47945205479451</v>
-      </c>
-      <c r="I19" s="15">
+        <v>205.4794520547945</v>
+      </c>
+      <c r="I19" s="15" t="n">
         <f t="shared" si="14"/>
-        <v>205.47945205479451</v>
+        <v>205.4794520547945</v>
       </c>
       <c r="J19" s="15">
         <v>400</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K19" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="L19" s="15">
+        <v>400.0</v>
+      </c>
+      <c r="L19" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>464</v>
-      </c>
-      <c r="M19" s="15">
+        <v>464.0</v>
+      </c>
+      <c r="M19" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>464</v>
-      </c>
-      <c r="N19" s="15">
+        <v>464.0</v>
+      </c>
+      <c r="N19" s="15" t="n">
         <f t="shared" si="4"/>
         <v>573.6</v>
       </c>
-      <c r="O19" s="15">
+      <c r="O19" s="15" t="n">
         <f t="shared" si="5"/>
         <v>573.6</v>
       </c>
-      <c r="P19" s="15">
+      <c r="P19" s="15" t="n">
         <f t="shared" si="6"/>
-        <v>74.599999999999994</v>
-      </c>
-      <c r="Q19" s="15">
+        <v>74.6</v>
+      </c>
+      <c r="Q19" s="15" t="n">
         <f t="shared" si="7"/>
-        <v>74.599999999999994</v>
-      </c>
-      <c r="R19" s="15">
+        <v>74.6</v>
+      </c>
+      <c r="R19" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>64</v>
-      </c>
-      <c r="S19" s="15">
+        <v>64.0</v>
+      </c>
+      <c r="S19" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>64</v>
-      </c>
-      <c r="T19" s="15">
+        <v>64.0</v>
+      </c>
+      <c r="T19" s="15" t="n">
         <f t="shared" si="10"/>
         <v>194.52054794520552</v>
       </c>
-      <c r="U19" s="15">
+      <c r="U19" s="15" t="n">
         <f t="shared" si="11"/>
         <v>194.52054794520552</v>
       </c>
-      <c r="V19" s="15">
+      <c r="V19" s="15" t="n">
         <f t="shared" si="12"/>
         <v>194.52054794520552</v>
       </c>
-      <c r="W19" s="16">
+      <c r="W19" s="16" t="n">
         <f t="shared" si="13"/>
         <v>194.52054794520552</v>
       </c>
@@ -2721,64 +2771,64 @@
       <c r="H20" s="15">
         <v>250</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="15" t="n">
         <f t="shared" si="14"/>
-        <v>250</v>
+        <v>250.0</v>
       </c>
       <c r="J20" s="15">
         <v>250</v>
       </c>
-      <c r="K20" s="15">
+      <c r="K20" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-      <c r="L20" s="15">
+        <v>250.0</v>
+      </c>
+      <c r="L20" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>290</v>
-      </c>
-      <c r="M20" s="15">
+        <v>290.0</v>
+      </c>
+      <c r="M20" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>290</v>
-      </c>
-      <c r="N20" s="15">
+        <v>290.0</v>
+      </c>
+      <c r="N20" s="15" t="n">
         <f t="shared" si="4"/>
         <v>373.5</v>
       </c>
-      <c r="O20" s="15">
+      <c r="O20" s="15" t="n">
         <f t="shared" si="5"/>
         <v>373.5</v>
       </c>
-      <c r="P20" s="15">
+      <c r="P20" s="15" t="n">
         <f t="shared" si="6"/>
         <v>48.5</v>
       </c>
-      <c r="Q20" s="15">
+      <c r="Q20" s="15" t="n">
         <f t="shared" si="7"/>
         <v>48.5</v>
       </c>
-      <c r="R20" s="15">
+      <c r="R20" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="S20" s="15">
+        <v>40.0</v>
+      </c>
+      <c r="S20" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="T20" s="15">
+        <v>40.0</v>
+      </c>
+      <c r="T20" s="15" t="n">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U20" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="U20" s="15" t="n">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V20" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V20" s="15" t="n">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W20" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="W20" s="16" t="n">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
@@ -2797,73 +2847,73 @@
       <c r="E21" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="19" t="n">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
       <c r="G21" s="19">
         <v>1</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="15" t="n">
         <f>J21/F21</f>
         <v>128.42465753424656</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="15" t="n">
         <f t="shared" si="14"/>
         <v>128.42465753424656</v>
       </c>
       <c r="J21" s="15">
         <v>250</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-      <c r="L21" s="15">
+        <v>250.0</v>
+      </c>
+      <c r="L21" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>290</v>
-      </c>
-      <c r="M21" s="15">
+        <v>290.0</v>
+      </c>
+      <c r="M21" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>290</v>
-      </c>
-      <c r="N21" s="15">
+        <v>290.0</v>
+      </c>
+      <c r="N21" s="15" t="n">
         <f t="shared" si="4"/>
         <v>373.5</v>
       </c>
-      <c r="O21" s="15">
+      <c r="O21" s="15" t="n">
         <f t="shared" si="5"/>
         <v>373.5</v>
       </c>
-      <c r="P21" s="15">
+      <c r="P21" s="15" t="n">
         <f t="shared" si="6"/>
         <v>48.5</v>
       </c>
-      <c r="Q21" s="15">
+      <c r="Q21" s="15" t="n">
         <f t="shared" si="7"/>
         <v>48.5</v>
       </c>
-      <c r="R21" s="15">
+      <c r="R21" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="S21" s="15">
+        <v>40.0</v>
+      </c>
+      <c r="S21" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="T21" s="15">
+        <v>40.0</v>
+      </c>
+      <c r="T21" s="15" t="n">
         <f t="shared" si="10"/>
         <v>121.57534246575344</v>
       </c>
-      <c r="U21" s="15">
+      <c r="U21" s="15" t="n">
         <f t="shared" si="11"/>
         <v>121.57534246575344</v>
       </c>
-      <c r="V21" s="15">
+      <c r="V21" s="15" t="n">
         <f t="shared" si="12"/>
         <v>121.57534246575344</v>
       </c>
-      <c r="W21" s="16">
+      <c r="W21" s="16" t="n">
         <f t="shared" si="13"/>
         <v>121.57534246575344</v>
       </c>
@@ -2889,64 +2939,64 @@
       <c r="H22" s="15">
         <v>400</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="15" t="n">
         <f t="shared" si="14"/>
-        <v>800</v>
+        <v>800.0</v>
       </c>
       <c r="J22" s="15">
         <v>400</v>
       </c>
-      <c r="K22" s="15">
+      <c r="K22" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>800</v>
-      </c>
-      <c r="L22" s="15">
+        <v>800.0</v>
+      </c>
+      <c r="L22" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>464</v>
-      </c>
-      <c r="M22" s="15">
+        <v>464.0</v>
+      </c>
+      <c r="M22" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>928</v>
-      </c>
-      <c r="N22" s="15">
+        <v>928.0</v>
+      </c>
+      <c r="N22" s="15" t="n">
         <f t="shared" si="4"/>
         <v>573.6</v>
       </c>
-      <c r="O22" s="15">
+      <c r="O22" s="15" t="n">
         <f t="shared" si="5"/>
         <v>1147.2</v>
       </c>
-      <c r="P22" s="15">
+      <c r="P22" s="15" t="n">
         <f t="shared" si="6"/>
-        <v>74.599999999999994</v>
-      </c>
-      <c r="Q22" s="15">
+        <v>74.6</v>
+      </c>
+      <c r="Q22" s="15" t="n">
         <f t="shared" si="7"/>
-        <v>149.19999999999999</v>
-      </c>
-      <c r="R22" s="15">
+        <v>149.2</v>
+      </c>
+      <c r="R22" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>64</v>
-      </c>
-      <c r="S22" s="15">
+        <v>64.0</v>
+      </c>
+      <c r="S22" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>128</v>
-      </c>
-      <c r="T22" s="15">
+        <v>128.0</v>
+      </c>
+      <c r="T22" s="15" t="n">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U22" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="U22" s="15" t="n">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V22" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V22" s="15" t="n">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W22" s="16">
+        <v>2.8421709430404007E-14</v>
+      </c>
+      <c r="W22" s="16" t="n">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>5.6843418860808015E-14</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
@@ -2970,64 +3020,64 @@
       <c r="H23" s="15">
         <v>212.5</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="15" t="n">
         <f t="shared" si="14"/>
-        <v>425</v>
+        <v>425.0</v>
       </c>
       <c r="J23" s="15">
         <v>700</v>
       </c>
-      <c r="K23" s="15">
+      <c r="K23" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>1400</v>
-      </c>
-      <c r="L23" s="15">
+        <v>1400.0</v>
+      </c>
+      <c r="L23" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>812</v>
-      </c>
-      <c r="M23" s="15">
+        <v>812.0</v>
+      </c>
+      <c r="M23" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>1624</v>
-      </c>
-      <c r="N23" s="15">
+        <v>1624.0</v>
+      </c>
+      <c r="N23" s="15" t="n">
         <f t="shared" si="4"/>
         <v>973.8</v>
       </c>
-      <c r="O23" s="15">
+      <c r="O23" s="15" t="n">
         <f t="shared" si="5"/>
         <v>1947.6</v>
       </c>
-      <c r="P23" s="15">
+      <c r="P23" s="15" t="n">
         <f t="shared" si="6"/>
         <v>126.8</v>
       </c>
-      <c r="Q23" s="15">
+      <c r="Q23" s="15" t="n">
         <f t="shared" si="7"/>
         <v>253.6</v>
       </c>
-      <c r="R23" s="15">
+      <c r="R23" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>112</v>
-      </c>
-      <c r="S23" s="15">
+        <v>112.0</v>
+      </c>
+      <c r="S23" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>224</v>
-      </c>
-      <c r="T23" s="15">
+        <v>224.0</v>
+      </c>
+      <c r="T23" s="15" t="n">
         <f t="shared" si="10"/>
         <v>487.5</v>
       </c>
-      <c r="U23" s="15">
+      <c r="U23" s="15" t="n">
         <f t="shared" si="11"/>
-        <v>975</v>
-      </c>
-      <c r="V23" s="15">
+        <v>975.0</v>
+      </c>
+      <c r="V23" s="15" t="n">
         <f t="shared" si="12"/>
         <v>487.5</v>
       </c>
-      <c r="W23" s="16">
+      <c r="W23" s="16" t="n">
         <f t="shared" si="13"/>
-        <v>975</v>
+        <v>975.0</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
@@ -3046,73 +3096,73 @@
       <c r="E24" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="19" t="n">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
       <c r="G24" s="19">
         <v>1</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="15" t="n">
         <f t="shared" ref="H24:H30" si="15">J24/F24</f>
-        <v>256.84931506849313</v>
-      </c>
-      <c r="I24" s="15">
+        <v>256.8493150684931</v>
+      </c>
+      <c r="I24" s="15" t="n">
         <f t="shared" si="14"/>
-        <v>256.84931506849313</v>
+        <v>256.8493150684931</v>
       </c>
       <c r="J24" s="15">
         <v>500</v>
       </c>
-      <c r="K24" s="15">
+      <c r="K24" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="L24" s="15">
+        <v>500.0</v>
+      </c>
+      <c r="L24" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>580</v>
-      </c>
-      <c r="M24" s="15">
+        <v>580.0</v>
+      </c>
+      <c r="M24" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>580</v>
-      </c>
-      <c r="N24" s="15">
+        <v>580.0</v>
+      </c>
+      <c r="N24" s="15" t="n">
         <f t="shared" si="4"/>
-        <v>707</v>
-      </c>
-      <c r="O24" s="15">
+        <v>707.0</v>
+      </c>
+      <c r="O24" s="15" t="n">
         <f t="shared" si="5"/>
-        <v>707</v>
-      </c>
-      <c r="P24" s="15">
+        <v>707.0</v>
+      </c>
+      <c r="P24" s="15" t="n">
         <f t="shared" si="6"/>
-        <v>92</v>
-      </c>
-      <c r="Q24" s="15">
+        <v>92.0</v>
+      </c>
+      <c r="Q24" s="15" t="n">
         <f t="shared" si="7"/>
-        <v>92</v>
-      </c>
-      <c r="R24" s="15">
+        <v>92.0</v>
+      </c>
+      <c r="R24" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="S24" s="15">
+        <v>80.0</v>
+      </c>
+      <c r="S24" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="T24" s="15">
+        <v>80.0</v>
+      </c>
+      <c r="T24" s="15" t="n">
         <f t="shared" si="10"/>
         <v>243.15068493150687</v>
       </c>
-      <c r="U24" s="15">
+      <c r="U24" s="15" t="n">
         <f t="shared" si="11"/>
         <v>243.15068493150687</v>
       </c>
-      <c r="V24" s="15">
+      <c r="V24" s="15" t="n">
         <f t="shared" si="12"/>
         <v>243.15068493150687</v>
       </c>
-      <c r="W24" s="16">
+      <c r="W24" s="16" t="n">
         <f t="shared" si="13"/>
         <v>243.15068493150687</v>
       </c>
@@ -3134,75 +3184,75 @@
       <c r="E25" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="19" t="n">
         <f>22950/18500</f>
         <v>1.2405405405405405</v>
       </c>
       <c r="G25" s="19">
         <v>1</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="15" t="n">
         <f t="shared" si="15"/>
-        <v>282.13507625272331</v>
-      </c>
-      <c r="I25" s="15">
+        <v>282.1350762527233</v>
+      </c>
+      <c r="I25" s="15" t="n">
         <f t="shared" si="14"/>
-        <v>282.13507625272331</v>
+        <v>282.1350762527233</v>
       </c>
       <c r="J25" s="15">
         <v>350</v>
       </c>
-      <c r="K25" s="15">
+      <c r="K25" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>350</v>
-      </c>
-      <c r="L25" s="15">
+        <v>350.0</v>
+      </c>
+      <c r="L25" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>406</v>
-      </c>
-      <c r="M25" s="15">
+        <v>406.0</v>
+      </c>
+      <c r="M25" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>406</v>
-      </c>
-      <c r="N25" s="15">
+        <v>406.0</v>
+      </c>
+      <c r="N25" s="15" t="n">
         <f t="shared" si="4"/>
         <v>506.9</v>
       </c>
-      <c r="O25" s="15">
+      <c r="O25" s="15" t="n">
         <f t="shared" si="5"/>
         <v>506.9</v>
       </c>
-      <c r="P25" s="15">
+      <c r="P25" s="15" t="n">
         <f t="shared" si="6"/>
-        <v>65.900000000000006</v>
-      </c>
-      <c r="Q25" s="15">
+        <v>65.9</v>
+      </c>
+      <c r="Q25" s="15" t="n">
         <f t="shared" si="7"/>
-        <v>65.900000000000006</v>
-      </c>
-      <c r="R25" s="15">
+        <v>65.9</v>
+      </c>
+      <c r="R25" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>56</v>
-      </c>
-      <c r="S25" s="15">
+        <v>56.0</v>
+      </c>
+      <c r="S25" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>56</v>
-      </c>
-      <c r="T25" s="15">
+        <v>56.0</v>
+      </c>
+      <c r="T25" s="15" t="n">
         <f t="shared" si="10"/>
-        <v>67.864923747276691</v>
-      </c>
-      <c r="U25" s="15">
+        <v>67.86492374727669</v>
+      </c>
+      <c r="U25" s="15" t="n">
         <f t="shared" si="11"/>
-        <v>67.864923747276691</v>
-      </c>
-      <c r="V25" s="15">
+        <v>67.86492374727669</v>
+      </c>
+      <c r="V25" s="15" t="n">
         <f t="shared" si="12"/>
-        <v>67.864923747276663</v>
-      </c>
-      <c r="W25" s="16">
+        <v>67.86492374727666</v>
+      </c>
+      <c r="W25" s="16" t="n">
         <f t="shared" si="13"/>
-        <v>67.864923747276663</v>
+        <v>67.86492374727666</v>
       </c>
     </row>
     <row r="26" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
@@ -3221,73 +3271,73 @@
       <c r="E26" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="19" t="n">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
       <c r="G26" s="19">
         <v>1</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H26" s="15" t="n">
         <f t="shared" si="15"/>
         <v>128.42465753424656</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I26" s="15" t="n">
         <f t="shared" si="14"/>
         <v>128.42465753424656</v>
       </c>
       <c r="J26" s="15">
         <v>250</v>
       </c>
-      <c r="K26" s="15">
+      <c r="K26" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-      <c r="L26" s="15">
+        <v>250.0</v>
+      </c>
+      <c r="L26" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>290</v>
-      </c>
-      <c r="M26" s="15">
+        <v>290.0</v>
+      </c>
+      <c r="M26" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>290</v>
-      </c>
-      <c r="N26" s="15">
+        <v>290.0</v>
+      </c>
+      <c r="N26" s="15" t="n">
         <f t="shared" si="4"/>
         <v>373.5</v>
       </c>
-      <c r="O26" s="15">
+      <c r="O26" s="15" t="n">
         <f t="shared" si="5"/>
         <v>373.5</v>
       </c>
-      <c r="P26" s="15">
+      <c r="P26" s="15" t="n">
         <f t="shared" si="6"/>
         <v>48.5</v>
       </c>
-      <c r="Q26" s="15">
+      <c r="Q26" s="15" t="n">
         <f t="shared" si="7"/>
         <v>48.5</v>
       </c>
-      <c r="R26" s="15">
+      <c r="R26" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="S26" s="15">
+        <v>40.0</v>
+      </c>
+      <c r="S26" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="T26" s="15">
+        <v>40.0</v>
+      </c>
+      <c r="T26" s="15" t="n">
         <f t="shared" si="10"/>
         <v>121.57534246575344</v>
       </c>
-      <c r="U26" s="15">
+      <c r="U26" s="15" t="n">
         <f t="shared" si="11"/>
         <v>121.57534246575344</v>
       </c>
-      <c r="V26" s="15">
+      <c r="V26" s="15" t="n">
         <f t="shared" si="12"/>
         <v>121.57534246575344</v>
       </c>
-      <c r="W26" s="16">
+      <c r="W26" s="16" t="n">
         <f t="shared" si="13"/>
         <v>121.57534246575344</v>
       </c>
@@ -3308,73 +3358,73 @@
       <c r="E27" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="19" t="n">
         <f>22950/18500</f>
         <v>1.2405405405405405</v>
       </c>
       <c r="G27" s="19">
         <v>1</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H27" s="15" t="n">
         <f t="shared" si="15"/>
         <v>483.66013071895424</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I27" s="15" t="n">
         <f t="shared" si="14"/>
         <v>483.66013071895424</v>
       </c>
       <c r="J27" s="15">
         <v>600</v>
       </c>
-      <c r="K27" s="15">
+      <c r="K27" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
-      <c r="L27" s="15">
+        <v>600.0</v>
+      </c>
+      <c r="L27" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>696</v>
-      </c>
-      <c r="M27" s="15">
+        <v>696.0</v>
+      </c>
+      <c r="M27" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>696</v>
-      </c>
-      <c r="N27" s="15">
+        <v>696.0</v>
+      </c>
+      <c r="N27" s="15" t="n">
         <f t="shared" si="4"/>
         <v>840.4</v>
       </c>
-      <c r="O27" s="15">
+      <c r="O27" s="15" t="n">
         <f t="shared" si="5"/>
         <v>840.4</v>
       </c>
-      <c r="P27" s="15">
+      <c r="P27" s="15" t="n">
         <f t="shared" si="6"/>
         <v>109.39999999999999</v>
       </c>
-      <c r="Q27" s="15">
+      <c r="Q27" s="15" t="n">
         <f t="shared" si="7"/>
         <v>109.39999999999999</v>
       </c>
-      <c r="R27" s="15">
+      <c r="R27" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>96</v>
-      </c>
-      <c r="S27" s="15">
+        <v>96.0</v>
+      </c>
+      <c r="S27" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>96</v>
-      </c>
-      <c r="T27" s="15">
+        <v>96.0</v>
+      </c>
+      <c r="T27" s="15" t="n">
         <f t="shared" si="10"/>
         <v>116.33986928104576</v>
       </c>
-      <c r="U27" s="15">
+      <c r="U27" s="15" t="n">
         <f t="shared" si="11"/>
         <v>116.33986928104576</v>
       </c>
-      <c r="V27" s="15">
+      <c r="V27" s="15" t="n">
         <f t="shared" si="12"/>
         <v>116.33986928104576</v>
       </c>
-      <c r="W27" s="16">
+      <c r="W27" s="16" t="n">
         <f t="shared" si="13"/>
         <v>116.33986928104576</v>
       </c>
@@ -3395,73 +3445,73 @@
       <c r="E28" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="19" t="n">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
       <c r="G28" s="19">
         <v>1</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28" s="15" t="n">
         <f t="shared" si="15"/>
         <v>128.42465753424656</v>
       </c>
-      <c r="I28" s="15">
+      <c r="I28" s="15" t="n">
         <f t="shared" si="14"/>
         <v>128.42465753424656</v>
       </c>
       <c r="J28" s="15">
         <v>250</v>
       </c>
-      <c r="K28" s="15">
+      <c r="K28" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-      <c r="L28" s="15">
+        <v>250.0</v>
+      </c>
+      <c r="L28" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>290</v>
-      </c>
-      <c r="M28" s="15">
+        <v>290.0</v>
+      </c>
+      <c r="M28" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>290</v>
-      </c>
-      <c r="N28" s="15">
+        <v>290.0</v>
+      </c>
+      <c r="N28" s="15" t="n">
         <f t="shared" si="4"/>
         <v>373.5</v>
       </c>
-      <c r="O28" s="15">
+      <c r="O28" s="15" t="n">
         <f t="shared" si="5"/>
         <v>373.5</v>
       </c>
-      <c r="P28" s="15">
+      <c r="P28" s="15" t="n">
         <f t="shared" si="6"/>
         <v>48.5</v>
       </c>
-      <c r="Q28" s="15">
+      <c r="Q28" s="15" t="n">
         <f t="shared" si="7"/>
         <v>48.5</v>
       </c>
-      <c r="R28" s="15">
+      <c r="R28" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="S28" s="15">
+        <v>40.0</v>
+      </c>
+      <c r="S28" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="T28" s="15">
+        <v>40.0</v>
+      </c>
+      <c r="T28" s="15" t="n">
         <f t="shared" si="10"/>
         <v>121.57534246575344</v>
       </c>
-      <c r="U28" s="15">
+      <c r="U28" s="15" t="n">
         <f t="shared" si="11"/>
         <v>121.57534246575344</v>
       </c>
-      <c r="V28" s="15">
+      <c r="V28" s="15" t="n">
         <f t="shared" si="12"/>
         <v>121.57534246575344</v>
       </c>
-      <c r="W28" s="16">
+      <c r="W28" s="16" t="n">
         <f t="shared" si="13"/>
         <v>121.57534246575344</v>
       </c>
@@ -3482,75 +3532,75 @@
       <c r="E29" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="19" t="n">
         <f>22950/18500</f>
         <v>1.2405405405405405</v>
       </c>
       <c r="G29" s="19">
         <v>1</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H29" s="15" t="n">
         <f t="shared" si="15"/>
         <v>403.05010893246185</v>
       </c>
-      <c r="I29" s="15">
+      <c r="I29" s="15" t="n">
         <f t="shared" si="14"/>
         <v>403.05010893246185</v>
       </c>
       <c r="J29" s="15">
         <v>500</v>
       </c>
-      <c r="K29" s="15">
+      <c r="K29" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="L29" s="15">
+        <v>500.0</v>
+      </c>
+      <c r="L29" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>580</v>
-      </c>
-      <c r="M29" s="15">
+        <v>580.0</v>
+      </c>
+      <c r="M29" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>580</v>
-      </c>
-      <c r="N29" s="15">
+        <v>580.0</v>
+      </c>
+      <c r="N29" s="15" t="n">
         <f t="shared" si="4"/>
-        <v>707</v>
-      </c>
-      <c r="O29" s="15">
+        <v>707.0</v>
+      </c>
+      <c r="O29" s="15" t="n">
         <f t="shared" si="5"/>
-        <v>707</v>
-      </c>
-      <c r="P29" s="15">
+        <v>707.0</v>
+      </c>
+      <c r="P29" s="15" t="n">
         <f t="shared" si="6"/>
-        <v>92</v>
-      </c>
-      <c r="Q29" s="15">
+        <v>92.0</v>
+      </c>
+      <c r="Q29" s="15" t="n">
         <f t="shared" si="7"/>
-        <v>92</v>
-      </c>
-      <c r="R29" s="15">
+        <v>92.0</v>
+      </c>
+      <c r="R29" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="S29" s="15">
+        <v>80.0</v>
+      </c>
+      <c r="S29" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="T29" s="15">
+        <v>80.0</v>
+      </c>
+      <c r="T29" s="15" t="n">
         <f t="shared" si="10"/>
-        <v>96.949891067538147</v>
-      </c>
-      <c r="U29" s="15">
+        <v>96.94989106753815</v>
+      </c>
+      <c r="U29" s="15" t="n">
         <f t="shared" si="11"/>
-        <v>96.949891067538147</v>
-      </c>
-      <c r="V29" s="15">
+        <v>96.94989106753815</v>
+      </c>
+      <c r="V29" s="15" t="n">
         <f t="shared" si="12"/>
-        <v>96.949891067538147</v>
-      </c>
-      <c r="W29" s="16">
+        <v>96.94989106753815</v>
+      </c>
+      <c r="W29" s="16" t="n">
         <f t="shared" si="13"/>
-        <v>96.949891067538147</v>
+        <v>96.94989106753815</v>
       </c>
     </row>
     <row r="30" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
@@ -3569,73 +3619,73 @@
       <c r="E30" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="19" t="n">
         <f>22950/18500</f>
         <v>1.2405405405405405</v>
       </c>
       <c r="G30" s="19">
         <v>1</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="15" t="n">
         <f t="shared" si="15"/>
-        <v>967.32026143790847</v>
-      </c>
-      <c r="I30" s="15">
+        <v>967.3202614379085</v>
+      </c>
+      <c r="I30" s="15" t="n">
         <f t="shared" si="14"/>
-        <v>967.32026143790847</v>
+        <v>967.3202614379085</v>
       </c>
       <c r="J30" s="15">
         <v>1200</v>
       </c>
-      <c r="K30" s="15">
+      <c r="K30" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>1200</v>
-      </c>
-      <c r="L30" s="15">
+        <v>1200.0</v>
+      </c>
+      <c r="L30" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>1392</v>
-      </c>
-      <c r="M30" s="15">
+        <v>1392.0</v>
+      </c>
+      <c r="M30" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>1392</v>
-      </c>
-      <c r="N30" s="15">
+        <v>1392.0</v>
+      </c>
+      <c r="N30" s="15" t="n">
         <f t="shared" si="4"/>
         <v>1640.8</v>
       </c>
-      <c r="O30" s="15">
+      <c r="O30" s="15" t="n">
         <f t="shared" si="5"/>
         <v>1640.8</v>
       </c>
-      <c r="P30" s="15">
+      <c r="P30" s="15" t="n">
         <f t="shared" si="6"/>
         <v>213.79999999999998</v>
       </c>
-      <c r="Q30" s="15">
+      <c r="Q30" s="15" t="n">
         <f t="shared" si="7"/>
         <v>213.79999999999998</v>
       </c>
-      <c r="R30" s="15">
+      <c r="R30" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>192</v>
-      </c>
-      <c r="S30" s="15">
+        <v>192.0</v>
+      </c>
+      <c r="S30" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>192</v>
-      </c>
-      <c r="T30" s="15">
+        <v>192.0</v>
+      </c>
+      <c r="T30" s="15" t="n">
         <f t="shared" si="10"/>
         <v>232.67973856209153</v>
       </c>
-      <c r="U30" s="15">
+      <c r="U30" s="15" t="n">
         <f t="shared" si="11"/>
         <v>232.67973856209153</v>
       </c>
-      <c r="V30" s="15">
+      <c r="V30" s="15" t="n">
         <f t="shared" si="12"/>
         <v>232.67973856209153</v>
       </c>
-      <c r="W30" s="16">
+      <c r="W30" s="16" t="n">
         <f t="shared" si="13"/>
         <v>232.67973856209153</v>
       </c>
@@ -3661,64 +3711,64 @@
       <c r="H31" s="15">
         <v>2500</v>
       </c>
-      <c r="I31" s="15">
+      <c r="I31" s="15" t="n">
         <f t="shared" si="14"/>
-        <v>2500</v>
+        <v>2500.0</v>
       </c>
       <c r="J31" s="15">
         <v>2500</v>
       </c>
-      <c r="K31" s="15">
+      <c r="K31" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>2500</v>
-      </c>
-      <c r="L31" s="15">
+        <v>2500.0</v>
+      </c>
+      <c r="L31" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>2900</v>
-      </c>
-      <c r="M31" s="15">
+        <v>2900.0</v>
+      </c>
+      <c r="M31" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>2900</v>
-      </c>
-      <c r="N31" s="15">
+        <v>2900.0</v>
+      </c>
+      <c r="N31" s="15" t="n">
         <f t="shared" si="4"/>
-        <v>3375</v>
-      </c>
-      <c r="O31" s="15">
+        <v>3375.0</v>
+      </c>
+      <c r="O31" s="15" t="n">
         <f t="shared" si="5"/>
-        <v>3375</v>
-      </c>
-      <c r="P31" s="15">
+        <v>3375.0</v>
+      </c>
+      <c r="P31" s="15" t="n">
         <f t="shared" si="6"/>
-        <v>440</v>
-      </c>
-      <c r="Q31" s="15">
+        <v>440.0</v>
+      </c>
+      <c r="Q31" s="15" t="n">
         <f t="shared" si="7"/>
-        <v>440</v>
-      </c>
-      <c r="R31" s="15">
+        <v>440.0</v>
+      </c>
+      <c r="R31" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>400</v>
-      </c>
-      <c r="S31" s="15">
+        <v>400.0</v>
+      </c>
+      <c r="S31" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>400</v>
-      </c>
-      <c r="T31" s="15">
+        <v>400.0</v>
+      </c>
+      <c r="T31" s="15" t="n">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U31" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="U31" s="15" t="n">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V31" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V31" s="15" t="n">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W31" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="W31" s="16" t="n">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
@@ -3737,73 +3787,73 @@
       <c r="E32" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="19" t="n">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
       <c r="G32" s="19">
         <v>1</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H32" s="15" t="n">
         <f>J32/F32</f>
-        <v>1130.1369863013699</v>
-      </c>
-      <c r="I32" s="15">
+        <v>1130.13698630137</v>
+      </c>
+      <c r="I32" s="15" t="n">
         <f t="shared" si="14"/>
-        <v>1130.1369863013699</v>
+        <v>1130.13698630137</v>
       </c>
       <c r="J32" s="15">
         <v>2200</v>
       </c>
-      <c r="K32" s="15">
+      <c r="K32" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>2200</v>
-      </c>
-      <c r="L32" s="15">
+        <v>2200.0</v>
+      </c>
+      <c r="L32" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>2552</v>
-      </c>
-      <c r="M32" s="15">
+        <v>2552.0</v>
+      </c>
+      <c r="M32" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>2552</v>
-      </c>
-      <c r="N32" s="15">
+        <v>2552.0</v>
+      </c>
+      <c r="N32" s="15" t="n">
         <f t="shared" si="4"/>
         <v>2974.8</v>
       </c>
-      <c r="O32" s="15">
+      <c r="O32" s="15" t="n">
         <f t="shared" si="5"/>
         <v>2974.8</v>
       </c>
-      <c r="P32" s="15">
+      <c r="P32" s="15" t="n">
         <f t="shared" si="6"/>
         <v>387.8</v>
       </c>
-      <c r="Q32" s="15">
+      <c r="Q32" s="15" t="n">
         <f t="shared" si="7"/>
         <v>387.8</v>
       </c>
-      <c r="R32" s="15">
+      <c r="R32" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>352</v>
-      </c>
-      <c r="S32" s="15">
+        <v>352.0</v>
+      </c>
+      <c r="S32" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>352</v>
-      </c>
-      <c r="T32" s="15">
+        <v>352.0</v>
+      </c>
+      <c r="T32" s="15" t="n">
         <f t="shared" si="10"/>
-        <v>1069.8630136986301</v>
-      </c>
-      <c r="U32" s="15">
+        <v>1069.86301369863</v>
+      </c>
+      <c r="U32" s="15" t="n">
         <f t="shared" si="11"/>
-        <v>1069.8630136986301</v>
-      </c>
-      <c r="V32" s="15">
+        <v>1069.86301369863</v>
+      </c>
+      <c r="V32" s="15" t="n">
         <f t="shared" si="12"/>
         <v>1069.8630136986303</v>
       </c>
-      <c r="W32" s="16">
+      <c r="W32" s="16" t="n">
         <f t="shared" si="13"/>
         <v>1069.8630136986303</v>
       </c>
@@ -3824,75 +3874,75 @@
       <c r="E33" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="19" t="n">
         <f>22950/18500</f>
         <v>1.2405405405405405</v>
       </c>
       <c r="G33" s="19">
         <v>1</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H33" s="15" t="n">
         <f>J33/F33</f>
         <v>403.05010893246185</v>
       </c>
-      <c r="I33" s="15">
+      <c r="I33" s="15" t="n">
         <f t="shared" si="14"/>
         <v>403.05010893246185</v>
       </c>
       <c r="J33" s="15">
         <v>500</v>
       </c>
-      <c r="K33" s="15">
+      <c r="K33" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="L33" s="15">
+        <v>500.0</v>
+      </c>
+      <c r="L33" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>580</v>
-      </c>
-      <c r="M33" s="15">
+        <v>580.0</v>
+      </c>
+      <c r="M33" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>580</v>
-      </c>
-      <c r="N33" s="15">
+        <v>580.0</v>
+      </c>
+      <c r="N33" s="15" t="n">
         <f t="shared" si="4"/>
-        <v>707</v>
-      </c>
-      <c r="O33" s="15">
+        <v>707.0</v>
+      </c>
+      <c r="O33" s="15" t="n">
         <f t="shared" si="5"/>
-        <v>707</v>
-      </c>
-      <c r="P33" s="15">
+        <v>707.0</v>
+      </c>
+      <c r="P33" s="15" t="n">
         <f t="shared" si="6"/>
-        <v>92</v>
-      </c>
-      <c r="Q33" s="15">
+        <v>92.0</v>
+      </c>
+      <c r="Q33" s="15" t="n">
         <f t="shared" si="7"/>
-        <v>92</v>
-      </c>
-      <c r="R33" s="15">
+        <v>92.0</v>
+      </c>
+      <c r="R33" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="S33" s="15">
+        <v>80.0</v>
+      </c>
+      <c r="S33" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="T33" s="15">
+        <v>80.0</v>
+      </c>
+      <c r="T33" s="15" t="n">
         <f t="shared" si="10"/>
-        <v>96.949891067538147</v>
-      </c>
-      <c r="U33" s="15">
+        <v>96.94989106753815</v>
+      </c>
+      <c r="U33" s="15" t="n">
         <f t="shared" si="11"/>
-        <v>96.949891067538147</v>
-      </c>
-      <c r="V33" s="15">
+        <v>96.94989106753815</v>
+      </c>
+      <c r="V33" s="15" t="n">
         <f t="shared" si="12"/>
-        <v>96.949891067538147</v>
-      </c>
-      <c r="W33" s="16">
+        <v>96.94989106753815</v>
+      </c>
+      <c r="W33" s="16" t="n">
         <f t="shared" si="13"/>
-        <v>96.949891067538147</v>
+        <v>96.94989106753815</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
@@ -3904,44 +3954,44 @@
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
       <c r="H34" s="26"/>
-      <c r="I34" s="37">
+      <c r="I34" s="37" t="n">
         <f>SUM(I2:I33)</f>
-        <v>20390.034456382247</v>
+        <v>22789.63445638225</v>
       </c>
       <c r="J34" s="26"/>
-      <c r="K34" s="38">
+      <c r="K34" s="38" t="n">
         <f>SUM(K2:K33)</f>
-        <v>31370</v>
+        <v>33920.0</v>
       </c>
       <c r="L34" s="26"/>
-      <c r="M34" s="39">
+      <c r="M34" s="39" t="n">
         <f>SUM(M2:M33)</f>
-        <v>36389.199999999997</v>
+        <v>39347.2</v>
       </c>
       <c r="N34" s="26"/>
-      <c r="O34" s="40">
+      <c r="O34" s="40" t="n">
         <f>SUM(O2:O33)</f>
-        <v>53247.579999999994</v>
+        <v>57249.27999999999</v>
       </c>
       <c r="P34" s="26"/>
-      <c r="Q34" s="41">
+      <c r="Q34" s="41" t="n">
         <f>SUM(Q2:Q33)</f>
-        <v>6883.38</v>
+        <v>7402.079999999999</v>
       </c>
       <c r="R34" s="26"/>
-      <c r="S34" s="42">
+      <c r="S34" s="42" t="n">
         <f>SUM(S2:S33)</f>
-        <v>5019.2</v>
+        <v>5427.2</v>
       </c>
       <c r="T34" s="26"/>
-      <c r="U34" s="43">
+      <c r="U34" s="43" t="n">
         <f>SUM(U2:U33)</f>
-        <v>10979.965543617751</v>
+        <v>11130.36554361775</v>
       </c>
       <c r="V34" s="26"/>
-      <c r="W34" s="44">
+      <c r="W34" s="44" t="n">
         <f>SUM(W2:W33)</f>
-        <v>10979.965543617753</v>
+        <v>11130.36554361775</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">

--- a/JavaApplication19/src/excel/Inventario.xlsx
+++ b/JavaApplication19/src/excel/Inventario.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Desarrollo\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2B706F-918E-4173-83CC-481690D45A52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{393E6D78-4238-4213-8F47-F1DEE340D575}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2948" yWindow="1553" windowWidth="21727" windowHeight="11497" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventario" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="89">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -228,12 +229,6 @@
   </si>
   <si>
     <t>RODADO 26" - MASAS DE BALERO SELLADO - SERVICIO RECIEN HECHO - GRASA DE LITIO - PIÑON DE 9s - PAR DE RINES - USADO</t>
-  </si>
-  <si>
-    <t>SHIFTERS DE GATILLO - 3x9 - COMO NUEVOS - UN PAR - SEMINUEVOS</t>
-  </si>
-  <si>
-    <t>SHIFTERS SHIMANO ALIVIO 3x9</t>
   </si>
   <si>
     <t>PARA 3 PLATOS DE RUTA - PARA TIRON DE CABLE DEBAJO DEL CUADRO - USADO</t>
@@ -312,7 +307,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -440,25 +435,19 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -549,13 +538,8 @@
         <fgColor rgb="FF22B473"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="EEEEEE"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -607,29 +591,26 @@
       <diagonal/>
     </border>
     <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -761,19 +742,16 @@
     <xf numFmtId="164" fontId="19" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Salida" xfId="1" builtinId="21"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -852,7 +830,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1172,23 +1150,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC209"/>
+  <dimension ref="A1:AC208"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="W35" sqref="W35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.46484375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="3" max="23" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="24" max="29" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="1" max="2" width="40.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="23" width="20.6640625" customWidth="1" collapsed="1"/>
+    <col min="24" max="29" width="10.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -1215,7 +1193,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>7</v>
@@ -1257,7 +1235,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>43</v>
       </c>
@@ -1278,67 +1256,67 @@
       <c r="H2" s="15">
         <v>200</v>
       </c>
-      <c r="I2" s="15" t="n">
+      <c r="I2" s="15">
         <f t="shared" ref="I2:I9" si="0">H2*G2</f>
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J2" s="15">
         <v>200</v>
       </c>
-      <c r="K2" s="15" t="n">
-        <f t="shared" ref="K2:K33" si="1">J2*G2</f>
-        <v>0.0</v>
-      </c>
-      <c r="L2" s="15" t="n">
-        <f t="shared" ref="L2:L33" si="2">J2+R2</f>
-        <v>232.0</v>
-      </c>
-      <c r="M2" s="15" t="n">
-        <f t="shared" ref="M2:M33" si="3">L2*G2</f>
-        <v>0.0</v>
-      </c>
-      <c r="N2" s="15" t="n">
-        <f t="shared" ref="N2:N33" si="4">J2+R2+P2+35</f>
+      <c r="K2" s="15">
+        <f t="shared" ref="K2:K32" si="1">J2*G2</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="15">
+        <f t="shared" ref="L2:L32" si="2">J2+R2</f>
+        <v>232</v>
+      </c>
+      <c r="M2" s="15">
+        <f t="shared" ref="M2:M32" si="3">L2*G2</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="15">
+        <f t="shared" ref="N2:N32" si="4">J2+R2+P2+35</f>
         <v>306.8</v>
       </c>
-      <c r="O2" s="15" t="n">
-        <f t="shared" ref="O2:O33" si="5">N2*G2</f>
-        <v>0.0</v>
-      </c>
-      <c r="P2" s="15" t="n">
-        <f t="shared" ref="P2:P33" si="6">(L2*0.15)+5</f>
-        <v>39.8</v>
-      </c>
-      <c r="Q2" s="15" t="n">
-        <f t="shared" ref="Q2:Q33" si="7">P2*G2</f>
-        <v>0.0</v>
-      </c>
-      <c r="R2" s="15" t="n">
-        <f t="shared" ref="R2:R33" si="8">J2*0.16</f>
-        <v>32.0</v>
-      </c>
-      <c r="S2" s="15" t="n">
-        <f t="shared" ref="S2:S33" si="9">R2*G2</f>
-        <v>0.0</v>
-      </c>
-      <c r="T2" s="15" t="n">
-        <f t="shared" ref="T2:T33" si="10">L2-H2-R2</f>
-        <v>0.0</v>
-      </c>
-      <c r="U2" s="15" t="n">
-        <f t="shared" ref="U2:U33" si="11">T2*G2</f>
-        <v>0.0</v>
-      </c>
-      <c r="V2" s="15" t="n">
-        <f t="shared" ref="V2:V33" si="12">N2-H2-P2-R2-35</f>
+      <c r="O2" s="15">
+        <f t="shared" ref="O2:O32" si="5">N2*G2</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="15">
+        <f t="shared" ref="P2:P32" si="6">(L2*0.15)+5</f>
+        <v>39.799999999999997</v>
+      </c>
+      <c r="Q2" s="15">
+        <f t="shared" ref="Q2:Q32" si="7">P2*G2</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="15">
+        <f t="shared" ref="R2:R32" si="8">J2*0.16</f>
+        <v>32</v>
+      </c>
+      <c r="S2" s="15">
+        <f t="shared" ref="S2:S32" si="9">R2*G2</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="15">
+        <f t="shared" ref="T2:T32" si="10">L2-H2-R2</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="15">
+        <f t="shared" ref="U2:U32" si="11">T2*G2</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="15">
+        <f t="shared" ref="V2:V32" si="12">N2-H2-P2-R2-35</f>
         <v>1.4210854715202004E-14</v>
       </c>
-      <c r="W2" s="16" t="n">
-        <f t="shared" ref="W2:W33" si="13">V2*G2</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="W2" s="16">
+        <f t="shared" ref="W2:W32" si="13">V2*G2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>20</v>
       </c>
@@ -1359,67 +1337,67 @@
       <c r="H3" s="15">
         <v>380</v>
       </c>
-      <c r="I3" s="15" t="n">
+      <c r="I3" s="15">
         <f t="shared" si="0"/>
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J3" s="15">
         <v>380</v>
       </c>
-      <c r="K3" s="15" t="n">
+      <c r="K3" s="15">
         <f t="shared" si="1"/>
-        <v>0.0</v>
-      </c>
-      <c r="L3" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="15">
         <f t="shared" si="2"/>
         <v>440.8</v>
       </c>
-      <c r="M3" s="15" t="n">
+      <c r="M3" s="15">
         <f t="shared" si="3"/>
-        <v>0.0</v>
-      </c>
-      <c r="N3" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="15">
         <f t="shared" si="4"/>
-        <v>546.9200000000001</v>
-      </c>
-      <c r="O3" s="15" t="n">
+        <v>546.92000000000007</v>
+      </c>
+      <c r="O3" s="15">
         <f t="shared" si="5"/>
-        <v>0.0</v>
-      </c>
-      <c r="P3" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="15">
         <f t="shared" si="6"/>
         <v>71.12</v>
       </c>
-      <c r="Q3" s="15" t="n">
+      <c r="Q3" s="15">
         <f t="shared" si="7"/>
-        <v>0.0</v>
-      </c>
-      <c r="R3" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="15">
         <f t="shared" si="8"/>
         <v>60.800000000000004</v>
       </c>
-      <c r="S3" s="15" t="n">
+      <c r="S3" s="15">
         <f t="shared" si="9"/>
-        <v>0.0</v>
-      </c>
-      <c r="T3" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="15">
         <f t="shared" si="10"/>
-        <v>7.105427357601002E-15</v>
-      </c>
-      <c r="U3" s="15" t="n">
+        <v>7.1054273576010019E-15</v>
+      </c>
+      <c r="U3" s="15">
         <f t="shared" si="11"/>
-        <v>0.0</v>
-      </c>
-      <c r="V3" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="15">
         <f t="shared" si="12"/>
-        <v>6.394884621840902E-14</v>
-      </c>
-      <c r="W3" s="16" t="n">
+        <v>6.3948846218409017E-14</v>
+      </c>
+      <c r="W3" s="16">
         <f t="shared" si="13"/>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>22</v>
       </c>
@@ -1440,72 +1418,72 @@
       <c r="H4" s="15">
         <v>280</v>
       </c>
-      <c r="I4" s="15" t="n">
+      <c r="I4" s="15">
         <f t="shared" si="0"/>
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J4" s="15">
         <v>280</v>
       </c>
-      <c r="K4" s="15" t="n">
+      <c r="K4" s="15">
         <f t="shared" si="1"/>
-        <v>0.0</v>
-      </c>
-      <c r="L4" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="15">
         <f t="shared" si="2"/>
         <v>324.8</v>
       </c>
-      <c r="M4" s="15" t="n">
+      <c r="M4" s="15">
         <f t="shared" si="3"/>
-        <v>0.0</v>
-      </c>
-      <c r="N4" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="15">
         <f t="shared" si="4"/>
         <v>413.52</v>
       </c>
-      <c r="O4" s="15" t="n">
+      <c r="O4" s="15">
         <f t="shared" si="5"/>
-        <v>0.0</v>
-      </c>
-      <c r="P4" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="15">
         <f t="shared" si="6"/>
         <v>53.72</v>
       </c>
-      <c r="Q4" s="15" t="n">
+      <c r="Q4" s="15">
         <f t="shared" si="7"/>
-        <v>0.0</v>
-      </c>
-      <c r="R4" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="15">
         <f t="shared" si="8"/>
         <v>44.800000000000004</v>
       </c>
-      <c r="S4" s="15" t="n">
+      <c r="S4" s="15">
         <f t="shared" si="9"/>
-        <v>0.0</v>
-      </c>
-      <c r="T4" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="15">
         <f t="shared" si="10"/>
-        <v>7.105427357601002E-15</v>
-      </c>
-      <c r="U4" s="15" t="n">
+        <v>7.1054273576010019E-15</v>
+      </c>
+      <c r="U4" s="15">
         <f t="shared" si="11"/>
-        <v>0.0</v>
-      </c>
-      <c r="V4" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="15">
         <f t="shared" si="12"/>
         <v>-2.1316282072803006E-14</v>
       </c>
-      <c r="W4" s="16" t="n">
+      <c r="W4" s="16">
         <f t="shared" si="13"/>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" s="21">
         <v>43846</v>
@@ -1521,72 +1499,72 @@
       <c r="H5" s="15">
         <v>4111.59</v>
       </c>
-      <c r="I5" s="15" t="n">
+      <c r="I5" s="15">
         <f t="shared" si="0"/>
         <v>4111.59</v>
       </c>
       <c r="J5" s="15">
         <v>5600</v>
       </c>
-      <c r="K5" s="15" t="n">
+      <c r="K5" s="15">
         <f t="shared" si="1"/>
-        <v>5600.0</v>
-      </c>
-      <c r="L5" s="15" t="n">
+        <v>5600</v>
+      </c>
+      <c r="L5" s="15">
         <f t="shared" si="2"/>
-        <v>6496.0</v>
-      </c>
-      <c r="M5" s="15" t="n">
+        <v>6496</v>
+      </c>
+      <c r="M5" s="15">
         <f t="shared" si="3"/>
-        <v>6496.0</v>
-      </c>
-      <c r="N5" s="15" t="n">
+        <v>6496</v>
+      </c>
+      <c r="N5" s="15">
         <f t="shared" si="4"/>
         <v>7510.4</v>
       </c>
-      <c r="O5" s="15" t="n">
+      <c r="O5" s="15">
         <f t="shared" si="5"/>
         <v>7510.4</v>
       </c>
-      <c r="P5" s="15" t="n">
+      <c r="P5" s="15">
         <f t="shared" si="6"/>
         <v>979.4</v>
       </c>
-      <c r="Q5" s="15" t="n">
+      <c r="Q5" s="15">
         <f t="shared" si="7"/>
         <v>979.4</v>
       </c>
-      <c r="R5" s="15" t="n">
+      <c r="R5" s="15">
         <f t="shared" si="8"/>
-        <v>896.0</v>
-      </c>
-      <c r="S5" s="15" t="n">
+        <v>896</v>
+      </c>
+      <c r="S5" s="15">
         <f t="shared" si="9"/>
-        <v>896.0</v>
-      </c>
-      <c r="T5" s="15" t="n">
+        <v>896</v>
+      </c>
+      <c r="T5" s="15">
         <f t="shared" si="10"/>
         <v>1488.4099999999999</v>
       </c>
-      <c r="U5" s="15" t="n">
+      <c r="U5" s="15">
         <f t="shared" si="11"/>
         <v>1488.4099999999999</v>
       </c>
-      <c r="V5" s="15" t="n">
+      <c r="V5" s="15">
         <f t="shared" si="12"/>
         <v>1488.4099999999994</v>
       </c>
-      <c r="W5" s="16" t="n">
+      <c r="W5" s="16">
         <f t="shared" si="13"/>
         <v>1488.4099999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>44</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C6" s="13">
         <v>43902</v>
@@ -1602,67 +1580,67 @@
       <c r="H6" s="15">
         <v>10508</v>
       </c>
-      <c r="I6" s="15" t="n">
+      <c r="I6" s="15">
         <f t="shared" si="0"/>
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J6" s="15">
         <v>13000</v>
       </c>
-      <c r="K6" s="15" t="n">
+      <c r="K6" s="15">
         <f t="shared" si="1"/>
-        <v>0.0</v>
-      </c>
-      <c r="L6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="15">
         <f t="shared" si="2"/>
-        <v>15080.0</v>
-      </c>
-      <c r="M6" s="15" t="n">
+        <v>15080</v>
+      </c>
+      <c r="M6" s="15">
         <f t="shared" si="3"/>
-        <v>0.0</v>
-      </c>
-      <c r="N6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="15">
         <f t="shared" si="4"/>
-        <v>17382.0</v>
-      </c>
-      <c r="O6" s="15" t="n">
+        <v>17382</v>
+      </c>
+      <c r="O6" s="15">
         <f t="shared" si="5"/>
-        <v>0.0</v>
-      </c>
-      <c r="P6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="15">
         <f t="shared" si="6"/>
-        <v>2267.0</v>
-      </c>
-      <c r="Q6" s="15" t="n">
+        <v>2267</v>
+      </c>
+      <c r="Q6" s="15">
         <f t="shared" si="7"/>
-        <v>0.0</v>
-      </c>
-      <c r="R6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="15">
         <f t="shared" si="8"/>
-        <v>2080.0</v>
-      </c>
-      <c r="S6" s="15" t="n">
+        <v>2080</v>
+      </c>
+      <c r="S6" s="15">
         <f t="shared" si="9"/>
-        <v>0.0</v>
-      </c>
-      <c r="T6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="15">
         <f t="shared" si="10"/>
-        <v>2492.0</v>
-      </c>
-      <c r="U6" s="15" t="n">
+        <v>2492</v>
+      </c>
+      <c r="U6" s="15">
         <f t="shared" si="11"/>
-        <v>0.0</v>
-      </c>
-      <c r="V6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="15">
         <f t="shared" si="12"/>
-        <v>2492.0</v>
-      </c>
-      <c r="W6" s="16" t="n">
+        <v>2492</v>
+      </c>
+      <c r="W6" s="16">
         <f t="shared" si="13"/>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>41</v>
       </c>
@@ -1683,72 +1661,72 @@
       <c r="H7" s="15">
         <v>5990</v>
       </c>
-      <c r="I7" s="15" t="n">
+      <c r="I7" s="15">
         <f t="shared" si="0"/>
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J7" s="15">
         <v>15000</v>
       </c>
-      <c r="K7" s="15" t="n">
+      <c r="K7" s="15">
         <f t="shared" si="1"/>
-        <v>0.0</v>
-      </c>
-      <c r="L7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="15">
         <f t="shared" si="2"/>
-        <v>17400.0</v>
-      </c>
-      <c r="M7" s="15" t="n">
+        <v>17400</v>
+      </c>
+      <c r="M7" s="15">
         <f t="shared" si="3"/>
-        <v>0.0</v>
-      </c>
-      <c r="N7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="15">
         <f t="shared" si="4"/>
-        <v>20050.0</v>
-      </c>
-      <c r="O7" s="15" t="n">
+        <v>20050</v>
+      </c>
+      <c r="O7" s="15">
         <f t="shared" si="5"/>
-        <v>0.0</v>
-      </c>
-      <c r="P7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="15">
         <f t="shared" si="6"/>
-        <v>2615.0</v>
-      </c>
-      <c r="Q7" s="15" t="n">
+        <v>2615</v>
+      </c>
+      <c r="Q7" s="15">
         <f t="shared" si="7"/>
-        <v>0.0</v>
-      </c>
-      <c r="R7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="15">
         <f t="shared" si="8"/>
-        <v>2400.0</v>
-      </c>
-      <c r="S7" s="15" t="n">
+        <v>2400</v>
+      </c>
+      <c r="S7" s="15">
         <f t="shared" si="9"/>
-        <v>0.0</v>
-      </c>
-      <c r="T7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="15">
         <f t="shared" si="10"/>
-        <v>9010.0</v>
-      </c>
-      <c r="U7" s="15" t="n">
+        <v>9010</v>
+      </c>
+      <c r="U7" s="15">
         <f t="shared" si="11"/>
-        <v>0.0</v>
-      </c>
-      <c r="V7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="15">
         <f t="shared" si="12"/>
-        <v>9010.0</v>
-      </c>
-      <c r="W7" s="16" t="n">
+        <v>9010</v>
+      </c>
+      <c r="W7" s="16">
         <f t="shared" si="13"/>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C8" s="18">
         <v>43837</v>
@@ -1764,72 +1742,72 @@
       <c r="H8" s="15">
         <v>27</v>
       </c>
-      <c r="I8" s="15" t="n">
+      <c r="I8" s="15">
         <f t="shared" si="0"/>
-        <v>1674.0</v>
+        <v>1674</v>
       </c>
       <c r="J8" s="15">
         <v>60</v>
       </c>
-      <c r="K8" s="15" t="n">
+      <c r="K8" s="15">
         <f t="shared" si="1"/>
-        <v>3720.0</v>
-      </c>
-      <c r="L8" s="15" t="n">
+        <v>3720</v>
+      </c>
+      <c r="L8" s="15">
         <f t="shared" si="2"/>
-        <v>69.6</v>
-      </c>
-      <c r="M8" s="15" t="n">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="M8" s="15">
         <f t="shared" si="3"/>
         <v>4315.2</v>
       </c>
-      <c r="N8" s="15" t="n">
+      <c r="N8" s="15">
         <f t="shared" si="4"/>
         <v>120.03999999999999</v>
       </c>
-      <c r="O8" s="15" t="n">
+      <c r="O8" s="15">
         <f t="shared" si="5"/>
         <v>7442.48</v>
       </c>
-      <c r="P8" s="15" t="n">
+      <c r="P8" s="15">
         <f t="shared" si="6"/>
         <v>15.44</v>
       </c>
-      <c r="Q8" s="15" t="n">
+      <c r="Q8" s="15">
         <f t="shared" si="7"/>
         <v>957.28</v>
       </c>
-      <c r="R8" s="15" t="n">
+      <c r="R8" s="15">
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="S8" s="15" t="n">
+      <c r="S8" s="15">
         <f t="shared" si="9"/>
-        <v>595.1999999999999</v>
-      </c>
-      <c r="T8" s="15" t="n">
+        <v>595.19999999999993</v>
+      </c>
+      <c r="T8" s="15">
         <f t="shared" si="10"/>
-        <v>32.99999999999999</v>
-      </c>
-      <c r="U8" s="15" t="n">
+        <v>32.999999999999993</v>
+      </c>
+      <c r="U8" s="15">
         <f t="shared" si="11"/>
         <v>2045.9999999999995</v>
       </c>
-      <c r="V8" s="15" t="n">
+      <c r="V8" s="15">
         <f t="shared" si="12"/>
-        <v>33.0</v>
-      </c>
-      <c r="W8" s="16" t="n">
+        <v>33</v>
+      </c>
+      <c r="W8" s="16">
         <f t="shared" si="13"/>
-        <v>2046.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C9" s="18">
         <v>43853</v>
@@ -1840,83 +1818,83 @@
       <c r="E9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="19" t="n">
+      <c r="F9" s="19">
         <f>22950/18500</f>
         <v>1.2405405405405405</v>
       </c>
       <c r="G9" s="19">
         <v>1</v>
       </c>
-      <c r="H9" s="15" t="n">
+      <c r="H9" s="15">
         <f>J9/F9</f>
         <v>1209.1503267973856</v>
       </c>
-      <c r="I9" s="15" t="n">
+      <c r="I9" s="15">
         <f t="shared" si="0"/>
         <v>1209.1503267973856</v>
       </c>
       <c r="J9" s="15">
         <v>1500</v>
       </c>
-      <c r="K9" s="15" t="n">
+      <c r="K9" s="15">
         <f t="shared" si="1"/>
-        <v>1500.0</v>
-      </c>
-      <c r="L9" s="15" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L9" s="15">
         <f t="shared" si="2"/>
-        <v>1740.0</v>
-      </c>
-      <c r="M9" s="15" t="n">
+        <v>1740</v>
+      </c>
+      <c r="M9" s="15">
         <f t="shared" si="3"/>
-        <v>1740.0</v>
-      </c>
-      <c r="N9" s="15" t="n">
+        <v>1740</v>
+      </c>
+      <c r="N9" s="15">
         <f t="shared" si="4"/>
-        <v>2041.0</v>
-      </c>
-      <c r="O9" s="15" t="n">
+        <v>2041</v>
+      </c>
+      <c r="O9" s="15">
         <f t="shared" si="5"/>
-        <v>2041.0</v>
-      </c>
-      <c r="P9" s="15" t="n">
+        <v>2041</v>
+      </c>
+      <c r="P9" s="15">
         <f t="shared" si="6"/>
-        <v>266.0</v>
-      </c>
-      <c r="Q9" s="15" t="n">
+        <v>266</v>
+      </c>
+      <c r="Q9" s="15">
         <f t="shared" si="7"/>
-        <v>266.0</v>
-      </c>
-      <c r="R9" s="15" t="n">
+        <v>266</v>
+      </c>
+      <c r="R9" s="15">
         <f t="shared" si="8"/>
-        <v>240.0</v>
-      </c>
-      <c r="S9" s="15" t="n">
+        <v>240</v>
+      </c>
+      <c r="S9" s="15">
         <f t="shared" si="9"/>
-        <v>240.0</v>
-      </c>
-      <c r="T9" s="15" t="n">
+        <v>240</v>
+      </c>
+      <c r="T9" s="15">
         <f t="shared" si="10"/>
         <v>290.84967320261444</v>
       </c>
-      <c r="U9" s="15" t="n">
+      <c r="U9" s="15">
         <f t="shared" si="11"/>
         <v>290.84967320261444</v>
       </c>
-      <c r="V9" s="15" t="n">
+      <c r="V9" s="15">
         <f t="shared" si="12"/>
         <v>290.84967320261444</v>
       </c>
-      <c r="W9" s="16" t="n">
+      <c r="W9" s="16">
         <f t="shared" si="13"/>
         <v>290.84967320261444</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C10" s="18">
         <v>44018</v>
@@ -1938,65 +1916,65 @@
       <c r="J10" s="15">
         <v>300</v>
       </c>
-      <c r="K10" s="15" t="n">
+      <c r="K10" s="15">
         <f t="shared" si="1"/>
-        <v>300.0</v>
-      </c>
-      <c r="L10" s="15" t="n">
+        <v>300</v>
+      </c>
+      <c r="L10" s="15">
         <f t="shared" si="2"/>
-        <v>348.0</v>
-      </c>
-      <c r="M10" s="15" t="n">
+        <v>348</v>
+      </c>
+      <c r="M10" s="15">
         <f t="shared" si="3"/>
-        <v>348.0</v>
-      </c>
-      <c r="N10" s="15" t="n">
+        <v>348</v>
+      </c>
+      <c r="N10" s="15">
         <f t="shared" si="4"/>
         <v>440.2</v>
       </c>
-      <c r="O10" s="15" t="n">
+      <c r="O10" s="15">
         <f t="shared" si="5"/>
         <v>440.2</v>
       </c>
-      <c r="P10" s="15" t="n">
+      <c r="P10" s="15">
         <f t="shared" si="6"/>
         <v>57.199999999999996</v>
       </c>
-      <c r="Q10" s="15" t="n">
+      <c r="Q10" s="15">
         <f t="shared" si="7"/>
         <v>57.199999999999996</v>
       </c>
-      <c r="R10" s="15" t="n">
+      <c r="R10" s="15">
         <f t="shared" si="8"/>
-        <v>48.0</v>
-      </c>
-      <c r="S10" s="15" t="n">
+        <v>48</v>
+      </c>
+      <c r="S10" s="15">
         <f t="shared" si="9"/>
-        <v>48.0</v>
-      </c>
-      <c r="T10" s="15" t="n">
+        <v>48</v>
+      </c>
+      <c r="T10" s="15">
         <f t="shared" si="10"/>
-        <v>0.0</v>
-      </c>
-      <c r="U10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="15">
         <f t="shared" si="11"/>
-        <v>0.0</v>
-      </c>
-      <c r="V10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="15">
         <f t="shared" si="12"/>
-        <v>0.0</v>
-      </c>
-      <c r="W10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="16">
         <f t="shared" si="13"/>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C11" s="18">
         <v>43853</v>
@@ -2007,83 +1985,83 @@
       <c r="E11" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="19" t="n">
+      <c r="F11" s="19">
         <f>22950/18500</f>
         <v>1.2405405405405405</v>
       </c>
       <c r="G11" s="19">
         <v>1</v>
       </c>
-      <c r="H11" s="15" t="n">
+      <c r="H11" s="15">
         <f>J11/F11</f>
-        <v>322.4400871459695</v>
-      </c>
-      <c r="I11" s="15" t="n">
-        <f t="shared" ref="I11:I33" si="14">H11*G11</f>
-        <v>322.4400871459695</v>
+        <v>322.44008714596953</v>
+      </c>
+      <c r="I11" s="15">
+        <f t="shared" ref="I11:I32" si="14">H11*G11</f>
+        <v>322.44008714596953</v>
       </c>
       <c r="J11" s="15">
         <v>400</v>
       </c>
-      <c r="K11" s="15" t="n">
+      <c r="K11" s="15">
         <f t="shared" si="1"/>
-        <v>400.0</v>
-      </c>
-      <c r="L11" s="15" t="n">
+        <v>400</v>
+      </c>
+      <c r="L11" s="15">
         <f t="shared" si="2"/>
-        <v>464.0</v>
-      </c>
-      <c r="M11" s="15" t="n">
+        <v>464</v>
+      </c>
+      <c r="M11" s="15">
         <f t="shared" si="3"/>
-        <v>464.0</v>
-      </c>
-      <c r="N11" s="15" t="n">
+        <v>464</v>
+      </c>
+      <c r="N11" s="15">
         <f t="shared" si="4"/>
         <v>573.6</v>
       </c>
-      <c r="O11" s="15" t="n">
+      <c r="O11" s="15">
         <f t="shared" si="5"/>
         <v>573.6</v>
       </c>
-      <c r="P11" s="15" t="n">
+      <c r="P11" s="15">
         <f t="shared" si="6"/>
-        <v>74.6</v>
-      </c>
-      <c r="Q11" s="15" t="n">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="Q11" s="15">
         <f t="shared" si="7"/>
-        <v>74.6</v>
-      </c>
-      <c r="R11" s="15" t="n">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="R11" s="15">
         <f t="shared" si="8"/>
-        <v>64.0</v>
-      </c>
-      <c r="S11" s="15" t="n">
+        <v>64</v>
+      </c>
+      <c r="S11" s="15">
         <f t="shared" si="9"/>
-        <v>64.0</v>
-      </c>
-      <c r="T11" s="15" t="n">
+        <v>64</v>
+      </c>
+      <c r="T11" s="15">
         <f t="shared" si="10"/>
-        <v>77.55991285403047</v>
-      </c>
-      <c r="U11" s="15" t="n">
+        <v>77.559912854030472</v>
+      </c>
+      <c r="U11" s="15">
         <f t="shared" si="11"/>
-        <v>77.55991285403047</v>
-      </c>
-      <c r="V11" s="15" t="n">
+        <v>77.559912854030472</v>
+      </c>
+      <c r="V11" s="15">
         <f t="shared" si="12"/>
         <v>77.5599128540305</v>
       </c>
-      <c r="W11" s="16" t="n">
+      <c r="W11" s="16">
         <f t="shared" si="13"/>
         <v>77.5599128540305</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>50</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C12" s="18">
         <v>43837</v>
@@ -2094,83 +2072,83 @@
       <c r="E12" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="19" t="n">
+      <c r="F12" s="19">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
       <c r="G12" s="19">
         <v>1</v>
       </c>
-      <c r="H12" s="15" t="n">
+      <c r="H12" s="15">
         <f>J12/F12</f>
         <v>179.79452054794518</v>
       </c>
-      <c r="I12" s="15" t="n">
+      <c r="I12" s="15">
         <f t="shared" si="14"/>
         <v>179.79452054794518</v>
       </c>
       <c r="J12" s="15">
         <v>350</v>
       </c>
-      <c r="K12" s="15" t="n">
+      <c r="K12" s="15">
         <f t="shared" si="1"/>
-        <v>350.0</v>
-      </c>
-      <c r="L12" s="15" t="n">
+        <v>350</v>
+      </c>
+      <c r="L12" s="15">
         <f t="shared" si="2"/>
-        <v>406.0</v>
-      </c>
-      <c r="M12" s="15" t="n">
+        <v>406</v>
+      </c>
+      <c r="M12" s="15">
         <f t="shared" si="3"/>
-        <v>406.0</v>
-      </c>
-      <c r="N12" s="15" t="n">
+        <v>406</v>
+      </c>
+      <c r="N12" s="15">
         <f t="shared" si="4"/>
         <v>506.9</v>
       </c>
-      <c r="O12" s="15" t="n">
+      <c r="O12" s="15">
         <f t="shared" si="5"/>
         <v>506.9</v>
       </c>
-      <c r="P12" s="15" t="n">
+      <c r="P12" s="15">
         <f t="shared" si="6"/>
-        <v>65.9</v>
-      </c>
-      <c r="Q12" s="15" t="n">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="Q12" s="15">
         <f t="shared" si="7"/>
-        <v>65.9</v>
-      </c>
-      <c r="R12" s="15" t="n">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="R12" s="15">
         <f t="shared" si="8"/>
-        <v>56.0</v>
-      </c>
-      <c r="S12" s="15" t="n">
+        <v>56</v>
+      </c>
+      <c r="S12" s="15">
         <f t="shared" si="9"/>
-        <v>56.0</v>
-      </c>
-      <c r="T12" s="15" t="n">
+        <v>56</v>
+      </c>
+      <c r="T12" s="15">
         <f t="shared" si="10"/>
         <v>170.20547945205482</v>
       </c>
-      <c r="U12" s="15" t="n">
+      <c r="U12" s="15">
         <f t="shared" si="11"/>
         <v>170.20547945205482</v>
       </c>
-      <c r="V12" s="15" t="n">
+      <c r="V12" s="15">
         <f t="shared" si="12"/>
         <v>170.20547945205476</v>
       </c>
-      <c r="W12" s="16" t="n">
+      <c r="W12" s="16">
         <f t="shared" si="13"/>
         <v>170.20547945205476</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C13" s="18">
         <v>43840</v>
@@ -2180,78 +2158,78 @@
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
-      <c r="G13" t="n" s="45">
-        <v>6.0</v>
+      <c r="G13" s="45">
+        <v>6</v>
       </c>
       <c r="H13" s="15">
         <v>450</v>
       </c>
-      <c r="I13" s="15" t="n">
+      <c r="I13" s="15">
         <f t="shared" si="14"/>
-        <v>2700.0</v>
+        <v>2700</v>
       </c>
       <c r="J13" s="15">
         <v>450</v>
       </c>
-      <c r="K13" s="15" t="n">
+      <c r="K13" s="15">
         <f t="shared" si="1"/>
-        <v>2700.0</v>
-      </c>
-      <c r="L13" s="15" t="n">
+        <v>2700</v>
+      </c>
+      <c r="L13" s="15">
         <f t="shared" si="2"/>
-        <v>522.0</v>
-      </c>
-      <c r="M13" s="15" t="n">
+        <v>522</v>
+      </c>
+      <c r="M13" s="15">
         <f t="shared" si="3"/>
-        <v>3132.0</v>
-      </c>
-      <c r="N13" s="15" t="n">
+        <v>3132</v>
+      </c>
+      <c r="N13" s="15">
         <f t="shared" si="4"/>
-        <v>640.3</v>
-      </c>
-      <c r="O13" s="15" t="n">
+        <v>640.29999999999995</v>
+      </c>
+      <c r="O13" s="15">
         <f t="shared" si="5"/>
         <v>3841.7999999999997</v>
       </c>
-      <c r="P13" s="15" t="n">
+      <c r="P13" s="15">
         <f t="shared" si="6"/>
         <v>83.3</v>
       </c>
-      <c r="Q13" s="15" t="n">
+      <c r="Q13" s="15">
         <f t="shared" si="7"/>
         <v>499.79999999999995</v>
       </c>
-      <c r="R13" s="15" t="n">
+      <c r="R13" s="15">
         <f t="shared" si="8"/>
-        <v>72.0</v>
-      </c>
-      <c r="S13" s="15" t="n">
+        <v>72</v>
+      </c>
+      <c r="S13" s="15">
         <f t="shared" si="9"/>
-        <v>432.0</v>
-      </c>
-      <c r="T13" s="15" t="n">
+        <v>432</v>
+      </c>
+      <c r="T13" s="15">
         <f t="shared" si="10"/>
-        <v>0.0</v>
-      </c>
-      <c r="U13" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" s="15">
         <f t="shared" si="11"/>
-        <v>0.0</v>
-      </c>
-      <c r="V13" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" s="15">
         <f t="shared" si="12"/>
-        <v>-4.263256414560601E-14</v>
-      </c>
-      <c r="W13" s="16" t="n">
+        <v>-4.2632564145606011E-14</v>
+      </c>
+      <c r="W13" s="16">
         <f t="shared" si="13"/>
         <v>-2.5579538487363607E-13</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C14" s="18">
         <v>43847</v>
@@ -2261,78 +2239,78 @@
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
-      <c r="G14" t="n" s="47">
-        <v>205.0</v>
+      <c r="G14" s="46">
+        <v>205</v>
       </c>
       <c r="H14" s="15">
         <v>14.96</v>
       </c>
-      <c r="I14" s="15" t="n">
+      <c r="I14" s="15">
         <f t="shared" si="14"/>
         <v>3066.8</v>
       </c>
       <c r="J14" s="15">
         <v>30</v>
       </c>
-      <c r="K14" s="15" t="n">
+      <c r="K14" s="15">
         <f t="shared" si="1"/>
-        <v>6150.0</v>
-      </c>
-      <c r="L14" s="15" t="n">
+        <v>6150</v>
+      </c>
+      <c r="L14" s="15">
         <f t="shared" si="2"/>
-        <v>34.8</v>
-      </c>
-      <c r="M14" s="15" t="n">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="M14" s="15">
         <f t="shared" si="3"/>
-        <v>7133.999999999999</v>
-      </c>
-      <c r="N14" s="15" t="n">
+        <v>7133.9999999999991</v>
+      </c>
+      <c r="N14" s="15">
         <f t="shared" si="4"/>
         <v>80.02</v>
       </c>
-      <c r="O14" s="15" t="n">
+      <c r="O14" s="15">
         <f t="shared" si="5"/>
-        <v>16404.1</v>
-      </c>
-      <c r="P14" s="15" t="n">
+        <v>16404.099999999999</v>
+      </c>
+      <c r="P14" s="15">
         <f t="shared" si="6"/>
         <v>10.219999999999999</v>
       </c>
-      <c r="Q14" s="15" t="n">
+      <c r="Q14" s="15">
         <f t="shared" si="7"/>
         <v>2095.1</v>
       </c>
-      <c r="R14" s="15" t="n">
+      <c r="R14" s="15">
         <f t="shared" si="8"/>
         <v>4.8</v>
       </c>
-      <c r="S14" s="15" t="n">
+      <c r="S14" s="15">
         <f t="shared" si="9"/>
-        <v>984.0</v>
-      </c>
-      <c r="T14" s="15" t="n">
+        <v>984</v>
+      </c>
+      <c r="T14" s="15">
         <f t="shared" si="10"/>
         <v>15.039999999999996</v>
       </c>
-      <c r="U14" s="15" t="n">
+      <c r="U14" s="15">
         <f t="shared" si="11"/>
-        <v>3083.199999999999</v>
-      </c>
-      <c r="V14" s="15" t="n">
+        <v>3083.1999999999989</v>
+      </c>
+      <c r="V14" s="15">
         <f t="shared" si="12"/>
         <v>15.040000000000006</v>
       </c>
-      <c r="W14" s="16" t="n">
+      <c r="W14" s="16">
         <f t="shared" si="13"/>
-        <v>3083.200000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+        <v>3083.2000000000012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C15" s="18">
         <v>43837</v>
@@ -2343,78 +2321,78 @@
       <c r="E15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="19" t="n">
+      <c r="F15" s="19">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
       <c r="G15" s="19">
         <v>1</v>
       </c>
-      <c r="H15" s="15" t="n">
+      <c r="H15" s="15">
         <f>J15/F15</f>
-        <v>256.8493150684931</v>
-      </c>
-      <c r="I15" s="15" t="n">
+        <v>256.84931506849313</v>
+      </c>
+      <c r="I15" s="15">
         <f t="shared" si="14"/>
-        <v>256.8493150684931</v>
+        <v>256.84931506849313</v>
       </c>
       <c r="J15" s="15">
         <v>500</v>
       </c>
-      <c r="K15" s="15" t="n">
+      <c r="K15" s="15">
         <f t="shared" si="1"/>
-        <v>500.0</v>
-      </c>
-      <c r="L15" s="15" t="n">
+        <v>500</v>
+      </c>
+      <c r="L15" s="15">
         <f t="shared" si="2"/>
-        <v>580.0</v>
-      </c>
-      <c r="M15" s="15" t="n">
+        <v>580</v>
+      </c>
+      <c r="M15" s="15">
         <f t="shared" si="3"/>
-        <v>580.0</v>
-      </c>
-      <c r="N15" s="15" t="n">
+        <v>580</v>
+      </c>
+      <c r="N15" s="15">
         <f t="shared" si="4"/>
-        <v>707.0</v>
-      </c>
-      <c r="O15" s="15" t="n">
+        <v>707</v>
+      </c>
+      <c r="O15" s="15">
         <f t="shared" si="5"/>
-        <v>707.0</v>
-      </c>
-      <c r="P15" s="15" t="n">
+        <v>707</v>
+      </c>
+      <c r="P15" s="15">
         <f t="shared" si="6"/>
-        <v>92.0</v>
-      </c>
-      <c r="Q15" s="15" t="n">
+        <v>92</v>
+      </c>
+      <c r="Q15" s="15">
         <f t="shared" si="7"/>
-        <v>92.0</v>
-      </c>
-      <c r="R15" s="15" t="n">
+        <v>92</v>
+      </c>
+      <c r="R15" s="15">
         <f t="shared" si="8"/>
-        <v>80.0</v>
-      </c>
-      <c r="S15" s="15" t="n">
+        <v>80</v>
+      </c>
+      <c r="S15" s="15">
         <f t="shared" si="9"/>
-        <v>80.0</v>
-      </c>
-      <c r="T15" s="15" t="n">
+        <v>80</v>
+      </c>
+      <c r="T15" s="15">
         <f t="shared" si="10"/>
         <v>243.15068493150687</v>
       </c>
-      <c r="U15" s="15" t="n">
+      <c r="U15" s="15">
         <f t="shared" si="11"/>
         <v>243.15068493150687</v>
       </c>
-      <c r="V15" s="15" t="n">
+      <c r="V15" s="15">
         <f t="shared" si="12"/>
         <v>243.15068493150687</v>
       </c>
-      <c r="W15" s="16" t="n">
+      <c r="W15" s="16">
         <f t="shared" si="13"/>
         <v>243.15068493150687</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>31</v>
       </c>
@@ -2430,83 +2408,83 @@
       <c r="E16" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="19" t="n">
+      <c r="F16" s="19">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
       <c r="G16" s="19">
         <v>1</v>
       </c>
-      <c r="H16" s="15" t="n">
+      <c r="H16" s="15">
         <f>J16/F16</f>
-        <v>77.05479452054794</v>
-      </c>
-      <c r="I16" s="15" t="n">
+        <v>77.054794520547944</v>
+      </c>
+      <c r="I16" s="15">
         <f t="shared" si="14"/>
-        <v>77.05479452054794</v>
+        <v>77.054794520547944</v>
       </c>
       <c r="J16" s="15">
         <v>150</v>
       </c>
-      <c r="K16" s="15" t="n">
+      <c r="K16" s="15">
         <f t="shared" si="1"/>
-        <v>150.0</v>
-      </c>
-      <c r="L16" s="15" t="n">
+        <v>150</v>
+      </c>
+      <c r="L16" s="15">
         <f t="shared" si="2"/>
-        <v>174.0</v>
-      </c>
-      <c r="M16" s="15" t="n">
+        <v>174</v>
+      </c>
+      <c r="M16" s="15">
         <f t="shared" si="3"/>
-        <v>174.0</v>
-      </c>
-      <c r="N16" s="15" t="n">
+        <v>174</v>
+      </c>
+      <c r="N16" s="15">
         <f t="shared" si="4"/>
         <v>240.1</v>
       </c>
-      <c r="O16" s="15" t="n">
+      <c r="O16" s="15">
         <f t="shared" si="5"/>
         <v>240.1</v>
       </c>
-      <c r="P16" s="15" t="n">
+      <c r="P16" s="15">
         <f t="shared" si="6"/>
         <v>31.099999999999998</v>
       </c>
-      <c r="Q16" s="15" t="n">
+      <c r="Q16" s="15">
         <f t="shared" si="7"/>
         <v>31.099999999999998</v>
       </c>
-      <c r="R16" s="15" t="n">
+      <c r="R16" s="15">
         <f t="shared" si="8"/>
-        <v>24.0</v>
-      </c>
-      <c r="S16" s="15" t="n">
+        <v>24</v>
+      </c>
+      <c r="S16" s="15">
         <f t="shared" si="9"/>
-        <v>24.0</v>
-      </c>
-      <c r="T16" s="15" t="n">
+        <v>24</v>
+      </c>
+      <c r="T16" s="15">
         <f t="shared" si="10"/>
-        <v>72.94520547945206</v>
-      </c>
-      <c r="U16" s="15" t="n">
+        <v>72.945205479452056</v>
+      </c>
+      <c r="U16" s="15">
         <f t="shared" si="11"/>
-        <v>72.94520547945206</v>
-      </c>
-      <c r="V16" s="15" t="n">
+        <v>72.945205479452056</v>
+      </c>
+      <c r="V16" s="15">
         <f t="shared" si="12"/>
-        <v>72.94520547945206</v>
-      </c>
-      <c r="W16" s="16" t="n">
+        <v>72.945205479452056</v>
+      </c>
+      <c r="W16" s="16">
         <f t="shared" si="13"/>
-        <v>72.94520547945206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+        <v>72.945205479452056</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C17" s="18">
         <v>43837</v>
@@ -2522,67 +2500,67 @@
       <c r="H17" s="15">
         <v>50</v>
       </c>
-      <c r="I17" s="15" t="n">
+      <c r="I17" s="15">
         <f t="shared" si="14"/>
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="J17" s="15">
         <v>150</v>
       </c>
-      <c r="K17" s="15" t="n">
+      <c r="K17" s="15">
         <f t="shared" si="1"/>
-        <v>300.0</v>
-      </c>
-      <c r="L17" s="15" t="n">
+        <v>300</v>
+      </c>
+      <c r="L17" s="15">
         <f t="shared" si="2"/>
-        <v>174.0</v>
-      </c>
-      <c r="M17" s="15" t="n">
+        <v>174</v>
+      </c>
+      <c r="M17" s="15">
         <f t="shared" si="3"/>
-        <v>348.0</v>
-      </c>
-      <c r="N17" s="15" t="n">
+        <v>348</v>
+      </c>
+      <c r="N17" s="15">
         <f t="shared" si="4"/>
         <v>240.1</v>
       </c>
-      <c r="O17" s="15" t="n">
+      <c r="O17" s="15">
         <f t="shared" si="5"/>
         <v>480.2</v>
       </c>
-      <c r="P17" s="15" t="n">
+      <c r="P17" s="15">
         <f t="shared" si="6"/>
         <v>31.099999999999998</v>
       </c>
-      <c r="Q17" s="15" t="n">
+      <c r="Q17" s="15">
         <f t="shared" si="7"/>
         <v>62.199999999999996</v>
       </c>
-      <c r="R17" s="15" t="n">
+      <c r="R17" s="15">
         <f t="shared" si="8"/>
-        <v>24.0</v>
-      </c>
-      <c r="S17" s="15" t="n">
+        <v>24</v>
+      </c>
+      <c r="S17" s="15">
         <f t="shared" si="9"/>
-        <v>48.0</v>
-      </c>
-      <c r="T17" s="15" t="n">
+        <v>48</v>
+      </c>
+      <c r="T17" s="15">
         <f t="shared" si="10"/>
-        <v>100.0</v>
-      </c>
-      <c r="U17" s="15" t="n">
+        <v>100</v>
+      </c>
+      <c r="U17" s="15">
         <f t="shared" si="11"/>
-        <v>200.0</v>
-      </c>
-      <c r="V17" s="15" t="n">
+        <v>200</v>
+      </c>
+      <c r="V17" s="15">
         <f t="shared" si="12"/>
-        <v>100.0</v>
-      </c>
-      <c r="W17" s="16" t="n">
+        <v>100</v>
+      </c>
+      <c r="W17" s="16">
         <f t="shared" si="13"/>
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>33</v>
       </c>
@@ -2603,72 +2581,72 @@
       <c r="H18" s="15">
         <v>300</v>
       </c>
-      <c r="I18" s="15" t="n">
+      <c r="I18" s="15">
         <f t="shared" si="14"/>
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="J18" s="15">
         <v>300</v>
       </c>
-      <c r="K18" s="15" t="n">
+      <c r="K18" s="15">
         <f t="shared" si="1"/>
-        <v>300.0</v>
-      </c>
-      <c r="L18" s="15" t="n">
+        <v>300</v>
+      </c>
+      <c r="L18" s="15">
         <f t="shared" si="2"/>
-        <v>348.0</v>
-      </c>
-      <c r="M18" s="15" t="n">
+        <v>348</v>
+      </c>
+      <c r="M18" s="15">
         <f t="shared" si="3"/>
-        <v>348.0</v>
-      </c>
-      <c r="N18" s="15" t="n">
+        <v>348</v>
+      </c>
+      <c r="N18" s="15">
         <f t="shared" si="4"/>
         <v>440.2</v>
       </c>
-      <c r="O18" s="15" t="n">
+      <c r="O18" s="15">
         <f t="shared" si="5"/>
         <v>440.2</v>
       </c>
-      <c r="P18" s="15" t="n">
+      <c r="P18" s="15">
         <f t="shared" si="6"/>
         <v>57.199999999999996</v>
       </c>
-      <c r="Q18" s="15" t="n">
+      <c r="Q18" s="15">
         <f t="shared" si="7"/>
         <v>57.199999999999996</v>
       </c>
-      <c r="R18" s="15" t="n">
+      <c r="R18" s="15">
         <f t="shared" si="8"/>
-        <v>48.0</v>
-      </c>
-      <c r="S18" s="15" t="n">
+        <v>48</v>
+      </c>
+      <c r="S18" s="15">
         <f t="shared" si="9"/>
-        <v>48.0</v>
-      </c>
-      <c r="T18" s="15" t="n">
+        <v>48</v>
+      </c>
+      <c r="T18" s="15">
         <f t="shared" si="10"/>
-        <v>0.0</v>
-      </c>
-      <c r="U18" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" s="15">
         <f t="shared" si="11"/>
-        <v>0.0</v>
-      </c>
-      <c r="V18" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" s="15">
         <f t="shared" si="12"/>
-        <v>0.0</v>
-      </c>
-      <c r="W18" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" s="16">
         <f t="shared" si="13"/>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C19" s="18">
         <v>43837</v>
@@ -2679,80 +2657,80 @@
       <c r="E19" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="19" t="n">
+      <c r="F19" s="19">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
       <c r="G19" s="19">
         <v>1</v>
       </c>
-      <c r="H19" s="15" t="n">
+      <c r="H19" s="15">
         <f>J19/F19</f>
-        <v>205.4794520547945</v>
-      </c>
-      <c r="I19" s="15" t="n">
+        <v>205.47945205479451</v>
+      </c>
+      <c r="I19" s="15">
         <f t="shared" si="14"/>
-        <v>205.4794520547945</v>
+        <v>205.47945205479451</v>
       </c>
       <c r="J19" s="15">
         <v>400</v>
       </c>
-      <c r="K19" s="15" t="n">
+      <c r="K19" s="15">
         <f t="shared" si="1"/>
-        <v>400.0</v>
-      </c>
-      <c r="L19" s="15" t="n">
+        <v>400</v>
+      </c>
+      <c r="L19" s="15">
         <f t="shared" si="2"/>
-        <v>464.0</v>
-      </c>
-      <c r="M19" s="15" t="n">
+        <v>464</v>
+      </c>
+      <c r="M19" s="15">
         <f t="shared" si="3"/>
-        <v>464.0</v>
-      </c>
-      <c r="N19" s="15" t="n">
+        <v>464</v>
+      </c>
+      <c r="N19" s="15">
         <f t="shared" si="4"/>
         <v>573.6</v>
       </c>
-      <c r="O19" s="15" t="n">
+      <c r="O19" s="15">
         <f t="shared" si="5"/>
         <v>573.6</v>
       </c>
-      <c r="P19" s="15" t="n">
+      <c r="P19" s="15">
         <f t="shared" si="6"/>
-        <v>74.6</v>
-      </c>
-      <c r="Q19" s="15" t="n">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="Q19" s="15">
         <f t="shared" si="7"/>
-        <v>74.6</v>
-      </c>
-      <c r="R19" s="15" t="n">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="R19" s="15">
         <f t="shared" si="8"/>
-        <v>64.0</v>
-      </c>
-      <c r="S19" s="15" t="n">
+        <v>64</v>
+      </c>
+      <c r="S19" s="15">
         <f t="shared" si="9"/>
-        <v>64.0</v>
-      </c>
-      <c r="T19" s="15" t="n">
+        <v>64</v>
+      </c>
+      <c r="T19" s="15">
         <f t="shared" si="10"/>
         <v>194.52054794520552</v>
       </c>
-      <c r="U19" s="15" t="n">
+      <c r="U19" s="15">
         <f t="shared" si="11"/>
         <v>194.52054794520552</v>
       </c>
-      <c r="V19" s="15" t="n">
+      <c r="V19" s="15">
         <f t="shared" si="12"/>
         <v>194.52054794520552</v>
       </c>
-      <c r="W19" s="16" t="n">
+      <c r="W19" s="16">
         <f t="shared" si="13"/>
         <v>194.52054794520552</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>52</v>
@@ -2771,69 +2749,69 @@
       <c r="H20" s="15">
         <v>250</v>
       </c>
-      <c r="I20" s="15" t="n">
+      <c r="I20" s="15">
         <f t="shared" si="14"/>
-        <v>250.0</v>
+        <v>250</v>
       </c>
       <c r="J20" s="15">
         <v>250</v>
       </c>
-      <c r="K20" s="15" t="n">
+      <c r="K20" s="15">
         <f t="shared" si="1"/>
-        <v>250.0</v>
-      </c>
-      <c r="L20" s="15" t="n">
+        <v>250</v>
+      </c>
+      <c r="L20" s="15">
         <f t="shared" si="2"/>
-        <v>290.0</v>
-      </c>
-      <c r="M20" s="15" t="n">
+        <v>290</v>
+      </c>
+      <c r="M20" s="15">
         <f t="shared" si="3"/>
-        <v>290.0</v>
-      </c>
-      <c r="N20" s="15" t="n">
+        <v>290</v>
+      </c>
+      <c r="N20" s="15">
         <f t="shared" si="4"/>
         <v>373.5</v>
       </c>
-      <c r="O20" s="15" t="n">
+      <c r="O20" s="15">
         <f t="shared" si="5"/>
         <v>373.5</v>
       </c>
-      <c r="P20" s="15" t="n">
+      <c r="P20" s="15">
         <f t="shared" si="6"/>
         <v>48.5</v>
       </c>
-      <c r="Q20" s="15" t="n">
+      <c r="Q20" s="15">
         <f t="shared" si="7"/>
         <v>48.5</v>
       </c>
-      <c r="R20" s="15" t="n">
+      <c r="R20" s="15">
         <f t="shared" si="8"/>
-        <v>40.0</v>
-      </c>
-      <c r="S20" s="15" t="n">
+        <v>40</v>
+      </c>
+      <c r="S20" s="15">
         <f t="shared" si="9"/>
-        <v>40.0</v>
-      </c>
-      <c r="T20" s="15" t="n">
+        <v>40</v>
+      </c>
+      <c r="T20" s="15">
         <f t="shared" si="10"/>
-        <v>0.0</v>
-      </c>
-      <c r="U20" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" s="15">
         <f t="shared" si="11"/>
-        <v>0.0</v>
-      </c>
-      <c r="V20" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" s="15">
         <f t="shared" si="12"/>
-        <v>0.0</v>
-      </c>
-      <c r="W20" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" s="16">
         <f t="shared" si="13"/>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>54</v>
@@ -2847,83 +2825,83 @@
       <c r="E21" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="19" t="n">
+      <c r="F21" s="19">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
       <c r="G21" s="19">
         <v>1</v>
       </c>
-      <c r="H21" s="15" t="n">
+      <c r="H21" s="15">
         <f>J21/F21</f>
         <v>128.42465753424656</v>
       </c>
-      <c r="I21" s="15" t="n">
+      <c r="I21" s="15">
         <f t="shared" si="14"/>
         <v>128.42465753424656</v>
       </c>
       <c r="J21" s="15">
         <v>250</v>
       </c>
-      <c r="K21" s="15" t="n">
+      <c r="K21" s="15">
         <f t="shared" si="1"/>
-        <v>250.0</v>
-      </c>
-      <c r="L21" s="15" t="n">
+        <v>250</v>
+      </c>
+      <c r="L21" s="15">
         <f t="shared" si="2"/>
-        <v>290.0</v>
-      </c>
-      <c r="M21" s="15" t="n">
+        <v>290</v>
+      </c>
+      <c r="M21" s="15">
         <f t="shared" si="3"/>
-        <v>290.0</v>
-      </c>
-      <c r="N21" s="15" t="n">
+        <v>290</v>
+      </c>
+      <c r="N21" s="15">
         <f t="shared" si="4"/>
         <v>373.5</v>
       </c>
-      <c r="O21" s="15" t="n">
+      <c r="O21" s="15">
         <f t="shared" si="5"/>
         <v>373.5</v>
       </c>
-      <c r="P21" s="15" t="n">
+      <c r="P21" s="15">
         <f t="shared" si="6"/>
         <v>48.5</v>
       </c>
-      <c r="Q21" s="15" t="n">
+      <c r="Q21" s="15">
         <f t="shared" si="7"/>
         <v>48.5</v>
       </c>
-      <c r="R21" s="15" t="n">
+      <c r="R21" s="15">
         <f t="shared" si="8"/>
-        <v>40.0</v>
-      </c>
-      <c r="S21" s="15" t="n">
+        <v>40</v>
+      </c>
+      <c r="S21" s="15">
         <f t="shared" si="9"/>
-        <v>40.0</v>
-      </c>
-      <c r="T21" s="15" t="n">
+        <v>40</v>
+      </c>
+      <c r="T21" s="15">
         <f t="shared" si="10"/>
         <v>121.57534246575344</v>
       </c>
-      <c r="U21" s="15" t="n">
+      <c r="U21" s="15">
         <f t="shared" si="11"/>
         <v>121.57534246575344</v>
       </c>
-      <c r="V21" s="15" t="n">
+      <c r="V21" s="15">
         <f t="shared" si="12"/>
         <v>121.57534246575344</v>
       </c>
-      <c r="W21" s="16" t="n">
+      <c r="W21" s="16">
         <f t="shared" si="13"/>
         <v>121.57534246575344</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C22" s="18">
         <v>43843</v>
@@ -2939,72 +2917,72 @@
       <c r="H22" s="15">
         <v>400</v>
       </c>
-      <c r="I22" s="15" t="n">
+      <c r="I22" s="15">
         <f t="shared" si="14"/>
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="J22" s="15">
         <v>400</v>
       </c>
-      <c r="K22" s="15" t="n">
+      <c r="K22" s="15">
         <f t="shared" si="1"/>
-        <v>800.0</v>
-      </c>
-      <c r="L22" s="15" t="n">
+        <v>800</v>
+      </c>
+      <c r="L22" s="15">
         <f t="shared" si="2"/>
-        <v>464.0</v>
-      </c>
-      <c r="M22" s="15" t="n">
+        <v>464</v>
+      </c>
+      <c r="M22" s="15">
         <f t="shared" si="3"/>
-        <v>928.0</v>
-      </c>
-      <c r="N22" s="15" t="n">
+        <v>928</v>
+      </c>
+      <c r="N22" s="15">
         <f t="shared" si="4"/>
         <v>573.6</v>
       </c>
-      <c r="O22" s="15" t="n">
+      <c r="O22" s="15">
         <f t="shared" si="5"/>
         <v>1147.2</v>
       </c>
-      <c r="P22" s="15" t="n">
+      <c r="P22" s="15">
         <f t="shared" si="6"/>
-        <v>74.6</v>
-      </c>
-      <c r="Q22" s="15" t="n">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="Q22" s="15">
         <f t="shared" si="7"/>
-        <v>149.2</v>
-      </c>
-      <c r="R22" s="15" t="n">
+        <v>149.19999999999999</v>
+      </c>
+      <c r="R22" s="15">
         <f t="shared" si="8"/>
-        <v>64.0</v>
-      </c>
-      <c r="S22" s="15" t="n">
+        <v>64</v>
+      </c>
+      <c r="S22" s="15">
         <f t="shared" si="9"/>
-        <v>128.0</v>
-      </c>
-      <c r="T22" s="15" t="n">
+        <v>128</v>
+      </c>
+      <c r="T22" s="15">
         <f t="shared" si="10"/>
-        <v>0.0</v>
-      </c>
-      <c r="U22" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" s="15">
         <f t="shared" si="11"/>
-        <v>0.0</v>
-      </c>
-      <c r="V22" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" s="15">
         <f t="shared" si="12"/>
         <v>2.8421709430404007E-14</v>
       </c>
-      <c r="W22" s="16" t="n">
+      <c r="W22" s="16">
         <f t="shared" si="13"/>
         <v>5.6843418860808015E-14</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C23" s="13">
         <v>44008</v>
@@ -3020,67 +2998,67 @@
       <c r="H23" s="15">
         <v>212.5</v>
       </c>
-      <c r="I23" s="15" t="n">
+      <c r="I23" s="15">
         <f t="shared" si="14"/>
-        <v>425.0</v>
+        <v>425</v>
       </c>
       <c r="J23" s="15">
         <v>700</v>
       </c>
-      <c r="K23" s="15" t="n">
+      <c r="K23" s="15">
         <f t="shared" si="1"/>
-        <v>1400.0</v>
-      </c>
-      <c r="L23" s="15" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L23" s="15">
         <f t="shared" si="2"/>
-        <v>812.0</v>
-      </c>
-      <c r="M23" s="15" t="n">
+        <v>812</v>
+      </c>
+      <c r="M23" s="15">
         <f t="shared" si="3"/>
-        <v>1624.0</v>
-      </c>
-      <c r="N23" s="15" t="n">
+        <v>1624</v>
+      </c>
+      <c r="N23" s="15">
         <f t="shared" si="4"/>
         <v>973.8</v>
       </c>
-      <c r="O23" s="15" t="n">
+      <c r="O23" s="15">
         <f t="shared" si="5"/>
         <v>1947.6</v>
       </c>
-      <c r="P23" s="15" t="n">
+      <c r="P23" s="15">
         <f t="shared" si="6"/>
         <v>126.8</v>
       </c>
-      <c r="Q23" s="15" t="n">
+      <c r="Q23" s="15">
         <f t="shared" si="7"/>
         <v>253.6</v>
       </c>
-      <c r="R23" s="15" t="n">
+      <c r="R23" s="15">
         <f t="shared" si="8"/>
-        <v>112.0</v>
-      </c>
-      <c r="S23" s="15" t="n">
+        <v>112</v>
+      </c>
+      <c r="S23" s="15">
         <f t="shared" si="9"/>
-        <v>224.0</v>
-      </c>
-      <c r="T23" s="15" t="n">
+        <v>224</v>
+      </c>
+      <c r="T23" s="15">
         <f t="shared" si="10"/>
         <v>487.5</v>
       </c>
-      <c r="U23" s="15" t="n">
+      <c r="U23" s="15">
         <f t="shared" si="11"/>
-        <v>975.0</v>
-      </c>
-      <c r="V23" s="15" t="n">
+        <v>975</v>
+      </c>
+      <c r="V23" s="15">
         <f t="shared" si="12"/>
         <v>487.5</v>
       </c>
-      <c r="W23" s="16" t="n">
+      <c r="W23" s="16">
         <f t="shared" si="13"/>
-        <v>975.0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>34</v>
       </c>
@@ -3096,79 +3074,79 @@
       <c r="E24" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="19" t="n">
+      <c r="F24" s="19">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
       <c r="G24" s="19">
         <v>1</v>
       </c>
-      <c r="H24" s="15" t="n">
+      <c r="H24" s="15">
         <f t="shared" ref="H24:H30" si="15">J24/F24</f>
-        <v>256.8493150684931</v>
-      </c>
-      <c r="I24" s="15" t="n">
+        <v>256.84931506849313</v>
+      </c>
+      <c r="I24" s="15">
         <f t="shared" si="14"/>
-        <v>256.8493150684931</v>
+        <v>256.84931506849313</v>
       </c>
       <c r="J24" s="15">
         <v>500</v>
       </c>
-      <c r="K24" s="15" t="n">
+      <c r="K24" s="15">
         <f t="shared" si="1"/>
-        <v>500.0</v>
-      </c>
-      <c r="L24" s="15" t="n">
+        <v>500</v>
+      </c>
+      <c r="L24" s="15">
         <f t="shared" si="2"/>
-        <v>580.0</v>
-      </c>
-      <c r="M24" s="15" t="n">
+        <v>580</v>
+      </c>
+      <c r="M24" s="15">
         <f t="shared" si="3"/>
-        <v>580.0</v>
-      </c>
-      <c r="N24" s="15" t="n">
+        <v>580</v>
+      </c>
+      <c r="N24" s="15">
         <f t="shared" si="4"/>
-        <v>707.0</v>
-      </c>
-      <c r="O24" s="15" t="n">
+        <v>707</v>
+      </c>
+      <c r="O24" s="15">
         <f t="shared" si="5"/>
-        <v>707.0</v>
-      </c>
-      <c r="P24" s="15" t="n">
+        <v>707</v>
+      </c>
+      <c r="P24" s="15">
         <f t="shared" si="6"/>
-        <v>92.0</v>
-      </c>
-      <c r="Q24" s="15" t="n">
+        <v>92</v>
+      </c>
+      <c r="Q24" s="15">
         <f t="shared" si="7"/>
-        <v>92.0</v>
-      </c>
-      <c r="R24" s="15" t="n">
+        <v>92</v>
+      </c>
+      <c r="R24" s="15">
         <f t="shared" si="8"/>
-        <v>80.0</v>
-      </c>
-      <c r="S24" s="15" t="n">
+        <v>80</v>
+      </c>
+      <c r="S24" s="15">
         <f t="shared" si="9"/>
-        <v>80.0</v>
-      </c>
-      <c r="T24" s="15" t="n">
+        <v>80</v>
+      </c>
+      <c r="T24" s="15">
         <f t="shared" si="10"/>
         <v>243.15068493150687</v>
       </c>
-      <c r="U24" s="15" t="n">
+      <c r="U24" s="15">
         <f t="shared" si="11"/>
         <v>243.15068493150687</v>
       </c>
-      <c r="V24" s="15" t="n">
+      <c r="V24" s="15">
         <f t="shared" si="12"/>
         <v>243.15068493150687</v>
       </c>
-      <c r="W24" s="16" t="n">
+      <c r="W24" s="16">
         <f t="shared" si="13"/>
         <v>243.15068493150687</v>
       </c>
       <c r="AC24" s="6"/>
     </row>
-    <row r="25" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>35</v>
       </c>
@@ -3184,78 +3162,78 @@
       <c r="E25" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="19" t="n">
+      <c r="F25" s="19">
         <f>22950/18500</f>
         <v>1.2405405405405405</v>
       </c>
       <c r="G25" s="19">
         <v>1</v>
       </c>
-      <c r="H25" s="15" t="n">
+      <c r="H25" s="15">
         <f t="shared" si="15"/>
-        <v>282.1350762527233</v>
-      </c>
-      <c r="I25" s="15" t="n">
+        <v>282.13507625272331</v>
+      </c>
+      <c r="I25" s="15">
         <f t="shared" si="14"/>
-        <v>282.1350762527233</v>
+        <v>282.13507625272331</v>
       </c>
       <c r="J25" s="15">
         <v>350</v>
       </c>
-      <c r="K25" s="15" t="n">
+      <c r="K25" s="15">
         <f t="shared" si="1"/>
-        <v>350.0</v>
-      </c>
-      <c r="L25" s="15" t="n">
+        <v>350</v>
+      </c>
+      <c r="L25" s="15">
         <f t="shared" si="2"/>
-        <v>406.0</v>
-      </c>
-      <c r="M25" s="15" t="n">
+        <v>406</v>
+      </c>
+      <c r="M25" s="15">
         <f t="shared" si="3"/>
-        <v>406.0</v>
-      </c>
-      <c r="N25" s="15" t="n">
+        <v>406</v>
+      </c>
+      <c r="N25" s="15">
         <f t="shared" si="4"/>
         <v>506.9</v>
       </c>
-      <c r="O25" s="15" t="n">
+      <c r="O25" s="15">
         <f t="shared" si="5"/>
         <v>506.9</v>
       </c>
-      <c r="P25" s="15" t="n">
+      <c r="P25" s="15">
         <f t="shared" si="6"/>
-        <v>65.9</v>
-      </c>
-      <c r="Q25" s="15" t="n">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="Q25" s="15">
         <f t="shared" si="7"/>
-        <v>65.9</v>
-      </c>
-      <c r="R25" s="15" t="n">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="R25" s="15">
         <f t="shared" si="8"/>
-        <v>56.0</v>
-      </c>
-      <c r="S25" s="15" t="n">
+        <v>56</v>
+      </c>
+      <c r="S25" s="15">
         <f t="shared" si="9"/>
-        <v>56.0</v>
-      </c>
-      <c r="T25" s="15" t="n">
+        <v>56</v>
+      </c>
+      <c r="T25" s="15">
         <f t="shared" si="10"/>
-        <v>67.86492374727669</v>
-      </c>
-      <c r="U25" s="15" t="n">
+        <v>67.864923747276691</v>
+      </c>
+      <c r="U25" s="15">
         <f t="shared" si="11"/>
-        <v>67.86492374727669</v>
-      </c>
-      <c r="V25" s="15" t="n">
+        <v>67.864923747276691</v>
+      </c>
+      <c r="V25" s="15">
         <f t="shared" si="12"/>
-        <v>67.86492374727666</v>
-      </c>
-      <c r="W25" s="16" t="n">
+        <v>67.864923747276663</v>
+      </c>
+      <c r="W25" s="16">
         <f t="shared" si="13"/>
-        <v>67.86492374727666</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+        <v>67.864923747276663</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>36</v>
       </c>
@@ -3271,78 +3249,78 @@
       <c r="E26" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="19" t="n">
+      <c r="F26" s="19">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
       <c r="G26" s="19">
         <v>1</v>
       </c>
-      <c r="H26" s="15" t="n">
+      <c r="H26" s="15">
         <f t="shared" si="15"/>
         <v>128.42465753424656</v>
       </c>
-      <c r="I26" s="15" t="n">
+      <c r="I26" s="15">
         <f t="shared" si="14"/>
         <v>128.42465753424656</v>
       </c>
       <c r="J26" s="15">
         <v>250</v>
       </c>
-      <c r="K26" s="15" t="n">
+      <c r="K26" s="15">
         <f t="shared" si="1"/>
-        <v>250.0</v>
-      </c>
-      <c r="L26" s="15" t="n">
+        <v>250</v>
+      </c>
+      <c r="L26" s="15">
         <f t="shared" si="2"/>
-        <v>290.0</v>
-      </c>
-      <c r="M26" s="15" t="n">
+        <v>290</v>
+      </c>
+      <c r="M26" s="15">
         <f t="shared" si="3"/>
-        <v>290.0</v>
-      </c>
-      <c r="N26" s="15" t="n">
+        <v>290</v>
+      </c>
+      <c r="N26" s="15">
         <f t="shared" si="4"/>
         <v>373.5</v>
       </c>
-      <c r="O26" s="15" t="n">
+      <c r="O26" s="15">
         <f t="shared" si="5"/>
         <v>373.5</v>
       </c>
-      <c r="P26" s="15" t="n">
+      <c r="P26" s="15">
         <f t="shared" si="6"/>
         <v>48.5</v>
       </c>
-      <c r="Q26" s="15" t="n">
+      <c r="Q26" s="15">
         <f t="shared" si="7"/>
         <v>48.5</v>
       </c>
-      <c r="R26" s="15" t="n">
+      <c r="R26" s="15">
         <f t="shared" si="8"/>
-        <v>40.0</v>
-      </c>
-      <c r="S26" s="15" t="n">
+        <v>40</v>
+      </c>
+      <c r="S26" s="15">
         <f t="shared" si="9"/>
-        <v>40.0</v>
-      </c>
-      <c r="T26" s="15" t="n">
+        <v>40</v>
+      </c>
+      <c r="T26" s="15">
         <f t="shared" si="10"/>
         <v>121.57534246575344</v>
       </c>
-      <c r="U26" s="15" t="n">
+      <c r="U26" s="15">
         <f t="shared" si="11"/>
         <v>121.57534246575344</v>
       </c>
-      <c r="V26" s="15" t="n">
+      <c r="V26" s="15">
         <f t="shared" si="12"/>
         <v>121.57534246575344</v>
       </c>
-      <c r="W26" s="16" t="n">
+      <c r="W26" s="16">
         <f t="shared" si="13"/>
         <v>121.57534246575344</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>37</v>
       </c>
@@ -3358,78 +3336,78 @@
       <c r="E27" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="19" t="n">
+      <c r="F27" s="19">
         <f>22950/18500</f>
         <v>1.2405405405405405</v>
       </c>
       <c r="G27" s="19">
         <v>1</v>
       </c>
-      <c r="H27" s="15" t="n">
+      <c r="H27" s="15">
         <f t="shared" si="15"/>
         <v>483.66013071895424</v>
       </c>
-      <c r="I27" s="15" t="n">
+      <c r="I27" s="15">
         <f t="shared" si="14"/>
         <v>483.66013071895424</v>
       </c>
       <c r="J27" s="15">
         <v>600</v>
       </c>
-      <c r="K27" s="15" t="n">
+      <c r="K27" s="15">
         <f t="shared" si="1"/>
-        <v>600.0</v>
-      </c>
-      <c r="L27" s="15" t="n">
+        <v>600</v>
+      </c>
+      <c r="L27" s="15">
         <f t="shared" si="2"/>
-        <v>696.0</v>
-      </c>
-      <c r="M27" s="15" t="n">
+        <v>696</v>
+      </c>
+      <c r="M27" s="15">
         <f t="shared" si="3"/>
-        <v>696.0</v>
-      </c>
-      <c r="N27" s="15" t="n">
+        <v>696</v>
+      </c>
+      <c r="N27" s="15">
         <f t="shared" si="4"/>
         <v>840.4</v>
       </c>
-      <c r="O27" s="15" t="n">
+      <c r="O27" s="15">
         <f t="shared" si="5"/>
         <v>840.4</v>
       </c>
-      <c r="P27" s="15" t="n">
+      <c r="P27" s="15">
         <f t="shared" si="6"/>
         <v>109.39999999999999</v>
       </c>
-      <c r="Q27" s="15" t="n">
+      <c r="Q27" s="15">
         <f t="shared" si="7"/>
         <v>109.39999999999999</v>
       </c>
-      <c r="R27" s="15" t="n">
+      <c r="R27" s="15">
         <f t="shared" si="8"/>
-        <v>96.0</v>
-      </c>
-      <c r="S27" s="15" t="n">
+        <v>96</v>
+      </c>
+      <c r="S27" s="15">
         <f t="shared" si="9"/>
-        <v>96.0</v>
-      </c>
-      <c r="T27" s="15" t="n">
+        <v>96</v>
+      </c>
+      <c r="T27" s="15">
         <f t="shared" si="10"/>
         <v>116.33986928104576</v>
       </c>
-      <c r="U27" s="15" t="n">
+      <c r="U27" s="15">
         <f t="shared" si="11"/>
         <v>116.33986928104576</v>
       </c>
-      <c r="V27" s="15" t="n">
+      <c r="V27" s="15">
         <f t="shared" si="12"/>
         <v>116.33986928104576</v>
       </c>
-      <c r="W27" s="16" t="n">
+      <c r="W27" s="16">
         <f t="shared" si="13"/>
         <v>116.33986928104576</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>38</v>
       </c>
@@ -3445,78 +3423,78 @@
       <c r="E28" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="19" t="n">
+      <c r="F28" s="19">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
       <c r="G28" s="19">
         <v>1</v>
       </c>
-      <c r="H28" s="15" t="n">
+      <c r="H28" s="15">
         <f t="shared" si="15"/>
         <v>128.42465753424656</v>
       </c>
-      <c r="I28" s="15" t="n">
+      <c r="I28" s="15">
         <f t="shared" si="14"/>
         <v>128.42465753424656</v>
       </c>
       <c r="J28" s="15">
         <v>250</v>
       </c>
-      <c r="K28" s="15" t="n">
+      <c r="K28" s="15">
         <f t="shared" si="1"/>
-        <v>250.0</v>
-      </c>
-      <c r="L28" s="15" t="n">
+        <v>250</v>
+      </c>
+      <c r="L28" s="15">
         <f t="shared" si="2"/>
-        <v>290.0</v>
-      </c>
-      <c r="M28" s="15" t="n">
+        <v>290</v>
+      </c>
+      <c r="M28" s="15">
         <f t="shared" si="3"/>
-        <v>290.0</v>
-      </c>
-      <c r="N28" s="15" t="n">
+        <v>290</v>
+      </c>
+      <c r="N28" s="15">
         <f t="shared" si="4"/>
         <v>373.5</v>
       </c>
-      <c r="O28" s="15" t="n">
+      <c r="O28" s="15">
         <f t="shared" si="5"/>
         <v>373.5</v>
       </c>
-      <c r="P28" s="15" t="n">
+      <c r="P28" s="15">
         <f t="shared" si="6"/>
         <v>48.5</v>
       </c>
-      <c r="Q28" s="15" t="n">
+      <c r="Q28" s="15">
         <f t="shared" si="7"/>
         <v>48.5</v>
       </c>
-      <c r="R28" s="15" t="n">
+      <c r="R28" s="15">
         <f t="shared" si="8"/>
-        <v>40.0</v>
-      </c>
-      <c r="S28" s="15" t="n">
+        <v>40</v>
+      </c>
+      <c r="S28" s="15">
         <f t="shared" si="9"/>
-        <v>40.0</v>
-      </c>
-      <c r="T28" s="15" t="n">
+        <v>40</v>
+      </c>
+      <c r="T28" s="15">
         <f t="shared" si="10"/>
         <v>121.57534246575344</v>
       </c>
-      <c r="U28" s="15" t="n">
+      <c r="U28" s="15">
         <f t="shared" si="11"/>
         <v>121.57534246575344</v>
       </c>
-      <c r="V28" s="15" t="n">
+      <c r="V28" s="15">
         <f t="shared" si="12"/>
         <v>121.57534246575344</v>
       </c>
-      <c r="W28" s="16" t="n">
+      <c r="W28" s="16">
         <f t="shared" si="13"/>
         <v>121.57534246575344</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>39</v>
       </c>
@@ -3532,78 +3510,78 @@
       <c r="E29" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="19" t="n">
+      <c r="F29" s="19">
         <f>22950/18500</f>
         <v>1.2405405405405405</v>
       </c>
       <c r="G29" s="19">
         <v>1</v>
       </c>
-      <c r="H29" s="15" t="n">
+      <c r="H29" s="15">
         <f t="shared" si="15"/>
         <v>403.05010893246185</v>
       </c>
-      <c r="I29" s="15" t="n">
+      <c r="I29" s="15">
         <f t="shared" si="14"/>
         <v>403.05010893246185</v>
       </c>
       <c r="J29" s="15">
         <v>500</v>
       </c>
-      <c r="K29" s="15" t="n">
+      <c r="K29" s="15">
         <f t="shared" si="1"/>
-        <v>500.0</v>
-      </c>
-      <c r="L29" s="15" t="n">
+        <v>500</v>
+      </c>
+      <c r="L29" s="15">
         <f t="shared" si="2"/>
-        <v>580.0</v>
-      </c>
-      <c r="M29" s="15" t="n">
+        <v>580</v>
+      </c>
+      <c r="M29" s="15">
         <f t="shared" si="3"/>
-        <v>580.0</v>
-      </c>
-      <c r="N29" s="15" t="n">
+        <v>580</v>
+      </c>
+      <c r="N29" s="15">
         <f t="shared" si="4"/>
-        <v>707.0</v>
-      </c>
-      <c r="O29" s="15" t="n">
+        <v>707</v>
+      </c>
+      <c r="O29" s="15">
         <f t="shared" si="5"/>
-        <v>707.0</v>
-      </c>
-      <c r="P29" s="15" t="n">
+        <v>707</v>
+      </c>
+      <c r="P29" s="15">
         <f t="shared" si="6"/>
-        <v>92.0</v>
-      </c>
-      <c r="Q29" s="15" t="n">
+        <v>92</v>
+      </c>
+      <c r="Q29" s="15">
         <f t="shared" si="7"/>
-        <v>92.0</v>
-      </c>
-      <c r="R29" s="15" t="n">
+        <v>92</v>
+      </c>
+      <c r="R29" s="15">
         <f t="shared" si="8"/>
-        <v>80.0</v>
-      </c>
-      <c r="S29" s="15" t="n">
+        <v>80</v>
+      </c>
+      <c r="S29" s="15">
         <f t="shared" si="9"/>
-        <v>80.0</v>
-      </c>
-      <c r="T29" s="15" t="n">
+        <v>80</v>
+      </c>
+      <c r="T29" s="15">
         <f t="shared" si="10"/>
-        <v>96.94989106753815</v>
-      </c>
-      <c r="U29" s="15" t="n">
+        <v>96.949891067538147</v>
+      </c>
+      <c r="U29" s="15">
         <f t="shared" si="11"/>
-        <v>96.94989106753815</v>
-      </c>
-      <c r="V29" s="15" t="n">
+        <v>96.949891067538147</v>
+      </c>
+      <c r="V29" s="15">
         <f t="shared" si="12"/>
-        <v>96.94989106753815</v>
-      </c>
-      <c r="W29" s="16" t="n">
+        <v>96.949891067538147</v>
+      </c>
+      <c r="W29" s="16">
         <f t="shared" si="13"/>
-        <v>96.94989106753815</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+        <v>96.949891067538147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>61</v>
       </c>
@@ -3619,78 +3597,78 @@
       <c r="E30" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="19" t="n">
+      <c r="F30" s="19">
         <f>22950/18500</f>
         <v>1.2405405405405405</v>
       </c>
       <c r="G30" s="19">
         <v>1</v>
       </c>
-      <c r="H30" s="15" t="n">
+      <c r="H30" s="15">
         <f t="shared" si="15"/>
-        <v>967.3202614379085</v>
-      </c>
-      <c r="I30" s="15" t="n">
+        <v>967.32026143790847</v>
+      </c>
+      <c r="I30" s="15">
         <f t="shared" si="14"/>
-        <v>967.3202614379085</v>
+        <v>967.32026143790847</v>
       </c>
       <c r="J30" s="15">
         <v>1200</v>
       </c>
-      <c r="K30" s="15" t="n">
+      <c r="K30" s="15">
         <f t="shared" si="1"/>
-        <v>1200.0</v>
-      </c>
-      <c r="L30" s="15" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L30" s="15">
         <f t="shared" si="2"/>
-        <v>1392.0</v>
-      </c>
-      <c r="M30" s="15" t="n">
+        <v>1392</v>
+      </c>
+      <c r="M30" s="15">
         <f t="shared" si="3"/>
-        <v>1392.0</v>
-      </c>
-      <c r="N30" s="15" t="n">
+        <v>1392</v>
+      </c>
+      <c r="N30" s="15">
         <f t="shared" si="4"/>
         <v>1640.8</v>
       </c>
-      <c r="O30" s="15" t="n">
+      <c r="O30" s="15">
         <f t="shared" si="5"/>
         <v>1640.8</v>
       </c>
-      <c r="P30" s="15" t="n">
+      <c r="P30" s="15">
         <f t="shared" si="6"/>
         <v>213.79999999999998</v>
       </c>
-      <c r="Q30" s="15" t="n">
+      <c r="Q30" s="15">
         <f t="shared" si="7"/>
         <v>213.79999999999998</v>
       </c>
-      <c r="R30" s="15" t="n">
+      <c r="R30" s="15">
         <f t="shared" si="8"/>
-        <v>192.0</v>
-      </c>
-      <c r="S30" s="15" t="n">
+        <v>192</v>
+      </c>
+      <c r="S30" s="15">
         <f t="shared" si="9"/>
-        <v>192.0</v>
-      </c>
-      <c r="T30" s="15" t="n">
+        <v>192</v>
+      </c>
+      <c r="T30" s="15">
         <f t="shared" si="10"/>
         <v>232.67973856209153</v>
       </c>
-      <c r="U30" s="15" t="n">
+      <c r="U30" s="15">
         <f t="shared" si="11"/>
         <v>232.67973856209153</v>
       </c>
-      <c r="V30" s="15" t="n">
+      <c r="V30" s="15">
         <f t="shared" si="12"/>
         <v>232.67973856209153</v>
       </c>
-      <c r="W30" s="16" t="n">
+      <c r="W30" s="16">
         <f t="shared" si="13"/>
         <v>232.67973856209153</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="28" t="s">
         <v>63</v>
       </c>
@@ -3711,67 +3689,67 @@
       <c r="H31" s="15">
         <v>2500</v>
       </c>
-      <c r="I31" s="15" t="n">
+      <c r="I31" s="15">
         <f t="shared" si="14"/>
-        <v>2500.0</v>
+        <v>2500</v>
       </c>
       <c r="J31" s="15">
         <v>2500</v>
       </c>
-      <c r="K31" s="15" t="n">
+      <c r="K31" s="15">
         <f t="shared" si="1"/>
-        <v>2500.0</v>
-      </c>
-      <c r="L31" s="15" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L31" s="15">
         <f t="shared" si="2"/>
-        <v>2900.0</v>
-      </c>
-      <c r="M31" s="15" t="n">
+        <v>2900</v>
+      </c>
+      <c r="M31" s="15">
         <f t="shared" si="3"/>
-        <v>2900.0</v>
-      </c>
-      <c r="N31" s="15" t="n">
+        <v>2900</v>
+      </c>
+      <c r="N31" s="15">
         <f t="shared" si="4"/>
-        <v>3375.0</v>
-      </c>
-      <c r="O31" s="15" t="n">
+        <v>3375</v>
+      </c>
+      <c r="O31" s="15">
         <f t="shared" si="5"/>
-        <v>3375.0</v>
-      </c>
-      <c r="P31" s="15" t="n">
+        <v>3375</v>
+      </c>
+      <c r="P31" s="15">
         <f t="shared" si="6"/>
-        <v>440.0</v>
-      </c>
-      <c r="Q31" s="15" t="n">
+        <v>440</v>
+      </c>
+      <c r="Q31" s="15">
         <f t="shared" si="7"/>
-        <v>440.0</v>
-      </c>
-      <c r="R31" s="15" t="n">
+        <v>440</v>
+      </c>
+      <c r="R31" s="15">
         <f t="shared" si="8"/>
-        <v>400.0</v>
-      </c>
-      <c r="S31" s="15" t="n">
+        <v>400</v>
+      </c>
+      <c r="S31" s="15">
         <f t="shared" si="9"/>
-        <v>400.0</v>
-      </c>
-      <c r="T31" s="15" t="n">
+        <v>400</v>
+      </c>
+      <c r="T31" s="15">
         <f t="shared" si="10"/>
-        <v>0.0</v>
-      </c>
-      <c r="U31" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" s="15">
         <f t="shared" si="11"/>
-        <v>0.0</v>
-      </c>
-      <c r="V31" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" s="15">
         <f t="shared" si="12"/>
-        <v>0.0</v>
-      </c>
-      <c r="W31" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" s="16">
         <f t="shared" si="13"/>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>40</v>
       </c>
@@ -3787,215 +3765,153 @@
       <c r="E32" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="19" t="n">
+      <c r="F32" s="19">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
       <c r="G32" s="19">
         <v>1</v>
       </c>
-      <c r="H32" s="15" t="n">
+      <c r="H32" s="15">
         <f>J32/F32</f>
-        <v>1130.13698630137</v>
-      </c>
-      <c r="I32" s="15" t="n">
+        <v>1130.1369863013699</v>
+      </c>
+      <c r="I32" s="15">
         <f t="shared" si="14"/>
-        <v>1130.13698630137</v>
+        <v>1130.1369863013699</v>
       </c>
       <c r="J32" s="15">
         <v>2200</v>
       </c>
-      <c r="K32" s="15" t="n">
+      <c r="K32" s="15">
         <f t="shared" si="1"/>
-        <v>2200.0</v>
-      </c>
-      <c r="L32" s="15" t="n">
+        <v>2200</v>
+      </c>
+      <c r="L32" s="15">
         <f t="shared" si="2"/>
-        <v>2552.0</v>
-      </c>
-      <c r="M32" s="15" t="n">
+        <v>2552</v>
+      </c>
+      <c r="M32" s="15">
         <f t="shared" si="3"/>
-        <v>2552.0</v>
-      </c>
-      <c r="N32" s="15" t="n">
+        <v>2552</v>
+      </c>
+      <c r="N32" s="15">
         <f t="shared" si="4"/>
         <v>2974.8</v>
       </c>
-      <c r="O32" s="15" t="n">
+      <c r="O32" s="15">
         <f t="shared" si="5"/>
         <v>2974.8</v>
       </c>
-      <c r="P32" s="15" t="n">
+      <c r="P32" s="15">
         <f t="shared" si="6"/>
         <v>387.8</v>
       </c>
-      <c r="Q32" s="15" t="n">
+      <c r="Q32" s="15">
         <f t="shared" si="7"/>
         <v>387.8</v>
       </c>
-      <c r="R32" s="15" t="n">
+      <c r="R32" s="15">
         <f t="shared" si="8"/>
-        <v>352.0</v>
-      </c>
-      <c r="S32" s="15" t="n">
+        <v>352</v>
+      </c>
+      <c r="S32" s="15">
         <f t="shared" si="9"/>
-        <v>352.0</v>
-      </c>
-      <c r="T32" s="15" t="n">
+        <v>352</v>
+      </c>
+      <c r="T32" s="15">
         <f t="shared" si="10"/>
-        <v>1069.86301369863</v>
-      </c>
-      <c r="U32" s="15" t="n">
+        <v>1069.8630136986301</v>
+      </c>
+      <c r="U32" s="15">
         <f t="shared" si="11"/>
-        <v>1069.86301369863</v>
-      </c>
-      <c r="V32" s="15" t="n">
+        <v>1069.8630136986301</v>
+      </c>
+      <c r="V32" s="15">
         <f t="shared" si="12"/>
         <v>1069.8630136986303</v>
       </c>
-      <c r="W32" s="16" t="n">
+      <c r="W32" s="16">
         <f t="shared" si="13"/>
         <v>1069.8630136986303</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="18">
-        <v>43853</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F33" s="19" t="n">
-        <f>22950/18500</f>
-        <v>1.2405405405405405</v>
-      </c>
-      <c r="G33" s="19">
-        <v>1</v>
-      </c>
-      <c r="H33" s="15" t="n">
-        <f>J33/F33</f>
-        <v>403.05010893246185</v>
-      </c>
-      <c r="I33" s="15" t="n">
-        <f t="shared" si="14"/>
-        <v>403.05010893246185</v>
-      </c>
-      <c r="J33" s="15">
-        <v>500</v>
-      </c>
-      <c r="K33" s="15" t="n">
-        <f t="shared" si="1"/>
-        <v>500.0</v>
-      </c>
-      <c r="L33" s="15" t="n">
-        <f t="shared" si="2"/>
-        <v>580.0</v>
-      </c>
-      <c r="M33" s="15" t="n">
-        <f t="shared" si="3"/>
-        <v>580.0</v>
-      </c>
-      <c r="N33" s="15" t="n">
-        <f t="shared" si="4"/>
-        <v>707.0</v>
-      </c>
-      <c r="O33" s="15" t="n">
-        <f t="shared" si="5"/>
-        <v>707.0</v>
-      </c>
-      <c r="P33" s="15" t="n">
-        <f t="shared" si="6"/>
-        <v>92.0</v>
-      </c>
-      <c r="Q33" s="15" t="n">
-        <f t="shared" si="7"/>
-        <v>92.0</v>
-      </c>
-      <c r="R33" s="15" t="n">
-        <f t="shared" si="8"/>
-        <v>80.0</v>
-      </c>
-      <c r="S33" s="15" t="n">
-        <f t="shared" si="9"/>
-        <v>80.0</v>
-      </c>
-      <c r="T33" s="15" t="n">
-        <f t="shared" si="10"/>
-        <v>96.94989106753815</v>
-      </c>
-      <c r="U33" s="15" t="n">
-        <f t="shared" si="11"/>
-        <v>96.94989106753815</v>
-      </c>
-      <c r="V33" s="15" t="n">
-        <f t="shared" si="12"/>
-        <v>96.94989106753815</v>
-      </c>
-      <c r="W33" s="16" t="n">
-        <f t="shared" si="13"/>
-        <v>96.94989106753815</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="23"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="37" t="n">
-        <f>SUM(I2:I33)</f>
-        <v>22789.63445638225</v>
-      </c>
-      <c r="J34" s="26"/>
-      <c r="K34" s="38" t="n">
-        <f>SUM(K2:K33)</f>
-        <v>33920.0</v>
-      </c>
-      <c r="L34" s="26"/>
-      <c r="M34" s="39" t="n">
-        <f>SUM(M2:M33)</f>
-        <v>39347.2</v>
-      </c>
-      <c r="N34" s="26"/>
-      <c r="O34" s="40" t="n">
-        <f>SUM(O2:O33)</f>
-        <v>57249.27999999999</v>
-      </c>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="41" t="n">
-        <f>SUM(Q2:Q33)</f>
+    <row r="33" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="37">
+        <f>SUM(I2:I32)</f>
+        <v>22789.634456382249</v>
+      </c>
+      <c r="J33" s="26"/>
+      <c r="K33" s="38">
+        <f>SUM(K2:K32)</f>
+        <v>33920</v>
+      </c>
+      <c r="L33" s="26"/>
+      <c r="M33" s="39">
+        <f>SUM(M2:M32)</f>
+        <v>39347.199999999997</v>
+      </c>
+      <c r="N33" s="26"/>
+      <c r="O33" s="40">
+        <f>SUM(O2:O32)</f>
+        <v>57249.279999999992</v>
+      </c>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="41">
+        <f>SUM(Q2:Q32)</f>
         <v>7402.079999999999</v>
       </c>
-      <c r="R34" s="26"/>
-      <c r="S34" s="42" t="n">
-        <f>SUM(S2:S33)</f>
+      <c r="R33" s="26"/>
+      <c r="S33" s="42">
+        <f>SUM(S2:S32)</f>
         <v>5427.2</v>
       </c>
-      <c r="T34" s="26"/>
-      <c r="U34" s="43" t="n">
-        <f>SUM(U2:U33)</f>
-        <v>11130.36554361775</v>
-      </c>
-      <c r="V34" s="26"/>
-      <c r="W34" s="44" t="n">
-        <f>SUM(W2:W33)</f>
-        <v>11130.36554361775</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="1"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="43">
+        <f>SUM(U2:U32)</f>
+        <v>11130.365543617751</v>
+      </c>
+      <c r="V33" s="26"/>
+      <c r="W33" s="44">
+        <f>SUM(W2:W32)</f>
+        <v>11130.365543617751</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="5"/>
+    </row>
+    <row r="35" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="3"/>
@@ -4016,10 +3932,10 @@
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="5"/>
-    </row>
-    <row r="36" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V35" s="3"/>
+      <c r="W35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -4044,7 +3960,7 @@
       <c r="V36" s="3"/>
       <c r="W36" s="2"/>
     </row>
-    <row r="37" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -4069,7 +3985,7 @@
       <c r="V37" s="3"/>
       <c r="W37" s="2"/>
     </row>
-    <row r="38" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -4094,7 +4010,7 @@
       <c r="V38" s="3"/>
       <c r="W38" s="2"/>
     </row>
-    <row r="39" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -4119,7 +4035,7 @@
       <c r="V39" s="3"/>
       <c r="W39" s="2"/>
     </row>
-    <row r="40" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -4144,7 +4060,7 @@
       <c r="V40" s="3"/>
       <c r="W40" s="2"/>
     </row>
-    <row r="41" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -4169,7 +4085,7 @@
       <c r="V41" s="3"/>
       <c r="W41" s="2"/>
     </row>
-    <row r="42" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -4194,7 +4110,7 @@
       <c r="V42" s="3"/>
       <c r="W42" s="2"/>
     </row>
-    <row r="43" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -4219,7 +4135,7 @@
       <c r="V43" s="3"/>
       <c r="W43" s="2"/>
     </row>
-    <row r="44" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -4244,7 +4160,7 @@
       <c r="V44" s="3"/>
       <c r="W44" s="2"/>
     </row>
-    <row r="45" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -4269,7 +4185,7 @@
       <c r="V45" s="3"/>
       <c r="W45" s="2"/>
     </row>
-    <row r="46" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -4294,7 +4210,7 @@
       <c r="V46" s="3"/>
       <c r="W46" s="2"/>
     </row>
-    <row r="47" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -4319,7 +4235,7 @@
       <c r="V47" s="3"/>
       <c r="W47" s="2"/>
     </row>
-    <row r="48" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -4344,7 +4260,7 @@
       <c r="V48" s="3"/>
       <c r="W48" s="2"/>
     </row>
-    <row r="49" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -4369,7 +4285,7 @@
       <c r="V49" s="3"/>
       <c r="W49" s="2"/>
     </row>
-    <row r="50" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -4394,7 +4310,7 @@
       <c r="V50" s="3"/>
       <c r="W50" s="2"/>
     </row>
-    <row r="51" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -4419,7 +4335,7 @@
       <c r="V51" s="3"/>
       <c r="W51" s="2"/>
     </row>
-    <row r="52" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -4444,7 +4360,7 @@
       <c r="V52" s="3"/>
       <c r="W52" s="2"/>
     </row>
-    <row r="53" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -4469,7 +4385,7 @@
       <c r="V53" s="3"/>
       <c r="W53" s="2"/>
     </row>
-    <row r="54" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -4494,7 +4410,7 @@
       <c r="V54" s="3"/>
       <c r="W54" s="2"/>
     </row>
-    <row r="55" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -4519,7 +4435,7 @@
       <c r="V55" s="3"/>
       <c r="W55" s="2"/>
     </row>
-    <row r="56" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -4544,7 +4460,7 @@
       <c r="V56" s="3"/>
       <c r="W56" s="2"/>
     </row>
-    <row r="57" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -4569,7 +4485,7 @@
       <c r="V57" s="3"/>
       <c r="W57" s="2"/>
     </row>
-    <row r="58" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -4594,7 +4510,7 @@
       <c r="V58" s="3"/>
       <c r="W58" s="2"/>
     </row>
-    <row r="59" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -4619,7 +4535,7 @@
       <c r="V59" s="3"/>
       <c r="W59" s="2"/>
     </row>
-    <row r="60" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -4644,7 +4560,7 @@
       <c r="V60" s="3"/>
       <c r="W60" s="2"/>
     </row>
-    <row r="61" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -4669,7 +4585,7 @@
       <c r="V61" s="3"/>
       <c r="W61" s="2"/>
     </row>
-    <row r="62" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -4694,7 +4610,7 @@
       <c r="V62" s="3"/>
       <c r="W62" s="2"/>
     </row>
-    <row r="63" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -4719,7 +4635,7 @@
       <c r="V63" s="3"/>
       <c r="W63" s="2"/>
     </row>
-    <row r="64" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -4744,7 +4660,7 @@
       <c r="V64" s="3"/>
       <c r="W64" s="2"/>
     </row>
-    <row r="65" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -4769,7 +4685,7 @@
       <c r="V65" s="3"/>
       <c r="W65" s="2"/>
     </row>
-    <row r="66" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -4794,7 +4710,7 @@
       <c r="V66" s="3"/>
       <c r="W66" s="2"/>
     </row>
-    <row r="67" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -4819,7 +4735,7 @@
       <c r="V67" s="3"/>
       <c r="W67" s="2"/>
     </row>
-    <row r="68" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -4844,7 +4760,7 @@
       <c r="V68" s="3"/>
       <c r="W68" s="2"/>
     </row>
-    <row r="69" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -4869,7 +4785,7 @@
       <c r="V69" s="3"/>
       <c r="W69" s="2"/>
     </row>
-    <row r="70" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -4894,7 +4810,7 @@
       <c r="V70" s="3"/>
       <c r="W70" s="2"/>
     </row>
-    <row r="71" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4919,7 +4835,7 @@
       <c r="V71" s="3"/>
       <c r="W71" s="2"/>
     </row>
-    <row r="72" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4944,7 +4860,7 @@
       <c r="V72" s="3"/>
       <c r="W72" s="2"/>
     </row>
-    <row r="73" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4969,7 +4885,7 @@
       <c r="V73" s="3"/>
       <c r="W73" s="2"/>
     </row>
-    <row r="74" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4994,7 +4910,7 @@
       <c r="V74" s="3"/>
       <c r="W74" s="2"/>
     </row>
-    <row r="75" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -5019,7 +4935,7 @@
       <c r="V75" s="3"/>
       <c r="W75" s="2"/>
     </row>
-    <row r="76" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -5044,7 +4960,7 @@
       <c r="V76" s="3"/>
       <c r="W76" s="2"/>
     </row>
-    <row r="77" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -5069,7 +4985,7 @@
       <c r="V77" s="3"/>
       <c r="W77" s="2"/>
     </row>
-    <row r="78" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -5094,7 +5010,7 @@
       <c r="V78" s="3"/>
       <c r="W78" s="2"/>
     </row>
-    <row r="79" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -5119,7 +5035,7 @@
       <c r="V79" s="3"/>
       <c r="W79" s="2"/>
     </row>
-    <row r="80" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -5144,7 +5060,7 @@
       <c r="V80" s="3"/>
       <c r="W80" s="2"/>
     </row>
-    <row r="81" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -5169,14 +5085,13 @@
       <c r="V81" s="3"/>
       <c r="W81" s="2"/>
     </row>
-    <row r="82" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="4"/>
@@ -5194,13 +5109,14 @@
       <c r="V82" s="3"/>
       <c r="W82" s="2"/>
     </row>
-    <row r="83" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="4"/>
@@ -5218,7 +5134,7 @@
       <c r="V83" s="3"/>
       <c r="W83" s="2"/>
     </row>
-    <row r="84" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -5243,7 +5159,7 @@
       <c r="V84" s="3"/>
       <c r="W84" s="2"/>
     </row>
-    <row r="85" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -5268,7 +5184,7 @@
       <c r="V85" s="3"/>
       <c r="W85" s="2"/>
     </row>
-    <row r="86" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -5293,7 +5209,7 @@
       <c r="V86" s="3"/>
       <c r="W86" s="2"/>
     </row>
-    <row r="87" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -5318,7 +5234,7 @@
       <c r="V87" s="3"/>
       <c r="W87" s="2"/>
     </row>
-    <row r="88" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -5343,7 +5259,7 @@
       <c r="V88" s="3"/>
       <c r="W88" s="2"/>
     </row>
-    <row r="89" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -5368,7 +5284,7 @@
       <c r="V89" s="3"/>
       <c r="W89" s="2"/>
     </row>
-    <row r="90" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -5393,7 +5309,7 @@
       <c r="V90" s="3"/>
       <c r="W90" s="2"/>
     </row>
-    <row r="91" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -5418,7 +5334,7 @@
       <c r="V91" s="3"/>
       <c r="W91" s="2"/>
     </row>
-    <row r="92" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -5443,7 +5359,7 @@
       <c r="V92" s="3"/>
       <c r="W92" s="2"/>
     </row>
-    <row r="93" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -5468,7 +5384,7 @@
       <c r="V93" s="3"/>
       <c r="W93" s="2"/>
     </row>
-    <row r="94" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -5493,7 +5409,7 @@
       <c r="V94" s="3"/>
       <c r="W94" s="2"/>
     </row>
-    <row r="95" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -5518,7 +5434,7 @@
       <c r="V95" s="3"/>
       <c r="W95" s="2"/>
     </row>
-    <row r="96" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -5543,7 +5459,7 @@
       <c r="V96" s="3"/>
       <c r="W96" s="2"/>
     </row>
-    <row r="97" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -5568,7 +5484,7 @@
       <c r="V97" s="3"/>
       <c r="W97" s="2"/>
     </row>
-    <row r="98" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -5593,7 +5509,7 @@
       <c r="V98" s="3"/>
       <c r="W98" s="2"/>
     </row>
-    <row r="99" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -5618,7 +5534,7 @@
       <c r="V99" s="3"/>
       <c r="W99" s="2"/>
     </row>
-    <row r="100" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -5643,7 +5559,7 @@
       <c r="V100" s="3"/>
       <c r="W100" s="2"/>
     </row>
-    <row r="101" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -5668,7 +5584,7 @@
       <c r="V101" s="3"/>
       <c r="W101" s="2"/>
     </row>
-    <row r="102" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -5693,7 +5609,7 @@
       <c r="V102" s="3"/>
       <c r="W102" s="2"/>
     </row>
-    <row r="103" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -5718,7 +5634,7 @@
       <c r="V103" s="3"/>
       <c r="W103" s="2"/>
     </row>
-    <row r="104" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -5743,7 +5659,7 @@
       <c r="V104" s="3"/>
       <c r="W104" s="2"/>
     </row>
-    <row r="105" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -5768,7 +5684,7 @@
       <c r="V105" s="3"/>
       <c r="W105" s="2"/>
     </row>
-    <row r="106" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -5793,7 +5709,7 @@
       <c r="V106" s="3"/>
       <c r="W106" s="2"/>
     </row>
-    <row r="107" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -5818,7 +5734,7 @@
       <c r="V107" s="3"/>
       <c r="W107" s="2"/>
     </row>
-    <row r="108" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -5843,7 +5759,7 @@
       <c r="V108" s="3"/>
       <c r="W108" s="2"/>
     </row>
-    <row r="109" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -5868,7 +5784,7 @@
       <c r="V109" s="3"/>
       <c r="W109" s="2"/>
     </row>
-    <row r="110" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -5893,7 +5809,7 @@
       <c r="V110" s="3"/>
       <c r="W110" s="2"/>
     </row>
-    <row r="111" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -5918,7 +5834,7 @@
       <c r="V111" s="3"/>
       <c r="W111" s="2"/>
     </row>
-    <row r="112" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -5943,7 +5859,7 @@
       <c r="V112" s="3"/>
       <c r="W112" s="2"/>
     </row>
-    <row r="113" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -5968,7 +5884,7 @@
       <c r="V113" s="3"/>
       <c r="W113" s="2"/>
     </row>
-    <row r="114" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -5993,7 +5909,7 @@
       <c r="V114" s="3"/>
       <c r="W114" s="2"/>
     </row>
-    <row r="115" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -6018,7 +5934,7 @@
       <c r="V115" s="3"/>
       <c r="W115" s="2"/>
     </row>
-    <row r="116" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -6043,7 +5959,7 @@
       <c r="V116" s="3"/>
       <c r="W116" s="2"/>
     </row>
-    <row r="117" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -6068,7 +5984,7 @@
       <c r="V117" s="3"/>
       <c r="W117" s="2"/>
     </row>
-    <row r="118" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -6093,7 +6009,7 @@
       <c r="V118" s="3"/>
       <c r="W118" s="2"/>
     </row>
-    <row r="119" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -6118,7 +6034,7 @@
       <c r="V119" s="3"/>
       <c r="W119" s="2"/>
     </row>
-    <row r="120" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -6143,7 +6059,7 @@
       <c r="V120" s="3"/>
       <c r="W120" s="2"/>
     </row>
-    <row r="121" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -6168,7 +6084,7 @@
       <c r="V121" s="3"/>
       <c r="W121" s="2"/>
     </row>
-    <row r="122" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -6193,7 +6109,7 @@
       <c r="V122" s="3"/>
       <c r="W122" s="2"/>
     </row>
-    <row r="123" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -6218,7 +6134,7 @@
       <c r="V123" s="3"/>
       <c r="W123" s="2"/>
     </row>
-    <row r="124" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -6243,7 +6159,7 @@
       <c r="V124" s="3"/>
       <c r="W124" s="2"/>
     </row>
-    <row r="125" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -6268,7 +6184,7 @@
       <c r="V125" s="3"/>
       <c r="W125" s="2"/>
     </row>
-    <row r="126" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -6293,7 +6209,7 @@
       <c r="V126" s="3"/>
       <c r="W126" s="2"/>
     </row>
-    <row r="127" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -6318,7 +6234,7 @@
       <c r="V127" s="3"/>
       <c r="W127" s="2"/>
     </row>
-    <row r="128" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -6343,7 +6259,7 @@
       <c r="V128" s="3"/>
       <c r="W128" s="2"/>
     </row>
-    <row r="129" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -6368,7 +6284,7 @@
       <c r="V129" s="3"/>
       <c r="W129" s="2"/>
     </row>
-    <row r="130" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -6393,7 +6309,7 @@
       <c r="V130" s="3"/>
       <c r="W130" s="2"/>
     </row>
-    <row r="131" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -6418,7 +6334,7 @@
       <c r="V131" s="3"/>
       <c r="W131" s="2"/>
     </row>
-    <row r="132" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -6443,7 +6359,7 @@
       <c r="V132" s="3"/>
       <c r="W132" s="2"/>
     </row>
-    <row r="133" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -6468,7 +6384,7 @@
       <c r="V133" s="3"/>
       <c r="W133" s="2"/>
     </row>
-    <row r="134" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -6493,7 +6409,7 @@
       <c r="V134" s="3"/>
       <c r="W134" s="2"/>
     </row>
-    <row r="135" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -6518,7 +6434,7 @@
       <c r="V135" s="3"/>
       <c r="W135" s="2"/>
     </row>
-    <row r="136" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -6543,7 +6459,7 @@
       <c r="V136" s="3"/>
       <c r="W136" s="2"/>
     </row>
-    <row r="137" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -6568,7 +6484,7 @@
       <c r="V137" s="3"/>
       <c r="W137" s="2"/>
     </row>
-    <row r="138" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -6593,7 +6509,7 @@
       <c r="V138" s="3"/>
       <c r="W138" s="2"/>
     </row>
-    <row r="139" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -6618,7 +6534,7 @@
       <c r="V139" s="3"/>
       <c r="W139" s="2"/>
     </row>
-    <row r="140" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -6643,7 +6559,7 @@
       <c r="V140" s="3"/>
       <c r="W140" s="2"/>
     </row>
-    <row r="141" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -6668,7 +6584,7 @@
       <c r="V141" s="3"/>
       <c r="W141" s="2"/>
     </row>
-    <row r="142" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -6693,7 +6609,7 @@
       <c r="V142" s="3"/>
       <c r="W142" s="2"/>
     </row>
-    <row r="143" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -6718,7 +6634,7 @@
       <c r="V143" s="3"/>
       <c r="W143" s="2"/>
     </row>
-    <row r="144" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -6743,7 +6659,7 @@
       <c r="V144" s="3"/>
       <c r="W144" s="2"/>
     </row>
-    <row r="145" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -6768,7 +6684,7 @@
       <c r="V145" s="3"/>
       <c r="W145" s="2"/>
     </row>
-    <row r="146" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -6793,7 +6709,7 @@
       <c r="V146" s="3"/>
       <c r="W146" s="2"/>
     </row>
-    <row r="147" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -6818,7 +6734,7 @@
       <c r="V147" s="3"/>
       <c r="W147" s="2"/>
     </row>
-    <row r="148" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -6843,7 +6759,7 @@
       <c r="V148" s="3"/>
       <c r="W148" s="2"/>
     </row>
-    <row r="149" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -6868,7 +6784,7 @@
       <c r="V149" s="3"/>
       <c r="W149" s="2"/>
     </row>
-    <row r="150" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -6893,7 +6809,7 @@
       <c r="V150" s="3"/>
       <c r="W150" s="2"/>
     </row>
-    <row r="151" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -6918,7 +6834,7 @@
       <c r="V151" s="3"/>
       <c r="W151" s="2"/>
     </row>
-    <row r="152" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -6943,7 +6859,7 @@
       <c r="V152" s="3"/>
       <c r="W152" s="2"/>
     </row>
-    <row r="153" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -6968,7 +6884,7 @@
       <c r="V153" s="3"/>
       <c r="W153" s="2"/>
     </row>
-    <row r="154" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -6993,7 +6909,7 @@
       <c r="V154" s="3"/>
       <c r="W154" s="2"/>
     </row>
-    <row r="155" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -7018,7 +6934,7 @@
       <c r="V155" s="3"/>
       <c r="W155" s="2"/>
     </row>
-    <row r="156" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -7043,7 +6959,7 @@
       <c r="V156" s="3"/>
       <c r="W156" s="2"/>
     </row>
-    <row r="157" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -7068,7 +6984,7 @@
       <c r="V157" s="3"/>
       <c r="W157" s="2"/>
     </row>
-    <row r="158" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -7093,7 +7009,7 @@
       <c r="V158" s="3"/>
       <c r="W158" s="2"/>
     </row>
-    <row r="159" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -7118,7 +7034,7 @@
       <c r="V159" s="3"/>
       <c r="W159" s="2"/>
     </row>
-    <row r="160" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -7143,7 +7059,7 @@
       <c r="V160" s="3"/>
       <c r="W160" s="2"/>
     </row>
-    <row r="161" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -7168,7 +7084,7 @@
       <c r="V161" s="3"/>
       <c r="W161" s="2"/>
     </row>
-    <row r="162" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -7193,7 +7109,7 @@
       <c r="V162" s="3"/>
       <c r="W162" s="2"/>
     </row>
-    <row r="163" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -7218,7 +7134,7 @@
       <c r="V163" s="3"/>
       <c r="W163" s="2"/>
     </row>
-    <row r="164" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -7243,7 +7159,7 @@
       <c r="V164" s="3"/>
       <c r="W164" s="2"/>
     </row>
-    <row r="165" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -7268,7 +7184,7 @@
       <c r="V165" s="3"/>
       <c r="W165" s="2"/>
     </row>
-    <row r="166" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -7293,7 +7209,7 @@
       <c r="V166" s="3"/>
       <c r="W166" s="2"/>
     </row>
-    <row r="167" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -7318,7 +7234,7 @@
       <c r="V167" s="3"/>
       <c r="W167" s="2"/>
     </row>
-    <row r="168" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -7343,7 +7259,7 @@
       <c r="V168" s="3"/>
       <c r="W168" s="2"/>
     </row>
-    <row r="169" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -7368,7 +7284,7 @@
       <c r="V169" s="3"/>
       <c r="W169" s="2"/>
     </row>
-    <row r="170" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -7393,7 +7309,7 @@
       <c r="V170" s="3"/>
       <c r="W170" s="2"/>
     </row>
-    <row r="171" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -7418,7 +7334,7 @@
       <c r="V171" s="3"/>
       <c r="W171" s="2"/>
     </row>
-    <row r="172" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -7443,7 +7359,7 @@
       <c r="V172" s="3"/>
       <c r="W172" s="2"/>
     </row>
-    <row r="173" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -7468,7 +7384,7 @@
       <c r="V173" s="3"/>
       <c r="W173" s="2"/>
     </row>
-    <row r="174" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -7493,7 +7409,7 @@
       <c r="V174" s="3"/>
       <c r="W174" s="2"/>
     </row>
-    <row r="175" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -7518,7 +7434,7 @@
       <c r="V175" s="3"/>
       <c r="W175" s="2"/>
     </row>
-    <row r="176" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -7543,7 +7459,7 @@
       <c r="V176" s="3"/>
       <c r="W176" s="2"/>
     </row>
-    <row r="177" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -7568,7 +7484,7 @@
       <c r="V177" s="3"/>
       <c r="W177" s="2"/>
     </row>
-    <row r="178" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -7593,7 +7509,7 @@
       <c r="V178" s="3"/>
       <c r="W178" s="2"/>
     </row>
-    <row r="179" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -7618,7 +7534,7 @@
       <c r="V179" s="3"/>
       <c r="W179" s="2"/>
     </row>
-    <row r="180" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -7643,7 +7559,7 @@
       <c r="V180" s="3"/>
       <c r="W180" s="2"/>
     </row>
-    <row r="181" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -7668,7 +7584,7 @@
       <c r="V181" s="3"/>
       <c r="W181" s="2"/>
     </row>
-    <row r="182" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -7693,7 +7609,7 @@
       <c r="V182" s="3"/>
       <c r="W182" s="2"/>
     </row>
-    <row r="183" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -7718,7 +7634,7 @@
       <c r="V183" s="3"/>
       <c r="W183" s="2"/>
     </row>
-    <row r="184" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -7743,7 +7659,7 @@
       <c r="V184" s="3"/>
       <c r="W184" s="2"/>
     </row>
-    <row r="185" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -7768,7 +7684,7 @@
       <c r="V185" s="3"/>
       <c r="W185" s="2"/>
     </row>
-    <row r="186" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -7793,7 +7709,7 @@
       <c r="V186" s="3"/>
       <c r="W186" s="2"/>
     </row>
-    <row r="187" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -7818,7 +7734,7 @@
       <c r="V187" s="3"/>
       <c r="W187" s="2"/>
     </row>
-    <row r="188" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -7843,7 +7759,7 @@
       <c r="V188" s="3"/>
       <c r="W188" s="2"/>
     </row>
-    <row r="189" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -7868,7 +7784,7 @@
       <c r="V189" s="3"/>
       <c r="W189" s="2"/>
     </row>
-    <row r="190" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -7893,7 +7809,7 @@
       <c r="V190" s="3"/>
       <c r="W190" s="2"/>
     </row>
-    <row r="191" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -7918,7 +7834,7 @@
       <c r="V191" s="3"/>
       <c r="W191" s="2"/>
     </row>
-    <row r="192" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -7943,7 +7859,7 @@
       <c r="V192" s="3"/>
       <c r="W192" s="2"/>
     </row>
-    <row r="193" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -7968,7 +7884,7 @@
       <c r="V193" s="3"/>
       <c r="W193" s="2"/>
     </row>
-    <row r="194" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -7993,45 +7909,20 @@
       <c r="V194" s="3"/>
       <c r="W194" s="2"/>
     </row>
-    <row r="195" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A195" s="3"/>
-      <c r="B195" s="2"/>
-      <c r="C195" s="2"/>
-      <c r="D195" s="3"/>
-      <c r="E195" s="3"/>
-      <c r="F195" s="3"/>
-      <c r="G195" s="3"/>
-      <c r="H195" s="3"/>
-      <c r="I195" s="3"/>
-      <c r="J195" s="4"/>
-      <c r="K195" s="4"/>
-      <c r="L195" s="4"/>
-      <c r="M195" s="4"/>
-      <c r="N195" s="4"/>
-      <c r="O195" s="4"/>
-      <c r="P195" s="4"/>
-      <c r="Q195" s="4"/>
-      <c r="R195" s="4"/>
-      <c r="S195" s="4"/>
-      <c r="T195" s="4"/>
-      <c r="U195" s="4"/>
-      <c r="V195" s="3"/>
-      <c r="W195" s="2"/>
-    </row>
-    <row r="196" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="197" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="198" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="199" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="200" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="201" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="202" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="203" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="204" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="205" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="206" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="207" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="208" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="209" ht="45" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="195" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W33">
     <sortCondition ref="A2"/>

--- a/JavaApplication19/src/excel/Inventario.xlsx
+++ b/JavaApplication19/src/excel/Inventario.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Desarrollo\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="104">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -303,6 +303,45 @@
   </si>
   <si>
     <t>PRECIO BASE UNIDAD</t>
+  </si>
+  <si>
+    <t>BOCINA JBL</t>
+  </si>
+  <si>
+    <t>BOCINA QUE JALA MACIZO</t>
+  </si>
+  <si>
+    <t>30  julio 20</t>
+  </si>
+  <si>
+    <t>Nuevo</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>2500000.0</t>
+  </si>
+  <si>
+    <t>750000</t>
+  </si>
+  <si>
+    <t>3750000.0</t>
+  </si>
+  <si>
+    <t>870000.0</t>
+  </si>
+  <si>
+    <t>4350000.0</t>
   </si>
 </sst>
 </file>
@@ -312,7 +351,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -439,8 +478,152 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -531,8 +714,18 @@
         <fgColor rgb="FF22B473"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="EEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="22B473"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -583,12 +776,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -718,6 +929,78 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1133,9 +1416,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.46484375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="40.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="23" width="20.6640625" customWidth="1" collapsed="1"/>
-    <col min="24" max="29" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
+    <col min="3" max="23" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="24" max="29" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -1207,7 +1490,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.5">
       <c r="A2" s="12" t="s">
         <v>43</v>
       </c>
@@ -1228,67 +1511,67 @@
       <c r="H2" s="15">
         <v>200</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="15" t="n">
         <f t="shared" ref="I2:I9" si="0">H2*G2</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J2" s="15">
         <v>200</v>
       </c>
-      <c r="K2" s="15">
+      <c r="K2" s="15" t="n">
         <f t="shared" ref="K2:K33" si="1">J2*G2</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="L2" s="15" t="n">
         <f t="shared" ref="L2:L33" si="2">J2+R2</f>
-        <v>232</v>
-      </c>
-      <c r="M2" s="15">
+        <v>232.0</v>
+      </c>
+      <c r="M2" s="15" t="n">
         <f t="shared" ref="M2:M33" si="3">L2*G2</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="N2" s="15" t="n">
         <f t="shared" ref="N2:N33" si="4">J2+R2+P2+35</f>
         <v>306.8</v>
       </c>
-      <c r="O2" s="15">
+      <c r="O2" s="15" t="n">
         <f t="shared" ref="O2:O33" si="5">N2*G2</f>
-        <v>0</v>
-      </c>
-      <c r="P2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="P2" s="15" t="n">
         <f t="shared" ref="P2:P33" si="6">(L2*0.15)+5</f>
-        <v>39.799999999999997</v>
-      </c>
-      <c r="Q2" s="15">
+        <v>39.8</v>
+      </c>
+      <c r="Q2" s="15" t="n">
         <f t="shared" ref="Q2:Q33" si="7">P2*G2</f>
-        <v>0</v>
-      </c>
-      <c r="R2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="R2" s="15" t="n">
         <f t="shared" ref="R2:R33" si="8">J2*0.16</f>
-        <v>32</v>
-      </c>
-      <c r="S2" s="15">
+        <v>32.0</v>
+      </c>
+      <c r="S2" s="15" t="n">
         <f t="shared" ref="S2:S33" si="9">R2*G2</f>
-        <v>0</v>
-      </c>
-      <c r="T2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="T2" s="15" t="n">
         <f t="shared" ref="T2:T33" si="10">L2-H2-R2</f>
-        <v>0</v>
-      </c>
-      <c r="U2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="U2" s="15" t="n">
         <f t="shared" ref="U2:U33" si="11">T2*G2</f>
-        <v>0</v>
-      </c>
-      <c r="V2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V2" s="15" t="n">
         <f t="shared" ref="V2:V33" si="12">N2-H2-P2-R2-35</f>
-        <v>0</v>
-      </c>
-      <c r="W2" s="16">
+        <v>1.4210854715202004E-14</v>
+      </c>
+      <c r="W2" s="16" t="n">
         <f t="shared" ref="W2:W33" si="13">V2*G2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.5">
       <c r="A3" s="12" t="s">
         <v>20</v>
       </c>
@@ -1309,67 +1592,67 @@
       <c r="H3" s="15">
         <v>380</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="15" t="n">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J3" s="15">
         <v>380</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="L3" s="15" t="n">
         <f t="shared" si="2"/>
         <v>440.8</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="N3" s="15" t="n">
         <f t="shared" si="4"/>
-        <v>546.92000000000007</v>
-      </c>
-      <c r="O3" s="15">
+        <v>546.9200000000001</v>
+      </c>
+      <c r="O3" s="15" t="n">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="P3" s="15" t="n">
         <f t="shared" si="6"/>
         <v>71.12</v>
       </c>
-      <c r="Q3" s="15">
+      <c r="Q3" s="15" t="n">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="R3" s="15" t="n">
         <f t="shared" si="8"/>
         <v>60.800000000000004</v>
       </c>
-      <c r="S3" s="15">
+      <c r="S3" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="T3" s="15" t="n">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U3" s="15">
+        <v>7.105427357601002E-15</v>
+      </c>
+      <c r="U3" s="15" t="n">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V3" s="15" t="n">
         <f t="shared" si="12"/>
-        <v>6.3948846218409017E-14</v>
-      </c>
-      <c r="W3" s="16">
+        <v>6.394884621840902E-14</v>
+      </c>
+      <c r="W3" s="16" t="n">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
         <v>22</v>
       </c>
@@ -1390,67 +1673,67 @@
       <c r="H4" s="15">
         <v>280</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="15" t="n">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J4" s="15">
         <v>280</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L4" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="L4" s="15" t="n">
         <f t="shared" si="2"/>
         <v>324.8</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N4" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="N4" s="15" t="n">
         <f t="shared" si="4"/>
         <v>413.52</v>
       </c>
-      <c r="O4" s="15">
+      <c r="O4" s="15" t="n">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P4" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="P4" s="15" t="n">
         <f t="shared" si="6"/>
         <v>53.72</v>
       </c>
-      <c r="Q4" s="15">
+      <c r="Q4" s="15" t="n">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R4" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="R4" s="15" t="n">
         <f t="shared" si="8"/>
         <v>44.800000000000004</v>
       </c>
-      <c r="S4" s="15">
+      <c r="S4" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T4" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="T4" s="15" t="n">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U4" s="15">
+        <v>7.105427357601002E-15</v>
+      </c>
+      <c r="U4" s="15" t="n">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V4" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V4" s="15" t="n">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W4" s="16">
+        <v>-2.1316282072803006E-14</v>
+      </c>
+      <c r="W4" s="16" t="n">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A5" s="20" t="s">
         <v>24</v>
       </c>
@@ -1471,67 +1754,67 @@
       <c r="H5" s="15">
         <v>4111.59</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="15" t="n">
         <f t="shared" si="0"/>
         <v>4111.59</v>
       </c>
       <c r="J5" s="15">
         <v>5600</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="L5" s="15">
+        <v>5600.0</v>
+      </c>
+      <c r="L5" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>6496</v>
-      </c>
-      <c r="M5" s="15">
+        <v>6496.0</v>
+      </c>
+      <c r="M5" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>6496</v>
-      </c>
-      <c r="N5" s="15">
+        <v>6496.0</v>
+      </c>
+      <c r="N5" s="15" t="n">
         <f t="shared" si="4"/>
         <v>7510.4</v>
       </c>
-      <c r="O5" s="15">
+      <c r="O5" s="15" t="n">
         <f t="shared" si="5"/>
         <v>7510.4</v>
       </c>
-      <c r="P5" s="15">
+      <c r="P5" s="15" t="n">
         <f t="shared" si="6"/>
         <v>979.4</v>
       </c>
-      <c r="Q5" s="15">
+      <c r="Q5" s="15" t="n">
         <f t="shared" si="7"/>
         <v>979.4</v>
       </c>
-      <c r="R5" s="15">
+      <c r="R5" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>896</v>
-      </c>
-      <c r="S5" s="15">
+        <v>896.0</v>
+      </c>
+      <c r="S5" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>896</v>
-      </c>
-      <c r="T5" s="15">
+        <v>896.0</v>
+      </c>
+      <c r="T5" s="15" t="n">
         <f t="shared" si="10"/>
         <v>1488.4099999999999</v>
       </c>
-      <c r="U5" s="15">
+      <c r="U5" s="15" t="n">
         <f t="shared" si="11"/>
         <v>1488.4099999999999</v>
       </c>
-      <c r="V5" s="15">
+      <c r="V5" s="15" t="n">
         <f t="shared" si="12"/>
         <v>1488.4099999999994</v>
       </c>
-      <c r="W5" s="16">
+      <c r="W5" s="16" t="n">
         <f t="shared" si="13"/>
         <v>1488.4099999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
         <v>44</v>
       </c>
@@ -1552,67 +1835,67 @@
       <c r="H6" s="15">
         <v>10508</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="15" t="n">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J6" s="15">
         <v>13000</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="L6" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>15080</v>
-      </c>
-      <c r="M6" s="15">
+        <v>15080.0</v>
+      </c>
+      <c r="M6" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="N6" s="15" t="n">
         <f t="shared" si="4"/>
-        <v>17382</v>
-      </c>
-      <c r="O6" s="15">
+        <v>17382.0</v>
+      </c>
+      <c r="O6" s="15" t="n">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="P6" s="15" t="n">
         <f t="shared" si="6"/>
-        <v>2267</v>
-      </c>
-      <c r="Q6" s="15">
+        <v>2267.0</v>
+      </c>
+      <c r="Q6" s="15" t="n">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="R6" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>2080</v>
-      </c>
-      <c r="S6" s="15">
+        <v>2080.0</v>
+      </c>
+      <c r="S6" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T6" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="T6" s="15" t="n">
         <f t="shared" si="10"/>
-        <v>2492</v>
-      </c>
-      <c r="U6" s="15">
+        <v>2492.0</v>
+      </c>
+      <c r="U6" s="15" t="n">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V6" s="15" t="n">
         <f t="shared" si="12"/>
-        <v>2492</v>
-      </c>
-      <c r="W6" s="16">
+        <v>2492.0</v>
+      </c>
+      <c r="W6" s="16" t="n">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A7" s="28" t="s">
         <v>41</v>
       </c>
@@ -1633,67 +1916,67 @@
       <c r="H7" s="15">
         <v>5990</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="15" t="n">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J7" s="15">
         <v>15000</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="L7" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>17400</v>
-      </c>
-      <c r="M7" s="15">
+        <v>17400.0</v>
+      </c>
+      <c r="M7" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="N7" s="15" t="n">
         <f t="shared" si="4"/>
-        <v>20050</v>
-      </c>
-      <c r="O7" s="15">
+        <v>20050.0</v>
+      </c>
+      <c r="O7" s="15" t="n">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="P7" s="15" t="n">
         <f t="shared" si="6"/>
-        <v>2615</v>
-      </c>
-      <c r="Q7" s="15">
+        <v>2615.0</v>
+      </c>
+      <c r="Q7" s="15" t="n">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="R7" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>2400</v>
-      </c>
-      <c r="S7" s="15">
+        <v>2400.0</v>
+      </c>
+      <c r="S7" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T7" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="T7" s="15" t="n">
         <f t="shared" si="10"/>
-        <v>9010</v>
-      </c>
-      <c r="U7" s="15">
+        <v>9010.0</v>
+      </c>
+      <c r="U7" s="15" t="n">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V7" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V7" s="15" t="n">
         <f t="shared" si="12"/>
-        <v>9010</v>
-      </c>
-      <c r="W7" s="16">
+        <v>9010.0</v>
+      </c>
+      <c r="W7" s="16" t="n">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
         <v>25</v>
       </c>
@@ -1714,67 +1997,67 @@
       <c r="H8" s="15">
         <v>27</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="15" t="n">
         <f t="shared" si="0"/>
-        <v>1674</v>
+        <v>1674.0</v>
       </c>
       <c r="J8" s="15">
         <v>60</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>3720</v>
-      </c>
-      <c r="L8" s="15">
+        <v>3720.0</v>
+      </c>
+      <c r="L8" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>69.599999999999994</v>
-      </c>
-      <c r="M8" s="15">
+        <v>69.6</v>
+      </c>
+      <c r="M8" s="15" t="n">
         <f t="shared" si="3"/>
         <v>4315.2</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8" s="15" t="n">
         <f t="shared" si="4"/>
         <v>120.03999999999999</v>
       </c>
-      <c r="O8" s="15">
+      <c r="O8" s="15" t="n">
         <f t="shared" si="5"/>
         <v>7442.48</v>
       </c>
-      <c r="P8" s="15">
+      <c r="P8" s="15" t="n">
         <f t="shared" si="6"/>
         <v>15.44</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="Q8" s="15" t="n">
         <f t="shared" si="7"/>
         <v>957.28</v>
       </c>
-      <c r="R8" s="15">
+      <c r="R8" s="15" t="n">
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="S8" s="15">
+      <c r="S8" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>595.19999999999993</v>
-      </c>
-      <c r="T8" s="15">
+        <v>595.1999999999999</v>
+      </c>
+      <c r="T8" s="15" t="n">
         <f t="shared" si="10"/>
-        <v>32.999999999999993</v>
-      </c>
-      <c r="U8" s="15">
+        <v>32.99999999999999</v>
+      </c>
+      <c r="U8" s="15" t="n">
         <f t="shared" si="11"/>
         <v>2045.9999999999995</v>
       </c>
-      <c r="V8" s="15">
+      <c r="V8" s="15" t="n">
         <f t="shared" si="12"/>
-        <v>33</v>
-      </c>
-      <c r="W8" s="16">
+        <v>33.0</v>
+      </c>
+      <c r="W8" s="16" t="n">
         <f t="shared" si="13"/>
-        <v>2046</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+        <v>2046.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A9" s="12" t="s">
         <v>72</v>
       </c>
@@ -1790,78 +2073,78 @@
       <c r="E9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="19" t="n">
         <f>22950/18500</f>
         <v>1.2405405405405405</v>
       </c>
       <c r="G9" s="19">
         <v>1</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="15" t="n">
         <f>J9/F9</f>
         <v>1209.1503267973856</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="15" t="n">
         <f t="shared" si="0"/>
         <v>1209.1503267973856</v>
       </c>
       <c r="J9" s="15">
         <v>1500</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>1500</v>
-      </c>
-      <c r="L9" s="15">
+        <v>1500.0</v>
+      </c>
+      <c r="L9" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>1740</v>
-      </c>
-      <c r="M9" s="15">
+        <v>1740.0</v>
+      </c>
+      <c r="M9" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>1740</v>
-      </c>
-      <c r="N9" s="15">
+        <v>1740.0</v>
+      </c>
+      <c r="N9" s="15" t="n">
         <f t="shared" si="4"/>
-        <v>2041</v>
-      </c>
-      <c r="O9" s="15">
+        <v>2041.0</v>
+      </c>
+      <c r="O9" s="15" t="n">
         <f t="shared" si="5"/>
-        <v>2041</v>
-      </c>
-      <c r="P9" s="15">
+        <v>2041.0</v>
+      </c>
+      <c r="P9" s="15" t="n">
         <f t="shared" si="6"/>
-        <v>266</v>
-      </c>
-      <c r="Q9" s="15">
+        <v>266.0</v>
+      </c>
+      <c r="Q9" s="15" t="n">
         <f t="shared" si="7"/>
-        <v>266</v>
-      </c>
-      <c r="R9" s="15">
+        <v>266.0</v>
+      </c>
+      <c r="R9" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>240</v>
-      </c>
-      <c r="S9" s="15">
+        <v>240.0</v>
+      </c>
+      <c r="S9" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>240</v>
-      </c>
-      <c r="T9" s="15">
+        <v>240.0</v>
+      </c>
+      <c r="T9" s="15" t="n">
         <f t="shared" si="10"/>
         <v>290.84967320261444</v>
       </c>
-      <c r="U9" s="15">
+      <c r="U9" s="15" t="n">
         <f t="shared" si="11"/>
         <v>290.84967320261444</v>
       </c>
-      <c r="V9" s="15">
+      <c r="V9" s="15" t="n">
         <f t="shared" si="12"/>
         <v>290.84967320261444</v>
       </c>
-      <c r="W9" s="16">
+      <c r="W9" s="16" t="n">
         <f t="shared" si="13"/>
         <v>290.84967320261444</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
         <v>46</v>
       </c>
@@ -1888,60 +2171,60 @@
       <c r="J10" s="15">
         <v>300</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="L10" s="15">
+        <v>300.0</v>
+      </c>
+      <c r="L10" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>348</v>
-      </c>
-      <c r="M10" s="15">
+        <v>348.0</v>
+      </c>
+      <c r="M10" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>348</v>
-      </c>
-      <c r="N10" s="15">
+        <v>348.0</v>
+      </c>
+      <c r="N10" s="15" t="n">
         <f t="shared" si="4"/>
         <v>440.2</v>
       </c>
-      <c r="O10" s="15">
+      <c r="O10" s="15" t="n">
         <f t="shared" si="5"/>
         <v>440.2</v>
       </c>
-      <c r="P10" s="15">
+      <c r="P10" s="15" t="n">
         <f t="shared" si="6"/>
         <v>57.199999999999996</v>
       </c>
-      <c r="Q10" s="15">
+      <c r="Q10" s="15" t="n">
         <f t="shared" si="7"/>
         <v>57.199999999999996</v>
       </c>
-      <c r="R10" s="15">
+      <c r="R10" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>48</v>
-      </c>
-      <c r="S10" s="15">
+        <v>48.0</v>
+      </c>
+      <c r="S10" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>48</v>
-      </c>
-      <c r="T10" s="15">
+        <v>48.0</v>
+      </c>
+      <c r="T10" s="15" t="n">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U10" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="U10" s="15" t="n">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V10" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V10" s="15" t="n">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W10" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="W10" s="16" t="n">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A11" s="12" t="s">
         <v>29</v>
       </c>
@@ -1957,78 +2240,78 @@
       <c r="E11" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="19" t="n">
         <f>22950/18500</f>
         <v>1.2405405405405405</v>
       </c>
       <c r="G11" s="19">
         <v>1</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="15" t="n">
         <f>J11/F11</f>
-        <v>322.44008714596953</v>
-      </c>
-      <c r="I11" s="15">
+        <v>322.4400871459695</v>
+      </c>
+      <c r="I11" s="15" t="n">
         <f t="shared" ref="I11:I33" si="14">H11*G11</f>
-        <v>322.44008714596953</v>
+        <v>322.4400871459695</v>
       </c>
       <c r="J11" s="15">
         <v>400</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="L11" s="15">
+        <v>400.0</v>
+      </c>
+      <c r="L11" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>464</v>
-      </c>
-      <c r="M11" s="15">
+        <v>464.0</v>
+      </c>
+      <c r="M11" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>464</v>
-      </c>
-      <c r="N11" s="15">
+        <v>464.0</v>
+      </c>
+      <c r="N11" s="15" t="n">
         <f t="shared" si="4"/>
         <v>573.6</v>
       </c>
-      <c r="O11" s="15">
+      <c r="O11" s="15" t="n">
         <f t="shared" si="5"/>
         <v>573.6</v>
       </c>
-      <c r="P11" s="15">
+      <c r="P11" s="15" t="n">
         <f t="shared" si="6"/>
-        <v>74.599999999999994</v>
-      </c>
-      <c r="Q11" s="15">
+        <v>74.6</v>
+      </c>
+      <c r="Q11" s="15" t="n">
         <f t="shared" si="7"/>
-        <v>74.599999999999994</v>
-      </c>
-      <c r="R11" s="15">
+        <v>74.6</v>
+      </c>
+      <c r="R11" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>64</v>
-      </c>
-      <c r="S11" s="15">
+        <v>64.0</v>
+      </c>
+      <c r="S11" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>64</v>
-      </c>
-      <c r="T11" s="15">
+        <v>64.0</v>
+      </c>
+      <c r="T11" s="15" t="n">
         <f t="shared" si="10"/>
-        <v>77.559912854030472</v>
-      </c>
-      <c r="U11" s="15">
+        <v>77.55991285403047</v>
+      </c>
+      <c r="U11" s="15" t="n">
         <f t="shared" si="11"/>
-        <v>77.559912854030472</v>
-      </c>
-      <c r="V11" s="15">
+        <v>77.55991285403047</v>
+      </c>
+      <c r="V11" s="15" t="n">
         <f t="shared" si="12"/>
         <v>77.5599128540305</v>
       </c>
-      <c r="W11" s="16">
+      <c r="W11" s="16" t="n">
         <f t="shared" si="13"/>
         <v>77.5599128540305</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
         <v>50</v>
       </c>
@@ -2044,78 +2327,78 @@
       <c r="E12" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="19" t="n">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
       <c r="G12" s="19">
         <v>1</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="15" t="n">
         <f>J12/F12</f>
         <v>179.79452054794518</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="15" t="n">
         <f t="shared" si="14"/>
         <v>179.79452054794518</v>
       </c>
       <c r="J12" s="15">
         <v>350</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>350</v>
-      </c>
-      <c r="L12" s="15">
+        <v>350.0</v>
+      </c>
+      <c r="L12" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>406</v>
-      </c>
-      <c r="M12" s="15">
+        <v>406.0</v>
+      </c>
+      <c r="M12" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>406</v>
-      </c>
-      <c r="N12" s="15">
+        <v>406.0</v>
+      </c>
+      <c r="N12" s="15" t="n">
         <f t="shared" si="4"/>
         <v>506.9</v>
       </c>
-      <c r="O12" s="15">
+      <c r="O12" s="15" t="n">
         <f t="shared" si="5"/>
         <v>506.9</v>
       </c>
-      <c r="P12" s="15">
+      <c r="P12" s="15" t="n">
         <f t="shared" si="6"/>
-        <v>65.900000000000006</v>
-      </c>
-      <c r="Q12" s="15">
+        <v>65.9</v>
+      </c>
+      <c r="Q12" s="15" t="n">
         <f t="shared" si="7"/>
-        <v>65.900000000000006</v>
-      </c>
-      <c r="R12" s="15">
+        <v>65.9</v>
+      </c>
+      <c r="R12" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>56</v>
-      </c>
-      <c r="S12" s="15">
+        <v>56.0</v>
+      </c>
+      <c r="S12" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>56</v>
-      </c>
-      <c r="T12" s="15">
+        <v>56.0</v>
+      </c>
+      <c r="T12" s="15" t="n">
         <f t="shared" si="10"/>
         <v>170.20547945205482</v>
       </c>
-      <c r="U12" s="15">
+      <c r="U12" s="15" t="n">
         <f t="shared" si="11"/>
         <v>170.20547945205482</v>
       </c>
-      <c r="V12" s="15">
+      <c r="V12" s="15" t="n">
         <f t="shared" si="12"/>
         <v>170.20547945205476</v>
       </c>
-      <c r="W12" s="16">
+      <c r="W12" s="16" t="n">
         <f t="shared" si="13"/>
         <v>170.20547945205476</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="s">
         <v>73</v>
       </c>
@@ -2136,67 +2419,67 @@
       <c r="H13" s="15">
         <v>450</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="15" t="n">
         <f t="shared" si="14"/>
-        <v>450</v>
+        <v>450.0</v>
       </c>
       <c r="J13" s="15">
         <v>450</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>450</v>
-      </c>
-      <c r="L13" s="15">
+        <v>450.0</v>
+      </c>
+      <c r="L13" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>522</v>
-      </c>
-      <c r="M13" s="15">
+        <v>522.0</v>
+      </c>
+      <c r="M13" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>522</v>
-      </c>
-      <c r="N13" s="15">
+        <v>522.0</v>
+      </c>
+      <c r="N13" s="15" t="n">
         <f t="shared" si="4"/>
-        <v>640.29999999999995</v>
-      </c>
-      <c r="O13" s="15">
+        <v>640.3</v>
+      </c>
+      <c r="O13" s="15" t="n">
         <f t="shared" si="5"/>
-        <v>640.29999999999995</v>
-      </c>
-      <c r="P13" s="15">
+        <v>640.3</v>
+      </c>
+      <c r="P13" s="15" t="n">
         <f t="shared" si="6"/>
         <v>83.3</v>
       </c>
-      <c r="Q13" s="15">
+      <c r="Q13" s="15" t="n">
         <f t="shared" si="7"/>
         <v>83.3</v>
       </c>
-      <c r="R13" s="15">
+      <c r="R13" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>72</v>
-      </c>
-      <c r="S13" s="15">
+        <v>72.0</v>
+      </c>
+      <c r="S13" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>72</v>
-      </c>
-      <c r="T13" s="15">
+        <v>72.0</v>
+      </c>
+      <c r="T13" s="15" t="n">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U13" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="U13" s="15" t="n">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V13" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V13" s="15" t="n">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W13" s="16">
+        <v>-4.263256414560601E-14</v>
+      </c>
+      <c r="W13" s="16" t="n">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+        <v>-4.263256414560601E-14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A14" s="12" t="s">
         <v>30</v>
       </c>
@@ -2217,67 +2500,67 @@
       <c r="H14" s="15">
         <v>14.96</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="15" t="n">
         <f t="shared" si="14"/>
         <v>2917.2000000000003</v>
       </c>
       <c r="J14" s="15">
         <v>30</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>5850</v>
-      </c>
-      <c r="L14" s="15">
+        <v>5850.0</v>
+      </c>
+      <c r="L14" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>34.799999999999997</v>
-      </c>
-      <c r="M14" s="15">
+        <v>34.8</v>
+      </c>
+      <c r="M14" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>6785.9999999999991</v>
-      </c>
-      <c r="N14" s="15">
+        <v>6785.999999999999</v>
+      </c>
+      <c r="N14" s="15" t="n">
         <f t="shared" si="4"/>
         <v>80.02</v>
       </c>
-      <c r="O14" s="15">
+      <c r="O14" s="15" t="n">
         <f t="shared" si="5"/>
         <v>15603.9</v>
       </c>
-      <c r="P14" s="15">
+      <c r="P14" s="15" t="n">
         <f t="shared" si="6"/>
         <v>10.219999999999999</v>
       </c>
-      <c r="Q14" s="15">
+      <c r="Q14" s="15" t="n">
         <f t="shared" si="7"/>
         <v>1992.8999999999999</v>
       </c>
-      <c r="R14" s="15">
+      <c r="R14" s="15" t="n">
         <f t="shared" si="8"/>
         <v>4.8</v>
       </c>
-      <c r="S14" s="15">
+      <c r="S14" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>936</v>
-      </c>
-      <c r="T14" s="15">
+        <v>936.0</v>
+      </c>
+      <c r="T14" s="15" t="n">
         <f t="shared" si="10"/>
         <v>15.039999999999996</v>
       </c>
-      <c r="U14" s="15">
+      <c r="U14" s="15" t="n">
         <f t="shared" si="11"/>
         <v>2932.7999999999993</v>
       </c>
-      <c r="V14" s="15">
+      <c r="V14" s="15" t="n">
         <f t="shared" si="12"/>
         <v>15.040000000000006</v>
       </c>
-      <c r="W14" s="16">
+      <c r="W14" s="16" t="n">
         <f t="shared" si="13"/>
-        <v>2932.8000000000011</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+        <v>2932.800000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A15" s="12" t="s">
         <v>85</v>
       </c>
@@ -2293,78 +2576,78 @@
       <c r="E15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="19" t="n">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
       <c r="G15" s="19">
         <v>1</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="15" t="n">
         <f>J15/F15</f>
-        <v>256.84931506849313</v>
-      </c>
-      <c r="I15" s="15">
+        <v>256.8493150684931</v>
+      </c>
+      <c r="I15" s="15" t="n">
         <f t="shared" si="14"/>
-        <v>256.84931506849313</v>
+        <v>256.8493150684931</v>
       </c>
       <c r="J15" s="15">
         <v>500</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="L15" s="15">
+        <v>500.0</v>
+      </c>
+      <c r="L15" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>580</v>
-      </c>
-      <c r="M15" s="15">
+        <v>580.0</v>
+      </c>
+      <c r="M15" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>580</v>
-      </c>
-      <c r="N15" s="15">
+        <v>580.0</v>
+      </c>
+      <c r="N15" s="15" t="n">
         <f t="shared" si="4"/>
-        <v>707</v>
-      </c>
-      <c r="O15" s="15">
+        <v>707.0</v>
+      </c>
+      <c r="O15" s="15" t="n">
         <f t="shared" si="5"/>
-        <v>707</v>
-      </c>
-      <c r="P15" s="15">
+        <v>707.0</v>
+      </c>
+      <c r="P15" s="15" t="n">
         <f t="shared" si="6"/>
-        <v>92</v>
-      </c>
-      <c r="Q15" s="15">
+        <v>92.0</v>
+      </c>
+      <c r="Q15" s="15" t="n">
         <f t="shared" si="7"/>
-        <v>92</v>
-      </c>
-      <c r="R15" s="15">
+        <v>92.0</v>
+      </c>
+      <c r="R15" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="S15" s="15">
+        <v>80.0</v>
+      </c>
+      <c r="S15" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="T15" s="15">
+        <v>80.0</v>
+      </c>
+      <c r="T15" s="15" t="n">
         <f t="shared" si="10"/>
         <v>243.15068493150687</v>
       </c>
-      <c r="U15" s="15">
+      <c r="U15" s="15" t="n">
         <f t="shared" si="11"/>
         <v>243.15068493150687</v>
       </c>
-      <c r="V15" s="15">
+      <c r="V15" s="15" t="n">
         <f t="shared" si="12"/>
         <v>243.15068493150687</v>
       </c>
-      <c r="W15" s="16">
+      <c r="W15" s="16" t="n">
         <f t="shared" si="13"/>
         <v>243.15068493150687</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A16" s="12" t="s">
         <v>31</v>
       </c>
@@ -2380,78 +2663,78 @@
       <c r="E16" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="19" t="n">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
       <c r="G16" s="19">
         <v>1</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="15" t="n">
         <f>J16/F16</f>
-        <v>77.054794520547944</v>
-      </c>
-      <c r="I16" s="15">
+        <v>77.05479452054794</v>
+      </c>
+      <c r="I16" s="15" t="n">
         <f t="shared" si="14"/>
-        <v>77.054794520547944</v>
+        <v>77.05479452054794</v>
       </c>
       <c r="J16" s="15">
         <v>150</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="L16" s="15">
+        <v>150.0</v>
+      </c>
+      <c r="L16" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>174</v>
-      </c>
-      <c r="M16" s="15">
+        <v>174.0</v>
+      </c>
+      <c r="M16" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>174</v>
-      </c>
-      <c r="N16" s="15">
+        <v>174.0</v>
+      </c>
+      <c r="N16" s="15" t="n">
         <f t="shared" si="4"/>
         <v>240.1</v>
       </c>
-      <c r="O16" s="15">
+      <c r="O16" s="15" t="n">
         <f t="shared" si="5"/>
         <v>240.1</v>
       </c>
-      <c r="P16" s="15">
+      <c r="P16" s="15" t="n">
         <f t="shared" si="6"/>
         <v>31.099999999999998</v>
       </c>
-      <c r="Q16" s="15">
+      <c r="Q16" s="15" t="n">
         <f t="shared" si="7"/>
         <v>31.099999999999998</v>
       </c>
-      <c r="R16" s="15">
+      <c r="R16" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>24</v>
-      </c>
-      <c r="S16" s="15">
+        <v>24.0</v>
+      </c>
+      <c r="S16" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>24</v>
-      </c>
-      <c r="T16" s="15">
+        <v>24.0</v>
+      </c>
+      <c r="T16" s="15" t="n">
         <f t="shared" si="10"/>
-        <v>72.945205479452056</v>
-      </c>
-      <c r="U16" s="15">
+        <v>72.94520547945206</v>
+      </c>
+      <c r="U16" s="15" t="n">
         <f t="shared" si="11"/>
-        <v>72.945205479452056</v>
-      </c>
-      <c r="V16" s="15">
+        <v>72.94520547945206</v>
+      </c>
+      <c r="V16" s="15" t="n">
         <f t="shared" si="12"/>
-        <v>72.945205479452056</v>
-      </c>
-      <c r="W16" s="16">
+        <v>72.94520547945206</v>
+      </c>
+      <c r="W16" s="16" t="n">
         <f t="shared" si="13"/>
-        <v>72.945205479452056</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+        <v>72.94520547945206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="s">
         <v>32</v>
       </c>
@@ -2472,67 +2755,67 @@
       <c r="H17" s="15">
         <v>50</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="15" t="n">
         <f t="shared" si="14"/>
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="J17" s="15">
         <v>150</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="L17" s="15">
+        <v>300.0</v>
+      </c>
+      <c r="L17" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>174</v>
-      </c>
-      <c r="M17" s="15">
+        <v>174.0</v>
+      </c>
+      <c r="M17" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>348</v>
-      </c>
-      <c r="N17" s="15">
+        <v>348.0</v>
+      </c>
+      <c r="N17" s="15" t="n">
         <f t="shared" si="4"/>
         <v>240.1</v>
       </c>
-      <c r="O17" s="15">
+      <c r="O17" s="15" t="n">
         <f t="shared" si="5"/>
         <v>480.2</v>
       </c>
-      <c r="P17" s="15">
+      <c r="P17" s="15" t="n">
         <f t="shared" si="6"/>
         <v>31.099999999999998</v>
       </c>
-      <c r="Q17" s="15">
+      <c r="Q17" s="15" t="n">
         <f t="shared" si="7"/>
         <v>62.199999999999996</v>
       </c>
-      <c r="R17" s="15">
+      <c r="R17" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>24</v>
-      </c>
-      <c r="S17" s="15">
+        <v>24.0</v>
+      </c>
+      <c r="S17" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>48</v>
-      </c>
-      <c r="T17" s="15">
+        <v>48.0</v>
+      </c>
+      <c r="T17" s="15" t="n">
         <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="U17" s="15">
+        <v>100.0</v>
+      </c>
+      <c r="U17" s="15" t="n">
         <f t="shared" si="11"/>
-        <v>200</v>
-      </c>
-      <c r="V17" s="15">
+        <v>200.0</v>
+      </c>
+      <c r="V17" s="15" t="n">
         <f t="shared" si="12"/>
-        <v>100</v>
-      </c>
-      <c r="W17" s="16">
+        <v>100.0</v>
+      </c>
+      <c r="W17" s="16" t="n">
         <f t="shared" si="13"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A18" s="28" t="s">
         <v>33</v>
       </c>
@@ -2553,67 +2836,67 @@
       <c r="H18" s="15">
         <v>300</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="15" t="n">
         <f t="shared" si="14"/>
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="J18" s="15">
         <v>300</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="L18" s="15">
+        <v>300.0</v>
+      </c>
+      <c r="L18" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>348</v>
-      </c>
-      <c r="M18" s="15">
+        <v>348.0</v>
+      </c>
+      <c r="M18" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>348</v>
-      </c>
-      <c r="N18" s="15">
+        <v>348.0</v>
+      </c>
+      <c r="N18" s="15" t="n">
         <f t="shared" si="4"/>
         <v>440.2</v>
       </c>
-      <c r="O18" s="15">
+      <c r="O18" s="15" t="n">
         <f t="shared" si="5"/>
         <v>440.2</v>
       </c>
-      <c r="P18" s="15">
+      <c r="P18" s="15" t="n">
         <f t="shared" si="6"/>
         <v>57.199999999999996</v>
       </c>
-      <c r="Q18" s="15">
+      <c r="Q18" s="15" t="n">
         <f t="shared" si="7"/>
         <v>57.199999999999996</v>
       </c>
-      <c r="R18" s="15">
+      <c r="R18" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>48</v>
-      </c>
-      <c r="S18" s="15">
+        <v>48.0</v>
+      </c>
+      <c r="S18" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>48</v>
-      </c>
-      <c r="T18" s="15">
+        <v>48.0</v>
+      </c>
+      <c r="T18" s="15" t="n">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U18" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="U18" s="15" t="n">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V18" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V18" s="15" t="n">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W18" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="W18" s="16" t="n">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
         <v>74</v>
       </c>
@@ -2629,78 +2912,78 @@
       <c r="E19" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="19" t="n">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
       <c r="G19" s="19">
         <v>1</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="15" t="n">
         <f>J19/F19</f>
-        <v>205.47945205479451</v>
-      </c>
-      <c r="I19" s="15">
+        <v>205.4794520547945</v>
+      </c>
+      <c r="I19" s="15" t="n">
         <f t="shared" si="14"/>
-        <v>205.47945205479451</v>
+        <v>205.4794520547945</v>
       </c>
       <c r="J19" s="15">
         <v>400</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K19" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="L19" s="15">
+        <v>400.0</v>
+      </c>
+      <c r="L19" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>464</v>
-      </c>
-      <c r="M19" s="15">
+        <v>464.0</v>
+      </c>
+      <c r="M19" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>464</v>
-      </c>
-      <c r="N19" s="15">
+        <v>464.0</v>
+      </c>
+      <c r="N19" s="15" t="n">
         <f t="shared" si="4"/>
         <v>573.6</v>
       </c>
-      <c r="O19" s="15">
+      <c r="O19" s="15" t="n">
         <f t="shared" si="5"/>
         <v>573.6</v>
       </c>
-      <c r="P19" s="15">
+      <c r="P19" s="15" t="n">
         <f t="shared" si="6"/>
-        <v>74.599999999999994</v>
-      </c>
-      <c r="Q19" s="15">
+        <v>74.6</v>
+      </c>
+      <c r="Q19" s="15" t="n">
         <f t="shared" si="7"/>
-        <v>74.599999999999994</v>
-      </c>
-      <c r="R19" s="15">
+        <v>74.6</v>
+      </c>
+      <c r="R19" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>64</v>
-      </c>
-      <c r="S19" s="15">
+        <v>64.0</v>
+      </c>
+      <c r="S19" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>64</v>
-      </c>
-      <c r="T19" s="15">
+        <v>64.0</v>
+      </c>
+      <c r="T19" s="15" t="n">
         <f t="shared" si="10"/>
         <v>194.52054794520552</v>
       </c>
-      <c r="U19" s="15">
+      <c r="U19" s="15" t="n">
         <f t="shared" si="11"/>
         <v>194.52054794520552</v>
       </c>
-      <c r="V19" s="15">
+      <c r="V19" s="15" t="n">
         <f t="shared" si="12"/>
         <v>194.52054794520552</v>
       </c>
-      <c r="W19" s="16">
+      <c r="W19" s="16" t="n">
         <f t="shared" si="13"/>
         <v>194.52054794520552</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A20" s="12" t="s">
         <v>75</v>
       </c>
@@ -2721,67 +3004,67 @@
       <c r="H20" s="15">
         <v>250</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="15" t="n">
         <f t="shared" si="14"/>
-        <v>250</v>
+        <v>250.0</v>
       </c>
       <c r="J20" s="15">
         <v>250</v>
       </c>
-      <c r="K20" s="15">
+      <c r="K20" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-      <c r="L20" s="15">
+        <v>250.0</v>
+      </c>
+      <c r="L20" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>290</v>
-      </c>
-      <c r="M20" s="15">
+        <v>290.0</v>
+      </c>
+      <c r="M20" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>290</v>
-      </c>
-      <c r="N20" s="15">
+        <v>290.0</v>
+      </c>
+      <c r="N20" s="15" t="n">
         <f t="shared" si="4"/>
         <v>373.5</v>
       </c>
-      <c r="O20" s="15">
+      <c r="O20" s="15" t="n">
         <f t="shared" si="5"/>
         <v>373.5</v>
       </c>
-      <c r="P20" s="15">
+      <c r="P20" s="15" t="n">
         <f t="shared" si="6"/>
         <v>48.5</v>
       </c>
-      <c r="Q20" s="15">
+      <c r="Q20" s="15" t="n">
         <f t="shared" si="7"/>
         <v>48.5</v>
       </c>
-      <c r="R20" s="15">
+      <c r="R20" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="S20" s="15">
+        <v>40.0</v>
+      </c>
+      <c r="S20" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="T20" s="15">
+        <v>40.0</v>
+      </c>
+      <c r="T20" s="15" t="n">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U20" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="U20" s="15" t="n">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V20" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V20" s="15" t="n">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W20" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="W20" s="16" t="n">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A21" s="12" t="s">
         <v>76</v>
       </c>
@@ -2797,78 +3080,78 @@
       <c r="E21" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="19" t="n">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
       <c r="G21" s="19">
         <v>1</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="15" t="n">
         <f>J21/F21</f>
         <v>128.42465753424656</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="15" t="n">
         <f t="shared" si="14"/>
         <v>128.42465753424656</v>
       </c>
       <c r="J21" s="15">
         <v>250</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-      <c r="L21" s="15">
+        <v>250.0</v>
+      </c>
+      <c r="L21" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>290</v>
-      </c>
-      <c r="M21" s="15">
+        <v>290.0</v>
+      </c>
+      <c r="M21" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>290</v>
-      </c>
-      <c r="N21" s="15">
+        <v>290.0</v>
+      </c>
+      <c r="N21" s="15" t="n">
         <f t="shared" si="4"/>
         <v>373.5</v>
       </c>
-      <c r="O21" s="15">
+      <c r="O21" s="15" t="n">
         <f t="shared" si="5"/>
         <v>373.5</v>
       </c>
-      <c r="P21" s="15">
+      <c r="P21" s="15" t="n">
         <f t="shared" si="6"/>
         <v>48.5</v>
       </c>
-      <c r="Q21" s="15">
+      <c r="Q21" s="15" t="n">
         <f t="shared" si="7"/>
         <v>48.5</v>
       </c>
-      <c r="R21" s="15">
+      <c r="R21" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="S21" s="15">
+        <v>40.0</v>
+      </c>
+      <c r="S21" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="T21" s="15">
+        <v>40.0</v>
+      </c>
+      <c r="T21" s="15" t="n">
         <f t="shared" si="10"/>
         <v>121.57534246575344</v>
       </c>
-      <c r="U21" s="15">
+      <c r="U21" s="15" t="n">
         <f t="shared" si="11"/>
         <v>121.57534246575344</v>
       </c>
-      <c r="V21" s="15">
+      <c r="V21" s="15" t="n">
         <f t="shared" si="12"/>
         <v>121.57534246575344</v>
       </c>
-      <c r="W21" s="16">
+      <c r="W21" s="16" t="n">
         <f t="shared" si="13"/>
         <v>121.57534246575344</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A22" s="12" t="s">
         <v>77</v>
       </c>
@@ -2889,67 +3172,67 @@
       <c r="H22" s="15">
         <v>400</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="15" t="n">
         <f t="shared" si="14"/>
-        <v>800</v>
+        <v>800.0</v>
       </c>
       <c r="J22" s="15">
         <v>400</v>
       </c>
-      <c r="K22" s="15">
+      <c r="K22" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>800</v>
-      </c>
-      <c r="L22" s="15">
+        <v>800.0</v>
+      </c>
+      <c r="L22" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>464</v>
-      </c>
-      <c r="M22" s="15">
+        <v>464.0</v>
+      </c>
+      <c r="M22" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>928</v>
-      </c>
-      <c r="N22" s="15">
+        <v>928.0</v>
+      </c>
+      <c r="N22" s="15" t="n">
         <f t="shared" si="4"/>
         <v>573.6</v>
       </c>
-      <c r="O22" s="15">
+      <c r="O22" s="15" t="n">
         <f t="shared" si="5"/>
         <v>1147.2</v>
       </c>
-      <c r="P22" s="15">
+      <c r="P22" s="15" t="n">
         <f t="shared" si="6"/>
-        <v>74.599999999999994</v>
-      </c>
-      <c r="Q22" s="15">
+        <v>74.6</v>
+      </c>
+      <c r="Q22" s="15" t="n">
         <f t="shared" si="7"/>
-        <v>149.19999999999999</v>
-      </c>
-      <c r="R22" s="15">
+        <v>149.2</v>
+      </c>
+      <c r="R22" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>64</v>
-      </c>
-      <c r="S22" s="15">
+        <v>64.0</v>
+      </c>
+      <c r="S22" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>128</v>
-      </c>
-      <c r="T22" s="15">
+        <v>128.0</v>
+      </c>
+      <c r="T22" s="15" t="n">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U22" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="U22" s="15" t="n">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V22" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V22" s="15" t="n">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W22" s="16">
+        <v>2.8421709430404007E-14</v>
+      </c>
+      <c r="W22" s="16" t="n">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+        <v>5.6843418860808015E-14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A23" s="12" t="s">
         <v>79</v>
       </c>
@@ -2970,67 +3253,67 @@
       <c r="H23" s="15">
         <v>212.5</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="15" t="n">
         <f t="shared" si="14"/>
-        <v>425</v>
+        <v>425.0</v>
       </c>
       <c r="J23" s="15">
         <v>700</v>
       </c>
-      <c r="K23" s="15">
+      <c r="K23" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>1400</v>
-      </c>
-      <c r="L23" s="15">
+        <v>1400.0</v>
+      </c>
+      <c r="L23" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>812</v>
-      </c>
-      <c r="M23" s="15">
+        <v>812.0</v>
+      </c>
+      <c r="M23" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>1624</v>
-      </c>
-      <c r="N23" s="15">
+        <v>1624.0</v>
+      </c>
+      <c r="N23" s="15" t="n">
         <f t="shared" si="4"/>
         <v>973.8</v>
       </c>
-      <c r="O23" s="15">
+      <c r="O23" s="15" t="n">
         <f t="shared" si="5"/>
         <v>1947.6</v>
       </c>
-      <c r="P23" s="15">
+      <c r="P23" s="15" t="n">
         <f t="shared" si="6"/>
         <v>126.8</v>
       </c>
-      <c r="Q23" s="15">
+      <c r="Q23" s="15" t="n">
         <f t="shared" si="7"/>
         <v>253.6</v>
       </c>
-      <c r="R23" s="15">
+      <c r="R23" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>112</v>
-      </c>
-      <c r="S23" s="15">
+        <v>112.0</v>
+      </c>
+      <c r="S23" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>224</v>
-      </c>
-      <c r="T23" s="15">
+        <v>224.0</v>
+      </c>
+      <c r="T23" s="15" t="n">
         <f t="shared" si="10"/>
         <v>487.5</v>
       </c>
-      <c r="U23" s="15">
+      <c r="U23" s="15" t="n">
         <f t="shared" si="11"/>
-        <v>975</v>
-      </c>
-      <c r="V23" s="15">
+        <v>975.0</v>
+      </c>
+      <c r="V23" s="15" t="n">
         <f t="shared" si="12"/>
         <v>487.5</v>
       </c>
-      <c r="W23" s="16">
+      <c r="W23" s="16" t="n">
         <f t="shared" si="13"/>
-        <v>975</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+        <v>975.0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A24" s="12" t="s">
         <v>34</v>
       </c>
@@ -3046,79 +3329,79 @@
       <c r="E24" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="19" t="n">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
       <c r="G24" s="19">
         <v>1</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="15" t="n">
         <f t="shared" ref="H24:H30" si="15">J24/F24</f>
-        <v>256.84931506849313</v>
-      </c>
-      <c r="I24" s="15">
+        <v>256.8493150684931</v>
+      </c>
+      <c r="I24" s="15" t="n">
         <f t="shared" si="14"/>
-        <v>256.84931506849313</v>
+        <v>256.8493150684931</v>
       </c>
       <c r="J24" s="15">
         <v>500</v>
       </c>
-      <c r="K24" s="15">
+      <c r="K24" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="L24" s="15">
+        <v>500.0</v>
+      </c>
+      <c r="L24" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>580</v>
-      </c>
-      <c r="M24" s="15">
+        <v>580.0</v>
+      </c>
+      <c r="M24" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>580</v>
-      </c>
-      <c r="N24" s="15">
+        <v>580.0</v>
+      </c>
+      <c r="N24" s="15" t="n">
         <f t="shared" si="4"/>
-        <v>707</v>
-      </c>
-      <c r="O24" s="15">
+        <v>707.0</v>
+      </c>
+      <c r="O24" s="15" t="n">
         <f t="shared" si="5"/>
-        <v>707</v>
-      </c>
-      <c r="P24" s="15">
+        <v>707.0</v>
+      </c>
+      <c r="P24" s="15" t="n">
         <f t="shared" si="6"/>
-        <v>92</v>
-      </c>
-      <c r="Q24" s="15">
+        <v>92.0</v>
+      </c>
+      <c r="Q24" s="15" t="n">
         <f t="shared" si="7"/>
-        <v>92</v>
-      </c>
-      <c r="R24" s="15">
+        <v>92.0</v>
+      </c>
+      <c r="R24" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="S24" s="15">
+        <v>80.0</v>
+      </c>
+      <c r="S24" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="T24" s="15">
+        <v>80.0</v>
+      </c>
+      <c r="T24" s="15" t="n">
         <f t="shared" si="10"/>
         <v>243.15068493150687</v>
       </c>
-      <c r="U24" s="15">
+      <c r="U24" s="15" t="n">
         <f t="shared" si="11"/>
         <v>243.15068493150687</v>
       </c>
-      <c r="V24" s="15">
+      <c r="V24" s="15" t="n">
         <f t="shared" si="12"/>
         <v>243.15068493150687</v>
       </c>
-      <c r="W24" s="16">
+      <c r="W24" s="16" t="n">
         <f t="shared" si="13"/>
         <v>243.15068493150687</v>
       </c>
       <c r="AC24" s="6"/>
     </row>
-    <row r="25" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A25" s="12" t="s">
         <v>35</v>
       </c>
@@ -3134,78 +3417,78 @@
       <c r="E25" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="19" t="n">
         <f>22950/18500</f>
         <v>1.2405405405405405</v>
       </c>
       <c r="G25" s="19">
         <v>1</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="15" t="n">
         <f t="shared" si="15"/>
-        <v>282.13507625272331</v>
-      </c>
-      <c r="I25" s="15">
+        <v>282.1350762527233</v>
+      </c>
+      <c r="I25" s="15" t="n">
         <f t="shared" si="14"/>
-        <v>282.13507625272331</v>
+        <v>282.1350762527233</v>
       </c>
       <c r="J25" s="15">
         <v>350</v>
       </c>
-      <c r="K25" s="15">
+      <c r="K25" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>350</v>
-      </c>
-      <c r="L25" s="15">
+        <v>350.0</v>
+      </c>
+      <c r="L25" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>406</v>
-      </c>
-      <c r="M25" s="15">
+        <v>406.0</v>
+      </c>
+      <c r="M25" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>406</v>
-      </c>
-      <c r="N25" s="15">
+        <v>406.0</v>
+      </c>
+      <c r="N25" s="15" t="n">
         <f t="shared" si="4"/>
         <v>506.9</v>
       </c>
-      <c r="O25" s="15">
+      <c r="O25" s="15" t="n">
         <f t="shared" si="5"/>
         <v>506.9</v>
       </c>
-      <c r="P25" s="15">
+      <c r="P25" s="15" t="n">
         <f t="shared" si="6"/>
-        <v>65.900000000000006</v>
-      </c>
-      <c r="Q25" s="15">
+        <v>65.9</v>
+      </c>
+      <c r="Q25" s="15" t="n">
         <f t="shared" si="7"/>
-        <v>65.900000000000006</v>
-      </c>
-      <c r="R25" s="15">
+        <v>65.9</v>
+      </c>
+      <c r="R25" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>56</v>
-      </c>
-      <c r="S25" s="15">
+        <v>56.0</v>
+      </c>
+      <c r="S25" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>56</v>
-      </c>
-      <c r="T25" s="15">
+        <v>56.0</v>
+      </c>
+      <c r="T25" s="15" t="n">
         <f t="shared" si="10"/>
-        <v>67.864923747276691</v>
-      </c>
-      <c r="U25" s="15">
+        <v>67.86492374727669</v>
+      </c>
+      <c r="U25" s="15" t="n">
         <f t="shared" si="11"/>
-        <v>67.864923747276691</v>
-      </c>
-      <c r="V25" s="15">
+        <v>67.86492374727669</v>
+      </c>
+      <c r="V25" s="15" t="n">
         <f t="shared" si="12"/>
-        <v>67.864923747276663</v>
-      </c>
-      <c r="W25" s="16">
+        <v>67.86492374727666</v>
+      </c>
+      <c r="W25" s="16" t="n">
         <f t="shared" si="13"/>
-        <v>67.864923747276663</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+        <v>67.86492374727666</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A26" s="12" t="s">
         <v>36</v>
       </c>
@@ -3221,78 +3504,78 @@
       <c r="E26" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="19" t="n">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
       <c r="G26" s="19">
         <v>1</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H26" s="15" t="n">
         <f t="shared" si="15"/>
         <v>128.42465753424656</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I26" s="15" t="n">
         <f t="shared" si="14"/>
         <v>128.42465753424656</v>
       </c>
       <c r="J26" s="15">
         <v>250</v>
       </c>
-      <c r="K26" s="15">
+      <c r="K26" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-      <c r="L26" s="15">
+        <v>250.0</v>
+      </c>
+      <c r="L26" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>290</v>
-      </c>
-      <c r="M26" s="15">
+        <v>290.0</v>
+      </c>
+      <c r="M26" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>290</v>
-      </c>
-      <c r="N26" s="15">
+        <v>290.0</v>
+      </c>
+      <c r="N26" s="15" t="n">
         <f t="shared" si="4"/>
         <v>373.5</v>
       </c>
-      <c r="O26" s="15">
+      <c r="O26" s="15" t="n">
         <f t="shared" si="5"/>
         <v>373.5</v>
       </c>
-      <c r="P26" s="15">
+      <c r="P26" s="15" t="n">
         <f t="shared" si="6"/>
         <v>48.5</v>
       </c>
-      <c r="Q26" s="15">
+      <c r="Q26" s="15" t="n">
         <f t="shared" si="7"/>
         <v>48.5</v>
       </c>
-      <c r="R26" s="15">
+      <c r="R26" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="S26" s="15">
+        <v>40.0</v>
+      </c>
+      <c r="S26" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="T26" s="15">
+        <v>40.0</v>
+      </c>
+      <c r="T26" s="15" t="n">
         <f t="shared" si="10"/>
         <v>121.57534246575344</v>
       </c>
-      <c r="U26" s="15">
+      <c r="U26" s="15" t="n">
         <f t="shared" si="11"/>
         <v>121.57534246575344</v>
       </c>
-      <c r="V26" s="15">
+      <c r="V26" s="15" t="n">
         <f t="shared" si="12"/>
         <v>121.57534246575344</v>
       </c>
-      <c r="W26" s="16">
+      <c r="W26" s="16" t="n">
         <f t="shared" si="13"/>
         <v>121.57534246575344</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A27" s="12" t="s">
         <v>37</v>
       </c>
@@ -3308,78 +3591,78 @@
       <c r="E27" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="19" t="n">
         <f>22950/18500</f>
         <v>1.2405405405405405</v>
       </c>
       <c r="G27" s="19">
         <v>1</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H27" s="15" t="n">
         <f t="shared" si="15"/>
         <v>483.66013071895424</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I27" s="15" t="n">
         <f t="shared" si="14"/>
         <v>483.66013071895424</v>
       </c>
       <c r="J27" s="15">
         <v>600</v>
       </c>
-      <c r="K27" s="15">
+      <c r="K27" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
-      <c r="L27" s="15">
+        <v>600.0</v>
+      </c>
+      <c r="L27" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>696</v>
-      </c>
-      <c r="M27" s="15">
+        <v>696.0</v>
+      </c>
+      <c r="M27" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>696</v>
-      </c>
-      <c r="N27" s="15">
+        <v>696.0</v>
+      </c>
+      <c r="N27" s="15" t="n">
         <f t="shared" si="4"/>
         <v>840.4</v>
       </c>
-      <c r="O27" s="15">
+      <c r="O27" s="15" t="n">
         <f t="shared" si="5"/>
         <v>840.4</v>
       </c>
-      <c r="P27" s="15">
+      <c r="P27" s="15" t="n">
         <f t="shared" si="6"/>
         <v>109.39999999999999</v>
       </c>
-      <c r="Q27" s="15">
+      <c r="Q27" s="15" t="n">
         <f t="shared" si="7"/>
         <v>109.39999999999999</v>
       </c>
-      <c r="R27" s="15">
+      <c r="R27" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>96</v>
-      </c>
-      <c r="S27" s="15">
+        <v>96.0</v>
+      </c>
+      <c r="S27" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>96</v>
-      </c>
-      <c r="T27" s="15">
+        <v>96.0</v>
+      </c>
+      <c r="T27" s="15" t="n">
         <f t="shared" si="10"/>
         <v>116.33986928104576</v>
       </c>
-      <c r="U27" s="15">
+      <c r="U27" s="15" t="n">
         <f t="shared" si="11"/>
         <v>116.33986928104576</v>
       </c>
-      <c r="V27" s="15">
+      <c r="V27" s="15" t="n">
         <f t="shared" si="12"/>
         <v>116.33986928104576</v>
       </c>
-      <c r="W27" s="16">
+      <c r="W27" s="16" t="n">
         <f t="shared" si="13"/>
         <v>116.33986928104576</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A28" s="12" t="s">
         <v>38</v>
       </c>
@@ -3395,78 +3678,78 @@
       <c r="E28" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="19" t="n">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
       <c r="G28" s="19">
         <v>1</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28" s="15" t="n">
         <f t="shared" si="15"/>
         <v>128.42465753424656</v>
       </c>
-      <c r="I28" s="15">
+      <c r="I28" s="15" t="n">
         <f t="shared" si="14"/>
         <v>128.42465753424656</v>
       </c>
       <c r="J28" s="15">
         <v>250</v>
       </c>
-      <c r="K28" s="15">
+      <c r="K28" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-      <c r="L28" s="15">
+        <v>250.0</v>
+      </c>
+      <c r="L28" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>290</v>
-      </c>
-      <c r="M28" s="15">
+        <v>290.0</v>
+      </c>
+      <c r="M28" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>290</v>
-      </c>
-      <c r="N28" s="15">
+        <v>290.0</v>
+      </c>
+      <c r="N28" s="15" t="n">
         <f t="shared" si="4"/>
         <v>373.5</v>
       </c>
-      <c r="O28" s="15">
+      <c r="O28" s="15" t="n">
         <f t="shared" si="5"/>
         <v>373.5</v>
       </c>
-      <c r="P28" s="15">
+      <c r="P28" s="15" t="n">
         <f t="shared" si="6"/>
         <v>48.5</v>
       </c>
-      <c r="Q28" s="15">
+      <c r="Q28" s="15" t="n">
         <f t="shared" si="7"/>
         <v>48.5</v>
       </c>
-      <c r="R28" s="15">
+      <c r="R28" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="S28" s="15">
+        <v>40.0</v>
+      </c>
+      <c r="S28" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="T28" s="15">
+        <v>40.0</v>
+      </c>
+      <c r="T28" s="15" t="n">
         <f t="shared" si="10"/>
         <v>121.57534246575344</v>
       </c>
-      <c r="U28" s="15">
+      <c r="U28" s="15" t="n">
         <f t="shared" si="11"/>
         <v>121.57534246575344</v>
       </c>
-      <c r="V28" s="15">
+      <c r="V28" s="15" t="n">
         <f t="shared" si="12"/>
         <v>121.57534246575344</v>
       </c>
-      <c r="W28" s="16">
+      <c r="W28" s="16" t="n">
         <f t="shared" si="13"/>
         <v>121.57534246575344</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A29" s="12" t="s">
         <v>39</v>
       </c>
@@ -3482,78 +3765,78 @@
       <c r="E29" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="19" t="n">
         <f>22950/18500</f>
         <v>1.2405405405405405</v>
       </c>
       <c r="G29" s="19">
         <v>1</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H29" s="15" t="n">
         <f t="shared" si="15"/>
         <v>403.05010893246185</v>
       </c>
-      <c r="I29" s="15">
+      <c r="I29" s="15" t="n">
         <f t="shared" si="14"/>
         <v>403.05010893246185</v>
       </c>
       <c r="J29" s="15">
         <v>500</v>
       </c>
-      <c r="K29" s="15">
+      <c r="K29" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="L29" s="15">
+        <v>500.0</v>
+      </c>
+      <c r="L29" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>580</v>
-      </c>
-      <c r="M29" s="15">
+        <v>580.0</v>
+      </c>
+      <c r="M29" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>580</v>
-      </c>
-      <c r="N29" s="15">
+        <v>580.0</v>
+      </c>
+      <c r="N29" s="15" t="n">
         <f t="shared" si="4"/>
-        <v>707</v>
-      </c>
-      <c r="O29" s="15">
+        <v>707.0</v>
+      </c>
+      <c r="O29" s="15" t="n">
         <f t="shared" si="5"/>
-        <v>707</v>
-      </c>
-      <c r="P29" s="15">
+        <v>707.0</v>
+      </c>
+      <c r="P29" s="15" t="n">
         <f t="shared" si="6"/>
-        <v>92</v>
-      </c>
-      <c r="Q29" s="15">
+        <v>92.0</v>
+      </c>
+      <c r="Q29" s="15" t="n">
         <f t="shared" si="7"/>
-        <v>92</v>
-      </c>
-      <c r="R29" s="15">
+        <v>92.0</v>
+      </c>
+      <c r="R29" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="S29" s="15">
+        <v>80.0</v>
+      </c>
+      <c r="S29" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="T29" s="15">
+        <v>80.0</v>
+      </c>
+      <c r="T29" s="15" t="n">
         <f t="shared" si="10"/>
-        <v>96.949891067538147</v>
-      </c>
-      <c r="U29" s="15">
+        <v>96.94989106753815</v>
+      </c>
+      <c r="U29" s="15" t="n">
         <f t="shared" si="11"/>
-        <v>96.949891067538147</v>
-      </c>
-      <c r="V29" s="15">
+        <v>96.94989106753815</v>
+      </c>
+      <c r="V29" s="15" t="n">
         <f t="shared" si="12"/>
-        <v>96.949891067538147</v>
-      </c>
-      <c r="W29" s="16">
+        <v>96.94989106753815</v>
+      </c>
+      <c r="W29" s="16" t="n">
         <f t="shared" si="13"/>
-        <v>96.949891067538147</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+        <v>96.94989106753815</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A30" s="12" t="s">
         <v>61</v>
       </c>
@@ -3569,78 +3852,78 @@
       <c r="E30" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="19" t="n">
         <f>22950/18500</f>
         <v>1.2405405405405405</v>
       </c>
       <c r="G30" s="19">
         <v>1</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="15" t="n">
         <f t="shared" si="15"/>
-        <v>967.32026143790847</v>
-      </c>
-      <c r="I30" s="15">
+        <v>967.3202614379085</v>
+      </c>
+      <c r="I30" s="15" t="n">
         <f t="shared" si="14"/>
-        <v>967.32026143790847</v>
+        <v>967.3202614379085</v>
       </c>
       <c r="J30" s="15">
         <v>1200</v>
       </c>
-      <c r="K30" s="15">
+      <c r="K30" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>1200</v>
-      </c>
-      <c r="L30" s="15">
+        <v>1200.0</v>
+      </c>
+      <c r="L30" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>1392</v>
-      </c>
-      <c r="M30" s="15">
+        <v>1392.0</v>
+      </c>
+      <c r="M30" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>1392</v>
-      </c>
-      <c r="N30" s="15">
+        <v>1392.0</v>
+      </c>
+      <c r="N30" s="15" t="n">
         <f t="shared" si="4"/>
         <v>1640.8</v>
       </c>
-      <c r="O30" s="15">
+      <c r="O30" s="15" t="n">
         <f t="shared" si="5"/>
         <v>1640.8</v>
       </c>
-      <c r="P30" s="15">
+      <c r="P30" s="15" t="n">
         <f t="shared" si="6"/>
         <v>213.79999999999998</v>
       </c>
-      <c r="Q30" s="15">
+      <c r="Q30" s="15" t="n">
         <f t="shared" si="7"/>
         <v>213.79999999999998</v>
       </c>
-      <c r="R30" s="15">
+      <c r="R30" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>192</v>
-      </c>
-      <c r="S30" s="15">
+        <v>192.0</v>
+      </c>
+      <c r="S30" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>192</v>
-      </c>
-      <c r="T30" s="15">
+        <v>192.0</v>
+      </c>
+      <c r="T30" s="15" t="n">
         <f t="shared" si="10"/>
         <v>232.67973856209153</v>
       </c>
-      <c r="U30" s="15">
+      <c r="U30" s="15" t="n">
         <f t="shared" si="11"/>
         <v>232.67973856209153</v>
       </c>
-      <c r="V30" s="15">
+      <c r="V30" s="15" t="n">
         <f t="shared" si="12"/>
         <v>232.67973856209153</v>
       </c>
-      <c r="W30" s="16">
+      <c r="W30" s="16" t="n">
         <f t="shared" si="13"/>
         <v>232.67973856209153</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A31" s="28" t="s">
         <v>63</v>
       </c>
@@ -3661,67 +3944,67 @@
       <c r="H31" s="15">
         <v>2500</v>
       </c>
-      <c r="I31" s="15">
+      <c r="I31" s="15" t="n">
         <f t="shared" si="14"/>
-        <v>2500</v>
+        <v>2500.0</v>
       </c>
       <c r="J31" s="15">
         <v>2500</v>
       </c>
-      <c r="K31" s="15">
+      <c r="K31" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>2500</v>
-      </c>
-      <c r="L31" s="15">
+        <v>2500.0</v>
+      </c>
+      <c r="L31" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>2900</v>
-      </c>
-      <c r="M31" s="15">
+        <v>2900.0</v>
+      </c>
+      <c r="M31" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>2900</v>
-      </c>
-      <c r="N31" s="15">
+        <v>2900.0</v>
+      </c>
+      <c r="N31" s="15" t="n">
         <f t="shared" si="4"/>
-        <v>3375</v>
-      </c>
-      <c r="O31" s="15">
+        <v>3375.0</v>
+      </c>
+      <c r="O31" s="15" t="n">
         <f t="shared" si="5"/>
-        <v>3375</v>
-      </c>
-      <c r="P31" s="15">
+        <v>3375.0</v>
+      </c>
+      <c r="P31" s="15" t="n">
         <f t="shared" si="6"/>
-        <v>440</v>
-      </c>
-      <c r="Q31" s="15">
+        <v>440.0</v>
+      </c>
+      <c r="Q31" s="15" t="n">
         <f t="shared" si="7"/>
-        <v>440</v>
-      </c>
-      <c r="R31" s="15">
+        <v>440.0</v>
+      </c>
+      <c r="R31" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>400</v>
-      </c>
-      <c r="S31" s="15">
+        <v>400.0</v>
+      </c>
+      <c r="S31" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>400</v>
-      </c>
-      <c r="T31" s="15">
+        <v>400.0</v>
+      </c>
+      <c r="T31" s="15" t="n">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U31" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="U31" s="15" t="n">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V31" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V31" s="15" t="n">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W31" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="W31" s="16" t="n">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A32" s="12" t="s">
         <v>40</v>
       </c>
@@ -3737,78 +4020,78 @@
       <c r="E32" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="19" t="n">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
       <c r="G32" s="19">
         <v>1</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H32" s="15" t="n">
         <f>J32/F32</f>
-        <v>1130.1369863013699</v>
-      </c>
-      <c r="I32" s="15">
+        <v>1130.13698630137</v>
+      </c>
+      <c r="I32" s="15" t="n">
         <f t="shared" si="14"/>
-        <v>1130.1369863013699</v>
+        <v>1130.13698630137</v>
       </c>
       <c r="J32" s="15">
         <v>2200</v>
       </c>
-      <c r="K32" s="15">
+      <c r="K32" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>2200</v>
-      </c>
-      <c r="L32" s="15">
+        <v>2200.0</v>
+      </c>
+      <c r="L32" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>2552</v>
-      </c>
-      <c r="M32" s="15">
+        <v>2552.0</v>
+      </c>
+      <c r="M32" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>2552</v>
-      </c>
-      <c r="N32" s="15">
+        <v>2552.0</v>
+      </c>
+      <c r="N32" s="15" t="n">
         <f t="shared" si="4"/>
         <v>2974.8</v>
       </c>
-      <c r="O32" s="15">
+      <c r="O32" s="15" t="n">
         <f t="shared" si="5"/>
         <v>2974.8</v>
       </c>
-      <c r="P32" s="15">
+      <c r="P32" s="15" t="n">
         <f t="shared" si="6"/>
         <v>387.8</v>
       </c>
-      <c r="Q32" s="15">
+      <c r="Q32" s="15" t="n">
         <f t="shared" si="7"/>
         <v>387.8</v>
       </c>
-      <c r="R32" s="15">
+      <c r="R32" s="15" t="n">
         <f t="shared" si="8"/>
-        <v>352</v>
-      </c>
-      <c r="S32" s="15">
+        <v>352.0</v>
+      </c>
+      <c r="S32" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>352</v>
-      </c>
-      <c r="T32" s="15">
+        <v>352.0</v>
+      </c>
+      <c r="T32" s="15" t="n">
         <f t="shared" si="10"/>
-        <v>1069.8630136986301</v>
-      </c>
-      <c r="U32" s="15">
+        <v>1069.86301369863</v>
+      </c>
+      <c r="U32" s="15" t="n">
         <f t="shared" si="11"/>
-        <v>1069.8630136986301</v>
-      </c>
-      <c r="V32" s="15">
+        <v>1069.86301369863</v>
+      </c>
+      <c r="V32" s="15" t="n">
         <f t="shared" si="12"/>
         <v>1069.8630136986303</v>
       </c>
-      <c r="W32" s="16">
+      <c r="W32" s="16" t="n">
         <f t="shared" si="13"/>
         <v>1069.8630136986303</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A33" s="12" t="s">
         <v>67</v>
       </c>
@@ -3824,153 +4107,169 @@
       <c r="E33" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="19" t="n">
         <f>22950/18500</f>
         <v>1.2405405405405405</v>
       </c>
       <c r="G33" s="19">
         <v>1</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H33" s="15" t="n">
         <f>J33/F33</f>
         <v>403.05010893246185</v>
       </c>
-      <c r="I33" s="15">
+      <c r="I33" s="15" t="n">
         <f t="shared" si="14"/>
         <v>403.05010893246185</v>
       </c>
       <c r="J33" s="15">
         <v>500</v>
       </c>
-      <c r="K33" s="15">
+      <c r="K33" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="L33" s="15">
+        <v>500.0</v>
+      </c>
+      <c r="L33" s="15" t="n">
         <f t="shared" si="2"/>
-        <v>580</v>
-      </c>
-      <c r="M33" s="15">
+        <v>580.0</v>
+      </c>
+      <c r="M33" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>580</v>
-      </c>
-      <c r="N33" s="15">
+        <v>580.0</v>
+      </c>
+      <c r="N33" s="15" t="n">
         <f t="shared" si="4"/>
-        <v>707</v>
-      </c>
-      <c r="O33" s="15">
+        <v>707.0</v>
+      </c>
+      <c r="O33" s="15" t="n">
         <f t="shared" si="5"/>
-        <v>707</v>
-      </c>
-      <c r="P33" s="15">
+        <v>707.0</v>
+      </c>
+      <c r="P33" s="15" t="n">
         <f t="shared" si="6"/>
+        <v>92.0</v>
+      </c>
+      <c r="Q33" s="15" t="n">
+        <f t="shared" si="7"/>
+        <v>92.0</v>
+      </c>
+      <c r="R33" s="15" t="n">
+        <f t="shared" si="8"/>
+        <v>80.0</v>
+      </c>
+      <c r="S33" s="15" t="n">
+        <f t="shared" si="9"/>
+        <v>80.0</v>
+      </c>
+      <c r="T33" s="15" t="n">
+        <f t="shared" si="10"/>
+        <v>96.94989106753815</v>
+      </c>
+      <c r="U33" s="15" t="n">
+        <f t="shared" si="11"/>
+        <v>96.94989106753815</v>
+      </c>
+      <c r="V33" s="15" t="n">
+        <f t="shared" si="12"/>
+        <v>96.94989106753815</v>
+      </c>
+      <c r="W33" s="16" t="n">
+        <f t="shared" si="13"/>
+        <v>96.94989106753815</v>
+      </c>
+    </row>
+    <row r="34" ht="30.0" customHeight="true">
+      <c r="A34" t="s" s="45">
+        <v>91</v>
+      </c>
+      <c r="B34" t="s" s="46">
         <v>92</v>
       </c>
-      <c r="Q33" s="15">
-        <f t="shared" si="7"/>
-        <v>92</v>
-      </c>
-      <c r="R33" s="15">
-        <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="S33" s="15">
-        <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="T33" s="15">
-        <f t="shared" si="10"/>
-        <v>96.949891067538147</v>
-      </c>
-      <c r="U33" s="15">
-        <f t="shared" si="11"/>
-        <v>96.949891067538147</v>
-      </c>
-      <c r="V33" s="15">
-        <f t="shared" si="12"/>
-        <v>96.949891067538147</v>
-      </c>
-      <c r="W33" s="16">
-        <f t="shared" si="13"/>
-        <v>96.949891067538147</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="23"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="37">
-        <f>SUM(I2:I33)</f>
-        <v>20390.034456382247</v>
-      </c>
-      <c r="J34" s="26"/>
-      <c r="K34" s="38">
-        <f>SUM(K2:K33)</f>
-        <v>31370</v>
-      </c>
-      <c r="L34" s="26"/>
-      <c r="M34" s="39">
-        <f>SUM(M2:M33)</f>
-        <v>36389.199999999997</v>
-      </c>
-      <c r="N34" s="26"/>
-      <c r="O34" s="40">
-        <f>SUM(O2:O33)</f>
+      <c r="C34" t="s" s="47">
+        <v>93</v>
+      </c>
+      <c r="D34" t="s" s="48">
+        <v>94</v>
+      </c>
+      <c r="E34" t="s" s="49">
+        <v>95</v>
+      </c>
+      <c r="F34" t="s" s="50">
+        <v>96</v>
+      </c>
+      <c r="G34" t="s" s="51">
+        <v>97</v>
+      </c>
+      <c r="H34" t="s" s="52">
+        <v>98</v>
+      </c>
+      <c r="I34" t="n" s="58">
+        <v>2500000.0</v>
+      </c>
+      <c r="J34" t="s" s="54">
+        <v>100</v>
+      </c>
+      <c r="K34" t="n" s="59">
+        <v>3750000.0</v>
+      </c>
+      <c r="L34" t="s" s="56">
+        <v>102</v>
+      </c>
+      <c r="M34" t="n" s="60">
+        <v>4350000.0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+      <c r="A35" s="23"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="26"/>
+      <c r="I35" t="n" s="61">
+        <f>SUM(I2:I34)</f>
+        <v>2520390.034456382</v>
+      </c>
+      <c r="J35" s="26"/>
+      <c r="K35" t="n" s="62">
+        <f>SUM(K2:K34)</f>
+        <v>3781370.0</v>
+      </c>
+      <c r="L35" s="26"/>
+      <c r="M35" t="n" s="63">
+        <f>SUM(M2:M34)</f>
+        <v>4386389.2</v>
+      </c>
+      <c r="N35" s="26"/>
+      <c r="O35" t="n" s="64">
+        <f>SUM(O2:O34)</f>
         <v>53247.579999999994</v>
       </c>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="41">
-        <f>SUM(Q2:Q33)</f>
+      <c r="P35" s="26"/>
+      <c r="Q35" t="n" s="65">
+        <f>SUM(Q2:Q34)</f>
         <v>6883.38</v>
       </c>
-      <c r="R34" s="26"/>
-      <c r="S34" s="42">
-        <f>SUM(S2:S33)</f>
+      <c r="R35" s="26"/>
+      <c r="S35" t="n" s="66">
+        <f>SUM(S2:S34)</f>
         <v>5019.2</v>
       </c>
-      <c r="T34" s="26"/>
-      <c r="U34" s="43">
-        <f>SUM(U2:U33)</f>
-        <v>10979.965543617751</v>
-      </c>
-      <c r="V34" s="26"/>
-      <c r="W34" s="44">
-        <f>SUM(W2:W33)</f>
+      <c r="T35" s="26"/>
+      <c r="U35" t="n" s="67">
+        <f>SUM(U2:U34)</f>
+        <v>10979.96554361775</v>
+      </c>
+      <c r="V35" s="26"/>
+      <c r="W35" t="n" s="68">
+        <f>SUM(W2:W34)</f>
         <v>10979.965543617753</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="5"/>
-    </row>
     <row r="36" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="3"/>
+      <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="3"/>
@@ -3991,8 +4290,8 @@
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="2"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="5"/>
     </row>
     <row r="37" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>

--- a/JavaApplication19/src/excel/Inventario.xlsx
+++ b/JavaApplication19/src/excel/Inventario.xlsx
@@ -1405,7 +1405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC209"/>
+  <dimension ref="A1:AC207"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
@@ -1519,55 +1519,55 @@
         <v>200</v>
       </c>
       <c r="K2" s="15" t="n">
-        <f t="shared" ref="K2:K33" si="1">J2*G2</f>
+        <f t="shared" ref="K2:K31" si="1">J2*G2</f>
         <v>0.0</v>
       </c>
       <c r="L2" s="15" t="n">
-        <f t="shared" ref="L2:L33" si="2">J2+R2</f>
+        <f t="shared" ref="L2:L31" si="2">J2+R2</f>
         <v>232.0</v>
       </c>
       <c r="M2" s="15" t="n">
-        <f t="shared" ref="M2:M33" si="3">L2*G2</f>
+        <f t="shared" ref="M2:M31" si="3">L2*G2</f>
         <v>0.0</v>
       </c>
       <c r="N2" s="15" t="n">
-        <f t="shared" ref="N2:N33" si="4">J2+R2+P2+35</f>
+        <f t="shared" ref="N2:N31" si="4">J2+R2+P2+35</f>
         <v>306.8</v>
       </c>
       <c r="O2" s="15" t="n">
-        <f t="shared" ref="O2:O33" si="5">N2*G2</f>
+        <f t="shared" ref="O2:O31" si="5">N2*G2</f>
         <v>0.0</v>
       </c>
       <c r="P2" s="15" t="n">
-        <f t="shared" ref="P2:P33" si="6">(L2*0.15)+5</f>
+        <f t="shared" ref="P2:P31" si="6">(L2*0.15)+5</f>
         <v>39.8</v>
       </c>
       <c r="Q2" s="15" t="n">
-        <f t="shared" ref="Q2:Q33" si="7">P2*G2</f>
+        <f t="shared" ref="Q2:Q31" si="7">P2*G2</f>
         <v>0.0</v>
       </c>
       <c r="R2" s="15" t="n">
-        <f t="shared" ref="R2:R33" si="8">J2*0.16</f>
+        <f t="shared" ref="R2:R31" si="8">J2*0.16</f>
         <v>32.0</v>
       </c>
       <c r="S2" s="15" t="n">
-        <f t="shared" ref="S2:S33" si="9">R2*G2</f>
+        <f t="shared" ref="S2:S31" si="9">R2*G2</f>
         <v>0.0</v>
       </c>
       <c r="T2" s="15" t="n">
-        <f t="shared" ref="T2:T33" si="10">L2-H2-R2</f>
+        <f t="shared" ref="T2:T31" si="10">L2-H2-R2</f>
         <v>0.0</v>
       </c>
       <c r="U2" s="15" t="n">
-        <f t="shared" ref="U2:U33" si="11">T2*G2</f>
+        <f t="shared" ref="U2:U31" si="11">T2*G2</f>
         <v>0.0</v>
       </c>
       <c r="V2" s="15" t="n">
-        <f t="shared" ref="V2:V33" si="12">N2-H2-P2-R2-35</f>
+        <f t="shared" ref="V2:V31" si="12">N2-H2-P2-R2-35</f>
         <v>1.4210854715202004E-14</v>
       </c>
       <c r="W2" s="16" t="n">
-        <f t="shared" ref="W2:W33" si="13">V2*G2</f>
+        <f t="shared" ref="W2:W31" si="13">V2*G2</f>
         <v>0.0</v>
       </c>
     </row>
@@ -2252,7 +2252,7 @@
         <v>322.4400871459695</v>
       </c>
       <c r="I11" s="15" t="n">
-        <f t="shared" ref="I11:I33" si="14">H11*G11</f>
+        <f t="shared" ref="I11:I31" si="14">H11*G11</f>
         <v>322.4400871459695</v>
       </c>
       <c r="J11" s="15">
@@ -4004,272 +4004,148 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A32" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="18">
-        <v>43837</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" s="19" t="n">
-        <f>14600/7500</f>
-        <v>1.9466666666666668</v>
-      </c>
-      <c r="G32" s="19">
-        <v>1</v>
-      </c>
-      <c r="H32" s="15" t="n">
-        <f>J32/F32</f>
-        <v>1130.13698630137</v>
-      </c>
-      <c r="I32" s="15" t="n">
-        <f t="shared" si="14"/>
-        <v>1130.13698630137</v>
-      </c>
-      <c r="J32" s="15">
-        <v>2200</v>
-      </c>
-      <c r="K32" s="15" t="n">
-        <f t="shared" si="1"/>
-        <v>2200.0</v>
-      </c>
-      <c r="L32" s="15" t="n">
-        <f t="shared" si="2"/>
-        <v>2552.0</v>
-      </c>
-      <c r="M32" s="15" t="n">
-        <f t="shared" si="3"/>
-        <v>2552.0</v>
-      </c>
-      <c r="N32" s="15" t="n">
-        <f t="shared" si="4"/>
-        <v>2974.8</v>
-      </c>
-      <c r="O32" s="15" t="n">
-        <f t="shared" si="5"/>
-        <v>2974.8</v>
-      </c>
-      <c r="P32" s="15" t="n">
-        <f t="shared" si="6"/>
-        <v>387.8</v>
-      </c>
-      <c r="Q32" s="15" t="n">
-        <f t="shared" si="7"/>
-        <v>387.8</v>
-      </c>
-      <c r="R32" s="15" t="n">
-        <f t="shared" si="8"/>
-        <v>352.0</v>
-      </c>
-      <c r="S32" s="15" t="n">
-        <f t="shared" si="9"/>
-        <v>352.0</v>
-      </c>
-      <c r="T32" s="15" t="n">
-        <f t="shared" si="10"/>
-        <v>1069.86301369863</v>
-      </c>
-      <c r="U32" s="15" t="n">
-        <f t="shared" si="11"/>
-        <v>1069.86301369863</v>
-      </c>
-      <c r="V32" s="15" t="n">
-        <f t="shared" si="12"/>
-        <v>1069.8630136986303</v>
-      </c>
-      <c r="W32" s="16" t="n">
-        <f t="shared" si="13"/>
-        <v>1069.8630136986303</v>
+    <row r="32" ht="30.0" customHeight="true">
+      <c r="A32" t="s" s="45">
+        <v>91</v>
+      </c>
+      <c r="B32" t="s" s="46">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s" s="47">
+        <v>93</v>
+      </c>
+      <c r="D32" t="s" s="48">
+        <v>94</v>
+      </c>
+      <c r="E32" t="s" s="49">
+        <v>95</v>
+      </c>
+      <c r="F32" t="s" s="50">
+        <v>96</v>
+      </c>
+      <c r="G32" t="s" s="51">
+        <v>97</v>
+      </c>
+      <c r="H32" t="s" s="52">
+        <v>98</v>
+      </c>
+      <c r="I32" t="n" s="58">
+        <v>2500000.0</v>
+      </c>
+      <c r="J32" t="s" s="54">
+        <v>100</v>
+      </c>
+      <c r="K32" t="n" s="59">
+        <v>3750000.0</v>
+      </c>
+      <c r="L32" t="s" s="56">
+        <v>102</v>
+      </c>
+      <c r="M32" t="n" s="60">
+        <v>4350000.0</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A33" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="18">
-        <v>43853</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F33" s="19" t="n">
-        <f>22950/18500</f>
-        <v>1.2405405405405405</v>
-      </c>
-      <c r="G33" s="19">
-        <v>1</v>
-      </c>
-      <c r="H33" s="15" t="n">
-        <f>J33/F33</f>
-        <v>403.05010893246185</v>
-      </c>
-      <c r="I33" s="15" t="n">
-        <f t="shared" si="14"/>
-        <v>403.05010893246185</v>
-      </c>
-      <c r="J33" s="15">
-        <v>500</v>
-      </c>
-      <c r="K33" s="15" t="n">
-        <f t="shared" si="1"/>
-        <v>500.0</v>
-      </c>
-      <c r="L33" s="15" t="n">
-        <f t="shared" si="2"/>
-        <v>580.0</v>
-      </c>
-      <c r="M33" s="15" t="n">
-        <f t="shared" si="3"/>
-        <v>580.0</v>
-      </c>
-      <c r="N33" s="15" t="n">
-        <f t="shared" si="4"/>
-        <v>707.0</v>
-      </c>
-      <c r="O33" s="15" t="n">
-        <f t="shared" si="5"/>
-        <v>707.0</v>
-      </c>
-      <c r="P33" s="15" t="n">
-        <f t="shared" si="6"/>
-        <v>92.0</v>
-      </c>
-      <c r="Q33" s="15" t="n">
-        <f t="shared" si="7"/>
-        <v>92.0</v>
-      </c>
-      <c r="R33" s="15" t="n">
-        <f t="shared" si="8"/>
-        <v>80.0</v>
-      </c>
-      <c r="S33" s="15" t="n">
-        <f t="shared" si="9"/>
-        <v>80.0</v>
-      </c>
-      <c r="T33" s="15" t="n">
-        <f t="shared" si="10"/>
-        <v>96.94989106753815</v>
-      </c>
-      <c r="U33" s="15" t="n">
-        <f t="shared" si="11"/>
-        <v>96.94989106753815</v>
-      </c>
-      <c r="V33" s="15" t="n">
-        <f t="shared" si="12"/>
-        <v>96.94989106753815</v>
-      </c>
-      <c r="W33" s="16" t="n">
-        <f t="shared" si="13"/>
-        <v>96.94989106753815</v>
-      </c>
-    </row>
-    <row r="34" ht="30.0" customHeight="true">
-      <c r="A34" t="s" s="45">
-        <v>91</v>
-      </c>
-      <c r="B34" t="s" s="46">
-        <v>92</v>
-      </c>
-      <c r="C34" t="s" s="47">
-        <v>93</v>
-      </c>
-      <c r="D34" t="s" s="48">
-        <v>94</v>
-      </c>
-      <c r="E34" t="s" s="49">
-        <v>95</v>
-      </c>
-      <c r="F34" t="s" s="50">
-        <v>96</v>
-      </c>
-      <c r="G34" t="s" s="51">
-        <v>97</v>
-      </c>
-      <c r="H34" t="s" s="52">
-        <v>98</v>
-      </c>
-      <c r="I34" t="n" s="58">
-        <v>2500000.0</v>
-      </c>
-      <c r="J34" t="s" s="54">
-        <v>100</v>
-      </c>
-      <c r="K34" t="n" s="59">
-        <v>3750000.0</v>
-      </c>
-      <c r="L34" t="s" s="56">
-        <v>102</v>
-      </c>
-      <c r="M34" t="n" s="60">
-        <v>4350000.0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A35" s="23"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="26"/>
-      <c r="I35" t="n" s="61">
-        <f>SUM(I2:I34)</f>
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="26"/>
+      <c r="I33" t="n" s="61">
+        <f>SUM(I2:I32)</f>
         <v>2520390.034456382</v>
       </c>
-      <c r="J35" s="26"/>
-      <c r="K35" t="n" s="62">
-        <f>SUM(K2:K34)</f>
+      <c r="J33" s="26"/>
+      <c r="K33" t="n" s="62">
+        <f>SUM(K2:K32)</f>
         <v>3781370.0</v>
       </c>
-      <c r="L35" s="26"/>
-      <c r="M35" t="n" s="63">
-        <f>SUM(M2:M34)</f>
+      <c r="L33" s="26"/>
+      <c r="M33" t="n" s="63">
+        <f>SUM(M2:M32)</f>
         <v>4386389.2</v>
       </c>
-      <c r="N35" s="26"/>
-      <c r="O35" t="n" s="64">
-        <f>SUM(O2:O34)</f>
+      <c r="N33" s="26"/>
+      <c r="O33" t="n" s="64">
+        <f>SUM(O2:O32)</f>
         <v>53247.579999999994</v>
       </c>
-      <c r="P35" s="26"/>
-      <c r="Q35" t="n" s="65">
-        <f>SUM(Q2:Q34)</f>
+      <c r="P33" s="26"/>
+      <c r="Q33" t="n" s="65">
+        <f>SUM(Q2:Q32)</f>
         <v>6883.38</v>
       </c>
-      <c r="R35" s="26"/>
-      <c r="S35" t="n" s="66">
-        <f>SUM(S2:S34)</f>
+      <c r="R33" s="26"/>
+      <c r="S33" t="n" s="66">
+        <f>SUM(S2:S32)</f>
         <v>5019.2</v>
       </c>
-      <c r="T35" s="26"/>
-      <c r="U35" t="n" s="67">
-        <f>SUM(U2:U34)</f>
+      <c r="T33" s="26"/>
+      <c r="U33" t="n" s="67">
+        <f>SUM(U2:U32)</f>
         <v>10979.96554361775</v>
       </c>
-      <c r="V35" s="26"/>
-      <c r="W35" t="n" s="68">
-        <f>SUM(W2:W34)</f>
+      <c r="V33" s="26"/>
+      <c r="W33" t="n" s="68">
+        <f>SUM(W2:W32)</f>
         <v>10979.965543617753</v>
       </c>
     </row>
+    <row r="34" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="5"/>
+    </row>
+    <row r="35" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="3"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="2"/>
+    </row>
     <row r="36" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="1"/>
+      <c r="A36" s="3"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="3"/>
@@ -4290,8 +4166,8 @@
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="5"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="2"/>
     </row>
     <row r="37" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
@@ -4443,7 +4319,7 @@
       <c r="V42" s="3"/>
       <c r="W42" s="2"/>
     </row>
-    <row r="43" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -4468,7 +4344,7 @@
       <c r="V43" s="3"/>
       <c r="W43" s="2"/>
     </row>
-    <row r="44" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -4493,7 +4369,7 @@
       <c r="V44" s="3"/>
       <c r="W44" s="2"/>
     </row>
-    <row r="45" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -5400,7 +5276,6 @@
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="4"/>
@@ -5450,6 +5325,7 @@
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="4"/>
@@ -5767,7 +5643,7 @@
       <c r="V95" s="3"/>
       <c r="W95" s="2"/>
     </row>
-    <row r="96" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="3"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -5792,7 +5668,7 @@
       <c r="V96" s="3"/>
       <c r="W96" s="2"/>
     </row>
-    <row r="97" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="3"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -8217,56 +8093,8 @@
       <c r="V193" s="3"/>
       <c r="W193" s="2"/>
     </row>
-    <row r="194" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A194" s="3"/>
-      <c r="B194" s="2"/>
-      <c r="C194" s="2"/>
-      <c r="D194" s="3"/>
-      <c r="E194" s="3"/>
-      <c r="F194" s="3"/>
-      <c r="G194" s="3"/>
-      <c r="H194" s="3"/>
-      <c r="I194" s="3"/>
-      <c r="J194" s="4"/>
-      <c r="K194" s="4"/>
-      <c r="L194" s="4"/>
-      <c r="M194" s="4"/>
-      <c r="N194" s="4"/>
-      <c r="O194" s="4"/>
-      <c r="P194" s="4"/>
-      <c r="Q194" s="4"/>
-      <c r="R194" s="4"/>
-      <c r="S194" s="4"/>
-      <c r="T194" s="4"/>
-      <c r="U194" s="4"/>
-      <c r="V194" s="3"/>
-      <c r="W194" s="2"/>
-    </row>
-    <row r="195" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A195" s="3"/>
-      <c r="B195" s="2"/>
-      <c r="C195" s="2"/>
-      <c r="D195" s="3"/>
-      <c r="E195" s="3"/>
-      <c r="F195" s="3"/>
-      <c r="G195" s="3"/>
-      <c r="H195" s="3"/>
-      <c r="I195" s="3"/>
-      <c r="J195" s="4"/>
-      <c r="K195" s="4"/>
-      <c r="L195" s="4"/>
-      <c r="M195" s="4"/>
-      <c r="N195" s="4"/>
-      <c r="O195" s="4"/>
-      <c r="P195" s="4"/>
-      <c r="Q195" s="4"/>
-      <c r="R195" s="4"/>
-      <c r="S195" s="4"/>
-      <c r="T195" s="4"/>
-      <c r="U195" s="4"/>
-      <c r="V195" s="3"/>
-      <c r="W195" s="2"/>
-    </row>
+    <row r="194" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="195" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="196" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="197" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="198" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -8278,9 +8106,7 @@
     <row r="204" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="205" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="206" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="207" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="208" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="209" ht="45" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="207" ht="45" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W33">
     <sortCondition ref="A2"/>

--- a/JavaApplication19/src/excel/Inventario.xlsx
+++ b/JavaApplication19/src/excel/Inventario.xlsx
@@ -351,7 +351,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -477,6 +477,12 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -799,7 +805,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1001,6 +1007,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1991,22 +2000,22 @@
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
-      <c r="G8" s="36">
-        <v>62</v>
+      <c r="G8" t="n" s="69">
+        <v>55.0</v>
       </c>
       <c r="H8" s="15">
         <v>27</v>
       </c>
       <c r="I8" s="15" t="n">
         <f t="shared" si="0"/>
-        <v>1674.0</v>
+        <v>1485.0</v>
       </c>
       <c r="J8" s="15">
         <v>60</v>
       </c>
       <c r="K8" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>3720.0</v>
+        <v>3300.0</v>
       </c>
       <c r="L8" s="15" t="n">
         <f t="shared" si="2"/>
@@ -2014,7 +2023,7 @@
       </c>
       <c r="M8" s="15" t="n">
         <f t="shared" si="3"/>
-        <v>4315.2</v>
+        <v>3827.9999999999995</v>
       </c>
       <c r="N8" s="15" t="n">
         <f t="shared" si="4"/>
@@ -2022,7 +2031,7 @@
       </c>
       <c r="O8" s="15" t="n">
         <f t="shared" si="5"/>
-        <v>7442.48</v>
+        <v>6602.2</v>
       </c>
       <c r="P8" s="15" t="n">
         <f t="shared" si="6"/>
@@ -2030,7 +2039,7 @@
       </c>
       <c r="Q8" s="15" t="n">
         <f t="shared" si="7"/>
-        <v>957.28</v>
+        <v>849.1999999999999</v>
       </c>
       <c r="R8" s="15" t="n">
         <f t="shared" si="8"/>
@@ -2038,7 +2047,7 @@
       </c>
       <c r="S8" s="15" t="n">
         <f t="shared" si="9"/>
-        <v>595.1999999999999</v>
+        <v>528.0</v>
       </c>
       <c r="T8" s="15" t="n">
         <f t="shared" si="10"/>
@@ -2046,7 +2055,7 @@
       </c>
       <c r="U8" s="15" t="n">
         <f t="shared" si="11"/>
-        <v>2045.9999999999995</v>
+        <v>1814.9999999999995</v>
       </c>
       <c r="V8" s="15" t="n">
         <f t="shared" si="12"/>
@@ -2054,7 +2063,7 @@
       </c>
       <c r="W8" s="16" t="n">
         <f t="shared" si="13"/>
-        <v>2046.0</v>
+        <v>1815.0</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
@@ -4230,42 +4239,42 @@
       <c r="H35" s="26"/>
       <c r="I35" t="n" s="61">
         <f>SUM(I2:I34)</f>
-        <v>2520390.034456382</v>
+        <v>2520201.034456382</v>
       </c>
       <c r="J35" s="26"/>
       <c r="K35" t="n" s="62">
         <f>SUM(K2:K34)</f>
-        <v>3781370.0</v>
+        <v>3780950.0</v>
       </c>
       <c r="L35" s="26"/>
       <c r="M35" t="n" s="63">
         <f>SUM(M2:M34)</f>
-        <v>4386389.2</v>
+        <v>4385902.0</v>
       </c>
       <c r="N35" s="26"/>
       <c r="O35" t="n" s="64">
         <f>SUM(O2:O34)</f>
-        <v>53247.579999999994</v>
+        <v>52407.299999999996</v>
       </c>
       <c r="P35" s="26"/>
       <c r="Q35" t="n" s="65">
         <f>SUM(Q2:Q34)</f>
-        <v>6883.38</v>
+        <v>6775.3</v>
       </c>
       <c r="R35" s="26"/>
       <c r="S35" t="n" s="66">
         <f>SUM(S2:S34)</f>
-        <v>5019.2</v>
+        <v>4952.0</v>
       </c>
       <c r="T35" s="26"/>
       <c r="U35" t="n" s="67">
         <f>SUM(U2:U34)</f>
-        <v>10979.96554361775</v>
+        <v>10748.96554361775</v>
       </c>
       <c r="V35" s="26"/>
       <c r="W35" t="n" s="68">
         <f>SUM(W2:W34)</f>
-        <v>10979.965543617753</v>
+        <v>10748.965543617753</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">

--- a/JavaApplication19/src/excel/Inventario.xlsx
+++ b/JavaApplication19/src/excel/Inventario.xlsx
@@ -1,28 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Desarrollo\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2B706F-918E-4173-83CC-481690D45A52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC11F4B-0F3B-44E1-971B-49B827F14498}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2948" yWindow="1553" windowWidth="21727" windowHeight="11497" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventario" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="96">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -305,43 +303,19 @@
     <t>PRECIO BASE UNIDAD</t>
   </si>
   <si>
-    <t>BOCINA JBL</t>
-  </si>
-  <si>
-    <t>BOCINA QUE JALA MACIZO</t>
-  </si>
-  <si>
-    <t>30  julio 20</t>
-  </si>
-  <si>
-    <t>Nuevo</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>2500000.0</t>
-  </si>
-  <si>
-    <t>750000</t>
-  </si>
-  <si>
-    <t>3750000.0</t>
-  </si>
-  <si>
-    <t>870000.0</t>
-  </si>
-  <si>
-    <t>4350000.0</t>
+    <t>31  julio</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>200.0</t>
   </si>
 </sst>
 </file>
@@ -351,7 +325,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -393,180 +367,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -629,7 +429,7 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -697,41 +497,16 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <bgColor indexed="22"/>
+        <fgColor rgb="EEEEEE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <bgColor indexed="22"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightTrellis">
-        <bgColor indexed="29"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEEEEE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF22B473"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
         <fgColor rgb="EEEEEE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="22B473"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -768,21 +543,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <bottom style="thin"/>
     </border>
     <border>
@@ -805,7 +565,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -883,6 +643,9 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -895,127 +658,40 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="15" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Salida" xfId="1" builtinId="21"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1094,7 +770,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1414,23 +1090,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC209"/>
+  <dimension ref="A1:AC208"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W35" sqref="W35"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.46484375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
     <col min="3" max="23" customWidth="true" width="20.6640625" collapsed="true"/>
     <col min="24" max="29" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -1438,7 +1114,7 @@
       <c r="C1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="8" t="s">
@@ -1499,2786 +1175,2721 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="13">
-        <v>44004</v>
-      </c>
-      <c r="D2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="18">
+        <v>43939</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="31">
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19">
+        <v>1</v>
+      </c>
+      <c r="H2" s="15">
+        <v>380</v>
+      </c>
+      <c r="I2" s="15">
+        <f t="shared" si="0"/>
+        <v>380</v>
+      </c>
+      <c r="J2" s="15">
+        <v>380</v>
+      </c>
+      <c r="K2" s="15">
+        <f t="shared" si="1"/>
+        <v>380</v>
+      </c>
+      <c r="L2" s="15">
+        <f t="shared" si="2"/>
+        <v>440.8</v>
+      </c>
+      <c r="M2" s="15">
+        <f t="shared" si="3"/>
+        <v>440.8</v>
+      </c>
+      <c r="N2" s="15">
+        <f t="shared" si="4"/>
+        <v>546.92000000000007</v>
+      </c>
+      <c r="O2" s="15">
+        <f t="shared" si="5"/>
+        <v>546.92000000000007</v>
+      </c>
+      <c r="P2" s="15">
+        <f t="shared" si="6"/>
+        <v>71.12</v>
+      </c>
+      <c r="Q2" s="15">
+        <f t="shared" si="7"/>
+        <v>71.12</v>
+      </c>
+      <c r="R2" s="15">
+        <f t="shared" si="8"/>
+        <v>60.800000000000004</v>
+      </c>
+      <c r="S2" s="15">
+        <f t="shared" si="9"/>
+        <v>60.800000000000004</v>
+      </c>
+      <c r="T2" s="15">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H2" s="15">
-        <v>200</v>
-      </c>
-      <c r="I2" s="15" t="n">
-        <f t="shared" ref="I2:I9" si="0">H2*G2</f>
-        <v>0.0</v>
-      </c>
-      <c r="J2" s="15">
-        <v>200</v>
-      </c>
-      <c r="K2" s="15" t="n">
-        <f t="shared" ref="K2:K33" si="1">J2*G2</f>
-        <v>0.0</v>
-      </c>
-      <c r="L2" s="15" t="n">
-        <f t="shared" ref="L2:L33" si="2">J2+R2</f>
-        <v>232.0</v>
-      </c>
-      <c r="M2" s="15" t="n">
-        <f t="shared" ref="M2:M33" si="3">L2*G2</f>
-        <v>0.0</v>
-      </c>
-      <c r="N2" s="15" t="n">
-        <f t="shared" ref="N2:N33" si="4">J2+R2+P2+35</f>
-        <v>306.8</v>
-      </c>
-      <c r="O2" s="15" t="n">
-        <f t="shared" ref="O2:O33" si="5">N2*G2</f>
-        <v>0.0</v>
-      </c>
-      <c r="P2" s="15" t="n">
-        <f t="shared" ref="P2:P33" si="6">(L2*0.15)+5</f>
-        <v>39.8</v>
-      </c>
-      <c r="Q2" s="15" t="n">
-        <f t="shared" ref="Q2:Q33" si="7">P2*G2</f>
-        <v>0.0</v>
-      </c>
-      <c r="R2" s="15" t="n">
-        <f t="shared" ref="R2:R33" si="8">J2*0.16</f>
-        <v>32.0</v>
-      </c>
-      <c r="S2" s="15" t="n">
-        <f t="shared" ref="S2:S33" si="9">R2*G2</f>
-        <v>0.0</v>
-      </c>
-      <c r="T2" s="15" t="n">
-        <f t="shared" ref="T2:T33" si="10">L2-H2-R2</f>
-        <v>0.0</v>
-      </c>
-      <c r="U2" s="15" t="n">
-        <f t="shared" ref="U2:U33" si="11">T2*G2</f>
-        <v>0.0</v>
-      </c>
-      <c r="V2" s="15" t="n">
-        <f t="shared" ref="V2:V33" si="12">N2-H2-P2-R2-35</f>
-        <v>1.4210854715202004E-14</v>
-      </c>
-      <c r="W2" s="16" t="n">
-        <f t="shared" ref="W2:W33" si="13">V2*G2</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.5">
+      <c r="U2" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V2" s="15">
+        <f t="shared" si="12"/>
+        <v>6.3948846218409017E-14</v>
+      </c>
+      <c r="W2" s="16">
+        <f t="shared" si="13"/>
+        <v>6.3948846218409017E-14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" s="18">
-        <v>43939</v>
+        <v>43840</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
-      <c r="G3" s="32">
-        <v>0</v>
+      <c r="G3" s="19">
+        <v>1</v>
       </c>
       <c r="H3" s="15">
-        <v>380</v>
-      </c>
-      <c r="I3" s="15" t="n">
+        <v>280</v>
+      </c>
+      <c r="I3" s="15">
         <f t="shared" si="0"/>
-        <v>0.0</v>
+        <v>280</v>
       </c>
       <c r="J3" s="15">
-        <v>380</v>
-      </c>
-      <c r="K3" s="15" t="n">
+        <v>280</v>
+      </c>
+      <c r="K3" s="15">
         <f t="shared" si="1"/>
-        <v>0.0</v>
-      </c>
-      <c r="L3" s="15" t="n">
-        <f t="shared" si="2"/>
-        <v>440.8</v>
-      </c>
-      <c r="M3" s="15" t="n">
-        <f t="shared" si="3"/>
-        <v>0.0</v>
-      </c>
-      <c r="N3" s="15" t="n">
-        <f t="shared" si="4"/>
-        <v>546.9200000000001</v>
-      </c>
-      <c r="O3" s="15" t="n">
-        <f t="shared" si="5"/>
-        <v>0.0</v>
-      </c>
-      <c r="P3" s="15" t="n">
-        <f t="shared" si="6"/>
-        <v>71.12</v>
-      </c>
-      <c r="Q3" s="15" t="n">
-        <f t="shared" si="7"/>
-        <v>0.0</v>
-      </c>
-      <c r="R3" s="15" t="n">
-        <f t="shared" si="8"/>
-        <v>60.800000000000004</v>
-      </c>
-      <c r="S3" s="15" t="n">
-        <f t="shared" si="9"/>
-        <v>0.0</v>
-      </c>
-      <c r="T3" s="15" t="n">
-        <f t="shared" si="10"/>
-        <v>7.105427357601002E-15</v>
-      </c>
-      <c r="U3" s="15" t="n">
-        <f t="shared" si="11"/>
-        <v>0.0</v>
-      </c>
-      <c r="V3" s="15" t="n">
-        <f t="shared" si="12"/>
-        <v>6.394884621840902E-14</v>
-      </c>
-      <c r="W3" s="16" t="n">
-        <f t="shared" si="13"/>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="18">
-        <v>43840</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="34">
-        <v>0</v>
-      </c>
-      <c r="H4" s="15">
         <v>280</v>
       </c>
-      <c r="I4" s="15" t="n">
-        <f t="shared" si="0"/>
-        <v>0.0</v>
-      </c>
-      <c r="J4" s="15">
-        <v>280</v>
-      </c>
-      <c r="K4" s="15" t="n">
-        <f t="shared" si="1"/>
-        <v>0.0</v>
-      </c>
-      <c r="L4" s="15" t="n">
+      <c r="L3" s="15">
         <f t="shared" si="2"/>
         <v>324.8</v>
       </c>
-      <c r="M4" s="15" t="n">
+      <c r="M3" s="15">
         <f t="shared" si="3"/>
-        <v>0.0</v>
-      </c>
-      <c r="N4" s="15" t="n">
+        <v>324.8</v>
+      </c>
+      <c r="N3" s="15">
         <f t="shared" si="4"/>
         <v>413.52</v>
       </c>
-      <c r="O4" s="15" t="n">
+      <c r="O3" s="15">
         <f t="shared" si="5"/>
-        <v>0.0</v>
-      </c>
-      <c r="P4" s="15" t="n">
+        <v>413.52</v>
+      </c>
+      <c r="P3" s="15">
         <f t="shared" si="6"/>
         <v>53.72</v>
       </c>
-      <c r="Q4" s="15" t="n">
+      <c r="Q3" s="15">
         <f t="shared" si="7"/>
-        <v>0.0</v>
-      </c>
-      <c r="R4" s="15" t="n">
+        <v>53.72</v>
+      </c>
+      <c r="R3" s="15">
         <f t="shared" si="8"/>
         <v>44.800000000000004</v>
       </c>
-      <c r="S4" s="15" t="n">
+      <c r="S3" s="15">
         <f t="shared" si="9"/>
-        <v>0.0</v>
-      </c>
-      <c r="T4" s="15" t="n">
+        <v>44.800000000000004</v>
+      </c>
+      <c r="T3" s="15">
         <f t="shared" si="10"/>
-        <v>7.105427357601002E-15</v>
-      </c>
-      <c r="U4" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="15">
         <f t="shared" si="11"/>
-        <v>0.0</v>
-      </c>
-      <c r="V4" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="15">
         <f t="shared" si="12"/>
-        <v>-2.1316282072803006E-14</v>
-      </c>
-      <c r="W4" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="16">
         <f t="shared" si="13"/>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A5" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B4" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C4" s="21">
         <v>43846</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D4" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5">
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22">
         <v>1</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H4" s="15">
         <v>4111.59</v>
       </c>
-      <c r="I5" s="15" t="n">
+      <c r="I4" s="15">
         <f t="shared" si="0"/>
         <v>4111.59</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J4" s="15">
         <v>5600</v>
       </c>
-      <c r="K5" s="15" t="n">
+      <c r="K4" s="15">
         <f t="shared" si="1"/>
-        <v>5600.0</v>
-      </c>
-      <c r="L5" s="15" t="n">
+        <v>5600</v>
+      </c>
+      <c r="L4" s="15">
         <f t="shared" si="2"/>
-        <v>6496.0</v>
-      </c>
-      <c r="M5" s="15" t="n">
+        <v>6496</v>
+      </c>
+      <c r="M4" s="15">
         <f t="shared" si="3"/>
-        <v>6496.0</v>
-      </c>
-      <c r="N5" s="15" t="n">
+        <v>6496</v>
+      </c>
+      <c r="N4" s="15">
         <f t="shared" si="4"/>
         <v>7510.4</v>
       </c>
-      <c r="O5" s="15" t="n">
+      <c r="O4" s="15">
         <f t="shared" si="5"/>
         <v>7510.4</v>
       </c>
-      <c r="P5" s="15" t="n">
+      <c r="P4" s="15">
         <f t="shared" si="6"/>
         <v>979.4</v>
       </c>
-      <c r="Q5" s="15" t="n">
+      <c r="Q4" s="15">
         <f t="shared" si="7"/>
         <v>979.4</v>
       </c>
-      <c r="R5" s="15" t="n">
+      <c r="R4" s="15">
         <f t="shared" si="8"/>
-        <v>896.0</v>
-      </c>
-      <c r="S5" s="15" t="n">
+        <v>896</v>
+      </c>
+      <c r="S4" s="15">
         <f t="shared" si="9"/>
-        <v>896.0</v>
-      </c>
-      <c r="T5" s="15" t="n">
+        <v>896</v>
+      </c>
+      <c r="T4" s="15">
         <f t="shared" si="10"/>
         <v>1488.4099999999999</v>
       </c>
-      <c r="U5" s="15" t="n">
+      <c r="U4" s="15">
         <f t="shared" si="11"/>
         <v>1488.4099999999999</v>
       </c>
-      <c r="V5" s="15" t="n">
+      <c r="V4" s="15">
         <f t="shared" si="12"/>
         <v>1488.4099999999994</v>
       </c>
-      <c r="W5" s="16" t="n">
+      <c r="W4" s="16">
         <f t="shared" si="13"/>
         <v>1488.4099999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A6" s="12" t="s">
+    <row r="5" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B5" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C5" s="13">
         <v>43902</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="35">
-        <v>0</v>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14">
+        <v>1</v>
+      </c>
+      <c r="H5" s="15">
+        <v>10508</v>
+      </c>
+      <c r="I5" s="15">
+        <f t="shared" si="0"/>
+        <v>10508</v>
+      </c>
+      <c r="J5" s="15">
+        <v>13000</v>
+      </c>
+      <c r="K5" s="15">
+        <f t="shared" si="1"/>
+        <v>13000</v>
+      </c>
+      <c r="L5" s="15">
+        <f t="shared" si="2"/>
+        <v>15080</v>
+      </c>
+      <c r="M5" s="15">
+        <f t="shared" si="3"/>
+        <v>15080</v>
+      </c>
+      <c r="N5" s="15">
+        <f t="shared" si="4"/>
+        <v>17382</v>
+      </c>
+      <c r="O5" s="15">
+        <f t="shared" si="5"/>
+        <v>17382</v>
+      </c>
+      <c r="P5" s="15">
+        <f t="shared" si="6"/>
+        <v>2267</v>
+      </c>
+      <c r="Q5" s="15">
+        <f t="shared" si="7"/>
+        <v>2267</v>
+      </c>
+      <c r="R5" s="15">
+        <f t="shared" si="8"/>
+        <v>2080</v>
+      </c>
+      <c r="S5" s="15">
+        <f t="shared" si="9"/>
+        <v>2080</v>
+      </c>
+      <c r="T5" s="15">
+        <f t="shared" si="10"/>
+        <v>2492</v>
+      </c>
+      <c r="U5" s="15">
+        <f t="shared" si="11"/>
+        <v>2492</v>
+      </c>
+      <c r="V5" s="15">
+        <f t="shared" si="12"/>
+        <v>2492</v>
+      </c>
+      <c r="W5" s="16">
+        <f t="shared" si="13"/>
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="30">
+        <v>43984</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31">
+        <v>1</v>
       </c>
       <c r="H6" s="15">
-        <v>10508</v>
-      </c>
-      <c r="I6" s="15" t="n">
+        <v>5990</v>
+      </c>
+      <c r="I6" s="15">
         <f t="shared" si="0"/>
-        <v>0.0</v>
+        <v>5990</v>
       </c>
       <c r="J6" s="15">
-        <v>13000</v>
-      </c>
-      <c r="K6" s="15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="K6" s="15">
         <f t="shared" si="1"/>
-        <v>0.0</v>
-      </c>
-      <c r="L6" s="15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L6" s="15">
         <f t="shared" si="2"/>
-        <v>15080.0</v>
-      </c>
-      <c r="M6" s="15" t="n">
+        <v>17400</v>
+      </c>
+      <c r="M6" s="15">
         <f t="shared" si="3"/>
-        <v>0.0</v>
-      </c>
-      <c r="N6" s="15" t="n">
+        <v>17400</v>
+      </c>
+      <c r="N6" s="15">
         <f t="shared" si="4"/>
-        <v>17382.0</v>
-      </c>
-      <c r="O6" s="15" t="n">
+        <v>20050</v>
+      </c>
+      <c r="O6" s="15">
         <f t="shared" si="5"/>
-        <v>0.0</v>
-      </c>
-      <c r="P6" s="15" t="n">
+        <v>20050</v>
+      </c>
+      <c r="P6" s="15">
         <f t="shared" si="6"/>
-        <v>2267.0</v>
-      </c>
-      <c r="Q6" s="15" t="n">
+        <v>2615</v>
+      </c>
+      <c r="Q6" s="15">
         <f t="shared" si="7"/>
-        <v>0.0</v>
-      </c>
-      <c r="R6" s="15" t="n">
+        <v>2615</v>
+      </c>
+      <c r="R6" s="15">
         <f t="shared" si="8"/>
-        <v>2080.0</v>
-      </c>
-      <c r="S6" s="15" t="n">
+        <v>2400</v>
+      </c>
+      <c r="S6" s="15">
         <f t="shared" si="9"/>
-        <v>0.0</v>
-      </c>
-      <c r="T6" s="15" t="n">
+        <v>2400</v>
+      </c>
+      <c r="T6" s="15">
         <f t="shared" si="10"/>
-        <v>2492.0</v>
-      </c>
-      <c r="U6" s="15" t="n">
+        <v>9010</v>
+      </c>
+      <c r="U6" s="15">
         <f t="shared" si="11"/>
-        <v>0.0</v>
-      </c>
-      <c r="V6" s="15" t="n">
+        <v>9010</v>
+      </c>
+      <c r="V6" s="15">
         <f t="shared" si="12"/>
-        <v>2492.0</v>
-      </c>
-      <c r="W6" s="16" t="n">
+        <v>9010</v>
+      </c>
+      <c r="W6" s="16">
         <f t="shared" si="13"/>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A7" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="29">
-        <v>43984</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="33">
-        <v>0</v>
+        <v>9010</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="18">
+        <v>43837</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19">
+        <v>61</v>
       </c>
       <c r="H7" s="15">
-        <v>5990</v>
-      </c>
-      <c r="I7" s="15" t="n">
+        <v>27</v>
+      </c>
+      <c r="I7" s="15">
         <f t="shared" si="0"/>
-        <v>0.0</v>
+        <v>1647</v>
       </c>
       <c r="J7" s="15">
-        <v>15000</v>
-      </c>
-      <c r="K7" s="15" t="n">
+        <v>60</v>
+      </c>
+      <c r="K7" s="15">
         <f t="shared" si="1"/>
-        <v>0.0</v>
-      </c>
-      <c r="L7" s="15" t="n">
+        <v>3660</v>
+      </c>
+      <c r="L7" s="15">
         <f t="shared" si="2"/>
-        <v>17400.0</v>
-      </c>
-      <c r="M7" s="15" t="n">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="M7" s="15">
         <f t="shared" si="3"/>
-        <v>0.0</v>
-      </c>
-      <c r="N7" s="15" t="n">
-        <f t="shared" si="4"/>
-        <v>20050.0</v>
-      </c>
-      <c r="O7" s="15" t="n">
-        <f t="shared" si="5"/>
-        <v>0.0</v>
-      </c>
-      <c r="P7" s="15" t="n">
-        <f t="shared" si="6"/>
-        <v>2615.0</v>
-      </c>
-      <c r="Q7" s="15" t="n">
-        <f t="shared" si="7"/>
-        <v>0.0</v>
-      </c>
-      <c r="R7" s="15" t="n">
-        <f t="shared" si="8"/>
-        <v>2400.0</v>
-      </c>
-      <c r="S7" s="15" t="n">
-        <f t="shared" si="9"/>
-        <v>0.0</v>
-      </c>
-      <c r="T7" s="15" t="n">
-        <f t="shared" si="10"/>
-        <v>9010.0</v>
-      </c>
-      <c r="U7" s="15" t="n">
-        <f t="shared" si="11"/>
-        <v>0.0</v>
-      </c>
-      <c r="V7" s="15" t="n">
-        <f t="shared" si="12"/>
-        <v>9010.0</v>
-      </c>
-      <c r="W7" s="16" t="n">
-        <f t="shared" si="13"/>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="18">
-        <v>43837</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" t="n" s="69">
-        <v>55.0</v>
-      </c>
-      <c r="H8" s="15">
-        <v>27</v>
-      </c>
-      <c r="I8" s="15" t="n">
-        <f t="shared" si="0"/>
-        <v>1485.0</v>
-      </c>
-      <c r="J8" s="15">
-        <v>60</v>
-      </c>
-      <c r="K8" s="15" t="n">
-        <f t="shared" si="1"/>
-        <v>3300.0</v>
-      </c>
-      <c r="L8" s="15" t="n">
-        <f t="shared" si="2"/>
-        <v>69.6</v>
-      </c>
-      <c r="M8" s="15" t="n">
-        <f t="shared" si="3"/>
-        <v>3827.9999999999995</v>
-      </c>
-      <c r="N8" s="15" t="n">
+        <v>4245.5999999999995</v>
+      </c>
+      <c r="N7" s="15">
         <f t="shared" si="4"/>
         <v>120.03999999999999</v>
       </c>
-      <c r="O8" s="15" t="n">
+      <c r="O7" s="15">
         <f t="shared" si="5"/>
-        <v>6602.2</v>
-      </c>
-      <c r="P8" s="15" t="n">
+        <v>7322.44</v>
+      </c>
+      <c r="P7" s="15">
         <f t="shared" si="6"/>
         <v>15.44</v>
       </c>
-      <c r="Q8" s="15" t="n">
+      <c r="Q7" s="15">
         <f t="shared" si="7"/>
-        <v>849.1999999999999</v>
-      </c>
-      <c r="R8" s="15" t="n">
+        <v>941.83999999999992</v>
+      </c>
+      <c r="R7" s="15">
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="S8" s="15" t="n">
+      <c r="S7" s="15">
         <f t="shared" si="9"/>
-        <v>528.0</v>
-      </c>
-      <c r="T8" s="15" t="n">
+        <v>585.6</v>
+      </c>
+      <c r="T7" s="15">
         <f t="shared" si="10"/>
-        <v>32.99999999999999</v>
-      </c>
-      <c r="U8" s="15" t="n">
+        <v>32.999999999999993</v>
+      </c>
+      <c r="U7" s="15">
         <f t="shared" si="11"/>
-        <v>1814.9999999999995</v>
-      </c>
-      <c r="V8" s="15" t="n">
+        <v>2012.9999999999995</v>
+      </c>
+      <c r="V7" s="15">
         <f t="shared" si="12"/>
-        <v>33.0</v>
-      </c>
-      <c r="W8" s="16" t="n">
+        <v>33</v>
+      </c>
+      <c r="W7" s="16">
         <f t="shared" si="13"/>
-        <v>1815.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="18">
+        <v>43853</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="19">
+        <f>22950/18500</f>
+        <v>1.2405405405405405</v>
+      </c>
+      <c r="G8" s="19">
+        <v>1</v>
+      </c>
+      <c r="H8" s="15">
+        <f>J8/F8</f>
+        <v>1209.1503267973856</v>
+      </c>
+      <c r="I8" s="15">
+        <f t="shared" si="0"/>
+        <v>1209.1503267973856</v>
+      </c>
+      <c r="J8" s="15">
+        <v>1500</v>
+      </c>
+      <c r="K8" s="15">
+        <f t="shared" si="1"/>
+        <v>1500</v>
+      </c>
+      <c r="L8" s="15">
+        <f t="shared" si="2"/>
+        <v>1740</v>
+      </c>
+      <c r="M8" s="15">
+        <f t="shared" si="3"/>
+        <v>1740</v>
+      </c>
+      <c r="N8" s="15">
+        <f t="shared" si="4"/>
+        <v>2041</v>
+      </c>
+      <c r="O8" s="15">
+        <f t="shared" si="5"/>
+        <v>2041</v>
+      </c>
+      <c r="P8" s="15">
+        <f t="shared" si="6"/>
+        <v>266</v>
+      </c>
+      <c r="Q8" s="15">
+        <f t="shared" si="7"/>
+        <v>266</v>
+      </c>
+      <c r="R8" s="15">
+        <f t="shared" si="8"/>
+        <v>240</v>
+      </c>
+      <c r="S8" s="15">
+        <f t="shared" si="9"/>
+        <v>240</v>
+      </c>
+      <c r="T8" s="15">
+        <f t="shared" si="10"/>
+        <v>290.84967320261444</v>
+      </c>
+      <c r="U8" s="15">
+        <f t="shared" si="11"/>
+        <v>290.84967320261444</v>
+      </c>
+      <c r="V8" s="15">
+        <f t="shared" si="12"/>
+        <v>290.84967320261444</v>
+      </c>
+      <c r="W8" s="16">
+        <f t="shared" si="13"/>
+        <v>290.84967320261444</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C9" s="18">
-        <v>43853</v>
+        <v>44018</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19">
+        <v>1</v>
+      </c>
+      <c r="H9" s="15">
+        <v>300</v>
+      </c>
+      <c r="I9" s="15">
+        <v>300</v>
+      </c>
+      <c r="J9" s="15">
+        <v>300</v>
+      </c>
+      <c r="K9" s="15">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="L9" s="15">
+        <f t="shared" si="2"/>
+        <v>348</v>
+      </c>
+      <c r="M9" s="15">
+        <f t="shared" si="3"/>
+        <v>348</v>
+      </c>
+      <c r="N9" s="15">
+        <f t="shared" si="4"/>
+        <v>440.2</v>
+      </c>
+      <c r="O9" s="15">
+        <f t="shared" si="5"/>
+        <v>440.2</v>
+      </c>
+      <c r="P9" s="15">
+        <f t="shared" si="6"/>
+        <v>57.199999999999996</v>
+      </c>
+      <c r="Q9" s="15">
+        <f t="shared" si="7"/>
+        <v>57.199999999999996</v>
+      </c>
+      <c r="R9" s="15">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+      <c r="S9" s="15">
+        <f t="shared" si="9"/>
+        <v>48</v>
+      </c>
+      <c r="T9" s="15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="18">
+        <v>43853</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="19" t="n">
+      <c r="F10" s="19">
         <f>22950/18500</f>
         <v>1.2405405405405405</v>
       </c>
-      <c r="G9" s="19">
-        <v>1</v>
-      </c>
-      <c r="H9" s="15" t="n">
-        <f>J9/F9</f>
-        <v>1209.1503267973856</v>
-      </c>
-      <c r="I9" s="15" t="n">
-        <f t="shared" si="0"/>
-        <v>1209.1503267973856</v>
-      </c>
-      <c r="J9" s="15">
-        <v>1500</v>
-      </c>
-      <c r="K9" s="15" t="n">
-        <f t="shared" si="1"/>
-        <v>1500.0</v>
-      </c>
-      <c r="L9" s="15" t="n">
-        <f t="shared" si="2"/>
-        <v>1740.0</v>
-      </c>
-      <c r="M9" s="15" t="n">
-        <f t="shared" si="3"/>
-        <v>1740.0</v>
-      </c>
-      <c r="N9" s="15" t="n">
-        <f t="shared" si="4"/>
-        <v>2041.0</v>
-      </c>
-      <c r="O9" s="15" t="n">
-        <f t="shared" si="5"/>
-        <v>2041.0</v>
-      </c>
-      <c r="P9" s="15" t="n">
-        <f t="shared" si="6"/>
-        <v>266.0</v>
-      </c>
-      <c r="Q9" s="15" t="n">
-        <f t="shared" si="7"/>
-        <v>266.0</v>
-      </c>
-      <c r="R9" s="15" t="n">
-        <f t="shared" si="8"/>
-        <v>240.0</v>
-      </c>
-      <c r="S9" s="15" t="n">
-        <f t="shared" si="9"/>
-        <v>240.0</v>
-      </c>
-      <c r="T9" s="15" t="n">
-        <f t="shared" si="10"/>
-        <v>290.84967320261444</v>
-      </c>
-      <c r="U9" s="15" t="n">
-        <f t="shared" si="11"/>
-        <v>290.84967320261444</v>
-      </c>
-      <c r="V9" s="15" t="n">
-        <f t="shared" si="12"/>
-        <v>290.84967320261444</v>
-      </c>
-      <c r="W9" s="16" t="n">
-        <f t="shared" si="13"/>
-        <v>290.84967320261444</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A10" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="18">
-        <v>44018</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
       <c r="G10" s="19">
         <v>1</v>
       </c>
       <c r="H10" s="15">
+        <f>J10/F10</f>
+        <v>322.44008714596953</v>
+      </c>
+      <c r="I10" s="15">
+        <f t="shared" ref="I10:I32" si="14">H10*G10</f>
+        <v>322.44008714596953</v>
+      </c>
+      <c r="J10" s="15">
+        <v>400</v>
+      </c>
+      <c r="K10" s="15">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="L10" s="15">
+        <f t="shared" si="2"/>
+        <v>464</v>
+      </c>
+      <c r="M10" s="15">
+        <f t="shared" si="3"/>
+        <v>464</v>
+      </c>
+      <c r="N10" s="15">
+        <f t="shared" si="4"/>
+        <v>573.6</v>
+      </c>
+      <c r="O10" s="15">
+        <f t="shared" si="5"/>
+        <v>573.6</v>
+      </c>
+      <c r="P10" s="15">
+        <f t="shared" si="6"/>
+        <v>74.599999999999994</v>
+      </c>
+      <c r="Q10" s="15">
+        <f t="shared" si="7"/>
+        <v>74.599999999999994</v>
+      </c>
+      <c r="R10" s="15">
+        <f t="shared" si="8"/>
+        <v>64</v>
+      </c>
+      <c r="S10" s="15">
+        <f t="shared" si="9"/>
+        <v>64</v>
+      </c>
+      <c r="T10" s="15">
+        <f t="shared" si="10"/>
+        <v>77.559912854030472</v>
+      </c>
+      <c r="U10" s="15">
+        <f t="shared" si="11"/>
+        <v>77.559912854030472</v>
+      </c>
+      <c r="V10" s="15">
+        <f t="shared" si="12"/>
+        <v>77.5599128540305</v>
+      </c>
+      <c r="W10" s="16">
+        <f t="shared" si="13"/>
+        <v>77.5599128540305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="18">
+        <v>43837</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="19">
+        <f>14600/7500</f>
+        <v>1.9466666666666668</v>
+      </c>
+      <c r="G11" s="19">
+        <v>1</v>
+      </c>
+      <c r="H11" s="15">
+        <f>J11/F11</f>
+        <v>179.79452054794518</v>
+      </c>
+      <c r="I11" s="15">
+        <f t="shared" si="14"/>
+        <v>179.79452054794518</v>
+      </c>
+      <c r="J11" s="15">
+        <v>350</v>
+      </c>
+      <c r="K11" s="15">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="L11" s="15">
+        <f t="shared" si="2"/>
+        <v>406</v>
+      </c>
+      <c r="M11" s="15">
+        <f t="shared" si="3"/>
+        <v>406</v>
+      </c>
+      <c r="N11" s="15">
+        <f t="shared" si="4"/>
+        <v>506.9</v>
+      </c>
+      <c r="O11" s="15">
+        <f t="shared" si="5"/>
+        <v>506.9</v>
+      </c>
+      <c r="P11" s="15">
+        <f t="shared" si="6"/>
+        <v>65.900000000000006</v>
+      </c>
+      <c r="Q11" s="15">
+        <f t="shared" si="7"/>
+        <v>65.900000000000006</v>
+      </c>
+      <c r="R11" s="15">
+        <f t="shared" si="8"/>
+        <v>56</v>
+      </c>
+      <c r="S11" s="15">
+        <f t="shared" si="9"/>
+        <v>56</v>
+      </c>
+      <c r="T11" s="15">
+        <f t="shared" si="10"/>
+        <v>170.20547945205482</v>
+      </c>
+      <c r="U11" s="15">
+        <f t="shared" si="11"/>
+        <v>170.20547945205482</v>
+      </c>
+      <c r="V11" s="15">
+        <f t="shared" si="12"/>
+        <v>170.20547945205476</v>
+      </c>
+      <c r="W11" s="16">
+        <f t="shared" si="13"/>
+        <v>170.20547945205476</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="18">
+        <v>43840</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19">
+        <v>1</v>
+      </c>
+      <c r="H12" s="15">
+        <v>450</v>
+      </c>
+      <c r="I12" s="15">
+        <f t="shared" si="14"/>
+        <v>450</v>
+      </c>
+      <c r="J12" s="15">
+        <v>450</v>
+      </c>
+      <c r="K12" s="15">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="L12" s="15">
+        <f t="shared" si="2"/>
+        <v>522</v>
+      </c>
+      <c r="M12" s="15">
+        <f t="shared" si="3"/>
+        <v>522</v>
+      </c>
+      <c r="N12" s="15">
+        <f t="shared" si="4"/>
+        <v>640.29999999999995</v>
+      </c>
+      <c r="O12" s="15">
+        <f t="shared" si="5"/>
+        <v>640.29999999999995</v>
+      </c>
+      <c r="P12" s="15">
+        <f t="shared" si="6"/>
+        <v>83.3</v>
+      </c>
+      <c r="Q12" s="15">
+        <f t="shared" si="7"/>
+        <v>83.3</v>
+      </c>
+      <c r="R12" s="15">
+        <f t="shared" si="8"/>
+        <v>72</v>
+      </c>
+      <c r="S12" s="15">
+        <f t="shared" si="9"/>
+        <v>72</v>
+      </c>
+      <c r="T12" s="15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="18">
+        <v>43847</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19">
+        <v>195</v>
+      </c>
+      <c r="H13" s="15">
+        <v>14.96</v>
+      </c>
+      <c r="I13" s="15">
+        <f t="shared" si="14"/>
+        <v>2917.2000000000003</v>
+      </c>
+      <c r="J13" s="15">
+        <v>30</v>
+      </c>
+      <c r="K13" s="15">
+        <f t="shared" si="1"/>
+        <v>5850</v>
+      </c>
+      <c r="L13" s="15">
+        <f t="shared" si="2"/>
+        <v>34.799999999999997</v>
+      </c>
+      <c r="M13" s="15">
+        <f t="shared" si="3"/>
+        <v>6785.9999999999991</v>
+      </c>
+      <c r="N13" s="15">
+        <f t="shared" si="4"/>
+        <v>80.02</v>
+      </c>
+      <c r="O13" s="15">
+        <f t="shared" si="5"/>
+        <v>15603.9</v>
+      </c>
+      <c r="P13" s="15">
+        <f t="shared" si="6"/>
+        <v>10.219999999999999</v>
+      </c>
+      <c r="Q13" s="15">
+        <f t="shared" si="7"/>
+        <v>1992.8999999999999</v>
+      </c>
+      <c r="R13" s="15">
+        <f t="shared" si="8"/>
+        <v>4.8</v>
+      </c>
+      <c r="S13" s="15">
+        <f t="shared" si="9"/>
+        <v>936</v>
+      </c>
+      <c r="T13" s="15">
+        <f t="shared" si="10"/>
+        <v>15.039999999999996</v>
+      </c>
+      <c r="U13" s="15">
+        <f t="shared" si="11"/>
+        <v>2932.7999999999993</v>
+      </c>
+      <c r="V13" s="15">
+        <f t="shared" si="12"/>
+        <v>15.040000000000006</v>
+      </c>
+      <c r="W13" s="16">
+        <f t="shared" si="13"/>
+        <v>2932.8000000000011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="18">
+        <v>43837</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="19">
+        <f>14600/7500</f>
+        <v>1.9466666666666668</v>
+      </c>
+      <c r="G14" s="19">
+        <v>1</v>
+      </c>
+      <c r="H14" s="15">
+        <f>J14/F14</f>
+        <v>256.84931506849313</v>
+      </c>
+      <c r="I14" s="15">
+        <f t="shared" si="14"/>
+        <v>256.84931506849313</v>
+      </c>
+      <c r="J14" s="15">
+        <v>500</v>
+      </c>
+      <c r="K14" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="L14" s="15">
+        <f t="shared" si="2"/>
+        <v>580</v>
+      </c>
+      <c r="M14" s="15">
+        <f t="shared" si="3"/>
+        <v>580</v>
+      </c>
+      <c r="N14" s="15">
+        <f t="shared" si="4"/>
+        <v>707</v>
+      </c>
+      <c r="O14" s="15">
+        <f t="shared" si="5"/>
+        <v>707</v>
+      </c>
+      <c r="P14" s="15">
+        <f t="shared" si="6"/>
+        <v>92</v>
+      </c>
+      <c r="Q14" s="15">
+        <f t="shared" si="7"/>
+        <v>92</v>
+      </c>
+      <c r="R14" s="15">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="S14" s="15">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="T14" s="15">
+        <f t="shared" si="10"/>
+        <v>243.15068493150687</v>
+      </c>
+      <c r="U14" s="15">
+        <f t="shared" si="11"/>
+        <v>243.15068493150687</v>
+      </c>
+      <c r="V14" s="15">
+        <f t="shared" si="12"/>
+        <v>243.15068493150687</v>
+      </c>
+      <c r="W14" s="16">
+        <f t="shared" si="13"/>
+        <v>243.15068493150687</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="18">
+        <v>43837</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="19">
+        <f>14600/7500</f>
+        <v>1.9466666666666668</v>
+      </c>
+      <c r="G15" s="19">
+        <v>1</v>
+      </c>
+      <c r="H15" s="15">
+        <f>J15/F15</f>
+        <v>77.054794520547944</v>
+      </c>
+      <c r="I15" s="15">
+        <f t="shared" si="14"/>
+        <v>77.054794520547944</v>
+      </c>
+      <c r="J15" s="15">
+        <v>150</v>
+      </c>
+      <c r="K15" s="15">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="L15" s="15">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+      <c r="M15" s="15">
+        <f t="shared" si="3"/>
+        <v>174</v>
+      </c>
+      <c r="N15" s="15">
+        <f t="shared" si="4"/>
+        <v>240.1</v>
+      </c>
+      <c r="O15" s="15">
+        <f t="shared" si="5"/>
+        <v>240.1</v>
+      </c>
+      <c r="P15" s="15">
+        <f t="shared" si="6"/>
+        <v>31.099999999999998</v>
+      </c>
+      <c r="Q15" s="15">
+        <f t="shared" si="7"/>
+        <v>31.099999999999998</v>
+      </c>
+      <c r="R15" s="15">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="S15" s="15">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="T15" s="15">
+        <f t="shared" si="10"/>
+        <v>72.945205479452056</v>
+      </c>
+      <c r="U15" s="15">
+        <f t="shared" si="11"/>
+        <v>72.945205479452056</v>
+      </c>
+      <c r="V15" s="15">
+        <f t="shared" si="12"/>
+        <v>72.945205479452056</v>
+      </c>
+      <c r="W15" s="16">
+        <f t="shared" si="13"/>
+        <v>72.945205479452056</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="18">
+        <v>43837</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19">
+        <v>2</v>
+      </c>
+      <c r="H16" s="15">
+        <v>50</v>
+      </c>
+      <c r="I16" s="15">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="J16" s="15">
+        <v>150</v>
+      </c>
+      <c r="K16" s="15">
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="I10" s="15">
+      <c r="L16" s="15">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+      <c r="M16" s="15">
+        <f t="shared" si="3"/>
+        <v>348</v>
+      </c>
+      <c r="N16" s="15">
+        <f t="shared" si="4"/>
+        <v>240.1</v>
+      </c>
+      <c r="O16" s="15">
+        <f t="shared" si="5"/>
+        <v>480.2</v>
+      </c>
+      <c r="P16" s="15">
+        <f t="shared" si="6"/>
+        <v>31.099999999999998</v>
+      </c>
+      <c r="Q16" s="15">
+        <f t="shared" si="7"/>
+        <v>62.199999999999996</v>
+      </c>
+      <c r="R16" s="15">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="S16" s="15">
+        <f t="shared" si="9"/>
+        <v>48</v>
+      </c>
+      <c r="T16" s="15">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="U16" s="15">
+        <f t="shared" si="11"/>
+        <v>200</v>
+      </c>
+      <c r="V16" s="15">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="W16" s="16">
+        <f t="shared" si="13"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="30">
+        <v>43853</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31">
+        <v>1</v>
+      </c>
+      <c r="H17" s="15">
         <v>300</v>
       </c>
-      <c r="J10" s="15">
+      <c r="I17" s="15">
+        <f t="shared" si="14"/>
         <v>300</v>
       </c>
-      <c r="K10" s="15" t="n">
+      <c r="J17" s="15">
+        <v>300</v>
+      </c>
+      <c r="K17" s="15">
         <f t="shared" si="1"/>
-        <v>300.0</v>
-      </c>
-      <c r="L10" s="15" t="n">
+        <v>300</v>
+      </c>
+      <c r="L17" s="15">
         <f t="shared" si="2"/>
-        <v>348.0</v>
-      </c>
-      <c r="M10" s="15" t="n">
+        <v>348</v>
+      </c>
+      <c r="M17" s="15">
         <f t="shared" si="3"/>
-        <v>348.0</v>
-      </c>
-      <c r="N10" s="15" t="n">
+        <v>348</v>
+      </c>
+      <c r="N17" s="15">
         <f t="shared" si="4"/>
         <v>440.2</v>
       </c>
-      <c r="O10" s="15" t="n">
+      <c r="O17" s="15">
         <f t="shared" si="5"/>
         <v>440.2</v>
       </c>
-      <c r="P10" s="15" t="n">
+      <c r="P17" s="15">
         <f t="shared" si="6"/>
         <v>57.199999999999996</v>
       </c>
-      <c r="Q10" s="15" t="n">
+      <c r="Q17" s="15">
         <f t="shared" si="7"/>
         <v>57.199999999999996</v>
       </c>
-      <c r="R10" s="15" t="n">
+      <c r="R17" s="15">
         <f t="shared" si="8"/>
-        <v>48.0</v>
-      </c>
-      <c r="S10" s="15" t="n">
+        <v>48</v>
+      </c>
+      <c r="S17" s="15">
         <f t="shared" si="9"/>
-        <v>48.0</v>
-      </c>
-      <c r="T10" s="15" t="n">
+        <v>48</v>
+      </c>
+      <c r="T17" s="15">
         <f t="shared" si="10"/>
-        <v>0.0</v>
-      </c>
-      <c r="U10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" s="15">
         <f t="shared" si="11"/>
-        <v>0.0</v>
-      </c>
-      <c r="V10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" s="15">
         <f t="shared" si="12"/>
-        <v>0.0</v>
-      </c>
-      <c r="W10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" s="16">
         <f t="shared" si="13"/>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A11" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="18">
+        <v>43837</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="19">
+        <f>14600/7500</f>
+        <v>1.9466666666666668</v>
+      </c>
+      <c r="G18" s="19">
+        <v>1</v>
+      </c>
+      <c r="H18" s="15">
+        <f>J18/F18</f>
+        <v>205.47945205479451</v>
+      </c>
+      <c r="I18" s="15">
+        <f t="shared" si="14"/>
+        <v>205.47945205479451</v>
+      </c>
+      <c r="J18" s="15">
+        <v>400</v>
+      </c>
+      <c r="K18" s="15">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="L18" s="15">
+        <f t="shared" si="2"/>
+        <v>464</v>
+      </c>
+      <c r="M18" s="15">
+        <f t="shared" si="3"/>
+        <v>464</v>
+      </c>
+      <c r="N18" s="15">
+        <f t="shared" si="4"/>
+        <v>573.6</v>
+      </c>
+      <c r="O18" s="15">
+        <f t="shared" si="5"/>
+        <v>573.6</v>
+      </c>
+      <c r="P18" s="15">
+        <f t="shared" si="6"/>
+        <v>74.599999999999994</v>
+      </c>
+      <c r="Q18" s="15">
+        <f t="shared" si="7"/>
+        <v>74.599999999999994</v>
+      </c>
+      <c r="R18" s="15">
+        <f t="shared" si="8"/>
+        <v>64</v>
+      </c>
+      <c r="S18" s="15">
+        <f t="shared" si="9"/>
+        <v>64</v>
+      </c>
+      <c r="T18" s="15">
+        <f t="shared" si="10"/>
+        <v>194.52054794520552</v>
+      </c>
+      <c r="U18" s="15">
+        <f t="shared" si="11"/>
+        <v>194.52054794520552</v>
+      </c>
+      <c r="V18" s="15">
+        <f t="shared" si="12"/>
+        <v>194.52054794520552</v>
+      </c>
+      <c r="W18" s="16">
+        <f t="shared" si="13"/>
+        <v>194.52054794520552</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="18">
+        <v>43843</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="15">
+        <v>250</v>
+      </c>
+      <c r="I19" s="15">
+        <f t="shared" si="14"/>
+        <v>250</v>
+      </c>
+      <c r="J19" s="15">
+        <v>250</v>
+      </c>
+      <c r="K19" s="15">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="L19" s="15">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+      <c r="M19" s="15">
+        <f t="shared" si="3"/>
+        <v>290</v>
+      </c>
+      <c r="N19" s="15">
+        <f t="shared" si="4"/>
+        <v>373.5</v>
+      </c>
+      <c r="O19" s="15">
+        <f t="shared" si="5"/>
+        <v>373.5</v>
+      </c>
+      <c r="P19" s="15">
+        <f t="shared" si="6"/>
+        <v>48.5</v>
+      </c>
+      <c r="Q19" s="15">
+        <f t="shared" si="7"/>
+        <v>48.5</v>
+      </c>
+      <c r="R19" s="15">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="S19" s="15">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="T19" s="15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="18">
+        <v>43843</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="19">
+        <f>14600/7500</f>
+        <v>1.9466666666666668</v>
+      </c>
+      <c r="G20" s="19">
+        <v>1</v>
+      </c>
+      <c r="H20" s="15">
+        <f>J20/F20</f>
+        <v>128.42465753424656</v>
+      </c>
+      <c r="I20" s="15">
+        <f t="shared" si="14"/>
+        <v>128.42465753424656</v>
+      </c>
+      <c r="J20" s="15">
+        <v>250</v>
+      </c>
+      <c r="K20" s="15">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="L20" s="15">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+      <c r="M20" s="15">
+        <f t="shared" si="3"/>
+        <v>290</v>
+      </c>
+      <c r="N20" s="15">
+        <f t="shared" si="4"/>
+        <v>373.5</v>
+      </c>
+      <c r="O20" s="15">
+        <f t="shared" si="5"/>
+        <v>373.5</v>
+      </c>
+      <c r="P20" s="15">
+        <f t="shared" si="6"/>
+        <v>48.5</v>
+      </c>
+      <c r="Q20" s="15">
+        <f t="shared" si="7"/>
+        <v>48.5</v>
+      </c>
+      <c r="R20" s="15">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="S20" s="15">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="T20" s="15">
+        <f t="shared" si="10"/>
+        <v>121.57534246575344</v>
+      </c>
+      <c r="U20" s="15">
+        <f t="shared" si="11"/>
+        <v>121.57534246575344</v>
+      </c>
+      <c r="V20" s="15">
+        <f t="shared" si="12"/>
+        <v>121.57534246575344</v>
+      </c>
+      <c r="W20" s="16">
+        <f t="shared" si="13"/>
+        <v>121.57534246575344</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="18">
+        <v>43843</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19">
+        <v>2</v>
+      </c>
+      <c r="H21" s="15">
+        <v>400</v>
+      </c>
+      <c r="I21" s="15">
+        <f t="shared" si="14"/>
+        <v>800</v>
+      </c>
+      <c r="J21" s="15">
+        <v>400</v>
+      </c>
+      <c r="K21" s="15">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="L21" s="15">
+        <f t="shared" si="2"/>
+        <v>464</v>
+      </c>
+      <c r="M21" s="15">
+        <f t="shared" si="3"/>
+        <v>928</v>
+      </c>
+      <c r="N21" s="15">
+        <f t="shared" si="4"/>
+        <v>573.6</v>
+      </c>
+      <c r="O21" s="15">
+        <f t="shared" si="5"/>
+        <v>1147.2</v>
+      </c>
+      <c r="P21" s="15">
+        <f t="shared" si="6"/>
+        <v>74.599999999999994</v>
+      </c>
+      <c r="Q21" s="15">
+        <f t="shared" si="7"/>
+        <v>149.19999999999999</v>
+      </c>
+      <c r="R21" s="15">
+        <f t="shared" si="8"/>
+        <v>64</v>
+      </c>
+      <c r="S21" s="15">
+        <f t="shared" si="9"/>
+        <v>128</v>
+      </c>
+      <c r="T21" s="15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="13">
+        <v>44008</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14">
+        <v>2</v>
+      </c>
+      <c r="H22" s="15">
+        <v>212.5</v>
+      </c>
+      <c r="I22" s="15">
+        <f t="shared" si="14"/>
+        <v>425</v>
+      </c>
+      <c r="J22" s="15">
+        <v>700</v>
+      </c>
+      <c r="K22" s="15">
+        <f t="shared" si="1"/>
+        <v>1400</v>
+      </c>
+      <c r="L22" s="15">
+        <f t="shared" si="2"/>
+        <v>812</v>
+      </c>
+      <c r="M22" s="15">
+        <f t="shared" si="3"/>
+        <v>1624</v>
+      </c>
+      <c r="N22" s="15">
+        <f t="shared" si="4"/>
+        <v>973.8</v>
+      </c>
+      <c r="O22" s="15">
+        <f t="shared" si="5"/>
+        <v>1947.6</v>
+      </c>
+      <c r="P22" s="15">
+        <f t="shared" si="6"/>
+        <v>126.8</v>
+      </c>
+      <c r="Q22" s="15">
+        <f t="shared" si="7"/>
+        <v>253.6</v>
+      </c>
+      <c r="R22" s="15">
+        <f t="shared" si="8"/>
+        <v>112</v>
+      </c>
+      <c r="S22" s="15">
+        <f t="shared" si="9"/>
+        <v>224</v>
+      </c>
+      <c r="T22" s="15">
+        <f t="shared" si="10"/>
+        <v>487.5</v>
+      </c>
+      <c r="U22" s="15">
+        <f t="shared" si="11"/>
+        <v>975</v>
+      </c>
+      <c r="V22" s="15">
+        <f t="shared" si="12"/>
+        <v>487.5</v>
+      </c>
+      <c r="W22" s="16">
+        <f t="shared" si="13"/>
+        <v>975</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="18">
+        <v>43837</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="19">
+        <f>14600/7500</f>
+        <v>1.9466666666666668</v>
+      </c>
+      <c r="G23" s="19">
+        <v>1</v>
+      </c>
+      <c r="H23" s="15">
+        <f t="shared" ref="H23:H29" si="15">J23/F23</f>
+        <v>256.84931506849313</v>
+      </c>
+      <c r="I23" s="15">
+        <f t="shared" si="14"/>
+        <v>256.84931506849313</v>
+      </c>
+      <c r="J23" s="15">
+        <v>500</v>
+      </c>
+      <c r="K23" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="L23" s="15">
+        <f t="shared" si="2"/>
+        <v>580</v>
+      </c>
+      <c r="M23" s="15">
+        <f t="shared" si="3"/>
+        <v>580</v>
+      </c>
+      <c r="N23" s="15">
+        <f t="shared" si="4"/>
+        <v>707</v>
+      </c>
+      <c r="O23" s="15">
+        <f t="shared" si="5"/>
+        <v>707</v>
+      </c>
+      <c r="P23" s="15">
+        <f t="shared" si="6"/>
+        <v>92</v>
+      </c>
+      <c r="Q23" s="15">
+        <f t="shared" si="7"/>
+        <v>92</v>
+      </c>
+      <c r="R23" s="15">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="S23" s="15">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="T23" s="15">
+        <f t="shared" si="10"/>
+        <v>243.15068493150687</v>
+      </c>
+      <c r="U23" s="15">
+        <f t="shared" si="11"/>
+        <v>243.15068493150687</v>
+      </c>
+      <c r="V23" s="15">
+        <f t="shared" si="12"/>
+        <v>243.15068493150687</v>
+      </c>
+      <c r="W23" s="16">
+        <f t="shared" si="13"/>
+        <v>243.15068493150687</v>
+      </c>
+      <c r="AC23" s="6"/>
+    </row>
+    <row r="24" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="18">
         <v>43853</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D24" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E24" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="19" t="n">
+      <c r="F24" s="19">
         <f>22950/18500</f>
         <v>1.2405405405405405</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G24" s="19">
         <v>1</v>
       </c>
-      <c r="H11" s="15" t="n">
-        <f>J11/F11</f>
-        <v>322.4400871459695</v>
-      </c>
-      <c r="I11" s="15" t="n">
-        <f t="shared" ref="I11:I33" si="14">H11*G11</f>
-        <v>322.4400871459695</v>
-      </c>
-      <c r="J11" s="15">
-        <v>400</v>
-      </c>
-      <c r="K11" s="15" t="n">
+      <c r="H24" s="15">
+        <f t="shared" si="15"/>
+        <v>282.13507625272331</v>
+      </c>
+      <c r="I24" s="15">
+        <f t="shared" si="14"/>
+        <v>282.13507625272331</v>
+      </c>
+      <c r="J24" s="15">
+        <v>350</v>
+      </c>
+      <c r="K24" s="15">
         <f t="shared" si="1"/>
-        <v>400.0</v>
-      </c>
-      <c r="L11" s="15" t="n">
+        <v>350</v>
+      </c>
+      <c r="L24" s="15">
         <f t="shared" si="2"/>
-        <v>464.0</v>
-      </c>
-      <c r="M11" s="15" t="n">
+        <v>406</v>
+      </c>
+      <c r="M24" s="15">
         <f t="shared" si="3"/>
-        <v>464.0</v>
-      </c>
-      <c r="N11" s="15" t="n">
+        <v>406</v>
+      </c>
+      <c r="N24" s="15">
         <f t="shared" si="4"/>
-        <v>573.6</v>
-      </c>
-      <c r="O11" s="15" t="n">
+        <v>506.9</v>
+      </c>
+      <c r="O24" s="15">
         <f t="shared" si="5"/>
-        <v>573.6</v>
-      </c>
-      <c r="P11" s="15" t="n">
+        <v>506.9</v>
+      </c>
+      <c r="P24" s="15">
         <f t="shared" si="6"/>
-        <v>74.6</v>
-      </c>
-      <c r="Q11" s="15" t="n">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="Q24" s="15">
         <f t="shared" si="7"/>
-        <v>74.6</v>
-      </c>
-      <c r="R11" s="15" t="n">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="R24" s="15">
         <f t="shared" si="8"/>
-        <v>64.0</v>
-      </c>
-      <c r="S11" s="15" t="n">
+        <v>56</v>
+      </c>
+      <c r="S24" s="15">
         <f t="shared" si="9"/>
-        <v>64.0</v>
-      </c>
-      <c r="T11" s="15" t="n">
+        <v>56</v>
+      </c>
+      <c r="T24" s="15">
         <f t="shared" si="10"/>
-        <v>77.55991285403047</v>
-      </c>
-      <c r="U11" s="15" t="n">
+        <v>67.864923747276691</v>
+      </c>
+      <c r="U24" s="15">
         <f t="shared" si="11"/>
-        <v>77.55991285403047</v>
-      </c>
-      <c r="V11" s="15" t="n">
+        <v>67.864923747276691</v>
+      </c>
+      <c r="V24" s="15">
         <f t="shared" si="12"/>
-        <v>77.5599128540305</v>
-      </c>
-      <c r="W11" s="16" t="n">
+        <v>67.864923747276663</v>
+      </c>
+      <c r="W24" s="16">
         <f t="shared" si="13"/>
-        <v>77.5599128540305</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A12" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="18">
+        <v>67.864923747276663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="18">
         <v>43837</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D25" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E25" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="19" t="n">
+      <c r="F25" s="19">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G25" s="19">
         <v>1</v>
       </c>
-      <c r="H12" s="15" t="n">
-        <f>J12/F12</f>
-        <v>179.79452054794518</v>
-      </c>
-      <c r="I12" s="15" t="n">
+      <c r="H25" s="15">
+        <f t="shared" si="15"/>
+        <v>128.42465753424656</v>
+      </c>
+      <c r="I25" s="15">
         <f t="shared" si="14"/>
-        <v>179.79452054794518</v>
-      </c>
-      <c r="J12" s="15">
-        <v>350</v>
-      </c>
-      <c r="K12" s="15" t="n">
+        <v>128.42465753424656</v>
+      </c>
+      <c r="J25" s="15">
+        <v>250</v>
+      </c>
+      <c r="K25" s="15">
         <f t="shared" si="1"/>
-        <v>350.0</v>
-      </c>
-      <c r="L12" s="15" t="n">
+        <v>250</v>
+      </c>
+      <c r="L25" s="15">
         <f t="shared" si="2"/>
-        <v>406.0</v>
-      </c>
-      <c r="M12" s="15" t="n">
+        <v>290</v>
+      </c>
+      <c r="M25" s="15">
         <f t="shared" si="3"/>
-        <v>406.0</v>
-      </c>
-      <c r="N12" s="15" t="n">
+        <v>290</v>
+      </c>
+      <c r="N25" s="15">
         <f t="shared" si="4"/>
-        <v>506.9</v>
-      </c>
-      <c r="O12" s="15" t="n">
+        <v>373.5</v>
+      </c>
+      <c r="O25" s="15">
         <f t="shared" si="5"/>
-        <v>506.9</v>
-      </c>
-      <c r="P12" s="15" t="n">
+        <v>373.5</v>
+      </c>
+      <c r="P25" s="15">
         <f t="shared" si="6"/>
-        <v>65.9</v>
-      </c>
-      <c r="Q12" s="15" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="Q25" s="15">
         <f t="shared" si="7"/>
-        <v>65.9</v>
-      </c>
-      <c r="R12" s="15" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="R25" s="15">
         <f t="shared" si="8"/>
-        <v>56.0</v>
-      </c>
-      <c r="S12" s="15" t="n">
+        <v>40</v>
+      </c>
+      <c r="S25" s="15">
         <f t="shared" si="9"/>
-        <v>56.0</v>
-      </c>
-      <c r="T12" s="15" t="n">
+        <v>40</v>
+      </c>
+      <c r="T25" s="15">
         <f t="shared" si="10"/>
-        <v>170.20547945205482</v>
-      </c>
-      <c r="U12" s="15" t="n">
+        <v>121.57534246575344</v>
+      </c>
+      <c r="U25" s="15">
         <f t="shared" si="11"/>
-        <v>170.20547945205482</v>
-      </c>
-      <c r="V12" s="15" t="n">
+        <v>121.57534246575344</v>
+      </c>
+      <c r="V25" s="15">
         <f t="shared" si="12"/>
-        <v>170.20547945205476</v>
-      </c>
-      <c r="W12" s="16" t="n">
+        <v>121.57534246575344</v>
+      </c>
+      <c r="W25" s="16">
         <f t="shared" si="13"/>
-        <v>170.20547945205476</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A13" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="18">
-        <v>43840</v>
-      </c>
-      <c r="D13" s="19" t="s">
+        <v>121.57534246575344</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="18">
+        <v>43853</v>
+      </c>
+      <c r="D26" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13">
+      <c r="E26" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="19">
+        <f>22950/18500</f>
+        <v>1.2405405405405405</v>
+      </c>
+      <c r="G26" s="19">
         <v>1</v>
       </c>
-      <c r="H13" s="15">
-        <v>450</v>
-      </c>
-      <c r="I13" s="15" t="n">
+      <c r="H26" s="15">
+        <f t="shared" si="15"/>
+        <v>483.66013071895424</v>
+      </c>
+      <c r="I26" s="15">
         <f t="shared" si="14"/>
-        <v>450.0</v>
-      </c>
-      <c r="J13" s="15">
-        <v>450</v>
-      </c>
-      <c r="K13" s="15" t="n">
+        <v>483.66013071895424</v>
+      </c>
+      <c r="J26" s="15">
+        <v>600</v>
+      </c>
+      <c r="K26" s="15">
         <f t="shared" si="1"/>
-        <v>450.0</v>
-      </c>
-      <c r="L13" s="15" t="n">
+        <v>600</v>
+      </c>
+      <c r="L26" s="15">
         <f t="shared" si="2"/>
-        <v>522.0</v>
-      </c>
-      <c r="M13" s="15" t="n">
+        <v>696</v>
+      </c>
+      <c r="M26" s="15">
         <f t="shared" si="3"/>
-        <v>522.0</v>
-      </c>
-      <c r="N13" s="15" t="n">
+        <v>696</v>
+      </c>
+      <c r="N26" s="15">
         <f t="shared" si="4"/>
-        <v>640.3</v>
-      </c>
-      <c r="O13" s="15" t="n">
+        <v>840.4</v>
+      </c>
+      <c r="O26" s="15">
         <f t="shared" si="5"/>
-        <v>640.3</v>
-      </c>
-      <c r="P13" s="15" t="n">
+        <v>840.4</v>
+      </c>
+      <c r="P26" s="15">
         <f t="shared" si="6"/>
-        <v>83.3</v>
-      </c>
-      <c r="Q13" s="15" t="n">
+        <v>109.39999999999999</v>
+      </c>
+      <c r="Q26" s="15">
         <f t="shared" si="7"/>
-        <v>83.3</v>
-      </c>
-      <c r="R13" s="15" t="n">
+        <v>109.39999999999999</v>
+      </c>
+      <c r="R26" s="15">
         <f t="shared" si="8"/>
-        <v>72.0</v>
-      </c>
-      <c r="S13" s="15" t="n">
+        <v>96</v>
+      </c>
+      <c r="S26" s="15">
         <f t="shared" si="9"/>
-        <v>72.0</v>
-      </c>
-      <c r="T13" s="15" t="n">
+        <v>96</v>
+      </c>
+      <c r="T26" s="15">
         <f t="shared" si="10"/>
-        <v>0.0</v>
-      </c>
-      <c r="U13" s="15" t="n">
+        <v>116.33986928104576</v>
+      </c>
+      <c r="U26" s="15">
         <f t="shared" si="11"/>
-        <v>0.0</v>
-      </c>
-      <c r="V13" s="15" t="n">
+        <v>116.33986928104576</v>
+      </c>
+      <c r="V26" s="15">
         <f t="shared" si="12"/>
-        <v>-4.263256414560601E-14</v>
-      </c>
-      <c r="W13" s="16" t="n">
+        <v>116.33986928104576</v>
+      </c>
+      <c r="W26" s="16">
         <f t="shared" si="13"/>
-        <v>-4.263256414560601E-14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A14" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="18">
-        <v>43847</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14">
-        <v>195</v>
-      </c>
-      <c r="H14" s="15">
-        <v>14.96</v>
-      </c>
-      <c r="I14" s="15" t="n">
-        <f t="shared" si="14"/>
-        <v>2917.2000000000003</v>
-      </c>
-      <c r="J14" s="15">
-        <v>30</v>
-      </c>
-      <c r="K14" s="15" t="n">
-        <f t="shared" si="1"/>
-        <v>5850.0</v>
-      </c>
-      <c r="L14" s="15" t="n">
-        <f t="shared" si="2"/>
-        <v>34.8</v>
-      </c>
-      <c r="M14" s="15" t="n">
-        <f t="shared" si="3"/>
-        <v>6785.999999999999</v>
-      </c>
-      <c r="N14" s="15" t="n">
-        <f t="shared" si="4"/>
-        <v>80.02</v>
-      </c>
-      <c r="O14" s="15" t="n">
-        <f t="shared" si="5"/>
-        <v>15603.9</v>
-      </c>
-      <c r="P14" s="15" t="n">
-        <f t="shared" si="6"/>
-        <v>10.219999999999999</v>
-      </c>
-      <c r="Q14" s="15" t="n">
-        <f t="shared" si="7"/>
-        <v>1992.8999999999999</v>
-      </c>
-      <c r="R14" s="15" t="n">
-        <f t="shared" si="8"/>
-        <v>4.8</v>
-      </c>
-      <c r="S14" s="15" t="n">
-        <f t="shared" si="9"/>
-        <v>936.0</v>
-      </c>
-      <c r="T14" s="15" t="n">
-        <f t="shared" si="10"/>
-        <v>15.039999999999996</v>
-      </c>
-      <c r="U14" s="15" t="n">
-        <f t="shared" si="11"/>
-        <v>2932.7999999999993</v>
-      </c>
-      <c r="V14" s="15" t="n">
-        <f t="shared" si="12"/>
-        <v>15.040000000000006</v>
-      </c>
-      <c r="W14" s="16" t="n">
-        <f t="shared" si="13"/>
-        <v>2932.800000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A15" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="18">
+        <v>116.33986928104576</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="18">
         <v>43837</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D27" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E27" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="19" t="n">
+      <c r="F27" s="19">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G27" s="19">
         <v>1</v>
       </c>
-      <c r="H15" s="15" t="n">
-        <f>J15/F15</f>
-        <v>256.8493150684931</v>
-      </c>
-      <c r="I15" s="15" t="n">
+      <c r="H27" s="15">
+        <f t="shared" si="15"/>
+        <v>128.42465753424656</v>
+      </c>
+      <c r="I27" s="15">
         <f t="shared" si="14"/>
-        <v>256.8493150684931</v>
-      </c>
-      <c r="J15" s="15">
+        <v>128.42465753424656</v>
+      </c>
+      <c r="J27" s="15">
+        <v>250</v>
+      </c>
+      <c r="K27" s="15">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="L27" s="15">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+      <c r="M27" s="15">
+        <f t="shared" si="3"/>
+        <v>290</v>
+      </c>
+      <c r="N27" s="15">
+        <f t="shared" si="4"/>
+        <v>373.5</v>
+      </c>
+      <c r="O27" s="15">
+        <f t="shared" si="5"/>
+        <v>373.5</v>
+      </c>
+      <c r="P27" s="15">
+        <f t="shared" si="6"/>
+        <v>48.5</v>
+      </c>
+      <c r="Q27" s="15">
+        <f t="shared" si="7"/>
+        <v>48.5</v>
+      </c>
+      <c r="R27" s="15">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="S27" s="15">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="T27" s="15">
+        <f t="shared" si="10"/>
+        <v>121.57534246575344</v>
+      </c>
+      <c r="U27" s="15">
+        <f t="shared" si="11"/>
+        <v>121.57534246575344</v>
+      </c>
+      <c r="V27" s="15">
+        <f t="shared" si="12"/>
+        <v>121.57534246575344</v>
+      </c>
+      <c r="W27" s="16">
+        <f t="shared" si="13"/>
+        <v>121.57534246575344</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="18">
+        <v>43853</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="19">
+        <f>22950/18500</f>
+        <v>1.2405405405405405</v>
+      </c>
+      <c r="G28" s="19">
+        <v>1</v>
+      </c>
+      <c r="H28" s="15">
+        <f t="shared" si="15"/>
+        <v>403.05010893246185</v>
+      </c>
+      <c r="I28" s="15">
+        <f t="shared" si="14"/>
+        <v>403.05010893246185</v>
+      </c>
+      <c r="J28" s="15">
         <v>500</v>
       </c>
-      <c r="K15" s="15" t="n">
+      <c r="K28" s="15">
         <f t="shared" si="1"/>
-        <v>500.0</v>
-      </c>
-      <c r="L15" s="15" t="n">
+        <v>500</v>
+      </c>
+      <c r="L28" s="15">
         <f t="shared" si="2"/>
-        <v>580.0</v>
-      </c>
-      <c r="M15" s="15" t="n">
+        <v>580</v>
+      </c>
+      <c r="M28" s="15">
         <f t="shared" si="3"/>
-        <v>580.0</v>
-      </c>
-      <c r="N15" s="15" t="n">
+        <v>580</v>
+      </c>
+      <c r="N28" s="15">
         <f t="shared" si="4"/>
-        <v>707.0</v>
-      </c>
-      <c r="O15" s="15" t="n">
+        <v>707</v>
+      </c>
+      <c r="O28" s="15">
         <f t="shared" si="5"/>
-        <v>707.0</v>
-      </c>
-      <c r="P15" s="15" t="n">
+        <v>707</v>
+      </c>
+      <c r="P28" s="15">
         <f t="shared" si="6"/>
-        <v>92.0</v>
-      </c>
-      <c r="Q15" s="15" t="n">
+        <v>92</v>
+      </c>
+      <c r="Q28" s="15">
         <f t="shared" si="7"/>
-        <v>92.0</v>
-      </c>
-      <c r="R15" s="15" t="n">
+        <v>92</v>
+      </c>
+      <c r="R28" s="15">
         <f t="shared" si="8"/>
-        <v>80.0</v>
-      </c>
-      <c r="S15" s="15" t="n">
+        <v>80</v>
+      </c>
+      <c r="S28" s="15">
         <f t="shared" si="9"/>
-        <v>80.0</v>
-      </c>
-      <c r="T15" s="15" t="n">
+        <v>80</v>
+      </c>
+      <c r="T28" s="15">
         <f t="shared" si="10"/>
-        <v>243.15068493150687</v>
-      </c>
-      <c r="U15" s="15" t="n">
+        <v>96.949891067538147</v>
+      </c>
+      <c r="U28" s="15">
         <f t="shared" si="11"/>
-        <v>243.15068493150687</v>
-      </c>
-      <c r="V15" s="15" t="n">
+        <v>96.949891067538147</v>
+      </c>
+      <c r="V28" s="15">
         <f t="shared" si="12"/>
-        <v>243.15068493150687</v>
-      </c>
-      <c r="W15" s="16" t="n">
+        <v>96.949891067538147</v>
+      </c>
+      <c r="W28" s="16">
         <f t="shared" si="13"/>
-        <v>243.15068493150687</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A16" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="18">
+        <v>96.949891067538147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="18">
+        <v>43853</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="19">
+        <f>22950/18500</f>
+        <v>1.2405405405405405</v>
+      </c>
+      <c r="G29" s="19">
+        <v>1</v>
+      </c>
+      <c r="H29" s="15">
+        <f t="shared" si="15"/>
+        <v>967.32026143790847</v>
+      </c>
+      <c r="I29" s="15">
+        <f t="shared" si="14"/>
+        <v>967.32026143790847</v>
+      </c>
+      <c r="J29" s="15">
+        <v>1200</v>
+      </c>
+      <c r="K29" s="15">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="L29" s="15">
+        <f t="shared" si="2"/>
+        <v>1392</v>
+      </c>
+      <c r="M29" s="15">
+        <f t="shared" si="3"/>
+        <v>1392</v>
+      </c>
+      <c r="N29" s="15">
+        <f t="shared" si="4"/>
+        <v>1640.8</v>
+      </c>
+      <c r="O29" s="15">
+        <f t="shared" si="5"/>
+        <v>1640.8</v>
+      </c>
+      <c r="P29" s="15">
+        <f t="shared" si="6"/>
+        <v>213.79999999999998</v>
+      </c>
+      <c r="Q29" s="15">
+        <f t="shared" si="7"/>
+        <v>213.79999999999998</v>
+      </c>
+      <c r="R29" s="15">
+        <f t="shared" si="8"/>
+        <v>192</v>
+      </c>
+      <c r="S29" s="15">
+        <f t="shared" si="9"/>
+        <v>192</v>
+      </c>
+      <c r="T29" s="15">
+        <f t="shared" si="10"/>
+        <v>232.67973856209153</v>
+      </c>
+      <c r="U29" s="15">
+        <f t="shared" si="11"/>
+        <v>232.67973856209153</v>
+      </c>
+      <c r="V29" s="15">
+        <f t="shared" si="12"/>
+        <v>232.67973856209153</v>
+      </c>
+      <c r="W29" s="16">
+        <f t="shared" si="13"/>
+        <v>232.67973856209153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A30" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="30">
+        <v>43853</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31">
+        <v>1</v>
+      </c>
+      <c r="H30" s="15">
+        <v>2500</v>
+      </c>
+      <c r="I30" s="15">
+        <f t="shared" si="14"/>
+        <v>2500</v>
+      </c>
+      <c r="J30" s="15">
+        <v>2500</v>
+      </c>
+      <c r="K30" s="15">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+      <c r="L30" s="15">
+        <f t="shared" si="2"/>
+        <v>2900</v>
+      </c>
+      <c r="M30" s="15">
+        <f t="shared" si="3"/>
+        <v>2900</v>
+      </c>
+      <c r="N30" s="15">
+        <f t="shared" si="4"/>
+        <v>3375</v>
+      </c>
+      <c r="O30" s="15">
+        <f t="shared" si="5"/>
+        <v>3375</v>
+      </c>
+      <c r="P30" s="15">
+        <f t="shared" si="6"/>
+        <v>440</v>
+      </c>
+      <c r="Q30" s="15">
+        <f t="shared" si="7"/>
+        <v>440</v>
+      </c>
+      <c r="R30" s="15">
+        <f t="shared" si="8"/>
+        <v>400</v>
+      </c>
+      <c r="S30" s="15">
+        <f t="shared" si="9"/>
+        <v>400</v>
+      </c>
+      <c r="T30" s="15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V30" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W30" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="18">
         <v>43837</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D31" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E31" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="19" t="n">
+      <c r="F31" s="19">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G31" s="19">
         <v>1</v>
       </c>
-      <c r="H16" s="15" t="n">
-        <f>J16/F16</f>
-        <v>77.05479452054794</v>
-      </c>
-      <c r="I16" s="15" t="n">
+      <c r="H31" s="15">
+        <f>J31/F31</f>
+        <v>1130.1369863013699</v>
+      </c>
+      <c r="I31" s="15">
         <f t="shared" si="14"/>
-        <v>77.05479452054794</v>
-      </c>
-      <c r="J16" s="15">
-        <v>150</v>
-      </c>
-      <c r="K16" s="15" t="n">
+        <v>1130.1369863013699</v>
+      </c>
+      <c r="J31" s="15">
+        <v>2200</v>
+      </c>
+      <c r="K31" s="15">
         <f t="shared" si="1"/>
-        <v>150.0</v>
-      </c>
-      <c r="L16" s="15" t="n">
+        <v>2200</v>
+      </c>
+      <c r="L31" s="15">
         <f t="shared" si="2"/>
-        <v>174.0</v>
-      </c>
-      <c r="M16" s="15" t="n">
+        <v>2552</v>
+      </c>
+      <c r="M31" s="15">
         <f t="shared" si="3"/>
-        <v>174.0</v>
-      </c>
-      <c r="N16" s="15" t="n">
+        <v>2552</v>
+      </c>
+      <c r="N31" s="15">
         <f t="shared" si="4"/>
-        <v>240.1</v>
-      </c>
-      <c r="O16" s="15" t="n">
+        <v>2974.8</v>
+      </c>
+      <c r="O31" s="15">
         <f t="shared" si="5"/>
-        <v>240.1</v>
-      </c>
-      <c r="P16" s="15" t="n">
+        <v>2974.8</v>
+      </c>
+      <c r="P31" s="15">
         <f t="shared" si="6"/>
-        <v>31.099999999999998</v>
-      </c>
-      <c r="Q16" s="15" t="n">
+        <v>387.8</v>
+      </c>
+      <c r="Q31" s="15">
         <f t="shared" si="7"/>
-        <v>31.099999999999998</v>
-      </c>
-      <c r="R16" s="15" t="n">
+        <v>387.8</v>
+      </c>
+      <c r="R31" s="15">
         <f t="shared" si="8"/>
-        <v>24.0</v>
-      </c>
-      <c r="S16" s="15" t="n">
+        <v>352</v>
+      </c>
+      <c r="S31" s="15">
         <f t="shared" si="9"/>
-        <v>24.0</v>
-      </c>
-      <c r="T16" s="15" t="n">
+        <v>352</v>
+      </c>
+      <c r="T31" s="15">
         <f t="shared" si="10"/>
-        <v>72.94520547945206</v>
-      </c>
-      <c r="U16" s="15" t="n">
+        <v>1069.8630136986301</v>
+      </c>
+      <c r="U31" s="15">
         <f t="shared" si="11"/>
-        <v>72.94520547945206</v>
-      </c>
-      <c r="V16" s="15" t="n">
+        <v>1069.8630136986301</v>
+      </c>
+      <c r="V31" s="15">
         <f t="shared" si="12"/>
-        <v>72.94520547945206</v>
-      </c>
-      <c r="W16" s="16" t="n">
+        <v>1069.8630136986303</v>
+      </c>
+      <c r="W31" s="16">
         <f t="shared" si="13"/>
-        <v>72.94520547945206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A17" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="18">
-        <v>43837</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19">
-        <v>2</v>
-      </c>
-      <c r="H17" s="15">
-        <v>50</v>
-      </c>
-      <c r="I17" s="15" t="n">
-        <f t="shared" si="14"/>
-        <v>100.0</v>
-      </c>
-      <c r="J17" s="15">
-        <v>150</v>
-      </c>
-      <c r="K17" s="15" t="n">
-        <f t="shared" si="1"/>
-        <v>300.0</v>
-      </c>
-      <c r="L17" s="15" t="n">
-        <f t="shared" si="2"/>
-        <v>174.0</v>
-      </c>
-      <c r="M17" s="15" t="n">
-        <f t="shared" si="3"/>
-        <v>348.0</v>
-      </c>
-      <c r="N17" s="15" t="n">
-        <f t="shared" si="4"/>
-        <v>240.1</v>
-      </c>
-      <c r="O17" s="15" t="n">
-        <f t="shared" si="5"/>
-        <v>480.2</v>
-      </c>
-      <c r="P17" s="15" t="n">
-        <f t="shared" si="6"/>
-        <v>31.099999999999998</v>
-      </c>
-      <c r="Q17" s="15" t="n">
-        <f t="shared" si="7"/>
-        <v>62.199999999999996</v>
-      </c>
-      <c r="R17" s="15" t="n">
-        <f t="shared" si="8"/>
-        <v>24.0</v>
-      </c>
-      <c r="S17" s="15" t="n">
-        <f t="shared" si="9"/>
-        <v>48.0</v>
-      </c>
-      <c r="T17" s="15" t="n">
-        <f t="shared" si="10"/>
-        <v>100.0</v>
-      </c>
-      <c r="U17" s="15" t="n">
-        <f t="shared" si="11"/>
-        <v>200.0</v>
-      </c>
-      <c r="V17" s="15" t="n">
-        <f t="shared" si="12"/>
-        <v>100.0</v>
-      </c>
-      <c r="W17" s="16" t="n">
-        <f t="shared" si="13"/>
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A18" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="29">
+        <v>1069.8630136986303</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="18">
         <v>43853</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D32" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30">
-        <v>1</v>
-      </c>
-      <c r="H18" s="15">
-        <v>300</v>
-      </c>
-      <c r="I18" s="15" t="n">
-        <f t="shared" si="14"/>
-        <v>300.0</v>
-      </c>
-      <c r="J18" s="15">
-        <v>300</v>
-      </c>
-      <c r="K18" s="15" t="n">
-        <f t="shared" si="1"/>
-        <v>300.0</v>
-      </c>
-      <c r="L18" s="15" t="n">
-        <f t="shared" si="2"/>
-        <v>348.0</v>
-      </c>
-      <c r="M18" s="15" t="n">
-        <f t="shared" si="3"/>
-        <v>348.0</v>
-      </c>
-      <c r="N18" s="15" t="n">
-        <f t="shared" si="4"/>
-        <v>440.2</v>
-      </c>
-      <c r="O18" s="15" t="n">
-        <f t="shared" si="5"/>
-        <v>440.2</v>
-      </c>
-      <c r="P18" s="15" t="n">
-        <f t="shared" si="6"/>
-        <v>57.199999999999996</v>
-      </c>
-      <c r="Q18" s="15" t="n">
-        <f t="shared" si="7"/>
-        <v>57.199999999999996</v>
-      </c>
-      <c r="R18" s="15" t="n">
-        <f t="shared" si="8"/>
-        <v>48.0</v>
-      </c>
-      <c r="S18" s="15" t="n">
-        <f t="shared" si="9"/>
-        <v>48.0</v>
-      </c>
-      <c r="T18" s="15" t="n">
-        <f t="shared" si="10"/>
-        <v>0.0</v>
-      </c>
-      <c r="U18" s="15" t="n">
-        <f t="shared" si="11"/>
-        <v>0.0</v>
-      </c>
-      <c r="V18" s="15" t="n">
-        <f t="shared" si="12"/>
-        <v>0.0</v>
-      </c>
-      <c r="W18" s="16" t="n">
-        <f t="shared" si="13"/>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A19" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="18">
-        <v>43837</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="19" t="n">
-        <f>14600/7500</f>
-        <v>1.9466666666666668</v>
-      </c>
-      <c r="G19" s="19">
-        <v>1</v>
-      </c>
-      <c r="H19" s="15" t="n">
-        <f>J19/F19</f>
-        <v>205.4794520547945</v>
-      </c>
-      <c r="I19" s="15" t="n">
-        <f t="shared" si="14"/>
-        <v>205.4794520547945</v>
-      </c>
-      <c r="J19" s="15">
-        <v>400</v>
-      </c>
-      <c r="K19" s="15" t="n">
-        <f t="shared" si="1"/>
-        <v>400.0</v>
-      </c>
-      <c r="L19" s="15" t="n">
-        <f t="shared" si="2"/>
-        <v>464.0</v>
-      </c>
-      <c r="M19" s="15" t="n">
-        <f t="shared" si="3"/>
-        <v>464.0</v>
-      </c>
-      <c r="N19" s="15" t="n">
-        <f t="shared" si="4"/>
-        <v>573.6</v>
-      </c>
-      <c r="O19" s="15" t="n">
-        <f t="shared" si="5"/>
-        <v>573.6</v>
-      </c>
-      <c r="P19" s="15" t="n">
-        <f t="shared" si="6"/>
-        <v>74.6</v>
-      </c>
-      <c r="Q19" s="15" t="n">
-        <f t="shared" si="7"/>
-        <v>74.6</v>
-      </c>
-      <c r="R19" s="15" t="n">
-        <f t="shared" si="8"/>
-        <v>64.0</v>
-      </c>
-      <c r="S19" s="15" t="n">
-        <f t="shared" si="9"/>
-        <v>64.0</v>
-      </c>
-      <c r="T19" s="15" t="n">
-        <f t="shared" si="10"/>
-        <v>194.52054794520552</v>
-      </c>
-      <c r="U19" s="15" t="n">
-        <f t="shared" si="11"/>
-        <v>194.52054794520552</v>
-      </c>
-      <c r="V19" s="15" t="n">
-        <f t="shared" si="12"/>
-        <v>194.52054794520552</v>
-      </c>
-      <c r="W19" s="16" t="n">
-        <f t="shared" si="13"/>
-        <v>194.52054794520552</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A20" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="18">
-        <v>43843</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19">
-        <v>1</v>
-      </c>
-      <c r="H20" s="15">
-        <v>250</v>
-      </c>
-      <c r="I20" s="15" t="n">
-        <f t="shared" si="14"/>
-        <v>250.0</v>
-      </c>
-      <c r="J20" s="15">
-        <v>250</v>
-      </c>
-      <c r="K20" s="15" t="n">
-        <f t="shared" si="1"/>
-        <v>250.0</v>
-      </c>
-      <c r="L20" s="15" t="n">
-        <f t="shared" si="2"/>
-        <v>290.0</v>
-      </c>
-      <c r="M20" s="15" t="n">
-        <f t="shared" si="3"/>
-        <v>290.0</v>
-      </c>
-      <c r="N20" s="15" t="n">
-        <f t="shared" si="4"/>
-        <v>373.5</v>
-      </c>
-      <c r="O20" s="15" t="n">
-        <f t="shared" si="5"/>
-        <v>373.5</v>
-      </c>
-      <c r="P20" s="15" t="n">
-        <f t="shared" si="6"/>
-        <v>48.5</v>
-      </c>
-      <c r="Q20" s="15" t="n">
-        <f t="shared" si="7"/>
-        <v>48.5</v>
-      </c>
-      <c r="R20" s="15" t="n">
-        <f t="shared" si="8"/>
-        <v>40.0</v>
-      </c>
-      <c r="S20" s="15" t="n">
-        <f t="shared" si="9"/>
-        <v>40.0</v>
-      </c>
-      <c r="T20" s="15" t="n">
-        <f t="shared" si="10"/>
-        <v>0.0</v>
-      </c>
-      <c r="U20" s="15" t="n">
-        <f t="shared" si="11"/>
-        <v>0.0</v>
-      </c>
-      <c r="V20" s="15" t="n">
-        <f t="shared" si="12"/>
-        <v>0.0</v>
-      </c>
-      <c r="W20" s="16" t="n">
-        <f t="shared" si="13"/>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A21" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="18">
-        <v>43843</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="19" t="n">
-        <f>14600/7500</f>
-        <v>1.9466666666666668</v>
-      </c>
-      <c r="G21" s="19">
-        <v>1</v>
-      </c>
-      <c r="H21" s="15" t="n">
-        <f>J21/F21</f>
-        <v>128.42465753424656</v>
-      </c>
-      <c r="I21" s="15" t="n">
-        <f t="shared" si="14"/>
-        <v>128.42465753424656</v>
-      </c>
-      <c r="J21" s="15">
-        <v>250</v>
-      </c>
-      <c r="K21" s="15" t="n">
-        <f t="shared" si="1"/>
-        <v>250.0</v>
-      </c>
-      <c r="L21" s="15" t="n">
-        <f t="shared" si="2"/>
-        <v>290.0</v>
-      </c>
-      <c r="M21" s="15" t="n">
-        <f t="shared" si="3"/>
-        <v>290.0</v>
-      </c>
-      <c r="N21" s="15" t="n">
-        <f t="shared" si="4"/>
-        <v>373.5</v>
-      </c>
-      <c r="O21" s="15" t="n">
-        <f t="shared" si="5"/>
-        <v>373.5</v>
-      </c>
-      <c r="P21" s="15" t="n">
-        <f t="shared" si="6"/>
-        <v>48.5</v>
-      </c>
-      <c r="Q21" s="15" t="n">
-        <f t="shared" si="7"/>
-        <v>48.5</v>
-      </c>
-      <c r="R21" s="15" t="n">
-        <f t="shared" si="8"/>
-        <v>40.0</v>
-      </c>
-      <c r="S21" s="15" t="n">
-        <f t="shared" si="9"/>
-        <v>40.0</v>
-      </c>
-      <c r="T21" s="15" t="n">
-        <f t="shared" si="10"/>
-        <v>121.57534246575344</v>
-      </c>
-      <c r="U21" s="15" t="n">
-        <f t="shared" si="11"/>
-        <v>121.57534246575344</v>
-      </c>
-      <c r="V21" s="15" t="n">
-        <f t="shared" si="12"/>
-        <v>121.57534246575344</v>
-      </c>
-      <c r="W21" s="16" t="n">
-        <f t="shared" si="13"/>
-        <v>121.57534246575344</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A22" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="18">
-        <v>43843</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19">
-        <v>2</v>
-      </c>
-      <c r="H22" s="15">
-        <v>400</v>
-      </c>
-      <c r="I22" s="15" t="n">
-        <f t="shared" si="14"/>
-        <v>800.0</v>
-      </c>
-      <c r="J22" s="15">
-        <v>400</v>
-      </c>
-      <c r="K22" s="15" t="n">
-        <f t="shared" si="1"/>
-        <v>800.0</v>
-      </c>
-      <c r="L22" s="15" t="n">
-        <f t="shared" si="2"/>
-        <v>464.0</v>
-      </c>
-      <c r="M22" s="15" t="n">
-        <f t="shared" si="3"/>
-        <v>928.0</v>
-      </c>
-      <c r="N22" s="15" t="n">
-        <f t="shared" si="4"/>
-        <v>573.6</v>
-      </c>
-      <c r="O22" s="15" t="n">
-        <f t="shared" si="5"/>
-        <v>1147.2</v>
-      </c>
-      <c r="P22" s="15" t="n">
-        <f t="shared" si="6"/>
-        <v>74.6</v>
-      </c>
-      <c r="Q22" s="15" t="n">
-        <f t="shared" si="7"/>
-        <v>149.2</v>
-      </c>
-      <c r="R22" s="15" t="n">
-        <f t="shared" si="8"/>
-        <v>64.0</v>
-      </c>
-      <c r="S22" s="15" t="n">
-        <f t="shared" si="9"/>
-        <v>128.0</v>
-      </c>
-      <c r="T22" s="15" t="n">
-        <f t="shared" si="10"/>
-        <v>0.0</v>
-      </c>
-      <c r="U22" s="15" t="n">
-        <f t="shared" si="11"/>
-        <v>0.0</v>
-      </c>
-      <c r="V22" s="15" t="n">
-        <f t="shared" si="12"/>
-        <v>2.8421709430404007E-14</v>
-      </c>
-      <c r="W22" s="16" t="n">
-        <f t="shared" si="13"/>
-        <v>5.6843418860808015E-14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A23" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="13">
-        <v>44008</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14">
-        <v>2</v>
-      </c>
-      <c r="H23" s="15">
-        <v>212.5</v>
-      </c>
-      <c r="I23" s="15" t="n">
-        <f t="shared" si="14"/>
-        <v>425.0</v>
-      </c>
-      <c r="J23" s="15">
-        <v>700</v>
-      </c>
-      <c r="K23" s="15" t="n">
-        <f t="shared" si="1"/>
-        <v>1400.0</v>
-      </c>
-      <c r="L23" s="15" t="n">
-        <f t="shared" si="2"/>
-        <v>812.0</v>
-      </c>
-      <c r="M23" s="15" t="n">
-        <f t="shared" si="3"/>
-        <v>1624.0</v>
-      </c>
-      <c r="N23" s="15" t="n">
-        <f t="shared" si="4"/>
-        <v>973.8</v>
-      </c>
-      <c r="O23" s="15" t="n">
-        <f t="shared" si="5"/>
-        <v>1947.6</v>
-      </c>
-      <c r="P23" s="15" t="n">
-        <f t="shared" si="6"/>
-        <v>126.8</v>
-      </c>
-      <c r="Q23" s="15" t="n">
-        <f t="shared" si="7"/>
-        <v>253.6</v>
-      </c>
-      <c r="R23" s="15" t="n">
-        <f t="shared" si="8"/>
-        <v>112.0</v>
-      </c>
-      <c r="S23" s="15" t="n">
-        <f t="shared" si="9"/>
-        <v>224.0</v>
-      </c>
-      <c r="T23" s="15" t="n">
-        <f t="shared" si="10"/>
-        <v>487.5</v>
-      </c>
-      <c r="U23" s="15" t="n">
-        <f t="shared" si="11"/>
-        <v>975.0</v>
-      </c>
-      <c r="V23" s="15" t="n">
-        <f t="shared" si="12"/>
-        <v>487.5</v>
-      </c>
-      <c r="W23" s="16" t="n">
-        <f t="shared" si="13"/>
-        <v>975.0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A24" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="18">
-        <v>43837</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="19" t="n">
-        <f>14600/7500</f>
-        <v>1.9466666666666668</v>
-      </c>
-      <c r="G24" s="19">
-        <v>1</v>
-      </c>
-      <c r="H24" s="15" t="n">
-        <f t="shared" ref="H24:H30" si="15">J24/F24</f>
-        <v>256.8493150684931</v>
-      </c>
-      <c r="I24" s="15" t="n">
-        <f t="shared" si="14"/>
-        <v>256.8493150684931</v>
-      </c>
-      <c r="J24" s="15">
-        <v>500</v>
-      </c>
-      <c r="K24" s="15" t="n">
-        <f t="shared" si="1"/>
-        <v>500.0</v>
-      </c>
-      <c r="L24" s="15" t="n">
-        <f t="shared" si="2"/>
-        <v>580.0</v>
-      </c>
-      <c r="M24" s="15" t="n">
-        <f t="shared" si="3"/>
-        <v>580.0</v>
-      </c>
-      <c r="N24" s="15" t="n">
-        <f t="shared" si="4"/>
-        <v>707.0</v>
-      </c>
-      <c r="O24" s="15" t="n">
-        <f t="shared" si="5"/>
-        <v>707.0</v>
-      </c>
-      <c r="P24" s="15" t="n">
-        <f t="shared" si="6"/>
-        <v>92.0</v>
-      </c>
-      <c r="Q24" s="15" t="n">
-        <f t="shared" si="7"/>
-        <v>92.0</v>
-      </c>
-      <c r="R24" s="15" t="n">
-        <f t="shared" si="8"/>
-        <v>80.0</v>
-      </c>
-      <c r="S24" s="15" t="n">
-        <f t="shared" si="9"/>
-        <v>80.0</v>
-      </c>
-      <c r="T24" s="15" t="n">
-        <f t="shared" si="10"/>
-        <v>243.15068493150687</v>
-      </c>
-      <c r="U24" s="15" t="n">
-        <f t="shared" si="11"/>
-        <v>243.15068493150687</v>
-      </c>
-      <c r="V24" s="15" t="n">
-        <f t="shared" si="12"/>
-        <v>243.15068493150687</v>
-      </c>
-      <c r="W24" s="16" t="n">
-        <f t="shared" si="13"/>
-        <v>243.15068493150687</v>
-      </c>
-      <c r="AC24" s="6"/>
-    </row>
-    <row r="25" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A25" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="18">
-        <v>43853</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="19" t="s">
+      <c r="E32" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="19" t="n">
+      <c r="F32" s="19">
         <f>22950/18500</f>
         <v>1.2405405405405405</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G32" s="19">
         <v>1</v>
       </c>
-      <c r="H25" s="15" t="n">
-        <f t="shared" si="15"/>
-        <v>282.1350762527233</v>
-      </c>
-      <c r="I25" s="15" t="n">
-        <f t="shared" si="14"/>
-        <v>282.1350762527233</v>
-      </c>
-      <c r="J25" s="15">
-        <v>350</v>
-      </c>
-      <c r="K25" s="15" t="n">
-        <f t="shared" si="1"/>
-        <v>350.0</v>
-      </c>
-      <c r="L25" s="15" t="n">
-        <f t="shared" si="2"/>
-        <v>406.0</v>
-      </c>
-      <c r="M25" s="15" t="n">
-        <f t="shared" si="3"/>
-        <v>406.0</v>
-      </c>
-      <c r="N25" s="15" t="n">
-        <f t="shared" si="4"/>
-        <v>506.9</v>
-      </c>
-      <c r="O25" s="15" t="n">
-        <f t="shared" si="5"/>
-        <v>506.9</v>
-      </c>
-      <c r="P25" s="15" t="n">
-        <f t="shared" si="6"/>
-        <v>65.9</v>
-      </c>
-      <c r="Q25" s="15" t="n">
-        <f t="shared" si="7"/>
-        <v>65.9</v>
-      </c>
-      <c r="R25" s="15" t="n">
-        <f t="shared" si="8"/>
-        <v>56.0</v>
-      </c>
-      <c r="S25" s="15" t="n">
-        <f t="shared" si="9"/>
-        <v>56.0</v>
-      </c>
-      <c r="T25" s="15" t="n">
-        <f t="shared" si="10"/>
-        <v>67.86492374727669</v>
-      </c>
-      <c r="U25" s="15" t="n">
-        <f t="shared" si="11"/>
-        <v>67.86492374727669</v>
-      </c>
-      <c r="V25" s="15" t="n">
-        <f t="shared" si="12"/>
-        <v>67.86492374727666</v>
-      </c>
-      <c r="W25" s="16" t="n">
-        <f t="shared" si="13"/>
-        <v>67.86492374727666</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A26" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="18">
-        <v>43837</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="19" t="n">
-        <f>14600/7500</f>
-        <v>1.9466666666666668</v>
-      </c>
-      <c r="G26" s="19">
-        <v>1</v>
-      </c>
-      <c r="H26" s="15" t="n">
-        <f t="shared" si="15"/>
-        <v>128.42465753424656</v>
-      </c>
-      <c r="I26" s="15" t="n">
-        <f t="shared" si="14"/>
-        <v>128.42465753424656</v>
-      </c>
-      <c r="J26" s="15">
-        <v>250</v>
-      </c>
-      <c r="K26" s="15" t="n">
-        <f t="shared" si="1"/>
-        <v>250.0</v>
-      </c>
-      <c r="L26" s="15" t="n">
-        <f t="shared" si="2"/>
-        <v>290.0</v>
-      </c>
-      <c r="M26" s="15" t="n">
-        <f t="shared" si="3"/>
-        <v>290.0</v>
-      </c>
-      <c r="N26" s="15" t="n">
-        <f t="shared" si="4"/>
-        <v>373.5</v>
-      </c>
-      <c r="O26" s="15" t="n">
-        <f t="shared" si="5"/>
-        <v>373.5</v>
-      </c>
-      <c r="P26" s="15" t="n">
-        <f t="shared" si="6"/>
-        <v>48.5</v>
-      </c>
-      <c r="Q26" s="15" t="n">
-        <f t="shared" si="7"/>
-        <v>48.5</v>
-      </c>
-      <c r="R26" s="15" t="n">
-        <f t="shared" si="8"/>
-        <v>40.0</v>
-      </c>
-      <c r="S26" s="15" t="n">
-        <f t="shared" si="9"/>
-        <v>40.0</v>
-      </c>
-      <c r="T26" s="15" t="n">
-        <f t="shared" si="10"/>
-        <v>121.57534246575344</v>
-      </c>
-      <c r="U26" s="15" t="n">
-        <f t="shared" si="11"/>
-        <v>121.57534246575344</v>
-      </c>
-      <c r="V26" s="15" t="n">
-        <f t="shared" si="12"/>
-        <v>121.57534246575344</v>
-      </c>
-      <c r="W26" s="16" t="n">
-        <f t="shared" si="13"/>
-        <v>121.57534246575344</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A27" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="18">
-        <v>43853</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="19" t="n">
-        <f>22950/18500</f>
-        <v>1.2405405405405405</v>
-      </c>
-      <c r="G27" s="19">
-        <v>1</v>
-      </c>
-      <c r="H27" s="15" t="n">
-        <f t="shared" si="15"/>
-        <v>483.66013071895424</v>
-      </c>
-      <c r="I27" s="15" t="n">
-        <f t="shared" si="14"/>
-        <v>483.66013071895424</v>
-      </c>
-      <c r="J27" s="15">
-        <v>600</v>
-      </c>
-      <c r="K27" s="15" t="n">
-        <f t="shared" si="1"/>
-        <v>600.0</v>
-      </c>
-      <c r="L27" s="15" t="n">
-        <f t="shared" si="2"/>
-        <v>696.0</v>
-      </c>
-      <c r="M27" s="15" t="n">
-        <f t="shared" si="3"/>
-        <v>696.0</v>
-      </c>
-      <c r="N27" s="15" t="n">
-        <f t="shared" si="4"/>
-        <v>840.4</v>
-      </c>
-      <c r="O27" s="15" t="n">
-        <f t="shared" si="5"/>
-        <v>840.4</v>
-      </c>
-      <c r="P27" s="15" t="n">
-        <f t="shared" si="6"/>
-        <v>109.39999999999999</v>
-      </c>
-      <c r="Q27" s="15" t="n">
-        <f t="shared" si="7"/>
-        <v>109.39999999999999</v>
-      </c>
-      <c r="R27" s="15" t="n">
-        <f t="shared" si="8"/>
-        <v>96.0</v>
-      </c>
-      <c r="S27" s="15" t="n">
-        <f t="shared" si="9"/>
-        <v>96.0</v>
-      </c>
-      <c r="T27" s="15" t="n">
-        <f t="shared" si="10"/>
-        <v>116.33986928104576</v>
-      </c>
-      <c r="U27" s="15" t="n">
-        <f t="shared" si="11"/>
-        <v>116.33986928104576</v>
-      </c>
-      <c r="V27" s="15" t="n">
-        <f t="shared" si="12"/>
-        <v>116.33986928104576</v>
-      </c>
-      <c r="W27" s="16" t="n">
-        <f t="shared" si="13"/>
-        <v>116.33986928104576</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A28" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="18">
-        <v>43837</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" s="19" t="n">
-        <f>14600/7500</f>
-        <v>1.9466666666666668</v>
-      </c>
-      <c r="G28" s="19">
-        <v>1</v>
-      </c>
-      <c r="H28" s="15" t="n">
-        <f t="shared" si="15"/>
-        <v>128.42465753424656</v>
-      </c>
-      <c r="I28" s="15" t="n">
-        <f t="shared" si="14"/>
-        <v>128.42465753424656</v>
-      </c>
-      <c r="J28" s="15">
-        <v>250</v>
-      </c>
-      <c r="K28" s="15" t="n">
-        <f t="shared" si="1"/>
-        <v>250.0</v>
-      </c>
-      <c r="L28" s="15" t="n">
-        <f t="shared" si="2"/>
-        <v>290.0</v>
-      </c>
-      <c r="M28" s="15" t="n">
-        <f t="shared" si="3"/>
-        <v>290.0</v>
-      </c>
-      <c r="N28" s="15" t="n">
-        <f t="shared" si="4"/>
-        <v>373.5</v>
-      </c>
-      <c r="O28" s="15" t="n">
-        <f t="shared" si="5"/>
-        <v>373.5</v>
-      </c>
-      <c r="P28" s="15" t="n">
-        <f t="shared" si="6"/>
-        <v>48.5</v>
-      </c>
-      <c r="Q28" s="15" t="n">
-        <f t="shared" si="7"/>
-        <v>48.5</v>
-      </c>
-      <c r="R28" s="15" t="n">
-        <f t="shared" si="8"/>
-        <v>40.0</v>
-      </c>
-      <c r="S28" s="15" t="n">
-        <f t="shared" si="9"/>
-        <v>40.0</v>
-      </c>
-      <c r="T28" s="15" t="n">
-        <f t="shared" si="10"/>
-        <v>121.57534246575344</v>
-      </c>
-      <c r="U28" s="15" t="n">
-        <f t="shared" si="11"/>
-        <v>121.57534246575344</v>
-      </c>
-      <c r="V28" s="15" t="n">
-        <f t="shared" si="12"/>
-        <v>121.57534246575344</v>
-      </c>
-      <c r="W28" s="16" t="n">
-        <f t="shared" si="13"/>
-        <v>121.57534246575344</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A29" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="18">
-        <v>43853</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="19" t="n">
-        <f>22950/18500</f>
-        <v>1.2405405405405405</v>
-      </c>
-      <c r="G29" s="19">
-        <v>1</v>
-      </c>
-      <c r="H29" s="15" t="n">
-        <f t="shared" si="15"/>
+      <c r="H32" s="15">
+        <f>J32/F32</f>
         <v>403.05010893246185</v>
       </c>
-      <c r="I29" s="15" t="n">
+      <c r="I32" s="15">
         <f t="shared" si="14"/>
         <v>403.05010893246185</v>
       </c>
-      <c r="J29" s="15">
+      <c r="J32" s="15">
         <v>500</v>
       </c>
-      <c r="K29" s="15" t="n">
+      <c r="K32" s="15">
         <f t="shared" si="1"/>
-        <v>500.0</v>
-      </c>
-      <c r="L29" s="15" t="n">
+        <v>500</v>
+      </c>
+      <c r="L32" s="15">
         <f t="shared" si="2"/>
-        <v>580.0</v>
-      </c>
-      <c r="M29" s="15" t="n">
+        <v>580</v>
+      </c>
+      <c r="M32" s="15">
         <f t="shared" si="3"/>
-        <v>580.0</v>
-      </c>
-      <c r="N29" s="15" t="n">
+        <v>580</v>
+      </c>
+      <c r="N32" s="15">
         <f t="shared" si="4"/>
-        <v>707.0</v>
-      </c>
-      <c r="O29" s="15" t="n">
+        <v>707</v>
+      </c>
+      <c r="O32" s="15">
         <f t="shared" si="5"/>
-        <v>707.0</v>
-      </c>
-      <c r="P29" s="15" t="n">
+        <v>707</v>
+      </c>
+      <c r="P32" s="15">
         <f t="shared" si="6"/>
-        <v>92.0</v>
-      </c>
-      <c r="Q29" s="15" t="n">
+        <v>92</v>
+      </c>
+      <c r="Q32" s="15">
         <f t="shared" si="7"/>
-        <v>92.0</v>
-      </c>
-      <c r="R29" s="15" t="n">
+        <v>92</v>
+      </c>
+      <c r="R32" s="15">
         <f t="shared" si="8"/>
-        <v>80.0</v>
-      </c>
-      <c r="S29" s="15" t="n">
+        <v>80</v>
+      </c>
+      <c r="S32" s="15">
         <f t="shared" si="9"/>
-        <v>80.0</v>
-      </c>
-      <c r="T29" s="15" t="n">
+        <v>80</v>
+      </c>
+      <c r="T32" s="15">
         <f t="shared" si="10"/>
-        <v>96.94989106753815</v>
-      </c>
-      <c r="U29" s="15" t="n">
+        <v>96.949891067538147</v>
+      </c>
+      <c r="U32" s="15">
         <f t="shared" si="11"/>
-        <v>96.94989106753815</v>
-      </c>
-      <c r="V29" s="15" t="n">
+        <v>96.949891067538147</v>
+      </c>
+      <c r="V32" s="15">
         <f t="shared" si="12"/>
-        <v>96.94989106753815</v>
-      </c>
-      <c r="W29" s="16" t="n">
+        <v>96.949891067538147</v>
+      </c>
+      <c r="W32" s="16">
         <f t="shared" si="13"/>
-        <v>96.94989106753815</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A30" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="18">
-        <v>43853</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" s="19" t="n">
-        <f>22950/18500</f>
-        <v>1.2405405405405405</v>
-      </c>
-      <c r="G30" s="19">
-        <v>1</v>
-      </c>
-      <c r="H30" s="15" t="n">
-        <f t="shared" si="15"/>
-        <v>967.3202614379085</v>
-      </c>
-      <c r="I30" s="15" t="n">
-        <f t="shared" si="14"/>
-        <v>967.3202614379085</v>
-      </c>
-      <c r="J30" s="15">
-        <v>1200</v>
-      </c>
-      <c r="K30" s="15" t="n">
-        <f t="shared" si="1"/>
-        <v>1200.0</v>
-      </c>
-      <c r="L30" s="15" t="n">
-        <f t="shared" si="2"/>
-        <v>1392.0</v>
-      </c>
-      <c r="M30" s="15" t="n">
-        <f t="shared" si="3"/>
-        <v>1392.0</v>
-      </c>
-      <c r="N30" s="15" t="n">
-        <f t="shared" si="4"/>
-        <v>1640.8</v>
-      </c>
-      <c r="O30" s="15" t="n">
-        <f t="shared" si="5"/>
-        <v>1640.8</v>
-      </c>
-      <c r="P30" s="15" t="n">
-        <f t="shared" si="6"/>
-        <v>213.79999999999998</v>
-      </c>
-      <c r="Q30" s="15" t="n">
-        <f t="shared" si="7"/>
-        <v>213.79999999999998</v>
-      </c>
-      <c r="R30" s="15" t="n">
-        <f t="shared" si="8"/>
-        <v>192.0</v>
-      </c>
-      <c r="S30" s="15" t="n">
-        <f t="shared" si="9"/>
-        <v>192.0</v>
-      </c>
-      <c r="T30" s="15" t="n">
-        <f t="shared" si="10"/>
-        <v>232.67973856209153</v>
-      </c>
-      <c r="U30" s="15" t="n">
-        <f t="shared" si="11"/>
-        <v>232.67973856209153</v>
-      </c>
-      <c r="V30" s="15" t="n">
-        <f t="shared" si="12"/>
-        <v>232.67973856209153</v>
-      </c>
-      <c r="W30" s="16" t="n">
-        <f t="shared" si="13"/>
-        <v>232.67973856209153</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A31" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="29">
-        <v>43853</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30">
-        <v>1</v>
-      </c>
-      <c r="H31" s="15">
-        <v>2500</v>
-      </c>
-      <c r="I31" s="15" t="n">
-        <f t="shared" si="14"/>
-        <v>2500.0</v>
-      </c>
-      <c r="J31" s="15">
-        <v>2500</v>
-      </c>
-      <c r="K31" s="15" t="n">
-        <f t="shared" si="1"/>
-        <v>2500.0</v>
-      </c>
-      <c r="L31" s="15" t="n">
-        <f t="shared" si="2"/>
-        <v>2900.0</v>
-      </c>
-      <c r="M31" s="15" t="n">
-        <f t="shared" si="3"/>
-        <v>2900.0</v>
-      </c>
-      <c r="N31" s="15" t="n">
-        <f t="shared" si="4"/>
-        <v>3375.0</v>
-      </c>
-      <c r="O31" s="15" t="n">
-        <f t="shared" si="5"/>
-        <v>3375.0</v>
-      </c>
-      <c r="P31" s="15" t="n">
-        <f t="shared" si="6"/>
-        <v>440.0</v>
-      </c>
-      <c r="Q31" s="15" t="n">
-        <f t="shared" si="7"/>
-        <v>440.0</v>
-      </c>
-      <c r="R31" s="15" t="n">
-        <f t="shared" si="8"/>
-        <v>400.0</v>
-      </c>
-      <c r="S31" s="15" t="n">
-        <f t="shared" si="9"/>
-        <v>400.0</v>
-      </c>
-      <c r="T31" s="15" t="n">
-        <f t="shared" si="10"/>
-        <v>0.0</v>
-      </c>
-      <c r="U31" s="15" t="n">
-        <f t="shared" si="11"/>
-        <v>0.0</v>
-      </c>
-      <c r="V31" s="15" t="n">
-        <f t="shared" si="12"/>
-        <v>0.0</v>
-      </c>
-      <c r="W31" s="16" t="n">
-        <f t="shared" si="13"/>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A32" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="18">
-        <v>43837</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" s="19" t="n">
-        <f>14600/7500</f>
-        <v>1.9466666666666668</v>
-      </c>
-      <c r="G32" s="19">
-        <v>1</v>
-      </c>
-      <c r="H32" s="15" t="n">
-        <f>J32/F32</f>
-        <v>1130.13698630137</v>
-      </c>
-      <c r="I32" s="15" t="n">
-        <f t="shared" si="14"/>
-        <v>1130.13698630137</v>
-      </c>
-      <c r="J32" s="15">
-        <v>2200</v>
-      </c>
-      <c r="K32" s="15" t="n">
-        <f t="shared" si="1"/>
-        <v>2200.0</v>
-      </c>
-      <c r="L32" s="15" t="n">
-        <f t="shared" si="2"/>
-        <v>2552.0</v>
-      </c>
-      <c r="M32" s="15" t="n">
-        <f t="shared" si="3"/>
-        <v>2552.0</v>
-      </c>
-      <c r="N32" s="15" t="n">
-        <f t="shared" si="4"/>
-        <v>2974.8</v>
-      </c>
-      <c r="O32" s="15" t="n">
-        <f t="shared" si="5"/>
-        <v>2974.8</v>
-      </c>
-      <c r="P32" s="15" t="n">
-        <f t="shared" si="6"/>
-        <v>387.8</v>
-      </c>
-      <c r="Q32" s="15" t="n">
-        <f t="shared" si="7"/>
-        <v>387.8</v>
-      </c>
-      <c r="R32" s="15" t="n">
-        <f t="shared" si="8"/>
-        <v>352.0</v>
-      </c>
-      <c r="S32" s="15" t="n">
-        <f t="shared" si="9"/>
-        <v>352.0</v>
-      </c>
-      <c r="T32" s="15" t="n">
-        <f t="shared" si="10"/>
-        <v>1069.86301369863</v>
-      </c>
-      <c r="U32" s="15" t="n">
-        <f t="shared" si="11"/>
-        <v>1069.86301369863</v>
-      </c>
-      <c r="V32" s="15" t="n">
-        <f t="shared" si="12"/>
-        <v>1069.8630136986303</v>
-      </c>
-      <c r="W32" s="16" t="n">
-        <f t="shared" si="13"/>
-        <v>1069.8630136986303</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A33" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="18">
-        <v>43853</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F33" s="19" t="n">
-        <f>22950/18500</f>
-        <v>1.2405405405405405</v>
-      </c>
-      <c r="G33" s="19">
-        <v>1</v>
-      </c>
-      <c r="H33" s="15" t="n">
-        <f>J33/F33</f>
-        <v>403.05010893246185</v>
-      </c>
-      <c r="I33" s="15" t="n">
-        <f t="shared" si="14"/>
-        <v>403.05010893246185</v>
-      </c>
-      <c r="J33" s="15">
-        <v>500</v>
-      </c>
-      <c r="K33" s="15" t="n">
-        <f t="shared" si="1"/>
-        <v>500.0</v>
-      </c>
-      <c r="L33" s="15" t="n">
-        <f t="shared" si="2"/>
-        <v>580.0</v>
-      </c>
-      <c r="M33" s="15" t="n">
-        <f t="shared" si="3"/>
-        <v>580.0</v>
-      </c>
-      <c r="N33" s="15" t="n">
-        <f t="shared" si="4"/>
-        <v>707.0</v>
-      </c>
-      <c r="O33" s="15" t="n">
-        <f t="shared" si="5"/>
-        <v>707.0</v>
-      </c>
-      <c r="P33" s="15" t="n">
-        <f t="shared" si="6"/>
-        <v>92.0</v>
-      </c>
-      <c r="Q33" s="15" t="n">
-        <f t="shared" si="7"/>
-        <v>92.0</v>
-      </c>
-      <c r="R33" s="15" t="n">
-        <f t="shared" si="8"/>
-        <v>80.0</v>
-      </c>
-      <c r="S33" s="15" t="n">
-        <f t="shared" si="9"/>
-        <v>80.0</v>
-      </c>
-      <c r="T33" s="15" t="n">
-        <f t="shared" si="10"/>
-        <v>96.94989106753815</v>
-      </c>
-      <c r="U33" s="15" t="n">
-        <f t="shared" si="11"/>
-        <v>96.94989106753815</v>
-      </c>
-      <c r="V33" s="15" t="n">
-        <f t="shared" si="12"/>
-        <v>96.94989106753815</v>
-      </c>
-      <c r="W33" s="16" t="n">
-        <f t="shared" si="13"/>
-        <v>96.94989106753815</v>
-      </c>
-    </row>
-    <row r="34" ht="30.0" customHeight="true">
-      <c r="A34" t="s" s="45">
+        <v>96.949891067538147</v>
+      </c>
+    </row>
+    <row r="33" ht="30.0" customHeight="true">
+      <c r="A33" t="s" s="32">
+        <v>43</v>
+      </c>
+      <c r="B33" t="s" s="33">
+        <v>47</v>
+      </c>
+      <c r="C33" t="s" s="34">
         <v>91</v>
       </c>
-      <c r="B34" t="s" s="46">
+      <c r="D33" t="s" s="35">
+        <v>21</v>
+      </c>
+      <c r="E33" t="s" s="36">
         <v>92</v>
       </c>
-      <c r="C34" t="s" s="47">
+      <c r="F33" t="s" s="37">
         <v>93</v>
       </c>
-      <c r="D34" t="s" s="48">
+      <c r="G33" t="s" s="38">
         <v>94</v>
       </c>
-      <c r="E34" t="s" s="49">
+      <c r="H33" t="s" s="39">
         <v>95</v>
       </c>
-      <c r="F34" t="s" s="50">
-        <v>96</v>
-      </c>
-      <c r="G34" t="s" s="51">
-        <v>97</v>
-      </c>
-      <c r="H34" t="s" s="52">
-        <v>98</v>
-      </c>
-      <c r="I34" t="n" s="58">
-        <v>2500000.0</v>
-      </c>
-      <c r="J34" t="s" s="54">
-        <v>100</v>
-      </c>
-      <c r="K34" t="n" s="59">
-        <v>3750000.0</v>
-      </c>
-      <c r="L34" t="s" s="56">
-        <v>102</v>
-      </c>
-      <c r="M34" t="n" s="60">
-        <v>4350000.0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A35" s="23"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="26"/>
-      <c r="I35" t="n" s="61">
-        <f>SUM(I2:I34)</f>
-        <v>2520201.034456382</v>
-      </c>
-      <c r="J35" s="26"/>
-      <c r="K35" t="n" s="62">
-        <f>SUM(K2:K34)</f>
-        <v>3780950.0</v>
-      </c>
-      <c r="L35" s="26"/>
-      <c r="M35" t="n" s="63">
-        <f>SUM(M2:M34)</f>
-        <v>4385902.0</v>
-      </c>
-      <c r="N35" s="26"/>
-      <c r="O35" t="n" s="64">
-        <f>SUM(O2:O34)</f>
-        <v>52407.299999999996</v>
-      </c>
-      <c r="P35" s="26"/>
-      <c r="Q35" t="n" s="65">
-        <f>SUM(Q2:Q34)</f>
-        <v>6775.3</v>
-      </c>
-      <c r="R35" s="26"/>
-      <c r="S35" t="n" s="66">
-        <f>SUM(S2:S34)</f>
-        <v>4952.0</v>
-      </c>
-      <c r="T35" s="26"/>
-      <c r="U35" t="n" s="67">
-        <f>SUM(U2:U34)</f>
-        <v>10748.96554361775</v>
-      </c>
-      <c r="V35" s="26"/>
-      <c r="W35" t="n" s="68">
-        <f>SUM(W2:W34)</f>
-        <v>10748.965543617753</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="1"/>
+      <c r="I33" t="s" s="40">
+        <v>95</v>
+      </c>
+      <c r="J33" t="s" s="41">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A34" s="23"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26">
+        <f>SUM(I2:I32)</f>
+        <v>37721.034456382244</v>
+      </c>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26">
+        <f>SUM(K2:K32)</f>
+        <v>60170</v>
+      </c>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26">
+        <f>SUM(M2:M32)</f>
+        <v>69797.2</v>
+      </c>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26">
+        <f>SUM(O2:O32)</f>
+        <v>91826.78</v>
+      </c>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26">
+        <f>SUM(Q2:Q32)</f>
+        <v>11914.580000000002</v>
+      </c>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26">
+        <f>SUM(S2:S32)</f>
+        <v>9627.2000000000007</v>
+      </c>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26">
+        <f>SUM(U2:U32)</f>
+        <v>22448.965543617753</v>
+      </c>
+      <c r="V34" s="26"/>
+      <c r="W34" s="27">
+        <f>SUM(W2:W32)</f>
+        <v>22448.965543617756</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="5"/>
+    </row>
+    <row r="36" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="3"/>
@@ -4299,10 +3910,10 @@
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="5"/>
-    </row>
-    <row r="37" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V36" s="3"/>
+      <c r="W36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -4327,7 +3938,7 @@
       <c r="V37" s="3"/>
       <c r="W37" s="2"/>
     </row>
-    <row r="38" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -4352,7 +3963,7 @@
       <c r="V38" s="3"/>
       <c r="W38" s="2"/>
     </row>
-    <row r="39" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -4377,7 +3988,7 @@
       <c r="V39" s="3"/>
       <c r="W39" s="2"/>
     </row>
-    <row r="40" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -4402,7 +4013,7 @@
       <c r="V40" s="3"/>
       <c r="W40" s="2"/>
     </row>
-    <row r="41" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -4427,7 +4038,7 @@
       <c r="V41" s="3"/>
       <c r="W41" s="2"/>
     </row>
-    <row r="42" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -4452,7 +4063,7 @@
       <c r="V42" s="3"/>
       <c r="W42" s="2"/>
     </row>
-    <row r="43" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -4477,7 +4088,7 @@
       <c r="V43" s="3"/>
       <c r="W43" s="2"/>
     </row>
-    <row r="44" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -4502,7 +4113,7 @@
       <c r="V44" s="3"/>
       <c r="W44" s="2"/>
     </row>
-    <row r="45" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -4527,7 +4138,7 @@
       <c r="V45" s="3"/>
       <c r="W45" s="2"/>
     </row>
-    <row r="46" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -4552,7 +4163,7 @@
       <c r="V46" s="3"/>
       <c r="W46" s="2"/>
     </row>
-    <row r="47" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -4577,7 +4188,7 @@
       <c r="V47" s="3"/>
       <c r="W47" s="2"/>
     </row>
-    <row r="48" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -4602,7 +4213,7 @@
       <c r="V48" s="3"/>
       <c r="W48" s="2"/>
     </row>
-    <row r="49" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -4627,7 +4238,7 @@
       <c r="V49" s="3"/>
       <c r="W49" s="2"/>
     </row>
-    <row r="50" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -4652,7 +4263,7 @@
       <c r="V50" s="3"/>
       <c r="W50" s="2"/>
     </row>
-    <row r="51" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -4677,7 +4288,7 @@
       <c r="V51" s="3"/>
       <c r="W51" s="2"/>
     </row>
-    <row r="52" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -4702,7 +4313,7 @@
       <c r="V52" s="3"/>
       <c r="W52" s="2"/>
     </row>
-    <row r="53" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -4727,7 +4338,7 @@
       <c r="V53" s="3"/>
       <c r="W53" s="2"/>
     </row>
-    <row r="54" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -4752,7 +4363,7 @@
       <c r="V54" s="3"/>
       <c r="W54" s="2"/>
     </row>
-    <row r="55" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -4777,7 +4388,7 @@
       <c r="V55" s="3"/>
       <c r="W55" s="2"/>
     </row>
-    <row r="56" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -4802,7 +4413,7 @@
       <c r="V56" s="3"/>
       <c r="W56" s="2"/>
     </row>
-    <row r="57" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -4827,7 +4438,7 @@
       <c r="V57" s="3"/>
       <c r="W57" s="2"/>
     </row>
-    <row r="58" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -4852,7 +4463,7 @@
       <c r="V58" s="3"/>
       <c r="W58" s="2"/>
     </row>
-    <row r="59" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -4877,7 +4488,7 @@
       <c r="V59" s="3"/>
       <c r="W59" s="2"/>
     </row>
-    <row r="60" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -4902,7 +4513,7 @@
       <c r="V60" s="3"/>
       <c r="W60" s="2"/>
     </row>
-    <row r="61" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -4927,7 +4538,7 @@
       <c r="V61" s="3"/>
       <c r="W61" s="2"/>
     </row>
-    <row r="62" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -4952,7 +4563,7 @@
       <c r="V62" s="3"/>
       <c r="W62" s="2"/>
     </row>
-    <row r="63" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -4977,7 +4588,7 @@
       <c r="V63" s="3"/>
       <c r="W63" s="2"/>
     </row>
-    <row r="64" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -5002,7 +4613,7 @@
       <c r="V64" s="3"/>
       <c r="W64" s="2"/>
     </row>
-    <row r="65" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -5027,7 +4638,7 @@
       <c r="V65" s="3"/>
       <c r="W65" s="2"/>
     </row>
-    <row r="66" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -5052,7 +4663,7 @@
       <c r="V66" s="3"/>
       <c r="W66" s="2"/>
     </row>
-    <row r="67" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -5077,7 +4688,7 @@
       <c r="V67" s="3"/>
       <c r="W67" s="2"/>
     </row>
-    <row r="68" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -5102,7 +4713,7 @@
       <c r="V68" s="3"/>
       <c r="W68" s="2"/>
     </row>
-    <row r="69" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -5127,7 +4738,7 @@
       <c r="V69" s="3"/>
       <c r="W69" s="2"/>
     </row>
-    <row r="70" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -5152,7 +4763,7 @@
       <c r="V70" s="3"/>
       <c r="W70" s="2"/>
     </row>
-    <row r="71" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -5177,7 +4788,7 @@
       <c r="V71" s="3"/>
       <c r="W71" s="2"/>
     </row>
-    <row r="72" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -5202,7 +4813,7 @@
       <c r="V72" s="3"/>
       <c r="W72" s="2"/>
     </row>
-    <row r="73" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -5227,7 +4838,7 @@
       <c r="V73" s="3"/>
       <c r="W73" s="2"/>
     </row>
-    <row r="74" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -5252,7 +4863,7 @@
       <c r="V74" s="3"/>
       <c r="W74" s="2"/>
     </row>
-    <row r="75" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -5277,7 +4888,7 @@
       <c r="V75" s="3"/>
       <c r="W75" s="2"/>
     </row>
-    <row r="76" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -5302,7 +4913,7 @@
       <c r="V76" s="3"/>
       <c r="W76" s="2"/>
     </row>
-    <row r="77" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -5327,7 +4938,7 @@
       <c r="V77" s="3"/>
       <c r="W77" s="2"/>
     </row>
-    <row r="78" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -5352,7 +4963,7 @@
       <c r="V78" s="3"/>
       <c r="W78" s="2"/>
     </row>
-    <row r="79" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -5377,7 +4988,7 @@
       <c r="V79" s="3"/>
       <c r="W79" s="2"/>
     </row>
-    <row r="80" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -5402,7 +5013,7 @@
       <c r="V80" s="3"/>
       <c r="W80" s="2"/>
     </row>
-    <row r="81" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -5427,7 +5038,7 @@
       <c r="V81" s="3"/>
       <c r="W81" s="2"/>
     </row>
-    <row r="82" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -5452,13 +5063,14 @@
       <c r="V82" s="3"/>
       <c r="W82" s="2"/>
     </row>
-    <row r="83" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="4"/>
@@ -5476,7 +5088,7 @@
       <c r="V83" s="3"/>
       <c r="W83" s="2"/>
     </row>
-    <row r="84" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -5501,7 +5113,7 @@
       <c r="V84" s="3"/>
       <c r="W84" s="2"/>
     </row>
-    <row r="85" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -5526,7 +5138,7 @@
       <c r="V85" s="3"/>
       <c r="W85" s="2"/>
     </row>
-    <row r="86" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -5551,7 +5163,7 @@
       <c r="V86" s="3"/>
       <c r="W86" s="2"/>
     </row>
-    <row r="87" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -5576,7 +5188,7 @@
       <c r="V87" s="3"/>
       <c r="W87" s="2"/>
     </row>
-    <row r="88" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -5601,7 +5213,7 @@
       <c r="V88" s="3"/>
       <c r="W88" s="2"/>
     </row>
-    <row r="89" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -5626,7 +5238,7 @@
       <c r="V89" s="3"/>
       <c r="W89" s="2"/>
     </row>
-    <row r="90" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -5651,7 +5263,7 @@
       <c r="V90" s="3"/>
       <c r="W90" s="2"/>
     </row>
-    <row r="91" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -5676,7 +5288,7 @@
       <c r="V91" s="3"/>
       <c r="W91" s="2"/>
     </row>
-    <row r="92" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -5701,7 +5313,7 @@
       <c r="V92" s="3"/>
       <c r="W92" s="2"/>
     </row>
-    <row r="93" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -5726,7 +5338,7 @@
       <c r="V93" s="3"/>
       <c r="W93" s="2"/>
     </row>
-    <row r="94" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -5751,7 +5363,7 @@
       <c r="V94" s="3"/>
       <c r="W94" s="2"/>
     </row>
-    <row r="95" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -5776,7 +5388,7 @@
       <c r="V95" s="3"/>
       <c r="W95" s="2"/>
     </row>
-    <row r="96" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -5801,7 +5413,7 @@
       <c r="V96" s="3"/>
       <c r="W96" s="2"/>
     </row>
-    <row r="97" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -5826,7 +5438,7 @@
       <c r="V97" s="3"/>
       <c r="W97" s="2"/>
     </row>
-    <row r="98" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -5851,7 +5463,7 @@
       <c r="V98" s="3"/>
       <c r="W98" s="2"/>
     </row>
-    <row r="99" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -5876,7 +5488,7 @@
       <c r="V99" s="3"/>
       <c r="W99" s="2"/>
     </row>
-    <row r="100" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -5901,7 +5513,7 @@
       <c r="V100" s="3"/>
       <c r="W100" s="2"/>
     </row>
-    <row r="101" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -5926,7 +5538,7 @@
       <c r="V101" s="3"/>
       <c r="W101" s="2"/>
     </row>
-    <row r="102" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -5951,7 +5563,7 @@
       <c r="V102" s="3"/>
       <c r="W102" s="2"/>
     </row>
-    <row r="103" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -5976,7 +5588,7 @@
       <c r="V103" s="3"/>
       <c r="W103" s="2"/>
     </row>
-    <row r="104" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -6001,7 +5613,7 @@
       <c r="V104" s="3"/>
       <c r="W104" s="2"/>
     </row>
-    <row r="105" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -6026,7 +5638,7 @@
       <c r="V105" s="3"/>
       <c r="W105" s="2"/>
     </row>
-    <row r="106" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -6051,7 +5663,7 @@
       <c r="V106" s="3"/>
       <c r="W106" s="2"/>
     </row>
-    <row r="107" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -6076,7 +5688,7 @@
       <c r="V107" s="3"/>
       <c r="W107" s="2"/>
     </row>
-    <row r="108" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -6101,7 +5713,7 @@
       <c r="V108" s="3"/>
       <c r="W108" s="2"/>
     </row>
-    <row r="109" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -6126,7 +5738,7 @@
       <c r="V109" s="3"/>
       <c r="W109" s="2"/>
     </row>
-    <row r="110" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -6151,7 +5763,7 @@
       <c r="V110" s="3"/>
       <c r="W110" s="2"/>
     </row>
-    <row r="111" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -6176,7 +5788,7 @@
       <c r="V111" s="3"/>
       <c r="W111" s="2"/>
     </row>
-    <row r="112" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -6201,7 +5813,7 @@
       <c r="V112" s="3"/>
       <c r="W112" s="2"/>
     </row>
-    <row r="113" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -6226,7 +5838,7 @@
       <c r="V113" s="3"/>
       <c r="W113" s="2"/>
     </row>
-    <row r="114" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -6251,7 +5863,7 @@
       <c r="V114" s="3"/>
       <c r="W114" s="2"/>
     </row>
-    <row r="115" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -6276,7 +5888,7 @@
       <c r="V115" s="3"/>
       <c r="W115" s="2"/>
     </row>
-    <row r="116" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -6301,7 +5913,7 @@
       <c r="V116" s="3"/>
       <c r="W116" s="2"/>
     </row>
-    <row r="117" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -6326,7 +5938,7 @@
       <c r="V117" s="3"/>
       <c r="W117" s="2"/>
     </row>
-    <row r="118" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -6351,7 +5963,7 @@
       <c r="V118" s="3"/>
       <c r="W118" s="2"/>
     </row>
-    <row r="119" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -6376,7 +5988,7 @@
       <c r="V119" s="3"/>
       <c r="W119" s="2"/>
     </row>
-    <row r="120" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -6401,7 +6013,7 @@
       <c r="V120" s="3"/>
       <c r="W120" s="2"/>
     </row>
-    <row r="121" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -6426,7 +6038,7 @@
       <c r="V121" s="3"/>
       <c r="W121" s="2"/>
     </row>
-    <row r="122" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -6451,7 +6063,7 @@
       <c r="V122" s="3"/>
       <c r="W122" s="2"/>
     </row>
-    <row r="123" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -6476,7 +6088,7 @@
       <c r="V123" s="3"/>
       <c r="W123" s="2"/>
     </row>
-    <row r="124" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -6501,7 +6113,7 @@
       <c r="V124" s="3"/>
       <c r="W124" s="2"/>
     </row>
-    <row r="125" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -6526,7 +6138,7 @@
       <c r="V125" s="3"/>
       <c r="W125" s="2"/>
     </row>
-    <row r="126" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -6551,7 +6163,7 @@
       <c r="V126" s="3"/>
       <c r="W126" s="2"/>
     </row>
-    <row r="127" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -6576,7 +6188,7 @@
       <c r="V127" s="3"/>
       <c r="W127" s="2"/>
     </row>
-    <row r="128" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -6601,7 +6213,7 @@
       <c r="V128" s="3"/>
       <c r="W128" s="2"/>
     </row>
-    <row r="129" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -6626,7 +6238,7 @@
       <c r="V129" s="3"/>
       <c r="W129" s="2"/>
     </row>
-    <row r="130" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -6651,7 +6263,7 @@
       <c r="V130" s="3"/>
       <c r="W130" s="2"/>
     </row>
-    <row r="131" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -6676,7 +6288,7 @@
       <c r="V131" s="3"/>
       <c r="W131" s="2"/>
     </row>
-    <row r="132" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -6701,7 +6313,7 @@
       <c r="V132" s="3"/>
       <c r="W132" s="2"/>
     </row>
-    <row r="133" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -6726,7 +6338,7 @@
       <c r="V133" s="3"/>
       <c r="W133" s="2"/>
     </row>
-    <row r="134" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -6751,7 +6363,7 @@
       <c r="V134" s="3"/>
       <c r="W134" s="2"/>
     </row>
-    <row r="135" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -6776,7 +6388,7 @@
       <c r="V135" s="3"/>
       <c r="W135" s="2"/>
     </row>
-    <row r="136" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -6801,7 +6413,7 @@
       <c r="V136" s="3"/>
       <c r="W136" s="2"/>
     </row>
-    <row r="137" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -6826,7 +6438,7 @@
       <c r="V137" s="3"/>
       <c r="W137" s="2"/>
     </row>
-    <row r="138" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -6851,7 +6463,7 @@
       <c r="V138" s="3"/>
       <c r="W138" s="2"/>
     </row>
-    <row r="139" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -6876,7 +6488,7 @@
       <c r="V139" s="3"/>
       <c r="W139" s="2"/>
     </row>
-    <row r="140" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -6901,7 +6513,7 @@
       <c r="V140" s="3"/>
       <c r="W140" s="2"/>
     </row>
-    <row r="141" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -6926,7 +6538,7 @@
       <c r="V141" s="3"/>
       <c r="W141" s="2"/>
     </row>
-    <row r="142" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -6951,7 +6563,7 @@
       <c r="V142" s="3"/>
       <c r="W142" s="2"/>
     </row>
-    <row r="143" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -6976,7 +6588,7 @@
       <c r="V143" s="3"/>
       <c r="W143" s="2"/>
     </row>
-    <row r="144" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -7001,7 +6613,7 @@
       <c r="V144" s="3"/>
       <c r="W144" s="2"/>
     </row>
-    <row r="145" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -7026,7 +6638,7 @@
       <c r="V145" s="3"/>
       <c r="W145" s="2"/>
     </row>
-    <row r="146" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -7051,7 +6663,7 @@
       <c r="V146" s="3"/>
       <c r="W146" s="2"/>
     </row>
-    <row r="147" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -7076,7 +6688,7 @@
       <c r="V147" s="3"/>
       <c r="W147" s="2"/>
     </row>
-    <row r="148" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -7101,7 +6713,7 @@
       <c r="V148" s="3"/>
       <c r="W148" s="2"/>
     </row>
-    <row r="149" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -7126,7 +6738,7 @@
       <c r="V149" s="3"/>
       <c r="W149" s="2"/>
     </row>
-    <row r="150" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -7151,7 +6763,7 @@
       <c r="V150" s="3"/>
       <c r="W150" s="2"/>
     </row>
-    <row r="151" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -7176,7 +6788,7 @@
       <c r="V151" s="3"/>
       <c r="W151" s="2"/>
     </row>
-    <row r="152" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -7201,7 +6813,7 @@
       <c r="V152" s="3"/>
       <c r="W152" s="2"/>
     </row>
-    <row r="153" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -7226,7 +6838,7 @@
       <c r="V153" s="3"/>
       <c r="W153" s="2"/>
     </row>
-    <row r="154" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -7251,7 +6863,7 @@
       <c r="V154" s="3"/>
       <c r="W154" s="2"/>
     </row>
-    <row r="155" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -7276,7 +6888,7 @@
       <c r="V155" s="3"/>
       <c r="W155" s="2"/>
     </row>
-    <row r="156" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -7301,7 +6913,7 @@
       <c r="V156" s="3"/>
       <c r="W156" s="2"/>
     </row>
-    <row r="157" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -7326,7 +6938,7 @@
       <c r="V157" s="3"/>
       <c r="W157" s="2"/>
     </row>
-    <row r="158" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -7351,7 +6963,7 @@
       <c r="V158" s="3"/>
       <c r="W158" s="2"/>
     </row>
-    <row r="159" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -7376,7 +6988,7 @@
       <c r="V159" s="3"/>
       <c r="W159" s="2"/>
     </row>
-    <row r="160" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -7401,7 +7013,7 @@
       <c r="V160" s="3"/>
       <c r="W160" s="2"/>
     </row>
-    <row r="161" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -7426,7 +7038,7 @@
       <c r="V161" s="3"/>
       <c r="W161" s="2"/>
     </row>
-    <row r="162" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -7451,7 +7063,7 @@
       <c r="V162" s="3"/>
       <c r="W162" s="2"/>
     </row>
-    <row r="163" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -7476,7 +7088,7 @@
       <c r="V163" s="3"/>
       <c r="W163" s="2"/>
     </row>
-    <row r="164" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -7501,7 +7113,7 @@
       <c r="V164" s="3"/>
       <c r="W164" s="2"/>
     </row>
-    <row r="165" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -7526,7 +7138,7 @@
       <c r="V165" s="3"/>
       <c r="W165" s="2"/>
     </row>
-    <row r="166" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -7551,7 +7163,7 @@
       <c r="V166" s="3"/>
       <c r="W166" s="2"/>
     </row>
-    <row r="167" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -7576,7 +7188,7 @@
       <c r="V167" s="3"/>
       <c r="W167" s="2"/>
     </row>
-    <row r="168" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -7601,7 +7213,7 @@
       <c r="V168" s="3"/>
       <c r="W168" s="2"/>
     </row>
-    <row r="169" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -7626,7 +7238,7 @@
       <c r="V169" s="3"/>
       <c r="W169" s="2"/>
     </row>
-    <row r="170" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -7651,7 +7263,7 @@
       <c r="V170" s="3"/>
       <c r="W170" s="2"/>
     </row>
-    <row r="171" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -7676,7 +7288,7 @@
       <c r="V171" s="3"/>
       <c r="W171" s="2"/>
     </row>
-    <row r="172" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -7701,7 +7313,7 @@
       <c r="V172" s="3"/>
       <c r="W172" s="2"/>
     </row>
-    <row r="173" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -7726,7 +7338,7 @@
       <c r="V173" s="3"/>
       <c r="W173" s="2"/>
     </row>
-    <row r="174" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -7751,7 +7363,7 @@
       <c r="V174" s="3"/>
       <c r="W174" s="2"/>
     </row>
-    <row r="175" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -7776,7 +7388,7 @@
       <c r="V175" s="3"/>
       <c r="W175" s="2"/>
     </row>
-    <row r="176" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -7801,7 +7413,7 @@
       <c r="V176" s="3"/>
       <c r="W176" s="2"/>
     </row>
-    <row r="177" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -7826,7 +7438,7 @@
       <c r="V177" s="3"/>
       <c r="W177" s="2"/>
     </row>
-    <row r="178" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -7851,7 +7463,7 @@
       <c r="V178" s="3"/>
       <c r="W178" s="2"/>
     </row>
-    <row r="179" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -7876,7 +7488,7 @@
       <c r="V179" s="3"/>
       <c r="W179" s="2"/>
     </row>
-    <row r="180" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -7901,7 +7513,7 @@
       <c r="V180" s="3"/>
       <c r="W180" s="2"/>
     </row>
-    <row r="181" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -7926,7 +7538,7 @@
       <c r="V181" s="3"/>
       <c r="W181" s="2"/>
     </row>
-    <row r="182" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -7951,7 +7563,7 @@
       <c r="V182" s="3"/>
       <c r="W182" s="2"/>
     </row>
-    <row r="183" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -7976,7 +7588,7 @@
       <c r="V183" s="3"/>
       <c r="W183" s="2"/>
     </row>
-    <row r="184" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -8001,7 +7613,7 @@
       <c r="V184" s="3"/>
       <c r="W184" s="2"/>
     </row>
-    <row r="185" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -8026,7 +7638,7 @@
       <c r="V185" s="3"/>
       <c r="W185" s="2"/>
     </row>
-    <row r="186" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -8051,7 +7663,7 @@
       <c r="V186" s="3"/>
       <c r="W186" s="2"/>
     </row>
-    <row r="187" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -8076,7 +7688,7 @@
       <c r="V187" s="3"/>
       <c r="W187" s="2"/>
     </row>
-    <row r="188" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -8101,7 +7713,7 @@
       <c r="V188" s="3"/>
       <c r="W188" s="2"/>
     </row>
-    <row r="189" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -8126,7 +7738,7 @@
       <c r="V189" s="3"/>
       <c r="W189" s="2"/>
     </row>
-    <row r="190" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -8151,7 +7763,7 @@
       <c r="V190" s="3"/>
       <c r="W190" s="2"/>
     </row>
-    <row r="191" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -8176,7 +7788,7 @@
       <c r="V191" s="3"/>
       <c r="W191" s="2"/>
     </row>
-    <row r="192" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -8201,7 +7813,7 @@
       <c r="V192" s="3"/>
       <c r="W192" s="2"/>
     </row>
-    <row r="193" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -8226,7 +7838,7 @@
       <c r="V193" s="3"/>
       <c r="W193" s="2"/>
     </row>
-    <row r="194" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -8251,7 +7863,7 @@
       <c r="V194" s="3"/>
       <c r="W194" s="2"/>
     </row>
-    <row r="195" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -8276,20 +7888,283 @@
       <c r="V195" s="3"/>
       <c r="W195" s="2"/>
     </row>
-    <row r="196" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="197" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="198" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="199" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="200" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="201" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="202" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="203" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="204" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="205" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="206" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="207" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="208" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="209" ht="45" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="196" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="3"/>
+      <c r="B196" s="2"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="3"/>
+      <c r="E196" s="3"/>
+      <c r="F196" s="3"/>
+      <c r="G196" s="3"/>
+      <c r="H196" s="3"/>
+      <c r="I196" s="3"/>
+      <c r="J196" s="4"/>
+      <c r="K196" s="4"/>
+      <c r="L196" s="4"/>
+      <c r="M196" s="4"/>
+      <c r="N196" s="4"/>
+      <c r="O196" s="4"/>
+      <c r="P196" s="4"/>
+      <c r="Q196" s="4"/>
+      <c r="R196" s="4"/>
+      <c r="S196" s="4"/>
+      <c r="T196" s="4"/>
+      <c r="U196" s="4"/>
+      <c r="V196" s="3"/>
+      <c r="W196" s="2"/>
+    </row>
+    <row r="197" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="3"/>
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="3"/>
+      <c r="E197" s="3"/>
+      <c r="F197" s="3"/>
+      <c r="G197" s="3"/>
+      <c r="H197" s="3"/>
+      <c r="I197" s="3"/>
+      <c r="J197" s="4"/>
+      <c r="K197" s="4"/>
+      <c r="L197" s="4"/>
+      <c r="M197" s="4"/>
+      <c r="N197" s="4"/>
+      <c r="O197" s="4"/>
+      <c r="P197" s="4"/>
+      <c r="Q197" s="4"/>
+      <c r="R197" s="4"/>
+      <c r="S197" s="4"/>
+      <c r="T197" s="4"/>
+      <c r="U197" s="4"/>
+      <c r="V197" s="3"/>
+      <c r="W197" s="2"/>
+    </row>
+    <row r="198" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="3"/>
+      <c r="B198" s="2"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="3"/>
+      <c r="E198" s="3"/>
+      <c r="F198" s="3"/>
+      <c r="G198" s="3"/>
+      <c r="H198" s="3"/>
+      <c r="I198" s="3"/>
+      <c r="J198" s="4"/>
+      <c r="K198" s="4"/>
+      <c r="L198" s="4"/>
+      <c r="M198" s="4"/>
+      <c r="N198" s="4"/>
+      <c r="O198" s="4"/>
+      <c r="P198" s="4"/>
+      <c r="Q198" s="4"/>
+      <c r="R198" s="4"/>
+      <c r="S198" s="4"/>
+      <c r="T198" s="4"/>
+      <c r="U198" s="4"/>
+      <c r="V198" s="3"/>
+      <c r="W198" s="2"/>
+    </row>
+    <row r="199" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="3"/>
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="3"/>
+      <c r="E199" s="3"/>
+      <c r="F199" s="3"/>
+      <c r="G199" s="3"/>
+      <c r="H199" s="3"/>
+      <c r="I199" s="3"/>
+      <c r="J199" s="4"/>
+      <c r="K199" s="4"/>
+      <c r="L199" s="4"/>
+      <c r="M199" s="4"/>
+      <c r="N199" s="4"/>
+      <c r="O199" s="4"/>
+      <c r="P199" s="4"/>
+      <c r="Q199" s="4"/>
+      <c r="R199" s="4"/>
+      <c r="S199" s="4"/>
+      <c r="T199" s="4"/>
+      <c r="U199" s="4"/>
+      <c r="V199" s="3"/>
+      <c r="W199" s="2"/>
+    </row>
+    <row r="200" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="3"/>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="3"/>
+      <c r="E200" s="3"/>
+      <c r="F200" s="3"/>
+      <c r="G200" s="3"/>
+      <c r="H200" s="3"/>
+      <c r="I200" s="3"/>
+      <c r="J200" s="4"/>
+      <c r="K200" s="4"/>
+      <c r="L200" s="4"/>
+      <c r="M200" s="4"/>
+      <c r="N200" s="4"/>
+      <c r="O200" s="4"/>
+      <c r="P200" s="4"/>
+      <c r="Q200" s="4"/>
+      <c r="R200" s="4"/>
+      <c r="S200" s="4"/>
+      <c r="T200" s="4"/>
+      <c r="U200" s="4"/>
+      <c r="V200" s="3"/>
+      <c r="W200" s="2"/>
+    </row>
+    <row r="201" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="3"/>
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="3"/>
+      <c r="E201" s="3"/>
+      <c r="F201" s="3"/>
+      <c r="G201" s="3"/>
+      <c r="H201" s="3"/>
+      <c r="I201" s="3"/>
+      <c r="J201" s="4"/>
+      <c r="K201" s="4"/>
+      <c r="L201" s="4"/>
+      <c r="M201" s="4"/>
+      <c r="N201" s="4"/>
+      <c r="O201" s="4"/>
+      <c r="P201" s="4"/>
+      <c r="Q201" s="4"/>
+      <c r="R201" s="4"/>
+      <c r="S201" s="4"/>
+      <c r="T201" s="4"/>
+      <c r="U201" s="4"/>
+      <c r="V201" s="3"/>
+      <c r="W201" s="2"/>
+    </row>
+    <row r="202" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="3"/>
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="3"/>
+      <c r="E202" s="3"/>
+      <c r="F202" s="3"/>
+      <c r="G202" s="3"/>
+      <c r="H202" s="3"/>
+      <c r="I202" s="3"/>
+      <c r="J202" s="4"/>
+      <c r="K202" s="4"/>
+      <c r="L202" s="4"/>
+      <c r="M202" s="4"/>
+      <c r="N202" s="4"/>
+      <c r="O202" s="4"/>
+      <c r="P202" s="4"/>
+      <c r="Q202" s="4"/>
+      <c r="R202" s="4"/>
+      <c r="S202" s="4"/>
+      <c r="T202" s="4"/>
+      <c r="U202" s="4"/>
+      <c r="V202" s="3"/>
+      <c r="W202" s="2"/>
+    </row>
+    <row r="203" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="3"/>
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="3"/>
+      <c r="E203" s="3"/>
+      <c r="F203" s="3"/>
+      <c r="G203" s="3"/>
+      <c r="H203" s="3"/>
+      <c r="I203" s="3"/>
+      <c r="J203" s="4"/>
+      <c r="K203" s="4"/>
+      <c r="L203" s="4"/>
+      <c r="M203" s="4"/>
+      <c r="N203" s="4"/>
+      <c r="O203" s="4"/>
+      <c r="P203" s="4"/>
+      <c r="Q203" s="4"/>
+      <c r="R203" s="4"/>
+      <c r="S203" s="4"/>
+      <c r="T203" s="4"/>
+      <c r="U203" s="4"/>
+      <c r="V203" s="3"/>
+      <c r="W203" s="2"/>
+    </row>
+    <row r="204" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="3"/>
+      <c r="B204" s="2"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="3"/>
+      <c r="E204" s="3"/>
+      <c r="F204" s="3"/>
+      <c r="G204" s="3"/>
+      <c r="H204" s="3"/>
+      <c r="I204" s="3"/>
+      <c r="J204" s="4"/>
+      <c r="K204" s="4"/>
+      <c r="L204" s="4"/>
+      <c r="M204" s="4"/>
+      <c r="N204" s="4"/>
+      <c r="O204" s="4"/>
+      <c r="P204" s="4"/>
+      <c r="Q204" s="4"/>
+      <c r="R204" s="4"/>
+      <c r="S204" s="4"/>
+      <c r="T204" s="4"/>
+      <c r="U204" s="4"/>
+      <c r="V204" s="3"/>
+      <c r="W204" s="2"/>
+    </row>
+    <row r="205" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="3"/>
+      <c r="B205" s="2"/>
+      <c r="C205" s="2"/>
+      <c r="D205" s="3"/>
+      <c r="E205" s="3"/>
+      <c r="F205" s="3"/>
+      <c r="G205" s="3"/>
+      <c r="H205" s="3"/>
+      <c r="I205" s="3"/>
+      <c r="J205" s="4"/>
+      <c r="K205" s="4"/>
+      <c r="L205" s="4"/>
+      <c r="M205" s="4"/>
+      <c r="N205" s="4"/>
+      <c r="O205" s="4"/>
+      <c r="P205" s="4"/>
+      <c r="Q205" s="4"/>
+      <c r="R205" s="4"/>
+      <c r="S205" s="4"/>
+      <c r="T205" s="4"/>
+      <c r="U205" s="4"/>
+      <c r="V205" s="3"/>
+      <c r="W205" s="2"/>
+    </row>
+    <row r="206" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="3"/>
+      <c r="B206" s="2"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="3"/>
+      <c r="E206" s="3"/>
+      <c r="F206" s="3"/>
+      <c r="G206" s="3"/>
+      <c r="H206" s="3"/>
+      <c r="I206" s="3"/>
+      <c r="J206" s="4"/>
+      <c r="K206" s="4"/>
+      <c r="L206" s="4"/>
+      <c r="M206" s="4"/>
+      <c r="N206" s="4"/>
+      <c r="O206" s="4"/>
+      <c r="P206" s="4"/>
+      <c r="Q206" s="4"/>
+      <c r="R206" s="4"/>
+      <c r="S206" s="4"/>
+      <c r="T206" s="4"/>
+      <c r="U206" s="4"/>
+      <c r="V206" s="3"/>
+      <c r="W206" s="2"/>
+    </row>
+    <row r="207" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="45" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W33">
     <sortCondition ref="A2"/>

--- a/JavaApplication19/src/excel/Inventario.xlsx
+++ b/JavaApplication19/src/excel/Inventario.xlsx
@@ -325,7 +325,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -367,6 +367,96 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -565,7 +655,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -686,6 +776,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="13" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1595,8 +1730,8 @@
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
-      <c r="G7" s="19">
-        <v>61</v>
+      <c r="G7" t="n" s="56">
+        <v>50.0</v>
       </c>
       <c r="H7" s="15">
         <v>27</v>
@@ -2098,8 +2233,8 @@
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
-      <c r="G13" s="19">
-        <v>195</v>
+      <c r="G13" t="n" s="55">
+        <v>191.0</v>
       </c>
       <c r="H13" s="15">
         <v>14.96</v>

--- a/JavaApplication19/src/excel/Inventario.xlsx
+++ b/JavaApplication19/src/excel/Inventario.xlsx
@@ -325,7 +325,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -367,6 +367,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -655,7 +667,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -821,6 +833,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="13" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1225,7 +1243,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC208"/>
+  <dimension ref="A1:AC207"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
@@ -1312,16 +1330,16 @@
     </row>
     <row r="2" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="18">
-        <v>43939</v>
+        <v>43840</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
@@ -1329,50 +1347,50 @@
         <v>1</v>
       </c>
       <c r="H2" s="15">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="I2" s="15">
         <f t="shared" si="0"/>
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="J2" s="15">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="K2" s="15">
         <f t="shared" si="1"/>
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="L2" s="15">
         <f t="shared" si="2"/>
-        <v>440.8</v>
+        <v>324.8</v>
       </c>
       <c r="M2" s="15">
         <f t="shared" si="3"/>
-        <v>440.8</v>
+        <v>324.8</v>
       </c>
       <c r="N2" s="15">
         <f t="shared" si="4"/>
-        <v>546.92000000000007</v>
+        <v>413.52</v>
       </c>
       <c r="O2" s="15">
         <f t="shared" si="5"/>
-        <v>546.92000000000007</v>
+        <v>413.52</v>
       </c>
       <c r="P2" s="15">
         <f t="shared" si="6"/>
-        <v>71.12</v>
+        <v>53.72</v>
       </c>
       <c r="Q2" s="15">
         <f t="shared" si="7"/>
-        <v>71.12</v>
+        <v>53.72</v>
       </c>
       <c r="R2" s="15">
         <f t="shared" si="8"/>
-        <v>60.800000000000004</v>
+        <v>44.800000000000004</v>
       </c>
       <c r="S2" s="15">
         <f t="shared" si="9"/>
-        <v>60.800000000000004</v>
+        <v>44.800000000000004</v>
       </c>
       <c r="T2" s="15">
         <f t="shared" si="10"/>
@@ -1384,927 +1402,933 @@
       </c>
       <c r="V2" s="15">
         <f t="shared" si="12"/>
-        <v>6.3948846218409017E-14</v>
+        <v>0</v>
       </c>
       <c r="W2" s="16">
         <f t="shared" si="13"/>
-        <v>6.3948846218409017E-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="18">
-        <v>43840</v>
-      </c>
-      <c r="D3" s="19" t="s">
+      <c r="A3" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="21">
+        <v>43846</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19">
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22">
         <v>1</v>
       </c>
       <c r="H3" s="15">
-        <v>280</v>
+        <v>4111.59</v>
       </c>
       <c r="I3" s="15">
         <f t="shared" si="0"/>
-        <v>280</v>
+        <v>4111.59</v>
       </c>
       <c r="J3" s="15">
-        <v>280</v>
+        <v>5600</v>
       </c>
       <c r="K3" s="15">
         <f t="shared" si="1"/>
-        <v>280</v>
+        <v>5600</v>
       </c>
       <c r="L3" s="15">
         <f t="shared" si="2"/>
-        <v>324.8</v>
+        <v>6496</v>
       </c>
       <c r="M3" s="15">
         <f t="shared" si="3"/>
-        <v>324.8</v>
+        <v>6496</v>
       </c>
       <c r="N3" s="15">
         <f t="shared" si="4"/>
-        <v>413.52</v>
+        <v>7510.4</v>
       </c>
       <c r="O3" s="15">
         <f t="shared" si="5"/>
-        <v>413.52</v>
+        <v>7510.4</v>
       </c>
       <c r="P3" s="15">
         <f t="shared" si="6"/>
-        <v>53.72</v>
+        <v>979.4</v>
       </c>
       <c r="Q3" s="15">
         <f t="shared" si="7"/>
-        <v>53.72</v>
+        <v>979.4</v>
       </c>
       <c r="R3" s="15">
         <f t="shared" si="8"/>
-        <v>44.800000000000004</v>
+        <v>896</v>
       </c>
       <c r="S3" s="15">
         <f t="shared" si="9"/>
-        <v>44.800000000000004</v>
+        <v>896</v>
       </c>
       <c r="T3" s="15">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1488.4099999999999</v>
       </c>
       <c r="U3" s="15">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1488.4099999999999</v>
       </c>
       <c r="V3" s="15">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1488.4099999999994</v>
       </c>
       <c r="W3" s="16">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1488.4099999999994</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="21">
-        <v>43846</v>
-      </c>
-      <c r="D4" s="22" t="s">
+      <c r="A4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="13">
+        <v>43902</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22">
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14">
         <v>1</v>
       </c>
       <c r="H4" s="15">
-        <v>4111.59</v>
+        <v>10508</v>
       </c>
       <c r="I4" s="15">
         <f t="shared" si="0"/>
-        <v>4111.59</v>
+        <v>10508</v>
       </c>
       <c r="J4" s="15">
-        <v>5600</v>
+        <v>13000</v>
       </c>
       <c r="K4" s="15">
         <f t="shared" si="1"/>
-        <v>5600</v>
+        <v>13000</v>
       </c>
       <c r="L4" s="15">
         <f t="shared" si="2"/>
-        <v>6496</v>
+        <v>15080</v>
       </c>
       <c r="M4" s="15">
         <f t="shared" si="3"/>
-        <v>6496</v>
+        <v>15080</v>
       </c>
       <c r="N4" s="15">
         <f t="shared" si="4"/>
-        <v>7510.4</v>
+        <v>17382</v>
       </c>
       <c r="O4" s="15">
         <f t="shared" si="5"/>
-        <v>7510.4</v>
+        <v>17382</v>
       </c>
       <c r="P4" s="15">
         <f t="shared" si="6"/>
-        <v>979.4</v>
+        <v>2267</v>
       </c>
       <c r="Q4" s="15">
         <f t="shared" si="7"/>
-        <v>979.4</v>
+        <v>2267</v>
       </c>
       <c r="R4" s="15">
         <f t="shared" si="8"/>
-        <v>896</v>
+        <v>2080</v>
       </c>
       <c r="S4" s="15">
         <f t="shared" si="9"/>
-        <v>896</v>
+        <v>2080</v>
       </c>
       <c r="T4" s="15">
         <f t="shared" si="10"/>
-        <v>1488.4099999999999</v>
+        <v>2492</v>
       </c>
       <c r="U4" s="15">
         <f t="shared" si="11"/>
-        <v>1488.4099999999999</v>
+        <v>2492</v>
       </c>
       <c r="V4" s="15">
         <f t="shared" si="12"/>
-        <v>1488.4099999999994</v>
+        <v>2492</v>
       </c>
       <c r="W4" s="16">
         <f t="shared" si="13"/>
-        <v>1488.4099999999994</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="13">
-        <v>43902</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14">
+      <c r="A5" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="30">
+        <v>43984</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31">
         <v>1</v>
       </c>
       <c r="H5" s="15">
-        <v>10508</v>
+        <v>5990</v>
       </c>
       <c r="I5" s="15">
         <f t="shared" si="0"/>
-        <v>10508</v>
+        <v>5990</v>
       </c>
       <c r="J5" s="15">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="K5" s="15">
         <f t="shared" si="1"/>
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L5" s="15">
         <f t="shared" si="2"/>
-        <v>15080</v>
+        <v>17400</v>
       </c>
       <c r="M5" s="15">
         <f t="shared" si="3"/>
-        <v>15080</v>
+        <v>17400</v>
       </c>
       <c r="N5" s="15">
         <f t="shared" si="4"/>
-        <v>17382</v>
+        <v>20050</v>
       </c>
       <c r="O5" s="15">
         <f t="shared" si="5"/>
-        <v>17382</v>
+        <v>20050</v>
       </c>
       <c r="P5" s="15">
         <f t="shared" si="6"/>
-        <v>2267</v>
+        <v>2615</v>
       </c>
       <c r="Q5" s="15">
         <f t="shared" si="7"/>
-        <v>2267</v>
+        <v>2615</v>
       </c>
       <c r="R5" s="15">
         <f t="shared" si="8"/>
-        <v>2080</v>
+        <v>2400</v>
       </c>
       <c r="S5" s="15">
         <f t="shared" si="9"/>
-        <v>2080</v>
+        <v>2400</v>
       </c>
       <c r="T5" s="15">
         <f t="shared" si="10"/>
-        <v>2492</v>
+        <v>9010</v>
       </c>
       <c r="U5" s="15">
         <f t="shared" si="11"/>
-        <v>2492</v>
+        <v>9010</v>
       </c>
       <c r="V5" s="15">
         <f t="shared" si="12"/>
-        <v>2492</v>
+        <v>9010</v>
       </c>
       <c r="W5" s="16">
         <f t="shared" si="13"/>
-        <v>2492</v>
+        <v>9010</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="30">
-        <v>43984</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31">
-        <v>1</v>
+      <c r="A6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="18">
+        <v>43837</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" t="n" s="58">
+        <v>50.0</v>
       </c>
       <c r="H6" s="15">
-        <v>5990</v>
+        <v>27</v>
       </c>
       <c r="I6" s="15">
         <f t="shared" si="0"/>
-        <v>5990</v>
+        <v>1647</v>
       </c>
       <c r="J6" s="15">
-        <v>15000</v>
+        <v>60</v>
       </c>
       <c r="K6" s="15">
         <f t="shared" si="1"/>
-        <v>15000</v>
+        <v>3660</v>
       </c>
       <c r="L6" s="15">
         <f t="shared" si="2"/>
-        <v>17400</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="M6" s="15">
         <f t="shared" si="3"/>
-        <v>17400</v>
+        <v>4245.5999999999995</v>
       </c>
       <c r="N6" s="15">
         <f t="shared" si="4"/>
-        <v>20050</v>
+        <v>120.03999999999999</v>
       </c>
       <c r="O6" s="15">
         <f t="shared" si="5"/>
-        <v>20050</v>
+        <v>7322.44</v>
       </c>
       <c r="P6" s="15">
         <f t="shared" si="6"/>
-        <v>2615</v>
+        <v>15.44</v>
       </c>
       <c r="Q6" s="15">
         <f t="shared" si="7"/>
-        <v>2615</v>
+        <v>941.83999999999992</v>
       </c>
       <c r="R6" s="15">
         <f t="shared" si="8"/>
-        <v>2400</v>
+        <v>9.6</v>
       </c>
       <c r="S6" s="15">
         <f t="shared" si="9"/>
-        <v>2400</v>
+        <v>585.6</v>
       </c>
       <c r="T6" s="15">
         <f t="shared" si="10"/>
-        <v>9010</v>
+        <v>32.999999999999993</v>
       </c>
       <c r="U6" s="15">
         <f t="shared" si="11"/>
-        <v>9010</v>
+        <v>2012.9999999999995</v>
       </c>
       <c r="V6" s="15">
         <f t="shared" si="12"/>
-        <v>9010</v>
+        <v>33</v>
       </c>
       <c r="W6" s="16">
         <f t="shared" si="13"/>
-        <v>9010</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C7" s="18">
-        <v>43837</v>
+        <v>43853</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" t="n" s="56">
-        <v>50.0</v>
+        <v>23</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="19">
+        <f>22950/18500</f>
+        <v>1.2405405405405405</v>
+      </c>
+      <c r="G7" s="19">
+        <v>1</v>
       </c>
       <c r="H7" s="15">
-        <v>27</v>
+        <f>J7/F7</f>
+        <v>1209.1503267973856</v>
       </c>
       <c r="I7" s="15">
         <f t="shared" si="0"/>
-        <v>1647</v>
+        <v>1209.1503267973856</v>
       </c>
       <c r="J7" s="15">
-        <v>60</v>
+        <v>1500</v>
       </c>
       <c r="K7" s="15">
         <f t="shared" si="1"/>
-        <v>3660</v>
+        <v>1500</v>
       </c>
       <c r="L7" s="15">
         <f t="shared" si="2"/>
-        <v>69.599999999999994</v>
+        <v>1740</v>
       </c>
       <c r="M7" s="15">
         <f t="shared" si="3"/>
-        <v>4245.5999999999995</v>
+        <v>1740</v>
       </c>
       <c r="N7" s="15">
         <f t="shared" si="4"/>
-        <v>120.03999999999999</v>
+        <v>2041</v>
       </c>
       <c r="O7" s="15">
         <f t="shared" si="5"/>
-        <v>7322.44</v>
+        <v>2041</v>
       </c>
       <c r="P7" s="15">
         <f t="shared" si="6"/>
-        <v>15.44</v>
+        <v>266</v>
       </c>
       <c r="Q7" s="15">
         <f t="shared" si="7"/>
-        <v>941.83999999999992</v>
+        <v>266</v>
       </c>
       <c r="R7" s="15">
         <f t="shared" si="8"/>
-        <v>9.6</v>
+        <v>240</v>
       </c>
       <c r="S7" s="15">
         <f t="shared" si="9"/>
-        <v>585.6</v>
+        <v>240</v>
       </c>
       <c r="T7" s="15">
         <f t="shared" si="10"/>
-        <v>32.999999999999993</v>
+        <v>290.84967320261444</v>
       </c>
       <c r="U7" s="15">
         <f t="shared" si="11"/>
-        <v>2012.9999999999995</v>
+        <v>290.84967320261444</v>
       </c>
       <c r="V7" s="15">
         <f t="shared" si="12"/>
-        <v>33</v>
+        <v>290.84967320261444</v>
       </c>
       <c r="W7" s="16">
         <f t="shared" si="13"/>
-        <v>2013</v>
+        <v>290.84967320261444</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C8" s="18">
-        <v>43853</v>
+        <v>44018</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19">
+        <v>1</v>
+      </c>
+      <c r="H8" s="15">
+        <v>300</v>
+      </c>
+      <c r="I8" s="15">
+        <v>300</v>
+      </c>
+      <c r="J8" s="15">
+        <v>300</v>
+      </c>
+      <c r="K8" s="15">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="L8" s="15">
+        <f t="shared" si="2"/>
+        <v>348</v>
+      </c>
+      <c r="M8" s="15">
+        <f t="shared" si="3"/>
+        <v>348</v>
+      </c>
+      <c r="N8" s="15">
+        <f t="shared" si="4"/>
+        <v>440.2</v>
+      </c>
+      <c r="O8" s="15">
+        <f t="shared" si="5"/>
+        <v>440.2</v>
+      </c>
+      <c r="P8" s="15">
+        <f t="shared" si="6"/>
+        <v>57.199999999999996</v>
+      </c>
+      <c r="Q8" s="15">
+        <f t="shared" si="7"/>
+        <v>57.199999999999996</v>
+      </c>
+      <c r="R8" s="15">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+      <c r="S8" s="15">
+        <f t="shared" si="9"/>
+        <v>48</v>
+      </c>
+      <c r="T8" s="15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="18">
+        <v>43853</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F9" s="19">
         <f>22950/18500</f>
         <v>1.2405405405405405</v>
       </c>
-      <c r="G8" s="19">
-        <v>1</v>
-      </c>
-      <c r="H8" s="15">
-        <f>J8/F8</f>
-        <v>1209.1503267973856</v>
-      </c>
-      <c r="I8" s="15">
-        <f t="shared" si="0"/>
-        <v>1209.1503267973856</v>
-      </c>
-      <c r="J8" s="15">
-        <v>1500</v>
-      </c>
-      <c r="K8" s="15">
-        <f t="shared" si="1"/>
-        <v>1500</v>
-      </c>
-      <c r="L8" s="15">
-        <f t="shared" si="2"/>
-        <v>1740</v>
-      </c>
-      <c r="M8" s="15">
-        <f t="shared" si="3"/>
-        <v>1740</v>
-      </c>
-      <c r="N8" s="15">
-        <f t="shared" si="4"/>
-        <v>2041</v>
-      </c>
-      <c r="O8" s="15">
-        <f t="shared" si="5"/>
-        <v>2041</v>
-      </c>
-      <c r="P8" s="15">
-        <f t="shared" si="6"/>
-        <v>266</v>
-      </c>
-      <c r="Q8" s="15">
-        <f t="shared" si="7"/>
-        <v>266</v>
-      </c>
-      <c r="R8" s="15">
-        <f t="shared" si="8"/>
-        <v>240</v>
-      </c>
-      <c r="S8" s="15">
-        <f t="shared" si="9"/>
-        <v>240</v>
-      </c>
-      <c r="T8" s="15">
-        <f t="shared" si="10"/>
-        <v>290.84967320261444</v>
-      </c>
-      <c r="U8" s="15">
-        <f t="shared" si="11"/>
-        <v>290.84967320261444</v>
-      </c>
-      <c r="V8" s="15">
-        <f t="shared" si="12"/>
-        <v>290.84967320261444</v>
-      </c>
-      <c r="W8" s="16">
-        <f t="shared" si="13"/>
-        <v>290.84967320261444</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="18">
-        <v>44018</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
       <c r="G9" s="19">
         <v>1</v>
       </c>
       <c r="H9" s="15">
-        <v>300</v>
+        <f>J9/F9</f>
+        <v>322.44008714596953</v>
       </c>
       <c r="I9" s="15">
-        <v>300</v>
+        <f t="shared" ref="I9:I31" si="14">H9*G9</f>
+        <v>322.44008714596953</v>
       </c>
       <c r="J9" s="15">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K9" s="15">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L9" s="15">
         <f t="shared" si="2"/>
-        <v>348</v>
+        <v>464</v>
       </c>
       <c r="M9" s="15">
         <f t="shared" si="3"/>
-        <v>348</v>
+        <v>464</v>
       </c>
       <c r="N9" s="15">
         <f t="shared" si="4"/>
-        <v>440.2</v>
+        <v>573.6</v>
       </c>
       <c r="O9" s="15">
         <f t="shared" si="5"/>
-        <v>440.2</v>
+        <v>573.6</v>
       </c>
       <c r="P9" s="15">
         <f t="shared" si="6"/>
-        <v>57.199999999999996</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="Q9" s="15">
         <f t="shared" si="7"/>
-        <v>57.199999999999996</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="R9" s="15">
         <f t="shared" si="8"/>
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="S9" s="15">
         <f t="shared" si="9"/>
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="T9" s="15">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>77.559912854030472</v>
       </c>
       <c r="U9" s="15">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>77.559912854030472</v>
       </c>
       <c r="V9" s="15">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>77.5599128540305</v>
       </c>
       <c r="W9" s="16">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>77.5599128540305</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="18">
-        <v>43853</v>
+        <v>43837</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F10" s="19">
-        <f>22950/18500</f>
-        <v>1.2405405405405405</v>
+        <f>14600/7500</f>
+        <v>1.9466666666666668</v>
       </c>
       <c r="G10" s="19">
         <v>1</v>
       </c>
       <c r="H10" s="15">
         <f>J10/F10</f>
-        <v>322.44008714596953</v>
+        <v>179.79452054794518</v>
       </c>
       <c r="I10" s="15">
-        <f t="shared" ref="I10:I32" si="14">H10*G10</f>
-        <v>322.44008714596953</v>
+        <f t="shared" si="14"/>
+        <v>179.79452054794518</v>
       </c>
       <c r="J10" s="15">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K10" s="15">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L10" s="15">
         <f t="shared" si="2"/>
-        <v>464</v>
+        <v>406</v>
       </c>
       <c r="M10" s="15">
         <f t="shared" si="3"/>
-        <v>464</v>
+        <v>406</v>
       </c>
       <c r="N10" s="15">
         <f t="shared" si="4"/>
-        <v>573.6</v>
+        <v>506.9</v>
       </c>
       <c r="O10" s="15">
         <f t="shared" si="5"/>
-        <v>573.6</v>
+        <v>506.9</v>
       </c>
       <c r="P10" s="15">
         <f t="shared" si="6"/>
-        <v>74.599999999999994</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="Q10" s="15">
         <f t="shared" si="7"/>
-        <v>74.599999999999994</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="R10" s="15">
         <f t="shared" si="8"/>
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="S10" s="15">
         <f t="shared" si="9"/>
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="T10" s="15">
         <f t="shared" si="10"/>
-        <v>77.559912854030472</v>
+        <v>170.20547945205482</v>
       </c>
       <c r="U10" s="15">
         <f t="shared" si="11"/>
-        <v>77.559912854030472</v>
+        <v>170.20547945205482</v>
       </c>
       <c r="V10" s="15">
         <f t="shared" si="12"/>
-        <v>77.5599128540305</v>
+        <v>170.20547945205476</v>
       </c>
       <c r="W10" s="16">
         <f t="shared" si="13"/>
-        <v>77.5599128540305</v>
+        <v>170.20547945205476</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C11" s="18">
-        <v>43837</v>
+        <v>43840</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19">
+        <v>1</v>
+      </c>
+      <c r="H11" s="15">
+        <v>450</v>
+      </c>
+      <c r="I11" s="15">
+        <f t="shared" si="14"/>
+        <v>450</v>
+      </c>
+      <c r="J11" s="15">
+        <v>450</v>
+      </c>
+      <c r="K11" s="15">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="L11" s="15">
+        <f t="shared" si="2"/>
+        <v>522</v>
+      </c>
+      <c r="M11" s="15">
+        <f t="shared" si="3"/>
+        <v>522</v>
+      </c>
+      <c r="N11" s="15">
+        <f t="shared" si="4"/>
+        <v>640.29999999999995</v>
+      </c>
+      <c r="O11" s="15">
+        <f t="shared" si="5"/>
+        <v>640.29999999999995</v>
+      </c>
+      <c r="P11" s="15">
+        <f t="shared" si="6"/>
+        <v>83.3</v>
+      </c>
+      <c r="Q11" s="15">
+        <f t="shared" si="7"/>
+        <v>83.3</v>
+      </c>
+      <c r="R11" s="15">
+        <f t="shared" si="8"/>
+        <v>72</v>
+      </c>
+      <c r="S11" s="15">
+        <f t="shared" si="9"/>
+        <v>72</v>
+      </c>
+      <c r="T11" s="15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="18">
+        <v>43847</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" t="n" s="55">
+        <v>191.0</v>
+      </c>
+      <c r="H12" s="15">
+        <v>14.96</v>
+      </c>
+      <c r="I12" s="15">
+        <f t="shared" si="14"/>
+        <v>2917.2000000000003</v>
+      </c>
+      <c r="J12" s="15">
+        <v>30</v>
+      </c>
+      <c r="K12" s="15">
+        <f t="shared" si="1"/>
+        <v>5850</v>
+      </c>
+      <c r="L12" s="15">
+        <f t="shared" si="2"/>
+        <v>34.799999999999997</v>
+      </c>
+      <c r="M12" s="15">
+        <f t="shared" si="3"/>
+        <v>6785.9999999999991</v>
+      </c>
+      <c r="N12" s="15">
+        <f t="shared" si="4"/>
+        <v>80.02</v>
+      </c>
+      <c r="O12" s="15">
+        <f t="shared" si="5"/>
+        <v>15603.9</v>
+      </c>
+      <c r="P12" s="15">
+        <f t="shared" si="6"/>
+        <v>10.219999999999999</v>
+      </c>
+      <c r="Q12" s="15">
+        <f t="shared" si="7"/>
+        <v>1992.8999999999999</v>
+      </c>
+      <c r="R12" s="15">
+        <f t="shared" si="8"/>
+        <v>4.8</v>
+      </c>
+      <c r="S12" s="15">
+        <f t="shared" si="9"/>
+        <v>936</v>
+      </c>
+      <c r="T12" s="15">
+        <f t="shared" si="10"/>
+        <v>15.039999999999996</v>
+      </c>
+      <c r="U12" s="15">
+        <f t="shared" si="11"/>
+        <v>2932.7999999999993</v>
+      </c>
+      <c r="V12" s="15">
+        <f t="shared" si="12"/>
+        <v>15.040000000000006</v>
+      </c>
+      <c r="W12" s="16">
+        <f t="shared" si="13"/>
+        <v>2932.8000000000011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="18">
+        <v>43837</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F13" s="19">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G13" s="19">
         <v>1</v>
       </c>
-      <c r="H11" s="15">
-        <f>J11/F11</f>
-        <v>179.79452054794518</v>
-      </c>
-      <c r="I11" s="15">
-        <f t="shared" si="14"/>
-        <v>179.79452054794518</v>
-      </c>
-      <c r="J11" s="15">
-        <v>350</v>
-      </c>
-      <c r="K11" s="15">
-        <f t="shared" si="1"/>
-        <v>350</v>
-      </c>
-      <c r="L11" s="15">
-        <f t="shared" si="2"/>
-        <v>406</v>
-      </c>
-      <c r="M11" s="15">
-        <f t="shared" si="3"/>
-        <v>406</v>
-      </c>
-      <c r="N11" s="15">
-        <f t="shared" si="4"/>
-        <v>506.9</v>
-      </c>
-      <c r="O11" s="15">
-        <f t="shared" si="5"/>
-        <v>506.9</v>
-      </c>
-      <c r="P11" s="15">
-        <f t="shared" si="6"/>
-        <v>65.900000000000006</v>
-      </c>
-      <c r="Q11" s="15">
-        <f t="shared" si="7"/>
-        <v>65.900000000000006</v>
-      </c>
-      <c r="R11" s="15">
-        <f t="shared" si="8"/>
-        <v>56</v>
-      </c>
-      <c r="S11" s="15">
-        <f t="shared" si="9"/>
-        <v>56</v>
-      </c>
-      <c r="T11" s="15">
-        <f t="shared" si="10"/>
-        <v>170.20547945205482</v>
-      </c>
-      <c r="U11" s="15">
-        <f t="shared" si="11"/>
-        <v>170.20547945205482</v>
-      </c>
-      <c r="V11" s="15">
-        <f t="shared" si="12"/>
-        <v>170.20547945205476</v>
-      </c>
-      <c r="W11" s="16">
-        <f t="shared" si="13"/>
-        <v>170.20547945205476</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="18">
-        <v>43840</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19">
-        <v>1</v>
-      </c>
-      <c r="H12" s="15">
-        <v>450</v>
-      </c>
-      <c r="I12" s="15">
-        <f t="shared" si="14"/>
-        <v>450</v>
-      </c>
-      <c r="J12" s="15">
-        <v>450</v>
-      </c>
-      <c r="K12" s="15">
-        <f t="shared" si="1"/>
-        <v>450</v>
-      </c>
-      <c r="L12" s="15">
-        <f t="shared" si="2"/>
-        <v>522</v>
-      </c>
-      <c r="M12" s="15">
-        <f t="shared" si="3"/>
-        <v>522</v>
-      </c>
-      <c r="N12" s="15">
-        <f t="shared" si="4"/>
-        <v>640.29999999999995</v>
-      </c>
-      <c r="O12" s="15">
-        <f t="shared" si="5"/>
-        <v>640.29999999999995</v>
-      </c>
-      <c r="P12" s="15">
-        <f t="shared" si="6"/>
-        <v>83.3</v>
-      </c>
-      <c r="Q12" s="15">
-        <f t="shared" si="7"/>
-        <v>83.3</v>
-      </c>
-      <c r="R12" s="15">
-        <f t="shared" si="8"/>
-        <v>72</v>
-      </c>
-      <c r="S12" s="15">
-        <f t="shared" si="9"/>
-        <v>72</v>
-      </c>
-      <c r="T12" s="15">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U12" s="15">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V12" s="15">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W12" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="18">
-        <v>43847</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" t="n" s="55">
-        <v>191.0</v>
-      </c>
       <c r="H13" s="15">
-        <v>14.96</v>
+        <f>J13/F13</f>
+        <v>256.84931506849313</v>
       </c>
       <c r="I13" s="15">
         <f t="shared" si="14"/>
-        <v>2917.2000000000003</v>
+        <v>256.84931506849313</v>
       </c>
       <c r="J13" s="15">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="K13" s="15">
         <f t="shared" si="1"/>
-        <v>5850</v>
+        <v>500</v>
       </c>
       <c r="L13" s="15">
         <f t="shared" si="2"/>
-        <v>34.799999999999997</v>
+        <v>580</v>
       </c>
       <c r="M13" s="15">
         <f t="shared" si="3"/>
-        <v>6785.9999999999991</v>
+        <v>580</v>
       </c>
       <c r="N13" s="15">
         <f t="shared" si="4"/>
-        <v>80.02</v>
+        <v>707</v>
       </c>
       <c r="O13" s="15">
         <f t="shared" si="5"/>
-        <v>15603.9</v>
+        <v>707</v>
       </c>
       <c r="P13" s="15">
         <f t="shared" si="6"/>
-        <v>10.219999999999999</v>
+        <v>92</v>
       </c>
       <c r="Q13" s="15">
         <f t="shared" si="7"/>
-        <v>1992.8999999999999</v>
+        <v>92</v>
       </c>
       <c r="R13" s="15">
         <f t="shared" si="8"/>
-        <v>4.8</v>
+        <v>80</v>
       </c>
       <c r="S13" s="15">
         <f t="shared" si="9"/>
-        <v>936</v>
+        <v>80</v>
       </c>
       <c r="T13" s="15">
         <f t="shared" si="10"/>
-        <v>15.039999999999996</v>
+        <v>243.15068493150687</v>
       </c>
       <c r="U13" s="15">
         <f t="shared" si="11"/>
-        <v>2932.7999999999993</v>
+        <v>243.15068493150687</v>
       </c>
       <c r="V13" s="15">
         <f t="shared" si="12"/>
-        <v>15.040000000000006</v>
+        <v>243.15068493150687</v>
       </c>
       <c r="W13" s="16">
         <f t="shared" si="13"/>
-        <v>2932.8000000000011</v>
+        <v>243.15068493150687</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="C14" s="18">
         <v>43837</v>
@@ -2324,105 +2348,99 @@
       </c>
       <c r="H14" s="15">
         <f>J14/F14</f>
-        <v>256.84931506849313</v>
+        <v>77.054794520547944</v>
       </c>
       <c r="I14" s="15">
         <f t="shared" si="14"/>
-        <v>256.84931506849313</v>
+        <v>77.054794520547944</v>
       </c>
       <c r="J14" s="15">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="K14" s="15">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="L14" s="15">
         <f t="shared" si="2"/>
-        <v>580</v>
+        <v>174</v>
       </c>
       <c r="M14" s="15">
         <f t="shared" si="3"/>
-        <v>580</v>
+        <v>174</v>
       </c>
       <c r="N14" s="15">
         <f t="shared" si="4"/>
-        <v>707</v>
+        <v>240.1</v>
       </c>
       <c r="O14" s="15">
         <f t="shared" si="5"/>
-        <v>707</v>
+        <v>240.1</v>
       </c>
       <c r="P14" s="15">
         <f t="shared" si="6"/>
-        <v>92</v>
+        <v>31.099999999999998</v>
       </c>
       <c r="Q14" s="15">
         <f t="shared" si="7"/>
-        <v>92</v>
+        <v>31.099999999999998</v>
       </c>
       <c r="R14" s="15">
         <f t="shared" si="8"/>
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="S14" s="15">
         <f t="shared" si="9"/>
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="T14" s="15">
         <f t="shared" si="10"/>
-        <v>243.15068493150687</v>
+        <v>72.945205479452056</v>
       </c>
       <c r="U14" s="15">
         <f t="shared" si="11"/>
-        <v>243.15068493150687</v>
+        <v>72.945205479452056</v>
       </c>
       <c r="V14" s="15">
         <f t="shared" si="12"/>
-        <v>243.15068493150687</v>
+        <v>72.945205479452056</v>
       </c>
       <c r="W14" s="16">
         <f t="shared" si="13"/>
-        <v>243.15068493150687</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
+        <v>72.945205479452056</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="C15" s="18">
         <v>43837</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="19">
-        <f>14600/7500</f>
-        <v>1.9466666666666668</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
       <c r="G15" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="15">
-        <f>J15/F15</f>
-        <v>77.054794520547944</v>
+        <v>50</v>
       </c>
       <c r="I15" s="15">
         <f t="shared" si="14"/>
-        <v>77.054794520547944</v>
+        <v>100</v>
       </c>
       <c r="J15" s="15">
         <v>150</v>
       </c>
       <c r="K15" s="15">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="L15" s="15">
         <f t="shared" si="2"/>
@@ -2430,7 +2448,7 @@
       </c>
       <c r="M15" s="15">
         <f t="shared" si="3"/>
-        <v>174</v>
+        <v>348</v>
       </c>
       <c r="N15" s="15">
         <f t="shared" si="4"/>
@@ -2438,7 +2456,7 @@
       </c>
       <c r="O15" s="15">
         <f t="shared" si="5"/>
-        <v>240.1</v>
+        <v>480.2</v>
       </c>
       <c r="P15" s="15">
         <f t="shared" si="6"/>
@@ -2446,7 +2464,7 @@
       </c>
       <c r="Q15" s="15">
         <f t="shared" si="7"/>
-        <v>31.099999999999998</v>
+        <v>62.199999999999996</v>
       </c>
       <c r="R15" s="15">
         <f t="shared" si="8"/>
@@ -2454,52 +2472,52 @@
       </c>
       <c r="S15" s="15">
         <f t="shared" si="9"/>
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="T15" s="15">
         <f t="shared" si="10"/>
-        <v>72.945205479452056</v>
+        <v>100</v>
       </c>
       <c r="U15" s="15">
         <f t="shared" si="11"/>
-        <v>72.945205479452056</v>
+        <v>200</v>
       </c>
       <c r="V15" s="15">
         <f t="shared" si="12"/>
-        <v>72.945205479452056</v>
+        <v>100</v>
       </c>
       <c r="W15" s="16">
         <f t="shared" si="13"/>
-        <v>72.945205479452056</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="18">
-        <v>43837</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19">
-        <v>2</v>
+      <c r="A16" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="30">
+        <v>43853</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31">
+        <v>1</v>
       </c>
       <c r="H16" s="15">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="I16" s="15">
         <f t="shared" si="14"/>
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J16" s="15">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K16" s="15">
         <f t="shared" si="1"/>
@@ -2507,7 +2525,7 @@
       </c>
       <c r="L16" s="15">
         <f t="shared" si="2"/>
-        <v>174</v>
+        <v>348</v>
       </c>
       <c r="M16" s="15">
         <f t="shared" si="3"/>
@@ -2515,23 +2533,23 @@
       </c>
       <c r="N16" s="15">
         <f t="shared" si="4"/>
-        <v>240.1</v>
+        <v>440.2</v>
       </c>
       <c r="O16" s="15">
         <f t="shared" si="5"/>
-        <v>480.2</v>
+        <v>440.2</v>
       </c>
       <c r="P16" s="15">
         <f t="shared" si="6"/>
-        <v>31.099999999999998</v>
+        <v>57.199999999999996</v>
       </c>
       <c r="Q16" s="15">
         <f t="shared" si="7"/>
-        <v>62.199999999999996</v>
+        <v>57.199999999999996</v>
       </c>
       <c r="R16" s="15">
         <f t="shared" si="8"/>
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="S16" s="15">
         <f t="shared" si="9"/>
@@ -2539,213 +2557,219 @@
       </c>
       <c r="T16" s="15">
         <f t="shared" si="10"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U16" s="15">
         <f t="shared" si="11"/>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V16" s="15">
         <f t="shared" si="12"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W16" s="16">
         <f t="shared" si="13"/>
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="30">
-        <v>43853</v>
-      </c>
-      <c r="D17" s="31" t="s">
+      <c r="A17" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="18">
+        <v>43837</v>
+      </c>
+      <c r="D17" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31">
+      <c r="E17" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="19">
+        <f>14600/7500</f>
+        <v>1.9466666666666668</v>
+      </c>
+      <c r="G17" s="19">
         <v>1</v>
       </c>
       <c r="H17" s="15">
-        <v>300</v>
+        <f>J17/F17</f>
+        <v>205.47945205479451</v>
       </c>
       <c r="I17" s="15">
         <f t="shared" si="14"/>
-        <v>300</v>
+        <v>205.47945205479451</v>
       </c>
       <c r="J17" s="15">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K17" s="15">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L17" s="15">
         <f t="shared" si="2"/>
-        <v>348</v>
+        <v>464</v>
       </c>
       <c r="M17" s="15">
         <f t="shared" si="3"/>
-        <v>348</v>
+        <v>464</v>
       </c>
       <c r="N17" s="15">
         <f t="shared" si="4"/>
-        <v>440.2</v>
+        <v>573.6</v>
       </c>
       <c r="O17" s="15">
         <f t="shared" si="5"/>
-        <v>440.2</v>
+        <v>573.6</v>
       </c>
       <c r="P17" s="15">
         <f t="shared" si="6"/>
-        <v>57.199999999999996</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="Q17" s="15">
         <f t="shared" si="7"/>
-        <v>57.199999999999996</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="R17" s="15">
         <f t="shared" si="8"/>
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="S17" s="15">
         <f t="shared" si="9"/>
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="T17" s="15">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>194.52054794520552</v>
       </c>
       <c r="U17" s="15">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>194.52054794520552</v>
       </c>
       <c r="V17" s="15">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>194.52054794520552</v>
       </c>
       <c r="W17" s="16">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>194.52054794520552</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="C18" s="18">
-        <v>43837</v>
+        <v>43843</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19">
+        <v>1</v>
+      </c>
+      <c r="H18" s="15">
+        <v>250</v>
+      </c>
+      <c r="I18" s="15">
+        <f t="shared" si="14"/>
+        <v>250</v>
+      </c>
+      <c r="J18" s="15">
+        <v>250</v>
+      </c>
+      <c r="K18" s="15">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="L18" s="15">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+      <c r="M18" s="15">
+        <f t="shared" si="3"/>
+        <v>290</v>
+      </c>
+      <c r="N18" s="15">
+        <f t="shared" si="4"/>
+        <v>373.5</v>
+      </c>
+      <c r="O18" s="15">
+        <f t="shared" si="5"/>
+        <v>373.5</v>
+      </c>
+      <c r="P18" s="15">
+        <f t="shared" si="6"/>
+        <v>48.5</v>
+      </c>
+      <c r="Q18" s="15">
+        <f t="shared" si="7"/>
+        <v>48.5</v>
+      </c>
+      <c r="R18" s="15">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="S18" s="15">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="T18" s="15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="18">
+        <v>43843</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F19" s="19">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
-      <c r="G18" s="19">
-        <v>1</v>
-      </c>
-      <c r="H18" s="15">
-        <f>J18/F18</f>
-        <v>205.47945205479451</v>
-      </c>
-      <c r="I18" s="15">
-        <f t="shared" si="14"/>
-        <v>205.47945205479451</v>
-      </c>
-      <c r="J18" s="15">
-        <v>400</v>
-      </c>
-      <c r="K18" s="15">
-        <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="L18" s="15">
-        <f t="shared" si="2"/>
-        <v>464</v>
-      </c>
-      <c r="M18" s="15">
-        <f t="shared" si="3"/>
-        <v>464</v>
-      </c>
-      <c r="N18" s="15">
-        <f t="shared" si="4"/>
-        <v>573.6</v>
-      </c>
-      <c r="O18" s="15">
-        <f t="shared" si="5"/>
-        <v>573.6</v>
-      </c>
-      <c r="P18" s="15">
-        <f t="shared" si="6"/>
-        <v>74.599999999999994</v>
-      </c>
-      <c r="Q18" s="15">
-        <f t="shared" si="7"/>
-        <v>74.599999999999994</v>
-      </c>
-      <c r="R18" s="15">
-        <f t="shared" si="8"/>
-        <v>64</v>
-      </c>
-      <c r="S18" s="15">
-        <f t="shared" si="9"/>
-        <v>64</v>
-      </c>
-      <c r="T18" s="15">
-        <f t="shared" si="10"/>
-        <v>194.52054794520552</v>
-      </c>
-      <c r="U18" s="15">
-        <f t="shared" si="11"/>
-        <v>194.52054794520552</v>
-      </c>
-      <c r="V18" s="15">
-        <f t="shared" si="12"/>
-        <v>194.52054794520552</v>
-      </c>
-      <c r="W18" s="16">
-        <f t="shared" si="13"/>
-        <v>194.52054794520552</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="18">
-        <v>43843</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
       <c r="G19" s="19">
         <v>1</v>
       </c>
       <c r="H19" s="15">
-        <v>250</v>
+        <f>J19/F19</f>
+        <v>128.42465753424656</v>
       </c>
       <c r="I19" s="15">
         <f t="shared" si="14"/>
-        <v>250</v>
+        <v>128.42465753424656</v>
       </c>
       <c r="J19" s="15">
         <v>250</v>
@@ -2788,27 +2812,27 @@
       </c>
       <c r="T19" s="15">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>121.57534246575344</v>
       </c>
       <c r="U19" s="15">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>121.57534246575344</v>
       </c>
       <c r="V19" s="15">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>121.57534246575344</v>
       </c>
       <c r="W19" s="16">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>121.57534246575344</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="C20" s="18">
         <v>43843</v>
@@ -2816,684 +2840,684 @@
       <c r="D20" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19">
+        <v>2</v>
+      </c>
+      <c r="H20" s="15">
+        <v>400</v>
+      </c>
+      <c r="I20" s="15">
+        <f t="shared" si="14"/>
+        <v>800</v>
+      </c>
+      <c r="J20" s="15">
+        <v>400</v>
+      </c>
+      <c r="K20" s="15">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="L20" s="15">
+        <f t="shared" si="2"/>
+        <v>464</v>
+      </c>
+      <c r="M20" s="15">
+        <f t="shared" si="3"/>
+        <v>928</v>
+      </c>
+      <c r="N20" s="15">
+        <f t="shared" si="4"/>
+        <v>573.6</v>
+      </c>
+      <c r="O20" s="15">
+        <f t="shared" si="5"/>
+        <v>1147.2</v>
+      </c>
+      <c r="P20" s="15">
+        <f t="shared" si="6"/>
+        <v>74.599999999999994</v>
+      </c>
+      <c r="Q20" s="15">
+        <f t="shared" si="7"/>
+        <v>149.19999999999999</v>
+      </c>
+      <c r="R20" s="15">
+        <f t="shared" si="8"/>
+        <v>64</v>
+      </c>
+      <c r="S20" s="15">
+        <f t="shared" si="9"/>
+        <v>128</v>
+      </c>
+      <c r="T20" s="15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V20" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W20" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="13">
+        <v>44008</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14">
+        <v>2</v>
+      </c>
+      <c r="H21" s="15">
+        <v>212.5</v>
+      </c>
+      <c r="I21" s="15">
+        <f t="shared" si="14"/>
+        <v>425</v>
+      </c>
+      <c r="J21" s="15">
+        <v>700</v>
+      </c>
+      <c r="K21" s="15">
+        <f t="shared" si="1"/>
+        <v>1400</v>
+      </c>
+      <c r="L21" s="15">
+        <f t="shared" si="2"/>
+        <v>812</v>
+      </c>
+      <c r="M21" s="15">
+        <f t="shared" si="3"/>
+        <v>1624</v>
+      </c>
+      <c r="N21" s="15">
+        <f t="shared" si="4"/>
+        <v>973.8</v>
+      </c>
+      <c r="O21" s="15">
+        <f t="shared" si="5"/>
+        <v>1947.6</v>
+      </c>
+      <c r="P21" s="15">
+        <f t="shared" si="6"/>
+        <v>126.8</v>
+      </c>
+      <c r="Q21" s="15">
+        <f t="shared" si="7"/>
+        <v>253.6</v>
+      </c>
+      <c r="R21" s="15">
+        <f t="shared" si="8"/>
+        <v>112</v>
+      </c>
+      <c r="S21" s="15">
+        <f t="shared" si="9"/>
+        <v>224</v>
+      </c>
+      <c r="T21" s="15">
+        <f t="shared" si="10"/>
+        <v>487.5</v>
+      </c>
+      <c r="U21" s="15">
+        <f t="shared" si="11"/>
+        <v>975</v>
+      </c>
+      <c r="V21" s="15">
+        <f t="shared" si="12"/>
+        <v>487.5</v>
+      </c>
+      <c r="W21" s="16">
+        <f t="shared" si="13"/>
+        <v>975</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="18">
+        <v>43837</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F22" s="19">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G22" s="19">
         <v>1</v>
       </c>
-      <c r="H20" s="15">
-        <f>J20/F20</f>
+      <c r="H22" s="15">
+        <f t="shared" ref="H22:H28" si="15">J22/F22</f>
+        <v>256.84931506849313</v>
+      </c>
+      <c r="I22" s="15">
+        <f t="shared" si="14"/>
+        <v>256.84931506849313</v>
+      </c>
+      <c r="J22" s="15">
+        <v>500</v>
+      </c>
+      <c r="K22" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="L22" s="15">
+        <f t="shared" si="2"/>
+        <v>580</v>
+      </c>
+      <c r="M22" s="15">
+        <f t="shared" si="3"/>
+        <v>580</v>
+      </c>
+      <c r="N22" s="15">
+        <f t="shared" si="4"/>
+        <v>707</v>
+      </c>
+      <c r="O22" s="15">
+        <f t="shared" si="5"/>
+        <v>707</v>
+      </c>
+      <c r="P22" s="15">
+        <f t="shared" si="6"/>
+        <v>92</v>
+      </c>
+      <c r="Q22" s="15">
+        <f t="shared" si="7"/>
+        <v>92</v>
+      </c>
+      <c r="R22" s="15">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="S22" s="15">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="T22" s="15">
+        <f t="shared" si="10"/>
+        <v>243.15068493150687</v>
+      </c>
+      <c r="U22" s="15">
+        <f t="shared" si="11"/>
+        <v>243.15068493150687</v>
+      </c>
+      <c r="V22" s="15">
+        <f t="shared" si="12"/>
+        <v>243.15068493150687</v>
+      </c>
+      <c r="W22" s="16">
+        <f t="shared" si="13"/>
+        <v>243.15068493150687</v>
+      </c>
+      <c r="AC22" s="6"/>
+    </row>
+    <row r="23" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="18">
+        <v>43853</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="19">
+        <f>22950/18500</f>
+        <v>1.2405405405405405</v>
+      </c>
+      <c r="G23" s="19">
+        <v>1</v>
+      </c>
+      <c r="H23" s="15">
+        <f t="shared" si="15"/>
+        <v>282.13507625272331</v>
+      </c>
+      <c r="I23" s="15">
+        <f t="shared" si="14"/>
+        <v>282.13507625272331</v>
+      </c>
+      <c r="J23" s="15">
+        <v>350</v>
+      </c>
+      <c r="K23" s="15">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="L23" s="15">
+        <f t="shared" si="2"/>
+        <v>406</v>
+      </c>
+      <c r="M23" s="15">
+        <f t="shared" si="3"/>
+        <v>406</v>
+      </c>
+      <c r="N23" s="15">
+        <f t="shared" si="4"/>
+        <v>506.9</v>
+      </c>
+      <c r="O23" s="15">
+        <f t="shared" si="5"/>
+        <v>506.9</v>
+      </c>
+      <c r="P23" s="15">
+        <f t="shared" si="6"/>
+        <v>65.900000000000006</v>
+      </c>
+      <c r="Q23" s="15">
+        <f t="shared" si="7"/>
+        <v>65.900000000000006</v>
+      </c>
+      <c r="R23" s="15">
+        <f t="shared" si="8"/>
+        <v>56</v>
+      </c>
+      <c r="S23" s="15">
+        <f t="shared" si="9"/>
+        <v>56</v>
+      </c>
+      <c r="T23" s="15">
+        <f t="shared" si="10"/>
+        <v>67.864923747276691</v>
+      </c>
+      <c r="U23" s="15">
+        <f t="shared" si="11"/>
+        <v>67.864923747276691</v>
+      </c>
+      <c r="V23" s="15">
+        <f t="shared" si="12"/>
+        <v>67.864923747276663</v>
+      </c>
+      <c r="W23" s="16">
+        <f t="shared" si="13"/>
+        <v>67.864923747276663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="18">
+        <v>43837</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="19">
+        <f>14600/7500</f>
+        <v>1.9466666666666668</v>
+      </c>
+      <c r="G24" s="19">
+        <v>1</v>
+      </c>
+      <c r="H24" s="15">
+        <f t="shared" si="15"/>
         <v>128.42465753424656</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I24" s="15">
         <f t="shared" si="14"/>
         <v>128.42465753424656</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J24" s="15">
         <v>250</v>
       </c>
-      <c r="K20" s="15">
+      <c r="K24" s="15">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="L20" s="15">
+      <c r="L24" s="15">
         <f t="shared" si="2"/>
         <v>290</v>
       </c>
-      <c r="M20" s="15">
+      <c r="M24" s="15">
         <f t="shared" si="3"/>
         <v>290</v>
       </c>
-      <c r="N20" s="15">
+      <c r="N24" s="15">
         <f t="shared" si="4"/>
         <v>373.5</v>
       </c>
-      <c r="O20" s="15">
+      <c r="O24" s="15">
         <f t="shared" si="5"/>
         <v>373.5</v>
       </c>
-      <c r="P20" s="15">
+      <c r="P24" s="15">
         <f t="shared" si="6"/>
         <v>48.5</v>
       </c>
-      <c r="Q20" s="15">
+      <c r="Q24" s="15">
         <f t="shared" si="7"/>
         <v>48.5</v>
       </c>
-      <c r="R20" s="15">
+      <c r="R24" s="15">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
-      <c r="S20" s="15">
+      <c r="S24" s="15">
         <f t="shared" si="9"/>
         <v>40</v>
       </c>
-      <c r="T20" s="15">
+      <c r="T24" s="15">
         <f t="shared" si="10"/>
         <v>121.57534246575344</v>
       </c>
-      <c r="U20" s="15">
+      <c r="U24" s="15">
         <f t="shared" si="11"/>
         <v>121.57534246575344</v>
       </c>
-      <c r="V20" s="15">
+      <c r="V24" s="15">
         <f t="shared" si="12"/>
         <v>121.57534246575344</v>
       </c>
-      <c r="W20" s="16">
+      <c r="W24" s="16">
         <f t="shared" si="13"/>
         <v>121.57534246575344</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="18">
-        <v>43843</v>
-      </c>
-      <c r="D21" s="19" t="s">
+    <row r="25" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="18">
+        <v>43853</v>
+      </c>
+      <c r="D25" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19">
-        <v>2</v>
-      </c>
-      <c r="H21" s="15">
-        <v>400</v>
-      </c>
-      <c r="I21" s="15">
+      <c r="E25" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="19">
+        <f>22950/18500</f>
+        <v>1.2405405405405405</v>
+      </c>
+      <c r="G25" s="19">
+        <v>1</v>
+      </c>
+      <c r="H25" s="15">
+        <f t="shared" si="15"/>
+        <v>483.66013071895424</v>
+      </c>
+      <c r="I25" s="15">
         <f t="shared" si="14"/>
-        <v>800</v>
-      </c>
-      <c r="J21" s="15">
-        <v>400</v>
-      </c>
-      <c r="K21" s="15">
+        <v>483.66013071895424</v>
+      </c>
+      <c r="J25" s="15">
+        <v>600</v>
+      </c>
+      <c r="K25" s="15">
         <f t="shared" si="1"/>
-        <v>800</v>
-      </c>
-      <c r="L21" s="15">
+        <v>600</v>
+      </c>
+      <c r="L25" s="15">
         <f t="shared" si="2"/>
-        <v>464</v>
-      </c>
-      <c r="M21" s="15">
+        <v>696</v>
+      </c>
+      <c r="M25" s="15">
         <f t="shared" si="3"/>
-        <v>928</v>
-      </c>
-      <c r="N21" s="15">
+        <v>696</v>
+      </c>
+      <c r="N25" s="15">
         <f t="shared" si="4"/>
-        <v>573.6</v>
-      </c>
-      <c r="O21" s="15">
+        <v>840.4</v>
+      </c>
+      <c r="O25" s="15">
         <f t="shared" si="5"/>
-        <v>1147.2</v>
-      </c>
-      <c r="P21" s="15">
+        <v>840.4</v>
+      </c>
+      <c r="P25" s="15">
         <f t="shared" si="6"/>
-        <v>74.599999999999994</v>
-      </c>
-      <c r="Q21" s="15">
+        <v>109.39999999999999</v>
+      </c>
+      <c r="Q25" s="15">
         <f t="shared" si="7"/>
-        <v>149.19999999999999</v>
-      </c>
-      <c r="R21" s="15">
+        <v>109.39999999999999</v>
+      </c>
+      <c r="R25" s="15">
         <f t="shared" si="8"/>
-        <v>64</v>
-      </c>
-      <c r="S21" s="15">
+        <v>96</v>
+      </c>
+      <c r="S25" s="15">
         <f t="shared" si="9"/>
-        <v>128</v>
-      </c>
-      <c r="T21" s="15">
+        <v>96</v>
+      </c>
+      <c r="T25" s="15">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U21" s="15">
+        <v>116.33986928104576</v>
+      </c>
+      <c r="U25" s="15">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V21" s="15">
+        <v>116.33986928104576</v>
+      </c>
+      <c r="V25" s="15">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W21" s="16">
+        <v>116.33986928104576</v>
+      </c>
+      <c r="W25" s="16">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="13">
-        <v>44008</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14">
-        <v>2</v>
-      </c>
-      <c r="H22" s="15">
-        <v>212.5</v>
-      </c>
-      <c r="I22" s="15">
-        <f t="shared" si="14"/>
-        <v>425</v>
-      </c>
-      <c r="J22" s="15">
-        <v>700</v>
-      </c>
-      <c r="K22" s="15">
-        <f t="shared" si="1"/>
-        <v>1400</v>
-      </c>
-      <c r="L22" s="15">
-        <f t="shared" si="2"/>
-        <v>812</v>
-      </c>
-      <c r="M22" s="15">
-        <f t="shared" si="3"/>
-        <v>1624</v>
-      </c>
-      <c r="N22" s="15">
-        <f t="shared" si="4"/>
-        <v>973.8</v>
-      </c>
-      <c r="O22" s="15">
-        <f t="shared" si="5"/>
-        <v>1947.6</v>
-      </c>
-      <c r="P22" s="15">
-        <f t="shared" si="6"/>
-        <v>126.8</v>
-      </c>
-      <c r="Q22" s="15">
-        <f t="shared" si="7"/>
-        <v>253.6</v>
-      </c>
-      <c r="R22" s="15">
-        <f t="shared" si="8"/>
-        <v>112</v>
-      </c>
-      <c r="S22" s="15">
-        <f t="shared" si="9"/>
-        <v>224</v>
-      </c>
-      <c r="T22" s="15">
-        <f t="shared" si="10"/>
-        <v>487.5</v>
-      </c>
-      <c r="U22" s="15">
-        <f t="shared" si="11"/>
-        <v>975</v>
-      </c>
-      <c r="V22" s="15">
-        <f t="shared" si="12"/>
-        <v>487.5</v>
-      </c>
-      <c r="W22" s="16">
-        <f t="shared" si="13"/>
-        <v>975</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="18">
+        <v>116.33986928104576</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="18">
         <v>43837</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D26" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E26" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F26" s="19">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G26" s="19">
         <v>1</v>
       </c>
-      <c r="H23" s="15">
-        <f t="shared" ref="H23:H29" si="15">J23/F23</f>
-        <v>256.84931506849313</v>
-      </c>
-      <c r="I23" s="15">
+      <c r="H26" s="15">
+        <f t="shared" si="15"/>
+        <v>128.42465753424656</v>
+      </c>
+      <c r="I26" s="15">
         <f t="shared" si="14"/>
-        <v>256.84931506849313</v>
-      </c>
-      <c r="J23" s="15">
+        <v>128.42465753424656</v>
+      </c>
+      <c r="J26" s="15">
+        <v>250</v>
+      </c>
+      <c r="K26" s="15">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="L26" s="15">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+      <c r="M26" s="15">
+        <f t="shared" si="3"/>
+        <v>290</v>
+      </c>
+      <c r="N26" s="15">
+        <f t="shared" si="4"/>
+        <v>373.5</v>
+      </c>
+      <c r="O26" s="15">
+        <f t="shared" si="5"/>
+        <v>373.5</v>
+      </c>
+      <c r="P26" s="15">
+        <f t="shared" si="6"/>
+        <v>48.5</v>
+      </c>
+      <c r="Q26" s="15">
+        <f t="shared" si="7"/>
+        <v>48.5</v>
+      </c>
+      <c r="R26" s="15">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="S26" s="15">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="T26" s="15">
+        <f t="shared" si="10"/>
+        <v>121.57534246575344</v>
+      </c>
+      <c r="U26" s="15">
+        <f t="shared" si="11"/>
+        <v>121.57534246575344</v>
+      </c>
+      <c r="V26" s="15">
+        <f t="shared" si="12"/>
+        <v>121.57534246575344</v>
+      </c>
+      <c r="W26" s="16">
+        <f t="shared" si="13"/>
+        <v>121.57534246575344</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="18">
+        <v>43853</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="19">
+        <f>22950/18500</f>
+        <v>1.2405405405405405</v>
+      </c>
+      <c r="G27" s="19">
+        <v>1</v>
+      </c>
+      <c r="H27" s="15">
+        <f t="shared" si="15"/>
+        <v>403.05010893246185</v>
+      </c>
+      <c r="I27" s="15">
+        <f t="shared" si="14"/>
+        <v>403.05010893246185</v>
+      </c>
+      <c r="J27" s="15">
         <v>500</v>
       </c>
-      <c r="K23" s="15">
+      <c r="K27" s="15">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="L23" s="15">
+      <c r="L27" s="15">
         <f t="shared" si="2"/>
         <v>580</v>
       </c>
-      <c r="M23" s="15">
+      <c r="M27" s="15">
         <f t="shared" si="3"/>
         <v>580</v>
       </c>
-      <c r="N23" s="15">
+      <c r="N27" s="15">
         <f t="shared" si="4"/>
         <v>707</v>
       </c>
-      <c r="O23" s="15">
+      <c r="O27" s="15">
         <f t="shared" si="5"/>
         <v>707</v>
       </c>
-      <c r="P23" s="15">
+      <c r="P27" s="15">
         <f t="shared" si="6"/>
         <v>92</v>
       </c>
-      <c r="Q23" s="15">
+      <c r="Q27" s="15">
         <f t="shared" si="7"/>
         <v>92</v>
       </c>
-      <c r="R23" s="15">
+      <c r="R27" s="15">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="S23" s="15">
+      <c r="S27" s="15">
         <f t="shared" si="9"/>
         <v>80</v>
       </c>
-      <c r="T23" s="15">
-        <f t="shared" si="10"/>
-        <v>243.15068493150687</v>
-      </c>
-      <c r="U23" s="15">
-        <f t="shared" si="11"/>
-        <v>243.15068493150687</v>
-      </c>
-      <c r="V23" s="15">
-        <f t="shared" si="12"/>
-        <v>243.15068493150687</v>
-      </c>
-      <c r="W23" s="16">
-        <f t="shared" si="13"/>
-        <v>243.15068493150687</v>
-      </c>
-      <c r="AC23" s="6"/>
-    </row>
-    <row r="24" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="18">
-        <v>43853</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="19">
-        <f>22950/18500</f>
-        <v>1.2405405405405405</v>
-      </c>
-      <c r="G24" s="19">
-        <v>1</v>
-      </c>
-      <c r="H24" s="15">
-        <f t="shared" si="15"/>
-        <v>282.13507625272331</v>
-      </c>
-      <c r="I24" s="15">
-        <f t="shared" si="14"/>
-        <v>282.13507625272331</v>
-      </c>
-      <c r="J24" s="15">
-        <v>350</v>
-      </c>
-      <c r="K24" s="15">
-        <f t="shared" si="1"/>
-        <v>350</v>
-      </c>
-      <c r="L24" s="15">
-        <f t="shared" si="2"/>
-        <v>406</v>
-      </c>
-      <c r="M24" s="15">
-        <f t="shared" si="3"/>
-        <v>406</v>
-      </c>
-      <c r="N24" s="15">
-        <f t="shared" si="4"/>
-        <v>506.9</v>
-      </c>
-      <c r="O24" s="15">
-        <f t="shared" si="5"/>
-        <v>506.9</v>
-      </c>
-      <c r="P24" s="15">
-        <f t="shared" si="6"/>
-        <v>65.900000000000006</v>
-      </c>
-      <c r="Q24" s="15">
-        <f t="shared" si="7"/>
-        <v>65.900000000000006</v>
-      </c>
-      <c r="R24" s="15">
-        <f t="shared" si="8"/>
-        <v>56</v>
-      </c>
-      <c r="S24" s="15">
-        <f t="shared" si="9"/>
-        <v>56</v>
-      </c>
-      <c r="T24" s="15">
-        <f t="shared" si="10"/>
-        <v>67.864923747276691</v>
-      </c>
-      <c r="U24" s="15">
-        <f t="shared" si="11"/>
-        <v>67.864923747276691</v>
-      </c>
-      <c r="V24" s="15">
-        <f t="shared" si="12"/>
-        <v>67.864923747276663</v>
-      </c>
-      <c r="W24" s="16">
-        <f t="shared" si="13"/>
-        <v>67.864923747276663</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="18">
-        <v>43837</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="19">
-        <f>14600/7500</f>
-        <v>1.9466666666666668</v>
-      </c>
-      <c r="G25" s="19">
-        <v>1</v>
-      </c>
-      <c r="H25" s="15">
-        <f t="shared" si="15"/>
-        <v>128.42465753424656</v>
-      </c>
-      <c r="I25" s="15">
-        <f t="shared" si="14"/>
-        <v>128.42465753424656</v>
-      </c>
-      <c r="J25" s="15">
-        <v>250</v>
-      </c>
-      <c r="K25" s="15">
-        <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-      <c r="L25" s="15">
-        <f t="shared" si="2"/>
-        <v>290</v>
-      </c>
-      <c r="M25" s="15">
-        <f t="shared" si="3"/>
-        <v>290</v>
-      </c>
-      <c r="N25" s="15">
-        <f t="shared" si="4"/>
-        <v>373.5</v>
-      </c>
-      <c r="O25" s="15">
-        <f t="shared" si="5"/>
-        <v>373.5</v>
-      </c>
-      <c r="P25" s="15">
-        <f t="shared" si="6"/>
-        <v>48.5</v>
-      </c>
-      <c r="Q25" s="15">
-        <f t="shared" si="7"/>
-        <v>48.5</v>
-      </c>
-      <c r="R25" s="15">
-        <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="S25" s="15">
-        <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="T25" s="15">
-        <f t="shared" si="10"/>
-        <v>121.57534246575344</v>
-      </c>
-      <c r="U25" s="15">
-        <f t="shared" si="11"/>
-        <v>121.57534246575344</v>
-      </c>
-      <c r="V25" s="15">
-        <f t="shared" si="12"/>
-        <v>121.57534246575344</v>
-      </c>
-      <c r="W25" s="16">
-        <f t="shared" si="13"/>
-        <v>121.57534246575344</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="18">
-        <v>43853</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="19">
-        <f>22950/18500</f>
-        <v>1.2405405405405405</v>
-      </c>
-      <c r="G26" s="19">
-        <v>1</v>
-      </c>
-      <c r="H26" s="15">
-        <f t="shared" si="15"/>
-        <v>483.66013071895424</v>
-      </c>
-      <c r="I26" s="15">
-        <f t="shared" si="14"/>
-        <v>483.66013071895424</v>
-      </c>
-      <c r="J26" s="15">
-        <v>600</v>
-      </c>
-      <c r="K26" s="15">
-        <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
-      <c r="L26" s="15">
-        <f t="shared" si="2"/>
-        <v>696</v>
-      </c>
-      <c r="M26" s="15">
-        <f t="shared" si="3"/>
-        <v>696</v>
-      </c>
-      <c r="N26" s="15">
-        <f t="shared" si="4"/>
-        <v>840.4</v>
-      </c>
-      <c r="O26" s="15">
-        <f t="shared" si="5"/>
-        <v>840.4</v>
-      </c>
-      <c r="P26" s="15">
-        <f t="shared" si="6"/>
-        <v>109.39999999999999</v>
-      </c>
-      <c r="Q26" s="15">
-        <f t="shared" si="7"/>
-        <v>109.39999999999999</v>
-      </c>
-      <c r="R26" s="15">
-        <f t="shared" si="8"/>
-        <v>96</v>
-      </c>
-      <c r="S26" s="15">
-        <f t="shared" si="9"/>
-        <v>96</v>
-      </c>
-      <c r="T26" s="15">
-        <f t="shared" si="10"/>
-        <v>116.33986928104576</v>
-      </c>
-      <c r="U26" s="15">
-        <f t="shared" si="11"/>
-        <v>116.33986928104576</v>
-      </c>
-      <c r="V26" s="15">
-        <f t="shared" si="12"/>
-        <v>116.33986928104576</v>
-      </c>
-      <c r="W26" s="16">
-        <f t="shared" si="13"/>
-        <v>116.33986928104576</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="18">
-        <v>43837</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="19">
-        <f>14600/7500</f>
-        <v>1.9466666666666668</v>
-      </c>
-      <c r="G27" s="19">
-        <v>1</v>
-      </c>
-      <c r="H27" s="15">
-        <f t="shared" si="15"/>
-        <v>128.42465753424656</v>
-      </c>
-      <c r="I27" s="15">
-        <f t="shared" si="14"/>
-        <v>128.42465753424656</v>
-      </c>
-      <c r="J27" s="15">
-        <v>250</v>
-      </c>
-      <c r="K27" s="15">
-        <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-      <c r="L27" s="15">
-        <f t="shared" si="2"/>
-        <v>290</v>
-      </c>
-      <c r="M27" s="15">
-        <f t="shared" si="3"/>
-        <v>290</v>
-      </c>
-      <c r="N27" s="15">
-        <f t="shared" si="4"/>
-        <v>373.5</v>
-      </c>
-      <c r="O27" s="15">
-        <f t="shared" si="5"/>
-        <v>373.5</v>
-      </c>
-      <c r="P27" s="15">
-        <f t="shared" si="6"/>
-        <v>48.5</v>
-      </c>
-      <c r="Q27" s="15">
-        <f t="shared" si="7"/>
-        <v>48.5</v>
-      </c>
-      <c r="R27" s="15">
-        <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="S27" s="15">
-        <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
       <c r="T27" s="15">
         <f t="shared" si="10"/>
-        <v>121.57534246575344</v>
+        <v>96.949891067538147</v>
       </c>
       <c r="U27" s="15">
         <f t="shared" si="11"/>
-        <v>121.57534246575344</v>
+        <v>96.949891067538147</v>
       </c>
       <c r="V27" s="15">
         <f t="shared" si="12"/>
-        <v>121.57534246575344</v>
+        <v>96.949891067538147</v>
       </c>
       <c r="W27" s="16">
         <f t="shared" si="13"/>
-        <v>121.57534246575344</v>
+        <v>96.949891067538147</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C28" s="18">
         <v>43853</v>
@@ -3513,493 +3537,431 @@
       </c>
       <c r="H28" s="15">
         <f t="shared" si="15"/>
-        <v>403.05010893246185</v>
+        <v>967.32026143790847</v>
       </c>
       <c r="I28" s="15">
         <f t="shared" si="14"/>
-        <v>403.05010893246185</v>
+        <v>967.32026143790847</v>
       </c>
       <c r="J28" s="15">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="K28" s="15">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="L28" s="15">
         <f t="shared" si="2"/>
-        <v>580</v>
+        <v>1392</v>
       </c>
       <c r="M28" s="15">
         <f t="shared" si="3"/>
-        <v>580</v>
+        <v>1392</v>
       </c>
       <c r="N28" s="15">
         <f t="shared" si="4"/>
-        <v>707</v>
+        <v>1640.8</v>
       </c>
       <c r="O28" s="15">
         <f t="shared" si="5"/>
-        <v>707</v>
+        <v>1640.8</v>
       </c>
       <c r="P28" s="15">
         <f t="shared" si="6"/>
-        <v>92</v>
+        <v>213.79999999999998</v>
       </c>
       <c r="Q28" s="15">
         <f t="shared" si="7"/>
-        <v>92</v>
+        <v>213.79999999999998</v>
       </c>
       <c r="R28" s="15">
         <f t="shared" si="8"/>
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="S28" s="15">
         <f t="shared" si="9"/>
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="T28" s="15">
         <f t="shared" si="10"/>
-        <v>96.949891067538147</v>
+        <v>232.67973856209153</v>
       </c>
       <c r="U28" s="15">
         <f t="shared" si="11"/>
-        <v>96.949891067538147</v>
+        <v>232.67973856209153</v>
       </c>
       <c r="V28" s="15">
         <f t="shared" si="12"/>
-        <v>96.949891067538147</v>
+        <v>232.67973856209153</v>
       </c>
       <c r="W28" s="16">
         <f t="shared" si="13"/>
-        <v>96.949891067538147</v>
+        <v>232.67973856209153</v>
       </c>
     </row>
     <row r="29" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="18">
+      <c r="A29" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="30">
         <v>43853</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31">
+        <v>1</v>
+      </c>
+      <c r="H29" s="15">
+        <v>2500</v>
+      </c>
+      <c r="I29" s="15">
+        <f t="shared" si="14"/>
+        <v>2500</v>
+      </c>
+      <c r="J29" s="15">
+        <v>2500</v>
+      </c>
+      <c r="K29" s="15">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+      <c r="L29" s="15">
+        <f t="shared" si="2"/>
+        <v>2900</v>
+      </c>
+      <c r="M29" s="15">
+        <f t="shared" si="3"/>
+        <v>2900</v>
+      </c>
+      <c r="N29" s="15">
+        <f t="shared" si="4"/>
+        <v>3375</v>
+      </c>
+      <c r="O29" s="15">
+        <f t="shared" si="5"/>
+        <v>3375</v>
+      </c>
+      <c r="P29" s="15">
+        <f t="shared" si="6"/>
+        <v>440</v>
+      </c>
+      <c r="Q29" s="15">
+        <f t="shared" si="7"/>
+        <v>440</v>
+      </c>
+      <c r="R29" s="15">
+        <f t="shared" si="8"/>
+        <v>400</v>
+      </c>
+      <c r="S29" s="15">
+        <f t="shared" si="9"/>
+        <v>400</v>
+      </c>
+      <c r="T29" s="15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V29" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W29" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="18">
+        <v>43837</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="19">
+        <f>14600/7500</f>
+        <v>1.9466666666666668</v>
+      </c>
+      <c r="G30" s="19">
+        <v>1</v>
+      </c>
+      <c r="H30" s="15">
+        <f>J30/F30</f>
+        <v>1130.1369863013699</v>
+      </c>
+      <c r="I30" s="15">
+        <f t="shared" si="14"/>
+        <v>1130.1369863013699</v>
+      </c>
+      <c r="J30" s="15">
+        <v>2200</v>
+      </c>
+      <c r="K30" s="15">
+        <f t="shared" si="1"/>
+        <v>2200</v>
+      </c>
+      <c r="L30" s="15">
+        <f t="shared" si="2"/>
+        <v>2552</v>
+      </c>
+      <c r="M30" s="15">
+        <f t="shared" si="3"/>
+        <v>2552</v>
+      </c>
+      <c r="N30" s="15">
+        <f t="shared" si="4"/>
+        <v>2974.8</v>
+      </c>
+      <c r="O30" s="15">
+        <f t="shared" si="5"/>
+        <v>2974.8</v>
+      </c>
+      <c r="P30" s="15">
+        <f t="shared" si="6"/>
+        <v>387.8</v>
+      </c>
+      <c r="Q30" s="15">
+        <f t="shared" si="7"/>
+        <v>387.8</v>
+      </c>
+      <c r="R30" s="15">
+        <f t="shared" si="8"/>
+        <v>352</v>
+      </c>
+      <c r="S30" s="15">
+        <f t="shared" si="9"/>
+        <v>352</v>
+      </c>
+      <c r="T30" s="15">
+        <f t="shared" si="10"/>
+        <v>1069.8630136986301</v>
+      </c>
+      <c r="U30" s="15">
+        <f t="shared" si="11"/>
+        <v>1069.8630136986301</v>
+      </c>
+      <c r="V30" s="15">
+        <f t="shared" si="12"/>
+        <v>1069.8630136986303</v>
+      </c>
+      <c r="W30" s="16">
+        <f t="shared" si="13"/>
+        <v>1069.8630136986303</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="18">
+        <v>43853</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F31" s="19">
         <f>22950/18500</f>
         <v>1.2405405405405405</v>
       </c>
-      <c r="G29" s="19">
-        <v>1</v>
-      </c>
-      <c r="H29" s="15">
-        <f t="shared" si="15"/>
-        <v>967.32026143790847</v>
-      </c>
-      <c r="I29" s="15">
-        <f t="shared" si="14"/>
-        <v>967.32026143790847</v>
-      </c>
-      <c r="J29" s="15">
-        <v>1200</v>
-      </c>
-      <c r="K29" s="15">
-        <f t="shared" si="1"/>
-        <v>1200</v>
-      </c>
-      <c r="L29" s="15">
-        <f t="shared" si="2"/>
-        <v>1392</v>
-      </c>
-      <c r="M29" s="15">
-        <f t="shared" si="3"/>
-        <v>1392</v>
-      </c>
-      <c r="N29" s="15">
-        <f t="shared" si="4"/>
-        <v>1640.8</v>
-      </c>
-      <c r="O29" s="15">
-        <f t="shared" si="5"/>
-        <v>1640.8</v>
-      </c>
-      <c r="P29" s="15">
-        <f t="shared" si="6"/>
-        <v>213.79999999999998</v>
-      </c>
-      <c r="Q29" s="15">
-        <f t="shared" si="7"/>
-        <v>213.79999999999998</v>
-      </c>
-      <c r="R29" s="15">
-        <f t="shared" si="8"/>
-        <v>192</v>
-      </c>
-      <c r="S29" s="15">
-        <f t="shared" si="9"/>
-        <v>192</v>
-      </c>
-      <c r="T29" s="15">
-        <f t="shared" si="10"/>
-        <v>232.67973856209153</v>
-      </c>
-      <c r="U29" s="15">
-        <f t="shared" si="11"/>
-        <v>232.67973856209153</v>
-      </c>
-      <c r="V29" s="15">
-        <f t="shared" si="12"/>
-        <v>232.67973856209153</v>
-      </c>
-      <c r="W29" s="16">
-        <f t="shared" si="13"/>
-        <v>232.67973856209153</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" ht="30.0" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A30" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="30">
-        <v>43853</v>
-      </c>
-      <c r="D30" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31">
-        <v>1</v>
-      </c>
-      <c r="H30" s="15">
-        <v>2500</v>
-      </c>
-      <c r="I30" s="15">
-        <f t="shared" si="14"/>
-        <v>2500</v>
-      </c>
-      <c r="J30" s="15">
-        <v>2500</v>
-      </c>
-      <c r="K30" s="15">
-        <f t="shared" si="1"/>
-        <v>2500</v>
-      </c>
-      <c r="L30" s="15">
-        <f t="shared" si="2"/>
-        <v>2900</v>
-      </c>
-      <c r="M30" s="15">
-        <f t="shared" si="3"/>
-        <v>2900</v>
-      </c>
-      <c r="N30" s="15">
-        <f t="shared" si="4"/>
-        <v>3375</v>
-      </c>
-      <c r="O30" s="15">
-        <f t="shared" si="5"/>
- 